--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75FCF365-51F7-7749-B8F3-0BE554C4E239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04551D68-A943-DD4D-A461-4DDE0EB798B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="0" windowWidth="50560" windowHeight="32000" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="304">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Citation</t>
-  </si>
-  <si>
     <t>Article Title</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Does a Theory-of-Value Add Value? Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs</t>
   </si>
   <si>
-    <t>DOI, 36(2), pp. 601-625.</t>
-  </si>
-  <si>
     <t>Amornsiripanitch, N., Gompers, P. A., Hu, G. and Vasudevan, K. (2023)</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Marketing Science</t>
   </si>
   <si>
-    <t>DOI, 43(3), pp. 637-672.</t>
-  </si>
-  <si>
     <t>Andrews, R. J., Fazio, C., Guzman, J., Liu, Y. and Stern, S. (2022)</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>Management Science</t>
   </si>
   <si>
-    <t>DOI, 70(10), pp. 6897-6916.</t>
-  </si>
-  <si>
     <t>Chattopadhyay, S., Honoré, F. and Won, S. (2025)</t>
   </si>
   <si>
@@ -311,9 +299,6 @@
     <t>Leveraged Exchange-Traded Funds with Market Closure and Frictions</t>
   </si>
   <si>
-    <t>DOI, 69(4), pp. 2517-2535.</t>
-  </si>
-  <si>
     <t>Dalziel, M. and Basir, N. (2024)</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management</t>
   </si>
   <si>
-    <t>DOI, 70(12), pp. 8988-9013.</t>
-  </si>
-  <si>
     <t>Fini, R., Jourdan, J., Perkmann, M. and Toschi, L. (2023)</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
     <t>Female Entrepreneurs Targeting Women: Strategic Redirection Under Scientific Decision-Making</t>
   </si>
   <si>
-    <t>DOI, 36(2), pp. 718-736.</t>
-  </si>
-  <si>
     <t>Gimenez-Jimenez, D., Edelman, L. F., Minola, T., Calabrò, A. and Cassia, L. (2021)</t>
   </si>
   <si>
@@ -536,18 +515,12 @@
     <t>Operations Research</t>
   </si>
   <si>
-    <t>DOI, 73(6), pp. 3044-3064.</t>
-  </si>
-  <si>
     <t>Huesmann, K., Ndiaye, Y. S., Waibel, C. and Wiesen, D. (2025)</t>
   </si>
   <si>
     <t>How the Design of Ranking Systems and Ability Affect Physician Effort</t>
   </si>
   <si>
-    <t>DOI, null(null), pp. 1-null.</t>
-  </si>
-  <si>
     <t>Huyghe, A., Knockaert, M. and Obschonka, M. (2016)</t>
   </si>
   <si>
@@ -581,9 +554,6 @@
     <t>Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry</t>
   </si>
   <si>
-    <t>DOI, 36(6), pp. 2435-2458.</t>
-  </si>
-  <si>
     <t>Jung, H., Vissa, B. and Pich, M. (2017)</t>
   </si>
   <si>
@@ -611,9 +581,6 @@
     <t>Learning in Temporary Teams: The Varying Effects of Partner Exposure by Team Member Role</t>
   </si>
   <si>
-    <t>DOI, 34(1), pp. 433-455.</t>
-  </si>
-  <si>
     <t>Lanivich, S. E. (2015)</t>
   </si>
   <si>
@@ -848,18 +815,12 @@
     <t>Converging Tides Lift All Boats: Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors</t>
   </si>
   <si>
-    <t>DOI, 34(6), pp. 2415-2435.</t>
-  </si>
-  <si>
     <t>Souitaris, V., Peng, B., Zerbinati, S. and Shepherd, D. A. (2023)</t>
   </si>
   <si>
     <t>Specialists, Generalists, or Both? Founders' Multidimensional Breadth of Experience and Entrepreneurial Ventures' Fundraising at IPO</t>
   </si>
   <si>
-    <t>DOI, 34(2), pp. 557-588.</t>
-  </si>
-  <si>
     <t>Tijssen, R. J. W. (2018)</t>
   </si>
   <si>
@@ -987,6 +948,9 @@
   </si>
   <si>
     <t>10.1016/j.jbusvent.2020.106007</t>
+  </si>
+  <si>
+    <t>Article Citation</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1333,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H99"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,25 +1351,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,25 +1377,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,25 +1403,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,25 +1429,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1491,25 +1453,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1517,25 +1479,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1543,25 +1505,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1569,25 +1529,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1595,25 +1555,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,25 +1581,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1647,25 +1607,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1673,25 +1633,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1699,25 +1659,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1725,25 +1685,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1751,25 +1711,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1777,25 +1737,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,25 +1763,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1829,25 +1787,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1855,25 +1813,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,25 +1839,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1907,25 +1865,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1933,25 +1891,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1959,25 +1917,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1985,25 +1943,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2011,25 +1969,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,25 +1995,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2063,25 +2019,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2089,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2115,25 +2071,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2141,25 +2097,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2167,25 +2123,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2193,25 +2149,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2219,25 +2175,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2245,25 +2201,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2271,25 +2227,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2297,25 +2253,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2323,25 +2279,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2349,25 +2305,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2375,25 +2329,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2401,25 +2355,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2427,25 +2381,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2453,25 +2407,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2479,25 +2433,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2505,25 +2457,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2531,25 +2483,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2557,25 +2509,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2583,25 +2535,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2609,25 +2561,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2635,25 +2587,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2661,25 +2613,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2687,25 +2637,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2713,25 +2661,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2739,25 +2687,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2765,25 +2713,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2791,25 +2739,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2817,25 +2763,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2843,25 +2789,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2869,25 +2815,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2895,25 +2839,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2921,25 +2865,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2947,25 +2891,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2973,25 +2917,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2999,25 +2943,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3025,25 +2969,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3051,25 +2995,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3077,25 +3021,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3103,25 +3047,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3129,25 +3073,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3155,25 +3099,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3181,25 +3125,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3207,25 +3151,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3233,25 +3177,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3259,25 +3203,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3285,25 +3229,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3311,25 +3255,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3337,25 +3281,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3363,25 +3307,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3389,25 +3333,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3415,25 +3359,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,25 +3385,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3467,25 +3411,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3493,25 +3437,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3519,25 +3463,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3545,25 +3489,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,25 +3513,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>272</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3597,25 +3537,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3623,25 +3563,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3649,25 +3589,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3675,25 +3615,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3701,25 +3641,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3727,25 +3667,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3753,25 +3693,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3779,25 +3719,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3805,25 +3745,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3831,25 +3771,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3857,25 +3797,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3883,25 +3823,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3909,25 +3849,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3935,25 +3875,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04551D68-A943-DD4D-A461-4DDE0EB798B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638ECDA0-9C03-2E4E-8B74-006C08DC25AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="0" windowWidth="50560" windowHeight="32000" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="1540" yWindow="7020" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="330">
   <si>
     <t>#</t>
   </si>
@@ -951,6 +951,84 @@
   </si>
   <si>
     <t>Article Citation</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowing nomenclature and concepts from ecology and evolutionary biology, we apply descriptive exploratory methods to extend our understanding about the complex dynamics of an entrepreneurial ecosystem. We take a holistic approach to ecosystem analysis, and we analyze the evolution of multiple activities (i.e., entry, exit, growth, and survival) within an entrepreneurial ecosystem and the interactions of these activities with the ecosystem actors and resource providers. Applying our approach to nearly the entire population of academic spin-offs in Norway from 2000 to 2015, we generate a number of important findings. By characterizing the dynamics of an entrepreneurial ecosystem, we take a major step towards theorizing the ecosystem perspective. Our findings have important implications for public policies targeted to promote academic entrepreneurship.  </t>
+  </si>
+  <si>
+    <t>Recent scholarship on entrepreneurship suggests that the pre-entry know-how of start-ups, embodied in their founders, affects not only entry, but also performance. Although prior work focuses on new entrants from the focal industry (i.e., employee spinouts) and academic organizations (i.e., university spinoffs), this study identifies and examines a hybrid category of start-ups from downstream user-industries, which we call “user-industry spinouts.” We draw from the literature on evolutionary theory, user innovation, and industrial dynamics to propose that, given the unique combination of knowledge inherited by these entrants, their choices at entry and their ability to survive in the focal industry will differ with respect to other start-ups. We do this by extending existing work on new firm creation to investigate entry and performance in different product markets. Our findings, based on a dataset of start-ups in the semiconductor industry over a 10-year period (1997–2007), show that user-industry spinouts are more likely both to enter and to survive in market-specific product categories. We suggest that the pre-entry knowledge resources of spinouts may support entry and survival across industry boundaries. However, the specific nature of these resources will influence which product markets they choose to enter. Our results have theoretical implications for the literatures on entrepreneurship, industrial dynamics, and strategy.</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>entrepreneurship; evolutionary approaches; strategy and firm performance; user innovation, spinouts</t>
+  </si>
+  <si>
+    <t>Technology ventures, External market actors, Market search, Broadcasting</t>
+  </si>
+  <si>
+    <t>Entrepreneurs making decisions under uncertainty are encouraged to evaluate their initial ideas through hypothesis testing, but entrepreneurial approaches vary in their emphasis on ex-ante theory development prior to collecting evidence. In this paper, we examine whether and how entrepreneurs benefit from adopting an evidence-based approach or a theory-and-evidence-based approach to decision making. We conducted a field experiment with Tanzanian agribusiness entrepreneurs by randomly assigning entrepreneurs to two different training conditions. We find that entrepreneurs in the theory-and-evidence-based con- dition have higher economic performance during the observation period following the intervention. We conjecture this result stems from differences in the types of changes enacted: entrepreneurs in the theory-and-evidence-based training make more coordinated changes that encompass both core and operational elements of their business models.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, experimentation, scientific approach, strategy formation, theory-based view, developing contexts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper analyzes how US universities contribute to the quantity and quality of VC-backed immigrant entrepreneurship in the US. Using a novel data set that identifies immigration status and education history for the near-universe of VC-backed founders in the US, we document several interrelated facts. First, immigrants contribute disproportionately to US VC-backed entrepreneurship, accounting for approximately 20 % of VCbacked companies. More than 75 % of these immigrant entrepreneurs obtained post-secondary education in the US, which suggests that higher education represents a primary entry channel for foreign entrepreneurial talent into the country. Given these facts, we assess how universities shape both the geographic distribution and the quality of immigrant entrepreneurship. Close to 40 % of US-educated immigrants start a company in the state of their alma mater, suggesting that place of education substantially impacts immigrant entrepreneurs' startup location choice. Regarding firm quality, immigrant founders are also more likely to found financially successful and scientifically innovative startups than their US-born counterparts. Altogether, the results suggest that foreign students educated in US universities substantially contribute to local and national VC-backed entrepreneurship, thereby identifying higher education's global scope as a potential tool to attract entrepreneurial talent and encourage entrepreneurial growth. </t>
+  </si>
+  <si>
+    <t>Immigrant, University, Entrepreneurship, Startup, Venture capital</t>
+  </si>
+  <si>
+    <t>Use-inspired science, Clinical scientists, Research grants, Scientific basic research</t>
+  </si>
+  <si>
+    <t>In contexts where the abstract and predictive outcomes of theory-driven research from the lab provide little insight for solving practical problems, use-inspired research is argued to shape advances in science by leading more directly to practice-oriented outcomes. We show that in the biomedical sector, basic research conducted by clinical scientists is significantly more likely to exploit prior insights from the applied literature, and triggers relatively more applied and industrial follow-on research compared to a sample of randomly matched articles. However, clinical scientists’ engagement in the development of this type of practice-oriented and use-inspired basic research is limited due to the intensity of their clinical obligations and patient care. The allocation of a unique fellowship that partly releases these clinical scientists from their clinical burden fosters the development of practice-oriented and use-inspired basic science. These clinical scientists tend to publish more and shift their focus towards the development of scientific basic research that integrates insights from bench and bedside.</t>
+  </si>
+  <si>
+    <t>This paper studies the impact of international business coaching via virtual collaboration technology on the strategies and sales of emerging market entrepreneurs. It sheds light on three novel research questions. (1) What is the effect of virtual business coaching on firm sales? (2) What is the mechanism through which this effect occurs? Specifically, does virtual coaching stimulate shifts in marketing strategy? (3) Do entrepreneurs benefit more from virtual coaching when they are less strategic in their decision making? We conducted a randomized controlled field experiment with 930 entrepreneurs in Uganda to examine the impact of a virtual coaching intervention that connects management professionals in primarily advanced markets and entrepreneurs in emerging markets with the aim of improving business performance. The analysis finds a positive and significant main effect on firm sales; treatment entrepreneurs increase monthly sales by 27.6% on average. In addition, entrepreneurs who receive virtual coaching are 52.8% more likely to have shifted their marketing strategy in a new direction. Moreover, consistent with this mechanism of inducing strategic business changes, the results show that entrepreneurs who receive virtual coaching tend to do better when they (ex ante) lack strategic focus. These results have important implications for the development of marketing strategies by entrepreneurs and multinational managers, as well as for policy makers interested in improving the performance of small firms in emerging markets and beyond.</t>
+  </si>
+  <si>
+    <t>marketing strategy innovation, strategic shift, business model change, pivoting, international business coaching, virtual collaboration technology, COVID-19 and remote work, small firm growth, entrepreneurship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper presents the Startup Cartography Project (SCP), which offers a new set of entrepreneurial ecosystem statistics for the United States from 1988 to 2016. The SCP combines state-level business registration records with a predictive analytics approach to estimate the probability of “extreme” growth (IPO or high-value acquisition) at or near the time of founding for the population of newly-registered firms. The results highlight the ability of predictive analytics to identify highpotential start-ups at founding (using a variety of different approaches and measures). The SCP then leverages estimates of entrepreneurial quality to develop four entrepreneurial ecosystem statistics, including the rate of start-up formation, average entrepreneurial quality, the quality-adjusted quantity of entrepreneurship, and the entrepreneurial ecosystem performance associated with a given start-up “cohort.” These statistics offer sharp insight into patterns of regional entrepreneurship, the correlation of quality (but not quantity) with subsequent regional economic growth and the evolution of entrepreneurial ecosystems over time. The SCP includes both a public-access dataset at the state, MSA, county, and zip code level, as well as an interactive map, the U.S. Startup Map, that allows academic and policy users to assess entrepreneurial ecosystems at an arbitrary level of granularity (from the level of states down to individual street addresses). The SCP and accompanying datasets may be found at: https://www.startupcartography.com/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology ventures, External market actors, Market search, Broadcasting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to succeed, technology ventures need to find a profitable market application for their technology. Although external market actors may provide important information for the identification and validation of potential technology-market combinations, it remains largely unclear how technology ventures can involve them in this process. Building on insights from organizational search literature, this study follows five university spin-offs trying to commercialize earlystage technologies. We find that ventures are cognitively constrained in proactively identifying and approaching external market actors. Interestingly, the better performing ventures in our sample engage in a previously undocumented market search process we label Technology Broadcasting. They communicate their technological competencies to a broad range of market actors and react to these actors' assessment and spontaneous expressions of interest, thereby overcoming their own cognitive constraints. Resource constraints require filtering these expressions of interest through Systematic Validation with additional market players. These results complement the existing insights on market search by entrepreneurial ventures and advance the literature on organizational search. </t>
+  </si>
+  <si>
+    <t>Knowledge spillover, Innovation, Entrepreneurship, Firm age, Firm size</t>
+  </si>
+  <si>
+    <t>This paper extends the knowledge spillover theory of entrepreneurship and innovation to explain how firms of different ages (startups vs. incumbents) and sizes (small vs. medium/large) benefit differently from external knowledge collaboration. Drawing on the distinction between active (formal) and passive (informal) spillovers, we examine how the intensity of knowledge collaboration influences two key innovation outcomes: product innovation and new market entry. Using a panel dataset of 27,685 UK firms (2005–2015), we show that the gains from knowledge spillovers for all types of firms are subject to diminishing marginal returns as collaboration intensity increases, while the findings between startups and incumbents are more nuanced than between small and medium/large firms. The benefits from knowledge spillover of innovation vary by knowledge spillover type, intensity, and mode of engagement, as well as innovation outcome. These findings refine the knowledge spillover theory by emphasizing the importance of firm age over size (entrepreneurial difference) in moderating innovation outcomes.</t>
+  </si>
+  <si>
+    <t>Empathy is a key trait distinguishing social entrepreneurs from traditional entrepreneurs, and an important antecedent of social entrepreneurial (SE) intentions. Yet, little research explains the mechanisms through which empathy motivates SE intentions. We argue that studying the link between the prosocial trait of empathy and the prosocial outcome of SE intentions requires a prosocial lens that traditional entrepreneurial intent theories cannot offer. Building on prosocial motives research, we propose that empathy explains SE intentions through two complementary mechanisms: self-efficacy (an agentic mechanism), and social worth (a communal mechanism). We find support for our hypotheses in a study of 281 university students.</t>
+  </si>
+  <si>
+    <t>Dispositional empathy, Entrepreneurial intentions, Self-efficacy, Social entrepreneurship, Social worth</t>
+  </si>
+  <si>
+    <t>Technology transfer offices, Industry funding, Knowledge spillover, Knowledge transfer, Academic entrepreneurship, Transition</t>
+  </si>
+  <si>
+    <t>There is a paucity of knowledge on research commercialization by university scientists worldwide. The objective of this paper is to identify the role that Technology Transfer Offices (TTOs) and direct Industrial Funding play in university research commercialization in transition economies of Azerbaijan, Belarus and Kazakhstan during 2015–2017. We do this by developing a novel database and a multi-level model which explains how individual attributes, organizational and ecosystem characteristics explain the extent of knowledge commercialization.</t>
+  </si>
+  <si>
+    <t>We apply the generalized Heckman approach to account for two selection biases, reducing the sample from 2602 to 272 scientists, and further use a mixed-method approach to analyse 27 face-to-face interviews with researchers and TTO managers. The results demonstrate that research commercialization is not associated with the existence and awareness of TTO or the establishment of commercialization contracts via TTO, but the direct industrial funding of university research. Taken together the findings have clear implications for scholars, scientific entrepreneurs, TTOs and investors who aim to exploit university knowledge in transition economies.</t>
+  </si>
+  <si>
+    <t>Despite mounting interest in growth mindset interventions, this approach has yet to be applied to the domain of entrepreneurship. In the present research, we developed and tested if a growth mindset intervention could be leveraged to promote students’ entrepreneurial self-efficacy and if this, in turn, predicted career development (i.e., academic interest, career interest, task persistence, and academic performance). We report on our findings, from an Open Science Framework (OSF) preregistered study, that is a randomized controlled trial implementing a growth mindset intervention. We randomly assigned undergraduate students (N = 238) in an introduction to entrepreneurship class to either the growth mindset intervention or to a knowledge-based attention-matched control. Students in the growth mindset intervention, relative to the control, reported greater entrepreneurial self-efficacy and task persistence on their main class project. The intervention also indirectly improved academic and career interest via entrepreneurial self-efficacy. However, the intervention failed to directly or indirectly impact performance on a classroom assignment. Additionally, and somewhat surprisingly, gender and past experience in the field failed to moderate any effects of the intervention on outcomes. Theoretical implications, limitations, and future directions are discussed.</t>
+  </si>
+  <si>
+    <t>growth mindset, self-efficacy, entrepreneurship, career development</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1069,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,23 +1411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="3" max="3" width="96.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="5" width="55.1640625" customWidth="1"/>
+    <col min="6" max="7" width="19" customWidth="1"/>
+    <col min="8" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1357,22 +1437,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,22 +1469,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1409,22 +1501,28 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1435,20 +1533,26 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1459,22 +1563,28 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1485,22 +1595,28 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1511,20 +1627,26 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1535,22 +1657,25 @@
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
       <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1561,22 +1686,28 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1587,22 +1718,28 @@
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1613,22 +1750,28 @@
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1639,22 +1782,28 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
       <c r="H12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1665,22 +1814,26 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>4</v>
       </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1691,22 +1844,28 @@
         <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1716,23 +1875,25 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1742,23 +1903,25 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1768,21 +1931,23 @@
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1792,23 +1957,25 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1818,23 +1985,25 @@
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1844,23 +2013,25 @@
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
       <c r="H20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1870,23 +2041,25 @@
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1896,23 +2069,25 @@
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1922,23 +2097,25 @@
       <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1948,23 +2125,25 @@
       <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1974,23 +2153,25 @@
       <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2000,21 +2181,23 @@
       <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" t="s">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2024,23 +2207,25 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
       <c r="H27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2050,23 +2235,25 @@
       <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2076,23 +2263,25 @@
       <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
       <c r="H29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2102,23 +2291,25 @@
       <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2128,23 +2319,25 @@
       <c r="C31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
       <c r="H31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2154,23 +2347,25 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
       <c r="H32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2180,23 +2375,25 @@
       <c r="C33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
       <c r="H33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2206,23 +2403,25 @@
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2232,23 +2431,25 @@
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
       <c r="H35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2258,23 +2459,25 @@
       <c r="C36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>5</v>
-      </c>
       <c r="H36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2284,23 +2487,25 @@
       <c r="C37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2310,21 +2515,23 @@
       <c r="C38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2334,23 +2541,25 @@
       <c r="C39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
       <c r="H39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2360,23 +2569,25 @@
       <c r="C40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>5</v>
-      </c>
       <c r="H40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2386,23 +2597,25 @@
       <c r="C41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
       <c r="H41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2412,23 +2625,25 @@
       <c r="C42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
       <c r="H42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2438,21 +2653,23 @@
       <c r="C43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" t="s">
         <v>4</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2462,23 +2679,25 @@
       <c r="C44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2488,23 +2707,25 @@
       <c r="C45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
       <c r="H45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2514,23 +2735,25 @@
       <c r="C46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>4</v>
       </c>
-      <c r="G46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2540,23 +2763,25 @@
       <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
       <c r="H47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2566,23 +2791,25 @@
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
       <c r="H48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2592,23 +2819,25 @@
       <c r="C49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
       <c r="H49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2618,21 +2847,23 @@
       <c r="C50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" t="s">
         <v>4</v>
       </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2642,21 +2873,23 @@
       <c r="C51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" t="s">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2666,23 +2899,25 @@
       <c r="C52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2692,23 +2927,25 @@
       <c r="C53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
       <c r="H53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2718,23 +2955,25 @@
       <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>4</v>
       </c>
-      <c r="G54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2744,21 +2983,23 @@
       <c r="C55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" t="s">
         <v>4</v>
       </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2768,23 +3009,25 @@
       <c r="C56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>4</v>
       </c>
-      <c r="G56" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2794,23 +3037,25 @@
       <c r="C57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2820,21 +3065,23 @@
       <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" t="s">
+      <c r="G58" s="1"/>
+      <c r="H58" t="s">
         <v>4</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2844,23 +3091,25 @@
       <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2870,23 +3119,25 @@
       <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
       <c r="H60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2896,23 +3147,25 @@
       <c r="C61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
       <c r="H61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2922,23 +3175,25 @@
       <c r="C62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2948,23 +3203,25 @@
       <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s">
-        <v>5</v>
-      </c>
       <c r="H63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2974,23 +3231,25 @@
       <c r="C64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
       <c r="H64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3000,23 +3259,25 @@
       <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
       <c r="H65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3026,23 +3287,25 @@
       <c r="C66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3052,23 +3315,25 @@
       <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
       <c r="H67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3078,23 +3343,25 @@
       <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>4</v>
       </c>
-      <c r="G68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3104,23 +3371,25 @@
       <c r="C69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
       <c r="H69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3130,23 +3399,25 @@
       <c r="C70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
       <c r="H70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3156,23 +3427,25 @@
       <c r="C71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
       <c r="H71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3182,23 +3455,25 @@
       <c r="C72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
       <c r="H72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3208,23 +3483,25 @@
       <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>4</v>
       </c>
-      <c r="G73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3234,23 +3511,25 @@
       <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>5</v>
-      </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3260,23 +3539,25 @@
       <c r="C75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>4</v>
       </c>
-      <c r="G75" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3286,23 +3567,25 @@
       <c r="C76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>5</v>
-      </c>
       <c r="H76" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3312,23 +3595,25 @@
       <c r="C77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
       <c r="H77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3338,23 +3623,25 @@
       <c r="C78" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
       <c r="H78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3364,23 +3651,25 @@
       <c r="C79" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>5</v>
-      </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3390,23 +3679,25 @@
       <c r="C80" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>5</v>
-      </c>
       <c r="H80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3416,23 +3707,25 @@
       <c r="C81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
       <c r="H81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3442,23 +3735,25 @@
       <c r="C82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>5</v>
-      </c>
       <c r="H82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3468,23 +3763,25 @@
       <c r="C83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>4</v>
       </c>
-      <c r="G83" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3494,21 +3791,23 @@
       <c r="C84" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" t="s">
+      <c r="G84" s="1"/>
+      <c r="H84" t="s">
         <v>4</v>
       </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3518,21 +3817,23 @@
       <c r="C85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" t="s">
+      <c r="G85" s="1"/>
+      <c r="H85" t="s">
         <v>4</v>
       </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3542,23 +3843,25 @@
       <c r="C86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>4</v>
       </c>
-      <c r="G86" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3568,23 +3871,25 @@
       <c r="C87" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
       <c r="H87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3594,23 +3899,25 @@
       <c r="C88" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F88" t="s">
+      <c r="H88" t="s">
         <v>4</v>
       </c>
-      <c r="G88" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3620,23 +3927,25 @@
       <c r="C89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3646,23 +3955,25 @@
       <c r="C90" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H90" t="s">
         <v>4</v>
       </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3672,23 +3983,25 @@
       <c r="C91" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
       <c r="H91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3698,23 +4011,25 @@
       <c r="C92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>5</v>
-      </c>
       <c r="H92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3724,23 +4039,25 @@
       <c r="C93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>5</v>
-      </c>
       <c r="H93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3750,23 +4067,25 @@
       <c r="C94" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
       <c r="H94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3776,23 +4095,25 @@
       <c r="C95" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s">
-        <v>5</v>
-      </c>
       <c r="H95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3802,23 +4123,25 @@
       <c r="C96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F96" t="s">
+      <c r="H96" t="s">
         <v>4</v>
       </c>
-      <c r="G96" t="s">
-        <v>5</v>
-      </c>
-      <c r="H96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3828,23 +4151,25 @@
       <c r="C97" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
       <c r="H97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3854,23 +4179,25 @@
       <c r="C98" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s">
-        <v>5</v>
-      </c>
       <c r="H98" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3880,24 +4207,26 @@
       <c r="C99" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s">
-        <v>5</v>
-      </c>
       <c r="H99" t="s">
         <v>11</v>
       </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H99" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}"/>
+  <autoFilter ref="A1:J99" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638ECDA0-9C03-2E4E-8B74-006C08DC25AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A0B99D-7AB5-BB45-9662-AEB35B17B06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="7020" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="332">
   <si>
     <t>#</t>
   </si>
@@ -1029,6 +1029,12 @@
   </si>
   <si>
     <t>growth mindset, self-efficacy, entrepreneurship, career development</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Commercialization, Gender, Innovation, Social impact, Motivation</t>
+  </si>
+  <si>
+    <t>This study examines gender differences in the social impact and commercial motives for academic entrepreneurship using the National Science Foundation’s Innovation Corps (NSF I-Corps) program. I-Corps provides experiential entrepreneurship training to faculty and graduate student researchers at local I-Corps university sites and through a nationwide program. Since the inception of I-Corps, only 20 % of participants have been women. We first use survey data from one I-Corps university site to show that women had higher social entrepreneurial intentions compared to commercial entrepreneurial intentions, and their social entrepreneurial intentions were higher than men’s. We then extend and generalize this finding by analyzing 1267 publicly available project summaries from the National I-Corps Program from 2011 to 2019. We find that women PIs’ project proposals emphasized social impact significantly more than men, while projects for all PIs emphasized commercial impact to a similar degree. We next ran a field experiment to estimate the causal impact of social impact vs. commercial motives by experimentally manipulating the recruitment email messages inviting researchers to participate in the I-Corps training program. We find that women were more likely to show interest in a social impact version of a message compared to a commercial version, while men showed equal interest in both types of messages. Taken together, our results indicate that women are more interested in pursuing commercialization and entrepreneurship activities when they are tackling societal problems. They suggest that low-cost interventions that emphasize the social impact value of entrepreneurial opportunities may increase gender diversity in entrepreneurship activities.</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1420,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1875,8 +1881,12 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A0B99D-7AB5-BB45-9662-AEB35B17B06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445587E-9AA0-1E48-8289-FFA230C360C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="7020" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="339">
   <si>
     <t>#</t>
   </si>
@@ -1019,12 +1019,6 @@
     <t>Technology transfer offices, Industry funding, Knowledge spillover, Knowledge transfer, Academic entrepreneurship, Transition</t>
   </si>
   <si>
-    <t>There is a paucity of knowledge on research commercialization by university scientists worldwide. The objective of this paper is to identify the role that Technology Transfer Offices (TTOs) and direct Industrial Funding play in university research commercialization in transition economies of Azerbaijan, Belarus and Kazakhstan during 2015–2017. We do this by developing a novel database and a multi-level model which explains how individual attributes, organizational and ecosystem characteristics explain the extent of knowledge commercialization.</t>
-  </si>
-  <si>
-    <t>We apply the generalized Heckman approach to account for two selection biases, reducing the sample from 2602 to 272 scientists, and further use a mixed-method approach to analyse 27 face-to-face interviews with researchers and TTO managers. The results demonstrate that research commercialization is not associated with the existence and awareness of TTO or the establishment of commercialization contracts via TTO, but the direct industrial funding of university research. Taken together the findings have clear implications for scholars, scientific entrepreneurs, TTOs and investors who aim to exploit university knowledge in transition economies.</t>
-  </si>
-  <si>
     <t>Despite mounting interest in growth mindset interventions, this approach has yet to be applied to the domain of entrepreneurship. In the present research, we developed and tested if a growth mindset intervention could be leveraged to promote students’ entrepreneurial self-efficacy and if this, in turn, predicted career development (i.e., academic interest, career interest, task persistence, and academic performance). We report on our findings, from an Open Science Framework (OSF) preregistered study, that is a randomized controlled trial implementing a growth mindset intervention. We randomly assigned undergraduate students (N = 238) in an introduction to entrepreneurship class to either the growth mindset intervention or to a knowledge-based attention-matched control. Students in the growth mindset intervention, relative to the control, reported greater entrepreneurial self-efficacy and task persistence on their main class project. The intervention also indirectly improved academic and career interest via entrepreneurial self-efficacy. However, the intervention failed to directly or indirectly impact performance on a classroom assignment. Additionally, and somewhat surprisingly, gender and past experience in the field failed to moderate any effects of the intervention on outcomes. Theoretical implications, limitations, and future directions are discussed.</t>
   </si>
   <si>
@@ -1035,6 +1029,36 @@
   </si>
   <si>
     <t>This study examines gender differences in the social impact and commercial motives for academic entrepreneurship using the National Science Foundation’s Innovation Corps (NSF I-Corps) program. I-Corps provides experiential entrepreneurship training to faculty and graduate student researchers at local I-Corps university sites and through a nationwide program. Since the inception of I-Corps, only 20 % of participants have been women. We first use survey data from one I-Corps university site to show that women had higher social entrepreneurial intentions compared to commercial entrepreneurial intentions, and their social entrepreneurial intentions were higher than men’s. We then extend and generalize this finding by analyzing 1267 publicly available project summaries from the National I-Corps Program from 2011 to 2019. We find that women PIs’ project proposals emphasized social impact significantly more than men, while projects for all PIs emphasized commercial impact to a similar degree. We next ran a field experiment to estimate the causal impact of social impact vs. commercial motives by experimentally manipulating the recruitment email messages inviting researchers to participate in the I-Corps training program. We find that women were more likely to show interest in a social impact version of a message compared to a commercial version, while men showed equal interest in both types of messages. Taken together, our results indicate that women are more interested in pursuing commercialization and entrepreneurship activities when they are tackling societal problems. They suggest that low-cost interventions that emphasize the social impact value of entrepreneurial opportunities may increase gender diversity in entrepreneurship activities.</t>
+  </si>
+  <si>
+    <t>Knowledge and technology transfer, Industry collaboration, Academia, University, Researchers</t>
+  </si>
+  <si>
+    <t>While recent research indicates that combining scientific and entrepreneurial activities at the level of academic scientists is feasible, the literature has remained muted on the dynamics behind such successful combinations. Indeed, little is known about how researchers avoid conflicts of commitment and conflicts of interest as well as the so-called ‘skewing’ of research agendas. This study, in seeking to address this gap in the literature, analyses the relevance of academics’ strategic approaches to collaborative projects with industry. Based on survey data collected from engineering professors at two European universities (Politecnico di Milano, Italy: n = 117; and KU Leuven, Belgium: n = 70), we analyze whether the scientific yield from collaborative projects with industry depends on the degree of proactiveness, selectiveness and novelty of research topics. We observe that the scientific leverage of collaborating with industrial partners is higher when academics pursue a more proactive strategy and are selective. At the same time, our findings reveal that this impact is indirect: selectiveness and pro-activeness influence the amount of financial resources obtained from industrial partners, while the scientific yield itself is contingent on these resources.</t>
+  </si>
+  <si>
+    <t>smartphone technology, investment, mutual fund, fintech, investor behavior</t>
+  </si>
+  <si>
+    <t>Using proprietary individual-level trading data around a natural experiment— the release of a smartphone trading app by a large investment advisor—this study investigates how smartphone trading technology affects retail investor behavior and mutual fund performance. App adoption by retail investors leads to an increase in investor attention and trading volume. App adopters’ flows become more sensitive to short-term fund returns and market sentiment, resulting in higher aggregate flow volume among adopters. The funds more exposed to the shock experience a greater decline in abnormal returns, likely attributable to higher fund flow volume and liquidity costs. As a result, both adopters and nonadopters experience a decline in their mutual fund investment returns.</t>
+  </si>
+  <si>
+    <t>academic entrepreneur, entrepreneurial team, generality, innovation, market opportunities, problem-solving perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Summary: High-tech startups develop technologies, the market applicability of which can vary widely, enabling startups to target a range of market segments. Using a question-driven approach to contrast startups with and without academic founders, we investigate the difference in the market applicability between the two groups on a sample of 988 startups in the artificial intelligence (AI) field. Our findings reveal that academics' pursuit of basic research drives the creation of general knowledge, which in turn leads to wider market applicability. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain. Our findings highlight the role of problem-formulation and -solving in startups and of academic startups within AI.
+Managerial Summary: Using a sample of 988 startups in the Artificial Intelligence field, we find that startups with at least one academic on their founding team are associated with a higher number of verticals (potential market segments for the technology the startups developed) compared to startups without any academics. Teams with academic founders produce more general publications and patents than others, which drives the association with more verticals. Academics formulate and solve more general problems relative to non-academics, leading to the creation of more general products that are applicable to a broader range of verticals. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain.     </t>
+  </si>
+  <si>
+    <t>There is a paucity of knowledge on research commercialization by university scientists worldwide. The objective of this paper is to identify the role that Technology Transfer Offices (TTOs) and direct Industrial Funding play in university research commercialization in transition economies of Azerbaijan, Belarus and Kazakhstan during 2015–2017. We do this by developing a novel database and a multi-level model which explains how individual attributes, organizational and ecosystem characteristics explain the extent of knowledge commercialization.
+We apply the generalized Heckman approach to account for two selection biases, reducing the sample from 2602 to 272 scientists, and further use a mixed-method approach to analyse 27 face-to-face interviews with researchers and TTO managers. The results demonstrate that research commercialization is not associated with the existence and awareness of TTO or the establishment of commercialization contracts via TTO, but the direct industrial funding of university research. Taken together the findings have clear implications for scholars, scientific entrepreneurs, TTOs and investors who aim to exploit university knowledge in transition economies.</t>
+  </si>
+  <si>
+    <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.
+Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>entrepreneurship; organizational sectors; signaling; venture capital</t>
   </si>
 </sst>
 </file>
@@ -1080,9 +1104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,52 +1442,53 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="5" width="55.1640625" customWidth="1"/>
-    <col min="6" max="7" width="19" customWidth="1"/>
-    <col min="8" max="10" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="55.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19" style="2" customWidth="1"/>
+    <col min="8" max="10" width="7.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1477,7 +1500,7 @@
       <c r="D2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>309</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1486,18 +1509,18 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1518,18 +1541,18 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1548,18 +1571,18 @@
         <v>14</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1580,18 +1603,18 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1612,18 +1635,18 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1642,18 +1665,18 @@
         <v>27</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1671,18 +1694,18 @@
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1703,18 +1726,18 @@
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1735,18 +1758,18 @@
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1767,18 +1790,18 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1788,7 +1811,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>325</v>
@@ -1799,18 +1822,18 @@
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1820,27 +1843,29 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1850,10 +1875,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>49</v>
@@ -1861,18 +1886,18 @@
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1882,10 +1907,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -1893,18 +1918,18 @@
       <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1913,26 +1938,30 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1941,24 +1970,28 @@
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1967,26 +2000,30 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2003,18 +2040,18 @@
       <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2031,18 +2068,18 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2059,18 +2096,18 @@
       <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2087,18 +2124,18 @@
       <c r="G22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2115,18 +2152,18 @@
       <c r="G23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2143,18 +2180,18 @@
       <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2171,18 +2208,18 @@
       <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2197,18 +2234,18 @@
         <v>59</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2225,18 +2262,18 @@
       <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2253,18 +2290,18 @@
       <c r="G28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2281,18 +2318,18 @@
       <c r="G29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2309,18 +2346,18 @@
       <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2337,18 +2374,18 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2365,18 +2402,18 @@
       <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2393,18 +2430,18 @@
       <c r="G33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2421,18 +2458,18 @@
       <c r="G34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2449,18 +2486,18 @@
       <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2477,18 +2514,18 @@
       <c r="G36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2505,18 +2542,18 @@
       <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2531,18 +2568,18 @@
         <v>59</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2559,18 +2596,18 @@
       <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2587,18 +2624,18 @@
       <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2615,18 +2652,18 @@
       <c r="G41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2643,18 +2680,18 @@
       <c r="G42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2669,18 +2706,18 @@
         <v>14</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2697,18 +2734,18 @@
       <c r="G44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="H44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2725,18 +2762,18 @@
       <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="H45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2753,18 +2790,18 @@
       <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2781,18 +2818,18 @@
       <c r="G47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2809,18 +2846,18 @@
       <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="H48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2837,18 +2874,18 @@
       <c r="G49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2863,18 +2900,18 @@
         <v>157</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2889,18 +2926,18 @@
         <v>59</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I51" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2917,18 +2954,18 @@
       <c r="G52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="H52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2945,18 +2982,18 @@
       <c r="G53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="H53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2973,18 +3010,18 @@
       <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="I54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2999,18 +3036,18 @@
         <v>14</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3027,18 +3064,18 @@
       <c r="G56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3055,18 +3092,18 @@
       <c r="G57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="H57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3081,18 +3118,18 @@
         <v>14</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3109,18 +3146,18 @@
       <c r="G59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="H59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3137,18 +3174,18 @@
       <c r="G60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="H60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3165,18 +3202,18 @@
       <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="H61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3193,18 +3230,18 @@
       <c r="G62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="H62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3221,18 +3258,18 @@
       <c r="G63" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="H63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3249,18 +3286,18 @@
       <c r="G64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="H64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3277,18 +3314,18 @@
       <c r="G65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="H65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3305,18 +3342,18 @@
       <c r="G66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I66" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="I66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3333,18 +3370,18 @@
       <c r="G67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="H67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -3361,18 +3398,18 @@
       <c r="G68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="I68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3389,18 +3426,18 @@
       <c r="G69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="H69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3417,18 +3454,18 @@
       <c r="G70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="H70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3445,18 +3482,18 @@
       <c r="G71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="H71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -3473,18 +3510,18 @@
       <c r="G72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="H72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -3501,18 +3538,18 @@
       <c r="G73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I73" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="I73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -3529,18 +3566,18 @@
       <c r="G74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="H74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -3557,18 +3594,18 @@
       <c r="G75" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I75" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="I75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3585,18 +3622,18 @@
       <c r="G76" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="H76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -3613,18 +3650,18 @@
       <c r="G77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="H77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3641,18 +3678,18 @@
       <c r="G78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="H78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3669,18 +3706,18 @@
       <c r="G79" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="H79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -3697,18 +3734,18 @@
       <c r="G80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="H80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3725,18 +3762,18 @@
       <c r="G81" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="H81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3753,18 +3790,18 @@
       <c r="G82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" t="s">
-        <v>5</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="H82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3781,18 +3818,18 @@
       <c r="G83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I83" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="I83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3807,18 +3844,18 @@
         <v>14</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" t="s">
+      <c r="H84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="I84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3833,18 +3870,18 @@
         <v>14</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" t="s">
+      <c r="H85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I85" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="I85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3861,18 +3898,18 @@
       <c r="G86" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I86" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="I86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3889,18 +3926,18 @@
       <c r="G87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="H87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3917,18 +3954,18 @@
       <c r="G88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I88" t="s">
-        <v>5</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="I88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3945,18 +3982,18 @@
       <c r="G89" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="H89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3973,18 +4010,18 @@
       <c r="G90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="I90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4001,18 +4038,18 @@
       <c r="G91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="H91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4029,18 +4066,18 @@
       <c r="G92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" t="s">
-        <v>5</v>
-      </c>
-      <c r="J92" t="s">
+      <c r="H92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4057,18 +4094,18 @@
       <c r="G93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" t="s">
-        <v>5</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="H93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4085,18 +4122,18 @@
       <c r="G94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4113,18 +4150,18 @@
       <c r="G95" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" t="s">
-        <v>5</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="H95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4141,18 +4178,18 @@
       <c r="G96" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I96" t="s">
-        <v>5</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="I96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4169,18 +4206,18 @@
       <c r="G97" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" t="s">
+      <c r="H97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4197,18 +4234,18 @@
       <c r="G98" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="H98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4225,13 +4262,13 @@
       <c r="G99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H99" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" t="s">
-        <v>5</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="H99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6445587E-9AA0-1E48-8289-FFA230C360C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99364807-986C-1049-A0A2-39E6CDE40FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="7020" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="363">
   <si>
     <t>#</t>
   </si>
@@ -1059,6 +1059,78 @@
   </si>
   <si>
     <t>entrepreneurship; organizational sectors; signaling; venture capital</t>
+  </si>
+  <si>
+    <t>Increasing efforts aim at economic development and the reduction of poverty in developing countries through microcredit-enabled entrepreneurship. Following the award of the Nobel Peace Prize to Prof. Yunus, microcredit lending has risen to prominence and the volume of microcredit loans has increased substantially. However, theory on the outcomes of this financing form is controversial. Furthermore, the academic community lacks conclusive empirical evidence about the impact of such programs. Primary empirical studies report fragmented and to a large extent contradictory results. In this meta-analysis, we empirically synthesize a total of 545 quantitative empirical findings from 90 studies conducted to date. Our findings reveal a positive impact of microcredit on key development outcomes at the level of the client entrepreneurs. Additionally, we scrutinize how the development context influences the effectiveness of microcredit and find that microcredit generally has a greater impact in more challenging contexts. With our findings we contribute to research on the nexus of entrepreneurship and economic development, and offer recommendations for practitioners and academics working on this promising frontier.</t>
+  </si>
+  <si>
+    <t>Microcredit, Microloans, Human development, Base of the pyramid, Development entrepreneurship</t>
+  </si>
+  <si>
+    <t>Higher education, Excellence initiative, Policy intervention, Research quantity, Research quality</t>
+  </si>
+  <si>
+    <t>This paper analyses the impact of the Excellence Initiative (EI) in Germany, a policy intervention aimed to promote and select outstanding active research universities by competitively allocating additional public funds. Academic debate on efficiency and effectiveness of higher education policy does not addresses issues such as treatment and selection effects, suffers from generalizable measurement problems, and does not take a comparative approach. Our objective is to fill this gap by adopting Italy as a control country. In doing so, this paper examines (1) whether this policy approach is suitable to stimulate the system and the awarded institutions, (2) how the performance impact can be measured and (3) whether the results are driven by country specific effects or are generalizable. To this end, we applied a triple difference-in-differences analysis (DDD) on a dataset of 72 German and 51 Italian state universities during the first round of the EI, from 2004 to 2013. We found that the EI has had a positive effect on research quantity, but a reverse effect on research quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study examines how the identity orientation of founders, i.e., the extent to which they define themselves in terms of their relationships to others and to social groups, is imprinted by their professional logic and influences their ambitions for venture growth. We draw on existing insights regarding the Darwinian, Communitarian, and Missionary orientation of entrepreneurs and on interviews with 29 founders to develop our hypotheses, which we then test in a sample of 58 academic and 113 non-academic founders that participated in a venture competition. We argue that, compared to non-academic institutional logics, academic logics are tied to a stronger Communitarian and Missionary orientation and a weaker Darwinian orientation in founders. A stronger Darwinian orientation values venture growth, whereas a stronger Communitarian orientation appraises the benefit of the technology for a restricted set of people at the expense of such growth ambitions. A stronger Missionary orientation values welfare maximization for society which may to some degree entail higher growth aspirations. We argue and empirically confirm that these identity orientations explain why academic founders hold lower growth aspirations for their start-up than non-academic founders. Our findings can at least partially clarify why academic start-ups do not grow according to expectancies. They theoretically advance our insights in academic entrepreneurship and founders' growth aspirations while also extending the literature on founders' identity orientation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotion, Intention, Motivation, Technology transfer, Commercialization, Academic entrepreneurship, Economic development and growth </t>
+  </si>
+  <si>
+    <t>We compare individuals presently employed either at a university, or at a firm from an R&amp;D-intensive sector, and analyze which of their personal-specific and employer-specific characteristics are related to their choice to leave their present employer for an own startup. Our data set combines the population of Danish employees with their present employers. We focus on persons who at least hold a Bachelor’s degree in engineering, sciences and health and track them over 2001-2012. We show that (i) there are overall few differences between the characteristics of university and corporate startup entrepreneurs, (ii) common factors associated with startup activity of both university and corporate employees are education, top management team membership, previous job mobility and being male, (iii) it is primarily human capital-related characteristics that are related to startup choice of university employees while (iv) the characteristics of the present workplace are the foremost factors of entrepreneurial activity by corporate employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University startups, Corporate startups, Founder characteristics, Employee retention, Human capital </t>
+  </si>
+  <si>
+    <t>IPO, Signaling, Valuation, Underwriter, Venture capitalist, Academic entrepreneurship, Spinoff</t>
+  </si>
+  <si>
+    <t>This paper studies the combined effect of affiliation with prestigious universities, underwriters, and venture capitalists on the valuation of biotech ventures at IPO and their post-IPO performance. We argue that affiliation to a prestigious university provides the affiliated firm with a quality signal in the scientific domain. The pure quality signaling effect of the affiliation is isolated from the substantive benefits it provides by performing a difference-in-difference approach based on the scientific reputation of scientists in firms' upper echelons. The signal is stronger the weaker is the scientific reputation of scientists of the focal IPO-firm and is additive to those provided by prestigious venture capitalists and underwriters. Results for a sample of 254 European biotech ventures that went through an IPO between 1990 and 2009 confirm our predictions.</t>
+  </si>
+  <si>
+    <t>interdisciplinarity, university-industry interaction, academic entrepreneurship, technology transfer, co-production, response mode</t>
+  </si>
+  <si>
+    <t>Interdisciplinary research (IDR) has raised increasing expectations among scholars and policymakers about its potential to produce ground-breaking scientific contributions and satisfy societal demands. While existing research highlights that novel connections across fields is beneficial for scientific contributions with high academic impact, comparatively less is known about whether IDR is positively associated to scientists’ engagement with non-academic actors. To investigate this, we examine whether there is a systematic relationship between scientists’ IDR-orientation and their interactions with industry. We conceptually distinguish four stylized modes of interaction (firm creation, technology transfer, co-production and response modes) and employ three distinct indicators of IDR. We use data on 1,170 scientists affiliated to public research organizations in Spain, bibliometric dataset of scientists’ publications, and details of scientists’ past involvement in interactions with industry. Our results show that IDR has a transversal influence on all four modes. However, IDR-oriented scientists are more strongly associated to transactional (market-mediated) compared to relational (personal-based) interaction mechanisms; while we find no evidence of a significant difference between IDR-oriented scientists and their propensity to engage in different modes of U-I interaction according to the degree of goal specificity.</t>
+  </si>
+  <si>
+    <t>Although leveraged exchange-traded funds (ETFs) are popular products for retail investors, how to hedge them poses a great challenge to financial institutions. We develop an optimal rebalancing (hedging) model for leveraged ETFs in a comprehensive setting, including overnight market closure and market frictions. The model allows for an analytical optimal rebalancing strategy. The result extends the principle of “aiming in front of target” introduced by Garleanu and Pedersen (2013) from a constant weight between current and future positions to ˆ a time-varying weight because the rebalancing performance is monitored only at discrete time points, but the rebalancing takes place continuously. Empirical findings and implications for the weekend effect and the intraday trading volume are also presented.</t>
+  </si>
+  <si>
+    <t>daily rebalancing, leveraged ETFs, market closure, frictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The literature suggests that the startups of de novo entrepreneurs are disadvantaged, but many of the world’s leading firms have been founded by students and recent graduates. We hypothesize that academic and industrybased educational experiences shape the innovative activity of student startups and use patent data to measure technological proximity between the patent portfolios of influencers and startups. We find that indirect exposure to the research and development activities of the students’ university departments and work term employers results in technological imprinting. Influencer and entrepreneur capabilities affect the magnitude of the imprinting effect: student ventures are technologically more proximate to highly ranked university departments and to more innovative work term employers, and the students’ software skills impact their ability to invent in proximity to their work term employer. We also find that multiple layers of imprints are complements, not substitutes. Exposure to inventive activities, even when indirect and brief, results in multiple capabilitiesmoderated layers of imprints. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprinting, Exposure, Student startups, Student entrepreneurship, Technological distance, Patents </t>
+  </si>
+  <si>
+    <t>A considerable body of work acknowledges the importance and benefits of the university–industry relationship for the economy and society, but also for increasing the revenue of universities themselves (known also as universities’ “third mission”). However, questions have also been raised about the consequences of the university-industry relationship and its impact on their traditional role. This paper contributes to this debate by exploring whether and how being efficient in generating income from engagement activities impacts on universities’ research performance. By using a sample of 119 UK higher educational institutions for period 2007–2014, and controlling for endogeneity issue, the results show that efficiency in terms of university-industry income and research performance exhibits a nonlinear relationship for both universities established before (“old universities”), and after (“new universities”), the Higher Education Act 1992 (HEA). However, for high level of efficiency, “old universities” do not appear able to improve their research performance further. Finally, positive synergies between the third mission and research mission decline in a more teaching-oriented environment. We conclude that policy makers should account for organisational heterogeneity and teaching orientation to promote research excellence effectively by stimulating engagement.</t>
+  </si>
+  <si>
+    <t>Efficiency, Higher education institutions, Industry engagement, Research Excellence Framework (REF)</t>
+  </si>
+  <si>
+    <t>Due to their origin in universities, academic spin-offs operate at the forefront of technological development. Therefore, academic spin-offs exhibit a skill-biased labour demand, i.e. academic spin-offs have a high demand for employees with cutting-edge knowledge and technical skills. In order to accommodate this demand, academic spin-offs may have to pay a relative wage premium compared to other hightech start-ups. However, neither a comprehensive theoretical assessment nor the empirical literature on wages in start-ups unambiguously predicts the existence and the direction of wage differentials between academic spin-offs and non-spin-offs. This paper addresses this research gap and examines empirically whether or not academic spin-offs pay their employees a wage premium. Using a unique linked employeremployee data set of German high-tech start-ups, we estimate Mincer-type wage regressions applying the Hausman-Taylor panel estimator. Our results show that academic spin-offs do not pay a wage premium in general. However, a notable exception to this general result is that academic spin-offs that commercialise new scientific results or methods pay a wage premium to employees with links to the university sector - either as university graduates or as student workers.</t>
+  </si>
+  <si>
+    <t>Wages, High-tech start-ups, Academic spin-offs, Linked employer-employee data</t>
+  </si>
+  <si>
+    <t>In this paper, we use a social support perspective and hypothesize that the scope of start-up activities is positively associated with two types of instrumental family support, financial and social capital. We further argue that the effect of instrumental family support is enhanced by the level of emotional support, in the form of family cohesiveness. To test our hypotheses, we draw from the 2011 Global University Entrepreneurial Spirit Students' Survey (GUESSS), a survey of university students from 19 countries. We focus on those nascent entrepreneurs who are in the process of starting their new venture (n = 12,399). Our findings indicate that family social capital is positively associated with the scope of start-up activities, family financial capital is negatively associated with the scope of start-up activities, and family cohesiveness amplifies the effect of family social capital on the scope of start-up activities. Theoretical, practitioner, and public policy implications are discussed.</t>
+  </si>
+  <si>
+    <t>Nascent entrepreneurs, Start-up activities, Social support, Global University Entrepreneurial Spirit Students’ Survey (GUESSS)</t>
+  </si>
+  <si>
+    <t>Whether entrepreneurship generates economic growth depends on the institutional environment due to its impact on the mix of productive and unproductive entrepreneurship in the economy. The incentive structure embedded in each society affects whether talented people become entrepreneurs and potentially, the extent to which they engage in more productive forms of entrepreneurship. We examine how trust in institutions affects the entrepreneurial intentions of potentially productive entrepreneurs. We utilize the unique event surrounding the impeachment of South Korea’s previous president. The event improved people’s trust in the government because it was ultimately the people’s protests and demands that led to the impeachment of the president for influence peddling and extracting personal rents from businesses. By surveying the same individuals before and after the impeachment ruling, we identify people’s changes in trust in government and various institutions. We find that increased trust in institutions increases one’s intent to start a business within five years. Moreover, we show that the relationship between trust in institutions and entrepreneurial intention is significantly stronger for engineering majors from top universities.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, institutions, trust in government, allocation of talent, impeachment</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1514,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2032,8 +2104,12 @@
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2060,8 +2136,12 @@
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,8 +2196,12 @@
       <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2144,8 +2228,12 @@
       <c r="C23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2172,8 +2260,12 @@
       <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2200,8 +2292,12 @@
       <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2228,8 +2324,12 @@
       <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2254,8 +2354,12 @@
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,8 +2386,12 @@
       <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>20</v>
       </c>
@@ -2310,8 +2418,12 @@
       <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
       </c>
@@ -2338,8 +2450,12 @@
       <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2366,8 +2482,12 @@
       <c r="C31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99364807-986C-1049-A0A2-39E6CDE40FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB21298D-8434-DB42-B96E-C1486AE4BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="7020" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="415">
   <si>
     <t>#</t>
   </si>
@@ -1131,6 +1131,163 @@
   </si>
   <si>
     <t>entrepreneurship, institutions, trust in government, allocation of talent, impeachment</t>
+  </si>
+  <si>
+    <t>institutional theory, entrepreneurship, innovation</t>
+  </si>
+  <si>
+    <t>This paper contributes to institutional theory on cognitive and normative institutional change targeted at altering beliefs, behaviors, and ultimately firm performance. Prior work emphasizes institutional changes where the ideas and beliefs originate from those within the institutional context. Under examined are cases of institutional changes in beliefs and behaviors imposed from outside of the context, which may result in inconsistencies among cognitive, normative, and regulatory institutional pillars. Project 985 was a program implemented by the Chinese government that provided funding for a set of universities to build new research centers. We found that graduates of these universities subsequently expressed greater beliefs in innovation and founded more high-tech ventures, but that entrepreneurs influenced by the reform were not as financially successful as entrepreneurs who founded firms before the reform or from non-985 universities. We explain this surprising finding as caused by the fact that Project 985 was institutionally inconsistent with China’s broader institutional environment. An important implication is that institutional changes may alter beliefs and behavior, but they must be consistent with the broader institutional environment to improve firm performance.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, external environment, institutional theory, barriers to growth</t>
+  </si>
+  <si>
+    <t>ability, academic entrepreneurship, alumni, self-selection, universities</t>
+  </si>
+  <si>
+    <t>Research summary: We examine how university entrepreneurship programs affect entrepreneurial activity using a unique entrepreneurship-focused survey of Stanford alumni. OLS regressions find a positive relationship between program participation and entrepreneurship activities. However, endogeneity hinders causal interpretation. We utilize the fact that the entrepreneurship programs were implemented at the school level. Using the introduction of each school's program as an instrument for program participation, we find that the Business School program has a negative to zero impact on entrepreneurship rates. Participation in the Engineering School program has no impact on entrepreneurship rates. However, the Business School initiative decreases startup failure and increases firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the quality of entrepreneurship.
+Managerial summary: Recently, many universities have developed programs to promote entrepreneurship. However, relatively little is known about the impacts of such university initiatives. In this article, we examine the two major initiatives that were established in the mid-1990s—the Stanford Center for Entrepreneurial Studies at the Business School and the Stanford Technology Ventures Program at the Engineering School. We find that the Business School program had a negative to zero impact on entrepreneurship rates and participation in the Engineering School program had no impact on entrepreneurship rates. However, the Business School initiative decreased startup failure and increased firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the startup performance.</t>
+  </si>
+  <si>
+    <t>Prior research often focuses on how many entrepreneurial firms are created, rather than on institutions that encourage specific types of firms or entrepreneurs. This paper identifies institutional changes that reduce barriers to growth as an important factor influencing the propensity of individuals to start a business. The findings suggest that the impact of lower barriers to growth is shaped by the extent of the reduction in barriers to growth and the level of human capital of the individual. Only a large reduction in barriers to growth has a stronger impact in increasing the likelihood of founding at higher levels of human capital. I capitalize on two reforms lowering barriers to growth as natural experiments. One reform, in 1988, only slightly lowered barriers to growth. The second reform, in 1999, more strongly lowered barriers to growth with an amendment to the Chinese constitution reversing regulations that favored firms with foreign investors. This made it easier for domestic entrepreneurs to compete. I collected data through a survey of 2,966 alumni who graduated from a top Chinese university. Results show that reducing the institutional barriers to growth differently affects college-educated individuals with different levels of human capital.</t>
+  </si>
+  <si>
+    <t>This paper introduces a process model of how academics learn to bridge different cognitive scripts, thereby learning to collaborate with non-academic managers in the context of multidisciplinary academic spinoff (ASO) teams. Whereas prior research has taken a static perspective, showing that cooperation in ASO teams is challenging due to differences in cognitive scripts, we take a dynamic perspective, leveraging rich, longitudinal data on a single case to theorize how such cooperative challenges can be overcome. We reveal two aspects of this process. One is cognitive and intrapersonal, in which academics reconsider their own beliefs and understandings of their venture and the commercial world. The other is social and interpersonal, in which academics reconsider the way they collaborate with others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic spinoffs, Cognitive scripts, Learning, Academics, Longitudinal </t>
+  </si>
+  <si>
+    <t>diversity in national culture, entrepreneurial exit, financial harvest, founding teams, immigrant entrepreneurs</t>
+  </si>
+  <si>
+    <t>We study the effects of diversity in national culture on new technology ventures’ founding teams on their financial harvest exit strategy. Exits represent a pivotal event in the entrepreneurial process that reflects the strategy and performance of technology startups. Following a quasireplication of the seminal study of Chaganti and colleagues in 2008, aimed at generalizing their findings to different technologies and periods and assessing their robustness, we demonstrate that diverse founding teams are significantly more likely than non-diverse teams to exit via financial harvest. We add to the literature by identifying a novel contributing factor—diversity in national culture—in founding teams’ financial harvest strategies. The economic implications, both at the micro and macro levels, of the diversity factor are considerable. The contribution of this study thus extends beyond the academic literature.</t>
+  </si>
+  <si>
+    <t>corporate entrepreneurship, entrepreneurial orientation, upper echelons, narcissism</t>
+  </si>
+  <si>
+    <t>Extant research has shown that firms with high levels of entrepreneurial orientation (EO) outperform competitors. The present study sheds light on this performance relationship in large, publicly listed high-tech firms by examining whether the strength of this relationship depends upon the CEO’s narcissism, an executive personality trait recently debated controversially in both academic and practitioner publications. A theoretically derived research model is empirically validated by means of multisource secondary data for 41 S&amp;P 500 firms from 2005 to 2007. Findings indicate that narcissistic CEOs usually weaken the EO-performance relationship, although the opposite is true under some conditions, such as in highly concentrated and dynamic markets.</t>
+  </si>
+  <si>
+    <t>transportation, middle-mile, flexibility, stochastic matching, long chain, e-commerce</t>
+  </si>
+  <si>
+    <t>Given an input graph Gin � (V,Ein), we consider the problem of designing a sparse subgraph G � (V,E) with E ⊆ Ein that supports a large matching after some nodes in V are randomly deleted. We study four families of sparse graph designs (namely, clusters, rings, chains, and Erdo˝s–Re´nyi graphs) and show both theoretically and numerically that their performance is close to the optimal one achieved by a complete graph. Our interest in the stochastic sparse graph design problem is primarily motivated by a collaboration with a leading e-commerce retailer in the context of its middle-mile delivery operations. We test our theoretical results using real data from our industry partner and conclude that adding a little flexibility to the routing network can significantly reduce transportation costs.</t>
+  </si>
+  <si>
+    <t>category spanning, social valuation, social boundaries, boundary work, multidisciplinary research, science</t>
+  </si>
+  <si>
+    <t>Extant theory suggests that candidates with an unfocused identity—those spanning different categories—suffer from a valuation penalty because evaluators are confused by their profile and concerned they lack the required skills. We argue that unfocused candidates may be penalized for another reason; they threaten established social boundaries. This happens in contexts where evaluators act as gatekeepers for social entities, such as professions. We test how the penalty applied to unfocused candidates varies in an academic accreditation process, a setting where evaluators decide on admitting candidates to an academic discipline and where candidates’ prior performance is observable. We find using data on the 2012 national scientific qualification in Italian academia that the valuation penalty applied to unfocused (multidisciplinary) candidates was most pronounced for the most high-performing candidates. High-performing yet ill-fitting candidates threaten the distinctiveness and knowledge domain of the discipline and are hence penalized by evaluators. High-performing multidisciplinary candidates suffered the greatest penalty in small and distinctive academic disciplines and when accreditors were highly typical members of their discipline. Our theory and findings suggest that the categorical imperative may be driven not only by cognitive or capability considerations as typically argued in the literature but also, by attempts to maintain social boundaries.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, commercialization, attention, exploration, search, public science</t>
+  </si>
+  <si>
+    <t>We study how becoming an entrepreneur affects academic scientists’ research. We propose that entrepreneurship will shift scientists’ attention away from intradisciplinary research questions and toward new bodies of knowledge relevant for downstream technology development. This will propel scientists to engage in exploration, meaning they work on topics new to them. In turn, this shift toward exploration will enhance the impact of the entrepreneurial scientist’s subsequent research, as concepts and models from other bodies of knowledge are combined in novel ways. Entrepreneurship leads to more impactful research, mediated by exploration. Using panel data on the full population of scientists at a large research university, we find support for this argument. Our study is novel in that it identifies a shift of attention as the mechanism underpinning the beneficial spillover effects from founding a venture on the production of public science. A key implication of our study is that commercial work by academics can drive fundamental advances in science.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study examines the impact of public subsidies, and specifically, Small Business Innovation Research (SBIR) awards on university spinoff companies. Using unique data for a population of University of California spinoffs, we find pronounced differences between companies commercializing digital technologies (software and hardware), and those that focus on other product spaces. For digital spinoffs, receiving an SBIR award has a negative impact on raising venture capital and no impact on IPOs, exits or first sales. Conversely, for non-digital firms (e. g., biotechnology, energy), receiving an SBIR award has a positive effect on raising venture capital and performance outcomes. We reason that digital technologies are subject to faster cycle times and higher market uncertainty, relative to technological uncertainty. Digital firms may therefore benefit less from subsidies designed to support technology development, and private investors may view the need of digital companies to obtain such subsidies as a negative certification. Our findings inform policy by suggesting that the industrial domain may be an important boundary condition for the effectiveness of SBIR-type subsidies for university spinoffs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University spinoffs, Small Business Innovation Research (SBIR), Venture capital, Academic entrepreneurship, Technology transfer, Commercialization, Digital technologies </t>
+  </si>
+  <si>
+    <t>To acquire resources, new ventures need to be perceived as legitimate. For this to occur, a venture must meet the expectations of various audiences with differing norms, standards, and values as the venture evolves and grows. We investigate how the organizational identity of a technology venture must adapt to meet the expectations of critical resource providers at each stage of its organizational life cycle. In so doing, we provide a temporal perspective on the interactions among identity, organizational legitimacy, institutional environments, and entrepreneurial resource acquisition for technology ventures. The core assertion from this conceptual analysis is that entrepreneurial ventures confront multiple legitimacy thresholds as they evolve and grow. We identify and discuss three key insights related to entrepreneurs’ efforts to cross those thresholds at different organizational life cycle stages: institutional pluralism, venture-identity embeddedness, and legitimacy buffering.</t>
+  </si>
+  <si>
+    <t>This paper explores whether and to what extent a scientific approach to decision-making can be a useful tool for helping entrepreneurs overcome limitations in the commercial exploitation of their idea, particularly when these limitations stem from their status as users of the products or services. Using data from a variety of sources, including three randomized control trials and LinkedIn data, and focusing on female entrepreneurs who develop a value proposition targeting female consumers as a case of user entrepreneurs, this paper shows that exposure to a training that encourages entrepreneurs to develop theoretical maps about their business propositions and validate them with evidence prompts more radical pivots on their initial ideas compared with entrepreneurs with a value proposition that does not target women explicitly. In turn, treated female entrepreneurs with a female-targeted value proposition who pivot radically show better performance in launching and sustaining their ventures compared with those who have not pivoted.</t>
+  </si>
+  <si>
+    <t>women entrepreneurs, female value proposition, scientific decision-making, user entrepreneurs, knowledge domains</t>
+  </si>
+  <si>
+    <t>enterprising families, intergenerational solidarity, succession intentions, family business exposure, affective commitment, gender</t>
+  </si>
+  <si>
+    <t>n enterprising families, the family, as a social institution, is the foundation of the family business. However, in enterprising families, intergenerational succession remains problematic. Using intergenerational solidarity theory, and data from the 2013 Global University Entrepreneurial Spirit Students Survey (GUESSS; N = 18,576), our findings indicate that affective commitment partially mediates the relationship between family business exposure and offspring’s succession intentions. We also find that this relationship is stronger for sons than for daughters, while birth order has no effect. Implications for theory and practice are discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology transfer, Academic entrepreneurship, Industry evolution, Organizational groups, Spinoffs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We study failures between 1993 and 2017 in the complete population of 1731 English and Scottish university spinoffs founded since 1977. We borrow and expand the concept of density dependence from organizational ecology to theorize that a spinoff's propensity to fail is affected by the number of spinoffs active not only in the aggregate population but also within its parent university's portfolio. We contribute to organizational theory, demonstrating the importance of organizational groups that form within larger populations on individual organizations' propensity to fail. We contribute to literature on academic entrepreneurship showing that, for most universities, spinoff portfolio growth can lower associated spinoffs' failure rates, but that such effects need to be juxtaposed to the aggregate population's finite capacity to support an expanding number of spinoffs. </t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Technology transfer office bypassing, Transaction cost theory, Tyler's justice model, Alternate commercialization pathways, Canadian universities</t>
+  </si>
+  <si>
+    <t>This article investigates the underexplored phenomenon of technology transfer office (TTO) bypassing in academic entrepreneurship. While TTOs are established to centralize and support intellectual property-based commercialization, a significant portion of entrepreneurial projects avoid the TTO. Relying on both economic (transaction cost theory) and ethical (Tyler's justice model) considerations, this study explores the motivations and contextual factors behind a researcher's decision to commercialize an invention using means other than the TTO. This multiple case study employs an in-depth exploratory qualitative approach to investigate five academic entrepreneurs across different disciplines in Canadian universities who chose to bypass their TTO, often in contravention of institutional policies. Our findings reveal a complex interplay among individual motivations, institutional policies, and market realities. We identified four paths of awareness and strategic intent in this process ranging from unintentional non-compliance to tactical avoidance which challenge a simplistic perception of TTO bypassing as merely unintentional rather than deliberate. The study also reveals four overlapping contexts that promote TTO bypassing: confidence in personal expertise, previous negative experience of using the TTO, peer-influenced skepticism, and external partner challenges. Furthermore, the findings show that the reasons for bypassing include both economic and ethical motivations which steer academic entrepreneurs toward alternative, privately managed commercialization paths. The article concludes with some implications for university managers and policymakers related to how to address the multifaceted motivations for TTO bypassing.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Entrepreneurial competencies, Inhibitors, Nascent entrepreneurs, Spin-offs</t>
+  </si>
+  <si>
+    <t>Nascent academic entrepreneurs need to acquire entrepreneurial competencies to create successful spin-off ventures. In this article, we examine difficulties in this pursuit prior to venture formation and offer a systematic classification of inhibitors. We confirm, combine, and extend two previously identified inhibiting mechanisms into a relational inhibitor category, classify additional structural and cultural-cognitive inhibitors, and highlight how these inhibitors exist both at the individual and the organizational level. We then advance theoretical understanding of the interrelated, multilevel functions of inhibitors on the development of entrepreneurial competencies, and offer policy insights on how universities can mitigate their effects.</t>
+  </si>
+  <si>
+    <t>While university spinoffs have become a well-accepted vehicle for regional economic dynamism, they face numerous developmental barriers associated with the unique academic context from which they are established. Recent research shows that homophilous social networks among faculty entrepreneurs constitute one such barrier, and yet few studies have investigated the specific characteristics of spinoff networks and their relationship to entrepreneurial development. This paper seeks to address this gap through a mixed-methods research design focused on the composition, contributions, and evolution of social networks among faculty entrepreneurs whose spinoffs are within various phases of entrepreneurship. Employing a knowledge-spillover conceptual lens, this study finds that social networks among early-stage academic entrepreneurs are important for spurring and supporting spinoff establishment, but if they do not evolve from their initial configuration, these networks can largely constrain subsequent stages of spinoff development. Social networks among successful spinoffs, however, evolve with the help of first-order—or boundary spanning—individuals who help socialize academic entrepreneurs to market-oriented motivations, values, and practices that they may not otherwise receive in an academic environment. Further, these individuals provide connections to other contacts who, in turn, provide additional spinoff-enabling resources and contacts. Based on these findings, a conceptual model is introduced that explains spinoff success as a function of network evolution. Implications for research and public policy are also discussed.</t>
+  </si>
+  <si>
+    <t>University spinoffs, Social networks, Entrepreneurship, Technology transfer, Knowledge spillovers</t>
+  </si>
+  <si>
+    <t>There is now substantial evidence of the positive contribution universities can make to helping firms’ innovation. Building university-business collaborations, however, confronts the ‘two-worlds’ paradox, and the difference in institutional logics and priorities between businesses and universities. Here, we consider whether firms’ experience from prior collaboration can generate learning which can help to overcome the two-worlds paradox and improve firms’ ability to generate new-to-the-market innovations in collaboration with universities. Our analysis is based on panel data for UK companies and controls for the decision to innovate. We find evidence of significant learning effects which both increase the probability that firms collaborating with universities are able to develop new-to-the-market innovations and then benefit from those innovations. For smaller firms learning effects are strongest from prior collaboration with customers, while for medium and larger firms the strongest learning effects arise from prior collaboration with consultants.</t>
+  </si>
+  <si>
+    <t>Innovation, University, Collaboration, Learning</t>
+  </si>
+  <si>
+    <t>nonstationarity, online learning, distribution shift, adaptivity, look-back window</t>
+  </si>
+  <si>
+    <t>We develop a versatile framework for statistical learning in nonstationary environments. In each time period, our approach applies a stability principle to select a look-back window that maximizes the utilization of historical data while keeping the cumulative bias within an acceptable range relative to the stochastic error. Our theory showcases the adaptivity of this approach to unknown nonstationarity. We prove regret bounds that are minimax optimal up to logarithmic factors when the population losses are strongly convex or Lipschitz only. At the heart of our analysis lie two novel components: a measure of similarity between functions and a segmentation technique for dividing the nonstationary data sequence into quasistationary pieces. We evaluate the practical performance of our approach through real-data experiments on electricity demand prediction and hospital nurse staffing.</t>
+  </si>
+  <si>
+    <t>Although relative performance feedback in the form of rankings appears to be effective in improving health outcomes, it may have either motivating or demotivating effects for individual physicians. Potential factors influencing such effects include a physician’s ability and the design of the ranking system itself; however, there is limited understanding of these factors. Using a controlled lab-in-the-field experiment with practicing and future physicians as subjects (N � 352), we systematically analyze effort within small teams under different ranking systems. Exogenously varying the number and position of the thresholds defining the ranking system, we observe that the addition of a threshold to create a new rank is motivating—that is, increases effort—only among individuals capable of exceeding that threshold; the effort of other individuals may remain unchanged or even decrease. In particular, a highly granular ranking system with ranks spanning the entire range of possible outcomes maximizes overall physician effort; high thresholds serve to motivate high-ability individuals, whereas moderate and low thresholds provide opportunities for improvement to lower-ability individuals who cannot reach the high thresholds. Our results suggest that, to motivate their teams effectively, clinical leaders should provide rank feedback using a system under which physicians of all ability types can improve their rank through increased effort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ability, lab-in-the-field experiment, rankings, relative performance feedback, status concerns</t>
+  </si>
+  <si>
+    <t>Passion, Identity theory, Entrepreneurial intentions, Academic entrepreneurship, Spin-offs</t>
+  </si>
+  <si>
+    <t>This paper disentangles how organization members' “passion orchestra” is related to their entrepreneurial intentions in the particularly relevant context of academia. Drawing on passion literature and identity theory, we propose and test a model linking two central parts of researchers' “passion orchestra”, namely entrepreneurial and obsessive scientific passion, directly and indirectly, to spin-off and start-up intentions. While spin-off intentions refer to intentions to found a firm based upon research results, start-up intentions denote intentions to start any type of company. Using a sample of 2308 researchers from 24 European universities, our findings reveal that higher levels of entrepreneurial passion are associated with both stronger spin-off and start-up intentions. Further, obsessive scientific passion is positively associated with researchers' intentions to create a spin-off, and negatively with their propensity to establish a start-up. Entrepreneurial self-efficacy and affective organizational commitment mediate these effects. Finally, the two types of passion show characteristic interactions. Obsessive scientific passion moderates the entrepreneurial passion–intentions relationship such that it strengthens spin-off intentions. Our results highlight that recasting the individual driven by a singular passion to one with a “passion orchestra” provides a more holistic understanding of the new venture creation process. Implications for research and practice are discussed.</t>
+  </si>
+  <si>
+    <t>Motivation, Knowledge transfer, Third mission, University external engagement</t>
+  </si>
+  <si>
+    <t>The debate on the entrepreneurial university has raised questions about what motivates academics to engage with the external environment and what forms knowledge transfer (KT) activities should take. This paper distinguishes between the variety of forms of engagement (KT breadth) and the intensity of collaboration (KT depth) in the analysis of their motivations. The paper relies on a sample of Italian academics from different scientific fields over the period 2004–2008. Whereas previous literature has shown that academics are essentially motivated by learning opportunities, fundraising and satisfaction derived from puzzle solving in research activities, our paper provides evidence of the positive role of an additional motivation for both the breadth and depth of KT: the extent to which the academic scientist advances the societal role of universities (“mission” motivation). We find that both “funding” and “mission” motivations have a positive effect on the variety and intensity of KT activities, with little effect for learning opportunities. Our results show also a higher effect of “funding” and “mission” on the depth of KT activities compared to their breadth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the 1980s, policy reforms have been undertaken in China to gradually promote entrepreneurship of academic researchers. Based on manually collected data on academic executives (defined as either chairperson of the board or CEO, who had an academic title), we investigate the effects of academic executives on corporate technological capabilities and innovation performance among Chinese listed manufacturing firms from 2001 to 2015. Our results demonstrate that firms with academic executives are more likely to implement technological advancement strategies by increasing firm basic research, collaborating with outside institutions, and providing incentives to knowledge workers. Consequently, they have enhanced technological capabilities, as well as a higher quantity and quality of innovation output. In addition, firms with academic executives are more likely to have better financial performance regarding sales and profitability and keep a higher proportion of profits inside the firm to reinvest. The identification of the causal effects of academic executives relies on top executive turnover within firms and the propensity score matching strategy. Further analysis demonstrates that the effects of academic executives are more pronounced when they have a higher academic title, administrative experience, and a specialization in sciences. Our findings suggest that promoting entrepreneurship of academic researchers is an effective way of diffusing and utilizing knowledge, and it provides an internal driving force for the enhancement of corporate technological capabilities, which is crucial for technological catch-up of firms in latecomer countries. </t>
+  </si>
+  <si>
+    <t>Corporate innovation, Academic executives, Research experience, Technological capability, China</t>
+  </si>
+  <si>
+    <t>entrepreneurship, international management, diffusion of innovation, intermediaries</t>
+  </si>
+  <si>
+    <t>How can a knowledge intermediary support industry development and entrepreneurial entry in countries where it is not present? This study introduces a two-stage model of multi-country entrepreneurial entry via second-order knowledge intermediaries (SOKIs). In Stage 1, SOKIs acquire and develop industry-building knowledge and capabilities from engagement with the activities of carrying, co-creating, capacity building, and convening of a first-order knowledge intermediary (FOKI). In Stage 2, motivated SOKIs implement these activities in secondary countries, supporting local industry development. The model is developed in the context of the clean cookstove industry, which addresses global health and environmental challenges among low-income populations. Qualitative evidence from 25 interviews and archival data were used to describe how SOKIs learned transferable knowledge and capabilities in primary countries. A quantitative analysis of data derived from 1,996 clean cookstove organizations operating across 113 countries (2013–2019) was conducted to assess whether a greater number of SOKIs in secondary countries was associated with increased entrepreneurial entries. Results support the model; more SOKIs were associated with more entrepreneurial entries, and this relationship was weakened when company and nonprofit SOKIs were imbalanced and when more domestic industry actors possessed overlapping knowledge. This study contributes to the literature on industry emergence by introducing a mechanism of non-firm-led, cross-border knowledge diffusion in mission-oriented industries. It also shows how local entrepreneurs in under-resourced contexts can access global knowledge—not through firms or FOKIs but through SOKIs that extend the FOKIs’ work.</t>
+  </si>
+  <si>
+    <t>How do founding team members allocate task positions when launching new ventures? Answering this question is important because prior work shows both that founding team members often have correlated expertise, thus making task position allocation problematic; and initial occupants of task positions exert a lingering effect on venture outcomes. We draw on status characteristics theory to derive predictions on how co-founders’ specific expertise cues and diffuse status cues drive initial task position allocation. We also examine the performance consequences of mismatches between the task position and position occupant. Qualitative fieldwork, combined with a quasi-experimental simulation game and an experiment, provides causal tests of the conceptual framework. We find that co-founders whose diffuse status cues of gender (male), ethnicity (white), or achievement (occupational prestige or academic honors) indicated general ability were typical occupants of higher-ranked positions, such as chief executive officer role, within the founding team. In addition, specific expertise cues that indicated relevant ability predicted task position allocation. Founding teams created more financially valuable ventures when task position occupants’ diffuse status cues were typical for the position; nonetheless position occupants with high diffuse status cues also appropriated more of the created value. Our results inform both entrepreneurship and status characteristics literature.</t>
+  </si>
+  <si>
+    <t>Academics and practitioners acknowledge the value of customer feedback in improving firm performance. Companies routinely solicit feedback from different customer subsets. However, the extent to which this feedback impacts nonsolicited customers depends on whether firms implement meaningful business-level changes that resonate with customers. This paper assesses customer feedback’s impact on firm learning and business improvements as well as its spillover effects on nonsolicited customers using a randomized, controlled field experiment conducted in Rwanda over two years. We hypothesize that private feedback seeking could operate through two broad mechanisms: (a) directly influencing solicited customers and/or (b) prompting firms to improve their offerings, leading to spillover effects on other customers. Our results demonstrate a 38.2% increase in recall and a 77.4% increase in purchases for customers not engaged in the feedback process. The analysis further suggests that business-level changes driven by customer feedback fuel these spillovers. Additionally, customer feedback seeking significantly improves treatment firm performance, resulting in a 62.0% revenue increase and 54.5% profit increase compared with control firms. Our study also introduces a basic customer feedback-seeking technology for small businesses to improve performance. These findings can guide firms in leveraging customer feedback to undertake business changes and generate greater revenues/profits.</t>
+  </si>
+  <si>
+    <t>customer feedback, feedback spillover, firm learning, small firm growth, entrepreneurship, emerging markets</t>
+  </si>
+  <si>
+    <t>In many workplaces, temporary teams convene to coordinate complex work, despite team members having not worked together before. Most related research has found consistent performance benefits when members of temporary teams work together multiple times (team familiarity). Recent work in this area broke new conceptual ground by instead exploring the learning and performance benefits that team members gain by being exposed to many new partners (partner exposure). In contrast to that new work that examined partner exposure between team members who are peers, in this paper, we extend this research by developing and testing theory about the performance effects of partner exposure for team members whose roles are differentiated by authority and skill. We use visitlevel data from a hospital emergency department and leverage the ad hoc assignment of attendings, nurses, and residents to teams and the round-robin assignment of patients to these teams as our identification strategy. We find a negative performance effect of both nurses’ and resident trainees’ partner exposure to more attendings and of attendings’ and nurses’ exposure to more residents. In contrast, both attendings and residents experience a positive impact on performance from working with more nurses. The respective effects of residents working with more attendings and with more nurses is attenuated on patient cases with more structured workflows. Our results suggest that interactions with team members in decision-executing roles, as opposed to decision-initiating roles, is an important but often unrecognized part of disciplinary training and team learning.</t>
+  </si>
+  <si>
+    <t>temporary teams, partner exposure, team familiarity, hierarchy, healthcare</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,8 +2671,12 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2542,8 +2703,12 @@
       <c r="C33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2570,8 +2735,12 @@
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
@@ -2598,8 +2767,12 @@
       <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2626,8 +2799,12 @@
       <c r="C36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2654,8 +2831,12 @@
       <c r="C37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>118</v>
       </c>
@@ -2682,8 +2863,12 @@
       <c r="C38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2708,8 +2893,12 @@
       <c r="C39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
       </c>
@@ -2736,8 +2925,12 @@
       <c r="C40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2764,8 +2957,12 @@
       <c r="C41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2989,9 @@
       <c r="C42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>133</v>
@@ -2820,8 +3019,12 @@
       <c r="C43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
@@ -2846,8 +3049,12 @@
       <c r="C44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,8 +3081,12 @@
       <c r="C45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
@@ -2902,8 +3113,12 @@
       <c r="C46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2930,8 +3145,12 @@
       <c r="C47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
       </c>
@@ -2958,8 +3177,12 @@
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
@@ -2986,8 +3209,12 @@
       <c r="C49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>20</v>
       </c>
@@ -3014,8 +3241,12 @@
       <c r="C50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
@@ -3040,8 +3271,12 @@
       <c r="C51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>59</v>
       </c>
@@ -3066,8 +3301,12 @@
       <c r="C52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
@@ -3094,8 +3333,12 @@
       <c r="C53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,8 +3365,12 @@
       <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
       </c>
@@ -3150,8 +3397,12 @@
       <c r="C55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3427,9 @@
       <c r="C56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>173</v>
@@ -3204,8 +3457,12 @@
       <c r="C57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
       </c>
@@ -3232,8 +3489,12 @@
       <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB21298D-8434-DB42-B96E-C1486AE4BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11AA7D-DEB1-2F4E-95F0-2E2B90043907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="445">
   <si>
     <t>#</t>
   </si>
@@ -1288,6 +1288,101 @@
   </si>
   <si>
     <t>temporary teams, partner exposure, team familiarity, hierarchy, healthcare</t>
+  </si>
+  <si>
+    <t>This research was designed to extend the scope and conversation of conservation of resource theory (COR) to contexts of uncertainty, including entrepreneurship. In doing so, the resource-induced coping heuristic (RICH) construct is introduced, developed, and validated. Results from two investigations, involving three samples and a total of 813 participants, indicated strong reliability, and internal validity for the theoretically justified, three-factor measure. Also, results of validity tests show the RICH as a robust predictor of factors pertaining to entrepreneurial success, including financial performance and perceived entrepreneurial success. Practical and academic implications, strengths and limitations, and directions for future research are discussed.</t>
+  </si>
+  <si>
+    <t>We review complementary theoretical perspectives on location choices of university graduate entrepreneurs derived from the individual-opportunity nexus and local embeddedness perspectives on entrepreneurship. Analysis of the full population of 215,388 graduates from Swedish institutions of higher education between 2002 and 2006 provides support for both location choice perspectives. Overall, 63% of graduate entrepreneurs start businesses locally in their region of graduation while 37% start businesses elsewhere. The likelihood of starting locally is substantially higher in metropolitan regions, if the graduate was born locally or has university peer entrepreneurs and entrepreneurial family members in the region of graduation. Implications for theory and public policy are discussed.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Location choice, Universities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, Gender, Signaling, Resource acquisition, Start-up, Entrepreneurial finance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to the novelty of their technology base and the multiple goals pursued by their entrepreneurial teams, academic spin-offs (ASOs) suffer information asymmetries with investors that impair their ability to raise finance. In line with the signaling theory, we expect that observable features of an ASO can mitigate such information asymmetries, especially in conditions of higher uncertainty about the venture. We put forward that a larger share of capital owned by female shareholders adds to such uncertainty due to their outsider condition in academic entrepreneurship and the negative bias of investors against female entrepreneurs.
+Through a multi-level Tobit regression on a sample of Italian ASOs, we find that the amount of private investment is negatively associated with the degree of female ownership and positively associated with the investment of the parent university and full professors. The latter two factors moderate the relationship between degree of female ownership and private investment so that it becomes less negative.
+The results provide evidence of the persisting gender gap in entrepreneurial finance and highlight the role of parent universities in closing such a gap. </t>
+  </si>
+  <si>
+    <t>entrepreneurship, hierarchy, organizational design, organizational structure, start-up</t>
+  </si>
+  <si>
+    <t>Research summary: There has been an ongoing debate over whether start-ups should be “flat” with minimal hierarchical layers. To reconcile this debate, this article distinguishes between creative and commercial success (i.e., novelty vs. profitability), and examines how these outcomes are variously influenced by a startup's hierarchy. This study suggests that while a flatter hierarchy can improve ideation and creative success, it can result in haphazard execution and commercial failure by overwhelming managers with the burden of direction and causing subordinates to drift into power struggles and aimless idea explorations. I find empirical support for this trade-off using a large sample of game development start-ups. These findings offer one resolution to the debate by sorting out the conditions under which hierarchy can be conducive or detrimental to start-ups.
+Managerial summary: Academics, management gurus, and popular media outlets have argued that “authoritarian,” tall hierarchies are outmoded and will be supplanted by “egalitarian,” flat structures. In recent years, this argument has been largely substantiated by a few “successful” flat start-ups, such as Valve, Zappos, Github, Medium, and Buffer. As these nascent firms constantly garner much attention for their egalitarian ideal—which itself is a signal of their rarity—the myth that start-ups should be flat (often referred to as “flat organization,” “holacracy,” or “boss-less firm”) has become widespread among entrepreneurs. My study cautions against this myth, suggesting that adding a few hierarchical levels of managers can substantially help start-ups achieve commercial success and survive in their hostile environments, albeit at a potentially marginal cost of creativity.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, human capital, organization design, timing, venture scaling</t>
+  </si>
+  <si>
+    <t>Research Summary: Scaling at the right time is a crucial challenge for startups. Conceptualizing “scaling” as the entrepreneurial process of acquiring and committing resources to implement the core business idea and expand the customer base, this study examines how scaling early may decrease imitation risk at the expense of increasing commitment risk. As startups typically hire managers and sales personnel when they begin to scale, we propose that this timing can be empirically measured by when startups first post these jobs. Leveraging a dataset of job postings, we find that early scalers are more likely to fail, but no evidence of a countervailing benefit in terms of successful exit. Additional analyses suggest that the commitment risk in scaling early outweighs the benefit of reducing imitation risk.
+Managerial Summary: In recent years, a few highgrowth startups (e.g., Facebook and Uber) that made their fortune by scaling early—an approach often referred to as “blitzscaling”—have received much interest among academics and practitioners. However, this study presents large-sample evidence that scaling early is positively associated with a higher rate of firm failure, especially for platform companies. These findings imply that, despite its potential benefits of preventing imitation by competitors, scaling early can suppress startup performance by prematurely curtailing learning through experimentation and committing to a business idea that lacks product-market fit. In sum, our work cautions startups against prioritizing scaling early before finding product-market fit, and instead highlights the importance of spending sufficient time on experimentation before scaling.</t>
+  </si>
+  <si>
+    <t>behavioral strategy, competitive dynamics, experimental study, market entry, pricing</t>
+  </si>
+  <si>
+    <t>Research Summary: Low-price market entries, aiming for rapid sales growth, tend to prompt strong competitive reactions. This research explores whether and how firms using low-price entry strategies can mitigate retaliatory incumbent reactions. An experiment with 656 managers shows that entrants can attenuate the strength of incumbents’ responses by fostering perceptions of high aggressiveness or low commitment. Entrants may be able to accomplish this by adjusting their entry strategy to embed (subtle) cues of aggressiveness and (lack of) commitment. A replication experiment with university students rein- forces our overall theoretical argument. However, the results also indicate that the interpretation of cues embed- ded in the entry strategy may be affected by the experience of incumbent firm managers. Overall, these results clarify the cognitive foundations of competitive responses to market entry.
+Managerial Summary: What drives incumbents to respond strongly to market entries, and what can the entrant, if anything, do to mitigate those responses? This research offers empirical evidence and theoretical insights for managers faced with these questions by shedding light on the thinking processes preceding competitive responses. The study shows that while managers are motivated to respond strongly to market entries that appear to be highly consequential to their business, these responses may be mitigated if the entrant manages to foster perceptions of high aggressiveness or low commitment to the market. Managers form these perceptions in part on the basis of the entrant's behavior, creating an opportunity for entrants to adjust their entry strategies in a manner that demotivates strong competitive responses.</t>
+  </si>
+  <si>
+    <t>university technology transfer, entrepreneurship, technology commercialization, “twin” scientific discoveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which factors shape the commercialization of academic scientific discoveries via startup formation? Prior literature has identified several contributing factors but does not address the fundamental problem that the commercial potential of a nascent discovery is generally unobserved, which potentially confounds inference. We construct a sample of approximately 20,000 “twin” scientific articles, which allows us to hold constant differences in the nature of the advance and more precisely examine characteristics that predict startup commercialization. In this framework, several commonly accepted factors appear not to influence commercialization. However, we find that teams of academic scientists whose former collaborators include “star” serial entrepreneurs are much more likely to commercialize their own discoveries via startups, as are more interdisciplinary teams of scientists. </t>
+  </si>
+  <si>
+    <t>The explosion of crowdfunding within entrepreneurial circles is attracting increased academic interest in the nature of crowdfunding, its antecedents, and its consequences. In an effort to help researchers concentrate their inquiry on the most promising questions and theories involving crowdfunding, we surveyed key thought leaders within the entrepreneurship field—the Entrepreneurship Theory and Practice editorial review board— regarding what inquiry they believe is needed. Their responses offer implications for crowdfunding research. For example, cross-disciplinary work is one approach that board members believe holds high potential. In response, we outline a cross-disciplinary research agenda that can inform scholarly efforts.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial intention, Entrepreneurial career choice, New venture creation, Intention-behavior link, Graduate entrepreneurship</t>
+  </si>
+  <si>
+    <t>In this paper, we build on social cognitive career theory to examine the relation between entrepreneurial intention and new venture creation (i.e., the entrepreneurial career choice). We model how contextual influences at different levels may favor or inhibit the translation of entrepreneurial intention into new venture creation. Using unique longitudinal data from almost the entire population of Italian university graduates, we are able to assess how the immediate (i.e., the influence of relevant others) and larger context (i.e., organizational and environmental influences) affect new venture creation. Our research contributes to the emerging literature of the intention–behavior link in entrepreneurship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The labor market value of former entrepreneurs remains unclear, with both theory and empirical evidence offering mixed conclusions. We suggest that the timing of entrepreneurial experience matters and helps unravel this puzzle. Using Danish employer-employee data on a large sample of university graduates, we show that the option value of testing an entrepreneurial opportunity and then returning to paid employment decreases over an individual’s career. We follow individuals for fifteen years and compare the labor market outcomes of never, early, and late entrepreneurs based on the timing and type of entrepreneurial experience in their careers. Compared to those who have never been entrepreneurs, early entrepreneurs earn higher wages, while late entrepreneurs experience a significant wage penalty in the long run. Both the timing and the type of entrepreneurial experience shape individuals’ subsequent career trajectories and employers’ uncertainty about their value, which partly explain long-term wage differentials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career dynamics, Entrepreneurial experience, University graduates, Wages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science commercialization, Technology transfer, Licensing, Experience, Human capital, Technology transfer office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience defined in terms of time, scope, type, density and timing affect performance of highly skilled administrative staff. We apply a multidimensional model to the field of science commercialization as a typical multi-goal oriented process. We identify how different conceptualizations of experience models lead to diverse conclusions regarding their effects on facets of performance such as speed, efficiency and revenue. Acknowledging multifaceted goals of science commercialization, we further contribute to the body of work on individual level factors regarding universities' commercialization performance. In this paper we provide evidence from the context of universities' commercialization efforts, relying on administrative records of a Japanese university including 845 transfer cases over a 13-year period (2004–2016). By focusing on coordinators working in a technology transfer office, and the various measurement modes of their experience, we detect several important characteristics. While several experience components affect speed and efficiency of technology transfer, our results show that revenue is determined by interaction components. </t>
+  </si>
+  <si>
+    <t>science valorisation, impact, technology transfer, proof-of-concept, public funding, grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governments and public agencies are increasingly keen to support the translation of scientific discoveries into commercial and societal applications through science valorisation funding, as a way to enhance progress and inclusive growth. In this paper, we use grant-level data from the European Research Council Proof-of-Concept (PoC) programme, in order to assess the impact of public funding on a broad set of science valorisation outcomes, including licensing, spinoff formation, R&amp;D collaborations, consulting and access to follow-on funding. We employ an instrumental variable approach to compare the valorisation outcomes of projects that obtained an ERC PoC grant to a group of projects that applied to the PoC scheme but were not funded. We find that the programme was effective in fostering the early valorisation of scientific discoveries by all measures of success that we employed. Overall, thus, our findings speak in favour of this type of policy instrument as a catalyst to accelerate the transition of scientific breakthroughs towards practical applications. </t>
+  </si>
+  <si>
+    <t>The economics literature provides rich evidence on the convergence between the institutional factors and individual-level characteristics influencing the involvement of academia in knowledge transfer activities and spinoff creation. However, little is known about the effects of internal university regulations on academic entrepreneurship. In the lastten years, spinoff activity from academia in Italy has been intensive and most academic institutions have policies related to the regulation of academic entrepreneurship practices, known as ‘Regolamento Spinoff’. This paper investigates the impact of the set of university rules governing the creation of spinoffs, on institutional capability to generate new ventures. Based on panel-data analysis using detailed university-level data on academic spinoffs, we identify three classes of institutionally-defined rules that can motivate faculty members to establish a spinoff company. These are: general rules and procedures; rules regulating monetary incentives; rules related to the entrepreneurial risk. We find that at least some rules pertaining to each of these three classes have some effect on spinoff creation. In particular, we find that monetary incentives play a significant role in promoting academic spinoff activity, and that overly-restrictive university rules regarding contract research have a negative effect on spinoff creation.</t>
+  </si>
+  <si>
+    <t>Spinoff creation, Academic entrepreneurship, University spinoff rules, Knowledge transfer strategies, University-Industry interaction</t>
+  </si>
+  <si>
+    <t>We use original data from a questionnaire survey of 9062 individuals enrolled in PhD programmes in Italy between 2008 and 2014 to conduct an empirical investigation of gender issues in PhD entrepreneurship. The analysis focuses on the influence of the gender balance among academics at the parent university, to measure the opportunities available to female students to engage with same-sex role models and the effect of such engagement on female students' attitudes to applied research and entrepreneurship. Our evidence shows that there is a gender gap in PhD student entrepreneurship and suggests that the gender composition of the academic faculty has a significant impact on female students' attitudes to business-oriented research and its commercialisation, which, in turn, affects their entrepreneurial intention and probability of starting a business. Our results indicate that female students' entrepreneurship would benefit from the opportunities offered by a more gender-balanced work environment and reinforces arguments calling for equality in the academic workplace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student entrepreneurship, Entrepreneurial university, Start-up, PhD, Gender </t>
+  </si>
+  <si>
+    <t>Although science parks are established globally for decades as an innovation policy instrument to foster growth and networking, there is limited attention given towards research into possible types within these real estate objects. Prior attempts in categorising science parks are characterised by the limited number of cases and/or variables. Science parks are believed to enhance innovation, entrepreneurship, and economic value for firms and regions. Past academic research showed mixed results on these performances and it is reasoned that distinct types within science parks exist that might explain these unclear results. We argue that before we can grasp what science parks can do, we should know what they are. Therefore, a survey on science park characteristics was completed by 82 science park managers in Europe. A cluster analysis was conducted which grouped the 82 participating science parks in three types; ‘research’, ‘cooperative’, and ‘incubator’ locations. Next, differences and similarities of these three types within science parks in Europe were analysed as a basis for advancing the academic debate. The types provide further understanding of science parks and offer researchers, practitioners, and policy-makers a means to compare, market, and benchmark science parks more adequately.</t>
+  </si>
+  <si>
+    <t>Europe, Innovation policy, Science park, Cluster analysis, Segmentation</t>
+  </si>
+  <si>
+    <t>The increasing relevance of scientific knowledge for production and innovation requires new instruments for establishing closer relationships between academia and industry. In order to strengthen such relationships, higher education institutes (HEIs), including universities, have institutionalized intermediary organizations such as technology transfer offices (TTOs). It is only recently that research on these organizations has extended its focus from analyzing their functions and performance to the internal processes and practices of their work. Based on qualitative data derived from a process-related focused ethnography, this paper presents insights into the practices of a group of “transfer scouts”. Their distinctive feature is that they are deployed explicitly on the basis of their own scientific and engineering expertise to intensify the university-industry linkages in an East German region. Apart from mere mediation, these transfer scouts become co-creators of new knowledge and technologies in transfer processes. Their orientation towards science, their thematic specialization, their development of digital transfer instruments, their explicit intention to contribute to regional development, as well as their crossinstitutional acting keeps them involved in co-creational and multidirectional knowledge-production and makes them active participants in those processes. For transfer intermediaries, these insights offer an extension of their identity as brokering actors between the academic and the business sectors. Since diverse actors operate in the regional transfer system and confront transfer scouts with tensions between cooperation and competition, negotiation processes can be fiercely contested, met by resistance, and accompanied by conflicts. With regard to complementary practices, as well as in the case of constructive relationships, a durable cooperation between TTOs and transfer scouts promises to generate potentially innovative impulses. But this is less a stable setting than an ongoing process that requires many additional functional competencies and supporting structures to be provided by the organizations. The question arises, whether such complex KTT structures can be successfully institutionalized outside the frame of a fixed term project. Only then is it possible to create realistic expectations towards KTT-intermediaries and establish transfer scouting as an attractive profession in its own right in the entrepreneurial university.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer scouts, knowledge and technology transfer (KTT), intermediation, co-construction, co-evolutionary knowledge production, focused ethnography </t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3519,7 +3614,9 @@
       <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>49</v>
@@ -3547,8 +3644,12 @@
       <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>20</v>
       </c>
@@ -3575,8 +3676,12 @@
       <c r="C61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>20</v>
       </c>
@@ -3603,8 +3708,12 @@
       <c r="C62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>45</v>
       </c>
@@ -3631,8 +3740,12 @@
       <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>45</v>
       </c>
@@ -3659,8 +3772,12 @@
       <c r="C64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
       </c>
@@ -3687,8 +3804,12 @@
       <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>45</v>
       </c>
@@ -3715,8 +3836,12 @@
       <c r="C66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>59</v>
       </c>
@@ -3743,7 +3868,9 @@
       <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>49</v>
@@ -3771,8 +3898,12 @@
       <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
       </c>
@@ -3799,8 +3930,12 @@
       <c r="C69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>20</v>
       </c>
@@ -3827,8 +3962,12 @@
       <c r="C70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>20</v>
       </c>
@@ -3855,8 +3994,12 @@
       <c r="C71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>20</v>
       </c>
@@ -3883,8 +4026,12 @@
       <c r="C72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
       </c>
@@ -3911,8 +4058,12 @@
       <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
       </c>
@@ -3939,8 +4090,12 @@
       <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
@@ -3967,8 +4122,12 @@
       <c r="C75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11AA7D-DEB1-2F4E-95F0-2E2B90043907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30080E-83E1-2C4D-AC34-D8C63FC91D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="455">
   <si>
     <t>#</t>
   </si>
@@ -1383,6 +1383,37 @@
   </si>
   <si>
     <t xml:space="preserve">Transfer scouts, knowledge and technology transfer (KTT), intermediation, co-construction, co-evolutionary knowledge production, focused ethnography </t>
+  </si>
+  <si>
+    <t>To promote entrepreneurship among students, academic institutions should focus on developing a positive entrepreneurial personal attitude (EPA), since it is a strong antecedent of entrepreneurial intentions, which in turn predict actual entrepreneurship. Previous research has found that EPA is lower for women than for men, which is related to the acknowledged gap between women and men in entrepreneurial activity. The present work builds on the elaboration likelihood model (ELM) to examine how nine different entrepreneurship-focused academic activities in school impact on students’ EPA, paying special attention to gender differences. We use a sample of 918 students from a French business school to analyze gender differences in the mechanisms based on ELM central and peripheral routes to promote EPA through academic activities. Post hoc tests are also performed to explore differences by gender at various academic levels. The results have important implications for academic institutions wishing to promote entrepreneurship, since we unpack entrepreneurial education into individual academic activities. In particular, results suggest that students’ gender and academic level should be considered when designing activities to promote entrepreneurship.</t>
+  </si>
+  <si>
+    <t>We employed a longitudinal, grounded-theory approach to investigate the occurrence of an identity crisis in an emerging collective of organizations attempting to form a new academic field. The findings indicate that legacy identities and the nested structure of such organizations have implications for the formation of identity at this level. Specifically, the co-evolution of organization-level and collective-level identities, and the interdependencies between the levels, rendered the collective identity formation process as multiphased, complex, contentious, and continuously precarious—ultimately leading to an identity crisis that was resolved not by arriving at a “consensual identity,” but, rather, a “coherent identity.” The findings contribute to the nascent stream of literature on collective identity beyond the organizational level by explicating identity-work processes involved in the precipitation, manifestation, and resolution of an identity crisis in an emerging field.</t>
+  </si>
+  <si>
+    <t>How can leaders best manage commitment among innovators? We applied theory on dual allegiance to multiple targets of commitment, in conjunction with person-organization fit theory, to explore the dynamics of organizational and professional commitment among scientists and engineers working in hybrid, research-focused organizations. These types of organizations are founded on large-scale multidisciplinary and multi-institutional collaboration between academe and industry. Using both individualand organizational-level variables collected from 255 academic science and engineering researchers working in 22 National Science Foundation-funded Engineering Research Centers, our analyses revealed that researcher innovation orientation (i.e., the predisposition to approach work in novel ways) was positively associated with organizational and professional commitment. Those relationships were moderated by two factors: organizational productivity in late-stage technology transfer and the researcher‘s perceived role significance (i.e., in fulfilling the strategic mission of the organization). The strongest positive relationship between innovation orientation and organizational commitment emerged among researchers who perceived high role significance and worked in highly productive organizations. A negative relationship between innovation orientation and professional commitment also emerged among those individuals. Post-hoc analyses revealed that highly innovative, senior researchers who perceived high role significance were the most likely to report higher levels of both organizational and professional commitment. Leaders of multi-disciplinary research centers who are aware of the complexity of dynamics among organizational commitment, professional commitment, and role significance may be better equipped to effectively manage science and engineering researchers.</t>
+  </si>
+  <si>
+    <t>Innovation orientation, Technology transfer, Organizational commitment, Professional commitment, Role significance, Multi-Institutional Multi-Disciplinary, University Research Centers</t>
+  </si>
+  <si>
+    <t>Research Summary: Research on industry evolution highlights the role of knowledge-building activities of startups and established firms in shaping knowledge evolution in a nascent industry. Yet, research thus far has overlooked the possibility that differences between startups and established firms might also shape the diffusion of the knowledge that they build. This study abductively explores this conjecture in the context of solar energy by examining the extent to which the photovoltaic cell inventions that firms create spur subsequent inventions by other firms. In contrast with existing literature highlighting differences across firms in the types of inventions they create, this study reveals asymmetries between startups and established firms in the diffusion of the knowledge underlying their inventions, even when they create inventions with similar attributes.
+Managerial Summary: This study examines differences between startups and established firms in shaping knowledge diffusion in a nascent industry. Using data from photovoltaic cell patents, it shows that startups' inventions spur more subsequent inventions by other firms, even when compared to established firms' inventions with similar attributes. Findings indicate that such asymmetry is not driven by knowledge transfer mechanisms but rather by factors associated with knowledge spillovers. Specifically, findings reveal that university citations of a startup's patents draw other firms' attention to those patents, and that startups are less able to preempt rivals through cumulative inventions and less able to rely on litigiousness to deter rivals from building on their patents. These findings underscore the asymmetric influence startups have in shaping the knowledge underlying a nascent industry.</t>
+  </si>
+  <si>
+    <t>abduction, industry evolution, knowledge diffusion, knowledge spillovers, knowledge transfer</t>
+  </si>
+  <si>
+    <t>Prior studies of academic science have largely focused on researchers in life sciences or engineering. However, while academic researchers often work under similar institutions, norms, and incentives, they vary greatly in how they organize their research efforts across different scientific domains. This heterogeneity, in turn, has important implications for innovation policy, the relationship between industry and academia, the scientific labor market, and the perceived deficit in the relevance of social sciences and humanities research. To understand this heterogeneity, we model scientists as publication-maximizing agents, identifying two distinct organizational patterns that are optimal under different parameters. When the net productivity of research staff (e.g., PhD students and postdocs) is positive, the funded research model with an entrepreneurial scientist and a large team dominates. When the costs of research staff exceed their productivity benefits, the hands-on research approach is optimal. The model implies significant heterogeneity across the two modes of organizing in research funding, supply of scientific workforce, team size, publication output, and stratification patterns over time. Exploratory empirical analysis finds consistent patterns of time allocation and publication in a prior survey of faculty in U.S. universities. Using data from an original survey, we also find causal effects consistent with the model’s prediction on how negative shocks to research staff—due to visa or health problems, for example—differentially impact research output under the two modes of organization.</t>
+  </si>
+  <si>
+    <t>scientific teams, collaboration, academic research, science policy, research relevance, research funding, university industry relationship, performance heterogeneity</t>
+  </si>
+  <si>
+    <t>The transfer of complex knowledge and skills is difficult, often requiring intensive interaction and extensive periods of coworking between a mentor and mentee, which is particularly true in apprenticeship-like settings and on-the-job training. This paper studies a context that quintessentially describes this type of learning: the academic laboratory. I focus on ways a change in the attention of a principal investigator, moving to entrepreneurship, may influence knowledge transmission and skill development by examining the relationship of this change with their PhD students’ scientific productivity and careers. To do so, I rely on novel restricted-access data encompassing faculty and PhD students in computer sciences, engineering, and the life sciences who were active at an elite U.S. research university from 2001 to 2017. The results suggest a substantial negative association between a professor’s entrepreneurial activity and the short- and long-run publication output of the PhD students they train. Furthermore, I detect a decrease in students’ likelihood of becoming professors themselves but an increase in their likelihood of working for consulting firms on graduation. Finally, I provide evidence suggesting that changes in trainee development are the most feasible drivers of the results rather than changes in trainee research orientation, selection, or life cycle effects.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, productivity, innovation, entrepreneurial supervisors, human capital development, knowledge-based economy</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4154,7 +4185,9 @@
       <c r="C76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>233</v>
@@ -4182,7 +4215,9 @@
       <c r="C77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
         <v>173</v>
@@ -4210,8 +4245,12 @@
       <c r="C78" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>20</v>
       </c>
@@ -4238,8 +4277,12 @@
       <c r="C79" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>45</v>
       </c>
@@ -4266,8 +4309,12 @@
       <c r="C80" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>14</v>
       </c>
@@ -4294,8 +4341,12 @@
       <c r="C81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>14</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB30080E-83E1-2C4D-AC34-D8C63FC91D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9ECA5-6B27-4942-AAC7-36DC62F89EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="471">
   <si>
     <t>#</t>
   </si>
@@ -1414,6 +1414,60 @@
   </si>
   <si>
     <t>academic entrepreneurship, productivity, innovation, entrepreneurial supervisors, human capital development, knowledge-based economy</t>
+  </si>
+  <si>
+    <t>What role do differences in founders' occupational backgrounds play in new venture performance? Analyzing a novel dataset of 2998 founders creating 1723 innovative startups in biomedicine, we find that the likelihood and hazard of achieving a liquidity event are lower for academic than for non-academic startups. However, academic startups produce as many patents and receive as much funding as non-academic startups, suggesting that the observed differences in achieving a liquidity event are not driven by differential invention performance. Exploiting heterogeneity among academic startups, we also find that differences between professor and student startups do not explain academic startups' comparatively low performance on the exit market vis-à-vis nonacademic startups. Yet, startups founded by superstar professors perform similarly to non-academic startups on the exit market for new ventures, and better than startups founded by highly productive professors but without external certification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation, Occupational imprinting, Academic startups, Non-academic startups, Founder heterogeneity </t>
+  </si>
+  <si>
+    <t>While external funding is indispensable for most entrepreneurs to scale their ventures, entrepreneurship literature highlights the additional benefits of investors' continued involvement, such as access to their expertise and network. Angel investors, whose primary value-add often emerges through their relationship with the entrepreneurs, generate particularly pronounced benefits. Entrepreneurship research has established that bringing angel investors on board comes at the cost of relinquishing partial equity, which restricts entrepreneurs' control over their ventures; however, the individual-level consequences of funding for entrepreneurs remain largely unexplored. To address this gap, we study how angels' funding and their post-investment involvement in the venture affect entrepreneurs' eudaimonic well-being in the long term. Drawing on selfdetermination theory, we explore further how the psychological need for autonomy, competence, and relatedness mediates the relationship between angel funding and entrepreneurs' wellbeing. Self-determination theory states that individuals' verbalized language reflects their needs; accordingly, we use Linguistic Inquiry and Word Count (LIWC) analysis on a unique dataset of almost 125 million words derived from the tweets of 1667 entrepreneurs on X (formerly Twitter). As hypothesized, we find a positive association between angel funding and entrepreneurs' wellbeing. Autonomy negatively mediates this relationship, while competence and relatedness mediate it positively. We advance research on entrepreneurs' eudaimonic well-being and extend the literature on self-determination theory and individual-level consequences of angel funding.
+Executive summary: Entrepreneurs often face a difficult trade-off: They must decide whether to accept funding from angel investors or relinquish some control over their venture. While much research centers on the business implications of this trade-off (Davila et al., 2003; Politis, 2008), the personal impact on entrepreneurs' eudaimonic well-being remains underexplored (Collewaert and Sapienza, 2016). This knowledge gap is concerning because entrepreneurs' well-being closely relates to their ventures' performance (Stephan et al., 2020b; Wach et al., 2016). Recent calls for research (Stephan et al., 2023) emphasize the need to understand how external factors, like investor involvement, affect entrepreneurs' well-being by influencing the extent to which their psychological needs for autonomy, competence, and relatedness are satisfied, as outlined by self-determination theory (SDT) (Deci and Ryan, 1985, 2000). Despite the recognized importance of these factors, the impact of angel investors, who often form close relationships with  entrepreneurs and engage deeply in their ventures (Fairchild, 2011; Politis, 2008), has been largely overlooked.
+Our study addresses this gap by examining how angel funding and subsequent involvement influence entrepreneurs' eudaimonic long-term well-being. Using a dataset of 125 million words compiled from 1667 entrepreneurs' tweets on Twitter (now X) from 2006 to 2022, we apply Linguistic Inquiry and Word Count (LIWC) analysis to gain insights into the psychological states of these entrepreneurs (Block et al., 2019; Obschonka et al., 2017). This approach aligns with SDT, which posits that psychological needs fulfillment manifests in communication (Vansteenkiste et al., 2020).
+Our findings reveal that angel investor involvement can significantly influence entrepreneurs' eudaimonic well-being—positively and negatively—by affecting entrepreneurs' psychological needs fulfillment. Our study thus complements research on entrepreneurs' well-being with longitudinal insights. First, it extends the literature on entrepreneurial well-being by providing a nuanced understanding of how angel funding and involvement, mediated by autonomy, competence, and relatedness, affect entrepreneurs' well-being over time (Stephan et al., 2023). Second, our study contributes to SDT literature by contextualizing investor involvement as an external factor and using large-scale social media data to assess entrepreneurs' psychological needs (Stephan et al., 2020a). Third, our study highlights the importance of the dynamics between angel investors and entrepreneurs, showing that such relationships significantly shape entrepreneurs' personal outcomes (Collewaert and Sapienza, 2016; Politis, 2008).
+Beyond academic contributions, our study offers practical insights for entrepreneurs, angel investors, policy-makers, and universities by emphasizing the importance of understanding and managing the entrepreneurs' personal impacts of bringing angel investors on board.</t>
+  </si>
+  <si>
+    <t>Business angel investors, Entrepreneurs, Well-being, Psychological needs, Tweets, Linguistic Inquiry and Word Count (LIWC), Investor–investee relationship</t>
+  </si>
+  <si>
+    <t>Although previous studies show that the emergence of evaluation criteria for a new technology improves the life chances of well-performing firms, we theorize that consensus in such criteria among technology experts increases investments to all firms in the new sector. We provide a variety of supportive evidence for this claim. First, in an experiment with 80 Chinese investors (Study 1), we provide evidence of a causal relation between evaluation consensus and investments. We follow this with a second experiment with 412 U.S. participants (Study 2), showing that evaluation criteria consensus increases participants’ propensity to view a firm as technologically competent and to expect others to favor investing in the firm. Analyses of longitudinal archival data on investment in artificial intelligence technology firms in the United States (Study 3a) and China (Study 3b) support the generalizability of our findings. By exploring the social-cognitive processes that link evaluation criteria consensus to investors’ decisions to invest in firms in nascent technology fields, this paper advances the scholarly understanding of the microfoundations of the institutionalization processes in new market sectors.</t>
+  </si>
+  <si>
+    <t>evaluation criteria, evaluation criteria consensus, investment, nascent technology, micro-foundations of institutional theory, experimental methods</t>
+  </si>
+  <si>
+    <t>Different streams of research have led to contradictory conclusions about the venture performance implications of founders’ breadth of experience. Although extant empirical studies have explored the performance implications of founders’ breadth of experience at the start-up stage, we focus on the later stage of the initial public offering (IPO). We theorize that investors categorize venture founders based on two salient dimensions—their industry and functional background—and we relate this categorization to resource acquisition at IPO. To test our model, we use a hand-collected data set of 175 entrepreneurial IPOs in the Alternative Investment Market in London (2002–2013) and two randomized experiments. We theorize and find that compared with entrepreneurial ventures with a lead founder specializing in one industry or one function, investors generally devalue those with a category-spanning lead founder (a generalist). However, devaluation is less severe when a lead founder is a generalist in one dimension (e.g., industry) but a specialist in the other dimension (e.g., function). We also theorize and empirically test trust as a mechanism for the generalist penalty. Specifically, audience members (investors) have low trust in a generalist producer (founder) in contexts where the two parties consider entering into a partnership (equity investment at IPO), and so that generalist producer is devalued. Finally, we show that an external expert endorsement—in our case, from intensive venture capital affiliations—offsets the generalist penalty, especially when category spanning occurs in multiple category dimensions.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, social categories, trust</t>
+  </si>
+  <si>
+    <t>Pasteur’s Quadrant model, published by Stokes in 1997, presents a two-dimensional abstract conceptual framework that proved immensely helpful to study and discuss institutional and policy arrangements in science. However, during the last 10 years the PQ model was also applied in a series of large-scale, survey-based studies worldwide to classify individual modern-day researchers according to their research orientation and performance.
+This paper argues that such applications are inadequate to capture key characteristics of individual researchers, especially those within the heterogeneous ‘Pasteur type’ group who engage in ‘use-inspired’ basic scientific research. Addressing this shortcoming, Pasteur’s Cube (PC) model introduces a new heuristic tool. Departing from a three-dimensional conceptual framework of research-related activities, the model enables a range of typologies to describe and study the large variety of academics at today’s research-intensive universities. The PC model’s analytical robustness was tested empirically in two interrelated ‘proof of concept’ studies: an exploratory survey among 150 European universities and a follow-up case study of Leiden University in the Netherlands. Both studies, collecting data for the years 2010–2015, applied a metrics-based taxonomy to classify individual academic researchers according to four performance categories: scientific publication output, research collaboration with the business sector, patents filings, and being engaging in entrepreneurial activities.
+The collective results of both studies provide more clarity on relevant subgroups of use-inspired researchers. The PC model can be used to guide empirical, metrics-based investigations of research activities and productivities, applies this approach to two case studies, and demonstrates the utility of the method while also reinforcing and enriching the growing body of literature showing that cross-sectoral and cross-functional research activities are more scientifically productive than research carried out in isolation of the context of use. Introducing the ‘Crossover Collaborator’ subtype helps to explain why Pasteur type researchers tend to outperform other types of researchers in terms of publication output and citation impact.</t>
+  </si>
+  <si>
+    <t>Application oriented science, University researchers, Human resources analytics, Classification system, Science and innovation policy</t>
+  </si>
+  <si>
+    <t>As the international mobility of academic scientists is ever increasing, its effects on outcomes beyond research productivity deserve more attention. In this paper, we therefore investigate to what extent academics with different international mobility experiences differ in their likelihood to commercialize their research through entrepreneurship. To answer this question, we make use of a detailed survey covering all academics employed at Danish universities in 2017. Empirically, we distinguish three groups of academics according to their international experience (stayers, returnee, and immigrants) and focus on entrepreneurial outcomes realized while residing in the host country, Denmark. The estimation of duration models reveals that returnees are more than 50% more likely to become academic entrepreneurs than stayers. Immigrants, however, were between 38 and 47% less likely to start a firm than returnees. This difference seems to increase at higher levels of commercially relevant research and international research stays at international top institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, International mobility of scientists, High-skilled migration, Immigrant entrepreneurship </t>
+  </si>
+  <si>
+    <t>Many of society’s grand challenges, like access to education, improved public health, and building smart infrastructure, occur in established fields, often ones where noncommercial logics matter. Grounded in a theory-building study of two well-matched EdTech ventures in the nascent MOOC market in the U.S. higher education field, we unpack their strategy formation processes. These ventures faced the dual problem of forming a successful strategy in a nascent market while changing an established field. Our primary contribution is a theoretical framework that identifies two distinct yet effective processes. One (Maverick) is a competitive, learning centric process, whereas the other (Diplomat) is a cooperative, diplomacy-centric one. Although distinct, these processes unexpectedly share the same decision weaving (i.e., hybrid) problem-solving structure that fits complex, novel problems like strategy formation. Broadly, we contribute to institutional theory and institutional entrepreneurship by introducing the diplomacy lens, its tactics, and firm performance. We contribute to learning theory and entrepreneurship by identifying the unique features of learning in established markets, including the limits to rapid experimentation and the value of collaborative learning for changing established fields. We add to practice by emphasizing the difficulty of achieving both commercial success and societal impact. Overall, we bridge the gap between institutional and commercial entrepreneurship.</t>
+  </si>
+  <si>
+    <t>strategy, strategy formation, entrepreneurship, nascent markets,  institutional entrepreneurship, learning, diplomacy, pivot</t>
+  </si>
+  <si>
+    <t>We extend organizational justice theory by investigating the justice perceptions of academic entrepreneurs regarding interactions with their universities. We assess how these justice perceptions influence the propensity of academic entrepreneurs to engage in different forms of commercialization, as well as the moderating role of entrepreneurial identity and prosocial motivation. We test our predictions using data from 1,329 academic entrepreneurs at 25 major U.S. research universities. Our results indicate that organizational justice is positively associated with intentions to engage in formal (i.e., sanctioned) technology transfer, and negatively associated with intentions to engage in informal (unsanctioned and noncompliant) technology transfer, which we characterize as a form of organizational deviance. Our findings also show that entrepreneurial identity and prosocial motivation (i.e., a focus on oneself vs. others) amplify and attenuate, respectively, the relationship between justice perceptions and technology transfer intentions. Finally, although intentions to engage in formal technology transfer predict subsequent behavior, intentions to engage in informal technology transfer do not.</t>
+  </si>
+  <si>
+    <t>organizational justice, entrepreneurial identity, prosocial motivation, technology transfer, entrepreneurship</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4373,8 +4427,12 @@
       <c r="C82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>20</v>
       </c>
@@ -4401,8 +4459,12 @@
       <c r="C83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4429,8 +4491,12 @@
       <c r="C84" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
@@ -4455,8 +4521,12 @@
       <c r="C85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
@@ -4481,8 +4551,12 @@
       <c r="C86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
       </c>
@@ -4509,8 +4583,12 @@
       <c r="C87" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
       </c>
@@ -4537,8 +4615,12 @@
       <c r="C88" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>14</v>
       </c>
@@ -4565,8 +4647,12 @@
       <c r="C89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4594,7 +4680,6 @@
         <v>274</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
         <v>49</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9ECA5-6B27-4942-AAC7-36DC62F89EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93DA6D-A8A3-4A4D-B2AB-FA359F8C430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="489">
   <si>
     <t>#</t>
   </si>
@@ -1468,6 +1468,66 @@
   </si>
   <si>
     <t>organizational justice, entrepreneurial identity, prosocial motivation, technology transfer, entrepreneurship</t>
+  </si>
+  <si>
+    <t>This essay contrasts a perspective that places an excessive focus on technology businesses and growth with a view of entrepreneurship that embraces its heterogeneity. We challenge a taken-for-granted belief that only certain kinds of entrepreneurship might lead to wealth and job creation and additionally suggest that these two outcomes (wealth and job creation) need to be placed within a broader context of reasons, purposes, and values for why and how entrepreneurship emerges. We suggest that a wider and nondiscriminatory perspective on what constitutes entrepreneurship will lead to better theory and more insights that are relevant to the phenomenon.</t>
+  </si>
+  <si>
+    <t>Despite the assumption that symptoms of hypomania are detrimental, they may prove beneficial within self-employment contexts. Drawing on person-environment (P/E) fit theory and using the first National Epidemiologic Survey on Alcohol Related Conditions (NESARC 1), our conservative inferences are that for self-employed individuals, hypomania has a positive association with income, self-employed individuals with higher education have higher levels of income with increasing hypomania score, and older self-employed individuals with a higher hypomania score have a higher income. These findings have implications for the literature on hypomania symptoms and selfemployment related labor market outcomes.</t>
+  </si>
+  <si>
+    <t>hypomania score, income, self-employment</t>
+  </si>
+  <si>
+    <t>In this study, we explore how failure in the form of the first lost game of the college football season for a team influences specific content within the narratives constructed regarding that loss and how those narratives are associated with subsequent performance. Building on theoretical perspectives regarding sports management, entrepreneurial orientation (EO), emotions, and the use of narratives for sensemaking, we develop and test an EO-related sports management model of failure narratives. Using computer-aided text analysis of transcripts from head coaches’ press conferences directly following their team’s first loss of the season as well as regression analysis, we found that the narrative’s EO content has a U-shaped relationship with subsequent (i.e., next game) performance. Additionally, negative emotional content had a similar U-shaped relationship with subsequent performance. Finally, positive emotional content exhibited an inverse U-shaped relationship with subsequent performance. We discuss the implications of these results on the literatures regarding EO, emotions, and sports management as well as possible avenues for future research.</t>
+  </si>
+  <si>
+    <t>This study investigates how venture development programs such as private incubators, university incubators, and accelerators influence the success of participating nanotechnology startups. With the recent growth in such programs, empirical work is needed to compare their impact on participants across programs and with nonparticipants. Using data on firm bankruptcies, liquidation, government grants, and venture capital, we find benefits, but the influence of each venture development program varies greatly. We further investigate the influence of program services and resources to clarify program heterogeneity beyond existing typologies. The results clarify the role of these programs and ecosystem intermediaries.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, startup, new ventures, venture performance, incubators</t>
+  </si>
+  <si>
+    <t>Given calls for more rigorous research able to measure the impact of entrepreneurship education, this study proposes guidelines for enhancing methodological and reporting practices. First, drawing on prior research syntheses, we developed a descriptive validity framework that outlines key elements for rigorous evaluation research. Second, we use this framework to examine 61 quantitative, university-based entrepreneurship education impact studies to identify and describe methodological and reporting practices that are most prevalent. The result is a set of Impact Evaluation Research Standards for entrepreneurship educators and scholars wishing to improve education evaluation research.</t>
+  </si>
+  <si>
+    <t>descriptive validity, program evaluation, entrepreneurship education, systematic review, methodology</t>
+  </si>
+  <si>
+    <t>The dearth of minority entrepreneurs has received increasing media attention but few academic analyses. In particular, the funding process creates challenges for either audit or correspondence methods, making it difficult to assess the role, or type, of discrimination influencing resource providers. We use a novel approach that combines analyses of 7,617 crowdfunding projects with an experimental design to identify whether African American men are discriminated against and whether this reflects statistical, taste-based, or unconscious bias on the part of prospective supporters. We find that African American men are significantly less likely than similar white founders to receive funding and that prospective supporters rate identical projects as lower in quality when they believe the founder is an African American male. We conclude that the reduction in perceived quality does not reflect conscious assumptions of differences in founder ability or disamenity but rather an unconscious assumption that black founders are lower quality. In two additional experiments, we identify three means of reducing this bias: through additional evidence of quality via third-party endorsements (i.e., awards, evidence of prior support), through evidence that African American founders have succeeded previously, and by removing indicators of the founder’s race.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, crowdfunding, economic discrimination, inequality</t>
+  </si>
+  <si>
+    <t>The entrepreneurial teams that form around university-based technologies influence whether and how those technologies are commercialized. Past research has emphasized the roles of external actors, such as technology transfer officers or investors, in managing the evolution of academic startup teams. But less is known about how individual scientist-inventors form their initial teams. To explore that process, we conducted longitudinal interviews with nine scientist-inventors leading nascent startups at major U.S. universities. Our analyses revealed that these scientists were working with a more extensive set of commercially-relevant knowledge and network connections than past research has accounted for. In fact, the scientists had their own “lay theories” of academic entrepreneurship that encompassed team-specific ideas as well as broader ideas about how their technologies ought to be commercialized. We identified four “design principles” capturing key variations in what the scientists hoped to achieve through their teams: control, scope, entitativity, and dynamism. We further found these principles clustered into three distinct commercialization models, which we called Lab, Gig, and Enterprise. Finally, we elaborated the models’ implications for the scientists’ team formation strategies, the sources through which they identified new members, and their approaches to dealing with administrators and investors. Our findings change what we know about nascent academic startups by showing how scientists play a critical internal role alongside, prior to, and sometimes instead of the external drivers of team formation whose roles have been more extensively documented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, Entrepreneurial teams, Founders, Cognition, Knowledge, New ventures, Team design </t>
+  </si>
+  <si>
+    <t>This study examines how university-firm (U-F) interactions affect innovation speed in science-intensive small and medium-sized firms (SISMEs). We distinguish between formal and informal U-F interactions and build on dynamic capability theory to argue that (1) U-F R&amp;D alliances enhance innovation speed through firm-level entrepreneurial orientation (EO), and (2) frequent U-F informal contacts weaken the effects of U-F R&amp;D alliances on innovation speed. Analyzing a sample of 268 SISMEs from 10 science parks in China, the results of the partial least squares structural equation modeling (PLS-SEM) support our hypotheses. Furthermore, fuzzy-set qualitative comparative analysis (fsQCA) identifies various configurations of U-F R&amp;D alliances, U-F informal contacts and EO, along with other organizational, science park and environmental conditions, that lead to higher or lower innovation speed in SISMEs. Our findings offer valuable theoretical and practical insights, advancing our understanding of the complex relationship between U-F interactions and innovation speed in SISMEs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">university-firm (U-F) R&amp;D alliances, university-firm (U-F) informal contacts, Entrepreneurial orientation, Innovation speed, Science-intensive SMEs </t>
+  </si>
+  <si>
+    <t>Although research has examined the benefits of military service and the impact of military executives on business operations, the relationship between military service and entrepreneurial behavior remains poorly understood. Using the instrumental variable approach and a nationally representative male sample from the China Labor-forces Dynamic Survey, we discovered that military service significantly increased the probability of entrepreneurship in China, even after a series of robustness checks. Mechanism tests indicated that this positive effect could be explained by human and political capital accumulation, military-related social capital formation, and risk appetite traits. Our supplemental analyses demonstrated that exogenous shocks from the special military-in-business policy strengthened the positive entrepreneurial effect, whereas the higher education expansion policy and China’s accession to the World Trade Organization weakened this effect. Additionally, military entrepreneurs had better business performance and more resilient, persistent, and confident traits. We found no evidence that Chinese veterans were forced to become entrepreneurs. This study enriches research on the styles and traits of military entrepreneurs and managers and provides important insights for assessing and improving veteran welfare policies in China and other developing countries.</t>
+  </si>
+  <si>
+    <t>military service, entrepreneurial behaviors, military entrepreneurs, China</t>
+  </si>
+  <si>
+    <t>Entrepreneurship has become an attractive career option for both the young and the old, but age has not been thoroughly examined as a variable of interest among entrepreneurship scholars. In this review, we present 12 theoretical perspectives regarding the effect of age on entrepreneurs' success and our critiques. We then present results of an exploratory meta-analysis with effect sizes from 102 samples. The results show that age has a weak, positive linear relationship with overall entrepreneurial success, but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample. The effect size of age does not differ by entrepreneurs' tenure running the firm. In terms of the type of success measures, age has a negative effect on growth but a positive effect on subjective success, firm size, and financial success, and no effect on survival. We compare our results with previous meta-analyses on employees' age to show the uniqueness of entrepreneurs' careers and we offer suggestions for future studies.
+Executive summary: The work population is aging, and entrepreneurship has become an attractive career option for both the young and the old. Age has often been included in empirical studies as a control variable to predict entrepreneurs' success, but with inconsistent empirical findings and inadequate attention to age's theoretical role, it is not clear whether older entrepreneurs are as successful as their younger counterparts.
+The current study has two related components. First, we provided a much-needed review of the alternative theoretical perspectives on the effect of age on entrepreneurial success. These 12 perspectives focused on various age-related mechanisms, namely personal health, rigidity, risk propensity, time's value, discrimination, human capital, social capital, financial capital, emotion, life stages, family obligation, and gender stereotype. We found that explicit theoretical explanations are rare and fragmented for addressing entrepreneurs' age-success relationship. Most of the existing perspectives are simplistic, equivocal, and sometimes contradictory. Guided by the above review, we proposed several research questions about several contingency factors, such as the entrepreneur's life stage, gender, and tenure running the business, which would help us gain a more nuanced understanding of the age-success relationship.
+Second, we empirically examined the research questions in an exploratory meta-analysis based on 102 independent samples. Indeed, we found more nuanced results than are typically apparent. The results show that age has a weak, positive linear relationship with overall entrepreneurial success ( =0.02), but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample, suggesting female entrepreneurs' chance of success is higher at later life stages. The effect size of age does not differ by entrepreneurs' tenure running the firm, thus ruling out the possibility that the age-success effect is primarily driven by tenure effect or selection bias.
+We performed some robustness checks for the meta-analytic results. We found age's effect is not affected by the study's publication year, but the effect differs across the world. In terms of the type of success measures, we found age has a negative effect on growth, but a positive effect on subjective success, firm size, and financial success, and no effect on firm survival. Older entrepreneurs tend to have larger businesses, so older entrepreneurs are “punished” for having a larger denominator in the calculation of growth, putting them in an unfair position if growth is the sole measure of success.
+We compared our results with previous meta-analyses on employees' age, and one clear distinction is that previous meta-analyses reported an inverted U-shaped relationship between employees' age and overall performance, while our study shows the opposite, U-shaped relationship between entrepreneurs' age and success. This difference is probably due to the fact that entrepreneurial careers involve different resource commitments, job requirements, and success criteria compared to traditional careers, making people at a specific age more likely to succeed in one career but not in the other.
+Our study shows that researchers need to rethink the theoretical role of age, account for potentially simultaneous operation of theoretical mechanisms, and identify new research directions. We call for more studies to address the unique promises and challenges entrepreneurs in each life stage will face, and we provided some suggestions to increase the rigor of future studies. It is imperative to study the intra-individual aging effect through tracking a large cohort of entrepreneurs over decades with repeated measures of their cognitive intelligence, motivations, role identities, and success. Because male entrepreneurs outnumber female entrepreneurs, it is necessary to oversample female entrepreneurs or seek a matched sample, so that any genderrelated differential effects can be demonstrated fully. Because many entrepreneurs work in teams, future studies can compare founding teams of the same age (e.g., college classmates) and teams of different ages, and investigate how members of each type of team can collaborate to maximize their chance of success.</t>
+  </si>
+  <si>
+    <t>Age, Entrepreneur, Gender, Diversity, Performance, Career success, Meta-analysis</t>
   </si>
 </sst>
 </file>
@@ -1850,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,7 +4739,9 @@
       <c r="C90" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
       </c>
@@ -4706,8 +4768,12 @@
       <c r="C91" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
       </c>
@@ -4734,7 +4800,9 @@
       <c r="C92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -4762,8 +4830,12 @@
       <c r="C93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
       </c>
@@ -4790,8 +4862,12 @@
       <c r="C94" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
       </c>
@@ -4818,8 +4894,12 @@
       <c r="C95" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>59</v>
       </c>
@@ -4846,8 +4926,12 @@
       <c r="C96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
       </c>
@@ -4874,8 +4958,12 @@
       <c r="C97" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>20</v>
       </c>
@@ -4902,8 +4990,12 @@
       <c r="C98" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>49</v>
       </c>
@@ -4930,8 +5022,12 @@
       <c r="C99" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93DA6D-A8A3-4A4D-B2AB-FA359F8C430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA02E1F-FCA1-8845-BCA7-E9C2BE925B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="7300" windowWidth="48540" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="1520" yWindow="7300" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -1046,488 +1046,488 @@
     <t>academic entrepreneur, entrepreneurial team, generality, innovation, market opportunities, problem-solving perspective</t>
   </si>
   <si>
-    <t xml:space="preserve">Research Summary: High-tech startups develop technologies, the market applicability of which can vary widely, enabling startups to target a range of market segments. Using a question-driven approach to contrast startups with and without academic founders, we investigate the difference in the market applicability between the two groups on a sample of 988 startups in the artificial intelligence (AI) field. Our findings reveal that academics' pursuit of basic research drives the creation of general knowledge, which in turn leads to wider market applicability. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain. Our findings highlight the role of problem-formulation and -solving in startups and of academic startups within AI.
+    <t>entrepreneurship; organizational sectors; signaling; venture capital</t>
+  </si>
+  <si>
+    <t>Increasing efforts aim at economic development and the reduction of poverty in developing countries through microcredit-enabled entrepreneurship. Following the award of the Nobel Peace Prize to Prof. Yunus, microcredit lending has risen to prominence and the volume of microcredit loans has increased substantially. However, theory on the outcomes of this financing form is controversial. Furthermore, the academic community lacks conclusive empirical evidence about the impact of such programs. Primary empirical studies report fragmented and to a large extent contradictory results. In this meta-analysis, we empirically synthesize a total of 545 quantitative empirical findings from 90 studies conducted to date. Our findings reveal a positive impact of microcredit on key development outcomes at the level of the client entrepreneurs. Additionally, we scrutinize how the development context influences the effectiveness of microcredit and find that microcredit generally has a greater impact in more challenging contexts. With our findings we contribute to research on the nexus of entrepreneurship and economic development, and offer recommendations for practitioners and academics working on this promising frontier.</t>
+  </si>
+  <si>
+    <t>Microcredit, Microloans, Human development, Base of the pyramid, Development entrepreneurship</t>
+  </si>
+  <si>
+    <t>Higher education, Excellence initiative, Policy intervention, Research quantity, Research quality</t>
+  </si>
+  <si>
+    <t>This paper analyses the impact of the Excellence Initiative (EI) in Germany, a policy intervention aimed to promote and select outstanding active research universities by competitively allocating additional public funds. Academic debate on efficiency and effectiveness of higher education policy does not addresses issues such as treatment and selection effects, suffers from generalizable measurement problems, and does not take a comparative approach. Our objective is to fill this gap by adopting Italy as a control country. In doing so, this paper examines (1) whether this policy approach is suitable to stimulate the system and the awarded institutions, (2) how the performance impact can be measured and (3) whether the results are driven by country specific effects or are generalizable. To this end, we applied a triple difference-in-differences analysis (DDD) on a dataset of 72 German and 51 Italian state universities during the first round of the EI, from 2004 to 2013. We found that the EI has had a positive effect on research quantity, but a reverse effect on research quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study examines how the identity orientation of founders, i.e., the extent to which they define themselves in terms of their relationships to others and to social groups, is imprinted by their professional logic and influences their ambitions for venture growth. We draw on existing insights regarding the Darwinian, Communitarian, and Missionary orientation of entrepreneurs and on interviews with 29 founders to develop our hypotheses, which we then test in a sample of 58 academic and 113 non-academic founders that participated in a venture competition. We argue that, compared to non-academic institutional logics, academic logics are tied to a stronger Communitarian and Missionary orientation and a weaker Darwinian orientation in founders. A stronger Darwinian orientation values venture growth, whereas a stronger Communitarian orientation appraises the benefit of the technology for a restricted set of people at the expense of such growth ambitions. A stronger Missionary orientation values welfare maximization for society which may to some degree entail higher growth aspirations. We argue and empirically confirm that these identity orientations explain why academic founders hold lower growth aspirations for their start-up than non-academic founders. Our findings can at least partially clarify why academic start-ups do not grow according to expectancies. They theoretically advance our insights in academic entrepreneurship and founders' growth aspirations while also extending the literature on founders' identity orientation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotion, Intention, Motivation, Technology transfer, Commercialization, Academic entrepreneurship, Economic development and growth </t>
+  </si>
+  <si>
+    <t>We compare individuals presently employed either at a university, or at a firm from an R&amp;D-intensive sector, and analyze which of their personal-specific and employer-specific characteristics are related to their choice to leave their present employer for an own startup. Our data set combines the population of Danish employees with their present employers. We focus on persons who at least hold a Bachelor’s degree in engineering, sciences and health and track them over 2001-2012. We show that (i) there are overall few differences between the characteristics of university and corporate startup entrepreneurs, (ii) common factors associated with startup activity of both university and corporate employees are education, top management team membership, previous job mobility and being male, (iii) it is primarily human capital-related characteristics that are related to startup choice of university employees while (iv) the characteristics of the present workplace are the foremost factors of entrepreneurial activity by corporate employees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University startups, Corporate startups, Founder characteristics, Employee retention, Human capital </t>
+  </si>
+  <si>
+    <t>IPO, Signaling, Valuation, Underwriter, Venture capitalist, Academic entrepreneurship, Spinoff</t>
+  </si>
+  <si>
+    <t>This paper studies the combined effect of affiliation with prestigious universities, underwriters, and venture capitalists on the valuation of biotech ventures at IPO and their post-IPO performance. We argue that affiliation to a prestigious university provides the affiliated firm with a quality signal in the scientific domain. The pure quality signaling effect of the affiliation is isolated from the substantive benefits it provides by performing a difference-in-difference approach based on the scientific reputation of scientists in firms' upper echelons. The signal is stronger the weaker is the scientific reputation of scientists of the focal IPO-firm and is additive to those provided by prestigious venture capitalists and underwriters. Results for a sample of 254 European biotech ventures that went through an IPO between 1990 and 2009 confirm our predictions.</t>
+  </si>
+  <si>
+    <t>interdisciplinarity, university-industry interaction, academic entrepreneurship, technology transfer, co-production, response mode</t>
+  </si>
+  <si>
+    <t>Interdisciplinary research (IDR) has raised increasing expectations among scholars and policymakers about its potential to produce ground-breaking scientific contributions and satisfy societal demands. While existing research highlights that novel connections across fields is beneficial for scientific contributions with high academic impact, comparatively less is known about whether IDR is positively associated to scientists’ engagement with non-academic actors. To investigate this, we examine whether there is a systematic relationship between scientists’ IDR-orientation and their interactions with industry. We conceptually distinguish four stylized modes of interaction (firm creation, technology transfer, co-production and response modes) and employ three distinct indicators of IDR. We use data on 1,170 scientists affiliated to public research organizations in Spain, bibliometric dataset of scientists’ publications, and details of scientists’ past involvement in interactions with industry. Our results show that IDR has a transversal influence on all four modes. However, IDR-oriented scientists are more strongly associated to transactional (market-mediated) compared to relational (personal-based) interaction mechanisms; while we find no evidence of a significant difference between IDR-oriented scientists and their propensity to engage in different modes of U-I interaction according to the degree of goal specificity.</t>
+  </si>
+  <si>
+    <t>Although leveraged exchange-traded funds (ETFs) are popular products for retail investors, how to hedge them poses a great challenge to financial institutions. We develop an optimal rebalancing (hedging) model for leveraged ETFs in a comprehensive setting, including overnight market closure and market frictions. The model allows for an analytical optimal rebalancing strategy. The result extends the principle of “aiming in front of target” introduced by Garleanu and Pedersen (2013) from a constant weight between current and future positions to ˆ a time-varying weight because the rebalancing performance is monitored only at discrete time points, but the rebalancing takes place continuously. Empirical findings and implications for the weekend effect and the intraday trading volume are also presented.</t>
+  </si>
+  <si>
+    <t>daily rebalancing, leveraged ETFs, market closure, frictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The literature suggests that the startups of de novo entrepreneurs are disadvantaged, but many of the world’s leading firms have been founded by students and recent graduates. We hypothesize that academic and industrybased educational experiences shape the innovative activity of student startups and use patent data to measure technological proximity between the patent portfolios of influencers and startups. We find that indirect exposure to the research and development activities of the students’ university departments and work term employers results in technological imprinting. Influencer and entrepreneur capabilities affect the magnitude of the imprinting effect: student ventures are technologically more proximate to highly ranked university departments and to more innovative work term employers, and the students’ software skills impact their ability to invent in proximity to their work term employer. We also find that multiple layers of imprints are complements, not substitutes. Exposure to inventive activities, even when indirect and brief, results in multiple capabilitiesmoderated layers of imprints. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprinting, Exposure, Student startups, Student entrepreneurship, Technological distance, Patents </t>
+  </si>
+  <si>
+    <t>A considerable body of work acknowledges the importance and benefits of the university–industry relationship for the economy and society, but also for increasing the revenue of universities themselves (known also as universities’ “third mission”). However, questions have also been raised about the consequences of the university-industry relationship and its impact on their traditional role. This paper contributes to this debate by exploring whether and how being efficient in generating income from engagement activities impacts on universities’ research performance. By using a sample of 119 UK higher educational institutions for period 2007–2014, and controlling for endogeneity issue, the results show that efficiency in terms of university-industry income and research performance exhibits a nonlinear relationship for both universities established before (“old universities”), and after (“new universities”), the Higher Education Act 1992 (HEA). However, for high level of efficiency, “old universities” do not appear able to improve their research performance further. Finally, positive synergies between the third mission and research mission decline in a more teaching-oriented environment. We conclude that policy makers should account for organisational heterogeneity and teaching orientation to promote research excellence effectively by stimulating engagement.</t>
+  </si>
+  <si>
+    <t>Efficiency, Higher education institutions, Industry engagement, Research Excellence Framework (REF)</t>
+  </si>
+  <si>
+    <t>Due to their origin in universities, academic spin-offs operate at the forefront of technological development. Therefore, academic spin-offs exhibit a skill-biased labour demand, i.e. academic spin-offs have a high demand for employees with cutting-edge knowledge and technical skills. In order to accommodate this demand, academic spin-offs may have to pay a relative wage premium compared to other hightech start-ups. However, neither a comprehensive theoretical assessment nor the empirical literature on wages in start-ups unambiguously predicts the existence and the direction of wage differentials between academic spin-offs and non-spin-offs. This paper addresses this research gap and examines empirically whether or not academic spin-offs pay their employees a wage premium. Using a unique linked employeremployee data set of German high-tech start-ups, we estimate Mincer-type wage regressions applying the Hausman-Taylor panel estimator. Our results show that academic spin-offs do not pay a wage premium in general. However, a notable exception to this general result is that academic spin-offs that commercialise new scientific results or methods pay a wage premium to employees with links to the university sector - either as university graduates or as student workers.</t>
+  </si>
+  <si>
+    <t>Wages, High-tech start-ups, Academic spin-offs, Linked employer-employee data</t>
+  </si>
+  <si>
+    <t>In this paper, we use a social support perspective and hypothesize that the scope of start-up activities is positively associated with two types of instrumental family support, financial and social capital. We further argue that the effect of instrumental family support is enhanced by the level of emotional support, in the form of family cohesiveness. To test our hypotheses, we draw from the 2011 Global University Entrepreneurial Spirit Students' Survey (GUESSS), a survey of university students from 19 countries. We focus on those nascent entrepreneurs who are in the process of starting their new venture (n = 12,399). Our findings indicate that family social capital is positively associated with the scope of start-up activities, family financial capital is negatively associated with the scope of start-up activities, and family cohesiveness amplifies the effect of family social capital on the scope of start-up activities. Theoretical, practitioner, and public policy implications are discussed.</t>
+  </si>
+  <si>
+    <t>Nascent entrepreneurs, Start-up activities, Social support, Global University Entrepreneurial Spirit Students’ Survey (GUESSS)</t>
+  </si>
+  <si>
+    <t>Whether entrepreneurship generates economic growth depends on the institutional environment due to its impact on the mix of productive and unproductive entrepreneurship in the economy. The incentive structure embedded in each society affects whether talented people become entrepreneurs and potentially, the extent to which they engage in more productive forms of entrepreneurship. We examine how trust in institutions affects the entrepreneurial intentions of potentially productive entrepreneurs. We utilize the unique event surrounding the impeachment of South Korea’s previous president. The event improved people’s trust in the government because it was ultimately the people’s protests and demands that led to the impeachment of the president for influence peddling and extracting personal rents from businesses. By surveying the same individuals before and after the impeachment ruling, we identify people’s changes in trust in government and various institutions. We find that increased trust in institutions increases one’s intent to start a business within five years. Moreover, we show that the relationship between trust in institutions and entrepreneurial intention is significantly stronger for engineering majors from top universities.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, institutions, trust in government, allocation of talent, impeachment</t>
+  </si>
+  <si>
+    <t>institutional theory, entrepreneurship, innovation</t>
+  </si>
+  <si>
+    <t>This paper contributes to institutional theory on cognitive and normative institutional change targeted at altering beliefs, behaviors, and ultimately firm performance. Prior work emphasizes institutional changes where the ideas and beliefs originate from those within the institutional context. Under examined are cases of institutional changes in beliefs and behaviors imposed from outside of the context, which may result in inconsistencies among cognitive, normative, and regulatory institutional pillars. Project 985 was a program implemented by the Chinese government that provided funding for a set of universities to build new research centers. We found that graduates of these universities subsequently expressed greater beliefs in innovation and founded more high-tech ventures, but that entrepreneurs influenced by the reform were not as financially successful as entrepreneurs who founded firms before the reform or from non-985 universities. We explain this surprising finding as caused by the fact that Project 985 was institutionally inconsistent with China’s broader institutional environment. An important implication is that institutional changes may alter beliefs and behavior, but they must be consistent with the broader institutional environment to improve firm performance.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, external environment, institutional theory, barriers to growth</t>
+  </si>
+  <si>
+    <t>ability, academic entrepreneurship, alumni, self-selection, universities</t>
+  </si>
+  <si>
+    <t>Prior research often focuses on how many entrepreneurial firms are created, rather than on institutions that encourage specific types of firms or entrepreneurs. This paper identifies institutional changes that reduce barriers to growth as an important factor influencing the propensity of individuals to start a business. The findings suggest that the impact of lower barriers to growth is shaped by the extent of the reduction in barriers to growth and the level of human capital of the individual. Only a large reduction in barriers to growth has a stronger impact in increasing the likelihood of founding at higher levels of human capital. I capitalize on two reforms lowering barriers to growth as natural experiments. One reform, in 1988, only slightly lowered barriers to growth. The second reform, in 1999, more strongly lowered barriers to growth with an amendment to the Chinese constitution reversing regulations that favored firms with foreign investors. This made it easier for domestic entrepreneurs to compete. I collected data through a survey of 2,966 alumni who graduated from a top Chinese university. Results show that reducing the institutional barriers to growth differently affects college-educated individuals with different levels of human capital.</t>
+  </si>
+  <si>
+    <t>This paper introduces a process model of how academics learn to bridge different cognitive scripts, thereby learning to collaborate with non-academic managers in the context of multidisciplinary academic spinoff (ASO) teams. Whereas prior research has taken a static perspective, showing that cooperation in ASO teams is challenging due to differences in cognitive scripts, we take a dynamic perspective, leveraging rich, longitudinal data on a single case to theorize how such cooperative challenges can be overcome. We reveal two aspects of this process. One is cognitive and intrapersonal, in which academics reconsider their own beliefs and understandings of their venture and the commercial world. The other is social and interpersonal, in which academics reconsider the way they collaborate with others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic spinoffs, Cognitive scripts, Learning, Academics, Longitudinal </t>
+  </si>
+  <si>
+    <t>diversity in national culture, entrepreneurial exit, financial harvest, founding teams, immigrant entrepreneurs</t>
+  </si>
+  <si>
+    <t>We study the effects of diversity in national culture on new technology ventures’ founding teams on their financial harvest exit strategy. Exits represent a pivotal event in the entrepreneurial process that reflects the strategy and performance of technology startups. Following a quasireplication of the seminal study of Chaganti and colleagues in 2008, aimed at generalizing their findings to different technologies and periods and assessing their robustness, we demonstrate that diverse founding teams are significantly more likely than non-diverse teams to exit via financial harvest. We add to the literature by identifying a novel contributing factor—diversity in national culture—in founding teams’ financial harvest strategies. The economic implications, both at the micro and macro levels, of the diversity factor are considerable. The contribution of this study thus extends beyond the academic literature.</t>
+  </si>
+  <si>
+    <t>corporate entrepreneurship, entrepreneurial orientation, upper echelons, narcissism</t>
+  </si>
+  <si>
+    <t>Extant research has shown that firms with high levels of entrepreneurial orientation (EO) outperform competitors. The present study sheds light on this performance relationship in large, publicly listed high-tech firms by examining whether the strength of this relationship depends upon the CEO’s narcissism, an executive personality trait recently debated controversially in both academic and practitioner publications. A theoretically derived research model is empirically validated by means of multisource secondary data for 41 S&amp;P 500 firms from 2005 to 2007. Findings indicate that narcissistic CEOs usually weaken the EO-performance relationship, although the opposite is true under some conditions, such as in highly concentrated and dynamic markets.</t>
+  </si>
+  <si>
+    <t>transportation, middle-mile, flexibility, stochastic matching, long chain, e-commerce</t>
+  </si>
+  <si>
+    <t>Given an input graph Gin � (V,Ein), we consider the problem of designing a sparse subgraph G � (V,E) with E ⊆ Ein that supports a large matching after some nodes in V are randomly deleted. We study four families of sparse graph designs (namely, clusters, rings, chains, and Erdo˝s–Re´nyi graphs) and show both theoretically and numerically that their performance is close to the optimal one achieved by a complete graph. Our interest in the stochastic sparse graph design problem is primarily motivated by a collaboration with a leading e-commerce retailer in the context of its middle-mile delivery operations. We test our theoretical results using real data from our industry partner and conclude that adding a little flexibility to the routing network can significantly reduce transportation costs.</t>
+  </si>
+  <si>
+    <t>category spanning, social valuation, social boundaries, boundary work, multidisciplinary research, science</t>
+  </si>
+  <si>
+    <t>Extant theory suggests that candidates with an unfocused identity—those spanning different categories—suffer from a valuation penalty because evaluators are confused by their profile and concerned they lack the required skills. We argue that unfocused candidates may be penalized for another reason; they threaten established social boundaries. This happens in contexts where evaluators act as gatekeepers for social entities, such as professions. We test how the penalty applied to unfocused candidates varies in an academic accreditation process, a setting where evaluators decide on admitting candidates to an academic discipline and where candidates’ prior performance is observable. We find using data on the 2012 national scientific qualification in Italian academia that the valuation penalty applied to unfocused (multidisciplinary) candidates was most pronounced for the most high-performing candidates. High-performing yet ill-fitting candidates threaten the distinctiveness and knowledge domain of the discipline and are hence penalized by evaluators. High-performing multidisciplinary candidates suffered the greatest penalty in small and distinctive academic disciplines and when accreditors were highly typical members of their discipline. Our theory and findings suggest that the categorical imperative may be driven not only by cognitive or capability considerations as typically argued in the literature but also, by attempts to maintain social boundaries.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, commercialization, attention, exploration, search, public science</t>
+  </si>
+  <si>
+    <t>We study how becoming an entrepreneur affects academic scientists’ research. We propose that entrepreneurship will shift scientists’ attention away from intradisciplinary research questions and toward new bodies of knowledge relevant for downstream technology development. This will propel scientists to engage in exploration, meaning they work on topics new to them. In turn, this shift toward exploration will enhance the impact of the entrepreneurial scientist’s subsequent research, as concepts and models from other bodies of knowledge are combined in novel ways. Entrepreneurship leads to more impactful research, mediated by exploration. Using panel data on the full population of scientists at a large research university, we find support for this argument. Our study is novel in that it identifies a shift of attention as the mechanism underpinning the beneficial spillover effects from founding a venture on the production of public science. A key implication of our study is that commercial work by academics can drive fundamental advances in science.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study examines the impact of public subsidies, and specifically, Small Business Innovation Research (SBIR) awards on university spinoff companies. Using unique data for a population of University of California spinoffs, we find pronounced differences between companies commercializing digital technologies (software and hardware), and those that focus on other product spaces. For digital spinoffs, receiving an SBIR award has a negative impact on raising venture capital and no impact on IPOs, exits or first sales. Conversely, for non-digital firms (e. g., biotechnology, energy), receiving an SBIR award has a positive effect on raising venture capital and performance outcomes. We reason that digital technologies are subject to faster cycle times and higher market uncertainty, relative to technological uncertainty. Digital firms may therefore benefit less from subsidies designed to support technology development, and private investors may view the need of digital companies to obtain such subsidies as a negative certification. Our findings inform policy by suggesting that the industrial domain may be an important boundary condition for the effectiveness of SBIR-type subsidies for university spinoffs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University spinoffs, Small Business Innovation Research (SBIR), Venture capital, Academic entrepreneurship, Technology transfer, Commercialization, Digital technologies </t>
+  </si>
+  <si>
+    <t>To acquire resources, new ventures need to be perceived as legitimate. For this to occur, a venture must meet the expectations of various audiences with differing norms, standards, and values as the venture evolves and grows. We investigate how the organizational identity of a technology venture must adapt to meet the expectations of critical resource providers at each stage of its organizational life cycle. In so doing, we provide a temporal perspective on the interactions among identity, organizational legitimacy, institutional environments, and entrepreneurial resource acquisition for technology ventures. The core assertion from this conceptual analysis is that entrepreneurial ventures confront multiple legitimacy thresholds as they evolve and grow. We identify and discuss three key insights related to entrepreneurs’ efforts to cross those thresholds at different organizational life cycle stages: institutional pluralism, venture-identity embeddedness, and legitimacy buffering.</t>
+  </si>
+  <si>
+    <t>This paper explores whether and to what extent a scientific approach to decision-making can be a useful tool for helping entrepreneurs overcome limitations in the commercial exploitation of their idea, particularly when these limitations stem from their status as users of the products or services. Using data from a variety of sources, including three randomized control trials and LinkedIn data, and focusing on female entrepreneurs who develop a value proposition targeting female consumers as a case of user entrepreneurs, this paper shows that exposure to a training that encourages entrepreneurs to develop theoretical maps about their business propositions and validate them with evidence prompts more radical pivots on their initial ideas compared with entrepreneurs with a value proposition that does not target women explicitly. In turn, treated female entrepreneurs with a female-targeted value proposition who pivot radically show better performance in launching and sustaining their ventures compared with those who have not pivoted.</t>
+  </si>
+  <si>
+    <t>women entrepreneurs, female value proposition, scientific decision-making, user entrepreneurs, knowledge domains</t>
+  </si>
+  <si>
+    <t>enterprising families, intergenerational solidarity, succession intentions, family business exposure, affective commitment, gender</t>
+  </si>
+  <si>
+    <t>n enterprising families, the family, as a social institution, is the foundation of the family business. However, in enterprising families, intergenerational succession remains problematic. Using intergenerational solidarity theory, and data from the 2013 Global University Entrepreneurial Spirit Students Survey (GUESSS; N = 18,576), our findings indicate that affective commitment partially mediates the relationship between family business exposure and offspring’s succession intentions. We also find that this relationship is stronger for sons than for daughters, while birth order has no effect. Implications for theory and practice are discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology transfer, Academic entrepreneurship, Industry evolution, Organizational groups, Spinoffs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We study failures between 1993 and 2017 in the complete population of 1731 English and Scottish university spinoffs founded since 1977. We borrow and expand the concept of density dependence from organizational ecology to theorize that a spinoff's propensity to fail is affected by the number of spinoffs active not only in the aggregate population but also within its parent university's portfolio. We contribute to organizational theory, demonstrating the importance of organizational groups that form within larger populations on individual organizations' propensity to fail. We contribute to literature on academic entrepreneurship showing that, for most universities, spinoff portfolio growth can lower associated spinoffs' failure rates, but that such effects need to be juxtaposed to the aggregate population's finite capacity to support an expanding number of spinoffs. </t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Technology transfer office bypassing, Transaction cost theory, Tyler's justice model, Alternate commercialization pathways, Canadian universities</t>
+  </si>
+  <si>
+    <t>This article investigates the underexplored phenomenon of technology transfer office (TTO) bypassing in academic entrepreneurship. While TTOs are established to centralize and support intellectual property-based commercialization, a significant portion of entrepreneurial projects avoid the TTO. Relying on both economic (transaction cost theory) and ethical (Tyler's justice model) considerations, this study explores the motivations and contextual factors behind a researcher's decision to commercialize an invention using means other than the TTO. This multiple case study employs an in-depth exploratory qualitative approach to investigate five academic entrepreneurs across different disciplines in Canadian universities who chose to bypass their TTO, often in contravention of institutional policies. Our findings reveal a complex interplay among individual motivations, institutional policies, and market realities. We identified four paths of awareness and strategic intent in this process ranging from unintentional non-compliance to tactical avoidance which challenge a simplistic perception of TTO bypassing as merely unintentional rather than deliberate. The study also reveals four overlapping contexts that promote TTO bypassing: confidence in personal expertise, previous negative experience of using the TTO, peer-influenced skepticism, and external partner challenges. Furthermore, the findings show that the reasons for bypassing include both economic and ethical motivations which steer academic entrepreneurs toward alternative, privately managed commercialization paths. The article concludes with some implications for university managers and policymakers related to how to address the multifaceted motivations for TTO bypassing.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Entrepreneurial competencies, Inhibitors, Nascent entrepreneurs, Spin-offs</t>
+  </si>
+  <si>
+    <t>Nascent academic entrepreneurs need to acquire entrepreneurial competencies to create successful spin-off ventures. In this article, we examine difficulties in this pursuit prior to venture formation and offer a systematic classification of inhibitors. We confirm, combine, and extend two previously identified inhibiting mechanisms into a relational inhibitor category, classify additional structural and cultural-cognitive inhibitors, and highlight how these inhibitors exist both at the individual and the organizational level. We then advance theoretical understanding of the interrelated, multilevel functions of inhibitors on the development of entrepreneurial competencies, and offer policy insights on how universities can mitigate their effects.</t>
+  </si>
+  <si>
+    <t>While university spinoffs have become a well-accepted vehicle for regional economic dynamism, they face numerous developmental barriers associated with the unique academic context from which they are established. Recent research shows that homophilous social networks among faculty entrepreneurs constitute one such barrier, and yet few studies have investigated the specific characteristics of spinoff networks and their relationship to entrepreneurial development. This paper seeks to address this gap through a mixed-methods research design focused on the composition, contributions, and evolution of social networks among faculty entrepreneurs whose spinoffs are within various phases of entrepreneurship. Employing a knowledge-spillover conceptual lens, this study finds that social networks among early-stage academic entrepreneurs are important for spurring and supporting spinoff establishment, but if they do not evolve from their initial configuration, these networks can largely constrain subsequent stages of spinoff development. Social networks among successful spinoffs, however, evolve with the help of first-order—or boundary spanning—individuals who help socialize academic entrepreneurs to market-oriented motivations, values, and practices that they may not otherwise receive in an academic environment. Further, these individuals provide connections to other contacts who, in turn, provide additional spinoff-enabling resources and contacts. Based on these findings, a conceptual model is introduced that explains spinoff success as a function of network evolution. Implications for research and public policy are also discussed.</t>
+  </si>
+  <si>
+    <t>University spinoffs, Social networks, Entrepreneurship, Technology transfer, Knowledge spillovers</t>
+  </si>
+  <si>
+    <t>There is now substantial evidence of the positive contribution universities can make to helping firms’ innovation. Building university-business collaborations, however, confronts the ‘two-worlds’ paradox, and the difference in institutional logics and priorities between businesses and universities. Here, we consider whether firms’ experience from prior collaboration can generate learning which can help to overcome the two-worlds paradox and improve firms’ ability to generate new-to-the-market innovations in collaboration with universities. Our analysis is based on panel data for UK companies and controls for the decision to innovate. We find evidence of significant learning effects which both increase the probability that firms collaborating with universities are able to develop new-to-the-market innovations and then benefit from those innovations. For smaller firms learning effects are strongest from prior collaboration with customers, while for medium and larger firms the strongest learning effects arise from prior collaboration with consultants.</t>
+  </si>
+  <si>
+    <t>Innovation, University, Collaboration, Learning</t>
+  </si>
+  <si>
+    <t>nonstationarity, online learning, distribution shift, adaptivity, look-back window</t>
+  </si>
+  <si>
+    <t>We develop a versatile framework for statistical learning in nonstationary environments. In each time period, our approach applies a stability principle to select a look-back window that maximizes the utilization of historical data while keeping the cumulative bias within an acceptable range relative to the stochastic error. Our theory showcases the adaptivity of this approach to unknown nonstationarity. We prove regret bounds that are minimax optimal up to logarithmic factors when the population losses are strongly convex or Lipschitz only. At the heart of our analysis lie two novel components: a measure of similarity between functions and a segmentation technique for dividing the nonstationary data sequence into quasistationary pieces. We evaluate the practical performance of our approach through real-data experiments on electricity demand prediction and hospital nurse staffing.</t>
+  </si>
+  <si>
+    <t>Although relative performance feedback in the form of rankings appears to be effective in improving health outcomes, it may have either motivating or demotivating effects for individual physicians. Potential factors influencing such effects include a physician’s ability and the design of the ranking system itself; however, there is limited understanding of these factors. Using a controlled lab-in-the-field experiment with practicing and future physicians as subjects (N � 352), we systematically analyze effort within small teams under different ranking systems. Exogenously varying the number and position of the thresholds defining the ranking system, we observe that the addition of a threshold to create a new rank is motivating—that is, increases effort—only among individuals capable of exceeding that threshold; the effort of other individuals may remain unchanged or even decrease. In particular, a highly granular ranking system with ranks spanning the entire range of possible outcomes maximizes overall physician effort; high thresholds serve to motivate high-ability individuals, whereas moderate and low thresholds provide opportunities for improvement to lower-ability individuals who cannot reach the high thresholds. Our results suggest that, to motivate their teams effectively, clinical leaders should provide rank feedback using a system under which physicians of all ability types can improve their rank through increased effort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ability, lab-in-the-field experiment, rankings, relative performance feedback, status concerns</t>
+  </si>
+  <si>
+    <t>Passion, Identity theory, Entrepreneurial intentions, Academic entrepreneurship, Spin-offs</t>
+  </si>
+  <si>
+    <t>This paper disentangles how organization members' “passion orchestra” is related to their entrepreneurial intentions in the particularly relevant context of academia. Drawing on passion literature and identity theory, we propose and test a model linking two central parts of researchers' “passion orchestra”, namely entrepreneurial and obsessive scientific passion, directly and indirectly, to spin-off and start-up intentions. While spin-off intentions refer to intentions to found a firm based upon research results, start-up intentions denote intentions to start any type of company. Using a sample of 2308 researchers from 24 European universities, our findings reveal that higher levels of entrepreneurial passion are associated with both stronger spin-off and start-up intentions. Further, obsessive scientific passion is positively associated with researchers' intentions to create a spin-off, and negatively with their propensity to establish a start-up. Entrepreneurial self-efficacy and affective organizational commitment mediate these effects. Finally, the two types of passion show characteristic interactions. Obsessive scientific passion moderates the entrepreneurial passion–intentions relationship such that it strengthens spin-off intentions. Our results highlight that recasting the individual driven by a singular passion to one with a “passion orchestra” provides a more holistic understanding of the new venture creation process. Implications for research and practice are discussed.</t>
+  </si>
+  <si>
+    <t>Motivation, Knowledge transfer, Third mission, University external engagement</t>
+  </si>
+  <si>
+    <t>The debate on the entrepreneurial university has raised questions about what motivates academics to engage with the external environment and what forms knowledge transfer (KT) activities should take. This paper distinguishes between the variety of forms of engagement (KT breadth) and the intensity of collaboration (KT depth) in the analysis of their motivations. The paper relies on a sample of Italian academics from different scientific fields over the period 2004–2008. Whereas previous literature has shown that academics are essentially motivated by learning opportunities, fundraising and satisfaction derived from puzzle solving in research activities, our paper provides evidence of the positive role of an additional motivation for both the breadth and depth of KT: the extent to which the academic scientist advances the societal role of universities (“mission” motivation). We find that both “funding” and “mission” motivations have a positive effect on the variety and intensity of KT activities, with little effect for learning opportunities. Our results show also a higher effect of “funding” and “mission” on the depth of KT activities compared to their breadth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the 1980s, policy reforms have been undertaken in China to gradually promote entrepreneurship of academic researchers. Based on manually collected data on academic executives (defined as either chairperson of the board or CEO, who had an academic title), we investigate the effects of academic executives on corporate technological capabilities and innovation performance among Chinese listed manufacturing firms from 2001 to 2015. Our results demonstrate that firms with academic executives are more likely to implement technological advancement strategies by increasing firm basic research, collaborating with outside institutions, and providing incentives to knowledge workers. Consequently, they have enhanced technological capabilities, as well as a higher quantity and quality of innovation output. In addition, firms with academic executives are more likely to have better financial performance regarding sales and profitability and keep a higher proportion of profits inside the firm to reinvest. The identification of the causal effects of academic executives relies on top executive turnover within firms and the propensity score matching strategy. Further analysis demonstrates that the effects of academic executives are more pronounced when they have a higher academic title, administrative experience, and a specialization in sciences. Our findings suggest that promoting entrepreneurship of academic researchers is an effective way of diffusing and utilizing knowledge, and it provides an internal driving force for the enhancement of corporate technological capabilities, which is crucial for technological catch-up of firms in latecomer countries. </t>
+  </si>
+  <si>
+    <t>Corporate innovation, Academic executives, Research experience, Technological capability, China</t>
+  </si>
+  <si>
+    <t>entrepreneurship, international management, diffusion of innovation, intermediaries</t>
+  </si>
+  <si>
+    <t>How can a knowledge intermediary support industry development and entrepreneurial entry in countries where it is not present? This study introduces a two-stage model of multi-country entrepreneurial entry via second-order knowledge intermediaries (SOKIs). In Stage 1, SOKIs acquire and develop industry-building knowledge and capabilities from engagement with the activities of carrying, co-creating, capacity building, and convening of a first-order knowledge intermediary (FOKI). In Stage 2, motivated SOKIs implement these activities in secondary countries, supporting local industry development. The model is developed in the context of the clean cookstove industry, which addresses global health and environmental challenges among low-income populations. Qualitative evidence from 25 interviews and archival data were used to describe how SOKIs learned transferable knowledge and capabilities in primary countries. A quantitative analysis of data derived from 1,996 clean cookstove organizations operating across 113 countries (2013–2019) was conducted to assess whether a greater number of SOKIs in secondary countries was associated with increased entrepreneurial entries. Results support the model; more SOKIs were associated with more entrepreneurial entries, and this relationship was weakened when company and nonprofit SOKIs were imbalanced and when more domestic industry actors possessed overlapping knowledge. This study contributes to the literature on industry emergence by introducing a mechanism of non-firm-led, cross-border knowledge diffusion in mission-oriented industries. It also shows how local entrepreneurs in under-resourced contexts can access global knowledge—not through firms or FOKIs but through SOKIs that extend the FOKIs’ work.</t>
+  </si>
+  <si>
+    <t>How do founding team members allocate task positions when launching new ventures? Answering this question is important because prior work shows both that founding team members often have correlated expertise, thus making task position allocation problematic; and initial occupants of task positions exert a lingering effect on venture outcomes. We draw on status characteristics theory to derive predictions on how co-founders’ specific expertise cues and diffuse status cues drive initial task position allocation. We also examine the performance consequences of mismatches between the task position and position occupant. Qualitative fieldwork, combined with a quasi-experimental simulation game and an experiment, provides causal tests of the conceptual framework. We find that co-founders whose diffuse status cues of gender (male), ethnicity (white), or achievement (occupational prestige or academic honors) indicated general ability were typical occupants of higher-ranked positions, such as chief executive officer role, within the founding team. In addition, specific expertise cues that indicated relevant ability predicted task position allocation. Founding teams created more financially valuable ventures when task position occupants’ diffuse status cues were typical for the position; nonetheless position occupants with high diffuse status cues also appropriated more of the created value. Our results inform both entrepreneurship and status characteristics literature.</t>
+  </si>
+  <si>
+    <t>Academics and practitioners acknowledge the value of customer feedback in improving firm performance. Companies routinely solicit feedback from different customer subsets. However, the extent to which this feedback impacts nonsolicited customers depends on whether firms implement meaningful business-level changes that resonate with customers. This paper assesses customer feedback’s impact on firm learning and business improvements as well as its spillover effects on nonsolicited customers using a randomized, controlled field experiment conducted in Rwanda over two years. We hypothesize that private feedback seeking could operate through two broad mechanisms: (a) directly influencing solicited customers and/or (b) prompting firms to improve their offerings, leading to spillover effects on other customers. Our results demonstrate a 38.2% increase in recall and a 77.4% increase in purchases for customers not engaged in the feedback process. The analysis further suggests that business-level changes driven by customer feedback fuel these spillovers. Additionally, customer feedback seeking significantly improves treatment firm performance, resulting in a 62.0% revenue increase and 54.5% profit increase compared with control firms. Our study also introduces a basic customer feedback-seeking technology for small businesses to improve performance. These findings can guide firms in leveraging customer feedback to undertake business changes and generate greater revenues/profits.</t>
+  </si>
+  <si>
+    <t>customer feedback, feedback spillover, firm learning, small firm growth, entrepreneurship, emerging markets</t>
+  </si>
+  <si>
+    <t>In many workplaces, temporary teams convene to coordinate complex work, despite team members having not worked together before. Most related research has found consistent performance benefits when members of temporary teams work together multiple times (team familiarity). Recent work in this area broke new conceptual ground by instead exploring the learning and performance benefits that team members gain by being exposed to many new partners (partner exposure). In contrast to that new work that examined partner exposure between team members who are peers, in this paper, we extend this research by developing and testing theory about the performance effects of partner exposure for team members whose roles are differentiated by authority and skill. We use visitlevel data from a hospital emergency department and leverage the ad hoc assignment of attendings, nurses, and residents to teams and the round-robin assignment of patients to these teams as our identification strategy. We find a negative performance effect of both nurses’ and resident trainees’ partner exposure to more attendings and of attendings’ and nurses’ exposure to more residents. In contrast, both attendings and residents experience a positive impact on performance from working with more nurses. The respective effects of residents working with more attendings and with more nurses is attenuated on patient cases with more structured workflows. Our results suggest that interactions with team members in decision-executing roles, as opposed to decision-initiating roles, is an important but often unrecognized part of disciplinary training and team learning.</t>
+  </si>
+  <si>
+    <t>temporary teams, partner exposure, team familiarity, hierarchy, healthcare</t>
+  </si>
+  <si>
+    <t>This research was designed to extend the scope and conversation of conservation of resource theory (COR) to contexts of uncertainty, including entrepreneurship. In doing so, the resource-induced coping heuristic (RICH) construct is introduced, developed, and validated. Results from two investigations, involving three samples and a total of 813 participants, indicated strong reliability, and internal validity for the theoretically justified, three-factor measure. Also, results of validity tests show the RICH as a robust predictor of factors pertaining to entrepreneurial success, including financial performance and perceived entrepreneurial success. Practical and academic implications, strengths and limitations, and directions for future research are discussed.</t>
+  </si>
+  <si>
+    <t>We review complementary theoretical perspectives on location choices of university graduate entrepreneurs derived from the individual-opportunity nexus and local embeddedness perspectives on entrepreneurship. Analysis of the full population of 215,388 graduates from Swedish institutions of higher education between 2002 and 2006 provides support for both location choice perspectives. Overall, 63% of graduate entrepreneurs start businesses locally in their region of graduation while 37% start businesses elsewhere. The likelihood of starting locally is substantially higher in metropolitan regions, if the graduate was born locally or has university peer entrepreneurs and entrepreneurial family members in the region of graduation. Implications for theory and public policy are discussed.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Location choice, Universities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, Gender, Signaling, Resource acquisition, Start-up, Entrepreneurial finance </t>
+  </si>
+  <si>
+    <t>entrepreneurship, hierarchy, organizational design, organizational structure, start-up</t>
+  </si>
+  <si>
+    <t>entrepreneurship, human capital, organization design, timing, venture scaling</t>
+  </si>
+  <si>
+    <t>behavioral strategy, competitive dynamics, experimental study, market entry, pricing</t>
+  </si>
+  <si>
+    <t>university technology transfer, entrepreneurship, technology commercialization, “twin” scientific discoveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which factors shape the commercialization of academic scientific discoveries via startup formation? Prior literature has identified several contributing factors but does not address the fundamental problem that the commercial potential of a nascent discovery is generally unobserved, which potentially confounds inference. We construct a sample of approximately 20,000 “twin” scientific articles, which allows us to hold constant differences in the nature of the advance and more precisely examine characteristics that predict startup commercialization. In this framework, several commonly accepted factors appear not to influence commercialization. However, we find that teams of academic scientists whose former collaborators include “star” serial entrepreneurs are much more likely to commercialize their own discoveries via startups, as are more interdisciplinary teams of scientists. </t>
+  </si>
+  <si>
+    <t>The explosion of crowdfunding within entrepreneurial circles is attracting increased academic interest in the nature of crowdfunding, its antecedents, and its consequences. In an effort to help researchers concentrate their inquiry on the most promising questions and theories involving crowdfunding, we surveyed key thought leaders within the entrepreneurship field—the Entrepreneurship Theory and Practice editorial review board— regarding what inquiry they believe is needed. Their responses offer implications for crowdfunding research. For example, cross-disciplinary work is one approach that board members believe holds high potential. In response, we outline a cross-disciplinary research agenda that can inform scholarly efforts.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial intention, Entrepreneurial career choice, New venture creation, Intention-behavior link, Graduate entrepreneurship</t>
+  </si>
+  <si>
+    <t>In this paper, we build on social cognitive career theory to examine the relation between entrepreneurial intention and new venture creation (i.e., the entrepreneurial career choice). We model how contextual influences at different levels may favor or inhibit the translation of entrepreneurial intention into new venture creation. Using unique longitudinal data from almost the entire population of Italian university graduates, we are able to assess how the immediate (i.e., the influence of relevant others) and larger context (i.e., organizational and environmental influences) affect new venture creation. Our research contributes to the emerging literature of the intention–behavior link in entrepreneurship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The labor market value of former entrepreneurs remains unclear, with both theory and empirical evidence offering mixed conclusions. We suggest that the timing of entrepreneurial experience matters and helps unravel this puzzle. Using Danish employer-employee data on a large sample of university graduates, we show that the option value of testing an entrepreneurial opportunity and then returning to paid employment decreases over an individual’s career. We follow individuals for fifteen years and compare the labor market outcomes of never, early, and late entrepreneurs based on the timing and type of entrepreneurial experience in their careers. Compared to those who have never been entrepreneurs, early entrepreneurs earn higher wages, while late entrepreneurs experience a significant wage penalty in the long run. Both the timing and the type of entrepreneurial experience shape individuals’ subsequent career trajectories and employers’ uncertainty about their value, which partly explain long-term wage differentials. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career dynamics, Entrepreneurial experience, University graduates, Wages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science commercialization, Technology transfer, Licensing, Experience, Human capital, Technology transfer office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience defined in terms of time, scope, type, density and timing affect performance of highly skilled administrative staff. We apply a multidimensional model to the field of science commercialization as a typical multi-goal oriented process. We identify how different conceptualizations of experience models lead to diverse conclusions regarding their effects on facets of performance such as speed, efficiency and revenue. Acknowledging multifaceted goals of science commercialization, we further contribute to the body of work on individual level factors regarding universities' commercialization performance. In this paper we provide evidence from the context of universities' commercialization efforts, relying on administrative records of a Japanese university including 845 transfer cases over a 13-year period (2004–2016). By focusing on coordinators working in a technology transfer office, and the various measurement modes of their experience, we detect several important characteristics. While several experience components affect speed and efficiency of technology transfer, our results show that revenue is determined by interaction components. </t>
+  </si>
+  <si>
+    <t>science valorisation, impact, technology transfer, proof-of-concept, public funding, grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governments and public agencies are increasingly keen to support the translation of scientific discoveries into commercial and societal applications through science valorisation funding, as a way to enhance progress and inclusive growth. In this paper, we use grant-level data from the European Research Council Proof-of-Concept (PoC) programme, in order to assess the impact of public funding on a broad set of science valorisation outcomes, including licensing, spinoff formation, R&amp;D collaborations, consulting and access to follow-on funding. We employ an instrumental variable approach to compare the valorisation outcomes of projects that obtained an ERC PoC grant to a group of projects that applied to the PoC scheme but were not funded. We find that the programme was effective in fostering the early valorisation of scientific discoveries by all measures of success that we employed. Overall, thus, our findings speak in favour of this type of policy instrument as a catalyst to accelerate the transition of scientific breakthroughs towards practical applications. </t>
+  </si>
+  <si>
+    <t>The economics literature provides rich evidence on the convergence between the institutional factors and individual-level characteristics influencing the involvement of academia in knowledge transfer activities and spinoff creation. However, little is known about the effects of internal university regulations on academic entrepreneurship. In the lastten years, spinoff activity from academia in Italy has been intensive and most academic institutions have policies related to the regulation of academic entrepreneurship practices, known as ‘Regolamento Spinoff’. This paper investigates the impact of the set of university rules governing the creation of spinoffs, on institutional capability to generate new ventures. Based on panel-data analysis using detailed university-level data on academic spinoffs, we identify three classes of institutionally-defined rules that can motivate faculty members to establish a spinoff company. These are: general rules and procedures; rules regulating monetary incentives; rules related to the entrepreneurial risk. We find that at least some rules pertaining to each of these three classes have some effect on spinoff creation. In particular, we find that monetary incentives play a significant role in promoting academic spinoff activity, and that overly-restrictive university rules regarding contract research have a negative effect on spinoff creation.</t>
+  </si>
+  <si>
+    <t>Spinoff creation, Academic entrepreneurship, University spinoff rules, Knowledge transfer strategies, University-Industry interaction</t>
+  </si>
+  <si>
+    <t>We use original data from a questionnaire survey of 9062 individuals enrolled in PhD programmes in Italy between 2008 and 2014 to conduct an empirical investigation of gender issues in PhD entrepreneurship. The analysis focuses on the influence of the gender balance among academics at the parent university, to measure the opportunities available to female students to engage with same-sex role models and the effect of such engagement on female students' attitudes to applied research and entrepreneurship. Our evidence shows that there is a gender gap in PhD student entrepreneurship and suggests that the gender composition of the academic faculty has a significant impact on female students' attitudes to business-oriented research and its commercialisation, which, in turn, affects their entrepreneurial intention and probability of starting a business. Our results indicate that female students' entrepreneurship would benefit from the opportunities offered by a more gender-balanced work environment and reinforces arguments calling for equality in the academic workplace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student entrepreneurship, Entrepreneurial university, Start-up, PhD, Gender </t>
+  </si>
+  <si>
+    <t>Although science parks are established globally for decades as an innovation policy instrument to foster growth and networking, there is limited attention given towards research into possible types within these real estate objects. Prior attempts in categorising science parks are characterised by the limited number of cases and/or variables. Science parks are believed to enhance innovation, entrepreneurship, and economic value for firms and regions. Past academic research showed mixed results on these performances and it is reasoned that distinct types within science parks exist that might explain these unclear results. We argue that before we can grasp what science parks can do, we should know what they are. Therefore, a survey on science park characteristics was completed by 82 science park managers in Europe. A cluster analysis was conducted which grouped the 82 participating science parks in three types; ‘research’, ‘cooperative’, and ‘incubator’ locations. Next, differences and similarities of these three types within science parks in Europe were analysed as a basis for advancing the academic debate. The types provide further understanding of science parks and offer researchers, practitioners, and policy-makers a means to compare, market, and benchmark science parks more adequately.</t>
+  </si>
+  <si>
+    <t>Europe, Innovation policy, Science park, Cluster analysis, Segmentation</t>
+  </si>
+  <si>
+    <t>The increasing relevance of scientific knowledge for production and innovation requires new instruments for establishing closer relationships between academia and industry. In order to strengthen such relationships, higher education institutes (HEIs), including universities, have institutionalized intermediary organizations such as technology transfer offices (TTOs). It is only recently that research on these organizations has extended its focus from analyzing their functions and performance to the internal processes and practices of their work. Based on qualitative data derived from a process-related focused ethnography, this paper presents insights into the practices of a group of “transfer scouts”. Their distinctive feature is that they are deployed explicitly on the basis of their own scientific and engineering expertise to intensify the university-industry linkages in an East German region. Apart from mere mediation, these transfer scouts become co-creators of new knowledge and technologies in transfer processes. Their orientation towards science, their thematic specialization, their development of digital transfer instruments, their explicit intention to contribute to regional development, as well as their crossinstitutional acting keeps them involved in co-creational and multidirectional knowledge-production and makes them active participants in those processes. For transfer intermediaries, these insights offer an extension of their identity as brokering actors between the academic and the business sectors. Since diverse actors operate in the regional transfer system and confront transfer scouts with tensions between cooperation and competition, negotiation processes can be fiercely contested, met by resistance, and accompanied by conflicts. With regard to complementary practices, as well as in the case of constructive relationships, a durable cooperation between TTOs and transfer scouts promises to generate potentially innovative impulses. But this is less a stable setting than an ongoing process that requires many additional functional competencies and supporting structures to be provided by the organizations. The question arises, whether such complex KTT structures can be successfully institutionalized outside the frame of a fixed term project. Only then is it possible to create realistic expectations towards KTT-intermediaries and establish transfer scouting as an attractive profession in its own right in the entrepreneurial university.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer scouts, knowledge and technology transfer (KTT), intermediation, co-construction, co-evolutionary knowledge production, focused ethnography </t>
+  </si>
+  <si>
+    <t>To promote entrepreneurship among students, academic institutions should focus on developing a positive entrepreneurial personal attitude (EPA), since it is a strong antecedent of entrepreneurial intentions, which in turn predict actual entrepreneurship. Previous research has found that EPA is lower for women than for men, which is related to the acknowledged gap between women and men in entrepreneurial activity. The present work builds on the elaboration likelihood model (ELM) to examine how nine different entrepreneurship-focused academic activities in school impact on students’ EPA, paying special attention to gender differences. We use a sample of 918 students from a French business school to analyze gender differences in the mechanisms based on ELM central and peripheral routes to promote EPA through academic activities. Post hoc tests are also performed to explore differences by gender at various academic levels. The results have important implications for academic institutions wishing to promote entrepreneurship, since we unpack entrepreneurial education into individual academic activities. In particular, results suggest that students’ gender and academic level should be considered when designing activities to promote entrepreneurship.</t>
+  </si>
+  <si>
+    <t>We employed a longitudinal, grounded-theory approach to investigate the occurrence of an identity crisis in an emerging collective of organizations attempting to form a new academic field. The findings indicate that legacy identities and the nested structure of such organizations have implications for the formation of identity at this level. Specifically, the co-evolution of organization-level and collective-level identities, and the interdependencies between the levels, rendered the collective identity formation process as multiphased, complex, contentious, and continuously precarious—ultimately leading to an identity crisis that was resolved not by arriving at a “consensual identity,” but, rather, a “coherent identity.” The findings contribute to the nascent stream of literature on collective identity beyond the organizational level by explicating identity-work processes involved in the precipitation, manifestation, and resolution of an identity crisis in an emerging field.</t>
+  </si>
+  <si>
+    <t>How can leaders best manage commitment among innovators? We applied theory on dual allegiance to multiple targets of commitment, in conjunction with person-organization fit theory, to explore the dynamics of organizational and professional commitment among scientists and engineers working in hybrid, research-focused organizations. These types of organizations are founded on large-scale multidisciplinary and multi-institutional collaboration between academe and industry. Using both individualand organizational-level variables collected from 255 academic science and engineering researchers working in 22 National Science Foundation-funded Engineering Research Centers, our analyses revealed that researcher innovation orientation (i.e., the predisposition to approach work in novel ways) was positively associated with organizational and professional commitment. Those relationships were moderated by two factors: organizational productivity in late-stage technology transfer and the researcher‘s perceived role significance (i.e., in fulfilling the strategic mission of the organization). The strongest positive relationship between innovation orientation and organizational commitment emerged among researchers who perceived high role significance and worked in highly productive organizations. A negative relationship between innovation orientation and professional commitment also emerged among those individuals. Post-hoc analyses revealed that highly innovative, senior researchers who perceived high role significance were the most likely to report higher levels of both organizational and professional commitment. Leaders of multi-disciplinary research centers who are aware of the complexity of dynamics among organizational commitment, professional commitment, and role significance may be better equipped to effectively manage science and engineering researchers.</t>
+  </si>
+  <si>
+    <t>Innovation orientation, Technology transfer, Organizational commitment, Professional commitment, Role significance, Multi-Institutional Multi-Disciplinary, University Research Centers</t>
+  </si>
+  <si>
+    <t>abduction, industry evolution, knowledge diffusion, knowledge spillovers, knowledge transfer</t>
+  </si>
+  <si>
+    <t>Prior studies of academic science have largely focused on researchers in life sciences or engineering. However, while academic researchers often work under similar institutions, norms, and incentives, they vary greatly in how they organize their research efforts across different scientific domains. This heterogeneity, in turn, has important implications for innovation policy, the relationship between industry and academia, the scientific labor market, and the perceived deficit in the relevance of social sciences and humanities research. To understand this heterogeneity, we model scientists as publication-maximizing agents, identifying two distinct organizational patterns that are optimal under different parameters. When the net productivity of research staff (e.g., PhD students and postdocs) is positive, the funded research model with an entrepreneurial scientist and a large team dominates. When the costs of research staff exceed their productivity benefits, the hands-on research approach is optimal. The model implies significant heterogeneity across the two modes of organizing in research funding, supply of scientific workforce, team size, publication output, and stratification patterns over time. Exploratory empirical analysis finds consistent patterns of time allocation and publication in a prior survey of faculty in U.S. universities. Using data from an original survey, we also find causal effects consistent with the model’s prediction on how negative shocks to research staff—due to visa or health problems, for example—differentially impact research output under the two modes of organization.</t>
+  </si>
+  <si>
+    <t>scientific teams, collaboration, academic research, science policy, research relevance, research funding, university industry relationship, performance heterogeneity</t>
+  </si>
+  <si>
+    <t>The transfer of complex knowledge and skills is difficult, often requiring intensive interaction and extensive periods of coworking between a mentor and mentee, which is particularly true in apprenticeship-like settings and on-the-job training. This paper studies a context that quintessentially describes this type of learning: the academic laboratory. I focus on ways a change in the attention of a principal investigator, moving to entrepreneurship, may influence knowledge transmission and skill development by examining the relationship of this change with their PhD students’ scientific productivity and careers. To do so, I rely on novel restricted-access data encompassing faculty and PhD students in computer sciences, engineering, and the life sciences who were active at an elite U.S. research university from 2001 to 2017. The results suggest a substantial negative association between a professor’s entrepreneurial activity and the short- and long-run publication output of the PhD students they train. Furthermore, I detect a decrease in students’ likelihood of becoming professors themselves but an increase in their likelihood of working for consulting firms on graduation. Finally, I provide evidence suggesting that changes in trainee development are the most feasible drivers of the results rather than changes in trainee research orientation, selection, or life cycle effects.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, productivity, innovation, entrepreneurial supervisors, human capital development, knowledge-based economy</t>
+  </si>
+  <si>
+    <t>What role do differences in founders' occupational backgrounds play in new venture performance? Analyzing a novel dataset of 2998 founders creating 1723 innovative startups in biomedicine, we find that the likelihood and hazard of achieving a liquidity event are lower for academic than for non-academic startups. However, academic startups produce as many patents and receive as much funding as non-academic startups, suggesting that the observed differences in achieving a liquidity event are not driven by differential invention performance. Exploiting heterogeneity among academic startups, we also find that differences between professor and student startups do not explain academic startups' comparatively low performance on the exit market vis-à-vis nonacademic startups. Yet, startups founded by superstar professors perform similarly to non-academic startups on the exit market for new ventures, and better than startups founded by highly productive professors but without external certification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation, Occupational imprinting, Academic startups, Non-academic startups, Founder heterogeneity </t>
+  </si>
+  <si>
+    <t>Business angel investors, Entrepreneurs, Well-being, Psychological needs, Tweets, Linguistic Inquiry and Word Count (LIWC), Investor–investee relationship</t>
+  </si>
+  <si>
+    <t>Although previous studies show that the emergence of evaluation criteria for a new technology improves the life chances of well-performing firms, we theorize that consensus in such criteria among technology experts increases investments to all firms in the new sector. We provide a variety of supportive evidence for this claim. First, in an experiment with 80 Chinese investors (Study 1), we provide evidence of a causal relation between evaluation consensus and investments. We follow this with a second experiment with 412 U.S. participants (Study 2), showing that evaluation criteria consensus increases participants’ propensity to view a firm as technologically competent and to expect others to favor investing in the firm. Analyses of longitudinal archival data on investment in artificial intelligence technology firms in the United States (Study 3a) and China (Study 3b) support the generalizability of our findings. By exploring the social-cognitive processes that link evaluation criteria consensus to investors’ decisions to invest in firms in nascent technology fields, this paper advances the scholarly understanding of the microfoundations of the institutionalization processes in new market sectors.</t>
+  </si>
+  <si>
+    <t>evaluation criteria, evaluation criteria consensus, investment, nascent technology, micro-foundations of institutional theory, experimental methods</t>
+  </si>
+  <si>
+    <t>Different streams of research have led to contradictory conclusions about the venture performance implications of founders’ breadth of experience. Although extant empirical studies have explored the performance implications of founders’ breadth of experience at the start-up stage, we focus on the later stage of the initial public offering (IPO). We theorize that investors categorize venture founders based on two salient dimensions—their industry and functional background—and we relate this categorization to resource acquisition at IPO. To test our model, we use a hand-collected data set of 175 entrepreneurial IPOs in the Alternative Investment Market in London (2002–2013) and two randomized experiments. We theorize and find that compared with entrepreneurial ventures with a lead founder specializing in one industry or one function, investors generally devalue those with a category-spanning lead founder (a generalist). However, devaluation is less severe when a lead founder is a generalist in one dimension (e.g., industry) but a specialist in the other dimension (e.g., function). We also theorize and empirically test trust as a mechanism for the generalist penalty. Specifically, audience members (investors) have low trust in a generalist producer (founder) in contexts where the two parties consider entering into a partnership (equity investment at IPO), and so that generalist producer is devalued. Finally, we show that an external expert endorsement—in our case, from intensive venture capital affiliations—offsets the generalist penalty, especially when category spanning occurs in multiple category dimensions.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, social categories, trust</t>
+  </si>
+  <si>
+    <t>Application oriented science, University researchers, Human resources analytics, Classification system, Science and innovation policy</t>
+  </si>
+  <si>
+    <t>As the international mobility of academic scientists is ever increasing, its effects on outcomes beyond research productivity deserve more attention. In this paper, we therefore investigate to what extent academics with different international mobility experiences differ in their likelihood to commercialize their research through entrepreneurship. To answer this question, we make use of a detailed survey covering all academics employed at Danish universities in 2017. Empirically, we distinguish three groups of academics according to their international experience (stayers, returnee, and immigrants) and focus on entrepreneurial outcomes realized while residing in the host country, Denmark. The estimation of duration models reveals that returnees are more than 50% more likely to become academic entrepreneurs than stayers. Immigrants, however, were between 38 and 47% less likely to start a firm than returnees. This difference seems to increase at higher levels of commercially relevant research and international research stays at international top institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, International mobility of scientists, High-skilled migration, Immigrant entrepreneurship </t>
+  </si>
+  <si>
+    <t>Many of society’s grand challenges, like access to education, improved public health, and building smart infrastructure, occur in established fields, often ones where noncommercial logics matter. Grounded in a theory-building study of two well-matched EdTech ventures in the nascent MOOC market in the U.S. higher education field, we unpack their strategy formation processes. These ventures faced the dual problem of forming a successful strategy in a nascent market while changing an established field. Our primary contribution is a theoretical framework that identifies two distinct yet effective processes. One (Maverick) is a competitive, learning centric process, whereas the other (Diplomat) is a cooperative, diplomacy-centric one. Although distinct, these processes unexpectedly share the same decision weaving (i.e., hybrid) problem-solving structure that fits complex, novel problems like strategy formation. Broadly, we contribute to institutional theory and institutional entrepreneurship by introducing the diplomacy lens, its tactics, and firm performance. We contribute to learning theory and entrepreneurship by identifying the unique features of learning in established markets, including the limits to rapid experimentation and the value of collaborative learning for changing established fields. We add to practice by emphasizing the difficulty of achieving both commercial success and societal impact. Overall, we bridge the gap between institutional and commercial entrepreneurship.</t>
+  </si>
+  <si>
+    <t>strategy, strategy formation, entrepreneurship, nascent markets,  institutional entrepreneurship, learning, diplomacy, pivot</t>
+  </si>
+  <si>
+    <t>We extend organizational justice theory by investigating the justice perceptions of academic entrepreneurs regarding interactions with their universities. We assess how these justice perceptions influence the propensity of academic entrepreneurs to engage in different forms of commercialization, as well as the moderating role of entrepreneurial identity and prosocial motivation. We test our predictions using data from 1,329 academic entrepreneurs at 25 major U.S. research universities. Our results indicate that organizational justice is positively associated with intentions to engage in formal (i.e., sanctioned) technology transfer, and negatively associated with intentions to engage in informal (unsanctioned and noncompliant) technology transfer, which we characterize as a form of organizational deviance. Our findings also show that entrepreneurial identity and prosocial motivation (i.e., a focus on oneself vs. others) amplify and attenuate, respectively, the relationship between justice perceptions and technology transfer intentions. Finally, although intentions to engage in formal technology transfer predict subsequent behavior, intentions to engage in informal technology transfer do not.</t>
+  </si>
+  <si>
+    <t>organizational justice, entrepreneurial identity, prosocial motivation, technology transfer, entrepreneurship</t>
+  </si>
+  <si>
+    <t>This essay contrasts a perspective that places an excessive focus on technology businesses and growth with a view of entrepreneurship that embraces its heterogeneity. We challenge a taken-for-granted belief that only certain kinds of entrepreneurship might lead to wealth and job creation and additionally suggest that these two outcomes (wealth and job creation) need to be placed within a broader context of reasons, purposes, and values for why and how entrepreneurship emerges. We suggest that a wider and nondiscriminatory perspective on what constitutes entrepreneurship will lead to better theory and more insights that are relevant to the phenomenon.</t>
+  </si>
+  <si>
+    <t>Despite the assumption that symptoms of hypomania are detrimental, they may prove beneficial within self-employment contexts. Drawing on person-environment (P/E) fit theory and using the first National Epidemiologic Survey on Alcohol Related Conditions (NESARC 1), our conservative inferences are that for self-employed individuals, hypomania has a positive association with income, self-employed individuals with higher education have higher levels of income with increasing hypomania score, and older self-employed individuals with a higher hypomania score have a higher income. These findings have implications for the literature on hypomania symptoms and selfemployment related labor market outcomes.</t>
+  </si>
+  <si>
+    <t>hypomania score, income, self-employment</t>
+  </si>
+  <si>
+    <t>In this study, we explore how failure in the form of the first lost game of the college football season for a team influences specific content within the narratives constructed regarding that loss and how those narratives are associated with subsequent performance. Building on theoretical perspectives regarding sports management, entrepreneurial orientation (EO), emotions, and the use of narratives for sensemaking, we develop and test an EO-related sports management model of failure narratives. Using computer-aided text analysis of transcripts from head coaches’ press conferences directly following their team’s first loss of the season as well as regression analysis, we found that the narrative’s EO content has a U-shaped relationship with subsequent (i.e., next game) performance. Additionally, negative emotional content had a similar U-shaped relationship with subsequent performance. Finally, positive emotional content exhibited an inverse U-shaped relationship with subsequent performance. We discuss the implications of these results on the literatures regarding EO, emotions, and sports management as well as possible avenues for future research.</t>
+  </si>
+  <si>
+    <t>This study investigates how venture development programs such as private incubators, university incubators, and accelerators influence the success of participating nanotechnology startups. With the recent growth in such programs, empirical work is needed to compare their impact on participants across programs and with nonparticipants. Using data on firm bankruptcies, liquidation, government grants, and venture capital, we find benefits, but the influence of each venture development program varies greatly. We further investigate the influence of program services and resources to clarify program heterogeneity beyond existing typologies. The results clarify the role of these programs and ecosystem intermediaries.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, startup, new ventures, venture performance, incubators</t>
+  </si>
+  <si>
+    <t>Given calls for more rigorous research able to measure the impact of entrepreneurship education, this study proposes guidelines for enhancing methodological and reporting practices. First, drawing on prior research syntheses, we developed a descriptive validity framework that outlines key elements for rigorous evaluation research. Second, we use this framework to examine 61 quantitative, university-based entrepreneurship education impact studies to identify and describe methodological and reporting practices that are most prevalent. The result is a set of Impact Evaluation Research Standards for entrepreneurship educators and scholars wishing to improve education evaluation research.</t>
+  </si>
+  <si>
+    <t>descriptive validity, program evaluation, entrepreneurship education, systematic review, methodology</t>
+  </si>
+  <si>
+    <t>The dearth of minority entrepreneurs has received increasing media attention but few academic analyses. In particular, the funding process creates challenges for either audit or correspondence methods, making it difficult to assess the role, or type, of discrimination influencing resource providers. We use a novel approach that combines analyses of 7,617 crowdfunding projects with an experimental design to identify whether African American men are discriminated against and whether this reflects statistical, taste-based, or unconscious bias on the part of prospective supporters. We find that African American men are significantly less likely than similar white founders to receive funding and that prospective supporters rate identical projects as lower in quality when they believe the founder is an African American male. We conclude that the reduction in perceived quality does not reflect conscious assumptions of differences in founder ability or disamenity but rather an unconscious assumption that black founders are lower quality. In two additional experiments, we identify three means of reducing this bias: through additional evidence of quality via third-party endorsements (i.e., awards, evidence of prior support), through evidence that African American founders have succeeded previously, and by removing indicators of the founder’s race.</t>
+  </si>
+  <si>
+    <t>entrepreneurship, crowdfunding, economic discrimination, inequality</t>
+  </si>
+  <si>
+    <t>The entrepreneurial teams that form around university-based technologies influence whether and how those technologies are commercialized. Past research has emphasized the roles of external actors, such as technology transfer officers or investors, in managing the evolution of academic startup teams. But less is known about how individual scientist-inventors form their initial teams. To explore that process, we conducted longitudinal interviews with nine scientist-inventors leading nascent startups at major U.S. universities. Our analyses revealed that these scientists were working with a more extensive set of commercially-relevant knowledge and network connections than past research has accounted for. In fact, the scientists had their own “lay theories” of academic entrepreneurship that encompassed team-specific ideas as well as broader ideas about how their technologies ought to be commercialized. We identified four “design principles” capturing key variations in what the scientists hoped to achieve through their teams: control, scope, entitativity, and dynamism. We further found these principles clustered into three distinct commercialization models, which we called Lab, Gig, and Enterprise. Finally, we elaborated the models’ implications for the scientists’ team formation strategies, the sources through which they identified new members, and their approaches to dealing with administrators and investors. Our findings change what we know about nascent academic startups by showing how scientists play a critical internal role alongside, prior to, and sometimes instead of the external drivers of team formation whose roles have been more extensively documented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic entrepreneurship, Entrepreneurial teams, Founders, Cognition, Knowledge, New ventures, Team design </t>
+  </si>
+  <si>
+    <t>This study examines how university-firm (U-F) interactions affect innovation speed in science-intensive small and medium-sized firms (SISMEs). We distinguish between formal and informal U-F interactions and build on dynamic capability theory to argue that (1) U-F R&amp;D alliances enhance innovation speed through firm-level entrepreneurial orientation (EO), and (2) frequent U-F informal contacts weaken the effects of U-F R&amp;D alliances on innovation speed. Analyzing a sample of 268 SISMEs from 10 science parks in China, the results of the partial least squares structural equation modeling (PLS-SEM) support our hypotheses. Furthermore, fuzzy-set qualitative comparative analysis (fsQCA) identifies various configurations of U-F R&amp;D alliances, U-F informal contacts and EO, along with other organizational, science park and environmental conditions, that lead to higher or lower innovation speed in SISMEs. Our findings offer valuable theoretical and practical insights, advancing our understanding of the complex relationship between U-F interactions and innovation speed in SISMEs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">university-firm (U-F) R&amp;D alliances, university-firm (U-F) informal contacts, Entrepreneurial orientation, Innovation speed, Science-intensive SMEs </t>
+  </si>
+  <si>
+    <t>Although research has examined the benefits of military service and the impact of military executives on business operations, the relationship between military service and entrepreneurial behavior remains poorly understood. Using the instrumental variable approach and a nationally representative male sample from the China Labor-forces Dynamic Survey, we discovered that military service significantly increased the probability of entrepreneurship in China, even after a series of robustness checks. Mechanism tests indicated that this positive effect could be explained by human and political capital accumulation, military-related social capital formation, and risk appetite traits. Our supplemental analyses demonstrated that exogenous shocks from the special military-in-business policy strengthened the positive entrepreneurial effect, whereas the higher education expansion policy and China’s accession to the World Trade Organization weakened this effect. Additionally, military entrepreneurs had better business performance and more resilient, persistent, and confident traits. We found no evidence that Chinese veterans were forced to become entrepreneurs. This study enriches research on the styles and traits of military entrepreneurs and managers and provides important insights for assessing and improving veteran welfare policies in China and other developing countries.</t>
+  </si>
+  <si>
+    <t>military service, entrepreneurial behaviors, military entrepreneurs, China</t>
+  </si>
+  <si>
+    <t>Age, Entrepreneur, Gender, Diversity, Performance, Career success, Meta-analysis</t>
+  </si>
+  <si>
+    <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.&lt;br/&gt;
+Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Summary: High-tech startups develop technologies, the market applicability of which can vary widely, enabling startups to target a range of market segments. Using a question-driven approach to contrast startups with and without academic founders, we investigate the difference in the market applicability between the two groups on a sample of 988 startups in the artificial intelligence (AI) field. Our findings reveal that academics' pursuit of basic research drives the creation of general knowledge, which in turn leads to wider market applicability. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain. Our findings highlight the role of problem-formulation and -solving in startups and of academic startups within AI.&lt;br/&gt;
 Managerial Summary: Using a sample of 988 startups in the Artificial Intelligence field, we find that startups with at least one academic on their founding team are associated with a higher number of verticals (potential market segments for the technology the startups developed) compared to startups without any academics. Teams with academic founders produce more general publications and patents than others, which drives the association with more verticals. Academics formulate and solve more general problems relative to non-academics, leading to the creation of more general products that are applicable to a broader range of verticals. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain.     </t>
   </si>
   <si>
-    <t>There is a paucity of knowledge on research commercialization by university scientists worldwide. The objective of this paper is to identify the role that Technology Transfer Offices (TTOs) and direct Industrial Funding play in university research commercialization in transition economies of Azerbaijan, Belarus and Kazakhstan during 2015–2017. We do this by developing a novel database and a multi-level model which explains how individual attributes, organizational and ecosystem characteristics explain the extent of knowledge commercialization.
+    <t>Research summary: We examine how university entrepreneurship programs affect entrepreneurial activity using a unique entrepreneurship-focused survey of Stanford alumni. OLS regressions find a positive relationship between program participation and entrepreneurship activities. However, endogeneity hinders causal interpretation. We utilize the fact that the entrepreneurship programs were implemented at the school level. Using the introduction of each school's program as an instrument for program participation, we find that the Business School program has a negative to zero impact on entrepreneurship rates. Participation in the Engineering School program has no impact on entrepreneurship rates. However, the Business School initiative decreases startup failure and increases firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the quality of entrepreneurship.&lt;br/&gt;
+Managerial summary: Recently, many universities have developed programs to promote entrepreneurship. However, relatively little is known about the impacts of such university initiatives. In this article, we examine the two major initiatives that were established in the mid-1990s—the Stanford Center for Entrepreneurial Studies at the Business School and the Stanford Technology Ventures Program at the Engineering School. We find that the Business School program had a negative to zero impact on entrepreneurship rates and participation in the Engineering School program had no impact on entrepreneurship rates. However, the Business School initiative decreased startup failure and increased firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the startup performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to the novelty of their technology base and the multiple goals pursued by their entrepreneurial teams, academic spin-offs (ASOs) suffer information asymmetries with investors that impair their ability to raise finance. In line with the signaling theory, we expect that observable features of an ASO can mitigate such information asymmetries, especially in conditions of higher uncertainty about the venture. We put forward that a larger share of capital owned by female shareholders adds to such uncertainty due to their outsider condition in academic entrepreneurship and the negative bias of investors against female entrepreneurs.&lt;br/&gt;
+Through a multi-level Tobit regression on a sample of Italian ASOs, we find that the amount of private investment is negatively associated with the degree of female ownership and positively associated with the investment of the parent university and full professors. The latter two factors moderate the relationship between degree of female ownership and private investment so that it becomes less negative.&lt;br/&gt;
+The results provide evidence of the persisting gender gap in entrepreneurial finance and highlight the role of parent universities in closing such a gap. </t>
+  </si>
+  <si>
+    <t>Research summary: There has been an ongoing debate over whether start-ups should be “flat” with minimal hierarchical layers. To reconcile this debate, this article distinguishes between creative and commercial success (i.e., novelty vs. profitability), and examines how these outcomes are variously influenced by a startup's hierarchy. This study suggests that while a flatter hierarchy can improve ideation and creative success, it can result in haphazard execution and commercial failure by overwhelming managers with the burden of direction and causing subordinates to drift into power struggles and aimless idea explorations. I find empirical support for this trade-off using a large sample of game development start-ups. These findings offer one resolution to the debate by sorting out the conditions under which hierarchy can be conducive or detrimental to start-ups.&lt;br/&gt;
+Managerial summary: Academics, management gurus, and popular media outlets have argued that “authoritarian,” tall hierarchies are outmoded and will be supplanted by “egalitarian,” flat structures. In recent years, this argument has been largely substantiated by a few “successful” flat start-ups, such as Valve, Zappos, Github, Medium, and Buffer. As these nascent firms constantly garner much attention for their egalitarian ideal—which itself is a signal of their rarity—the myth that start-ups should be flat (often referred to as “flat organization,” “holacracy,” or “boss-less firm”) has become widespread among entrepreneurs. My study cautions against this myth, suggesting that adding a few hierarchical levels of managers can substantially help start-ups achieve commercial success and survive in their hostile environments, albeit at a potentially marginal cost of creativity.</t>
+  </si>
+  <si>
+    <t>Research Summary: Scaling at the right time is a crucial challenge for startups. Conceptualizing “scaling” as the entrepreneurial process of acquiring and committing resources to implement the core business idea and expand the customer base, this study examines how scaling early may decrease imitation risk at the expense of increasing commitment risk. As startups typically hire managers and sales personnel when they begin to scale, we propose that this timing can be empirically measured by when startups first post these jobs. Leveraging a dataset of job postings, we find that early scalers are more likely to fail, but no evidence of a countervailing benefit in terms of successful exit. Additional analyses suggest that the commitment risk in scaling early outweighs the benefit of reducing imitation risk.&lt;br/&gt;
+Managerial Summary: In recent years, a few highgrowth startups (e.g., Facebook and Uber) that made their fortune by scaling early—an approach often referred to as “blitzscaling”—have received much interest among academics and practitioners. However, this study presents large-sample evidence that scaling early is positively associated with a higher rate of firm failure, especially for platform companies. These findings imply that, despite its potential benefits of preventing imitation by competitors, scaling early can suppress startup performance by prematurely curtailing learning through experimentation and committing to a business idea that lacks product-market fit. In sum, our work cautions startups against prioritizing scaling early before finding product-market fit, and instead highlights the importance of spending sufficient time on experimentation before scaling.</t>
+  </si>
+  <si>
+    <t>Research Summary: Low-price market entries, aiming for rapid sales growth, tend to prompt strong competitive reactions. This research explores whether and how firms using low-price entry strategies can mitigate retaliatory incumbent reactions. An experiment with 656 managers shows that entrants can attenuate the strength of incumbents’ responses by fostering perceptions of high aggressiveness or low commitment. Entrants may be able to accomplish this by adjusting their entry strategy to embed (subtle) cues of aggressiveness and (lack of) commitment. A replication experiment with university students rein- forces our overall theoretical argument. However, the results also indicate that the interpretation of cues embed- ded in the entry strategy may be affected by the experience of incumbent firm managers. Overall, these results clarify the cognitive foundations of competitive responses to market entry.&lt;br/&gt;
+Managerial Summary: What drives incumbents to respond strongly to market entries, and what can the entrant, if anything, do to mitigate those responses? This research offers empirical evidence and theoretical insights for managers faced with these questions by shedding light on the thinking processes preceding competitive responses. The study shows that while managers are motivated to respond strongly to market entries that appear to be highly consequential to their business, these responses may be mitigated if the entrant manages to foster perceptions of high aggressiveness or low commitment to the market. Managers form these perceptions in part on the basis of the entrant's behavior, creating an opportunity for entrants to adjust their entry strategies in a manner that demotivates strong competitive responses.</t>
+  </si>
+  <si>
+    <t>There is a paucity of knowledge on research commercialization by university scientists worldwide. The objective of this paper is to identify the role that Technology Transfer Offices (TTOs) and direct Industrial Funding play in university research commercialization in transition economies of Azerbaijan, Belarus and Kazakhstan during 2015–2017. We do this by developing a novel database and a multi-level model which explains how individual attributes, organizational and ecosystem characteristics explain the extent of knowledge commercialization.&lt;br/&gt;
 We apply the generalized Heckman approach to account for two selection biases, reducing the sample from 2602 to 272 scientists, and further use a mixed-method approach to analyse 27 face-to-face interviews with researchers and TTO managers. The results demonstrate that research commercialization is not associated with the existence and awareness of TTO or the establishment of commercialization contracts via TTO, but the direct industrial funding of university research. Taken together the findings have clear implications for scholars, scientific entrepreneurs, TTOs and investors who aim to exploit university knowledge in transition economies.</t>
   </si>
   <si>
-    <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.
-Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
-  </si>
-  <si>
-    <t>entrepreneurship; organizational sectors; signaling; venture capital</t>
-  </si>
-  <si>
-    <t>Increasing efforts aim at economic development and the reduction of poverty in developing countries through microcredit-enabled entrepreneurship. Following the award of the Nobel Peace Prize to Prof. Yunus, microcredit lending has risen to prominence and the volume of microcredit loans has increased substantially. However, theory on the outcomes of this financing form is controversial. Furthermore, the academic community lacks conclusive empirical evidence about the impact of such programs. Primary empirical studies report fragmented and to a large extent contradictory results. In this meta-analysis, we empirically synthesize a total of 545 quantitative empirical findings from 90 studies conducted to date. Our findings reveal a positive impact of microcredit on key development outcomes at the level of the client entrepreneurs. Additionally, we scrutinize how the development context influences the effectiveness of microcredit and find that microcredit generally has a greater impact in more challenging contexts. With our findings we contribute to research on the nexus of entrepreneurship and economic development, and offer recommendations for practitioners and academics working on this promising frontier.</t>
-  </si>
-  <si>
-    <t>Microcredit, Microloans, Human development, Base of the pyramid, Development entrepreneurship</t>
-  </si>
-  <si>
-    <t>Higher education, Excellence initiative, Policy intervention, Research quantity, Research quality</t>
-  </si>
-  <si>
-    <t>This paper analyses the impact of the Excellence Initiative (EI) in Germany, a policy intervention aimed to promote and select outstanding active research universities by competitively allocating additional public funds. Academic debate on efficiency and effectiveness of higher education policy does not addresses issues such as treatment and selection effects, suffers from generalizable measurement problems, and does not take a comparative approach. Our objective is to fill this gap by adopting Italy as a control country. In doing so, this paper examines (1) whether this policy approach is suitable to stimulate the system and the awarded institutions, (2) how the performance impact can be measured and (3) whether the results are driven by country specific effects or are generalizable. To this end, we applied a triple difference-in-differences analysis (DDD) on a dataset of 72 German and 51 Italian state universities during the first round of the EI, from 2004 to 2013. We found that the EI has had a positive effect on research quantity, but a reverse effect on research quality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study examines how the identity orientation of founders, i.e., the extent to which they define themselves in terms of their relationships to others and to social groups, is imprinted by their professional logic and influences their ambitions for venture growth. We draw on existing insights regarding the Darwinian, Communitarian, and Missionary orientation of entrepreneurs and on interviews with 29 founders to develop our hypotheses, which we then test in a sample of 58 academic and 113 non-academic founders that participated in a venture competition. We argue that, compared to non-academic institutional logics, academic logics are tied to a stronger Communitarian and Missionary orientation and a weaker Darwinian orientation in founders. A stronger Darwinian orientation values venture growth, whereas a stronger Communitarian orientation appraises the benefit of the technology for a restricted set of people at the expense of such growth ambitions. A stronger Missionary orientation values welfare maximization for society which may to some degree entail higher growth aspirations. We argue and empirically confirm that these identity orientations explain why academic founders hold lower growth aspirations for their start-up than non-academic founders. Our findings can at least partially clarify why academic start-ups do not grow according to expectancies. They theoretically advance our insights in academic entrepreneurship and founders' growth aspirations while also extending the literature on founders' identity orientation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emotion, Intention, Motivation, Technology transfer, Commercialization, Academic entrepreneurship, Economic development and growth </t>
-  </si>
-  <si>
-    <t>We compare individuals presently employed either at a university, or at a firm from an R&amp;D-intensive sector, and analyze which of their personal-specific and employer-specific characteristics are related to their choice to leave their present employer for an own startup. Our data set combines the population of Danish employees with their present employers. We focus on persons who at least hold a Bachelor’s degree in engineering, sciences and health and track them over 2001-2012. We show that (i) there are overall few differences between the characteristics of university and corporate startup entrepreneurs, (ii) common factors associated with startup activity of both university and corporate employees are education, top management team membership, previous job mobility and being male, (iii) it is primarily human capital-related characteristics that are related to startup choice of university employees while (iv) the characteristics of the present workplace are the foremost factors of entrepreneurial activity by corporate employees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University startups, Corporate startups, Founder characteristics, Employee retention, Human capital </t>
-  </si>
-  <si>
-    <t>IPO, Signaling, Valuation, Underwriter, Venture capitalist, Academic entrepreneurship, Spinoff</t>
-  </si>
-  <si>
-    <t>This paper studies the combined effect of affiliation with prestigious universities, underwriters, and venture capitalists on the valuation of biotech ventures at IPO and their post-IPO performance. We argue that affiliation to a prestigious university provides the affiliated firm with a quality signal in the scientific domain. The pure quality signaling effect of the affiliation is isolated from the substantive benefits it provides by performing a difference-in-difference approach based on the scientific reputation of scientists in firms' upper echelons. The signal is stronger the weaker is the scientific reputation of scientists of the focal IPO-firm and is additive to those provided by prestigious venture capitalists and underwriters. Results for a sample of 254 European biotech ventures that went through an IPO between 1990 and 2009 confirm our predictions.</t>
-  </si>
-  <si>
-    <t>interdisciplinarity, university-industry interaction, academic entrepreneurship, technology transfer, co-production, response mode</t>
-  </si>
-  <si>
-    <t>Interdisciplinary research (IDR) has raised increasing expectations among scholars and policymakers about its potential to produce ground-breaking scientific contributions and satisfy societal demands. While existing research highlights that novel connections across fields is beneficial for scientific contributions with high academic impact, comparatively less is known about whether IDR is positively associated to scientists’ engagement with non-academic actors. To investigate this, we examine whether there is a systematic relationship between scientists’ IDR-orientation and their interactions with industry. We conceptually distinguish four stylized modes of interaction (firm creation, technology transfer, co-production and response modes) and employ three distinct indicators of IDR. We use data on 1,170 scientists affiliated to public research organizations in Spain, bibliometric dataset of scientists’ publications, and details of scientists’ past involvement in interactions with industry. Our results show that IDR has a transversal influence on all four modes. However, IDR-oriented scientists are more strongly associated to transactional (market-mediated) compared to relational (personal-based) interaction mechanisms; while we find no evidence of a significant difference between IDR-oriented scientists and their propensity to engage in different modes of U-I interaction according to the degree of goal specificity.</t>
-  </si>
-  <si>
-    <t>Although leveraged exchange-traded funds (ETFs) are popular products for retail investors, how to hedge them poses a great challenge to financial institutions. We develop an optimal rebalancing (hedging) model for leveraged ETFs in a comprehensive setting, including overnight market closure and market frictions. The model allows for an analytical optimal rebalancing strategy. The result extends the principle of “aiming in front of target” introduced by Garleanu and Pedersen (2013) from a constant weight between current and future positions to ˆ a time-varying weight because the rebalancing performance is monitored only at discrete time points, but the rebalancing takes place continuously. Empirical findings and implications for the weekend effect and the intraday trading volume are also presented.</t>
-  </si>
-  <si>
-    <t>daily rebalancing, leveraged ETFs, market closure, frictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The literature suggests that the startups of de novo entrepreneurs are disadvantaged, but many of the world’s leading firms have been founded by students and recent graduates. We hypothesize that academic and industrybased educational experiences shape the innovative activity of student startups and use patent data to measure technological proximity between the patent portfolios of influencers and startups. We find that indirect exposure to the research and development activities of the students’ university departments and work term employers results in technological imprinting. Influencer and entrepreneur capabilities affect the magnitude of the imprinting effect: student ventures are technologically more proximate to highly ranked university departments and to more innovative work term employers, and the students’ software skills impact their ability to invent in proximity to their work term employer. We also find that multiple layers of imprints are complements, not substitutes. Exposure to inventive activities, even when indirect and brief, results in multiple capabilitiesmoderated layers of imprints. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imprinting, Exposure, Student startups, Student entrepreneurship, Technological distance, Patents </t>
-  </si>
-  <si>
-    <t>A considerable body of work acknowledges the importance and benefits of the university–industry relationship for the economy and society, but also for increasing the revenue of universities themselves (known also as universities’ “third mission”). However, questions have also been raised about the consequences of the university-industry relationship and its impact on their traditional role. This paper contributes to this debate by exploring whether and how being efficient in generating income from engagement activities impacts on universities’ research performance. By using a sample of 119 UK higher educational institutions for period 2007–2014, and controlling for endogeneity issue, the results show that efficiency in terms of university-industry income and research performance exhibits a nonlinear relationship for both universities established before (“old universities”), and after (“new universities”), the Higher Education Act 1992 (HEA). However, for high level of efficiency, “old universities” do not appear able to improve their research performance further. Finally, positive synergies between the third mission and research mission decline in a more teaching-oriented environment. We conclude that policy makers should account for organisational heterogeneity and teaching orientation to promote research excellence effectively by stimulating engagement.</t>
-  </si>
-  <si>
-    <t>Efficiency, Higher education institutions, Industry engagement, Research Excellence Framework (REF)</t>
-  </si>
-  <si>
-    <t>Due to their origin in universities, academic spin-offs operate at the forefront of technological development. Therefore, academic spin-offs exhibit a skill-biased labour demand, i.e. academic spin-offs have a high demand for employees with cutting-edge knowledge and technical skills. In order to accommodate this demand, academic spin-offs may have to pay a relative wage premium compared to other hightech start-ups. However, neither a comprehensive theoretical assessment nor the empirical literature on wages in start-ups unambiguously predicts the existence and the direction of wage differentials between academic spin-offs and non-spin-offs. This paper addresses this research gap and examines empirically whether or not academic spin-offs pay their employees a wage premium. Using a unique linked employeremployee data set of German high-tech start-ups, we estimate Mincer-type wage regressions applying the Hausman-Taylor panel estimator. Our results show that academic spin-offs do not pay a wage premium in general. However, a notable exception to this general result is that academic spin-offs that commercialise new scientific results or methods pay a wage premium to employees with links to the university sector - either as university graduates or as student workers.</t>
-  </si>
-  <si>
-    <t>Wages, High-tech start-ups, Academic spin-offs, Linked employer-employee data</t>
-  </si>
-  <si>
-    <t>In this paper, we use a social support perspective and hypothesize that the scope of start-up activities is positively associated with two types of instrumental family support, financial and social capital. We further argue that the effect of instrumental family support is enhanced by the level of emotional support, in the form of family cohesiveness. To test our hypotheses, we draw from the 2011 Global University Entrepreneurial Spirit Students' Survey (GUESSS), a survey of university students from 19 countries. We focus on those nascent entrepreneurs who are in the process of starting their new venture (n = 12,399). Our findings indicate that family social capital is positively associated with the scope of start-up activities, family financial capital is negatively associated with the scope of start-up activities, and family cohesiveness amplifies the effect of family social capital on the scope of start-up activities. Theoretical, practitioner, and public policy implications are discussed.</t>
-  </si>
-  <si>
-    <t>Nascent entrepreneurs, Start-up activities, Social support, Global University Entrepreneurial Spirit Students’ Survey (GUESSS)</t>
-  </si>
-  <si>
-    <t>Whether entrepreneurship generates economic growth depends on the institutional environment due to its impact on the mix of productive and unproductive entrepreneurship in the economy. The incentive structure embedded in each society affects whether talented people become entrepreneurs and potentially, the extent to which they engage in more productive forms of entrepreneurship. We examine how trust in institutions affects the entrepreneurial intentions of potentially productive entrepreneurs. We utilize the unique event surrounding the impeachment of South Korea’s previous president. The event improved people’s trust in the government because it was ultimately the people’s protests and demands that led to the impeachment of the president for influence peddling and extracting personal rents from businesses. By surveying the same individuals before and after the impeachment ruling, we identify people’s changes in trust in government and various institutions. We find that increased trust in institutions increases one’s intent to start a business within five years. Moreover, we show that the relationship between trust in institutions and entrepreneurial intention is significantly stronger for engineering majors from top universities.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, institutions, trust in government, allocation of talent, impeachment</t>
-  </si>
-  <si>
-    <t>institutional theory, entrepreneurship, innovation</t>
-  </si>
-  <si>
-    <t>This paper contributes to institutional theory on cognitive and normative institutional change targeted at altering beliefs, behaviors, and ultimately firm performance. Prior work emphasizes institutional changes where the ideas and beliefs originate from those within the institutional context. Under examined are cases of institutional changes in beliefs and behaviors imposed from outside of the context, which may result in inconsistencies among cognitive, normative, and regulatory institutional pillars. Project 985 was a program implemented by the Chinese government that provided funding for a set of universities to build new research centers. We found that graduates of these universities subsequently expressed greater beliefs in innovation and founded more high-tech ventures, but that entrepreneurs influenced by the reform were not as financially successful as entrepreneurs who founded firms before the reform or from non-985 universities. We explain this surprising finding as caused by the fact that Project 985 was institutionally inconsistent with China’s broader institutional environment. An important implication is that institutional changes may alter beliefs and behavior, but they must be consistent with the broader institutional environment to improve firm performance.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, external environment, institutional theory, barriers to growth</t>
-  </si>
-  <si>
-    <t>ability, academic entrepreneurship, alumni, self-selection, universities</t>
-  </si>
-  <si>
-    <t>Research summary: We examine how university entrepreneurship programs affect entrepreneurial activity using a unique entrepreneurship-focused survey of Stanford alumni. OLS regressions find a positive relationship between program participation and entrepreneurship activities. However, endogeneity hinders causal interpretation. We utilize the fact that the entrepreneurship programs were implemented at the school level. Using the introduction of each school's program as an instrument for program participation, we find that the Business School program has a negative to zero impact on entrepreneurship rates. Participation in the Engineering School program has no impact on entrepreneurship rates. However, the Business School initiative decreases startup failure and increases firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the quality of entrepreneurship.
-Managerial summary: Recently, many universities have developed programs to promote entrepreneurship. However, relatively little is known about the impacts of such university initiatives. In this article, we examine the two major initiatives that were established in the mid-1990s—the Stanford Center for Entrepreneurial Studies at the Business School and the Stanford Technology Ventures Program at the Engineering School. We find that the Business School program had a negative to zero impact on entrepreneurship rates and participation in the Engineering School program had no impact on entrepreneurship rates. However, the Business School initiative decreased startup failure and increased firm revenue. University entrepreneurship programs may not increase entrepreneurship rates, but help students better identify their potential as entrepreneurs and improve the startup performance.</t>
-  </si>
-  <si>
-    <t>Prior research often focuses on how many entrepreneurial firms are created, rather than on institutions that encourage specific types of firms or entrepreneurs. This paper identifies institutional changes that reduce barriers to growth as an important factor influencing the propensity of individuals to start a business. The findings suggest that the impact of lower barriers to growth is shaped by the extent of the reduction in barriers to growth and the level of human capital of the individual. Only a large reduction in barriers to growth has a stronger impact in increasing the likelihood of founding at higher levels of human capital. I capitalize on two reforms lowering barriers to growth as natural experiments. One reform, in 1988, only slightly lowered barriers to growth. The second reform, in 1999, more strongly lowered barriers to growth with an amendment to the Chinese constitution reversing regulations that favored firms with foreign investors. This made it easier for domestic entrepreneurs to compete. I collected data through a survey of 2,966 alumni who graduated from a top Chinese university. Results show that reducing the institutional barriers to growth differently affects college-educated individuals with different levels of human capital.</t>
-  </si>
-  <si>
-    <t>This paper introduces a process model of how academics learn to bridge different cognitive scripts, thereby learning to collaborate with non-academic managers in the context of multidisciplinary academic spinoff (ASO) teams. Whereas prior research has taken a static perspective, showing that cooperation in ASO teams is challenging due to differences in cognitive scripts, we take a dynamic perspective, leveraging rich, longitudinal data on a single case to theorize how such cooperative challenges can be overcome. We reveal two aspects of this process. One is cognitive and intrapersonal, in which academics reconsider their own beliefs and understandings of their venture and the commercial world. The other is social and interpersonal, in which academics reconsider the way they collaborate with others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic spinoffs, Cognitive scripts, Learning, Academics, Longitudinal </t>
-  </si>
-  <si>
-    <t>diversity in national culture, entrepreneurial exit, financial harvest, founding teams, immigrant entrepreneurs</t>
-  </si>
-  <si>
-    <t>We study the effects of diversity in national culture on new technology ventures’ founding teams on their financial harvest exit strategy. Exits represent a pivotal event in the entrepreneurial process that reflects the strategy and performance of technology startups. Following a quasireplication of the seminal study of Chaganti and colleagues in 2008, aimed at generalizing their findings to different technologies and periods and assessing their robustness, we demonstrate that diverse founding teams are significantly more likely than non-diverse teams to exit via financial harvest. We add to the literature by identifying a novel contributing factor—diversity in national culture—in founding teams’ financial harvest strategies. The economic implications, both at the micro and macro levels, of the diversity factor are considerable. The contribution of this study thus extends beyond the academic literature.</t>
-  </si>
-  <si>
-    <t>corporate entrepreneurship, entrepreneurial orientation, upper echelons, narcissism</t>
-  </si>
-  <si>
-    <t>Extant research has shown that firms with high levels of entrepreneurial orientation (EO) outperform competitors. The present study sheds light on this performance relationship in large, publicly listed high-tech firms by examining whether the strength of this relationship depends upon the CEO’s narcissism, an executive personality trait recently debated controversially in both academic and practitioner publications. A theoretically derived research model is empirically validated by means of multisource secondary data for 41 S&amp;P 500 firms from 2005 to 2007. Findings indicate that narcissistic CEOs usually weaken the EO-performance relationship, although the opposite is true under some conditions, such as in highly concentrated and dynamic markets.</t>
-  </si>
-  <si>
-    <t>transportation, middle-mile, flexibility, stochastic matching, long chain, e-commerce</t>
-  </si>
-  <si>
-    <t>Given an input graph Gin � (V,Ein), we consider the problem of designing a sparse subgraph G � (V,E) with E ⊆ Ein that supports a large matching after some nodes in V are randomly deleted. We study four families of sparse graph designs (namely, clusters, rings, chains, and Erdo˝s–Re´nyi graphs) and show both theoretically and numerically that their performance is close to the optimal one achieved by a complete graph. Our interest in the stochastic sparse graph design problem is primarily motivated by a collaboration with a leading e-commerce retailer in the context of its middle-mile delivery operations. We test our theoretical results using real data from our industry partner and conclude that adding a little flexibility to the routing network can significantly reduce transportation costs.</t>
-  </si>
-  <si>
-    <t>category spanning, social valuation, social boundaries, boundary work, multidisciplinary research, science</t>
-  </si>
-  <si>
-    <t>Extant theory suggests that candidates with an unfocused identity—those spanning different categories—suffer from a valuation penalty because evaluators are confused by their profile and concerned they lack the required skills. We argue that unfocused candidates may be penalized for another reason; they threaten established social boundaries. This happens in contexts where evaluators act as gatekeepers for social entities, such as professions. We test how the penalty applied to unfocused candidates varies in an academic accreditation process, a setting where evaluators decide on admitting candidates to an academic discipline and where candidates’ prior performance is observable. We find using data on the 2012 national scientific qualification in Italian academia that the valuation penalty applied to unfocused (multidisciplinary) candidates was most pronounced for the most high-performing candidates. High-performing yet ill-fitting candidates threaten the distinctiveness and knowledge domain of the discipline and are hence penalized by evaluators. High-performing multidisciplinary candidates suffered the greatest penalty in small and distinctive academic disciplines and when accreditors were highly typical members of their discipline. Our theory and findings suggest that the categorical imperative may be driven not only by cognitive or capability considerations as typically argued in the literature but also, by attempts to maintain social boundaries.</t>
-  </si>
-  <si>
-    <t>academic entrepreneurship, commercialization, attention, exploration, search, public science</t>
-  </si>
-  <si>
-    <t>We study how becoming an entrepreneur affects academic scientists’ research. We propose that entrepreneurship will shift scientists’ attention away from intradisciplinary research questions and toward new bodies of knowledge relevant for downstream technology development. This will propel scientists to engage in exploration, meaning they work on topics new to them. In turn, this shift toward exploration will enhance the impact of the entrepreneurial scientist’s subsequent research, as concepts and models from other bodies of knowledge are combined in novel ways. Entrepreneurship leads to more impactful research, mediated by exploration. Using panel data on the full population of scientists at a large research university, we find support for this argument. Our study is novel in that it identifies a shift of attention as the mechanism underpinning the beneficial spillover effects from founding a venture on the production of public science. A key implication of our study is that commercial work by academics can drive fundamental advances in science.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study examines the impact of public subsidies, and specifically, Small Business Innovation Research (SBIR) awards on university spinoff companies. Using unique data for a population of University of California spinoffs, we find pronounced differences between companies commercializing digital technologies (software and hardware), and those that focus on other product spaces. For digital spinoffs, receiving an SBIR award has a negative impact on raising venture capital and no impact on IPOs, exits or first sales. Conversely, for non-digital firms (e. g., biotechnology, energy), receiving an SBIR award has a positive effect on raising venture capital and performance outcomes. We reason that digital technologies are subject to faster cycle times and higher market uncertainty, relative to technological uncertainty. Digital firms may therefore benefit less from subsidies designed to support technology development, and private investors may view the need of digital companies to obtain such subsidies as a negative certification. Our findings inform policy by suggesting that the industrial domain may be an important boundary condition for the effectiveness of SBIR-type subsidies for university spinoffs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University spinoffs, Small Business Innovation Research (SBIR), Venture capital, Academic entrepreneurship, Technology transfer, Commercialization, Digital technologies </t>
-  </si>
-  <si>
-    <t>To acquire resources, new ventures need to be perceived as legitimate. For this to occur, a venture must meet the expectations of various audiences with differing norms, standards, and values as the venture evolves and grows. We investigate how the organizational identity of a technology venture must adapt to meet the expectations of critical resource providers at each stage of its organizational life cycle. In so doing, we provide a temporal perspective on the interactions among identity, organizational legitimacy, institutional environments, and entrepreneurial resource acquisition for technology ventures. The core assertion from this conceptual analysis is that entrepreneurial ventures confront multiple legitimacy thresholds as they evolve and grow. We identify and discuss three key insights related to entrepreneurs’ efforts to cross those thresholds at different organizational life cycle stages: institutional pluralism, venture-identity embeddedness, and legitimacy buffering.</t>
-  </si>
-  <si>
-    <t>This paper explores whether and to what extent a scientific approach to decision-making can be a useful tool for helping entrepreneurs overcome limitations in the commercial exploitation of their idea, particularly when these limitations stem from their status as users of the products or services. Using data from a variety of sources, including three randomized control trials and LinkedIn data, and focusing on female entrepreneurs who develop a value proposition targeting female consumers as a case of user entrepreneurs, this paper shows that exposure to a training that encourages entrepreneurs to develop theoretical maps about their business propositions and validate them with evidence prompts more radical pivots on their initial ideas compared with entrepreneurs with a value proposition that does not target women explicitly. In turn, treated female entrepreneurs with a female-targeted value proposition who pivot radically show better performance in launching and sustaining their ventures compared with those who have not pivoted.</t>
-  </si>
-  <si>
-    <t>women entrepreneurs, female value proposition, scientific decision-making, user entrepreneurs, knowledge domains</t>
-  </si>
-  <si>
-    <t>enterprising families, intergenerational solidarity, succession intentions, family business exposure, affective commitment, gender</t>
-  </si>
-  <si>
-    <t>n enterprising families, the family, as a social institution, is the foundation of the family business. However, in enterprising families, intergenerational succession remains problematic. Using intergenerational solidarity theory, and data from the 2013 Global University Entrepreneurial Spirit Students Survey (GUESSS; N = 18,576), our findings indicate that affective commitment partially mediates the relationship between family business exposure and offspring’s succession intentions. We also find that this relationship is stronger for sons than for daughters, while birth order has no effect. Implications for theory and practice are discussed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology transfer, Academic entrepreneurship, Industry evolution, Organizational groups, Spinoffs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We study failures between 1993 and 2017 in the complete population of 1731 English and Scottish university spinoffs founded since 1977. We borrow and expand the concept of density dependence from organizational ecology to theorize that a spinoff's propensity to fail is affected by the number of spinoffs active not only in the aggregate population but also within its parent university's portfolio. We contribute to organizational theory, demonstrating the importance of organizational groups that form within larger populations on individual organizations' propensity to fail. We contribute to literature on academic entrepreneurship showing that, for most universities, spinoff portfolio growth can lower associated spinoffs' failure rates, but that such effects need to be juxtaposed to the aggregate population's finite capacity to support an expanding number of spinoffs. </t>
-  </si>
-  <si>
-    <t>Academic entrepreneurship, Technology transfer office bypassing, Transaction cost theory, Tyler's justice model, Alternate commercialization pathways, Canadian universities</t>
-  </si>
-  <si>
-    <t>This article investigates the underexplored phenomenon of technology transfer office (TTO) bypassing in academic entrepreneurship. While TTOs are established to centralize and support intellectual property-based commercialization, a significant portion of entrepreneurial projects avoid the TTO. Relying on both economic (transaction cost theory) and ethical (Tyler's justice model) considerations, this study explores the motivations and contextual factors behind a researcher's decision to commercialize an invention using means other than the TTO. This multiple case study employs an in-depth exploratory qualitative approach to investigate five academic entrepreneurs across different disciplines in Canadian universities who chose to bypass their TTO, often in contravention of institutional policies. Our findings reveal a complex interplay among individual motivations, institutional policies, and market realities. We identified four paths of awareness and strategic intent in this process ranging from unintentional non-compliance to tactical avoidance which challenge a simplistic perception of TTO bypassing as merely unintentional rather than deliberate. The study also reveals four overlapping contexts that promote TTO bypassing: confidence in personal expertise, previous negative experience of using the TTO, peer-influenced skepticism, and external partner challenges. Furthermore, the findings show that the reasons for bypassing include both economic and ethical motivations which steer academic entrepreneurs toward alternative, privately managed commercialization paths. The article concludes with some implications for university managers and policymakers related to how to address the multifaceted motivations for TTO bypassing.</t>
-  </si>
-  <si>
-    <t>Academic entrepreneurship, Entrepreneurial competencies, Inhibitors, Nascent entrepreneurs, Spin-offs</t>
-  </si>
-  <si>
-    <t>Nascent academic entrepreneurs need to acquire entrepreneurial competencies to create successful spin-off ventures. In this article, we examine difficulties in this pursuit prior to venture formation and offer a systematic classification of inhibitors. We confirm, combine, and extend two previously identified inhibiting mechanisms into a relational inhibitor category, classify additional structural and cultural-cognitive inhibitors, and highlight how these inhibitors exist both at the individual and the organizational level. We then advance theoretical understanding of the interrelated, multilevel functions of inhibitors on the development of entrepreneurial competencies, and offer policy insights on how universities can mitigate their effects.</t>
-  </si>
-  <si>
-    <t>While university spinoffs have become a well-accepted vehicle for regional economic dynamism, they face numerous developmental barriers associated with the unique academic context from which they are established. Recent research shows that homophilous social networks among faculty entrepreneurs constitute one such barrier, and yet few studies have investigated the specific characteristics of spinoff networks and their relationship to entrepreneurial development. This paper seeks to address this gap through a mixed-methods research design focused on the composition, contributions, and evolution of social networks among faculty entrepreneurs whose spinoffs are within various phases of entrepreneurship. Employing a knowledge-spillover conceptual lens, this study finds that social networks among early-stage academic entrepreneurs are important for spurring and supporting spinoff establishment, but if they do not evolve from their initial configuration, these networks can largely constrain subsequent stages of spinoff development. Social networks among successful spinoffs, however, evolve with the help of first-order—or boundary spanning—individuals who help socialize academic entrepreneurs to market-oriented motivations, values, and practices that they may not otherwise receive in an academic environment. Further, these individuals provide connections to other contacts who, in turn, provide additional spinoff-enabling resources and contacts. Based on these findings, a conceptual model is introduced that explains spinoff success as a function of network evolution. Implications for research and public policy are also discussed.</t>
-  </si>
-  <si>
-    <t>University spinoffs, Social networks, Entrepreneurship, Technology transfer, Knowledge spillovers</t>
-  </si>
-  <si>
-    <t>There is now substantial evidence of the positive contribution universities can make to helping firms’ innovation. Building university-business collaborations, however, confronts the ‘two-worlds’ paradox, and the difference in institutional logics and priorities between businesses and universities. Here, we consider whether firms’ experience from prior collaboration can generate learning which can help to overcome the two-worlds paradox and improve firms’ ability to generate new-to-the-market innovations in collaboration with universities. Our analysis is based on panel data for UK companies and controls for the decision to innovate. We find evidence of significant learning effects which both increase the probability that firms collaborating with universities are able to develop new-to-the-market innovations and then benefit from those innovations. For smaller firms learning effects are strongest from prior collaboration with customers, while for medium and larger firms the strongest learning effects arise from prior collaboration with consultants.</t>
-  </si>
-  <si>
-    <t>Innovation, University, Collaboration, Learning</t>
-  </si>
-  <si>
-    <t>nonstationarity, online learning, distribution shift, adaptivity, look-back window</t>
-  </si>
-  <si>
-    <t>We develop a versatile framework for statistical learning in nonstationary environments. In each time period, our approach applies a stability principle to select a look-back window that maximizes the utilization of historical data while keeping the cumulative bias within an acceptable range relative to the stochastic error. Our theory showcases the adaptivity of this approach to unknown nonstationarity. We prove regret bounds that are minimax optimal up to logarithmic factors when the population losses are strongly convex or Lipschitz only. At the heart of our analysis lie two novel components: a measure of similarity between functions and a segmentation technique for dividing the nonstationary data sequence into quasistationary pieces. We evaluate the practical performance of our approach through real-data experiments on electricity demand prediction and hospital nurse staffing.</t>
-  </si>
-  <si>
-    <t>Although relative performance feedback in the form of rankings appears to be effective in improving health outcomes, it may have either motivating or demotivating effects for individual physicians. Potential factors influencing such effects include a physician’s ability and the design of the ranking system itself; however, there is limited understanding of these factors. Using a controlled lab-in-the-field experiment with practicing and future physicians as subjects (N � 352), we systematically analyze effort within small teams under different ranking systems. Exogenously varying the number and position of the thresholds defining the ranking system, we observe that the addition of a threshold to create a new rank is motivating—that is, increases effort—only among individuals capable of exceeding that threshold; the effort of other individuals may remain unchanged or even decrease. In particular, a highly granular ranking system with ranks spanning the entire range of possible outcomes maximizes overall physician effort; high thresholds serve to motivate high-ability individuals, whereas moderate and low thresholds provide opportunities for improvement to lower-ability individuals who cannot reach the high thresholds. Our results suggest that, to motivate their teams effectively, clinical leaders should provide rank feedback using a system under which physicians of all ability types can improve their rank through increased effort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ability, lab-in-the-field experiment, rankings, relative performance feedback, status concerns</t>
-  </si>
-  <si>
-    <t>Passion, Identity theory, Entrepreneurial intentions, Academic entrepreneurship, Spin-offs</t>
-  </si>
-  <si>
-    <t>This paper disentangles how organization members' “passion orchestra” is related to their entrepreneurial intentions in the particularly relevant context of academia. Drawing on passion literature and identity theory, we propose and test a model linking two central parts of researchers' “passion orchestra”, namely entrepreneurial and obsessive scientific passion, directly and indirectly, to spin-off and start-up intentions. While spin-off intentions refer to intentions to found a firm based upon research results, start-up intentions denote intentions to start any type of company. Using a sample of 2308 researchers from 24 European universities, our findings reveal that higher levels of entrepreneurial passion are associated with both stronger spin-off and start-up intentions. Further, obsessive scientific passion is positively associated with researchers' intentions to create a spin-off, and negatively with their propensity to establish a start-up. Entrepreneurial self-efficacy and affective organizational commitment mediate these effects. Finally, the two types of passion show characteristic interactions. Obsessive scientific passion moderates the entrepreneurial passion–intentions relationship such that it strengthens spin-off intentions. Our results highlight that recasting the individual driven by a singular passion to one with a “passion orchestra” provides a more holistic understanding of the new venture creation process. Implications for research and practice are discussed.</t>
-  </si>
-  <si>
-    <t>Motivation, Knowledge transfer, Third mission, University external engagement</t>
-  </si>
-  <si>
-    <t>The debate on the entrepreneurial university has raised questions about what motivates academics to engage with the external environment and what forms knowledge transfer (KT) activities should take. This paper distinguishes between the variety of forms of engagement (KT breadth) and the intensity of collaboration (KT depth) in the analysis of their motivations. The paper relies on a sample of Italian academics from different scientific fields over the period 2004–2008. Whereas previous literature has shown that academics are essentially motivated by learning opportunities, fundraising and satisfaction derived from puzzle solving in research activities, our paper provides evidence of the positive role of an additional motivation for both the breadth and depth of KT: the extent to which the academic scientist advances the societal role of universities (“mission” motivation). We find that both “funding” and “mission” motivations have a positive effect on the variety and intensity of KT activities, with little effect for learning opportunities. Our results show also a higher effect of “funding” and “mission” on the depth of KT activities compared to their breadth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the 1980s, policy reforms have been undertaken in China to gradually promote entrepreneurship of academic researchers. Based on manually collected data on academic executives (defined as either chairperson of the board or CEO, who had an academic title), we investigate the effects of academic executives on corporate technological capabilities and innovation performance among Chinese listed manufacturing firms from 2001 to 2015. Our results demonstrate that firms with academic executives are more likely to implement technological advancement strategies by increasing firm basic research, collaborating with outside institutions, and providing incentives to knowledge workers. Consequently, they have enhanced technological capabilities, as well as a higher quantity and quality of innovation output. In addition, firms with academic executives are more likely to have better financial performance regarding sales and profitability and keep a higher proportion of profits inside the firm to reinvest. The identification of the causal effects of academic executives relies on top executive turnover within firms and the propensity score matching strategy. Further analysis demonstrates that the effects of academic executives are more pronounced when they have a higher academic title, administrative experience, and a specialization in sciences. Our findings suggest that promoting entrepreneurship of academic researchers is an effective way of diffusing and utilizing knowledge, and it provides an internal driving force for the enhancement of corporate technological capabilities, which is crucial for technological catch-up of firms in latecomer countries. </t>
-  </si>
-  <si>
-    <t>Corporate innovation, Academic executives, Research experience, Technological capability, China</t>
-  </si>
-  <si>
-    <t>entrepreneurship, international management, diffusion of innovation, intermediaries</t>
-  </si>
-  <si>
-    <t>How can a knowledge intermediary support industry development and entrepreneurial entry in countries where it is not present? This study introduces a two-stage model of multi-country entrepreneurial entry via second-order knowledge intermediaries (SOKIs). In Stage 1, SOKIs acquire and develop industry-building knowledge and capabilities from engagement with the activities of carrying, co-creating, capacity building, and convening of a first-order knowledge intermediary (FOKI). In Stage 2, motivated SOKIs implement these activities in secondary countries, supporting local industry development. The model is developed in the context of the clean cookstove industry, which addresses global health and environmental challenges among low-income populations. Qualitative evidence from 25 interviews and archival data were used to describe how SOKIs learned transferable knowledge and capabilities in primary countries. A quantitative analysis of data derived from 1,996 clean cookstove organizations operating across 113 countries (2013–2019) was conducted to assess whether a greater number of SOKIs in secondary countries was associated with increased entrepreneurial entries. Results support the model; more SOKIs were associated with more entrepreneurial entries, and this relationship was weakened when company and nonprofit SOKIs were imbalanced and when more domestic industry actors possessed overlapping knowledge. This study contributes to the literature on industry emergence by introducing a mechanism of non-firm-led, cross-border knowledge diffusion in mission-oriented industries. It also shows how local entrepreneurs in under-resourced contexts can access global knowledge—not through firms or FOKIs but through SOKIs that extend the FOKIs’ work.</t>
-  </si>
-  <si>
-    <t>How do founding team members allocate task positions when launching new ventures? Answering this question is important because prior work shows both that founding team members often have correlated expertise, thus making task position allocation problematic; and initial occupants of task positions exert a lingering effect on venture outcomes. We draw on status characteristics theory to derive predictions on how co-founders’ specific expertise cues and diffuse status cues drive initial task position allocation. We also examine the performance consequences of mismatches between the task position and position occupant. Qualitative fieldwork, combined with a quasi-experimental simulation game and an experiment, provides causal tests of the conceptual framework. We find that co-founders whose diffuse status cues of gender (male), ethnicity (white), or achievement (occupational prestige or academic honors) indicated general ability were typical occupants of higher-ranked positions, such as chief executive officer role, within the founding team. In addition, specific expertise cues that indicated relevant ability predicted task position allocation. Founding teams created more financially valuable ventures when task position occupants’ diffuse status cues were typical for the position; nonetheless position occupants with high diffuse status cues also appropriated more of the created value. Our results inform both entrepreneurship and status characteristics literature.</t>
-  </si>
-  <si>
-    <t>Academics and practitioners acknowledge the value of customer feedback in improving firm performance. Companies routinely solicit feedback from different customer subsets. However, the extent to which this feedback impacts nonsolicited customers depends on whether firms implement meaningful business-level changes that resonate with customers. This paper assesses customer feedback’s impact on firm learning and business improvements as well as its spillover effects on nonsolicited customers using a randomized, controlled field experiment conducted in Rwanda over two years. We hypothesize that private feedback seeking could operate through two broad mechanisms: (a) directly influencing solicited customers and/or (b) prompting firms to improve their offerings, leading to spillover effects on other customers. Our results demonstrate a 38.2% increase in recall and a 77.4% increase in purchases for customers not engaged in the feedback process. The analysis further suggests that business-level changes driven by customer feedback fuel these spillovers. Additionally, customer feedback seeking significantly improves treatment firm performance, resulting in a 62.0% revenue increase and 54.5% profit increase compared with control firms. Our study also introduces a basic customer feedback-seeking technology for small businesses to improve performance. These findings can guide firms in leveraging customer feedback to undertake business changes and generate greater revenues/profits.</t>
-  </si>
-  <si>
-    <t>customer feedback, feedback spillover, firm learning, small firm growth, entrepreneurship, emerging markets</t>
-  </si>
-  <si>
-    <t>In many workplaces, temporary teams convene to coordinate complex work, despite team members having not worked together before. Most related research has found consistent performance benefits when members of temporary teams work together multiple times (team familiarity). Recent work in this area broke new conceptual ground by instead exploring the learning and performance benefits that team members gain by being exposed to many new partners (partner exposure). In contrast to that new work that examined partner exposure between team members who are peers, in this paper, we extend this research by developing and testing theory about the performance effects of partner exposure for team members whose roles are differentiated by authority and skill. We use visitlevel data from a hospital emergency department and leverage the ad hoc assignment of attendings, nurses, and residents to teams and the round-robin assignment of patients to these teams as our identification strategy. We find a negative performance effect of both nurses’ and resident trainees’ partner exposure to more attendings and of attendings’ and nurses’ exposure to more residents. In contrast, both attendings and residents experience a positive impact on performance from working with more nurses. The respective effects of residents working with more attendings and with more nurses is attenuated on patient cases with more structured workflows. Our results suggest that interactions with team members in decision-executing roles, as opposed to decision-initiating roles, is an important but often unrecognized part of disciplinary training and team learning.</t>
-  </si>
-  <si>
-    <t>temporary teams, partner exposure, team familiarity, hierarchy, healthcare</t>
-  </si>
-  <si>
-    <t>This research was designed to extend the scope and conversation of conservation of resource theory (COR) to contexts of uncertainty, including entrepreneurship. In doing so, the resource-induced coping heuristic (RICH) construct is introduced, developed, and validated. Results from two investigations, involving three samples and a total of 813 participants, indicated strong reliability, and internal validity for the theoretically justified, three-factor measure. Also, results of validity tests show the RICH as a robust predictor of factors pertaining to entrepreneurial success, including financial performance and perceived entrepreneurial success. Practical and academic implications, strengths and limitations, and directions for future research are discussed.</t>
-  </si>
-  <si>
-    <t>We review complementary theoretical perspectives on location choices of university graduate entrepreneurs derived from the individual-opportunity nexus and local embeddedness perspectives on entrepreneurship. Analysis of the full population of 215,388 graduates from Swedish institutions of higher education between 2002 and 2006 provides support for both location choice perspectives. Overall, 63% of graduate entrepreneurs start businesses locally in their region of graduation while 37% start businesses elsewhere. The likelihood of starting locally is substantially higher in metropolitan regions, if the graduate was born locally or has university peer entrepreneurs and entrepreneurial family members in the region of graduation. Implications for theory and public policy are discussed.</t>
-  </si>
-  <si>
-    <t>Entrepreneurship, Location choice, Universities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic entrepreneurship, Gender, Signaling, Resource acquisition, Start-up, Entrepreneurial finance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to the novelty of their technology base and the multiple goals pursued by their entrepreneurial teams, academic spin-offs (ASOs) suffer information asymmetries with investors that impair their ability to raise finance. In line with the signaling theory, we expect that observable features of an ASO can mitigate such information asymmetries, especially in conditions of higher uncertainty about the venture. We put forward that a larger share of capital owned by female shareholders adds to such uncertainty due to their outsider condition in academic entrepreneurship and the negative bias of investors against female entrepreneurs.
-Through a multi-level Tobit regression on a sample of Italian ASOs, we find that the amount of private investment is negatively associated with the degree of female ownership and positively associated with the investment of the parent university and full professors. The latter two factors moderate the relationship between degree of female ownership and private investment so that it becomes less negative.
-The results provide evidence of the persisting gender gap in entrepreneurial finance and highlight the role of parent universities in closing such a gap. </t>
-  </si>
-  <si>
-    <t>entrepreneurship, hierarchy, organizational design, organizational structure, start-up</t>
-  </si>
-  <si>
-    <t>Research summary: There has been an ongoing debate over whether start-ups should be “flat” with minimal hierarchical layers. To reconcile this debate, this article distinguishes between creative and commercial success (i.e., novelty vs. profitability), and examines how these outcomes are variously influenced by a startup's hierarchy. This study suggests that while a flatter hierarchy can improve ideation and creative success, it can result in haphazard execution and commercial failure by overwhelming managers with the burden of direction and causing subordinates to drift into power struggles and aimless idea explorations. I find empirical support for this trade-off using a large sample of game development start-ups. These findings offer one resolution to the debate by sorting out the conditions under which hierarchy can be conducive or detrimental to start-ups.
-Managerial summary: Academics, management gurus, and popular media outlets have argued that “authoritarian,” tall hierarchies are outmoded and will be supplanted by “egalitarian,” flat structures. In recent years, this argument has been largely substantiated by a few “successful” flat start-ups, such as Valve, Zappos, Github, Medium, and Buffer. As these nascent firms constantly garner much attention for their egalitarian ideal—which itself is a signal of their rarity—the myth that start-ups should be flat (often referred to as “flat organization,” “holacracy,” or “boss-less firm”) has become widespread among entrepreneurs. My study cautions against this myth, suggesting that adding a few hierarchical levels of managers can substantially help start-ups achieve commercial success and survive in their hostile environments, albeit at a potentially marginal cost of creativity.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, human capital, organization design, timing, venture scaling</t>
-  </si>
-  <si>
-    <t>Research Summary: Scaling at the right time is a crucial challenge for startups. Conceptualizing “scaling” as the entrepreneurial process of acquiring and committing resources to implement the core business idea and expand the customer base, this study examines how scaling early may decrease imitation risk at the expense of increasing commitment risk. As startups typically hire managers and sales personnel when they begin to scale, we propose that this timing can be empirically measured by when startups first post these jobs. Leveraging a dataset of job postings, we find that early scalers are more likely to fail, but no evidence of a countervailing benefit in terms of successful exit. Additional analyses suggest that the commitment risk in scaling early outweighs the benefit of reducing imitation risk.
-Managerial Summary: In recent years, a few highgrowth startups (e.g., Facebook and Uber) that made their fortune by scaling early—an approach often referred to as “blitzscaling”—have received much interest among academics and practitioners. However, this study presents large-sample evidence that scaling early is positively associated with a higher rate of firm failure, especially for platform companies. These findings imply that, despite its potential benefits of preventing imitation by competitors, scaling early can suppress startup performance by prematurely curtailing learning through experimentation and committing to a business idea that lacks product-market fit. In sum, our work cautions startups against prioritizing scaling early before finding product-market fit, and instead highlights the importance of spending sufficient time on experimentation before scaling.</t>
-  </si>
-  <si>
-    <t>behavioral strategy, competitive dynamics, experimental study, market entry, pricing</t>
-  </si>
-  <si>
-    <t>Research Summary: Low-price market entries, aiming for rapid sales growth, tend to prompt strong competitive reactions. This research explores whether and how firms using low-price entry strategies can mitigate retaliatory incumbent reactions. An experiment with 656 managers shows that entrants can attenuate the strength of incumbents’ responses by fostering perceptions of high aggressiveness or low commitment. Entrants may be able to accomplish this by adjusting their entry strategy to embed (subtle) cues of aggressiveness and (lack of) commitment. A replication experiment with university students rein- forces our overall theoretical argument. However, the results also indicate that the interpretation of cues embed- ded in the entry strategy may be affected by the experience of incumbent firm managers. Overall, these results clarify the cognitive foundations of competitive responses to market entry.
-Managerial Summary: What drives incumbents to respond strongly to market entries, and what can the entrant, if anything, do to mitigate those responses? This research offers empirical evidence and theoretical insights for managers faced with these questions by shedding light on the thinking processes preceding competitive responses. The study shows that while managers are motivated to respond strongly to market entries that appear to be highly consequential to their business, these responses may be mitigated if the entrant manages to foster perceptions of high aggressiveness or low commitment to the market. Managers form these perceptions in part on the basis of the entrant's behavior, creating an opportunity for entrants to adjust their entry strategies in a manner that demotivates strong competitive responses.</t>
-  </si>
-  <si>
-    <t>university technology transfer, entrepreneurship, technology commercialization, “twin” scientific discoveries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which factors shape the commercialization of academic scientific discoveries via startup formation? Prior literature has identified several contributing factors but does not address the fundamental problem that the commercial potential of a nascent discovery is generally unobserved, which potentially confounds inference. We construct a sample of approximately 20,000 “twin” scientific articles, which allows us to hold constant differences in the nature of the advance and more precisely examine characteristics that predict startup commercialization. In this framework, several commonly accepted factors appear not to influence commercialization. However, we find that teams of academic scientists whose former collaborators include “star” serial entrepreneurs are much more likely to commercialize their own discoveries via startups, as are more interdisciplinary teams of scientists. </t>
-  </si>
-  <si>
-    <t>The explosion of crowdfunding within entrepreneurial circles is attracting increased academic interest in the nature of crowdfunding, its antecedents, and its consequences. In an effort to help researchers concentrate their inquiry on the most promising questions and theories involving crowdfunding, we surveyed key thought leaders within the entrepreneurship field—the Entrepreneurship Theory and Practice editorial review board— regarding what inquiry they believe is needed. Their responses offer implications for crowdfunding research. For example, cross-disciplinary work is one approach that board members believe holds high potential. In response, we outline a cross-disciplinary research agenda that can inform scholarly efforts.</t>
-  </si>
-  <si>
-    <t>Entrepreneurial intention, Entrepreneurial career choice, New venture creation, Intention-behavior link, Graduate entrepreneurship</t>
-  </si>
-  <si>
-    <t>In this paper, we build on social cognitive career theory to examine the relation between entrepreneurial intention and new venture creation (i.e., the entrepreneurial career choice). We model how contextual influences at different levels may favor or inhibit the translation of entrepreneurial intention into new venture creation. Using unique longitudinal data from almost the entire population of Italian university graduates, we are able to assess how the immediate (i.e., the influence of relevant others) and larger context (i.e., organizational and environmental influences) affect new venture creation. Our research contributes to the emerging literature of the intention–behavior link in entrepreneurship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The labor market value of former entrepreneurs remains unclear, with both theory and empirical evidence offering mixed conclusions. We suggest that the timing of entrepreneurial experience matters and helps unravel this puzzle. Using Danish employer-employee data on a large sample of university graduates, we show that the option value of testing an entrepreneurial opportunity and then returning to paid employment decreases over an individual’s career. We follow individuals for fifteen years and compare the labor market outcomes of never, early, and late entrepreneurs based on the timing and type of entrepreneurial experience in their careers. Compared to those who have never been entrepreneurs, early entrepreneurs earn higher wages, while late entrepreneurs experience a significant wage penalty in the long run. Both the timing and the type of entrepreneurial experience shape individuals’ subsequent career trajectories and employers’ uncertainty about their value, which partly explain long-term wage differentials. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Career dynamics, Entrepreneurial experience, University graduates, Wages </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science commercialization, Technology transfer, Licensing, Experience, Human capital, Technology transfer office </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experience defined in terms of time, scope, type, density and timing affect performance of highly skilled administrative staff. We apply a multidimensional model to the field of science commercialization as a typical multi-goal oriented process. We identify how different conceptualizations of experience models lead to diverse conclusions regarding their effects on facets of performance such as speed, efficiency and revenue. Acknowledging multifaceted goals of science commercialization, we further contribute to the body of work on individual level factors regarding universities' commercialization performance. In this paper we provide evidence from the context of universities' commercialization efforts, relying on administrative records of a Japanese university including 845 transfer cases over a 13-year period (2004–2016). By focusing on coordinators working in a technology transfer office, and the various measurement modes of their experience, we detect several important characteristics. While several experience components affect speed and efficiency of technology transfer, our results show that revenue is determined by interaction components. </t>
-  </si>
-  <si>
-    <t>science valorisation, impact, technology transfer, proof-of-concept, public funding, grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governments and public agencies are increasingly keen to support the translation of scientific discoveries into commercial and societal applications through science valorisation funding, as a way to enhance progress and inclusive growth. In this paper, we use grant-level data from the European Research Council Proof-of-Concept (PoC) programme, in order to assess the impact of public funding on a broad set of science valorisation outcomes, including licensing, spinoff formation, R&amp;D collaborations, consulting and access to follow-on funding. We employ an instrumental variable approach to compare the valorisation outcomes of projects that obtained an ERC PoC grant to a group of projects that applied to the PoC scheme but were not funded. We find that the programme was effective in fostering the early valorisation of scientific discoveries by all measures of success that we employed. Overall, thus, our findings speak in favour of this type of policy instrument as a catalyst to accelerate the transition of scientific breakthroughs towards practical applications. </t>
-  </si>
-  <si>
-    <t>The economics literature provides rich evidence on the convergence between the institutional factors and individual-level characteristics influencing the involvement of academia in knowledge transfer activities and spinoff creation. However, little is known about the effects of internal university regulations on academic entrepreneurship. In the lastten years, spinoff activity from academia in Italy has been intensive and most academic institutions have policies related to the regulation of academic entrepreneurship practices, known as ‘Regolamento Spinoff’. This paper investigates the impact of the set of university rules governing the creation of spinoffs, on institutional capability to generate new ventures. Based on panel-data analysis using detailed university-level data on academic spinoffs, we identify three classes of institutionally-defined rules that can motivate faculty members to establish a spinoff company. These are: general rules and procedures; rules regulating monetary incentives; rules related to the entrepreneurial risk. We find that at least some rules pertaining to each of these three classes have some effect on spinoff creation. In particular, we find that monetary incentives play a significant role in promoting academic spinoff activity, and that overly-restrictive university rules regarding contract research have a negative effect on spinoff creation.</t>
-  </si>
-  <si>
-    <t>Spinoff creation, Academic entrepreneurship, University spinoff rules, Knowledge transfer strategies, University-Industry interaction</t>
-  </si>
-  <si>
-    <t>We use original data from a questionnaire survey of 9062 individuals enrolled in PhD programmes in Italy between 2008 and 2014 to conduct an empirical investigation of gender issues in PhD entrepreneurship. The analysis focuses on the influence of the gender balance among academics at the parent university, to measure the opportunities available to female students to engage with same-sex role models and the effect of such engagement on female students' attitudes to applied research and entrepreneurship. Our evidence shows that there is a gender gap in PhD student entrepreneurship and suggests that the gender composition of the academic faculty has a significant impact on female students' attitudes to business-oriented research and its commercialisation, which, in turn, affects their entrepreneurial intention and probability of starting a business. Our results indicate that female students' entrepreneurship would benefit from the opportunities offered by a more gender-balanced work environment and reinforces arguments calling for equality in the academic workplace.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student entrepreneurship, Entrepreneurial university, Start-up, PhD, Gender </t>
-  </si>
-  <si>
-    <t>Although science parks are established globally for decades as an innovation policy instrument to foster growth and networking, there is limited attention given towards research into possible types within these real estate objects. Prior attempts in categorising science parks are characterised by the limited number of cases and/or variables. Science parks are believed to enhance innovation, entrepreneurship, and economic value for firms and regions. Past academic research showed mixed results on these performances and it is reasoned that distinct types within science parks exist that might explain these unclear results. We argue that before we can grasp what science parks can do, we should know what they are. Therefore, a survey on science park characteristics was completed by 82 science park managers in Europe. A cluster analysis was conducted which grouped the 82 participating science parks in three types; ‘research’, ‘cooperative’, and ‘incubator’ locations. Next, differences and similarities of these three types within science parks in Europe were analysed as a basis for advancing the academic debate. The types provide further understanding of science parks and offer researchers, practitioners, and policy-makers a means to compare, market, and benchmark science parks more adequately.</t>
-  </si>
-  <si>
-    <t>Europe, Innovation policy, Science park, Cluster analysis, Segmentation</t>
-  </si>
-  <si>
-    <t>The increasing relevance of scientific knowledge for production and innovation requires new instruments for establishing closer relationships between academia and industry. In order to strengthen such relationships, higher education institutes (HEIs), including universities, have institutionalized intermediary organizations such as technology transfer offices (TTOs). It is only recently that research on these organizations has extended its focus from analyzing their functions and performance to the internal processes and practices of their work. Based on qualitative data derived from a process-related focused ethnography, this paper presents insights into the practices of a group of “transfer scouts”. Their distinctive feature is that they are deployed explicitly on the basis of their own scientific and engineering expertise to intensify the university-industry linkages in an East German region. Apart from mere mediation, these transfer scouts become co-creators of new knowledge and technologies in transfer processes. Their orientation towards science, their thematic specialization, their development of digital transfer instruments, their explicit intention to contribute to regional development, as well as their crossinstitutional acting keeps them involved in co-creational and multidirectional knowledge-production and makes them active participants in those processes. For transfer intermediaries, these insights offer an extension of their identity as brokering actors between the academic and the business sectors. Since diverse actors operate in the regional transfer system and confront transfer scouts with tensions between cooperation and competition, negotiation processes can be fiercely contested, met by resistance, and accompanied by conflicts. With regard to complementary practices, as well as in the case of constructive relationships, a durable cooperation between TTOs and transfer scouts promises to generate potentially innovative impulses. But this is less a stable setting than an ongoing process that requires many additional functional competencies and supporting structures to be provided by the organizations. The question arises, whether such complex KTT structures can be successfully institutionalized outside the frame of a fixed term project. Only then is it possible to create realistic expectations towards KTT-intermediaries and establish transfer scouting as an attractive profession in its own right in the entrepreneurial university.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer scouts, knowledge and technology transfer (KTT), intermediation, co-construction, co-evolutionary knowledge production, focused ethnography </t>
-  </si>
-  <si>
-    <t>To promote entrepreneurship among students, academic institutions should focus on developing a positive entrepreneurial personal attitude (EPA), since it is a strong antecedent of entrepreneurial intentions, which in turn predict actual entrepreneurship. Previous research has found that EPA is lower for women than for men, which is related to the acknowledged gap between women and men in entrepreneurial activity. The present work builds on the elaboration likelihood model (ELM) to examine how nine different entrepreneurship-focused academic activities in school impact on students’ EPA, paying special attention to gender differences. We use a sample of 918 students from a French business school to analyze gender differences in the mechanisms based on ELM central and peripheral routes to promote EPA through academic activities. Post hoc tests are also performed to explore differences by gender at various academic levels. The results have important implications for academic institutions wishing to promote entrepreneurship, since we unpack entrepreneurial education into individual academic activities. In particular, results suggest that students’ gender and academic level should be considered when designing activities to promote entrepreneurship.</t>
-  </si>
-  <si>
-    <t>We employed a longitudinal, grounded-theory approach to investigate the occurrence of an identity crisis in an emerging collective of organizations attempting to form a new academic field. The findings indicate that legacy identities and the nested structure of such organizations have implications for the formation of identity at this level. Specifically, the co-evolution of organization-level and collective-level identities, and the interdependencies between the levels, rendered the collective identity formation process as multiphased, complex, contentious, and continuously precarious—ultimately leading to an identity crisis that was resolved not by arriving at a “consensual identity,” but, rather, a “coherent identity.” The findings contribute to the nascent stream of literature on collective identity beyond the organizational level by explicating identity-work processes involved in the precipitation, manifestation, and resolution of an identity crisis in an emerging field.</t>
-  </si>
-  <si>
-    <t>How can leaders best manage commitment among innovators? We applied theory on dual allegiance to multiple targets of commitment, in conjunction with person-organization fit theory, to explore the dynamics of organizational and professional commitment among scientists and engineers working in hybrid, research-focused organizations. These types of organizations are founded on large-scale multidisciplinary and multi-institutional collaboration between academe and industry. Using both individualand organizational-level variables collected from 255 academic science and engineering researchers working in 22 National Science Foundation-funded Engineering Research Centers, our analyses revealed that researcher innovation orientation (i.e., the predisposition to approach work in novel ways) was positively associated with organizational and professional commitment. Those relationships were moderated by two factors: organizational productivity in late-stage technology transfer and the researcher‘s perceived role significance (i.e., in fulfilling the strategic mission of the organization). The strongest positive relationship between innovation orientation and organizational commitment emerged among researchers who perceived high role significance and worked in highly productive organizations. A negative relationship between innovation orientation and professional commitment also emerged among those individuals. Post-hoc analyses revealed that highly innovative, senior researchers who perceived high role significance were the most likely to report higher levels of both organizational and professional commitment. Leaders of multi-disciplinary research centers who are aware of the complexity of dynamics among organizational commitment, professional commitment, and role significance may be better equipped to effectively manage science and engineering researchers.</t>
-  </si>
-  <si>
-    <t>Innovation orientation, Technology transfer, Organizational commitment, Professional commitment, Role significance, Multi-Institutional Multi-Disciplinary, University Research Centers</t>
-  </si>
-  <si>
-    <t>Research Summary: Research on industry evolution highlights the role of knowledge-building activities of startups and established firms in shaping knowledge evolution in a nascent industry. Yet, research thus far has overlooked the possibility that differences between startups and established firms might also shape the diffusion of the knowledge that they build. This study abductively explores this conjecture in the context of solar energy by examining the extent to which the photovoltaic cell inventions that firms create spur subsequent inventions by other firms. In contrast with existing literature highlighting differences across firms in the types of inventions they create, this study reveals asymmetries between startups and established firms in the diffusion of the knowledge underlying their inventions, even when they create inventions with similar attributes.
+    <t>Research Summary: Research on industry evolution highlights the role of knowledge-building activities of startups and established firms in shaping knowledge evolution in a nascent industry. Yet, research thus far has overlooked the possibility that differences between startups and established firms might also shape the diffusion of the knowledge that they build. This study abductively explores this conjecture in the context of solar energy by examining the extent to which the photovoltaic cell inventions that firms create spur subsequent inventions by other firms. In contrast with existing literature highlighting differences across firms in the types of inventions they create, this study reveals asymmetries between startups and established firms in the diffusion of the knowledge underlying their inventions, even when they create inventions with similar attributes.&lt;br/&gt;
 Managerial Summary: This study examines differences between startups and established firms in shaping knowledge diffusion in a nascent industry. Using data from photovoltaic cell patents, it shows that startups' inventions spur more subsequent inventions by other firms, even when compared to established firms' inventions with similar attributes. Findings indicate that such asymmetry is not driven by knowledge transfer mechanisms but rather by factors associated with knowledge spillovers. Specifically, findings reveal that university citations of a startup's patents draw other firms' attention to those patents, and that startups are less able to preempt rivals through cumulative inventions and less able to rely on litigiousness to deter rivals from building on their patents. These findings underscore the asymmetric influence startups have in shaping the knowledge underlying a nascent industry.</t>
   </si>
   <si>
-    <t>abduction, industry evolution, knowledge diffusion, knowledge spillovers, knowledge transfer</t>
-  </si>
-  <si>
-    <t>Prior studies of academic science have largely focused on researchers in life sciences or engineering. However, while academic researchers often work under similar institutions, norms, and incentives, they vary greatly in how they organize their research efforts across different scientific domains. This heterogeneity, in turn, has important implications for innovation policy, the relationship between industry and academia, the scientific labor market, and the perceived deficit in the relevance of social sciences and humanities research. To understand this heterogeneity, we model scientists as publication-maximizing agents, identifying two distinct organizational patterns that are optimal under different parameters. When the net productivity of research staff (e.g., PhD students and postdocs) is positive, the funded research model with an entrepreneurial scientist and a large team dominates. When the costs of research staff exceed their productivity benefits, the hands-on research approach is optimal. The model implies significant heterogeneity across the two modes of organizing in research funding, supply of scientific workforce, team size, publication output, and stratification patterns over time. Exploratory empirical analysis finds consistent patterns of time allocation and publication in a prior survey of faculty in U.S. universities. Using data from an original survey, we also find causal effects consistent with the model’s prediction on how negative shocks to research staff—due to visa or health problems, for example—differentially impact research output under the two modes of organization.</t>
-  </si>
-  <si>
-    <t>scientific teams, collaboration, academic research, science policy, research relevance, research funding, university industry relationship, performance heterogeneity</t>
-  </si>
-  <si>
-    <t>The transfer of complex knowledge and skills is difficult, often requiring intensive interaction and extensive periods of coworking between a mentor and mentee, which is particularly true in apprenticeship-like settings and on-the-job training. This paper studies a context that quintessentially describes this type of learning: the academic laboratory. I focus on ways a change in the attention of a principal investigator, moving to entrepreneurship, may influence knowledge transmission and skill development by examining the relationship of this change with their PhD students’ scientific productivity and careers. To do so, I rely on novel restricted-access data encompassing faculty and PhD students in computer sciences, engineering, and the life sciences who were active at an elite U.S. research university from 2001 to 2017. The results suggest a substantial negative association between a professor’s entrepreneurial activity and the short- and long-run publication output of the PhD students they train. Furthermore, I detect a decrease in students’ likelihood of becoming professors themselves but an increase in their likelihood of working for consulting firms on graduation. Finally, I provide evidence suggesting that changes in trainee development are the most feasible drivers of the results rather than changes in trainee research orientation, selection, or life cycle effects.</t>
-  </si>
-  <si>
-    <t>academic entrepreneurship, productivity, innovation, entrepreneurial supervisors, human capital development, knowledge-based economy</t>
-  </si>
-  <si>
-    <t>What role do differences in founders' occupational backgrounds play in new venture performance? Analyzing a novel dataset of 2998 founders creating 1723 innovative startups in biomedicine, we find that the likelihood and hazard of achieving a liquidity event are lower for academic than for non-academic startups. However, academic startups produce as many patents and receive as much funding as non-academic startups, suggesting that the observed differences in achieving a liquidity event are not driven by differential invention performance. Exploiting heterogeneity among academic startups, we also find that differences between professor and student startups do not explain academic startups' comparatively low performance on the exit market vis-à-vis nonacademic startups. Yet, startups founded by superstar professors perform similarly to non-academic startups on the exit market for new ventures, and better than startups founded by highly productive professors but without external certification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovation, Occupational imprinting, Academic startups, Non-academic startups, Founder heterogeneity </t>
-  </si>
-  <si>
-    <t>While external funding is indispensable for most entrepreneurs to scale their ventures, entrepreneurship literature highlights the additional benefits of investors' continued involvement, such as access to their expertise and network. Angel investors, whose primary value-add often emerges through their relationship with the entrepreneurs, generate particularly pronounced benefits. Entrepreneurship research has established that bringing angel investors on board comes at the cost of relinquishing partial equity, which restricts entrepreneurs' control over their ventures; however, the individual-level consequences of funding for entrepreneurs remain largely unexplored. To address this gap, we study how angels' funding and their post-investment involvement in the venture affect entrepreneurs' eudaimonic well-being in the long term. Drawing on selfdetermination theory, we explore further how the psychological need for autonomy, competence, and relatedness mediates the relationship between angel funding and entrepreneurs' wellbeing. Self-determination theory states that individuals' verbalized language reflects their needs; accordingly, we use Linguistic Inquiry and Word Count (LIWC) analysis on a unique dataset of almost 125 million words derived from the tweets of 1667 entrepreneurs on X (formerly Twitter). As hypothesized, we find a positive association between angel funding and entrepreneurs' wellbeing. Autonomy negatively mediates this relationship, while competence and relatedness mediate it positively. We advance research on entrepreneurs' eudaimonic well-being and extend the literature on self-determination theory and individual-level consequences of angel funding.
-Executive summary: Entrepreneurs often face a difficult trade-off: They must decide whether to accept funding from angel investors or relinquish some control over their venture. While much research centers on the business implications of this trade-off (Davila et al., 2003; Politis, 2008), the personal impact on entrepreneurs' eudaimonic well-being remains underexplored (Collewaert and Sapienza, 2016). This knowledge gap is concerning because entrepreneurs' well-being closely relates to their ventures' performance (Stephan et al., 2020b; Wach et al., 2016). Recent calls for research (Stephan et al., 2023) emphasize the need to understand how external factors, like investor involvement, affect entrepreneurs' well-being by influencing the extent to which their psychological needs for autonomy, competence, and relatedness are satisfied, as outlined by self-determination theory (SDT) (Deci and Ryan, 1985, 2000). Despite the recognized importance of these factors, the impact of angel investors, who often form close relationships with  entrepreneurs and engage deeply in their ventures (Fairchild, 2011; Politis, 2008), has been largely overlooked.
-Our study addresses this gap by examining how angel funding and subsequent involvement influence entrepreneurs' eudaimonic long-term well-being. Using a dataset of 125 million words compiled from 1667 entrepreneurs' tweets on Twitter (now X) from 2006 to 2022, we apply Linguistic Inquiry and Word Count (LIWC) analysis to gain insights into the psychological states of these entrepreneurs (Block et al., 2019; Obschonka et al., 2017). This approach aligns with SDT, which posits that psychological needs fulfillment manifests in communication (Vansteenkiste et al., 2020).
-Our findings reveal that angel investor involvement can significantly influence entrepreneurs' eudaimonic well-being—positively and negatively—by affecting entrepreneurs' psychological needs fulfillment. Our study thus complements research on entrepreneurs' well-being with longitudinal insights. First, it extends the literature on entrepreneurial well-being by providing a nuanced understanding of how angel funding and involvement, mediated by autonomy, competence, and relatedness, affect entrepreneurs' well-being over time (Stephan et al., 2023). Second, our study contributes to SDT literature by contextualizing investor involvement as an external factor and using large-scale social media data to assess entrepreneurs' psychological needs (Stephan et al., 2020a). Third, our study highlights the importance of the dynamics between angel investors and entrepreneurs, showing that such relationships significantly shape entrepreneurs' personal outcomes (Collewaert and Sapienza, 2016; Politis, 2008).
+    <t>Pasteur’s Quadrant model, published by Stokes in 1997, presents a two-dimensional abstract conceptual framework that proved immensely helpful to study and discuss institutional and policy arrangements in science. However, during the last 10 years the PQ model was also applied in a series of large-scale, survey-based studies worldwide to classify individual modern-day researchers according to their research orientation and performance.&lt;br/&gt;
+This paper argues that such applications are inadequate to capture key characteristics of individual researchers, especially those within the heterogeneous ‘Pasteur type’ group who engage in ‘use-inspired’ basic scientific research. Addressing this shortcoming, Pasteur’s Cube (PC) model introduces a new heuristic tool. Departing from a three-dimensional conceptual framework of research-related activities, the model enables a range of typologies to describe and study the large variety of academics at today’s research-intensive universities. The PC model’s analytical robustness was tested empirically in two interrelated ‘proof of concept’ studies: an exploratory survey among 150 European universities and a follow-up case study of Leiden University in the Netherlands. Both studies, collecting data for the years 2010–2015, applied a metrics-based taxonomy to classify individual academic researchers according to four performance categories: scientific publication output, research collaboration with the business sector, patents filings, and being engaging in entrepreneurial activities.&lt;br/&gt;
+The collective results of both studies provide more clarity on relevant subgroups of use-inspired researchers. The PC model can be used to guide empirical, metrics-based investigations of research activities and productivities, applies this approach to two case studies, and demonstrates the utility of the method while also reinforcing and enriching the growing body of literature showing that cross-sectoral and cross-functional research activities are more scientifically productive than research carried out in isolation of the context of use. Introducing the ‘Crossover Collaborator’ subtype helps to explain why Pasteur type researchers tend to outperform other types of researchers in terms of publication output and citation impact.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship has become an attractive career option for both the young and the old, but age has not been thoroughly examined as a variable of interest among entrepreneurship scholars. In this review, we present 12 theoretical perspectives regarding the effect of age on entrepreneurs' success and our critiques. We then present results of an exploratory meta-analysis with effect sizes from 102 samples. The results show that age has a weak, positive linear relationship with overall entrepreneurial success, but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample. The effect size of age does not differ by entrepreneurs' tenure running the firm. In terms of the type of success measures, age has a negative effect on growth but a positive effect on subjective success, firm size, and financial success, and no effect on survival. We compare our results with previous meta-analyses on employees' age to show the uniqueness of entrepreneurs' careers and we offer suggestions for future studies.
+Executive summary: The work population is aging, and entrepreneurship has become an attractive career option for both the young and the old. Age has often been included in empirical studies as a control variable to predict entrepreneurs' success, but with inconsistent empirical findings and inadequate attention to age's theoretical role, it is not clear whether older entrepreneurs are as successful as their younger counterparts.&lt;br/&gt;
+The current study has two related components. First, we provided a much-needed review of the alternative theoretical perspectives on the effect of age on entrepreneurial success. These 12 perspectives focused on various age-related mechanisms, namely personal health, rigidity, risk propensity, time's value, discrimination, human capital, social capital, financial capital, emotion, life stages, family obligation, and gender stereotype. We found that explicit theoretical explanations are rare and fragmented for addressing entrepreneurs' age-success relationship. Most of the existing perspectives are simplistic, equivocal, and sometimes contradictory. Guided by the above review, we proposed several research questions about several contingency factors, such as the entrepreneur's life stage, gender, and tenure running the business, which would help us gain a more nuanced understanding of the age-success relationship.&lt;br/&gt;
+Second, we empirically examined the research questions in an exploratory meta-analysis based on 102 independent samples. Indeed, we found more nuanced results than are typically apparent. The results show that age has a weak, positive linear relationship with overall entrepreneurial success ( =0.02), but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample, suggesting female entrepreneurs' chance of success is higher at later life stages. The effect size of age does not differ by entrepreneurs' tenure running the firm, thus ruling out the possibility that the age-success effect is primarily driven by tenure effect or selection bias.&lt;br/&gt;
+We performed some robustness checks for the meta-analytic results. We found age's effect is not affected by the study's publication year, but the effect differs across the world. In terms of the type of success measures, we found age has a negative effect on growth, but a positive effect on subjective success, firm size, and financial success, and no effect on firm survival. Older entrepreneurs tend to have larger businesses, so older entrepreneurs are “punished” for having a larger denominator in the calculation of growth, putting them in an unfair position if growth is the sole measure of success.&lt;br/&gt;
+We compared our results with previous meta-analyses on employees' age, and one clear distinction is that previous meta-analyses reported an inverted U-shaped relationship between employees' age and overall performance, while our study shows the opposite, U-shaped relationship between entrepreneurs' age and success. This difference is probably due to the fact that entrepreneurial careers involve different resource commitments, job requirements, and success criteria compared to traditional careers, making people at a specific age more likely to succeed in one career but not in the other.&lt;br/&gt;
+Our study shows that researchers need to rethink the theoretical role of age, account for potentially simultaneous operation of theoretical mechanisms, and identify new research directions. We call for more studies to address the unique promises and challenges entrepreneurs in each life stage will face, and we provided some suggestions to increase the rigor of future studies. It is imperative to study the intra-individual aging effect through tracking a large cohort of entrepreneurs over decades with repeated measures of their cognitive intelligence, motivations, role identities, and success. Because male entrepreneurs outnumber female entrepreneurs, it is necessary to oversample female entrepreneurs or seek a matched sample, so that any genderrelated differential effects can be demonstrated fully. Because many entrepreneurs work in teams, future studies can compare founding teams of the same age (e.g., college classmates) and teams of different ages, and investigate how members of each type of team can collaborate to maximize their chance of success.</t>
+  </si>
+  <si>
+    <t>While external funding is indispensable for most entrepreneurs to scale their ventures, entrepreneurship literature highlights the additional benefits of investors' continued involvement, such as access to their expertise and network. Angel investors, whose primary value-add often emerges through their relationship with the entrepreneurs, generate particularly pronounced benefits. Entrepreneurship research has established that bringing angel investors on board comes at the cost of relinquishing partial equity, which restricts entrepreneurs' control over their ventures; however, the individual-level consequences of funding for entrepreneurs remain largely unexplored. To address this gap, we study how angels' funding and their post-investment involvement in the venture affect entrepreneurs' eudaimonic well-being in the long term. Drawing on selfdetermination theory, we explore further how the psychological need for autonomy, competence, and relatedness mediates the relationship between angel funding and entrepreneurs' wellbeing. Self-determination theory states that individuals' verbalized language reflects their needs; accordingly, we use Linguistic Inquiry and Word Count (LIWC) analysis on a unique dataset of almost 125 million words derived from the tweets of 1667 entrepreneurs on X (formerly Twitter). As hypothesized, we find a positive association between angel funding and entrepreneurs' wellbeing. Autonomy negatively mediates this relationship, while competence and relatedness mediate it positively. We advance research on entrepreneurs' eudaimonic well-being and extend the literature on self-determination theory and individual-level consequences of angel funding.&lt;br/&gt;
+Executive summary: Entrepreneurs often face a difficult trade-off: They must decide whether to accept funding from angel investors or relinquish some control over their venture. While much research centers on the business implications of this trade-off (Davila et al., 2003; Politis, 2008), the personal impact on entrepreneurs' eudaimonic well-being remains underexplored (Collewaert and Sapienza, 2016). This knowledge gap is concerning because entrepreneurs' well-being closely relates to their ventures' performance (Stephan et al., 2020b; Wach et al., 2016). Recent calls for research (Stephan et al., 2023) emphasize the need to understand how external factors, like investor involvement, affect entrepreneurs' well-being by influencing the extent to which their psychological needs for autonomy, competence, and relatedness are satisfied, as outlined by self-determination theory (SDT) (Deci and Ryan, 1985, 2000). Despite the recognized importance of these factors, the impact of angel investors, who often form close relationships with  entrepreneurs and engage deeply in their ventures (Fairchild, 2011; Politis, 2008), has been largely overlooked.&lt;br/&gt;
+Our study addresses this gap by examining how angel funding and subsequent involvement influence entrepreneurs' eudaimonic long-term well-being. Using a dataset of 125 million words compiled from 1667 entrepreneurs' tweets on Twitter (now X) from 2006 to 2022, we apply Linguistic Inquiry and Word Count (LIWC) analysis to gain insights into the psychological states of these entrepreneurs (Block et al., 2019; Obschonka et al., 2017). This approach aligns with SDT, which posits that psychological needs fulfillment manifests in communication (Vansteenkiste et al., 2020).&lt;br/&gt;
+Our findings reveal that angel investor involvement can significantly influence entrepreneurs' eudaimonic well-being—positively and negatively—by affecting entrepreneurs' psychological needs fulfillment. Our study thus complements research on entrepreneurs' well-being with longitudinal insights. First, it extends the literature on entrepreneurial well-being by providing a nuanced understanding of how angel funding and involvement, mediated by autonomy, competence, and relatedness, affect entrepreneurs' well-being over time (Stephan et al., 2023). Second, our study contributes to SDT literature by contextualizing investor involvement as an external factor and using large-scale social media data to assess entrepreneurs' psychological needs (Stephan et al., 2020a). Third, our study highlights the importance of the dynamics between angel investors and entrepreneurs, showing that such relationships significantly shape entrepreneurs' personal outcomes (Collewaert and Sapienza, 2016; Politis, 2008).&lt;br/&gt;
 Beyond academic contributions, our study offers practical insights for entrepreneurs, angel investors, policy-makers, and universities by emphasizing the importance of understanding and managing the entrepreneurs' personal impacts of bringing angel investors on board.</t>
-  </si>
-  <si>
-    <t>Business angel investors, Entrepreneurs, Well-being, Psychological needs, Tweets, Linguistic Inquiry and Word Count (LIWC), Investor–investee relationship</t>
-  </si>
-  <si>
-    <t>Although previous studies show that the emergence of evaluation criteria for a new technology improves the life chances of well-performing firms, we theorize that consensus in such criteria among technology experts increases investments to all firms in the new sector. We provide a variety of supportive evidence for this claim. First, in an experiment with 80 Chinese investors (Study 1), we provide evidence of a causal relation between evaluation consensus and investments. We follow this with a second experiment with 412 U.S. participants (Study 2), showing that evaluation criteria consensus increases participants’ propensity to view a firm as technologically competent and to expect others to favor investing in the firm. Analyses of longitudinal archival data on investment in artificial intelligence technology firms in the United States (Study 3a) and China (Study 3b) support the generalizability of our findings. By exploring the social-cognitive processes that link evaluation criteria consensus to investors’ decisions to invest in firms in nascent technology fields, this paper advances the scholarly understanding of the microfoundations of the institutionalization processes in new market sectors.</t>
-  </si>
-  <si>
-    <t>evaluation criteria, evaluation criteria consensus, investment, nascent technology, micro-foundations of institutional theory, experimental methods</t>
-  </si>
-  <si>
-    <t>Different streams of research have led to contradictory conclusions about the venture performance implications of founders’ breadth of experience. Although extant empirical studies have explored the performance implications of founders’ breadth of experience at the start-up stage, we focus on the later stage of the initial public offering (IPO). We theorize that investors categorize venture founders based on two salient dimensions—their industry and functional background—and we relate this categorization to resource acquisition at IPO. To test our model, we use a hand-collected data set of 175 entrepreneurial IPOs in the Alternative Investment Market in London (2002–2013) and two randomized experiments. We theorize and find that compared with entrepreneurial ventures with a lead founder specializing in one industry or one function, investors generally devalue those with a category-spanning lead founder (a generalist). However, devaluation is less severe when a lead founder is a generalist in one dimension (e.g., industry) but a specialist in the other dimension (e.g., function). We also theorize and empirically test trust as a mechanism for the generalist penalty. Specifically, audience members (investors) have low trust in a generalist producer (founder) in contexts where the two parties consider entering into a partnership (equity investment at IPO), and so that generalist producer is devalued. Finally, we show that an external expert endorsement—in our case, from intensive venture capital affiliations—offsets the generalist penalty, especially when category spanning occurs in multiple category dimensions.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, social categories, trust</t>
-  </si>
-  <si>
-    <t>Pasteur’s Quadrant model, published by Stokes in 1997, presents a two-dimensional abstract conceptual framework that proved immensely helpful to study and discuss institutional and policy arrangements in science. However, during the last 10 years the PQ model was also applied in a series of large-scale, survey-based studies worldwide to classify individual modern-day researchers according to their research orientation and performance.
-This paper argues that such applications are inadequate to capture key characteristics of individual researchers, especially those within the heterogeneous ‘Pasteur type’ group who engage in ‘use-inspired’ basic scientific research. Addressing this shortcoming, Pasteur’s Cube (PC) model introduces a new heuristic tool. Departing from a three-dimensional conceptual framework of research-related activities, the model enables a range of typologies to describe and study the large variety of academics at today’s research-intensive universities. The PC model’s analytical robustness was tested empirically in two interrelated ‘proof of concept’ studies: an exploratory survey among 150 European universities and a follow-up case study of Leiden University in the Netherlands. Both studies, collecting data for the years 2010–2015, applied a metrics-based taxonomy to classify individual academic researchers according to four performance categories: scientific publication output, research collaboration with the business sector, patents filings, and being engaging in entrepreneurial activities.
-The collective results of both studies provide more clarity on relevant subgroups of use-inspired researchers. The PC model can be used to guide empirical, metrics-based investigations of research activities and productivities, applies this approach to two case studies, and demonstrates the utility of the method while also reinforcing and enriching the growing body of literature showing that cross-sectoral and cross-functional research activities are more scientifically productive than research carried out in isolation of the context of use. Introducing the ‘Crossover Collaborator’ subtype helps to explain why Pasteur type researchers tend to outperform other types of researchers in terms of publication output and citation impact.</t>
-  </si>
-  <si>
-    <t>Application oriented science, University researchers, Human resources analytics, Classification system, Science and innovation policy</t>
-  </si>
-  <si>
-    <t>As the international mobility of academic scientists is ever increasing, its effects on outcomes beyond research productivity deserve more attention. In this paper, we therefore investigate to what extent academics with different international mobility experiences differ in their likelihood to commercialize their research through entrepreneurship. To answer this question, we make use of a detailed survey covering all academics employed at Danish universities in 2017. Empirically, we distinguish three groups of academics according to their international experience (stayers, returnee, and immigrants) and focus on entrepreneurial outcomes realized while residing in the host country, Denmark. The estimation of duration models reveals that returnees are more than 50% more likely to become academic entrepreneurs than stayers. Immigrants, however, were between 38 and 47% less likely to start a firm than returnees. This difference seems to increase at higher levels of commercially relevant research and international research stays at international top institutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic entrepreneurship, International mobility of scientists, High-skilled migration, Immigrant entrepreneurship </t>
-  </si>
-  <si>
-    <t>Many of society’s grand challenges, like access to education, improved public health, and building smart infrastructure, occur in established fields, often ones where noncommercial logics matter. Grounded in a theory-building study of two well-matched EdTech ventures in the nascent MOOC market in the U.S. higher education field, we unpack their strategy formation processes. These ventures faced the dual problem of forming a successful strategy in a nascent market while changing an established field. Our primary contribution is a theoretical framework that identifies two distinct yet effective processes. One (Maverick) is a competitive, learning centric process, whereas the other (Diplomat) is a cooperative, diplomacy-centric one. Although distinct, these processes unexpectedly share the same decision weaving (i.e., hybrid) problem-solving structure that fits complex, novel problems like strategy formation. Broadly, we contribute to institutional theory and institutional entrepreneurship by introducing the diplomacy lens, its tactics, and firm performance. We contribute to learning theory and entrepreneurship by identifying the unique features of learning in established markets, including the limits to rapid experimentation and the value of collaborative learning for changing established fields. We add to practice by emphasizing the difficulty of achieving both commercial success and societal impact. Overall, we bridge the gap between institutional and commercial entrepreneurship.</t>
-  </si>
-  <si>
-    <t>strategy, strategy formation, entrepreneurship, nascent markets,  institutional entrepreneurship, learning, diplomacy, pivot</t>
-  </si>
-  <si>
-    <t>We extend organizational justice theory by investigating the justice perceptions of academic entrepreneurs regarding interactions with their universities. We assess how these justice perceptions influence the propensity of academic entrepreneurs to engage in different forms of commercialization, as well as the moderating role of entrepreneurial identity and prosocial motivation. We test our predictions using data from 1,329 academic entrepreneurs at 25 major U.S. research universities. Our results indicate that organizational justice is positively associated with intentions to engage in formal (i.e., sanctioned) technology transfer, and negatively associated with intentions to engage in informal (unsanctioned and noncompliant) technology transfer, which we characterize as a form of organizational deviance. Our findings also show that entrepreneurial identity and prosocial motivation (i.e., a focus on oneself vs. others) amplify and attenuate, respectively, the relationship between justice perceptions and technology transfer intentions. Finally, although intentions to engage in formal technology transfer predict subsequent behavior, intentions to engage in informal technology transfer do not.</t>
-  </si>
-  <si>
-    <t>organizational justice, entrepreneurial identity, prosocial motivation, technology transfer, entrepreneurship</t>
-  </si>
-  <si>
-    <t>This essay contrasts a perspective that places an excessive focus on technology businesses and growth with a view of entrepreneurship that embraces its heterogeneity. We challenge a taken-for-granted belief that only certain kinds of entrepreneurship might lead to wealth and job creation and additionally suggest that these two outcomes (wealth and job creation) need to be placed within a broader context of reasons, purposes, and values for why and how entrepreneurship emerges. We suggest that a wider and nondiscriminatory perspective on what constitutes entrepreneurship will lead to better theory and more insights that are relevant to the phenomenon.</t>
-  </si>
-  <si>
-    <t>Despite the assumption that symptoms of hypomania are detrimental, they may prove beneficial within self-employment contexts. Drawing on person-environment (P/E) fit theory and using the first National Epidemiologic Survey on Alcohol Related Conditions (NESARC 1), our conservative inferences are that for self-employed individuals, hypomania has a positive association with income, self-employed individuals with higher education have higher levels of income with increasing hypomania score, and older self-employed individuals with a higher hypomania score have a higher income. These findings have implications for the literature on hypomania symptoms and selfemployment related labor market outcomes.</t>
-  </si>
-  <si>
-    <t>hypomania score, income, self-employment</t>
-  </si>
-  <si>
-    <t>In this study, we explore how failure in the form of the first lost game of the college football season for a team influences specific content within the narratives constructed regarding that loss and how those narratives are associated with subsequent performance. Building on theoretical perspectives regarding sports management, entrepreneurial orientation (EO), emotions, and the use of narratives for sensemaking, we develop and test an EO-related sports management model of failure narratives. Using computer-aided text analysis of transcripts from head coaches’ press conferences directly following their team’s first loss of the season as well as regression analysis, we found that the narrative’s EO content has a U-shaped relationship with subsequent (i.e., next game) performance. Additionally, negative emotional content had a similar U-shaped relationship with subsequent performance. Finally, positive emotional content exhibited an inverse U-shaped relationship with subsequent performance. We discuss the implications of these results on the literatures regarding EO, emotions, and sports management as well as possible avenues for future research.</t>
-  </si>
-  <si>
-    <t>This study investigates how venture development programs such as private incubators, university incubators, and accelerators influence the success of participating nanotechnology startups. With the recent growth in such programs, empirical work is needed to compare their impact on participants across programs and with nonparticipants. Using data on firm bankruptcies, liquidation, government grants, and venture capital, we find benefits, but the influence of each venture development program varies greatly. We further investigate the influence of program services and resources to clarify program heterogeneity beyond existing typologies. The results clarify the role of these programs and ecosystem intermediaries.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, startup, new ventures, venture performance, incubators</t>
-  </si>
-  <si>
-    <t>Given calls for more rigorous research able to measure the impact of entrepreneurship education, this study proposes guidelines for enhancing methodological and reporting practices. First, drawing on prior research syntheses, we developed a descriptive validity framework that outlines key elements for rigorous evaluation research. Second, we use this framework to examine 61 quantitative, university-based entrepreneurship education impact studies to identify and describe methodological and reporting practices that are most prevalent. The result is a set of Impact Evaluation Research Standards for entrepreneurship educators and scholars wishing to improve education evaluation research.</t>
-  </si>
-  <si>
-    <t>descriptive validity, program evaluation, entrepreneurship education, systematic review, methodology</t>
-  </si>
-  <si>
-    <t>The dearth of minority entrepreneurs has received increasing media attention but few academic analyses. In particular, the funding process creates challenges for either audit or correspondence methods, making it difficult to assess the role, or type, of discrimination influencing resource providers. We use a novel approach that combines analyses of 7,617 crowdfunding projects with an experimental design to identify whether African American men are discriminated against and whether this reflects statistical, taste-based, or unconscious bias on the part of prospective supporters. We find that African American men are significantly less likely than similar white founders to receive funding and that prospective supporters rate identical projects as lower in quality when they believe the founder is an African American male. We conclude that the reduction in perceived quality does not reflect conscious assumptions of differences in founder ability or disamenity but rather an unconscious assumption that black founders are lower quality. In two additional experiments, we identify three means of reducing this bias: through additional evidence of quality via third-party endorsements (i.e., awards, evidence of prior support), through evidence that African American founders have succeeded previously, and by removing indicators of the founder’s race.</t>
-  </si>
-  <si>
-    <t>entrepreneurship, crowdfunding, economic discrimination, inequality</t>
-  </si>
-  <si>
-    <t>The entrepreneurial teams that form around university-based technologies influence whether and how those technologies are commercialized. Past research has emphasized the roles of external actors, such as technology transfer officers or investors, in managing the evolution of academic startup teams. But less is known about how individual scientist-inventors form their initial teams. To explore that process, we conducted longitudinal interviews with nine scientist-inventors leading nascent startups at major U.S. universities. Our analyses revealed that these scientists were working with a more extensive set of commercially-relevant knowledge and network connections than past research has accounted for. In fact, the scientists had their own “lay theories” of academic entrepreneurship that encompassed team-specific ideas as well as broader ideas about how their technologies ought to be commercialized. We identified four “design principles” capturing key variations in what the scientists hoped to achieve through their teams: control, scope, entitativity, and dynamism. We further found these principles clustered into three distinct commercialization models, which we called Lab, Gig, and Enterprise. Finally, we elaborated the models’ implications for the scientists’ team formation strategies, the sources through which they identified new members, and their approaches to dealing with administrators and investors. Our findings change what we know about nascent academic startups by showing how scientists play a critical internal role alongside, prior to, and sometimes instead of the external drivers of team formation whose roles have been more extensively documented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic entrepreneurship, Entrepreneurial teams, Founders, Cognition, Knowledge, New ventures, Team design </t>
-  </si>
-  <si>
-    <t>This study examines how university-firm (U-F) interactions affect innovation speed in science-intensive small and medium-sized firms (SISMEs). We distinguish between formal and informal U-F interactions and build on dynamic capability theory to argue that (1) U-F R&amp;D alliances enhance innovation speed through firm-level entrepreneurial orientation (EO), and (2) frequent U-F informal contacts weaken the effects of U-F R&amp;D alliances on innovation speed. Analyzing a sample of 268 SISMEs from 10 science parks in China, the results of the partial least squares structural equation modeling (PLS-SEM) support our hypotheses. Furthermore, fuzzy-set qualitative comparative analysis (fsQCA) identifies various configurations of U-F R&amp;D alliances, U-F informal contacts and EO, along with other organizational, science park and environmental conditions, that lead to higher or lower innovation speed in SISMEs. Our findings offer valuable theoretical and practical insights, advancing our understanding of the complex relationship between U-F interactions and innovation speed in SISMEs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">university-firm (U-F) R&amp;D alliances, university-firm (U-F) informal contacts, Entrepreneurial orientation, Innovation speed, Science-intensive SMEs </t>
-  </si>
-  <si>
-    <t>Although research has examined the benefits of military service and the impact of military executives on business operations, the relationship between military service and entrepreneurial behavior remains poorly understood. Using the instrumental variable approach and a nationally representative male sample from the China Labor-forces Dynamic Survey, we discovered that military service significantly increased the probability of entrepreneurship in China, even after a series of robustness checks. Mechanism tests indicated that this positive effect could be explained by human and political capital accumulation, military-related social capital formation, and risk appetite traits. Our supplemental analyses demonstrated that exogenous shocks from the special military-in-business policy strengthened the positive entrepreneurial effect, whereas the higher education expansion policy and China’s accession to the World Trade Organization weakened this effect. Additionally, military entrepreneurs had better business performance and more resilient, persistent, and confident traits. We found no evidence that Chinese veterans were forced to become entrepreneurs. This study enriches research on the styles and traits of military entrepreneurs and managers and provides important insights for assessing and improving veteran welfare policies in China and other developing countries.</t>
-  </si>
-  <si>
-    <t>military service, entrepreneurial behaviors, military entrepreneurs, China</t>
-  </si>
-  <si>
-    <t>Entrepreneurship has become an attractive career option for both the young and the old, but age has not been thoroughly examined as a variable of interest among entrepreneurship scholars. In this review, we present 12 theoretical perspectives regarding the effect of age on entrepreneurs' success and our critiques. We then present results of an exploratory meta-analysis with effect sizes from 102 samples. The results show that age has a weak, positive linear relationship with overall entrepreneurial success, but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample. The effect size of age does not differ by entrepreneurs' tenure running the firm. In terms of the type of success measures, age has a negative effect on growth but a positive effect on subjective success, firm size, and financial success, and no effect on survival. We compare our results with previous meta-analyses on employees' age to show the uniqueness of entrepreneurs' careers and we offer suggestions for future studies.
-Executive summary: The work population is aging, and entrepreneurship has become an attractive career option for both the young and the old. Age has often been included in empirical studies as a control variable to predict entrepreneurs' success, but with inconsistent empirical findings and inadequate attention to age's theoretical role, it is not clear whether older entrepreneurs are as successful as their younger counterparts.
-The current study has two related components. First, we provided a much-needed review of the alternative theoretical perspectives on the effect of age on entrepreneurial success. These 12 perspectives focused on various age-related mechanisms, namely personal health, rigidity, risk propensity, time's value, discrimination, human capital, social capital, financial capital, emotion, life stages, family obligation, and gender stereotype. We found that explicit theoretical explanations are rare and fragmented for addressing entrepreneurs' age-success relationship. Most of the existing perspectives are simplistic, equivocal, and sometimes contradictory. Guided by the above review, we proposed several research questions about several contingency factors, such as the entrepreneur's life stage, gender, and tenure running the business, which would help us gain a more nuanced understanding of the age-success relationship.
-Second, we empirically examined the research questions in an exploratory meta-analysis based on 102 independent samples. Indeed, we found more nuanced results than are typically apparent. The results show that age has a weak, positive linear relationship with overall entrepreneurial success ( =0.02), but it does exhibit signs of a U-shaped relationship, with the relationship being negative among younger samples but positive among older samples. The positive effect size becomes more pronounced when more females are included in the sample, suggesting female entrepreneurs' chance of success is higher at later life stages. The effect size of age does not differ by entrepreneurs' tenure running the firm, thus ruling out the possibility that the age-success effect is primarily driven by tenure effect or selection bias.
-We performed some robustness checks for the meta-analytic results. We found age's effect is not affected by the study's publication year, but the effect differs across the world. In terms of the type of success measures, we found age has a negative effect on growth, but a positive effect on subjective success, firm size, and financial success, and no effect on firm survival. Older entrepreneurs tend to have larger businesses, so older entrepreneurs are “punished” for having a larger denominator in the calculation of growth, putting them in an unfair position if growth is the sole measure of success.
-We compared our results with previous meta-analyses on employees' age, and one clear distinction is that previous meta-analyses reported an inverted U-shaped relationship between employees' age and overall performance, while our study shows the opposite, U-shaped relationship between entrepreneurs' age and success. This difference is probably due to the fact that entrepreneurial careers involve different resource commitments, job requirements, and success criteria compared to traditional careers, making people at a specific age more likely to succeed in one career but not in the other.
-Our study shows that researchers need to rethink the theoretical role of age, account for potentially simultaneous operation of theoretical mechanisms, and identify new research directions. We call for more studies to address the unique promises and challenges entrepreneurs in each life stage will face, and we provided some suggestions to increase the rigor of future studies. It is imperative to study the intra-individual aging effect through tracking a large cohort of entrepreneurs over decades with repeated measures of their cognitive intelligence, motivations, role identities, and success. Because male entrepreneurs outnumber female entrepreneurs, it is necessary to oversample female entrepreneurs or seek a matched sample, so that any genderrelated differential effects can be demonstrated fully. Because many entrepreneurs work in teams, future studies can compare founding teams of the same age (e.g., college classmates) and teams of different ages, and investigate how members of each type of team can collaborate to maximize their chance of success.</t>
-  </si>
-  <si>
-    <t>Age, Entrepreneur, Gender, Diversity, Performance, Career success, Meta-analysis</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1568,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1910,22 +1913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D98" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="55.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="10" width="7.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="3" width="28.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="98.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1946,18 +1949,18 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1978,18 +1981,18 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2010,18 +2013,18 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2040,18 +2043,18 @@
         <v>14</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2072,18 +2075,18 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2104,18 +2107,18 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2134,18 +2137,18 @@
         <v>27</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2163,18 +2166,18 @@
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2195,18 +2198,18 @@
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2227,18 +2230,18 @@
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2259,18 +2262,18 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2280,7 +2283,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>484</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>325</v>
@@ -2291,18 +2294,18 @@
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="306" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2312,10 +2315,10 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>337</v>
+        <v>477</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>45</v>
@@ -2323,18 +2326,18 @@
       <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2355,18 +2358,18 @@
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2387,18 +2390,18 @@
       <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2419,18 +2422,18 @@
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2449,18 +2452,18 @@
         <v>59</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2470,7 +2473,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>335</v>
+        <v>478</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>334</v>
@@ -2481,18 +2484,18 @@
       <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2502,10 +2505,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -2513,18 +2516,18 @@
       <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2534,10 +2537,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>20</v>
@@ -2545,18 +2548,18 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2573,18 +2576,18 @@
       <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2594,10 +2597,10 @@
         <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>20</v>
@@ -2605,18 +2608,18 @@
       <c r="G22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2626,10 +2629,10 @@
         <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>20</v>
@@ -2637,18 +2640,18 @@
       <c r="G23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2658,10 +2661,10 @@
         <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
@@ -2669,18 +2672,18 @@
       <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2690,10 +2693,10 @@
         <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
@@ -2701,18 +2704,18 @@
       <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2722,27 +2725,27 @@
         <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2752,10 +2755,10 @@
         <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>20</v>
@@ -2763,18 +2766,18 @@
       <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2784,10 +2787,10 @@
         <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>20</v>
@@ -2795,18 +2798,18 @@
       <c r="G28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2816,10 +2819,10 @@
         <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>20</v>
@@ -2827,18 +2830,18 @@
       <c r="G29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2848,10 +2851,10 @@
         <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -2859,18 +2862,18 @@
       <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="J30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2880,10 +2883,10 @@
         <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
@@ -2891,18 +2894,18 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2912,10 +2915,10 @@
         <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -2923,18 +2926,18 @@
       <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="J32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2944,10 +2947,10 @@
         <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
@@ -2955,18 +2958,18 @@
       <c r="G33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="323" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2976,10 +2979,10 @@
         <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>45</v>
@@ -2987,18 +2990,18 @@
       <c r="G34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="J34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3008,10 +3011,10 @@
         <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>20</v>
@@ -3019,18 +3022,18 @@
       <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3040,10 +3043,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>49</v>
@@ -3051,18 +3054,18 @@
       <c r="G36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="J36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3072,10 +3075,10 @@
         <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>118</v>
@@ -3083,18 +3086,18 @@
       <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="J37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3104,27 +3107,27 @@
         <v>121</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="I38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3134,10 +3137,10 @@
         <v>123</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
@@ -3145,18 +3148,18 @@
       <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3166,10 +3169,10 @@
         <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>20</v>
@@ -3177,18 +3180,18 @@
       <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="J40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3198,10 +3201,10 @@
         <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
@@ -3209,18 +3212,18 @@
       <c r="G41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="H41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3230,7 +3233,7 @@
         <v>132</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
@@ -3239,18 +3242,18 @@
       <c r="G42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="H42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3260,27 +3263,27 @@
         <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="I43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3290,10 +3293,10 @@
         <v>138</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>49</v>
@@ -3301,18 +3304,18 @@
       <c r="G44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="J44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3322,10 +3325,10 @@
         <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -3333,18 +3336,18 @@
       <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="H45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3354,10 +3357,10 @@
         <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
@@ -3365,18 +3368,18 @@
       <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="J46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3386,10 +3389,10 @@
         <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>20</v>
@@ -3397,18 +3400,18 @@
       <c r="G47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3418,10 +3421,10 @@
         <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>20</v>
@@ -3429,18 +3432,18 @@
       <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="H48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3450,10 +3453,10 @@
         <v>153</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>20</v>
@@ -3461,18 +3464,18 @@
       <c r="G49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3482,27 +3485,27 @@
         <v>156</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="I50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3512,27 +3515,27 @@
         <v>159</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="I51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3542,10 +3545,10 @@
         <v>161</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -3553,18 +3556,18 @@
       <c r="G52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="J52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3574,10 +3577,10 @@
         <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>20</v>
@@ -3585,18 +3588,18 @@
       <c r="G53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="H53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3606,10 +3609,10 @@
         <v>167</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>20</v>
@@ -3617,18 +3620,18 @@
       <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="J54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3638,27 +3641,27 @@
         <v>170</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="I55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="238" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3668,7 +3671,7 @@
         <v>172</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -3677,18 +3680,18 @@
       <c r="G56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="J56" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3698,10 +3701,10 @@
         <v>176</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
@@ -3709,18 +3712,18 @@
       <c r="G57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="H57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="J57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3730,27 +3733,27 @@
         <v>179</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="I58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3760,7 +3763,7 @@
         <v>181</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -3769,18 +3772,18 @@
       <c r="G59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="H59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="J59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3790,10 +3793,10 @@
         <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>20</v>
@@ -3801,18 +3804,18 @@
       <c r="G60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3822,10 +3825,10 @@
         <v>187</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>20</v>
@@ -3833,18 +3836,18 @@
       <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="H61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="306" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3854,10 +3857,10 @@
         <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>45</v>
@@ -3865,18 +3868,18 @@
       <c r="G62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="J62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3886,10 +3889,10 @@
         <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>45</v>
@@ -3897,18 +3900,18 @@
       <c r="G63" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="J63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3918,10 +3921,10 @@
         <v>196</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -3929,18 +3932,18 @@
       <c r="G64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3950,10 +3953,10 @@
         <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>45</v>
@@ -3961,18 +3964,18 @@
       <c r="G65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3982,10 +3985,10 @@
         <v>202</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>59</v>
@@ -3993,18 +3996,18 @@
       <c r="G66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="J66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4014,7 +4017,7 @@
         <v>205</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -4023,18 +4026,18 @@
       <c r="G67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4044,10 +4047,10 @@
         <v>208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -4055,18 +4058,18 @@
       <c r="G68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="J68" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4076,10 +4079,10 @@
         <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>20</v>
@@ -4087,18 +4090,18 @@
       <c r="G69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="H69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4108,10 +4111,10 @@
         <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>20</v>
@@ -4119,18 +4122,18 @@
       <c r="G70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="H70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4140,10 +4143,10 @@
         <v>217</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>20</v>
@@ -4151,18 +4154,18 @@
       <c r="G71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="H71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4172,10 +4175,10 @@
         <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
@@ -4183,18 +4186,18 @@
       <c r="G72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="H72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4204,10 +4207,10 @@
         <v>223</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
@@ -4215,18 +4218,18 @@
       <c r="G73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="J73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4236,10 +4239,10 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
@@ -4247,18 +4250,18 @@
       <c r="G74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="J74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="388" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4268,10 +4271,10 @@
         <v>229</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
@@ -4279,18 +4282,18 @@
       <c r="G75" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="J75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4300,7 +4303,7 @@
         <v>232</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -4309,18 +4312,18 @@
       <c r="G76" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="J76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4330,7 +4333,7 @@
         <v>236</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -4339,18 +4342,18 @@
       <c r="G77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="H77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="323" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4360,10 +4363,10 @@
         <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>20</v>
@@ -4371,18 +4374,18 @@
       <c r="G78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="H78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="306" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4392,10 +4395,10 @@
         <v>242</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>45</v>
@@ -4403,18 +4406,18 @@
       <c r="G79" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="2" t="s">
+      <c r="H79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="J79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4424,10 +4427,10 @@
         <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>14</v>
@@ -4435,18 +4438,18 @@
       <c r="G80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="2" t="s">
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="J80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4456,10 +4459,10 @@
         <v>248</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>14</v>
@@ -4467,18 +4470,18 @@
       <c r="G81" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="H81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4488,10 +4491,10 @@
         <v>251</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>20</v>
@@ -4499,18 +4502,18 @@
       <c r="G82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="2" t="s">
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="J82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4520,10 +4523,10 @@
         <v>254</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -4531,18 +4534,18 @@
       <c r="G83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="J83" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4552,27 +4555,27 @@
         <v>257</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="I84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4582,27 +4585,27 @@
         <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="I85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="388" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4612,10 +4615,10 @@
         <v>261</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
@@ -4623,18 +4626,18 @@
       <c r="G86" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+      <c r="J86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="170" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4644,10 +4647,10 @@
         <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
@@ -4655,18 +4658,18 @@
       <c r="G87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="H87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="255" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4676,10 +4679,10 @@
         <v>267</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>14</v>
@@ -4687,18 +4690,18 @@
       <c r="G88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="J88" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4708,10 +4711,10 @@
         <v>270</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>271</v>
@@ -4719,18 +4722,18 @@
       <c r="G89" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="2" t="s">
+      <c r="H89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="J89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4740,7 +4743,7 @@
         <v>274</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
@@ -4748,18 +4751,18 @@
       <c r="G90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="I90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4769,10 +4772,10 @@
         <v>277</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
@@ -4780,18 +4783,18 @@
       <c r="G91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4801,7 +4804,7 @@
         <v>280</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4810,18 +4813,18 @@
       <c r="G92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="2" t="s">
+      <c r="H92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+      <c r="J92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4831,10 +4834,10 @@
         <v>283</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -4842,18 +4845,18 @@
       <c r="G93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="2" t="s">
+      <c r="H93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+      <c r="J93" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4863,10 +4866,10 @@
         <v>286</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
@@ -4874,18 +4877,18 @@
       <c r="G94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+      <c r="H94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4895,10 +4898,10 @@
         <v>289</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>59</v>
@@ -4906,18 +4909,18 @@
       <c r="G95" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="2" t="s">
+      <c r="H95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+      <c r="J95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4927,10 +4930,10 @@
         <v>292</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -4938,18 +4941,18 @@
       <c r="G96" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="J96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="187" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4959,10 +4962,10 @@
         <v>295</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>20</v>
@@ -4970,18 +4973,18 @@
       <c r="G97" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+      <c r="H97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4991,10 +4994,10 @@
         <v>298</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>49</v>
@@ -5002,18 +5005,18 @@
       <c r="G98" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="2" t="s">
+      <c r="H98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+      <c r="J98" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5026,7 +5029,7 @@
         <v>487</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -5034,13 +5037,13 @@
       <c r="G99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="2" t="s">
+      <c r="H99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA02E1F-FCA1-8845-BCA7-E9C2BE925B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA0F10-23A5-F746-927C-B2F44DA3359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="7300" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="7280" yWindow="5800" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -1328,9 +1328,6 @@
     <t xml:space="preserve">Governments and public agencies are increasingly keen to support the translation of scientific discoveries into commercial and societal applications through science valorisation funding, as a way to enhance progress and inclusive growth. In this paper, we use grant-level data from the European Research Council Proof-of-Concept (PoC) programme, in order to assess the impact of public funding on a broad set of science valorisation outcomes, including licensing, spinoff formation, R&amp;D collaborations, consulting and access to follow-on funding. We employ an instrumental variable approach to compare the valorisation outcomes of projects that obtained an ERC PoC grant to a group of projects that applied to the PoC scheme but were not funded. We find that the programme was effective in fostering the early valorisation of scientific discoveries by all measures of success that we employed. Overall, thus, our findings speak in favour of this type of policy instrument as a catalyst to accelerate the transition of scientific breakthroughs towards practical applications. </t>
   </si>
   <si>
-    <t>The economics literature provides rich evidence on the convergence between the institutional factors and individual-level characteristics influencing the involvement of academia in knowledge transfer activities and spinoff creation. However, little is known about the effects of internal university regulations on academic entrepreneurship. In the lastten years, spinoff activity from academia in Italy has been intensive and most academic institutions have policies related to the regulation of academic entrepreneurship practices, known as ‘Regolamento Spinoff’. This paper investigates the impact of the set of university rules governing the creation of spinoffs, on institutional capability to generate new ventures. Based on panel-data analysis using detailed university-level data on academic spinoffs, we identify three classes of institutionally-defined rules that can motivate faculty members to establish a spinoff company. These are: general rules and procedures; rules regulating monetary incentives; rules related to the entrepreneurial risk. We find that at least some rules pertaining to each of these three classes have some effect on spinoff creation. In particular, we find that monetary incentives play a significant role in promoting academic spinoff activity, and that overly-restrictive university rules regarding contract research have a negative effect on spinoff creation.</t>
-  </si>
-  <si>
     <t>Spinoff creation, Academic entrepreneurship, University spinoff rules, Knowledge transfer strategies, University-Industry interaction</t>
   </si>
   <si>
@@ -1470,10 +1467,6 @@
   </si>
   <si>
     <t>Age, Entrepreneur, Gender, Diversity, Performance, Career success, Meta-analysis</t>
-  </si>
-  <si>
-    <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.&lt;br/&gt;
-Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
   </si>
   <si>
     <t xml:space="preserve">Research Summary: High-tech startups develop technologies, the market applicability of which can vary widely, enabling startups to target a range of market segments. Using a question-driven approach to contrast startups with and without academic founders, we investigate the difference in the market applicability between the two groups on a sample of 988 startups in the artificial intelligence (AI) field. Our findings reveal that academics' pursuit of basic research drives the creation of general knowledge, which in turn leads to wider market applicability. With fewer requirements for complementary downstream assets in the AI ecosystem, academics can more easily translate their general ideas to market applications and locate downstream in the value chain. Our findings highlight the role of problem-formulation and -solving in startups and of academic startups within AI.&lt;br/&gt;
@@ -1528,6 +1521,13 @@
 Our study addresses this gap by examining how angel funding and subsequent involvement influence entrepreneurs' eudaimonic long-term well-being. Using a dataset of 125 million words compiled from 1667 entrepreneurs' tweets on Twitter (now X) from 2006 to 2022, we apply Linguistic Inquiry and Word Count (LIWC) analysis to gain insights into the psychological states of these entrepreneurs (Block et al., 2019; Obschonka et al., 2017). This approach aligns with SDT, which posits that psychological needs fulfillment manifests in communication (Vansteenkiste et al., 2020).&lt;br/&gt;
 Our findings reveal that angel investor involvement can significantly influence entrepreneurs' eudaimonic well-being—positively and negatively—by affecting entrepreneurs' psychological needs fulfillment. Our study thus complements research on entrepreneurs' well-being with longitudinal insights. First, it extends the literature on entrepreneurial well-being by providing a nuanced understanding of how angel funding and involvement, mediated by autonomy, competence, and relatedness, affect entrepreneurs' well-being over time (Stephan et al., 2023). Second, our study contributes to SDT literature by contextualizing investor involvement as an external factor and using large-scale social media data to assess entrepreneurs' psychological needs (Stephan et al., 2020a). Third, our study highlights the importance of the dynamics between angel investors and entrepreneurs, showing that such relationships significantly shape entrepreneurs' personal outcomes (Collewaert and Sapienza, 2016; Politis, 2008).&lt;br/&gt;
 Beyond academic contributions, our study offers practical insights for entrepreneurs, angel investors, policy-makers, and universities by emphasizing the importance of understanding and managing the entrepreneurs' personal impacts of bringing angel investors on board.</t>
+  </si>
+  <si>
+    <t>The economics literature provides rich evidence on the convergence between the institutional factors and individual-level characteristics influencing the involvement of academia in knowledge transfer activities and spinoff creation. However, little is known about the effects of internal university regulations on academic entrepreneurship. In the last ten years, spinoff activity from academia in Italy has been intensive and most academic institutions have policies related to the regulation of academic entrepreneurship practices, known as ‘Regolamento Spinoff’. This paper investigates the impact of the set of university rules governing the creation of spinoffs, on institutional capability to generate new ventures. Based on panel-data analysis using detailed university-level data on academic spinoffs, we identify three classes of institutionally-defined rules that can motivate faculty members to establish a spinoff company. These are: general rules and procedures; rules regulating monetary incentives; rules related to the entrepreneurial risk. We find that at least some rules pertaining to each of these three classes have some effect on spinoff creation. In particular, we find that monetary incentives play a significant role in promoting academic spinoff activity, and that overly-restrictive university rules regarding contract research have a negative effect on spinoff creation.</t>
+  </si>
+  <si>
+    <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.&lt;br/&gt;
+Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity.</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1576,7 +1576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,22 +1912,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D98" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="3" width="28.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="98.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="98.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" style="2" customWidth="1"/>
     <col min="6" max="7" width="14.1640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1949,18 +1948,18 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1981,18 +1980,18 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2013,18 +2012,18 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2043,18 +2042,18 @@
         <v>14</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2075,18 +2074,18 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2107,18 +2106,18 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2137,18 +2136,18 @@
         <v>27</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2166,18 +2165,18 @@
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2198,18 +2197,18 @@
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2230,18 +2229,18 @@
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2262,18 +2261,18 @@
       <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2283,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>325</v>
@@ -2294,18 +2293,18 @@
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="306" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="289" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2315,7 +2314,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>335</v>
@@ -2326,18 +2325,18 @@
       <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2358,18 +2357,18 @@
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2390,18 +2389,18 @@
       <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2422,18 +2421,18 @@
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2452,18 +2451,18 @@
         <v>59</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2473,7 +2472,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>334</v>
@@ -2484,18 +2483,18 @@
       <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2516,18 +2515,18 @@
       <c r="G19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2548,18 +2547,18 @@
       <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2576,18 +2575,18 @@
       <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2608,18 +2607,18 @@
       <c r="G22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2640,18 +2639,18 @@
       <c r="G23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2672,18 +2671,18 @@
       <c r="G24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2704,18 +2703,18 @@
       <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2734,18 +2733,18 @@
         <v>59</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2766,18 +2765,18 @@
       <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2798,18 +2797,18 @@
       <c r="G28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2830,18 +2829,18 @@
       <c r="G29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2862,18 +2861,18 @@
       <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2894,18 +2893,18 @@
       <c r="G31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2926,18 +2925,18 @@
       <c r="G32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2958,18 +2957,18 @@
       <c r="G33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="323" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2979,7 +2978,7 @@
         <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>363</v>
@@ -2990,18 +2989,18 @@
       <c r="G34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3022,18 +3021,18 @@
       <c r="G35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3054,18 +3053,18 @@
       <c r="G36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3086,18 +3085,18 @@
       <c r="G37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3116,18 +3115,18 @@
         <v>59</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="3" t="s">
+      <c r="H38" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3148,18 +3147,18 @@
       <c r="G39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3180,18 +3179,18 @@
       <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3212,18 +3211,18 @@
       <c r="G41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3242,18 +3241,18 @@
       <c r="G42" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3272,18 +3271,18 @@
         <v>14</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="3" t="s">
+      <c r="H43" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3304,18 +3303,18 @@
       <c r="G44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3336,18 +3335,18 @@
       <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3368,18 +3367,18 @@
       <c r="G46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3400,18 +3399,18 @@
       <c r="G47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3432,18 +3431,18 @@
       <c r="G48" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3464,18 +3463,18 @@
       <c r="G49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3494,18 +3493,18 @@
         <v>157</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="3" t="s">
+      <c r="H50" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3524,18 +3523,18 @@
         <v>59</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="3" t="s">
+      <c r="H51" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3556,18 +3555,18 @@
       <c r="G52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3588,18 +3587,18 @@
       <c r="G53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3620,18 +3619,18 @@
       <c r="G54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3650,18 +3649,18 @@
         <v>14</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="3" t="s">
+      <c r="H55" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="238" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3680,18 +3679,18 @@
       <c r="G56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3712,18 +3711,18 @@
       <c r="G57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3742,18 +3741,18 @@
         <v>14</v>
       </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="3" t="s">
+      <c r="H58" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3772,18 +3771,18 @@
       <c r="G59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3804,18 +3803,18 @@
       <c r="G60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3825,7 +3824,7 @@
         <v>187</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>414</v>
@@ -3836,18 +3835,18 @@
       <c r="G61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="306" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3857,7 +3856,7 @@
         <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>415</v>
@@ -3868,18 +3867,18 @@
       <c r="G62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3889,7 +3888,7 @@
         <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>416</v>
@@ -3900,18 +3899,18 @@
       <c r="G63" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
         <v>5</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3932,18 +3931,18 @@
       <c r="G64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="289" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3953,7 +3952,7 @@
         <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>417</v>
@@ -3964,18 +3963,18 @@
       <c r="G65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="136" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -3996,18 +3995,18 @@
       <c r="G66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4026,18 +4025,18 @@
       <c r="G67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4058,18 +4057,18 @@
       <c r="G68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" t="s">
         <v>5</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4090,18 +4089,18 @@
       <c r="G69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4122,18 +4121,18 @@
       <c r="G70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="3" t="s">
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4154,18 +4153,18 @@
       <c r="G71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="3" t="s">
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4175,10 +4174,10 @@
         <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>20</v>
@@ -4186,18 +4185,18 @@
       <c r="G72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4207,10 +4206,10 @@
         <v>223</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>20</v>
@@ -4218,18 +4217,18 @@
       <c r="G73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" t="s">
         <v>5</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4239,10 +4238,10 @@
         <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>20</v>
@@ -4250,18 +4249,18 @@
       <c r="G74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="3" t="s">
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
         <v>5</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="388" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4271,10 +4270,10 @@
         <v>229</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>20</v>
@@ -4282,18 +4281,18 @@
       <c r="G75" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" t="s">
         <v>5</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4303,7 +4302,7 @@
         <v>232</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -4312,18 +4311,18 @@
       <c r="G76" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="3" t="s">
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
         <v>5</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4333,7 +4332,7 @@
         <v>236</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -4342,18 +4341,18 @@
       <c r="G77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="3" t="s">
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="323" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4363,10 +4362,10 @@
         <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>20</v>
@@ -4374,18 +4373,18 @@
       <c r="G78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="306" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4395,10 +4394,10 @@
         <v>242</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>45</v>
@@ -4406,18 +4405,18 @@
       <c r="G79" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4427,10 +4426,10 @@
         <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>14</v>
@@ -4438,18 +4437,18 @@
       <c r="G80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="3" t="s">
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4459,10 +4458,10 @@
         <v>248</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>14</v>
@@ -4470,18 +4469,18 @@
       <c r="G81" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4491,10 +4490,10 @@
         <v>251</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>20</v>
@@ -4502,18 +4501,18 @@
       <c r="G82" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="3" t="s">
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
         <v>5</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4523,10 +4522,10 @@
         <v>254</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -4534,18 +4533,18 @@
       <c r="G83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4555,27 +4554,27 @@
         <v>257</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="3" t="s">
+      <c r="H84" t="s">
         <v>4</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4585,27 +4584,27 @@
         <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="3" t="s">
+      <c r="H85" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="388" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4615,10 +4614,10 @@
         <v>261</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>20</v>
@@ -4626,18 +4625,18 @@
       <c r="G86" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="170" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4647,10 +4646,10 @@
         <v>264</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>20</v>
@@ -4658,18 +4657,18 @@
       <c r="G87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="255" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -4679,10 +4678,10 @@
         <v>267</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>14</v>
@@ -4690,18 +4689,18 @@
       <c r="G88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" t="s">
         <v>4</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" t="s">
         <v>5</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="204" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4711,10 +4710,10 @@
         <v>270</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>271</v>
@@ -4722,18 +4721,18 @@
       <c r="G89" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="3" t="s">
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4743,7 +4742,7 @@
         <v>274</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
@@ -4751,18 +4750,18 @@
       <c r="G90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="3" t="s">
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4772,10 +4771,10 @@
         <v>277</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
@@ -4783,18 +4782,18 @@
       <c r="G91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -4804,7 +4803,7 @@
         <v>280</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4813,18 +4812,18 @@
       <c r="G92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="3" t="s">
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
         <v>5</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4834,10 +4833,10 @@
         <v>283</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -4845,18 +4844,18 @@
       <c r="G93" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="3" t="s">
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
         <v>5</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4866,10 +4865,10 @@
         <v>286</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>49</v>
@@ -4877,18 +4876,18 @@
       <c r="G94" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -4898,10 +4897,10 @@
         <v>289</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>59</v>
@@ -4909,18 +4908,18 @@
       <c r="G95" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="3" t="s">
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
         <v>5</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4930,10 +4929,10 @@
         <v>292</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -4941,18 +4940,18 @@
       <c r="G96" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" t="s">
         <v>4</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I96" t="s">
         <v>5</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="187" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4962,10 +4961,10 @@
         <v>295</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>20</v>
@@ -4973,18 +4972,18 @@
       <c r="G97" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="3" t="s">
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="221" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4994,10 +4993,10 @@
         <v>298</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>49</v>
@@ -5005,18 +5004,18 @@
       <c r="G98" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="3" t="s">
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
         <v>5</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5026,10 +5025,10 @@
         <v>301</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -5037,13 +5036,13 @@
       <c r="G99" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="3" t="s">
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
         <v>5</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" t="s">
         <v>11</v>
       </c>
     </row>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA0F10-23A5-F746-927C-B2F44DA3359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68E717-BFE9-3E43-ABC0-373182A0FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="5800" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="4620" yWindow="4460" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
+    <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
+    <sheet name="x" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$J$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$L$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">x!$A$1:$J$99</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Consolidated!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="928">
   <si>
     <t>#</t>
   </si>
@@ -1529,12 +1532,1329 @@
     <t>Research summary: This article investigates the social context of entrepreneurship in organiza tional sectors. Prior research suggests that firm foundings are driven by collective patterns of activity—such as patterns of prior foundings in a given sector. Building on research on social salience and signals, we consider the influence of singular sector-level triggers, which we call entrepreneurial beacons. We argue that the actions or outcomes of single, salient organizations attract and motivate entrepreneurs, thus increasing the rate offoundings. We test this logic by examining the impact of the Yale University endowment's investment choices and of venture capital-backed IPO run-ups on venture-capitalfoundings between 1984 and 2011. Wefind support for the existence and influence of beacons and outline boundary conditions for their effects.&lt;br/&gt;
 Managerial summary: What leads entrepreneurs tofound new companies in nascent sectors? In contrast to prior research, which emphasizes patterns of activity, we argue that entrepreneurial activity can sometimes be driven by the actions of a singular trigger—what we call an entrepreneurial beacon. We examine the influence oftwo such beacons, Yale University's endow ment investments and exceptional venture-capital-backed IPO run-ups, on the founding of new venture-capital firms over a 28-year period. We find that Yale's increased allocations to the venture-capital asset-class has a significant influence on the founding of new venture-capital firms, while exceptional venture-capital-backed IPO run-ups only influence venture-capitalfound ings under certain conditions. Overall, we offer an explanation for heretofore anecdotal accounts of certain organizations or events that appear to have an outsized influence on entrepreneurial activity.</t>
   </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Journal Publisher</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>Abootorabi, H., Wiklund, J., Johnson, A.R., and Miller, C.D. (2021)</t>
+  </si>
+  <si>
+    <t>A holistic approach to the evolution of an entrepreneurial ecosystem: An exploratory study of academic spin-offs.</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>Adams, P., Fontana, R., and Malerba, F. (2016)</t>
+  </si>
+  <si>
+    <t>User-industry spinouts: Downstream industry knowledge as a source of new firm entry and survival.</t>
+  </si>
+  <si>
+    <t>Institute for Operations Research and the Management Sciences</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>Agarwal, R., Bacco, F., Camuffo, A., Coali, A., Gambardella, A., Msangi, H., Sonka, S., Temu, A., Waized, B., and Wormald, A. (2025)</t>
+  </si>
+  <si>
+    <t>Does a Theory-of-Value Add Value? Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs.</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>Amornsiripanitch, N., Gompers, P.A., Hu, G., and Vasudevan, K. (2023)</t>
+  </si>
+  <si>
+    <t>Getting schooled: Universities and VC-backed immigrant entrepreneurs.</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>Anckaert, P.-E., Cassiman, D., and Cassiman, B. (2020)</t>
+  </si>
+  <si>
+    <t>Fostering practice-oriented and use-inspired science in biomedical research.</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>Anderson, S.J., Chintagunta, P.K., and Vilcassim, N. (2024)</t>
+  </si>
+  <si>
+    <t>Virtual Collaboration Technology and International Business Coaching: Examining the Impact on Marketing Strategies and Sales.</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>Andrews, R.J., Fazio, C., Guzman, J., Liu, Y., and Stern, S. (2022)</t>
+  </si>
+  <si>
+    <t>The Startup Cartography Project: Measuring and mapping entrepreneurial ecosystems.</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>Andries, P., Clarysse, B., and Costa, S. (2021)</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>Audretsch, D.B. and Belitski, M. (2026)</t>
+  </si>
+  <si>
+    <t>Knowledge spillover of innovation: Entrepreneurial difference.</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>Feeling capable and valued: A prosocial perspective on the link between empathy and social entrepreneurial intentions.</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>Belitski, M., Aginskaja, A., and Marozau, R. (2019)</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>Bermiss, Y.S., Hallen, B.L., McDonald, R., and Pahnke, E.C. (2017)</t>
+  </si>
+  <si>
+    <t>Entrepreneurial beacons: The Yale endowment, run-ups, and the growth of venture capital.</t>
+  </si>
+  <si>
+    <t>Wiley-Blackwell</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>Burnette, J.L., Pollack, J.M., Forsyth, R.B., Hoyt, C.L., Babij, A.D., Thomas, F.N., and Coy, A.E. (2020)</t>
+  </si>
+  <si>
+    <t>A Growth Mindset Intervention: Enhancing Students’ Entrepreneurial Self-Efficacy and Career Development.</t>
+  </si>
+  <si>
+    <t>SAGE</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>Burrage, A., Dasgupta, N., and Ganguli, I. (2025)</t>
+  </si>
+  <si>
+    <t>Gender diversity in academic entrepreneurship: Social impact motives and the NSF I-corps program.</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>Callaert, J., Landoni, P., Van Looy, B., and Verganti, R. (2015)</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>Smartphone Trading Technology, Investor Behavior, and Mutual Fund Performance.</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>Chattopadhyay, S., Honoré, F., and Won, S. (2025)</t>
+  </si>
+  <si>
+    <t>Free range startups? Market scope, academic founders, and the role of general knowledge in AI.</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>Chliova, M., Brinckmann, J., and Rosenbusch, N. (2015)</t>
+  </si>
+  <si>
+    <t>Is microcredit a blessing for the poor? A meta-analysis examining development outcomes and contextual considerations.</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>Civera, A., Lehmann, E.E., Paleari, S., and Stockinger, S.A.E. (2020)</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>Civera, A., Lehmann, E.E., Paleari, S., and Stockinger, S.A.E. (2021)</t>
+  </si>
+  <si>
+    <t>Corrigendum to “Higher Education Policy: Why hope for Quality when rewarding Quantity?” [Research Policy Volume 49, Issue 8(2020) /104083].</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>Clarysse, B., Andries, P., Boone, S., and Roelandt, J. (2023)</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>Coad, A., Kaiser, U., and Kuhn, J. (2021)</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>Colombo, M.G., Meoli, M., and Vismara, S. (2019)</t>
+  </si>
+  <si>
+    <t>Signaling in science-based IPOs: The combined effect of affiliation with prestigious universities, underwriters, and venture capitalists.</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>D’Este, P., Llopis, O., Rentocchini, F., and Yegros, A. (2019)</t>
+  </si>
+  <si>
+    <t>The relationship between interdisciplinarity and distinct modes of university-industry interaction.</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>Dai, M., Kou, S., Soner, H.M., and Yang, C. (2023)</t>
+  </si>
+  <si>
+    <t>Leveraged Exchange-Traded Funds with Market Closure and Frictions.</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>The technological imprinting of educational experiences on student startups.</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>Degl’Innocenti, M., Matousek, R., and Tzeremes, N.G. (2019)</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>Dorner, M., Fryges, H., and Schopen, K. (2017)</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>Edelman, L.F., Manolova, T., Shirokova, G., and Tsukanova, T. (2016)</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>Eesley, C. and Lee, Y.S. (2023)</t>
+  </si>
+  <si>
+    <t>In Institutions We Trust? Trust in Government and the Allocation of Entrepreneurial Intentions.</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>Eesley, C., Li, J.B., and Yang, D. (2016)</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>Eesley, C.E. (2016)</t>
+  </si>
+  <si>
+    <t>Institutional Barriers to Growth: Entrepreneurship, Human Capital and Institutional Change.</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>Eesley, C.E. and Lee, Y.S. (2021)</t>
+  </si>
+  <si>
+    <t>G34</t>
+  </si>
+  <si>
+    <t>El-Awad, Z., Brattström, A., and Breugst, N. (2022)</t>
+  </si>
+  <si>
+    <t>Bridging cognitive scripts in multidisciplinary academic spinoff teams: A process perspective on how academics learn to work with non-academic managers.</t>
+  </si>
+  <si>
+    <t>G35</t>
+  </si>
+  <si>
+    <t>Elitzur, R., Gavious, I., and Milo, O. (2024)</t>
+  </si>
+  <si>
+    <t>Diversity in National Culture and Financial Harvest Exit Strategy in New Technology Ventures.</t>
+  </si>
+  <si>
+    <t>G36</t>
+  </si>
+  <si>
+    <t>Engelen, A., Neumann, C., and Schmidt, S. (2016)</t>
+  </si>
+  <si>
+    <t>G37</t>
+  </si>
+  <si>
+    <t>Feng, Y., Caldentey, R., Xin, L., Zhong, Y., Wang, B., and Hu, H. (2024)</t>
+  </si>
+  <si>
+    <t>Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management.</t>
+  </si>
+  <si>
+    <t>G38</t>
+  </si>
+  <si>
+    <t>Fini, R., Jourdan, J., Perkmann, M., and Toschi, L. (2023)</t>
+  </si>
+  <si>
+    <t>A New Take on the Categorical Imperative: Gatekeeping, Boundary Maintenance, and Evaluation Penalties in Science.</t>
+  </si>
+  <si>
+    <t>G39</t>
+  </si>
+  <si>
+    <t>Fini, R., Perkmann, M., Kenney, M., and Maki, K.M. (2023)</t>
+  </si>
+  <si>
+    <t>Are public subsidies effective for university spinoffs? Evidence from SBIR awards in the University of California system.</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>Fini, R., Perkmann, M., and Ross, J.-M. (2022)</t>
+  </si>
+  <si>
+    <t>Attention to Exploration: The Effect of Academic Entrepreneurship on the Production of Scientific Knowledge.</t>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>Fisher, G., Kotha, S., and Lahiri, A. (2016)</t>
+  </si>
+  <si>
+    <t>Changing with the times: An integrated view of identity, legitimacy, and new venture life cycles.</t>
+  </si>
+  <si>
+    <t>Academy of Management</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>Female Entrepreneurs Targeting Women: Strategic Redirection Under Scientific Decision-Making.</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>Gimenez-Jimenez, D., Edelman, L.F., Minola, T., Calabrò, A., and Cassia, L. (2021)</t>
+  </si>
+  <si>
+    <t>An Intergeneration Solidarity Perspective on Succession Intentions in Family Firms.</t>
+  </si>
+  <si>
+    <t>G44</t>
+  </si>
+  <si>
+    <t>United we stand? Organizational groups and spinoff mortality in the context of academic entrepreneurship.</t>
+  </si>
+  <si>
+    <t>G45</t>
+  </si>
+  <si>
+    <t>Gümüsay, A.A. and Bohné, T.M. (2018)</t>
+  </si>
+  <si>
+    <t>Individual and organizational inhibitors to the development of entrepreneurial competencies in universities.</t>
+  </si>
+  <si>
+    <t>G46</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>Hayter, C.S. (2016)</t>
+  </si>
+  <si>
+    <t>Constraining entrepreneurial development: A knowledge-based view of social networks among academic entrepreneurs.</t>
+  </si>
+  <si>
+    <t>G48</t>
+  </si>
+  <si>
+    <t>Hewitt-Dundas, N., Gkypali, A., and Roper, S. (2019)</t>
+  </si>
+  <si>
+    <t>G49</t>
+  </si>
+  <si>
+    <t>A Stability Principle for Learning Under Nonstationarity.</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>Huesmann, K., Ndiaye, Y.S., Waibel, C., and Wiesen, D. (2025)</t>
+  </si>
+  <si>
+    <t>How the Design of Ranking Systems and Ability Affect Physician Effort.</t>
+  </si>
+  <si>
+    <t>G51</t>
+  </si>
+  <si>
+    <t>Huyghe, A., Knockaert, M., and Obschonka, M. (2016)</t>
+  </si>
+  <si>
+    <t>G52</t>
+  </si>
+  <si>
+    <t>Iorio, R., Labory, S., and Rentocchini, F. (2017)</t>
+  </si>
+  <si>
+    <t>The importance of pro-social behaviour for the breadth and depth of knowledge transfer activities: An analysis of Italian academic scientists.</t>
+  </si>
+  <si>
+    <t>G53</t>
+  </si>
+  <si>
+    <t>Ju, X., Jiang, S., and Zhao, Q. (2023)</t>
+  </si>
+  <si>
+    <t>Innovation effects of academic executives: Evidence from China.</t>
+  </si>
+  <si>
+    <t>G54</t>
+  </si>
+  <si>
+    <t>Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry.</t>
+  </si>
+  <si>
+    <t>G55</t>
+  </si>
+  <si>
+    <t>Jung, H., Vissa, B., and Pich, M. (2017)</t>
+  </si>
+  <si>
+    <t>G56</t>
+  </si>
+  <si>
+    <t>Kaul, R., Anderson, S.J., Chintagunta, P.K., and Vilcassim, N. (2025)</t>
+  </si>
+  <si>
+    <t>G57</t>
+  </si>
+  <si>
+    <t>Kim, S.-H., Song, H., and Valentine, M.A. (2023)</t>
+  </si>
+  <si>
+    <t>Learning in Temporary Teams: The Varying Effects of Partner Exposure by Team Member Role.</t>
+  </si>
+  <si>
+    <t>G58</t>
+  </si>
+  <si>
+    <t>Lanivich, S.E. (2015)</t>
+  </si>
+  <si>
+    <t>The RICH Entrepreneur: Using Conservation of Resources Theory in Contexts of Uncertainty.</t>
+  </si>
+  <si>
+    <t>G59</t>
+  </si>
+  <si>
+    <t>Larsson, J.P., Wennberg, K., Wiklund, J., and Wright, M. (2017)</t>
+  </si>
+  <si>
+    <t>Location choices of graduate entrepreneurs.</t>
+  </si>
+  <si>
+    <t>G60</t>
+  </si>
+  <si>
+    <t>Lauto, G., Salvador, E., and Visintin, F. (2022)</t>
+  </si>
+  <si>
+    <t>For what they are, not for what they bring: The signaling value of gender for financial resource acquisition in academic spin-offs.</t>
+  </si>
+  <si>
+    <t>G61</t>
+  </si>
+  <si>
+    <t>Lee, S.R. (2022)</t>
+  </si>
+  <si>
+    <t>The myth of the flat start-up: Reconsidering the organizational structure of start-ups.</t>
+  </si>
+  <si>
+    <t>G62</t>
+  </si>
+  <si>
+    <t>Lee, S.R. and Kim, J.D. (2024)</t>
+  </si>
+  <si>
+    <t>When do startups scale? Large-scale evidence from job postings.</t>
+  </si>
+  <si>
+    <t>G63</t>
+  </si>
+  <si>
+    <t>Balancing power: The role of independent directors on venture boards.</t>
+  </si>
+  <si>
+    <t>G64</t>
+  </si>
+  <si>
+    <t>Luoma, J., Falk, T., Totzek, D., Tikkanen, H., and Mrozek, A. (2018)</t>
+  </si>
+  <si>
+    <t>G65</t>
+  </si>
+  <si>
+    <t>Marx, M. and Hsu, D.H. (2022)</t>
+  </si>
+  <si>
+    <t>Revisiting the Entrepreneurial Commercialization of Academic Science: Evidence from “Twin” Discoveries.</t>
+  </si>
+  <si>
+    <t>G66</t>
+  </si>
+  <si>
+    <t>McKenny, A.F., Allison, T.H., Ketchen, D.J., Short, J.C., and Ireland, R.D. (2017)</t>
+  </si>
+  <si>
+    <t>How Should Crowdfunding Research Evolve? A Survey of the Entrepreneurship Theory and Practice Editorial Board.</t>
+  </si>
+  <si>
+    <t>G67</t>
+  </si>
+  <si>
+    <t>Meoli, A., Fini, R., Sobrero, M., and Wiklund, J. (2020)</t>
+  </si>
+  <si>
+    <t>How entrepreneurial intentions influence entrepreneurial career choices: The moderating influence of social context.</t>
+  </si>
+  <si>
+    <t>G68</t>
+  </si>
+  <si>
+    <t>Merida, A.L. and Rocha, V. (2021)</t>
+  </si>
+  <si>
+    <t>G69</t>
+  </si>
+  <si>
+    <t>Multidimensional experience and performance of highly skilled administrative staff: Evidence from a technology transfer office.</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>The impact of public funding on science valorisation: an analysis of the ERC Proof-of-Concept Programme.</t>
+  </si>
+  <si>
+    <t>G71</t>
+  </si>
+  <si>
+    <t>Muscio, A., Quaglione, D., and Ramaciotti, L. (2016)</t>
+  </si>
+  <si>
+    <t>The effects of university rules on spinoff creation: The case of academia in Italy.</t>
+  </si>
+  <si>
+    <t>G72</t>
+  </si>
+  <si>
+    <t>The gender gap in PhD entrepreneurship: Why balancing employment in academia really matters.</t>
+  </si>
+  <si>
+    <t>G73</t>
+  </si>
+  <si>
+    <t>Ng, W.K.B., Appel-Meulenbroek, R., Cloodt, M., and Arentze, T. (2019)</t>
+  </si>
+  <si>
+    <t>Towards a segmentation of science parks: A typology study on science parks in Europe.</t>
+  </si>
+  <si>
+    <t>G74</t>
+  </si>
+  <si>
+    <t>Transfer scouts: from intermediation to co-constructors of new knowledge and technologies in Germany.</t>
+  </si>
+  <si>
+    <t>G75</t>
+  </si>
+  <si>
+    <t>Padilla-Angulo, L., García-Cabrera, A.M., and Lucia-Casademunt, A.M. (2022)</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>G76</t>
+  </si>
+  <si>
+    <t>Patvardhan, S.D., Gioia, D.A., and Hamilton, A.L. (2015)</t>
+  </si>
+  <si>
+    <t>Weathering a meta-level identity crisis: Forging a coherent collective identity for an emerging field.</t>
+  </si>
+  <si>
+    <t>G77</t>
+  </si>
+  <si>
+    <t>Perry, S.J., Hunter, E.M., and Currall, S.C. (2016)</t>
+  </si>
+  <si>
+    <t>Managing the innovators: Organizational and professional commitment among scientists and engineers.</t>
+  </si>
+  <si>
+    <t>G78</t>
+  </si>
+  <si>
+    <t>Knowledge diffusion in nascent industries: Asymmetries between startups and established firms in spurring inventions by other firms.</t>
+  </si>
+  <si>
+    <t>G79</t>
+  </si>
+  <si>
+    <t>Explaining heterogeneity in the organization of scientific work.</t>
+  </si>
+  <si>
+    <t>G80</t>
+  </si>
+  <si>
+    <t>Roche, M.P. (2023)</t>
+  </si>
+  <si>
+    <t>G81</t>
+  </si>
+  <si>
+    <t>Roche, M.P., Conti, A., and Rothaermel, F.T. (2020)</t>
+  </si>
+  <si>
+    <t>Different founders, different venture outcomes: A comparative analysis of academic and non-academic startups.</t>
+  </si>
+  <si>
+    <t>G82</t>
+  </si>
+  <si>
+    <t>Schmidt, C.V.H., Gaßmann, P.S., McElvany, N., and Flatten, T.C. (2025)</t>
+  </si>
+  <si>
+    <t>G83</t>
+  </si>
+  <si>
+    <t>Shen, X.S., Li, H.J., and Tolbert, P.S. (2023)</t>
+  </si>
+  <si>
+    <t>Converging Tides Lift All Boats: Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors.</t>
+  </si>
+  <si>
+    <t>G84</t>
+  </si>
+  <si>
+    <t>Souitaris, V., Peng, B., Zerbinati, S., and Shepherd, D.A. (2023)</t>
+  </si>
+  <si>
+    <t>G85</t>
+  </si>
+  <si>
+    <t>Tijssen, R.J.W. (2018)</t>
+  </si>
+  <si>
+    <t>G86</t>
+  </si>
+  <si>
+    <t>Uhlbach, W.-H., Tartari, V., and Kongsted, H.C. (2022)</t>
+  </si>
+  <si>
+    <t>Beyond scientific excellence: International mobility and the entrepreneurial activities of academic scientists.</t>
+  </si>
+  <si>
+    <t>G87</t>
+  </si>
+  <si>
+    <t>Volmar, E. and Eisenhardt, K.M. (2025)</t>
+  </si>
+  <si>
+    <t>Mavericks and Diplomats: Bridging Commercial and Institutional Entrepreneurship for Society’s Grand Challenges.</t>
+  </si>
+  <si>
+    <t>G88</t>
+  </si>
+  <si>
+    <t>Waldman, D.A., Vaulont, M.J., Balven, R.M., Siegel, D.S., and Rupp, D.E. (2022)</t>
+  </si>
+  <si>
+    <t>The Role of Justice Perceptions in Formal and Informal University Technology Transfer.</t>
+  </si>
+  <si>
+    <t>American Psychological Association</t>
+  </si>
+  <si>
+    <t>G89</t>
+  </si>
+  <si>
+    <t>Welter, F., Baker, T., Audretsch, D.B., and Gartner, W.B. (2017)</t>
+  </si>
+  <si>
+    <t>Everyday Entrepreneurship—A Call for Entrepreneurship Research to Embrace Entrepreneurial Diversity.</t>
+  </si>
+  <si>
+    <t>G90</t>
+  </si>
+  <si>
+    <t>Wolfe, M.T., Patel, P.C., and Drover, W. (2020)</t>
+  </si>
+  <si>
+    <t>The Influence of Hypomania Symptoms on Income in Self-Employment.</t>
+  </si>
+  <si>
+    <t>G91</t>
+  </si>
+  <si>
+    <t>Wolfe, M.T. and Shepherd, D.A. (2015)</t>
+  </si>
+  <si>
+    <t>G92</t>
+  </si>
+  <si>
+    <t>Woolley, J.L. and MacGregor, N. (2022)</t>
+  </si>
+  <si>
+    <t>The Influence of Incubator and Accelerator Participation on Nanotechnology Venture Success.</t>
+  </si>
+  <si>
+    <t>G93</t>
+  </si>
+  <si>
+    <t>Standards for Evaluating Impact in Entrepreneurship Education Research: Using a Descriptive Validity Framework to Enhance Methodological Rigor and Transparency.</t>
+  </si>
+  <si>
+    <t>G94</t>
+  </si>
+  <si>
+    <t>The colorblind crowd? Founder race and performance in crowdfunding.</t>
+  </si>
+  <si>
+    <t>G95</t>
+  </si>
+  <si>
+    <t>Zellmer-Bruhn, M.E., Forbes, D.P., Sapienza, H.J., and Borchert, P.S. (2021)</t>
+  </si>
+  <si>
+    <t>Lab, Gig or Enterprise? How scientist-inventors form nascent startup teams.</t>
+  </si>
+  <si>
+    <t>G96</t>
+  </si>
+  <si>
+    <t>Zhang, J.A., O’Kane, C., and Bai, T. (2024)</t>
+  </si>
+  <si>
+    <t>How do university-firm interactions affect firm innovation speed? The case of Chinese science-intensive SMEs.</t>
+  </si>
+  <si>
+    <t>G97</t>
+  </si>
+  <si>
+    <t>Zhao, C., Xu, G., and Cai, W. (2025)</t>
+  </si>
+  <si>
+    <t>Troops are Business Schools: Military Service and Entrepreneurial Behaviors in China.</t>
+  </si>
+  <si>
+    <t>G98</t>
+  </si>
+  <si>
+    <t>Zhao, H., O'Connor, G., Wu, J., and Lumpkin, G.T. (2021)</t>
+  </si>
+  <si>
+    <t>Age and entrepreneurial career success: A review and a meta-analysis.</t>
+  </si>
+  <si>
+    <t>HK01</t>
+  </si>
+  <si>
+    <t>Aïssaoui, R. and Geringer, M.J. (2018)</t>
+  </si>
+  <si>
+    <t>International business research output and rankings of Asia-Pacific universities: A 40-year time-series analysis.</t>
+  </si>
+  <si>
+    <t>Asia Pacific Journal of Management</t>
+  </si>
+  <si>
+    <t>Springer Nature</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10.1007/s10490-017-9536-x</t>
+  </si>
+  <si>
+    <t>HK02</t>
+  </si>
+  <si>
+    <t>Bickenbach, F., Dohse, D., and Liu, W.H. (2017)</t>
+  </si>
+  <si>
+    <t>China and World Economy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10.1111/cwe.12194</t>
+  </si>
+  <si>
+    <t>HK03</t>
+  </si>
+  <si>
+    <t>Chau, K.W. (2005)</t>
+  </si>
+  <si>
+    <t>Problem-based learning approach in accomplishing innovation and entrepreneurship of civil engineering undergraduates.</t>
+  </si>
+  <si>
+    <t>International Journal of Engineering Education</t>
+  </si>
+  <si>
+    <t>IJEE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HK04</t>
+  </si>
+  <si>
+    <t>Chui, C.H.-k., Peng, S., Lai, V., Chan, C.H., and Fung, S. (2025)</t>
+  </si>
+  <si>
+    <t>Enhancing Social Entrepreneurial Competence Amongst University Students: A Social Entrepreneurship Pedagogical Model in Hong Kong.</t>
+  </si>
+  <si>
+    <t>Journal of Social Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Taylor &amp; Francis</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10.1080/19420676.2023.2217427</t>
+  </si>
+  <si>
+    <t>HK05</t>
+  </si>
+  <si>
+    <t>HK06</t>
+  </si>
+  <si>
+    <t>Gallegos, A., Valencia-Arias, A., Aliaga Bravo, V.D.C., Teodori de la Puente, R., Valencia, J., Uribe-Bedoya, H., Briceño Huerta, V., Vega-Mori, L., and Rodriguez-Correa, P. (2024)</t>
+  </si>
+  <si>
+    <t>Factors that determine the entrepreneurial intention of university students: a gender perspective in the context of an emerging economy.</t>
+  </si>
+  <si>
+    <t>Cogent Social Sciences</t>
+  </si>
+  <si>
+    <t>10.1080/23311886.2024.2301812</t>
+  </si>
+  <si>
+    <t>HK07</t>
+  </si>
+  <si>
+    <t>Hou, F., Qi, M.-D., Su, Y., Wu, Y.J., and Tang, J.-Y. (2023)</t>
+  </si>
+  <si>
+    <t>How does university-based entrepreneurship education facilitate the development of entrepreneurial Intention？Integrating passion- and competency-based perspectives.</t>
+  </si>
+  <si>
+    <t>International Journal of Management Education</t>
+  </si>
+  <si>
+    <t>HK08</t>
+  </si>
+  <si>
+    <t>Hou, F., Su, Y., Qi, M., Chen, J., and Tang, J. (2022)</t>
+  </si>
+  <si>
+    <t>A Multilevel Model of Entrepreneurship Education and Entrepreneurial Intention: Opportunity Recognition as a Mediator and Entrepreneurial Learning as a Moderator.</t>
+  </si>
+  <si>
+    <t>Frontiers in Psychology</t>
+  </si>
+  <si>
+    <t>Frontiers</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.837388</t>
+  </si>
+  <si>
+    <t>HK09</t>
+  </si>
+  <si>
+    <t>Hsu, C.-Y. and Wang, S.-M. (2019)</t>
+  </si>
+  <si>
+    <t>Social entrepreneurial intentions and its influential factors: A comparison of students in Taiwan and Hong Kong.</t>
+  </si>
+  <si>
+    <t>Innovations in Education and Teaching International</t>
+  </si>
+  <si>
+    <t>10.1080/14703297.2018.1427611</t>
+  </si>
+  <si>
+    <t>HK10</t>
+  </si>
+  <si>
+    <t>Hui, P.P. and Leung, V.K.K. (2025)</t>
+  </si>
+  <si>
+    <t>Knowing thoughts by seeing deeds: The role of creative self-concept, entrepreneurial mindset, and creative behaviour in innovation and entrepreneurship education.</t>
+  </si>
+  <si>
+    <t>Industry and Higher Education</t>
+  </si>
+  <si>
+    <t>10.1177/09504222251346231</t>
+  </si>
+  <si>
+    <t>HK11</t>
+  </si>
+  <si>
+    <t>Ip, C.Y., Liang, C., Wu, S.-C., Law, K.M.Y., and Liu, H.-C. (2018)</t>
+  </si>
+  <si>
+    <t>Enhancing Social Entrepreneurial Intentions through Entrepreneurial Creativity: A Comparative Study Between Taiwan and Hong Kong.</t>
+  </si>
+  <si>
+    <t>Creativity Research Journal</t>
+  </si>
+  <si>
+    <t>10.1080/10400419.2018.1446744</t>
+  </si>
+  <si>
+    <t>HK12</t>
+  </si>
+  <si>
+    <t>Jia, N. (2014)</t>
+  </si>
+  <si>
+    <t>Equity Financing for Early-Stage Companies in China (CARE Conference Hong Kong Polytechnic University, June 9, 2014).</t>
+  </si>
+  <si>
+    <t>Journal of Applied Corporate Finance</t>
+  </si>
+  <si>
+    <t>10.1111/jacf.12082</t>
+  </si>
+  <si>
+    <t>HK13</t>
+  </si>
+  <si>
+    <t>Law, K.M.Y. and Breznik, K. (2017)</t>
+  </si>
+  <si>
+    <t>Impacts of innovativeness and attitude on entrepreneurial intention: among engineering and non-engineering students.</t>
+  </si>
+  <si>
+    <t>International Journal of Technology and Design Education</t>
+  </si>
+  <si>
+    <t>10.1007/s10798-016-9373-0</t>
+  </si>
+  <si>
+    <t>HK14</t>
+  </si>
+  <si>
+    <t>Law, K.M.Y. and Jakubiak, M. (2020)</t>
+  </si>
+  <si>
+    <t>International Journal of Innovation and Learning</t>
+  </si>
+  <si>
+    <t>Inderscience Publishers</t>
+  </si>
+  <si>
+    <t>10.1504/IJIL.2020.108459</t>
+  </si>
+  <si>
+    <t>HK15</t>
+  </si>
+  <si>
+    <t>Leung, S., Mo, P., Ling, H., Chandra, Y., and Ho, S.S. (2019)</t>
+  </si>
+  <si>
+    <t>Enhancing the competitiveness and sustainability of social enterprises in Hong Kong: A three-dimensional analysis.</t>
+  </si>
+  <si>
+    <t>China Journal of Accounting Research</t>
+  </si>
+  <si>
+    <t>10.1016/j.cjar.2019.03.002</t>
+  </si>
+  <si>
+    <t>HK16</t>
+  </si>
+  <si>
+    <t>Liang, C., Ip, C.Y., Wu, S.-C., Law, K.M.Y., Wang, J.-H., Peng, L.-P., and Liu, H.-C. (2019)</t>
+  </si>
+  <si>
+    <t>Personality traits, social capital, and entrepreneurial creativity: comparing green socioentrepreneurial intentions across Taiwan and Hong Kong.</t>
+  </si>
+  <si>
+    <t>Studies in Higher Education</t>
+  </si>
+  <si>
+    <t>10.1080/03075079.2017.1418310</t>
+  </si>
+  <si>
+    <t>HK17</t>
+  </si>
+  <si>
+    <t>Liang, Y. and Wang, J. (2023)</t>
+  </si>
+  <si>
+    <t>Factors Influencing the Entrepreneurial Intentions of Hong Kong and Macao Students in Chinese Mainland Universities in the Context of Guangdong-Hong Kong-Macao Greater Bay Area: A Study from the Perspective of Cultivating Innovative Talents.</t>
+  </si>
+  <si>
+    <t>Frontiers of Business Research in China</t>
+  </si>
+  <si>
+    <t>10.3868/s070-008-023-0012-3</t>
+  </si>
+  <si>
+    <t>HK18</t>
+  </si>
+  <si>
+    <t>Liu, D. (2022)</t>
+  </si>
+  <si>
+    <t>Asian Education and Development Studies</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>10.1108/aeds-08-2020-0179</t>
+  </si>
+  <si>
+    <t>HK19</t>
+  </si>
+  <si>
+    <t>Liu, H.-C., Liang, C., Chang, C.-C., Ip, C.Y., and Liang, C.-T. (2021)</t>
+  </si>
+  <si>
+    <t>Optimizing Personality Traits and Entrepreneurial Creativity to Boost the Precursors of Social Entrepreneurial Intentions: Five Studies in Taiwan.</t>
+  </si>
+  <si>
+    <t>Journal of Social Service Research</t>
+  </si>
+  <si>
+    <t>10.1080/01488376.2019.1708840</t>
+  </si>
+  <si>
+    <t>HK20</t>
+  </si>
+  <si>
+    <t>Liu, S., Sun, H., Zhuang, J., Xiong, R., and Of, I.P. (2023)</t>
+  </si>
+  <si>
+    <t>The Impact of E-Learning Technologies on Entrepreneurial and Sustainability Performance.</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>10.3390/su152115660</t>
+  </si>
+  <si>
+    <t>HK21</t>
+  </si>
+  <si>
+    <t>Lok, K.L., Yeung, J.F.Y., Opoku, A., Kumah, V.M.A., and Wong, C.T. (2025)</t>
+  </si>
+  <si>
+    <t>Developing sustainable outsourcing strategies for facilities management: a study of educational facilities in Hong Kong.</t>
+  </si>
+  <si>
+    <t>Journal of Corporate Real Estate</t>
+  </si>
+  <si>
+    <t>10.1108/jcre-03-2025-0016</t>
+  </si>
+  <si>
+    <t>HK22</t>
+  </si>
+  <si>
+    <t>Mohamed, F., Karoui Zouaoui, S., and Bel Haj Mohamed, A. (2024)</t>
+  </si>
+  <si>
+    <t>The entrepreneurial support and the performance of new venture creation: the mediation effect of the acquisition of skills and the learning of novice entrepreneurs.</t>
+  </si>
+  <si>
+    <t>10.1080/23311886.2024.2330142</t>
+  </si>
+  <si>
+    <t>HK23</t>
+  </si>
+  <si>
+    <t>Mumtaz, U. and Faisal, M. (2024)</t>
+  </si>
+  <si>
+    <t>Mapping the landscape: a comprehensive bibliometric analysis of literature on entrepreneurship in tourism (2013–2023).</t>
+  </si>
+  <si>
+    <t>Journal of Global Entrepreneurship Research</t>
+  </si>
+  <si>
+    <t>HK24</t>
+  </si>
+  <si>
+    <t>Nichols, N. and Hayes Tang, H.h. (2022)</t>
+  </si>
+  <si>
+    <t>Navigating managerial and entrepreneurial reforms in research-intensive universities: A comparison of early career trajectories in Hong Kong and Canada.</t>
+  </si>
+  <si>
+    <t>Higher Education Quarterly</t>
+  </si>
+  <si>
+    <t>10.1111/hequ.12297</t>
+  </si>
+  <si>
+    <t>HK25</t>
+  </si>
+  <si>
+    <t>Siu, W.-s. and Lo, E.S.-c. (2013)</t>
+  </si>
+  <si>
+    <t>Cultural contingency in the cognitive model of entrepreneurial intention.</t>
+  </si>
+  <si>
+    <t>10.1111/j.1540-6520.2011.00462.x</t>
+  </si>
+  <si>
+    <t>HK26</t>
+  </si>
+  <si>
+    <t>Sun, H., Lo, C.T., Liang, B., and Wong, Y.L.B. (2017)</t>
+  </si>
+  <si>
+    <t>The impact of entrepreneurial education on entrepreneurial intention of engineering students in Hong Kong.</t>
+  </si>
+  <si>
+    <t>Management Decision</t>
+  </si>
+  <si>
+    <t>10.1108/MD-06-2016-0392</t>
+  </si>
+  <si>
+    <t>HK27</t>
+  </si>
+  <si>
+    <t>Uctu, R. and Jafta, R.C.C. (2012)</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship in South East Asia: an exploratory study of spin-offs in biotechnology from Hong Kong universities.</t>
+  </si>
+  <si>
+    <t>Asian Journal of Technology Innovation</t>
+  </si>
+  <si>
+    <t>10.1080/19761597.2012.681439</t>
+  </si>
+  <si>
+    <t>HK28</t>
+  </si>
+  <si>
+    <t>Wardana, L.W., Martha, J.A., Wati, A.P., Narmaditya, B.S., Setyawati, A., Maula, F.I., Mahendra, A.M., and Suparno, S. (2024)</t>
+  </si>
+  <si>
+    <t>Does entrepreneurial self-efficacy really matter for entrepreneurial intention? Lesson from covid-19.</t>
+  </si>
+  <si>
+    <t>Cogent Education</t>
+  </si>
+  <si>
+    <t>10.1080/2331186X.2024.2317231</t>
+  </si>
+  <si>
+    <t>HK29</t>
+  </si>
+  <si>
+    <t>Wong, H.Y.H. and Chan, C.K.Y. (2023)</t>
+  </si>
+  <si>
+    <t>Assessment &amp; Evaluation in Higher Education</t>
+  </si>
+  <si>
+    <t>10.1080/02602938.2022.2137103</t>
+  </si>
+  <si>
+    <t>HK30</t>
+  </si>
+  <si>
+    <t>Zhang, F., Wei, L., Sun, H., and Tung, L.C. (2019)</t>
+  </si>
+  <si>
+    <t>Chinese Management Studies</t>
+  </si>
+  <si>
+    <t>HK31</t>
+  </si>
+  <si>
+    <t>Zhuang, J., Xiong, R., and Sun, H. (2022)</t>
+  </si>
+  <si>
+    <t>Impact of personality traits on start-up preparation of Hong Kong youths.</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.994814</t>
+  </si>
+  <si>
+    <t>HK32</t>
+  </si>
+  <si>
+    <t>Zhuo, Z. (2022)</t>
+  </si>
+  <si>
+    <t>Improving Students’ Satisfaction with the Quality of Innovation and Entrepreneurship Education in Colleges and Universities in the Guangdong-Hong Kong-Macao Greater Bay Area.</t>
+  </si>
+  <si>
+    <t>Chinese Education and Society</t>
+  </si>
+  <si>
+    <t>10.1080/10611932.2022.2136461</t>
+  </si>
+  <si>
+    <t>Technology ventures’ engagement of external actors in the search for viable market applications: On the relevance of Technology Broadcasting and Systematic Validation.</t>
+  </si>
+  <si>
+    <t>Scientific yield from collaboration with industry: The relevance of researchers’ strategic approaches.</t>
+  </si>
+  <si>
+    <t>Institutional logics and founders’ identity orientation: Why academic entrepreneurs aspire lower venture growth.</t>
+  </si>
+  <si>
+    <t>The interconnections of academic research and universities’ “third mission”: Evidence from the UK.</t>
+  </si>
+  <si>
+    <t>The impact of family support on young entrepreneurs’ start-up activities.</t>
+  </si>
+  <si>
+    <t>Does institutional change in universities influence high-tech entrepreneurship? Evidence from China’s project 985.</t>
+  </si>
+  <si>
+    <t>“Meet me at the backdoor”: A multiple case study of academic entrepreneurs bypassing their technology transfer offices.</t>
+  </si>
+  <si>
+    <t>Does learning from prior collaboration help firms to overcome the ‘two worlds’ paradox in university-business collaboration?</t>
+  </si>
+  <si>
+    <t>Unraveling the “passion orchestra” in academia.</t>
+  </si>
+  <si>
+    <t>Big splash, no waves? Cognitive mechanisms driving incumbent firms’ responses to low-price market entry strategies.</t>
+  </si>
+  <si>
+    <t>It’s about time: The timing of entrepreneurial experience and the career dynamics of university graduates.</t>
+  </si>
+  <si>
+    <t>Unpacking entrepreneurial education: Learning activities, students’ gender, and attitude toward entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Academic Entrepreneurship: Entrepreneurial Advisors and Their Advisees’ Outcomes.</t>
+  </si>
+  <si>
+    <t>Angel funding and entrepreneurs’ well-being: The mediating role of autonomy, competence, and relatedness.</t>
+  </si>
+  <si>
+    <t>Specialists, Generalists, or Both? Founders’ Multidimensional Breadth of Experience and Entrepreneurial Ventures’ Fundraising at IPO.</t>
+  </si>
+  <si>
+    <t>Anatomy of use-inspired researchers: From Pasteur’s Quadrant to Pasteur’s Cube model.</t>
+  </si>
+  <si>
+    <t>“Bouncing Back” From a Loss: Entrepreneurial Orientation, Emotions, and Failure Narratives.</t>
+  </si>
+  <si>
+    <t>University Students’ Entrepreneurial Intentions: A Comparative Analysis of Hong Kong and Guangzhou.</t>
+  </si>
+  <si>
+    <t>Determinants of students’ entrepreneurial intention - a comparative study in Poland and Hong Kong.</t>
+  </si>
+  <si>
+    <t>Opportunities and challenges of graduate entrepreneurship in China’s Greater Bay Area: cases in Hong Kong and Shenzhen.</t>
+  </si>
+  <si>
+    <t>Assessing engineering students’ perspectives of entrepreneurship education within higher education: a comparative study in Hong Kong.</t>
+  </si>
+  <si>
+    <t>How entrepreneurial learning impacts one’s intention towards entrepreneurship.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1546,6 +2866,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1568,7 +2907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1576,6 +2915,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1909,11 +3256,4617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
+  <dimension ref="A1:L131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:L131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="7" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="46.5" customWidth="1"/>
+    <col min="10" max="12" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>553</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>566</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>568</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>570</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>572</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>575</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>582</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>585</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>590</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>599</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>602</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>606</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>608</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>616</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>617</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>620</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>622</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>624</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>627</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>629</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>632</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>635</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>637</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>639</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>641</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>644</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>647</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>650</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>653</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>656</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>659</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>661</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>663</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D66" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>666</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>669</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>672</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>674</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>676</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E71" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>678</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>681</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>683</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>686</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>688</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>691</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>694</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>697</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>699</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>703</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>706</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>708</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>711</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>713</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>715</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>718</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>721</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>725</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>728</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>731</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>733</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>736</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>738</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>740</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>743</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>746</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>749</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>752</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>759</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>764</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>770</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="I104" s="6"/>
+      <c r="J104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>778</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>783</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>787</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>793</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>798</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>803</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>808</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>813</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>818</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>823</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>828</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>833</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>838</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>843</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>848</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>853</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>858</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>862</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>866</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>871</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>875</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>880</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>885</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>890</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>894</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>897</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>901</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L131" xr:uid="{EDBF95E6-9381-5E49-B225-2FA3E11314B2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L131">
+      <sortCondition ref="A1:A131"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFE1E4-B25F-E543-A5EA-7D67B864D958}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2271,7 +8224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="221" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="204" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB68E717-BFE9-3E43-ABC0-373182A0FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E59D4-03D2-3644-BCBE-DD479573CAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4460" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="4320" yWindow="6100" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
     <sheet name="x" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$L$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$N$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">x!$A$1:$J$99</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Consolidated!$A$2</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="1250">
   <si>
     <t>#</t>
   </si>
@@ -2848,6 +2848,985 @@
   </si>
   <si>
     <t>How entrepreneurial learning impacts one’s intention towards entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Institutional research output, Ranking, International business, Asia-Pacific, Leading journals</t>
+  </si>
+  <si>
+    <t>This study measures and ranks the performance of countries and academic institutions based on a 40-year analysis of publications appearing in 14 leading business and management journals. The focus is on the evolution of Asia-Pacific institutions in international business research output during this period. In addition, an examination is performed to identify factors associated with Asia-Pacific institutions that have achieved the highest rankings. This research shows that the Journal of International Business Studies and the Journal of World Business were central in spreading international business research, as well as in supporting research by authors from the Asia-Pacific region. Further, schools such as Harvard, Wharton, and Univer- sity of South Carolina have maintained the highest ranks in research output throughout the 40-year period, but recent years have witnessed the emergence of the Chinese University of Hong Kong and University of Hong Kong, among others, in those top ranks.</t>
+  </si>
+  <si>
+    <t>China, entrepreneurial intention, Hong Kong, personal networks, personal traits</t>
+  </si>
+  <si>
+    <t>Based on original survey data, this paper analyses and compares the role of personal traits and networks in determining entrepreneurial intentions of students in Hong Kong and in Guangzhou. The two cities are culturally closely related but differ strongly with respect to their labor market conditions and the maturity of their legal and business environments. We fi nd that the determinants of students’ entrepreneurial intentions differ substantially between Hong Kong and Guangzhou, with the findings for Hong Kong showing much similarity with previous fi ndings for Western economies. This suggests that differences in labor market prospects and in the maturity of their legal and business environments might be more important than cultural (dis-)similarities in identifying key factors forming students’ entrepreneurial intentions.</t>
+  </si>
+  <si>
+    <t>A distinct feature of the civil engineering undergraduate study of Hong Kong Polytechnic University is a major assessment exercise in the form of a problem-based learning (PBL) group project. With the imminent implementation of an outcome-based accreditation assessment by the Hong Kong Institution of Engineers, student performance on this project can become a significant indicator of learning outcomes. This final year group project can be viewed as the culminating learning experience of the engineering program and the quality of student output can be used as an indicator of the quality of the program as a whole. In this paper, the approach and attitude to the layout, management and assessment of this engineering project are presented. The experience gained in the operation of the project is shared. The evaluation by its key stakeholders, which are students, preceptors and employers, is also highlighted. The results authenticated that this PBL approach could accomplish innovation and entrepreneurship of civil engineering undergraduates.</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2022.4407</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, university students, entrepreneurship, entrepreneurial intention, gender role</t>
+  </si>
+  <si>
+    <t>Research on entrepreneurial intention has gained notable ground in the field of entrepreneurship, especially among university students, who represent the potential to become future entrepreneurs. In recent years, a special approach has emerged that has captured the attention of re-searchers: the comparison of entrepreneurial intentions between men and women, highlighting the existing entrepreneurial gap. This study was carried out with the objective of analyzing the factors that determine the entrepreneurial intention of entrepreneurial students, both female and male, from a comparative perspective in Peru. To achieve this, a quantitative analysis was carried out based on the Partial Least Squares Structural Equation Model (PLS-SEM), which integrated the Theory of Planned Behavior (TPB) and the Business Event Model (See) with a survey of 1006 students. university students. The results revealed that men have a higher entrepreneurial intention compared to women, being more influenced by factors such as current behavior control, personal attitude, and social support. On the other hand, women showed a greater influence of factors related to control and personal attitude towards entrepreneurship.</t>
+  </si>
+  <si>
+    <t>University-based entrepreneurship education, Entrepreneurial passion, Entrepreneurial competencies, Entrepreneurial intention, Multilevel mediation model</t>
+  </si>
+  <si>
+    <t>The identification of the effects of university-based entrepreneurship education has attracted increasing interest in both academic and practical communities. On the basis of integrating passion- and competency-based perspectives, this study attempted to offer a sound understanding of how university-based entrepreneurship education influences the entrepreneurial intention of university students. Based on a dataset of 1050 university students from 50 universities in the Guangdong-Hong Kong-Macao Greater Bay Area in China, a hierarchical linear modeling analysis was performed, and the results support our hypotheses. Our research provides the first empirical evidence illustrating how, in the organizational context, university-based entrepreneurship education facilitates the shaping of future entrepreneurs from dual perspectives. The implications of our findings were discussed.</t>
+  </si>
+  <si>
+    <t>entrepreneurship education, opportunity recognition, entrepreneurial learning, entrepreneurial intention, multilevel-moderated mediation model</t>
+  </si>
+  <si>
+    <t>Highlighting the implications of entrepreneurship education, this study examines the effects of entrepreneurship education in predicting the entrepreneurial intention of university students. The study also explores the mediating role of opportunity recognition and the moderating role of entrepreneurial learning in this process. To test our multilevel-moderated mediation model, based on a dataset containing 1,150 university students from 55 universities in the Guangdong-Hong Kong-Macao Greater Bay Area of China, hierarchical linear modeling is utilized to test the research hypotheses. The findings reveal that entrepreneurship education can promote the entrepreneurial intention of students through opportunity recognition. Furthermore, entrepreneurial learning plays a moderating role in the link between entrepreneurship education and opportunity recognition. Implications for the design and delivery of entrepreneurship education are discussed.</t>
+  </si>
+  <si>
+    <t>This empirical study adds to the literature by investigating the influences of the personality traits, creativity, and social capital of Taiwan and Hong Kong university students on social entrepreneurial intentions. A total of 301 valid survey responses from Taiwan and 147 from Hong Kong were collected. The results indicated that original creativity and bonding social capital positively affected social entrepreneurial conviction in both groups of students. Conscientiousness negatively affected and original creativity positively affected social entrepreneurial preparation in Taiwanese students, whereas openness negatively affected and original creativity positively affected social entrepreneurial preparation in students from Hong Kong.</t>
+  </si>
+  <si>
+    <t>Creativity; entrepreneurial intention, Hong Kong, personality; social capital, social entrepreneurship, Taiwan</t>
+  </si>
+  <si>
+    <t>Despite increasing investment in Innovation and Entrepreneurship (IE) education, universities do not necessarily see higher levels of entrepreneurial activities among graduates. We aimed to deepen our understanding of IE education by examining the relationships among pre-educational creative self-concept (CSC), entrepreneurial mindset (EM), creative behaviour (CB), and entrepreneurial intention (EI) for students who transferred from community colleges to universities. 463 students in a university in Hong Kong responded to a pre-course questionnaire. Path analyses revealed that those who exhibited higher CSC and more positive EM also tended to engage in more creative activities (i.e., CB). This helped them to develop better EI. Furthermore, CSC and EM reinforced each other in promoting EI. Our results demonstrate that promoting entrepreneurship requires the development of corresponding belief and attitude, but only through their manifestations in creative endeavours, including problem-solving exercises that can be administered more quickly and cost effectively than conventional entrepreneurial activities.</t>
+  </si>
+  <si>
+    <t>Creative behaviour, creative self-concept, entrepreneurial mindset, entrepreneurship education, entrepreneurship intention, higher education</t>
+  </si>
+  <si>
+    <t>Attention toward social entrepreneurship has increased worldwide, particularly within younger generations. Based on the identified model of social entrepreneurial intentions, this study proposed a multiple mediation framework to examine the mediating role of entrepreneurial creativity for university students. It also compared the differences between Taiwanese (N = 311) and Hong Kong students (N = 311). Through a survey using both online and offline channels, the results of Study 1 confirmed the factor structures of the 3 scales, involving 5 antecedents of social entrepreneurial intention (i.e., empathy, moral obligation, self-efficacy, perceived social support, and prior experience with social problems), 2 factors of entrepreneurial creativity (i.e., originality and usefulness), and 2 factors of social entrepre- neurial intention (i.e. conviction and preparation). The results of Study 2 supported the proposed multiple mediation model across regions. Prior experience with social problems, perceived social support, and originality were identified as the 3 most influential factors affecting the social entrepreneurial intentions of university students. The major differences between Taiwan and Hong Kong involved prior experience, empathy, self-efficacy, perceived social support, and usefulness.</t>
+  </si>
+  <si>
+    <t>This study attempted to explore the impacts of attitudinal antecedents on stu- dents’ entrepreneurial intention. Comparisons between students of engineering and non- engineering backgrounds and gender groups were made. Total of 998 students from uni- versities in Hong Kong were surveyed, leading to a number of highlights in the study. First, it is found that the learning motivation strongly correlates with innovativeness, which in return affects the entrepreneurship intention. Second, the educational measures designed for senior year students would be slightly different from those for junior year students, whilst the junior year students may need more facilitation to motivate their learning. Thirdly, the ‘innovativeness’ of engineering students is found significantly and strongly correlated to ‘self-efficacy’ and significantly to ‘attitude’. The ‘attitude’ of engineering students is found more significantly contributing to their ‘entrepreneurial intention’. The interesting results show that for engineering students, though perceiving higher levels of innovativeness, ‘attitudes’ and ‘entrepreneurial intention’, the critical attributes in deter- mining ‘entrepreneurial intention’ are ‘attitudes’ and ‘self-efficacy’. Fourthly, attitudes seem a lot more influencing to the entrepreneurial intention among female students, whilst ‘innovation’ is the a lot more influencing among male students. There are some limitations in this study, such as the sample size and survey design. In order to secure a high level of content validity, some items of the constructs are excluded possibly due to the sample size and the uneven numbers of the different sample groups. Future study is recommended to include students from different countries in order to have more representative results, and the research model could be further extended to explore the effects of other demographic parameters.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial intention, Engineering education, Engineering students, Innovativeness, Attitude</t>
+  </si>
+  <si>
+    <t>This study investigates the entrepreneurial intentions in association with innovativeness and attitudes, between two groups of university students from Poland and Hong Kong. The present study was conducted among 1,000 students from universities in Hong Kong and 552 students from Poland. Four behavioural variables (entrepreneurial intention, attitude toward entrepreneurship, efficacy) were measured. First, attitudes, innovativeness and self-efficacy affect entrepreneurial intention. Second, significant differences between student groups from different cultural backgrounds are found. Thirdly, engineering and science students from Hong Kong manifest stronger entrepreneurial intentions than those from business courses whereas opposite results were obtained concerning Polish students. Fourthly, students from business courses exhibit slightly stronger entrepreneurial intentions than those from engineering and science. Our study shows clearly that the difference between the two countries entrepreneurial intention is not merely affected by cultural background, but also by discipline.</t>
+  </si>
+  <si>
+    <t>entrepreneurship education, university students, entrepreneurial intention, Poland, Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running a social enterprise (SE) is more diﬃcult than running a small or medium-sized enterprise because SEs have to achieve both economic sustain- ability as business enterprises and their social mission for the benefit of society. After a few years of operation, many SEs fail or struggle for survival. In this study, we examine some of the factors that aﬀect an SE’s profitability, financial management, and business planning and management. Based on in-depth inter- views with 22 social enterprises in Hong Kong, we find that SEs with the dual investment objectives of social mission and financial return are more sustainable and competitive than SEs with social impact as their sole objective. Further- more, SEs managed by non-owner managers have better financial planning and performance than those managed by owner managers. In addition, SEs with an oversight/advisory committee are more competitive and have better manage- ment practices than those without such a committee. Our findings have policy implications for government, SEs, funding bodies, and non-profit organizations to enhance and promote the development of the social enterprise sector. </t>
+  </si>
+  <si>
+    <t>Social enterprises, Corporate governance, Sustainability, Social mission, Advisory committee, Social enterprise performance</t>
+  </si>
+  <si>
+    <t>Promoting green socioentrepreneurship is crucial for sustainable economic development in the Asia-Pacific region, particularly in highly urbanised areas such as Taiwan and Hong Kong. However, little research has focused on this topic. Therefore, we conducted two studies to analyse how personality traits, entrepreneurial creativity, and social capital affect green socioentrepreneurial intentions among university students in Taiwan and Hong Kong. The results of Study 1 confirmed the factor structures of the four scales used in this study. The results of Study 2 revealed that though the effects of predictor variables on the outcome variable were varied, the mediation models of entrepreneurial creativity across contexts were partially supported. The major differences between Taiwan and Hong Kong lay in the effects resulting from usefulness, openness, agreeableness, conscientiousness, and bonding social capital.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial creativity, personality traits, social capital, social entrepreneurial intentions, social enterprises</t>
+  </si>
+  <si>
+    <t>Based on the theory of planned behavior, this study considers entrepreneurial traits and divides the entrepreneurial environment into policy environment, economic environment, and educational and cultural environment. Using SPSS 23.0 and Amos 24.0 softwares, a structural equation model of entrepreneurial intentions for university students originating from Hong Kong and Macao is constructed. A questionnaire survey method is used to collect data from 689 Hong Kong and Macao students in Chinese mainland universities to explore the factors influencing their entrepreneurial intentions and the ranges of their entrepreneurial intentions based on demographic variables. The results show that entrepreneurial attitude, subjective norms, perceived behavioral control, entrepreneurial traits, and entrepreneurial environment have a significant positive impact on the entrepreneurial intentions of Hong Kong and Macao students in the mainland universities. Male students have a higher level of entrepreneurial intentions than female students. Hong Kong students are more likely to have entrepreneurial intentions than Macao students, and students in Guangdong-Hong Kong-Macao Greater Bay Area (briefly, Greater Bay Area) universities are more likely to have such intentions than those from non-Greater Bay Area universities. Students majoring in science, engineering and medicine show a lower likelihood of intension than those majoring in humanities and social sciences. To comprehensively improve the entrepreneurial intentions of Hong Kong and Macao students and enable them to better shoulder their responsibilities in sharing the development dividends of the Greater Bay Area, it is necessary to start from the entrepreneurial environment and from the perspective of cultivating innovative talents. A support framework that integrates a training system, an ecological system, and a resource system is proposed to support students from Hong Kong and Macao in entrepreneurial development in the mainland.</t>
+  </si>
+  <si>
+    <t>entrepreneurial intention, students originating from Hong Kong and Macao, innovative talents, Guangdong-Hong Kong-Macao Greater Bay Area</t>
+  </si>
+  <si>
+    <t>This study tested the model proposed by Hockerts, who revised the framework proposed by Mair and Noboa by retaining empathy, self-efficacy, and perceived social support and by adding moral obligation and prior experience of social problems as precursors of social entrepreneurial intentions. This model was further perfected by including personality traits as precursors and entrepreneurial creativity as a mediator. A total of 1,930 participants were included in the five subsequent survey studies. The results revealed that personality traits and prior experience predicted social entrepreneurial intentions through the mediation of entrepreneurial creativity and the four precursors identified earlier. This mediating model responded differently across academic fields, socioeconomic contexts, and work experiences mainly because of prior experience, empathy, and usefulness. Future research could investi- gate how the alternative model including personality traits, social responsibility, and the nature of different social problems is associated with social entrepreneurial intentions.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial creativity, personality traits, precursors, social entrepreneurial intention</t>
+  </si>
+  <si>
+    <t>After the pandemic, education will not go back to a 100% offline mode since the application of e-learning technologies (ELTs) cannot be avoided. Therefore, their impact should be studied for future education development. Most future entrepreneurs are attending school today. Therefore, universities need to supply necessary education to encourage students to cope with future conditions and development. At the same time, due to the increasing attention being paid to the harmony between ecology and prosperity, the sustainability aspect of entrepreneurship education needs to be emphasized as well. This study investigates the impact of ELTs on entrepreneurial education performance (including personal skills, product skills, and business skills), sustainability efficacy, and their impact on sustainability awareness. Data were collected from a master’s degree class on entrepreneurship at a Hong Kong university and SmartPLS was used to analyze the data. It was found that ELTs have a significant relationship with entrepreneurial performance and sustainability efficacy. Meanwhile, sustainability efficacy also has a significant relationship with sustainability awareness. However, no significant relationship between entrepreneurial skills and sustainability awareness was identified. The results indicate that ELTs can improve students’ entrepreneurial skills and sustainability awareness, which proves the effectiveness of ELTs and provides support for their application in future entrepreneurship education.</t>
+  </si>
+  <si>
+    <t>e-learning technologies (ELTs), entrepreneurship education, sustainable efficacy, sustainability awareness</t>
+  </si>
+  <si>
+    <t>Facilities Management (FM), Outsourcing Services, Outsourcing Strategies, Sustainable Outsourcing, Educational Facilities</t>
+  </si>
+  <si>
+    <t>Purpose
+Strategic-level support is crucial for the smooth adoption of a sustainable facilities management (FM) supply chain. Many firms, regardless of industry, aim for outsourcing success. However, poor performance from outsourced service providers remains a challenge. This study explores the concept of outsourcing relationships in FM and investigates the design of sustainable outsourcing strategies by analysing five theoretical perspectives: Transaction Cost Economics, Agency Cost Theory, Resource Dependency Theory, Entrepreneurial Action Theory, and Social Exchange Theory.
+Design/Methodology/Approach
+This study utilises a quantitative approach based on two questionnaire surveys. Data were collected from 38 clients and 34 service providers to evaluate FM outsourcing strategies within educational facilities in Hong Kong. The research examines the effectiveness of outsourcing relationships and sustainability factors in FM service delivery.
+Findings
+The study highlights the impact of FM outsourcing strategies on four commonly outsourced service areas in Hong Kong: building maintenance, security, cleaning, and catering. Insights from both clients and service providers reveal that a well-structured outsourcing model can improve performance, enhance sustainability, and contribute to economic, social, and environmental objectives. The design influencing outsourcing strategies in the four FM contracts relates to the key procedures and business rules concerning the process maturity of agency cost theory from both clients and service providers.
+Originality
+This paper provides a novel discussion on sustainable outsourcing strategies in FM outsourcing services through a quantitative approach. By integrating multiple theoretical perspectives, the study offers valuable insights into optimising outsourcing relationships to promote sustainability and long-term success in FM operations. The research limitations include size of questionnaire survey, only four main FM outsourcing services, non-financial aspects of the FM outsourcing contracts and single higher tertiary education industry.</t>
+  </si>
+  <si>
+    <t>Several investigations have evaluated the research trajectory concerning entrepreneurship; nonetheless, only a few studies have examined the literature trajectory regarding entrepreneurship in tourism. Therefore, this research explores papers spanning from 2013 to 2023, mapping thematic, intellectual, and conceptual frameworks using bibliometric techniques. The research delves into scientific output, prolific authors, influential articles, co-occurrence of keywords, co-citations, and many others. The keywords “tourism” OR “travel &amp; tourism” AND “entrepreneurship” OR “entrepreneur” were strategically employed to encompass 514 articles and review papers published in English between 2013 and 2023. VOSviewer was used as a technique for doing topic grouping alongside performance analysis. With 85 articles, 2023 is the most productive year. The most influential institution is “The Hong Kong Polytechnic University” and the nation is the United Kingdom correspondingly. Likewise, the most renowned journal is “Tourism management,” and the most productive journal is “journal of sustainable tourism”. Furthermore, the most cited article is “Scale, change and resilience in community tourism planning.” This research provides researchers with insights into the existing state of research on entrepreneurship in tourism and offers guidance for future research. This study is the inaugural endeavor to present both performance evaluations and scientific clusters of the literature on entrepreneurship in tourism.</t>
+  </si>
+  <si>
+    <t>This study examines the impact of individualism–collectivism orientation on the cognitive model of entrepreneurial intention in a collectivist environment (i.e., China). Using a sample of 204 MBA students from China and Hong Kong, we investigate the moderating effect of self-construal on the relationship between perceptual factors and entrepreneurial intention. The results show that the strength of perceived social norms in predicting entrepreneurial intention depends on interdependent self-construal. The resulting nonsignificance of per- sonal attitude contradicts findings reported in individualist contexts. This study develops a sound theory to explain the cultural contingency in the cognitive model of entrepreneurial intention.</t>
+  </si>
+  <si>
+    <t>Purpose – Theory of planned behavior (TPB) has been used to study the impact of entrepreneurial education (EE) on entrepreneurial intention (EI) for more than 20 years, yet an intensive literature review reveals that there are gaps in both the conceptual models and the research methods. The purpose of this paper is to investigate the impact of EE on EI with a view to address the gaps in previous research.
+Design/methodology/approach – This research proposes a conceptual model that links the entire antecedent variables of TPB and the elaborated four components of entrepreneurship education (Why, What, How, and Who). The model is tested by a structural equation modeling with the empirical data from 200 engineering students from three universities in Hong Kong.
+Findings – The empirical test reveals that the four components of entrepreneurial education do influence attitude, social norm, self-efficacy, and EI, correspondingly. Additionally, it also reveals that the four EE components and the three TPB antecedent variables are also interrelated with each other.
+Originality/value – This study bridges specific education components and EI, providing significant insight into how the key components influence the entrepreneurial attitudes and intentions of students. It fills the gap in the knowledge required for fostering EI through entrepreneurship education. It not only answers the question on whether EE influences EI but also on how to nurture the intention by designing a relevant EE course.</t>
+  </si>
+  <si>
+    <t>Education components, Entrepreneurial intention (EI), Entrepreneurship education (EE), Theory of planned behaviour (TPB)</t>
+  </si>
+  <si>
+    <t>University research with associated spin-offs is at the heart of knowledge generation in the biotechnology industry. However, only a few studies have so far dealt with biotechnology university spin-offs in Hong Kong (HK), a latecomer in this industry. The purpose of this research is to gather information about the history and innovative status of biotechnology university spin-off companies in HK in order to understand the dynamics of this phenomenon better. This study arrived at several important conclusions about biotechnology spin-off firms in Hong Kong; specifically that the firms are relatively small in size and young, were mostly formed by university staff, and created with joint effort. In addition, these firms developed commercial products and services, are aware of intellectual property protection, are motivated to create spin-offs in order to apply knowledge to practical applications and utilize market opportunities. However, the firms also face challenges, such as difficulties in accurately estimating the market demand for their products, and technical problems in the development and production of their products. Furthermore, difficulties with financing are also an important inhibitor to success.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, spin-offs, university spin-offs, biotechnology industry, Hong Kong</t>
+  </si>
+  <si>
+    <t>Entrepreneurship has emerged a prominent of concern during Covid-19 pandemic, making essential contribution toward unemployment as a result of the pandemic. The purpose of this research is to look at the entrepreneurial intentions of students in Indonesia’s East Java Province. The research focuses on how students’ entrepreneurial intentions are influenced by their perception of their own abilities as entrepreneurs, as well as subjective criteria, role models, and success needs. To further understand the connections between these variables, this quantitative study used the Structural Equation Modeling (SEM) equation model based on Partial Least Square (PLS) variance. The research involved 340 East Java economics students who were polled. The findings indicate that subjective norms, role models, and needs for achievement affect students’ entrepreneurial intention. Additionally, the relationship between subjective norms, role models, achievement demands, and entrepreneurship intention is mediated by entrepreneurial self-efficacy. These results provide recommendations for Indonesian institutions and governments to improve their entrepreneurial education approach, emphasizing practice over theory. This research contributes to the scientific knowledge about students’ entrepreneurial intentions.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial self-efficacy, subjective norms, role model, needs for achievement, entrepreneurial intention</t>
+  </si>
+  <si>
+    <t>With the increasing interest in entrepreneurship education within engineering education, there are questions on what engineering entrepre- neurship education should include. As engineering entrepreneurship education aims to foster entrepreneurial individuals who will contribute to knowledge-based societies and economic growth, student perspectives are crucial. This study assessed first and final year engineering students’ perceptions on entrepreneurship education in a university in Hong Kong, identifying important competencies as learning outcomes and motivating and deterring factors for students to pursue entrepreneurship as a career. Findings offer implications for curriculum design and educational practices, particularly on formally offering entrepreneurship education in the engineering discipline, involving competencies development in educational practices and developing opportunities addressing students’ factors of motivation and deterrence.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship education, entrepreneurial competencies, higher education, learning outcomes</t>
+  </si>
+  <si>
+    <t>Purpose– Although entrepreneurial learning is widely believed as an important factor in shaping one’s entrepreneurial intention, research nds little consistent results on the direct effect of entrepreneurial learning on one’s entrepreneurial intention. To solve the con icted effects of entrepreneurial learning, the purpose of this paper is to explore how entrepreneurial learning may impact individual entrepreneurial intention.
+Design/methodology/approach– Drawing on the theory of planned behavior (TPB), the authors proposed and tested on a three mediating effect model, in which entrepreneurial learning is associated with entrepreneurial intention through attitude, subjective norm and perceived behavioral control toward entrepreneurship. Moreover, the moderating role of prior exposure to entrepreneurship was proposed and tested. Based on a sample of 200 university students who have taken entrepreneurial courses in Hong Kong, the hierarchical regressions and moderated mediation tests were used to test the hypotheses.
+Findings– The authors nd that the positive relationship between entrepreneurial learning and entrepreneurial intention is signi cantly mediated by attitude, subjective norm and perceived behavioral control toward entrepreneurship; and the mediating effects of entrepreneurial learning on entrepreneurial intention via attitudes and perceived behavioral control respectively, is moderated by exposure to entrepreneurship.
+Originality/value– Contributing to the literature of entrepreneurship education, this study identi es individuals who exposed to the same entrepreneurship education may perform differently in entrepreneurial learning. The ndings also help us to better understand the mechanism through which and under which context one’s entrepreneurial learning may enhance his/her entrepreneurial intention.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial intention, Entrepreneurial learning, A planned behaviour approach, Prior exposure to entrepreneurship</t>
+  </si>
+  <si>
+    <t>Entrepreneurship is a tool for driving economic and social progress. Especially in Hong Kong, the government has recently taken steps to encourage young people to engage in entrepreneurship. However, Hong Kong youths’ entrepreneurial intentions are still low. The objective of this study is to empirically explore the impacts of personality traits on start-up preparation among Hong Kong youths through the constructs of the theory of planned behavior (TPB). Through a multi-channel survey, we finally collected 230 valid respondents aged 18 to 40. In addition, this study used SmartPLS software to conduct confirmatory factor analysis for the measurement model as well as path analysis for the structural model. This study’s results suggested that creativity, risk-taking propensity, need for achievement, and internal locus of control influence TPB models’ components and indirectly influence start-up preparation through TPB models’ components. Also, attitude and perceived behavioral control influence intention, and intention influences preparation. Furthermore, prior entrepreneurial experience and entrepreneurship education positively influence preparation. In conclusion, this study revealed the mediating effects of TPB components between four personality traits and start-up preparation. Finally, this study had theoretical implications by providing the influence of six personality traits on youths’ entrepreneurial intention and preparation through the TPB model and the human capital theory. This study also had practical implications by providing suggestions for the government and higher education institutions.</t>
+  </si>
+  <si>
+    <t>entrepreneurial intention, human capital theory, start-up preparation, social networking, personality traits, theory of planned behavior</t>
+  </si>
+  <si>
+    <t>Innovative and entrepreneurial talents are central to building an international innovation technology hub in the Guangdong-Hong Kong-Macao Greater Bay Area and higher education plays the main role in cultivating such talents. In a random sampling, a total of 5,021 valid questionnaires were obtained from 58 colleges and universities in the Guangdong-Hong Kong-Macao Greater Bay Area, including the“9 þ 2” cities. The results show that the total satisfaction score of students’ evaluation of innovation and entrepreneurship education in colleges and universities was 3.43, which is in the upper-middle level. Specifically, the implementation and popularization of innovation and entrepreneurship education in colleges and universities is satisfactory, and the corresponding curriculum system can be adjusted in accordance with the strategic development trends of the Greater Bay Area. However, there are some problems to be solved. First, it is still difficult to integrate effectively the regional innovative and entrepreneurial resources in the process of innovation and entrepreneurship education. Second, innovation and entrepreneurship education emphasizes theory using a single teaching method, and there is insufficient integration with professional education. In addition, there is a shortage of innovation and entrepreneurship platforms for practice, and the cooperation mechanisms between colleges and universities, society, and government need to be improved. Last, there is a serious shortage of teachers. In order to promote the development of innovation and entrepreneurship edu- cation, colleges and universities must establish a hierarchical system based on their own conditions, taking advantage of the innovative and entrepreneurial resources and industrial characteristics of the core cities in the Guangdong-Hong Kong-Macao Greater Bay Area. Moreover, it’s necessary to develop excellent courses integrating professional education with innovation and entrepreneurship education, and improve the mechanisms of appointment and performance evaluation of instructors, to establish a good model of teachers and students innovating together.</t>
+  </si>
+  <si>
+    <t>Guangdong-Hong Kong-Macao Greater Bay Area, international innovation and technology hub, the quality of innovation and entrepreneurship education</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2023.17590</t>
+  </si>
+  <si>
+    <t>10.1287/mksc.2019.0121</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2021.02099</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2022.01588</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.17235</t>
+  </si>
+  <si>
+    <t>10.1287/opre.2024.0766</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2022.00990</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2021.15661</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.1585</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2021.1493</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.1581</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijme.2023.100798</t>
+  </si>
+  <si>
+    <t>10.1007/s40497-024-00399-z</t>
+  </si>
+  <si>
+    <t>10.1108/CMS-06-2018-0556</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Abootorabi, H., Wiklund, J., Johnson, A. R., and Miller, C. D. (2021). _PDF_ A holistic approach to the evolution of an entrepreneurial ecosystem: An exploratory study of academic spin-offs. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2021.106143.</t>
+  </si>
+  <si>
+    <t>Adams, P., Fontana, R., and Malerba, F. (2016). _PDF_ User-industry spinouts: Downstream industry knowledge as a source of new firm entry and survival. _A_EM_ Organization Science_EM_, 27, 18-35. Doi: 10.1287/orsc.2015.1029.</t>
+  </si>
+  <si>
+    <t>Agarwal, R., Bacco, F., Camuffo, A., Coali, A., Gambardella, A., Msangi, H., Sonka, S., Temu, A., Waized, B., and Wormald, A. (2025). _PDF_ Does a Theory-of-Value Add Value? Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs. _A_EM_ Organization Science_EM_, 36, 601-625. Doi: 10.1287/orsc.2023.17590.</t>
+  </si>
+  <si>
+    <t>Amornsiripanitch, N., Gompers, P. A., Hu, G., and Vasudevan, K. (2023). _PDF_ Getting schooled: Universities and VC-backed immigrant entrepreneurs. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2023.104782.</t>
+  </si>
+  <si>
+    <t>Anckaert, P.-E., Cassiman, D., and Cassiman, B. (2020). _PDF_ Fostering practice-oriented and use-inspired science in biomedical research. _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2019.103900.</t>
+  </si>
+  <si>
+    <t>Anderson, S. J., Chintagunta, P. K., and Vilcassim, N. (2024). _PDF_ Virtual Collaboration Technology and International Business Coaching: Examining the Impact on Marketing Strategies and Sales. _A_EM_ Marketing Science_EM_, 43, 637-672. Doi: 10.1287/mksc.2019.0121.</t>
+  </si>
+  <si>
+    <t>Andrews, R. J., Fazio, C., Guzman, J., Liu, Y., and Stern, S. (2022). _PDF_ The Startup Cartography Project: Measuring and mapping entrepreneurial ecosystems. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2021.104437.</t>
+  </si>
+  <si>
+    <t>Andries, P., Clarysse, B., and Costa, S. (2021). _PDF_ Technology ventures’ engagement of external actors in the search for viable market applications: On the relevance of Technology Broadcasting and Systematic Validation. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2021.106145.</t>
+  </si>
+  <si>
+    <t>Audretsch, D. B. and  Belitski, M. (2026). _PDF_ Knowledge spillover of innovation: Entrepreneurial difference. _A_EM_ Research Policy_EM_, 55. Doi: 10.1016/j.respol.2025.105362.</t>
+  </si>
+  <si>
+    <t>Bacq, S. and  Alt, E. (2018). _PDF_ Feeling capable and valued: A prosocial perspective on the link between empathy and social entrepreneurial intentions. _A_EM_ Journal of Business Venturing_EM_, 33, 333-350. Doi: 10.1016/j.jbusvent.2018.01.004.</t>
+  </si>
+  <si>
+    <t>Belitski, M., Aginskaja, A., and Marozau, R. (2019). _PDF_ Commercializing university research in transition economies: Technology transfer offices or direct industrial funding? _A_EM_ Research Policy_EM_, 48, 601-615. Doi: 10.1016/j.respol.2018.10.011.</t>
+  </si>
+  <si>
+    <t>Bermiss, Y. S., Hallen, B. L., McDonald, R., and Pahnke, E. C. (2017). _PDF_ Entrepreneurial beacons: The Yale endowment, run-ups, and the growth of venture capital. _A_EM_ Strategic Management Journal_EM_, 38, 545-565. Doi: 10.1002/smj.2508.</t>
+  </si>
+  <si>
+    <t>Burnette, J. L., Pollack, J. M., Forsyth, R. B., Hoyt, C. L., Babij, A. D., Thomas, F. N., and Coy, A. E. (2020). _PDF_ A Growth Mindset Intervention: Enhancing Students’ Entrepreneurial Self-Efficacy and Career Development. _A_EM_ Entrepreneurship Theory and Practice_EM_, 44, 878-908. Doi: 10.1177/1042258719864293.</t>
+  </si>
+  <si>
+    <t>Burrage, A., Dasgupta, N., and Ganguli, I. (2025). _PDF_ Gender diversity in academic entrepreneurship: Social impact motives and the NSF I-corps program. _A_EM_ Research Policy_EM_, 54. Doi: 10.1016/j.respol.2024.105169.</t>
+  </si>
+  <si>
+    <t>Callaert, J., Landoni, P., Van Looy, B., and Verganti, R. (2015). _PDF_ Scientific yield from collaboration with industry: The relevance of researchers’ strategic approaches. _A_EM_ Research Policy_EM_, 44, 990-998. Doi: 10.1016/j.respol.2015.02.003.</t>
+  </si>
+  <si>
+    <t>Cen, X. (2024). _PDF_ Smartphone Trading Technology, Investor Behavior, and Mutual Fund Performance. _A_EM_ Management Science_EM_, 70, 6897-6916. Doi: 10.1287/mnsc.2021.02099.</t>
+  </si>
+  <si>
+    <t>Chattopadhyay, S., Honoré, F., and Won, S. (2025). _PDF_ Free range startups? Market scope, academic founders, and the role of general knowledge in AI. _A_EM_ Strategic Management Journal_EM_, 46, 1027-1079. Doi: 10.1002/smj.3685.</t>
+  </si>
+  <si>
+    <t>Chliova, M., Brinckmann, J., and Rosenbusch, N. (2015). _PDF_ Is microcredit a blessing for the poor? A meta-analysis examining development outcomes and contextual considerations. _A_EM_ Journal of Business Venturing_EM_, 30, 467-487. Doi: 10.1016/j.jbusvent.2014.10.003.</t>
+  </si>
+  <si>
+    <t>Civera, A., Lehmann, E. E., Paleari, S., and Stockinger, S. A. E. (2020). _PDF_ Higher education policy: Why hope for quality when rewarding quantity? _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2020.104083.</t>
+  </si>
+  <si>
+    <t>Civera, A., Lehmann, E. E., Paleari, S., and Stockinger, S. A. E. (2021). _PDF_ Corrigendum to “Higher Education Policy: Why hope for Quality when rewarding Quantity?” [Research Policy Volume 49, Issue 8(2020) /104083]. _A_EM_ Research Policy_EM_, 50, 104168. Doi: 10.1016/j.respol.2020.104168.</t>
+  </si>
+  <si>
+    <t>Clarysse, B., Andries, P., Boone, S., and Roelandt, J. (2023). _PDF_ Institutional logics and founders’ identity orientation: Why academic entrepreneurs aspire lower venture growth. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104713.</t>
+  </si>
+  <si>
+    <t>Coad, A., Kaiser, U., and Kuhn, J. (2021). _PDF_ Spin doctors vs the spawn of capitalism: Who founds university and corporate startups? _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104347.</t>
+  </si>
+  <si>
+    <t>Colombo, M. G., Meoli, M., and Vismara, S. (2019). _PDF_ Signaling in science-based IPOs: The combined effect of affiliation with prestigious universities, underwriters, and venture capitalists. _A_EM_ Journal of Business Venturing_EM_, 34, 141-177. Doi: 10.1016/j.jbusvent.2018.04.009.</t>
+  </si>
+  <si>
+    <t>D’Este, P., Llopis, O., Rentocchini, F., and Yegros, A. (2019). _PDF_ The relationship between interdisciplinarity and distinct modes of university-industry interaction. _A_EM_ Research Policy_EM_, 48. Doi: 10.1016/j.respol.2019.05.008.</t>
+  </si>
+  <si>
+    <t>Dai, M., Kou, S., Soner, H. M., and Yang, C. (2023). _PDF_ Leveraged Exchange-Traded Funds with Market Closure and Frictions. _A_EM_ Management Science_EM_, 69, 2517-2535. Doi: 10.1287/mnsc.2022.4407.</t>
+  </si>
+  <si>
+    <t>Dalziel, M. and  Basir, N. (2024). _PDF_ The technological imprinting of educational experiences on student startups. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2023.104940.</t>
+  </si>
+  <si>
+    <t>Degl’Innocenti, M., Matousek, R., and Tzeremes, N. G. (2019). _PDF_ The interconnections of academic research and universities’ “third mission”: Evidence from the UK. _A_EM_ Research Policy_EM_, 48. Doi: 10.1016/j.respol.2019.05.002.</t>
+  </si>
+  <si>
+    <t>Dorner, M., Fryges, H., and Schopen, K. (2017). _PDF_ Wages in high-tech start-ups - Do academic spin-offs pay a wage premium? _A_EM_ Research Policy_EM_, 46, 1-18. Doi: 10.1016/j.respol.2016.09.002.</t>
+  </si>
+  <si>
+    <t>Edelman, L. F., Manolova, T., Shirokova, G., and Tsukanova, T. (2016). _PDF_ The impact of family support on young entrepreneurs’ start-up activities. _A_EM_ Journal of Business Venturing_EM_, 31, 428-448. Doi: 10.1016/j.jbusvent.2016.04.003.</t>
+  </si>
+  <si>
+    <t>Eesley, C. and  Lee, Y. S. (2023). _PDF_ In Institutions We Trust? Trust in Government and the Allocation of Entrepreneurial Intentions. _A_EM_ Organization Science_EM_, 34, 532-556. Doi: 10.1287/orsc.2022.1583.</t>
+  </si>
+  <si>
+    <t>Eesley, C., Li, J. B., and Yang, D. (2016). _PDF_ Does institutional change in universities influence high-tech entrepreneurship? Evidence from China’s project 985. _A_EM_ Organization Science_EM_, 27, 446-461. Doi: 10.1287/orsc.2015.1038.</t>
+  </si>
+  <si>
+    <t>Eesley, C. E. (2016). _PDF_ Institutional Barriers to Growth: Entrepreneurship, Human Capital and Institutional Change. _A_EM_ Organization Science_EM_, 27, 1290-1306. Doi: 10.1287/orsc.2016.1077.</t>
+  </si>
+  <si>
+    <t>Eesley, C. E. and  Lee, Y. S. (2021). _PDF_ Do university entrepreneurship programs promote entrepreneurship? _A_EM_ Strategic Management Journal_EM_, 42, 833-861. Doi: 10.1002/smj.3246.</t>
+  </si>
+  <si>
+    <t>El-Awad, Z., Brattström, A., and Breugst, N. (2022). _PDF_ Bridging cognitive scripts in multidisciplinary academic spinoff teams: A process perspective on how academics learn to work with non-academic managers. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104592.</t>
+  </si>
+  <si>
+    <t>Elitzur, R., Gavious, I., and Milo, O. (2024). _PDF_ Diversity in National Culture and Financial Harvest Exit Strategy in New Technology Ventures. _A_EM_ Entrepreneurship Theory and Practice_EM_, 48, 881-908. Doi: 10.1177/10422587231211006.</t>
+  </si>
+  <si>
+    <t>Engelen, A., Neumann, C., and Schmidt, S. (2016). _PDF_ Should Entrepreneurially Oriented Firms Have Narcissistic CEOs? _A_EM_ Journal of Management_EM_, 42, 698-721. Doi: 10.1177/0149206313495413.</t>
+  </si>
+  <si>
+    <t>Feng, Y., Caldentey, R., Xin, L., Zhong, Y., Wang, B., and Hu, H. (2024). _PDF_ Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management. _A_EM_ Management Science_EM_, 70, 8988-9013. Doi: 10.1287/mnsc.2022.01588.</t>
+  </si>
+  <si>
+    <t>Fini, R., Jourdan, J., Perkmann, M., and Toschi, L. (2023). _PDF_ A New Take on the Categorical Imperative: Gatekeeping, Boundary Maintenance, and Evaluation Penalties in Science. _A_EM_ Organization Science_EM_, 34, 1090-1110. Doi: 10.1287/orsc.2022.1610.</t>
+  </si>
+  <si>
+    <t>Fini, R., Perkmann, M., Kenney, M., and Maki, K. M. (2023). _PDF_ Are public subsidies effective for university spinoffs? Evidence from SBIR awards in the University of California system. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104662.</t>
+  </si>
+  <si>
+    <t>Fini, R., Perkmann, M., and Ross, J.-M. (2022). _PDF_ Attention to Exploration: The Effect of Academic Entrepreneurship on the Production of Scientific Knowledge. _A_EM_ Organization Science_EM_, 33, 688-715. Doi: 10.1287/orsc.2021.1455.</t>
+  </si>
+  <si>
+    <t>Fisher, G., Kotha, S., and Lahiri, A. (2016). _PDF_ Changing with the times: An integrated view of identity, legitimacy, and new venture life cycles. _A_EM_ Academy of Management Review_EM_, 41, 383-409. Doi: 10.5465/amr.2013.0496.</t>
+  </si>
+  <si>
+    <t>Gagliardi, L. and  Novelli, E. (2025). _PDF_ Female Entrepreneurs Targeting Women: Strategic Redirection Under Scientific Decision-Making. _A_EM_ Organization Science_EM_, 36, 718-736. Doi: 10.1287/orsc.2022.17235.</t>
+  </si>
+  <si>
+    <t>Gimenez-Jimenez, D., Edelman, L. F., Minola, T., Calabrò, A., and Cassia, L. (2021). _PDF_ An Intergeneration Solidarity Perspective on Succession Intentions in Family Firms. _A_EM_ Entrepreneurship Theory and Practice_EM_, 45, 740-766. Doi: 10.1177/1042258720956384.</t>
+  </si>
+  <si>
+    <t>Gotsopoulos, A. and  Pitsakis, K. (2024). _PDF_ United we stand? Organizational groups and spinoff mortality in the context of academic entrepreneurship. _A_EM_ Journal of Business Venturing_EM_, 39. Doi: 10.1016/j.jbusvent.2023.106360.</t>
+  </si>
+  <si>
+    <t>Gümüsay, A. A. and  Bohné, T. M. (2018). _PDF_ Individual and organizational inhibitors to the development of entrepreneurial competencies in universities. _A_EM_ Research Policy_EM_, 47, 363-378. Doi: 10.1016/j.respol.2017.11.008.</t>
+  </si>
+  <si>
+    <t>Halilem, N. and  Diop, B. (2025). _PDF_ “Meet me at the backdoor”: A multiple case study of academic entrepreneurs bypassing their technology transfer offices. _A_EM_ Research Policy_EM_, 54. Doi: 10.1016/j.respol.2024.105156.</t>
+  </si>
+  <si>
+    <t>Hayter, C. S. (2016). _PDF_ Constraining entrepreneurial development: A knowledge-based view of social networks among academic entrepreneurs. _A_EM_ Research Policy_EM_, 45, 475-490. Doi: 10.1016/j.respol.2015.11.003.</t>
+  </si>
+  <si>
+    <t>Hewitt-Dundas, N., Gkypali, A., and Roper, S. (2019). _PDF_ Does learning from prior collaboration help firms to overcome the ‘two worlds’ paradox in university-business collaboration? _A_EM_ Research Policy_EM_, 48, 1310-1322. Doi: 10.1016/j.respol.2019.01.016.</t>
+  </si>
+  <si>
+    <t>Huang, C. and  Wang, K. (2025). _PDF_ A Stability Principle for Learning Under Nonstationarity. _A_EM_ Operations Research_EM_, 73, 3044-3064. Doi: 10.1287/opre.2024.0766.</t>
+  </si>
+  <si>
+    <t>Huesmann, K., Ndiaye, Y. S., Waibel, C., and Wiesen, D. (2025). _PDF_ How the Design of Ranking Systems and Ability Affect Physician Effort. _A_EM_ Management Science_EM_, null, 1-null. Doi: 10.1287/mnsc.2022.00990.</t>
+  </si>
+  <si>
+    <t>Huyghe, A., Knockaert, M., and Obschonka, M. (2016). _PDF_ Unraveling the “passion orchestra” in academia. _A_EM_ Journal of Business Venturing_EM_, 31, 344-364. Doi: 10.1016/j.jbusvent.2016.03.002.</t>
+  </si>
+  <si>
+    <t>Iorio, R., Labory, S., and Rentocchini, F. (2017). _PDF_ The importance of pro-social behaviour for the breadth and depth of knowledge transfer activities: An analysis of Italian academic scientists. _A_EM_ Research Policy_EM_, 46, 497-509. Doi: 10.1016/j.respol.2016.12.003.</t>
+  </si>
+  <si>
+    <t>Ju, X., Jiang, S., and Zhao, Q. (2023). _PDF_ Innovation effects of academic executives: Evidence from China. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104711.</t>
+  </si>
+  <si>
+    <t>Jue-Rajasingh, D. (2025). _PDF_ Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry. _A_EM_ Organization Science_EM_, 36, 2435-2458. Doi: 10.1287/orsc.2021.15661.</t>
+  </si>
+  <si>
+    <t>Jung, H., Vissa, B., and Pich, M. (2017). _PDF_ How do entrepreneurial founding teams allocate task positions? _A_EM_ Academy of Management Journal_EM_, 60, 264-294. Doi: 10.5465/amj.2014.0813.</t>
+  </si>
+  <si>
+    <t>Kaul, R., Anderson, S. J., Chintagunta, P. K., and Vilcassim, N. (2025). _PDF_ Call Me Maybe: Does Customer Feedback Seeking Impact Nonsolicited Customers? _A_EM_ Marketing Science_EM_, 44, 129-154. Doi: 10.1287/mksc.2023.0324.</t>
+  </si>
+  <si>
+    <t>Kim, S.-H., Song, H., and Valentine, M. A. (2023). _PDF_ Learning in Temporary Teams: The Varying Effects of Partner Exposure by Team Member Role. _A_EM_ Organization Science_EM_, 34, 433-455. Doi: 10.1287/orsc.2022.1585.</t>
+  </si>
+  <si>
+    <t>Lanivich, S. E. (2015). _PDF_ The RICH Entrepreneur: Using Conservation of Resources Theory in Contexts of Uncertainty. _A_EM_ Entrepreneurship Theory and Practice_EM_, 39, 863-894. Doi: 10.1111/etap.12082.</t>
+  </si>
+  <si>
+    <t>Larsson, J. P., Wennberg, K., Wiklund, J., and Wright, M. (2017). _PDF_ Location choices of graduate entrepreneurs. _A_EM_ Research Policy_EM_, 46, 1490-1504. Doi: 10.1016/j.respol.2017.07.004.</t>
+  </si>
+  <si>
+    <t>Lauto, G., Salvador, E., and Visintin, F. (2022). _PDF_ For what they are, not for what they bring: The signaling value of gender for financial resource acquisition in academic spin-offs. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104554.</t>
+  </si>
+  <si>
+    <t>Lee, S. R. (2022). _PDF_ The myth of the flat start-up: Reconsidering the organizational structure of start-ups. _A_EM_ Strategic Management Journal_EM_, 43, 58-92. Doi: 10.1002/smj.3333.</t>
+  </si>
+  <si>
+    <t>Lee, S. R. and  Kim, J. D. (2024). _PDF_ When do startups scale? Large-scale evidence from job postings. _A_EM_ Strategic Management Journal_EM_, 45, 1633-1669. Doi: 10.1002/smj.3596.</t>
+  </si>
+  <si>
+    <t>Li, Y. and  Garg, S. (2025). _PDF_ Balancing power: The role of independent directors on venture boards. _A_EM_ Journal of Business Venturing_EM_, 40. Doi: 10.1016/j.jbusvent.2025.106483.</t>
+  </si>
+  <si>
+    <t>Luoma, J., Falk, T., Totzek, D., Tikkanen, H., and Mrozek, A. (2018). _PDF_ Big splash, no waves? Cognitive mechanisms driving incumbent firms’ responses to low-price market entry strategies. _A_EM_ Strategic Management Journal_EM_, 39, 1388-1410. Doi: 10.1002/smj.2763.</t>
+  </si>
+  <si>
+    <t>Marx, M. and  Hsu, D. H. (2022). _PDF_ Revisiting the Entrepreneurial Commercialization of Academic Science: Evidence from “Twin” Discoveries. _A_EM_ Management Science_EM_, 68, 1330-1352. Doi: 10.1287/mnsc.2021.3966.</t>
+  </si>
+  <si>
+    <t>McKenny, A. F., Allison, T. H., Ketchen, D. J., Short, J. C., and Ireland, R. D. (2017). _PDF_ How Should Crowdfunding Research Evolve? A Survey of the Entrepreneurship Theory and Practice Editorial Board. _A_EM_ Entrepreneurship Theory and Practice_EM_, 41, 291-304. Doi: 10.1111/etap.12269.</t>
+  </si>
+  <si>
+    <t>Meoli, A., Fini, R., Sobrero, M., and Wiklund, J. (2020). _PDF_ How entrepreneurial intentions influence entrepreneurial career choices: The moderating influence of social context. _A_EM_ Journal of Business Venturing_EM_, 35. Doi: 10.1016/j.jbusvent.2019.105982.</t>
+  </si>
+  <si>
+    <t>Merida, A. L. and  Rocha, V. (2021). _PDF_ It’s about time: The timing of entrepreneurial experience and the career dynamics of university graduates. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2020.104135.</t>
+  </si>
+  <si>
+    <t>Modic, D. and  Suklan, J. (2022). _PDF_ Multidimensional experience and performance of highly skilled administrative staff: Evidence from a technology transfer office. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104562.</t>
+  </si>
+  <si>
+    <t>Munari, F. and  Toschi, L. (2021). _PDF_ The impact of public funding on science valorisation: an analysis of the ERC Proof-of-Concept Programme. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104211.</t>
+  </si>
+  <si>
+    <t>Muscio, A., Quaglione, D., and Ramaciotti, L. (2016). _PDF_ The effects of university rules on spinoff creation: The case of academia in Italy. _A_EM_ Research Policy_EM_, 45, 1386-1396. Doi: 10.1016/j.respol.2016.04.011.</t>
+  </si>
+  <si>
+    <t>Muscio, A. and  Vallanti, G. (2024). _PDF_ The gender gap in PhD entrepreneurship: Why balancing employment in academia really matters. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2023.104907.</t>
+  </si>
+  <si>
+    <t>Ng, W. K. B., Appel-Meulenbroek, R., Cloodt, M., and Arentze, T. (2019). _PDF_ Towards a segmentation of science parks: A typology study on science parks in Europe. _A_EM_ Research Policy_EM_, 48, 719-732. Doi: 10.1016/j.respol.2018.11.004.</t>
+  </si>
+  <si>
+    <t>Noack, A. and  Jacobsen, H. (2021). _PDF_ Transfer scouts: from intermediation to co-constructors of new knowledge and technologies in Germany. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104209.</t>
+  </si>
+  <si>
+    <t>Padilla-Angulo, L., García-Cabrera, A. M., and Lucia-Casademunt, A. M. (2022). _PDF_ Unpacking entrepreneurial education: Learning activities, students’ gender, and attitude toward entrepreneurship. _A_EM_ Academy of Management Learning and Education_EM_, 21, 532-560. Doi: 10.5465/amle.2020.0043.</t>
+  </si>
+  <si>
+    <t>Patvardhan, S. D., Gioia, D. A., and Hamilton, A. L. (2015). _PDF_ Weathering a meta-level identity crisis: Forging a coherent collective identity for an emerging field. _A_EM_ Academy of Management Journal_EM_, 58, 405-435. Doi: 10.5465/amj.2012.1049.</t>
+  </si>
+  <si>
+    <t>Perry, S. J., Hunter, E. M., and Currall, S. C. (2016). _PDF_ Managing the innovators: Organizational and professional commitment among scientists and engineers. _A_EM_ Research Policy_EM_, 45, 1247-1262. Doi: 10.1016/j.respol.2016.03.009.</t>
+  </si>
+  <si>
+    <t>Polidoro, F. and  Jacobs, C. (2024). _PDF_ Knowledge diffusion in nascent industries: Asymmetries between startups and established firms in spurring inventions by other firms. _A_EM_ Strategic Management Journal_EM_, 45, 807-845. Doi: 10.1002/smj.3568.</t>
+  </si>
+  <si>
+    <t>Rahmandad, H. and  Vakili, K. (2019). _PDF_ Explaining heterogeneity in the organization of scientific work. _A_EM_ Organization Science_EM_, 30, 1125-1145. Doi: 10.1287/orsc.2019.1303.</t>
+  </si>
+  <si>
+    <t>Roche, M. P. (2023). _PDF_ Academic Entrepreneurship: Entrepreneurial Advisors and Their Advisees’ Outcomes. _A_EM_ Organization Science_EM_, 34, 959-986. Doi: 10.1287/orsc.2022.1633.</t>
+  </si>
+  <si>
+    <t>Roche, M. P., Conti, A., and Rothaermel, F. T. (2020). _PDF_ Different founders, different venture outcomes: A comparative analysis of academic and non-academic startups. _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2020.104062.</t>
+  </si>
+  <si>
+    <t>Schmidt, C. V. H., Gaßmann, P. S., McElvany, N., and Flatten, T. C. (2025). _PDF_ Angel funding and entrepreneurs’ well-being: The mediating role of autonomy, competence, and relatedness. _A_EM_ Journal of Business Venturing_EM_, 40. Doi: 10.1016/j.jbusvent.2024.106468.</t>
+  </si>
+  <si>
+    <t>Shen, X. S., Li, H. J., and Tolbert, P. S. (2023). _PDF_ Converging Tides Lift All Boats: Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors. _A_EM_ Organization Science_EM_, 34, 2415-2435. Doi: 10.1287/orsc.2021.1493.</t>
+  </si>
+  <si>
+    <t>Souitaris, V., Peng, B., Zerbinati, S., and Shepherd, D. A. (2023). _PDF_ Specialists, Generalists, or Both? Founders’ Multidimensional Breadth of Experience and Entrepreneurial Ventures’ Fundraising at IPO. _A_EM_ Organization Science_EM_, 34, 557-588. Doi: 10.1287/orsc.2022.1581.</t>
+  </si>
+  <si>
+    <t>Tijssen, R. J. W. (2018). _PDF_ Anatomy of use-inspired researchers: From Pasteur’s Quadrant to Pasteur's Cube model. _A_EM_ Research Policy_EM_, 47, 1626-1638. Doi: 10.1016/j.respol.2018.05.010.</t>
+  </si>
+  <si>
+    <t>Uhlbach, W.-H., Tartari, V., and Kongsted, H. C. (2022). _PDF_ Beyond scientific excellence: International mobility and the entrepreneurial activities of academic scientists. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2021.104401.</t>
+  </si>
+  <si>
+    <t>Volmar, E. and  Eisenhardt, K. M. (2025). _PDF_ Mavericks and Diplomats: Bridging Commercial and Institutional Entrepreneurship for Society’s Grand Challenges. _A_EM_ Organization Science_EM_, 36, 572-600. Doi: 10.1287/orsc.2020.13810.</t>
+  </si>
+  <si>
+    <t>Waldman, D. A., Vaulont, M. J., Balven, R. M., Siegel, D. S., and Rupp, D. E. (2022). _PDF_ The Role of Justice Perceptions in Formal and Informal University Technology Transfer. _A_EM_ Journal of Applied Psychology_EM_, 107, 1397-1413. Doi: 10.1037/apl0000944.</t>
+  </si>
+  <si>
+    <t>Welter, F., Baker, T., Audretsch, D. B., and Gartner, W. B. (2017). _PDF_ Everyday Entrepreneurship—A Call for Entrepreneurship Research to Embrace Entrepreneurial Diversity. _A_EM_ Entrepreneurship Theory and Practice_EM_, 41, 311-321. Doi: 10.1111/etap.12258.</t>
+  </si>
+  <si>
+    <t>Wolfe, M. T., Patel, P. C., and Drover, W. (2020). _PDF_ The Influence of Hypomania Symptoms on Income in Self-Employment. _A_EM_ Entrepreneurship Theory and Practice_EM_, 44, 422-450. Doi: 10.1177/1042258718807175.</t>
+  </si>
+  <si>
+    <t>Wolfe, M. T. and  Shepherd, D. A. (2015). _PDF_ “Bouncing Back” From a Loss: Entrepreneurial Orientation, Emotions, and Failure Narratives. _A_EM_ Entrepreneurship Theory and Practice_EM_, 39, 675-700. Doi: 10.1111/etap.12057.</t>
+  </si>
+  <si>
+    <t>Woolley, J. L. and  MacGregor, N. (2022). _PDF_ The Influence of Incubator and Accelerator Participation on Nanotechnology Venture Success. _A_EM_ Entrepreneurship Theory and Practice_EM_, 46, 1717-1755. Doi: 10.1177/10422587211024510.</t>
+  </si>
+  <si>
+    <t>Yi, S. and  Duval-Couetil, N. (2022). _PDF_ Standards for Evaluating Impact in Entrepreneurship Education Research: Using a Descriptive Validity Framework to Enhance Methodological Rigor and Transparency. _A_EM_ Entrepreneurship Theory and Practice_EM_, 46, 1685-1716. Doi: 10.1177/10422587211018184.</t>
+  </si>
+  <si>
+    <t>Younkin, P. and  Kuppuswamy, V. (2018). _PDF_ The colorblind crowd? Founder race and performance in crowdfunding. _A_EM_ Management Science_EM_, 64, 3269-3287. Doi: 10.1287/mnsc.2017.2774.</t>
+  </si>
+  <si>
+    <t>Zellmer-Bruhn, M. E., Forbes, D. P., Sapienza, H. J., and Borchert, P. S. (2021). _PDF_ Lab, Gig or Enterprise? How scientist-inventors form nascent startup teams. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2020.106074.</t>
+  </si>
+  <si>
+    <t>Zhang, J. A., O’Kane, C., and Bai, T. (2024). _PDF_ How do university-firm interactions affect firm innovation speed? The case of Chinese science-intensive SMEs. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2024.105027.</t>
+  </si>
+  <si>
+    <t>Zhao, C., Xu, G., and Cai, W. (2025). _PDF_ Troops are Business Schools: Military Service and Entrepreneurial Behaviors in China. _A_EM_ Entrepreneurship Theory and Practice_EM_, 49, 30-59. Doi: 10.1177/10422587241249966.</t>
+  </si>
+  <si>
+    <t>Zhao, H., O'Connor, G., Wu, J., and Lumpkin, G. T. (2021). _PDF_ Age and entrepreneurial career success: A review and a meta-analysis. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2020.106007.</t>
+  </si>
+  <si>
+    <t>Aïssaoui, R. and  Geringer, M. J. (2018). _PDF_ International business research output and rankings of Asia-Pacific universities: A 40-year time-series analysis. _A_EM_ Asia Pacific Journal of Management_EM_, 35, 993-1023. Doi: 10.1007/s10490-017-9536-x.</t>
+  </si>
+  <si>
+    <t>Bickenbach, F., Dohse, D., and Liu, W. H. (2017). _PDF_ University Students’ Entrepreneurial Intentions: A Comparative Analysis of Hong Kong and Guangzhou. _A_EM_ China and World Economy_EM_, 25, 60-84. Doi: 10.1111/cwe.12194.</t>
+  </si>
+  <si>
+    <t>Chau, K. W. (2005). _PDF_ Problem-based learning approach in accomplishing innovation and entrepreneurship of civil engineering undergraduates. _A_EM_ International Journal of Engineering Education_EM_, 21, 228-232. Doi.</t>
+  </si>
+  <si>
+    <t>Chui, C. H.-k., Peng, S., Lai, V., Chan, C. H., and Fung, S. (2025). _PDF_ Enhancing Social Entrepreneurial Competence Amongst University Students: A Social Entrepreneurship Pedagogical Model in Hong Kong. _A_EM_ Journal of Social Entrepreneurship_EM_, 16, 817-836. Doi: 10.1080/19420676.2023.2217427.</t>
+  </si>
+  <si>
+    <t>Gallegos, A., Valencia-Arias, A., Aliaga Bravo, V. D. C., Teodori de la Puente, R., Valencia, J., Uribe-Bedoya, H., Briceño Huerta, V., Vega-Mori, L., and Rodriguez-Correa, P. (2024). _PDF_ Factors that determine the entrepreneurial intention of university students: a gender perspective in the context of an emerging economy. _A_EM_ Cogent Social Sciences_EM_, 10. Doi: 10.1080/23311886.2024.2301812.</t>
+  </si>
+  <si>
+    <t>Hou, F., Qi, M.-D., Su, Y., Wu, Y. J., and Tang, J.-Y. (2023). _PDF_ How does university-based entrepreneurship education facilitate the development of entrepreneurial Intention？Integrating passion- and competency-based perspectives. _A_EM_ International Journal of Management Education_EM_, 21, N.PAG-N.PAG. Doi: 10.1016/j.ijme.2023.100798.</t>
+  </si>
+  <si>
+    <t>Hou, F., Su, Y., Qi, M., Chen, J., and Tang, J. (2022). _PDF_ A Multilevel Model of Entrepreneurship Education and Entrepreneurial Intention: Opportunity Recognition as a Mediator and Entrepreneurial Learning as a Moderator. _A_EM_ Frontiers in Psychology_EM_, 13. Doi: 10.3389/fpsyg.2022.837388.</t>
+  </si>
+  <si>
+    <t>Hsu, C.-Y. and  Wang, S.-M. (2019). _PDF_ Social entrepreneurial intentions and its influential factors: A comparison of students in Taiwan and Hong Kong. _A_EM_ Innovations in Education and Teaching International_EM_, 56, 385-395. Doi: 10.1080/14703297.2018.1427611.</t>
+  </si>
+  <si>
+    <t>Hui, P. P. and  Leung, V. K. K. (2025). _PDF_ Knowing thoughts by seeing deeds: The role of creative self-concept, entrepreneurial mindset, and creative behaviour in innovation and entrepreneurship education. _A_EM_ Industry and Higher Education_EM_, 39, 427-438. Doi: 10.1177/09504222251346231.</t>
+  </si>
+  <si>
+    <t>Ip, C. Y., Liang, C., Wu, S.-C., Law, K. M. Y., and Liu, H.-C. (2018). _PDF_ Enhancing Social Entrepreneurial Intentions through Entrepreneurial Creativity: A Comparative Study Between Taiwan and Hong Kong. _A_EM_ Creativity Research Journal_EM_, 30, 132-142. Doi: 10.1080/10400419.2018.1446744.</t>
+  </si>
+  <si>
+    <t>Jia, N. (2014). _PDF_ Equity Financing for Early-Stage Companies in China (CARE Conference Hong Kong Polytechnic University, June 9, 2014). _A_EM_ Journal of Applied Corporate Finance_EM_, 26, 71-75. Doi: 10.1111/jacf.12082.</t>
+  </si>
+  <si>
+    <t>Law, K. M. Y. and  Breznik, K. (2017). _PDF_ Impacts of innovativeness and attitude on entrepreneurial intention: among engineering and non-engineering students. _A_EM_ International Journal of Technology and Design Education_EM_, 27, 683-700. Doi: 10.1007/s10798-016-9373-0.</t>
+  </si>
+  <si>
+    <t>Law, K. M. Y. and  Jakubiak, M. (2020). _PDF_ Determinants of students’ entrepreneurial intention - a comparative study in Poland and Hong Kong. _A_EM_ International Journal of Innovation and Learning_EM_, 28, 59-81. Doi: 10.1504/IJIL.2020.108459.</t>
+  </si>
+  <si>
+    <t>Leung, S., Mo, P., Ling, H., Chandra, Y., and Ho, S. S. (2019). _PDF_ Enhancing the competitiveness and sustainability of social enterprises in Hong Kong: A three-dimensional analysis. _A_EM_ China Journal of Accounting Research_EM_, 12, 157-176. Doi: 10.1016/j.cjar.2019.03.002.</t>
+  </si>
+  <si>
+    <t>Liang, C., Ip, C. Y., Wu, S.-C., Law, K. M. Y., Wang, J.-H., Peng, L.-P., and Liu, H.-C. (2019). _PDF_ Personality traits, social capital, and entrepreneurial creativity: comparing green socioentrepreneurial intentions across Taiwan and Hong Kong. _A_EM_ Studies in Higher Education_EM_, 44, 1086-1102. Doi: 10.1080/03075079.2017.1418310.</t>
+  </si>
+  <si>
+    <t>Liang, Y. and  Wang, J. (2023). _PDF_ Factors Influencing the Entrepreneurial Intentions of Hong Kong and Macao Students in Chinese Mainland Universities in the Context of Guangdong-Hong Kong-Macao Greater Bay Area: A Study from the Perspective of Cultivating Innovative Talents. _A_EM_ Frontiers of Business Research in China_EM_, 17, 253-271. Doi: 10.3868/s070-008-023-0012-3.</t>
+  </si>
+  <si>
+    <t>Liu, D. (2022). _PDF_ Opportunities and challenges of graduate entrepreneurship in China’s Greater Bay Area: cases in Hong Kong and Shenzhen. _A_EM_ Asian Education and Development Studies_EM_, 11, 82-93. Doi: 10.1108/aeds-08-2020-0179.</t>
+  </si>
+  <si>
+    <t>Liu, H.-C., Liang, C., Chang, C.-C., Ip, C. Y., and Liang, C.-T. (2021). _PDF_ Optimizing Personality Traits and Entrepreneurial Creativity to Boost the Precursors of Social Entrepreneurial Intentions: Five Studies in Taiwan. _A_EM_ Journal of Social Service Research_EM_, 47, 10-32. Doi: 10.1080/01488376.2019.1708840.</t>
+  </si>
+  <si>
+    <t>Liu, S., Sun, H., Zhuang, J., Xiong, R., and Of, I. P. (2023). _PDF_ The Impact of E-Learning Technologies on Entrepreneurial and Sustainability Performance. _A_EM_ Sustainability_EM_, 15, 15660. Doi: 10.3390/su152115660.</t>
+  </si>
+  <si>
+    <t>Lok, K. L., Yeung, J. F. Y., Opoku, A., Kumah, V. M. A., and Wong, C. T. (2025). _PDF_ Developing sustainable outsourcing strategies for facilities management: a study of educational facilities in Hong Kong. _A_EM_ Journal of Corporate Real Estate_EM_. Doi: 10.1108/jcre-03-2025-0016.</t>
+  </si>
+  <si>
+    <t>Mohamed, F., Karoui Zouaoui, S., and Bel Haj Mohamed, A. (2024). _PDF_ The entrepreneurial support and the performance of new venture creation: the mediation effect of the acquisition of skills and the learning of novice entrepreneurs. _A_EM_ Cogent Social Sciences_EM_, 10. Doi: 10.1080/23311886.2024.2330142.</t>
+  </si>
+  <si>
+    <t>Mumtaz, U. and  Faisal, M. (2024). _PDF_ Mapping the landscape: a comprehensive bibliometric analysis of literature on entrepreneurship in tourism (2013–2023). _A_EM_ Journal of Global Entrepreneurship Research_EM_, 14, 1-21. Doi: 10.1007/s40497-024-00399-z.</t>
+  </si>
+  <si>
+    <t>Nichols, N. and  Hayes Tang, H. h. (2022). _PDF_ Navigating managerial and entrepreneurial reforms in research-intensive universities: A comparison of early career trajectories in Hong Kong and Canada. _A_EM_ Higher Education Quarterly_EM_, 76, 116-130. Doi: 10.1111/hequ.12297.</t>
+  </si>
+  <si>
+    <t>Siu, W.-s. and  Lo, E. S.-c. (2013). _PDF_ Cultural contingency in the cognitive model of entrepreneurial intention. _A_EM_ Entrepreneurship Theory and Practice_EM_, 37, 147-173. Doi: 10.1111/j.1540-6520.2011.00462.x.</t>
+  </si>
+  <si>
+    <t>Sun, H., Lo, C. T., Liang, B., and Wong, Y. L. B. (2017). _PDF_ The impact of entrepreneurial education on entrepreneurial intention of engineering students in Hong Kong. _A_EM_ Management Decision_EM_, 55, 1371-1393. Doi: 10.1108/MD-06-2016-0392.</t>
+  </si>
+  <si>
+    <t>Uctu, R. and  Jafta, R. C. C. (2012). _PDF_ Academic entrepreneurship in South East Asia: an exploratory study of spin-offs in biotechnology from Hong Kong universities. _A_EM_ Asian Journal of Technology Innovation_EM_, 20, 141-154. Doi: 10.1080/19761597.2012.681439.</t>
+  </si>
+  <si>
+    <t>Wardana, L. W., Martha, J. A., Wati, A. P., Narmaditya, B. S., Setyawati, A., Maula, F. I., Mahendra, A. M., and Suparno, S. (2024). _PDF_ Does entrepreneurial self-efficacy really matter for entrepreneurial intention? Lesson from covid-19. _A_EM_ Cogent Education_EM_, 11. Doi: 10.1080/2331186X.2024.2317231.</t>
+  </si>
+  <si>
+    <t>Wong, H. Y. H. and  Chan, C. K. Y. (2023). _PDF_ Assessing engineering students’ perspectives of entrepreneurship education within higher education: a comparative study in Hong Kong. _A_EM_ Assessment &amp; Evaluation in Higher Education_EM_, 48, 847-859. Doi: 10.1080/02602938.2022.2137103.</t>
+  </si>
+  <si>
+    <t>Zhang, F., Wei, L., Sun, H., and Tung, L. C. (2019). _PDF_ How entrepreneurial learning impacts one’s intention towards entrepreneurship. _A_EM_ Chinese Management Studies_EM_, 13, 146-170. Doi: 10.1108/CMS-06-2018-0556.</t>
+  </si>
+  <si>
+    <t>Zhuang, J., Xiong, R., and Sun, H. (2022). _PDF_ Impact of personality traits on start-up preparation of Hong Kong youths. _A_EM_ Frontiers in Psychology_EM_, 13, 994814. Doi: 10.3389/fpsyg.2022.994814.</t>
+  </si>
+  <si>
+    <t>Zhuo, Z. (2022). _PDF_ Improving Students’ Satisfaction with the Quality of Innovation and Entrepreneurship Education in Colleges and Universities in the Guangdong-Hong Kong-Macao Greater Bay Area. _A_EM_ Chinese Education and Society_EM_, 55, 286-306. Doi: 10.1080/10611932.2022.2136461.</t>
+  </si>
+  <si>
+    <t>A Growth Mindset Intervention Enhancing Students Entrepreneurial Self-Efficacy and Career Development.pdf</t>
+  </si>
+  <si>
+    <t>A holistic approach to the evolution of an entrepreneurial ecosystem An exploratory study of academic spin-offs.pdf</t>
+  </si>
+  <si>
+    <t>A Stability Principle for Learning Under Nonstationarity.pdf</t>
+  </si>
+  <si>
+    <t>Age and entrepreneurial career success A review and a meta-analysis.pdf</t>
+  </si>
+  <si>
+    <t>An Intergeneration Solidarity Perspective on Succession Intentions in Family Firms.pdf</t>
+  </si>
+  <si>
+    <t>Are public subsidies effective for university spinoffs Evidence from SBIR awards in the University of California system.pdf</t>
+  </si>
+  <si>
+    <t>Attention to Exploration The Effect of Academic Entrepreneurship on the Production of Scientific Knowledge.pdf</t>
+  </si>
+  <si>
+    <t>Balancing power The role of independent directors on venture boards.pdf</t>
+  </si>
+  <si>
+    <t>Beyond scientific excellence International mobility and the entrepreneurial activities of academic scientists.pdf</t>
+  </si>
+  <si>
+    <t>Bridging cognitive scripts in multidisciplinary academic spinoff teams A process perspective on how academics learn to work with non-academic managers.pdf</t>
+  </si>
+  <si>
+    <t>Call Me Maybe Does Customer Feedback Seeking Impact Nonsolicited Customers.pdf</t>
+  </si>
+  <si>
+    <t>Commercializing university research in transition economies Technology transfer offices or direct industrial funding.pdf</t>
+  </si>
+  <si>
+    <t>Constraining entrepreneurial development A knowledge-based view of social networks among academic entrepreneurs.pdf</t>
+  </si>
+  <si>
+    <t>Converging Tides Lift All Boats Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors.pdf</t>
+  </si>
+  <si>
+    <t>Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management.pdf</t>
+  </si>
+  <si>
+    <t>Diversity in National Culture and Financial Harvest Exit Strategy in New Technology Ventures.pdf</t>
+  </si>
+  <si>
+    <t>Do university entrepreneurship programs promote entrepreneurship.pdf</t>
+  </si>
+  <si>
+    <t>Does a Theory-of-Value Add Value Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs.pdf</t>
+  </si>
+  <si>
+    <t>Everyday Entrepreneurship—A Call for Entrepreneurship Research to Embrace Entrepreneurial Diversity.pdf</t>
+  </si>
+  <si>
+    <t>Explaining heterogeneity in the organization of scientific work.pdf</t>
+  </si>
+  <si>
+    <t>Feeling capable and valued A prosocial perspective on the link between empathy and social entrepreneurial intentions.pdf</t>
+  </si>
+  <si>
+    <t>Female Entrepreneurs Targeting Women Strategic Redirection Under Scientific Decision-Making.pdf</t>
+  </si>
+  <si>
+    <t>Fostering practice-oriented and use-inspired science in biomedical research.pdf</t>
+  </si>
+  <si>
+    <t>Gender diversity in academic entrepreneurship Social impact motives and the NSF I-corps program.pdf</t>
+  </si>
+  <si>
+    <t>Getting schooled Universities and VC-backed immigrant entrepreneurs.pdf</t>
+  </si>
+  <si>
+    <t>Higher education policy Why hope for quality when rewarding quantity.pdf</t>
+  </si>
+  <si>
+    <t>How do entrepreneurial founding teams allocate task positions.pdf</t>
+  </si>
+  <si>
+    <t>How do university-firm interactions affect firm innovation speed The case of Chinese science-intensive SMEs.pdf</t>
+  </si>
+  <si>
+    <t>How entrepreneurial intentions influence entrepreneurial career choices The moderating influence of social context.pdf</t>
+  </si>
+  <si>
+    <t>How Should Crowdfunding Research Evolve A Survey of the Entrepreneurship Theory and Practice Editorial Board.pdf</t>
+  </si>
+  <si>
+    <t>How the Design of Ranking Systems and Ability Affect Physician Effort.pdf</t>
+  </si>
+  <si>
+    <t>In Institutions We Trust Trust in Government and the Allocation of Entrepreneurial Intentions.pdf</t>
+  </si>
+  <si>
+    <t>Individual and organizational inhibitors to the development of entrepreneurial competencies in universities.pdf</t>
+  </si>
+  <si>
+    <t>Innovation effects of academic executives Evidence from China.pdf</t>
+  </si>
+  <si>
+    <t>Is microcredit a blessing for the poor A meta-analysis examining development outcomes and contextual considerations.pdf</t>
+  </si>
+  <si>
+    <t>Knowledge diffusion in nascent industries Asymmetries between startups and established firms in spurring inventions by other firms.pdf</t>
+  </si>
+  <si>
+    <t>Knowledge spillover of innovation Entrepreneurial difference.pdf</t>
+  </si>
+  <si>
+    <t>Learning in Temporary Teams The Varying Effects of Partner Exposure by Team Member Role.pdf</t>
+  </si>
+  <si>
+    <t>Leveraged Exchange-Traded Funds with Market Closure and Frictions.pdf</t>
+  </si>
+  <si>
+    <t>Location choices of graduate entrepreneurs.pdf</t>
+  </si>
+  <si>
+    <t>Managing the innovators Organizational and professional commitment among scientists and engineers.pdf</t>
+  </si>
+  <si>
+    <t>Mavericks and Diplomats Bridging Commercial and Institutional Entrepreneurship for Society’s Grand Challenges.pdf</t>
+  </si>
+  <si>
+    <t>Meet me at the backdoor A multiple case study of academic entrepreneurs bypassing their technology transfer offices.pdf</t>
+  </si>
+  <si>
+    <t>A New Take on the Categorical Imperative Gatekeeping Boundary Maintenance and Evaluation Penalties in Science.pdf</t>
+  </si>
+  <si>
+    <t>Academic Entrepreneurship Entrepreneurial Advisors and Their Advisees Outcomes.pdf</t>
+  </si>
+  <si>
+    <t>Anatomy of use-inspired researchers From Pasteurs Quadrant to Pasteurs Cube model.pdf</t>
+  </si>
+  <si>
+    <t>Angel funding and entrepreneurs well-being The mediating role of autonomy competence and relatedness.pdf</t>
+  </si>
+  <si>
+    <t>Big splash no waves Cognitive mechanisms driving incumbent firms responses to low-price market entry strategies.pdf</t>
+  </si>
+  <si>
+    <t>Bouncing Back From a Loss Entrepreneurial Orientation Emotions and Failure Narratives.pdf</t>
+  </si>
+  <si>
+    <t>Changing with the times An integrated view of identity legitimacy and new venture life cycles.pdf</t>
+  </si>
+  <si>
+    <t>Corrigendum to Higher Education Policy Why hope for Quality when rewarding Quantity [Research Policy Volume 49 Issue 8(2020) 104083].pdf</t>
+  </si>
+  <si>
+    <t>Different founders different venture outcomes A comparative analysis of academic and non-academic startups.pdf</t>
+  </si>
+  <si>
+    <t>Does institutional change in universities influence high-tech entrepreneurship Evidence from Chinas project 985.pdf</t>
+  </si>
+  <si>
+    <t>Does learning from prior collaboration help firms to overcome the two worlds paradox in university-business collaboration.pdf</t>
+  </si>
+  <si>
+    <t>Entrepreneurial beacons The Yale endowment run-ups and the growth of venture capital.pdf</t>
+  </si>
+  <si>
+    <t>For what they are not for what they bring The signaling value of gender for financial resource acquisition in academic spin-offs.pdf</t>
+  </si>
+  <si>
+    <t>Free range startups Market scope academic founders and the role of general knowledge in AI.pdf</t>
+  </si>
+  <si>
+    <t>Institutional Barriers to Growth Entrepreneurship Human Capital and Institutional Change.pdf</t>
+  </si>
+  <si>
+    <t>Institutional logics and founders identity orientation Why academic entrepreneurs aspire lower venture growth.pdf</t>
+  </si>
+  <si>
+    <t>Its about time The timing of entrepreneurial experience and the career dynamics of university graduates.pdf</t>
+  </si>
+  <si>
+    <t>Lab Gig or Enterprise How scientist-inventors form nascent startup teams.pdf</t>
+  </si>
+  <si>
+    <t>Multidimensional experience and performance of highly skilled administrative staff Evidence from a technology transfer office.pdf</t>
+  </si>
+  <si>
+    <t>remove_spsecial_characters_from_pdf_filename.sh</t>
+  </si>
+  <si>
+    <t>Revisiting the Entrepreneurial Commercialization of Academic Science Evidence from “Twin” Discoveries.pdf</t>
+  </si>
+  <si>
+    <t>Scientific yield from collaboration with industry The relevance of researchers strategic approaches.pdf</t>
+  </si>
+  <si>
+    <t>Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry.pdf</t>
+  </si>
+  <si>
+    <t>Should Entrepreneurially Oriented Firms Have Narcissistic CEOs.pdf</t>
+  </si>
+  <si>
+    <t>Signaling in science-based IPOs The combined effect of affiliation with prestigious universities underwriters and venture capitalists.pdf</t>
+  </si>
+  <si>
+    <t>Smartphone Trading Technology Investor Behavior and Mutual Fund Performance.pdf</t>
+  </si>
+  <si>
+    <t>Specialists Generalists or Both Founders Multidimensional Breadth of Experience and Entrepreneurial Ventures Fundraising at IPO.pdf</t>
+  </si>
+  <si>
+    <t>Spin doctors vs the spawn of capitalism Who founds university and corporate startups.pdf</t>
+  </si>
+  <si>
+    <t>Standards for Evaluating Impact in Entrepreneurship Education Research Using a Descriptive Validity Framework to Enhance Methodological Rigor and Transparency.pdf</t>
+  </si>
+  <si>
+    <t>Technology ventures engagement of external actors in the search for viable market applications On the relevance of Technology Broadcasting and Systematic Validation.pdf</t>
+  </si>
+  <si>
+    <t>The colorblind crowd Founder race and performance in crowdfunding.pdf</t>
+  </si>
+  <si>
+    <t>The effects of university rules on spinoff creation The case of academia in Italy.pdf</t>
+  </si>
+  <si>
+    <t>The gender gap in PhD entrepreneurship Why balancing employment in academia really matters.pdf</t>
+  </si>
+  <si>
+    <t>The impact of family support on young entrepreneurs start-up activities.pdf</t>
+  </si>
+  <si>
+    <t>The impact of public funding on science valorisation an analysis of the ERC Proof-of-Concept Programme.pdf</t>
+  </si>
+  <si>
+    <t>The importance of pro-social behaviour for the breadth and depth of knowledge transfer activities An analysis of Italian academic scientists.pdf</t>
+  </si>
+  <si>
+    <t>The Influence of Hypomania Symptoms on Income in Self-Employment.pdf</t>
+  </si>
+  <si>
+    <t>The Influence of Incubator and Accelerator Participation on Nanotechnology Venture Success.pdf</t>
+  </si>
+  <si>
+    <t>The interconnections of academic research and universities third mission Evidence from the UK.pdf</t>
+  </si>
+  <si>
+    <t>The myth of the flat start-up Reconsidering the organizational structure of start-ups.pdf</t>
+  </si>
+  <si>
+    <t>The relationship between interdisciplinarity and distinct modes of university-industry interaction.pdf</t>
+  </si>
+  <si>
+    <t>The RICH Entrepreneur Using Conservation of Resources Theory in Contexts of Uncertainty.pdf</t>
+  </si>
+  <si>
+    <t>The Role of Justice Perceptions in Formal and Informal University Technology Transfer.pdf</t>
+  </si>
+  <si>
+    <t>The Startup Cartography Project Measuring and mapping entrepreneurial ecosystems.pdf</t>
+  </si>
+  <si>
+    <t>The technological imprinting of educational experiences on student startups.pdf</t>
+  </si>
+  <si>
+    <t>Towards a segmentation of science parks A typology study on science parks in Europe.pdf</t>
+  </si>
+  <si>
+    <t>Transfer scouts from intermediation to co-constructors of new knowledge and technologies in Germany.pdf</t>
+  </si>
+  <si>
+    <t>Troops are Business Schools Military Service and Entrepreneurial Behaviors in China.pdf</t>
+  </si>
+  <si>
+    <t>United we stand Organizational groups and spinoff mortality in the context of academic entrepreneurship.pdf</t>
+  </si>
+  <si>
+    <t>Unpacking entrepreneurial education Learning activities students gender and attitude toward entrepreneurship.pdf</t>
+  </si>
+  <si>
+    <t>Unraveling the passion orchestra in academia.pdf</t>
+  </si>
+  <si>
+    <t>User-industry spinouts Downstream industry knowledge as a source of new firm entry and survival.pdf</t>
+  </si>
+  <si>
+    <t>Virtual Collaboration Technology and International Business Coaching Examining the Impact on Marketing Strategies and Sales.pdf</t>
+  </si>
+  <si>
+    <t>Wages in high-tech start-ups - Do academic spin-offs pay a wage premium.pdf</t>
+  </si>
+  <si>
+    <t>Weathering a meta-level identity crisis Forging a coherent collective identity for an emerging field.pdf</t>
+  </si>
+  <si>
+    <t>A Multilevel Model of Entrepreneurship Education and Entrepreneurial Intention Opportunity Recognition as a Mediator and Entrepreneurial Learning as a Moderator.pdf</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship in South East Asia an exploratory study of spin-offs in biotechnology from Hong Kong universities.pdf</t>
+  </si>
+  <si>
+    <t>Assessing engineering students perspectives of entrepreneurship education within higher education a comparative study in Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>Cultural contingency in the cognitive model of entrepreneurial intention.pdf</t>
+  </si>
+  <si>
+    <t>Developing sustainable outsourcing strategies for facilities management a study of educational facilities in Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>Does entrepreneurial self-efficacy really matter for entrepreneurial intention Lesson from covid-19.pdf</t>
+  </si>
+  <si>
+    <t>Enhancing Social Entrepreneurial Intentions through Entrepreneurial Creativity A Comparative Study Between Taiwan and Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>Enhancing the competitiveness and sustainability of social enterprises in Hong Kong A three-dimensional analysis.pdf</t>
+  </si>
+  <si>
+    <t>Equity Financing for Early-Stage Companies in China.pdf</t>
+  </si>
+  <si>
+    <t>Factors Influencing the Entrepreneurial Intentions of Hong Kong and Macao Students in Chinese Mainland Universities in the Context of Guangdong-Hong Kong-Macao Greater Bay Area A Study from the Perspective of Cultivating Innovative Talents.pdf</t>
+  </si>
+  <si>
+    <t>Factors that determine the entrepreneurial intention of university students a gender perspective in the context of an emerging economy.pdf</t>
+  </si>
+  <si>
+    <t>How does university-based entrepreneurship education facilitate the development of entrepreneurial Intention？Integrating passion- and competency-based perspectives.pdf</t>
+  </si>
+  <si>
+    <t>How entrepreneurial learning impacts ones intention towards entrepreneurship.pdf</t>
+  </si>
+  <si>
+    <t>Impact of personality traits on start-up preparation of Hong Kong youths.pdf</t>
+  </si>
+  <si>
+    <t>Impacts of innovativeness and attitude on entrepreneurial intention among engineering and non-engineering students.pdf</t>
+  </si>
+  <si>
+    <t>Improving Students’ Satisfaction with the Quality of Innovation and Entrepreneurship Education in Colleges and Universities in the Guangdong-Hong Kong-Macao Greater Bay Area.pdf</t>
+  </si>
+  <si>
+    <t>International business research output and rankings of Asia-Pacific universities A 40-year time-series analysis.pdf</t>
+  </si>
+  <si>
+    <t>Knowing thoughts by seeing deeds The role of creative self-concept entrepreneurial mindset and creative behaviour in innovation and entrepreneurship education.pdf</t>
+  </si>
+  <si>
+    <t>Navigating managerial and entrepreneurial reforms in research-intensive universities A comparison of early career trajectories in Hong Kong and Canada.pdf</t>
+  </si>
+  <si>
+    <t>Opportunities and challenges of graduate entrepreneurship in Chinas Greater Bay Area cases in Hong Kong and Shenzhen.pdf</t>
+  </si>
+  <si>
+    <t>Optimizing Personality Traits and Entrepreneurial Creativity to Boost the Precursors of Social Entrepreneurial Intentions Five Studies in Taiwan.pdf</t>
+  </si>
+  <si>
+    <t>Personality traits social capital and entrepreneurial creativity comparing green socioentrepreneurial intentions across Taiwan and Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>Problem-based learning approach in accomplishing innovation and entrepreneurship of civil engineering undergraduates.pdf</t>
+  </si>
+  <si>
+    <t>Social entrepreneurial intentions and its influential factors A comparison of students in Taiwan and Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>The entrepreneurial support and the performance of new venture creation the mediation effect of the acquisition of skills and the learning of novice entrepreneurs.pdf</t>
+  </si>
+  <si>
+    <t>The Impact of E-Learning Technologies on Entrepreneurial and Sustainability Performance.pdf</t>
+  </si>
+  <si>
+    <t>The impact of entrepreneurial education on entrepreneurial intention of engineering students in Hong Kong.pdf</t>
+  </si>
+  <si>
+    <t>Transdisciplinary Workplace Research Conference 2024.pdf</t>
+  </si>
+  <si>
+    <t>University Students Entrepreneurial Intentions A Comparative Analysis of Hong Kong and Guangzhou.pdf</t>
+  </si>
+  <si>
+    <t>pdf_markdown</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +3886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2923,6 +3902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3257,22 +4237,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:L131"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="7" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="5" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="46.5" customWidth="1"/>
     <col min="10" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3309,8 +4294,17 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -3347,8 +4341,18 @@
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>993</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O2" t="str">
+        <f>SUBSTITUTE(M2,"_PDF_",_xlfn.CONCAT("_PDF1_",N2,"_PDF2_"))</f>
+        <v>Abootorabi, H., Wiklund, J., Johnson, A. R., and Miller, C. D. (2021). _PDF1_A holistic approach to the evolution of an entrepreneurial ecosystem An exploratory study of academic spin-offs.pdf_PDF2_ A holistic approach to the evolution of an entrepreneurial ecosystem: An exploratory study of academic spin-offs. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2021.106143.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>497</v>
       </c>
@@ -3385,8 +4389,18 @@
       <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>994</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="0">SUBSTITUTE(M3,"_PDF_",_xlfn.CONCAT("_PDF1_",N3,"_PDF2_"))</f>
+        <v>Adams, P., Fontana, R., and Malerba, F. (2016). _PDF1_Unraveling the passion orchestra in academia.pdf_PDF2_ User-industry spinouts: Downstream industry knowledge as a source of new firm entry and survival. _A_EM_ Organization Science_EM_, 27, 18-35. Doi: 10.1287/orsc.2015.1029.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -3411,6 +4425,9 @@
       <c r="H4" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>977</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3420,8 +4437,18 @@
       <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>995</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>Agarwal, R., Bacco, F., Camuffo, A., Coali, A., Gambardella, A., Msangi, H., Sonka, S., Temu, A., Waized, B., and Wormald, A. (2025). _PDF1_Does a Theory-of-Value Add Value Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs.pdf_PDF2_ Does a Theory-of-Value Add Value? Evidence from a Randomized Control Trial with Tanzanian Entrepreneurs. _A_EM_ Organization Science_EM_, 36, 601-625. Doi: 10.1287/orsc.2023.17590.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>504</v>
       </c>
@@ -3458,8 +4485,18 @@
       <c r="L5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>996</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>Amornsiripanitch, N., Gompers, P. A., Hu, G., and Vasudevan, K. (2023). _PDF1_Getting schooled Universities and VC-backed immigrant entrepreneurs.pdf_PDF2_ Getting schooled: Universities and VC-backed immigrant entrepreneurs. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2023.104782.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>507</v>
       </c>
@@ -3496,8 +4533,18 @@
       <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>997</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>Anckaert, P.-E., Cassiman, D., and Cassiman, B. (2020). _PDF1_Fostering practice-oriented and use-inspired science in biomedical research.pdf_PDF2_ Fostering practice-oriented and use-inspired science in biomedical research. _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2019.103900.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>510</v>
       </c>
@@ -3522,6 +4569,9 @@
       <c r="H7" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>978</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3531,8 +4581,18 @@
       <c r="L7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>998</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>Anderson, S. J., Chintagunta, P. K., and Vilcassim, N. (2024). _PDF1_User-industry spinouts Downstream industry knowledge as a source of new firm entry and survival.pdf_PDF2_ Virtual Collaboration Technology and International Business Coaching: Examining the Impact on Marketing Strategies and Sales. _A_EM_ Marketing Science_EM_, 43, 637-672. Doi: 10.1287/mksc.2019.0121.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>513</v>
       </c>
@@ -3566,8 +4626,18 @@
       <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>999</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrews, R. J., Fazio, C., Guzman, J., Liu, Y., and Stern, S. (2022). _PDF1_The Role of Justice Perceptions in Formal and Informal University Technology Transfer.pdf_PDF2_ The Startup Cartography Project: Measuring and mapping entrepreneurial ecosystems. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2021.104437.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>516</v>
       </c>
@@ -3604,8 +4674,18 @@
       <c r="L9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>Andries, P., Clarysse, B., and Costa, S. (2021). _PDF1_Standards for Evaluating Impact in Entrepreneurship Education Research Using a Descriptive Validity Framework to Enhance Methodological Rigor and Transparency.pdf_PDF2_ Technology ventures’ engagement of external actors in the search for viable market applications: On the relevance of Technology Broadcasting and Systematic Validation. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2021.106145.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>518</v>
       </c>
@@ -3642,8 +4722,18 @@
       <c r="L10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>Audretsch, D. B. and  Belitski, M. (2026). _PDF1_Knowledge spillover of innovation Entrepreneurial difference.pdf_PDF2_ Knowledge spillover of innovation: Entrepreneurial difference. _A_EM_ Research Policy_EM_, 55. Doi: 10.1016/j.respol.2025.105362.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>521</v>
       </c>
@@ -3680,8 +4770,18 @@
       <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bacq, S. and  Alt, E. (2018). _PDF1_Feeling capable and valued A prosocial perspective on the link between empathy and social entrepreneurial intentions.pdf_PDF2_ Feeling capable and valued: A prosocial perspective on the link between empathy and social entrepreneurial intentions. _A_EM_ Journal of Business Venturing_EM_, 33, 333-350. Doi: 10.1016/j.jbusvent.2018.01.004.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>523</v>
       </c>
@@ -3718,8 +4818,18 @@
       <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>Belitski, M., Aginskaja, A., and Marozau, R. (2019). _PDF1_Commercializing university research in transition economies Technology transfer offices or direct industrial funding.pdf_PDF2_ Commercializing university research in transition economies: Technology transfer offices or direct industrial funding? _A_EM_ Research Policy_EM_, 48, 601-615. Doi: 10.1016/j.respol.2018.10.011.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>525</v>
       </c>
@@ -3756,8 +4866,18 @@
       <c r="L13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermiss, Y. S., Hallen, B. L., McDonald, R., and Pahnke, E. C. (2017). _PDF1_Entrepreneurial beacons The Yale endowment run-ups and the growth of venture capital.pdf_PDF2_ Entrepreneurial beacons: The Yale endowment, run-ups, and the growth of venture capital. _A_EM_ Strategic Management Journal_EM_, 38, 545-565. Doi: 10.1002/smj.2508.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>529</v>
       </c>
@@ -3794,8 +4914,18 @@
       <c r="L14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>Burnette, J. L., Pollack, J. M., Forsyth, R. B., Hoyt, C. L., Babij, A. D., Thomas, F. N., and Coy, A. E. (2020). _PDF1_A Growth Mindset Intervention Enhancing Students Entrepreneurial Self-Efficacy and Career Development.pdf_PDF2_ A Growth Mindset Intervention: Enhancing Students’ Entrepreneurial Self-Efficacy and Career Development. _A_EM_ Entrepreneurship Theory and Practice_EM_, 44, 878-908. Doi: 10.1177/1042258719864293.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>533</v>
       </c>
@@ -3832,8 +4962,18 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>Burrage, A., Dasgupta, N., and Ganguli, I. (2025). _PDF1_Gender diversity in academic entrepreneurship Social impact motives and the NSF I-corps program.pdf_PDF2_ Gender diversity in academic entrepreneurship: Social impact motives and the NSF I-corps program. _A_EM_ Research Policy_EM_, 54. Doi: 10.1016/j.respol.2024.105169.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>536</v>
       </c>
@@ -3870,8 +5010,18 @@
       <c r="L16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>Callaert, J., Landoni, P., Van Looy, B., and Verganti, R. (2015). _PDF1_Revisiting the Entrepreneurial Commercialization of Academic Science Evidence from “Twin” Discoveries.pdf_PDF2_ Scientific yield from collaboration with industry: The relevance of researchers’ strategic approaches. _A_EM_ Research Policy_EM_, 44, 990-998. Doi: 10.1016/j.respol.2015.02.003.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -3896,6 +5046,9 @@
       <c r="H17" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I17" s="4" t="s">
+        <v>979</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
@@ -3905,8 +5058,18 @@
       <c r="L17" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cen, X. (2024). _PDF1_Signaling in science-based IPOs The combined effect of affiliation with prestigious universities underwriters and venture capitalists.pdf_PDF2_ Smartphone Trading Technology, Investor Behavior, and Mutual Fund Performance. _A_EM_ Management Science_EM_, 70, 6897-6916. Doi: 10.1287/mnsc.2021.02099.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>540</v>
       </c>
@@ -3943,8 +5106,18 @@
       <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>Chattopadhyay, S., Honoré, F., and Won, S. (2025). _PDF1_Free range startups Market scope academic founders and the role of general knowledge in AI.pdf_PDF2_ Free range startups? Market scope, academic founders, and the role of general knowledge in AI. _A_EM_ Strategic Management Journal_EM_, 46, 1027-1079. Doi: 10.1002/smj.3685.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>543</v>
       </c>
@@ -3981,8 +5154,18 @@
       <c r="L19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>Chliova, M., Brinckmann, J., and Rosenbusch, N. (2015). _PDF1_Is microcredit a blessing for the poor A meta-analysis examining development outcomes and contextual considerations.pdf_PDF2_ Is microcredit a blessing for the poor? A meta-analysis examining development outcomes and contextual considerations. _A_EM_ Journal of Business Venturing_EM_, 30, 467-487. Doi: 10.1016/j.jbusvent.2014.10.003.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -4019,8 +5202,18 @@
       <c r="L20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>Civera, A., Lehmann, E. E., Paleari, S., and Stockinger, S. A. E. (2020). _PDF1_Higher education policy Why hope for quality when rewarding quantity.pdf_PDF2_ Higher education policy: Why hope for quality when rewarding quantity? _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2020.104083.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>548</v>
       </c>
@@ -4053,8 +5246,18 @@
       <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>Civera, A., Lehmann, E. E., Paleari, S., and Stockinger, S. A. E. (2021). _PDF1_Corrigendum to Higher Education Policy Why hope for Quality when rewarding Quantity [Research Policy Volume 49 Issue 8(2020) 104083].pdf_PDF2_ Corrigendum to “Higher Education Policy: Why hope for Quality when rewarding Quantity?” [Research Policy Volume 49, Issue 8(2020) /104083]. _A_EM_ Research Policy_EM_, 50, 104168. Doi: 10.1016/j.respol.2020.104168.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -4091,8 +5294,18 @@
       <c r="L22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>Clarysse, B., Andries, P., Boone, S., and Roelandt, J. (2023). _PDF1_Institutional logics and founders identity orientation Why academic entrepreneurs aspire lower venture growth.pdf_PDF2_ Institutional logics and founders’ identity orientation: Why academic entrepreneurs aspire lower venture growth. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104713.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>553</v>
       </c>
@@ -4129,8 +5342,18 @@
       <c r="L23" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>Coad, A., Kaiser, U., and Kuhn, J. (2021). _PDF1_Specialists Generalists or Both Founders Multidimensional Breadth of Experience and Entrepreneurial Ventures Fundraising at IPO.pdf_PDF2_ Spin doctors vs the spawn of capitalism: Who founds university and corporate startups? _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104347.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>555</v>
       </c>
@@ -4167,8 +5390,18 @@
       <c r="L24" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>Colombo, M. G., Meoli, M., and Vismara, S. (2019). _PDF1_Should Entrepreneurially Oriented Firms Have Narcissistic CEOs.pdf_PDF2_ Signaling in science-based IPOs: The combined effect of affiliation with prestigious universities, underwriters, and venture capitalists. _A_EM_ Journal of Business Venturing_EM_, 34, 141-177. Doi: 10.1016/j.jbusvent.2018.04.009.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>558</v>
       </c>
@@ -4205,8 +5438,18 @@
       <c r="L25" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>D’Este, P., Llopis, O., Rentocchini, F., and Yegros, A. (2019). _PDF1_The myth of the flat start-up Reconsidering the organizational structure of start-ups.pdf_PDF2_ The relationship between interdisciplinarity and distinct modes of university-industry interaction. _A_EM_ Research Policy_EM_, 48. Doi: 10.1016/j.respol.2019.05.008.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>561</v>
       </c>
@@ -4231,6 +5474,9 @@
       <c r="H26" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I26" s="4" t="s">
+        <v>933</v>
+      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
@@ -4240,8 +5486,18 @@
       <c r="L26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>Dai, M., Kou, S., Soner, H. M., and Yang, C. (2023). _PDF1_Leveraged Exchange-Traded Funds with Market Closure and Frictions.pdf_PDF2_ Leveraged Exchange-Traded Funds with Market Closure and Frictions. _A_EM_ Management Science_EM_, 69, 2517-2535. Doi: 10.1287/mnsc.2022.4407.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>564</v>
       </c>
@@ -4278,8 +5534,18 @@
       <c r="L27" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>Dalziel, M. and  Basir, N. (2024). _PDF1_The Startup Cartography Project Measuring and mapping entrepreneurial ecosystems.pdf_PDF2_ The technological imprinting of educational experiences on student startups. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2023.104940.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>566</v>
       </c>
@@ -4316,8 +5582,18 @@
       <c r="L28" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>Degl’Innocenti, M., Matousek, R., and Tzeremes, N. G. (2019). _PDF1_The Influence of Incubator and Accelerator Participation on Nanotechnology Venture Success.pdf_PDF2_ The interconnections of academic research and universities’ “third mission”: Evidence from the UK. _A_EM_ Research Policy_EM_, 48. Doi: 10.1016/j.respol.2019.05.002.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>568</v>
       </c>
@@ -4354,8 +5630,18 @@
       <c r="L29" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>Dorner, M., Fryges, H., and Schopen, K. (2017). _PDF1_Virtual Collaboration Technology and International Business Coaching Examining the Impact on Marketing Strategies and Sales.pdf_PDF2_ Wages in high-tech start-ups - Do academic spin-offs pay a wage premium? _A_EM_ Research Policy_EM_, 46, 1-18. Doi: 10.1016/j.respol.2016.09.002.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>570</v>
       </c>
@@ -4392,8 +5678,18 @@
       <c r="L30" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>Edelman, L. F., Manolova, T., Shirokova, G., and Tsukanova, T. (2016). _PDF1_The gender gap in PhD entrepreneurship Why balancing employment in academia really matters.pdf_PDF2_ The impact of family support on young entrepreneurs’ start-up activities. _A_EM_ Journal of Business Venturing_EM_, 31, 428-448. Doi: 10.1016/j.jbusvent.2016.04.003.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>572</v>
       </c>
@@ -4430,8 +5726,18 @@
       <c r="L31" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>Eesley, C. and  Lee, Y. S. (2023). _PDF1_In Institutions We Trust Trust in Government and the Allocation of Entrepreneurial Intentions.pdf_PDF2_ In Institutions We Trust? Trust in Government and the Allocation of Entrepreneurial Intentions. _A_EM_ Organization Science_EM_, 34, 532-556. Doi: 10.1287/orsc.2022.1583.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>575</v>
       </c>
@@ -4468,8 +5774,18 @@
       <c r="L32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>Eesley, C., Li, J. B., and Yang, D. (2016). _PDF1_Does institutional change in universities influence high-tech entrepreneurship Evidence from Chinas project 985.pdf_PDF2_ Does institutional change in universities influence high-tech entrepreneurship? Evidence from China’s project 985. _A_EM_ Organization Science_EM_, 27, 446-461. Doi: 10.1287/orsc.2015.1038.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>577</v>
       </c>
@@ -4506,8 +5822,18 @@
       <c r="L33" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>Eesley, C. E. (2016). _PDF1_Institutional Barriers to Growth Entrepreneurship Human Capital and Institutional Change.pdf_PDF2_ Institutional Barriers to Growth: Entrepreneurship, Human Capital and Institutional Change. _A_EM_ Organization Science_EM_, 27, 1290-1306. Doi: 10.1287/orsc.2016.1077.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>580</v>
       </c>
@@ -4544,8 +5870,18 @@
       <c r="L34" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>Eesley, C. E. and  Lee, Y. S. (2021). _PDF1_Do university entrepreneurship programs promote entrepreneurship.pdf_PDF2_ Do university entrepreneurship programs promote entrepreneurship? _A_EM_ Strategic Management Journal_EM_, 42, 833-861. Doi: 10.1002/smj.3246.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>582</v>
       </c>
@@ -4582,8 +5918,18 @@
       <c r="L35" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v>El-Awad, Z., Brattström, A., and Breugst, N. (2022). _PDF1_Bridging cognitive scripts in multidisciplinary academic spinoff teams A process perspective on how academics learn to work with non-academic managers.pdf_PDF2_ Bridging cognitive scripts in multidisciplinary academic spinoff teams: A process perspective on how academics learn to work with non-academic managers. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104592.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>585</v>
       </c>
@@ -4620,8 +5966,18 @@
       <c r="L36" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>Elitzur, R., Gavious, I., and Milo, O. (2024). _PDF1_Diversity in National Culture and Financial Harvest Exit Strategy in New Technology Ventures.pdf_PDF2_ Diversity in National Culture and Financial Harvest Exit Strategy in New Technology Ventures. _A_EM_ Entrepreneurship Theory and Practice_EM_, 48, 881-908. Doi: 10.1177/10422587231211006.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>588</v>
       </c>
@@ -4658,8 +6014,18 @@
       <c r="L37" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>Engelen, A., Neumann, C., and Schmidt, S. (2016). _PDF1_Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry.pdf_PDF2_ Should Entrepreneurially Oriented Firms Have Narcissistic CEOs? _A_EM_ Journal of Management_EM_, 42, 698-721. Doi: 10.1177/0149206313495413.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>590</v>
       </c>
@@ -4684,6 +6050,9 @@
       <c r="H38" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I38" s="4" t="s">
+        <v>980</v>
+      </c>
       <c r="J38" s="3" t="s">
         <v>4</v>
       </c>
@@ -4693,8 +6062,18 @@
       <c r="L38" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v>Feng, Y., Caldentey, R., Xin, L., Zhong, Y., Wang, B., and Hu, H. (2024). _PDF1_Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management.pdf_PDF2_ Designing Sparse Graphs for Stochastic Matching with an Application to Middle-Mile Transportation Management. _A_EM_ Management Science_EM_, 70, 8988-9013. Doi: 10.1287/mnsc.2022.01588.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>593</v>
       </c>
@@ -4731,8 +6110,18 @@
       <c r="L39" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v>Fini, R., Jourdan, J., Perkmann, M., and Toschi, L. (2023). _PDF1_A New Take on the Categorical Imperative Gatekeeping Boundary Maintenance and Evaluation Penalties in Science.pdf_PDF2_ A New Take on the Categorical Imperative: Gatekeeping, Boundary Maintenance, and Evaluation Penalties in Science. _A_EM_ Organization Science_EM_, 34, 1090-1110. Doi: 10.1287/orsc.2022.1610.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>596</v>
       </c>
@@ -4769,8 +6158,18 @@
       <c r="L40" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>Fini, R., Perkmann, M., Kenney, M., and Maki, K. M. (2023). _PDF1_Are public subsidies effective for university spinoffs Evidence from SBIR awards in the University of California system.pdf_PDF2_ Are public subsidies effective for university spinoffs? Evidence from SBIR awards in the University of California system. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104662.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>599</v>
       </c>
@@ -4807,8 +6206,18 @@
       <c r="L41" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="0"/>
+        <v>Fini, R., Perkmann, M., and Ross, J.-M. (2022). _PDF1_Attention to Exploration The Effect of Academic Entrepreneurship on the Production of Scientific Knowledge.pdf_PDF2_ Attention to Exploration: The Effect of Academic Entrepreneurship on the Production of Scientific Knowledge. _A_EM_ Organization Science_EM_, 33, 688-715. Doi: 10.1287/orsc.2021.1455.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -4843,8 +6252,18 @@
       <c r="L42" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v>Fisher, G., Kotha, S., and Lahiri, A. (2016). _PDF1_Changing with the times An integrated view of identity legitimacy and new venture life cycles.pdf_PDF2_ Changing with the times: An integrated view of identity, legitimacy, and new venture life cycles. _A_EM_ Academy of Management Review_EM_, 41, 383-409. Doi: 10.5465/amr.2013.0496.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>606</v>
       </c>
@@ -4869,6 +6288,9 @@
       <c r="H43" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I43" s="4" t="s">
+        <v>981</v>
+      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -4878,8 +6300,18 @@
       <c r="L43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="0"/>
+        <v>Gagliardi, L. and  Novelli, E. (2025). _PDF1_Female Entrepreneurs Targeting Women Strategic Redirection Under Scientific Decision-Making.pdf_PDF2_ Female Entrepreneurs Targeting Women: Strategic Redirection Under Scientific Decision-Making. _A_EM_ Organization Science_EM_, 36, 718-736. Doi: 10.1287/orsc.2022.17235.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>608</v>
       </c>
@@ -4916,8 +6348,18 @@
       <c r="L44" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>Gimenez-Jimenez, D., Edelman, L. F., Minola, T., Calabrò, A., and Cassia, L. (2021). _PDF1_An Intergeneration Solidarity Perspective on Succession Intentions in Family Firms.pdf_PDF2_ An Intergeneration Solidarity Perspective on Succession Intentions in Family Firms. _A_EM_ Entrepreneurship Theory and Practice_EM_, 45, 740-766. Doi: 10.1177/1042258720956384.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -4954,8 +6396,18 @@
       <c r="L45" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="0"/>
+        <v>Gotsopoulos, A. and  Pitsakis, K. (2024). _PDF1_Troops are Business Schools Military Service and Entrepreneurial Behaviors in China.pdf_PDF2_ United we stand? Organizational groups and spinoff mortality in the context of academic entrepreneurship. _A_EM_ Journal of Business Venturing_EM_, 39. Doi: 10.1016/j.jbusvent.2023.106360.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>613</v>
       </c>
@@ -4992,8 +6444,18 @@
       <c r="L46" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="0"/>
+        <v>Gümüsay, A. A. and  Bohné, T. M. (2018). _PDF1_Individual and organizational inhibitors to the development of entrepreneurial competencies in universities.pdf_PDF2_ Individual and organizational inhibitors to the development of entrepreneurial competencies in universities. _A_EM_ Research Policy_EM_, 47, 363-378. Doi: 10.1016/j.respol.2017.11.008.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>616</v>
       </c>
@@ -5030,8 +6492,18 @@
       <c r="L47" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="0"/>
+        <v>Halilem, N. and  Diop, B. (2025). _PDF1_Meet me at the backdoor A multiple case study of academic entrepreneurs bypassing their technology transfer offices.pdf_PDF2_ “Meet me at the backdoor”: A multiple case study of academic entrepreneurs bypassing their technology transfer offices. _A_EM_ Research Policy_EM_, 54. Doi: 10.1016/j.respol.2024.105156.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>617</v>
       </c>
@@ -5068,8 +6540,18 @@
       <c r="L48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="0"/>
+        <v>Hayter, C. S. (2016). _PDF1_Constraining entrepreneurial development A knowledge-based view of social networks among academic entrepreneurs.pdf_PDF2_ Constraining entrepreneurial development: A knowledge-based view of social networks among academic entrepreneurs. _A_EM_ Research Policy_EM_, 45, 475-490. Doi: 10.1016/j.respol.2015.11.003.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>620</v>
       </c>
@@ -5106,8 +6588,18 @@
       <c r="L49" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="0"/>
+        <v>Hewitt-Dundas, N., Gkypali, A., and Roper, S. (2019). _PDF1_Does learning from prior collaboration help firms to overcome the two worlds paradox in university-business collaboration.pdf_PDF2_ Does learning from prior collaboration help firms to overcome the ‘two worlds’ paradox in university-business collaboration? _A_EM_ Research Policy_EM_, 48, 1310-1322. Doi: 10.1016/j.respol.2019.01.016.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>622</v>
       </c>
@@ -5132,6 +6624,9 @@
       <c r="H50" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I50" s="4" t="s">
+        <v>982</v>
+      </c>
       <c r="J50" s="3" t="s">
         <v>4</v>
       </c>
@@ -5141,8 +6636,18 @@
       <c r="L50" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="0"/>
+        <v>Huang, C. and  Wang, K. (2025). _PDF1_A Stability Principle for Learning Under Nonstationarity.pdf_PDF2_ A Stability Principle for Learning Under Nonstationarity. _A_EM_ Operations Research_EM_, 73, 3044-3064. Doi: 10.1287/opre.2024.0766.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>624</v>
       </c>
@@ -5167,6 +6672,9 @@
       <c r="H51" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I51" s="4" t="s">
+        <v>983</v>
+      </c>
       <c r="J51" s="3" t="s">
         <v>4</v>
       </c>
@@ -5176,8 +6684,18 @@
       <c r="L51" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="0"/>
+        <v>Huesmann, K., Ndiaye, Y. S., Waibel, C., and Wiesen, D. (2025). _PDF1_How the Design of Ranking Systems and Ability Affect Physician Effort.pdf_PDF2_ How the Design of Ranking Systems and Ability Affect Physician Effort. _A_EM_ Management Science_EM_, null, 1-null. Doi: 10.1287/mnsc.2022.00990.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>627</v>
       </c>
@@ -5214,8 +6732,18 @@
       <c r="L52" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v>Huyghe, A., Knockaert, M., and Obschonka, M. (2016). _PDF1_Unpacking entrepreneurial education Learning activities students gender and attitude toward entrepreneurship.pdf_PDF2_ Unraveling the “passion orchestra” in academia. _A_EM_ Journal of Business Venturing_EM_, 31, 344-364. Doi: 10.1016/j.jbusvent.2016.03.002.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>629</v>
       </c>
@@ -5252,8 +6780,18 @@
       <c r="L53" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="0"/>
+        <v>Iorio, R., Labory, S., and Rentocchini, F. (2017). _PDF1_The impact of public funding on science valorisation an analysis of the ERC Proof-of-Concept Programme.pdf_PDF2_ The importance of pro-social behaviour for the breadth and depth of knowledge transfer activities: An analysis of Italian academic scientists. _A_EM_ Research Policy_EM_, 46, 497-509. Doi: 10.1016/j.respol.2016.12.003.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>632</v>
       </c>
@@ -5290,8 +6828,18 @@
       <c r="L54" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="0"/>
+        <v>Ju, X., Jiang, S., and Zhao, Q. (2023). _PDF1_Innovation effects of academic executives Evidence from China.pdf_PDF2_ Innovation effects of academic executives: Evidence from China. _A_EM_ Research Policy_EM_, 52. Doi: 10.1016/j.respol.2022.104711.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>635</v>
       </c>
@@ -5316,6 +6864,9 @@
       <c r="H55" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I55" s="4" t="s">
+        <v>984</v>
+      </c>
       <c r="J55" s="3" t="s">
         <v>4</v>
       </c>
@@ -5325,8 +6876,18 @@
       <c r="L55" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="0"/>
+        <v>Jue-Rajasingh, D. (2025). _PDF1_Scientific yield from collaboration with industry The relevance of researchers strategic approaches.pdf_PDF2_ Second-Order Knowledge Intermediaries and Multi-Country Entrepreneurial Entry into a Nascent Industry. _A_EM_ Organization Science_EM_, 36, 2435-2458. Doi: 10.1287/orsc.2021.15661.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>637</v>
       </c>
@@ -5361,8 +6922,18 @@
       <c r="L56" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="0"/>
+        <v>Jung, H., Vissa, B., and Pich, M. (2017). _PDF1_How do entrepreneurial founding teams allocate task positions.pdf_PDF2_ How do entrepreneurial founding teams allocate task positions? _A_EM_ Academy of Management Journal_EM_, 60, 264-294. Doi: 10.5465/amj.2014.0813.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>639</v>
       </c>
@@ -5399,8 +6970,18 @@
       <c r="L57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="0"/>
+        <v>Kaul, R., Anderson, S. J., Chintagunta, P. K., and Vilcassim, N. (2025). _PDF1_Call Me Maybe Does Customer Feedback Seeking Impact Nonsolicited Customers.pdf_PDF2_ Call Me Maybe: Does Customer Feedback Seeking Impact Nonsolicited Customers? _A_EM_ Marketing Science_EM_, 44, 129-154. Doi: 10.1287/mksc.2023.0324.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>641</v>
       </c>
@@ -5425,6 +7006,9 @@
       <c r="H58" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I58" s="4" t="s">
+        <v>985</v>
+      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -5434,8 +7018,18 @@
       <c r="L58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="0"/>
+        <v>Kim, S.-H., Song, H., and Valentine, M. A. (2023). _PDF1_Learning in Temporary Teams The Varying Effects of Partner Exposure by Team Member Role.pdf_PDF2_ Learning in Temporary Teams: The Varying Effects of Partner Exposure by Team Member Role. _A_EM_ Organization Science_EM_, 34, 433-455. Doi: 10.1287/orsc.2022.1585.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>644</v>
       </c>
@@ -5470,8 +7064,18 @@
       <c r="L59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="0"/>
+        <v>Lanivich, S. E. (2015). _PDF1_The relationship between interdisciplinarity and distinct modes of university-industry interaction.pdf_PDF2_ The RICH Entrepreneur: Using Conservation of Resources Theory in Contexts of Uncertainty. _A_EM_ Entrepreneurship Theory and Practice_EM_, 39, 863-894. Doi: 10.1111/etap.12082.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>647</v>
       </c>
@@ -5508,8 +7112,18 @@
       <c r="L60" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="0"/>
+        <v>Larsson, J. P., Wennberg, K., Wiklund, J., and Wright, M. (2017). _PDF1_Location choices of graduate entrepreneurs.pdf_PDF2_ Location choices of graduate entrepreneurs. _A_EM_ Research Policy_EM_, 46, 1490-1504. Doi: 10.1016/j.respol.2017.07.004.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>650</v>
       </c>
@@ -5546,8 +7160,18 @@
       <c r="L61" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="0"/>
+        <v>Lauto, G., Salvador, E., and Visintin, F. (2022). _PDF1_For what they are not for what they bring The signaling value of gender for financial resource acquisition in academic spin-offs.pdf_PDF2_ For what they are, not for what they bring: The signaling value of gender for financial resource acquisition in academic spin-offs. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104554.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>653</v>
       </c>
@@ -5584,8 +7208,18 @@
       <c r="L62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="0"/>
+        <v>Lee, S. R. (2022). _PDF1_The interconnections of academic research and universities third mission Evidence from the UK.pdf_PDF2_ The myth of the flat start-up: Reconsidering the organizational structure of start-ups. _A_EM_ Strategic Management Journal_EM_, 43, 58-92. Doi: 10.1002/smj.3333.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>656</v>
       </c>
@@ -5622,8 +7256,18 @@
       <c r="L63" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="0"/>
+        <v>Lee, S. R. and  Kim, J. D. (2024). _PDF1_Weathering a meta-level identity crisis Forging a coherent collective identity for an emerging field.pdf_PDF2_ When do startups scale? Large-scale evidence from job postings. _A_EM_ Strategic Management Journal_EM_, 45, 1633-1669. Doi: 10.1002/smj.3596.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>659</v>
       </c>
@@ -5660,8 +7304,18 @@
       <c r="L64" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="0"/>
+        <v>Li, Y. and  Garg, S. (2025). _PDF1_Balancing power The role of independent directors on venture boards.pdf_PDF2_ Balancing power: The role of independent directors on venture boards. _A_EM_ Journal of Business Venturing_EM_, 40. Doi: 10.1016/j.jbusvent.2025.106483.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>661</v>
       </c>
@@ -5698,8 +7352,18 @@
       <c r="L65" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="0"/>
+        <v>Luoma, J., Falk, T., Totzek, D., Tikkanen, H., and Mrozek, A. (2018). _PDF1_Big splash no waves Cognitive mechanisms driving incumbent firms responses to low-price market entry strategies.pdf_PDF2_ Big splash, no waves? Cognitive mechanisms driving incumbent firms’ responses to low-price market entry strategies. _A_EM_ Strategic Management Journal_EM_, 39, 1388-1410. Doi: 10.1002/smj.2763.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>663</v>
       </c>
@@ -5736,8 +7400,18 @@
       <c r="L66" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="0"/>
+        <v>Marx, M. and  Hsu, D. H. (2022). _PDF1_remove_spsecial_characters_from_pdf_filename.sh_PDF2_ Revisiting the Entrepreneurial Commercialization of Academic Science: Evidence from “Twin” Discoveries. _A_EM_ Management Science_EM_, 68, 1330-1352. Doi: 10.1287/mnsc.2021.3966.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>666</v>
       </c>
@@ -5772,8 +7446,18 @@
       <c r="L67" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O130" si="1">SUBSTITUTE(M67,"_PDF_",_xlfn.CONCAT("_PDF1_",N67,"_PDF2_"))</f>
+        <v>McKenny, A. F., Allison, T. H., Ketchen, D. J., Short, J. C., and Ireland, R. D. (2017). _PDF1_How Should Crowdfunding Research Evolve A Survey of the Entrepreneurship Theory and Practice Editorial Board.pdf_PDF2_ How Should Crowdfunding Research Evolve? A Survey of the Entrepreneurship Theory and Practice Editorial Board. _A_EM_ Entrepreneurship Theory and Practice_EM_, 41, 291-304. Doi: 10.1111/etap.12269.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>669</v>
       </c>
@@ -5810,8 +7494,18 @@
       <c r="L68" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="1"/>
+        <v>Meoli, A., Fini, R., Sobrero, M., and Wiklund, J. (2020). _PDF1_How entrepreneurial intentions influence entrepreneurial career choices The moderating influence of social context.pdf_PDF2_ How entrepreneurial intentions influence entrepreneurial career choices: The moderating influence of social context. _A_EM_ Journal of Business Venturing_EM_, 35. Doi: 10.1016/j.jbusvent.2019.105982.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>672</v>
       </c>
@@ -5848,8 +7542,18 @@
       <c r="L69" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="1"/>
+        <v>Merida, A. L. and  Rocha, V. (2021). _PDF1_Its about time The timing of entrepreneurial experience and the career dynamics of university graduates.pdf_PDF2_ It’s about time: The timing of entrepreneurial experience and the career dynamics of university graduates. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2020.104135.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>674</v>
       </c>
@@ -5886,8 +7590,18 @@
       <c r="L70" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="1"/>
+        <v>Modic, D. and  Suklan, J. (2022). _PDF1_Multidimensional experience and performance of highly skilled administrative staff Evidence from a technology transfer office.pdf_PDF2_ Multidimensional experience and performance of highly skilled administrative staff: Evidence from a technology transfer office. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2022.104562.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>676</v>
       </c>
@@ -5924,8 +7638,18 @@
       <c r="L71" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="1"/>
+        <v>Munari, F. and  Toschi, L. (2021). _PDF1_The impact of family support on young entrepreneurs start-up activities.pdf_PDF2_ The impact of public funding on science valorisation: an analysis of the ERC Proof-of-Concept Programme. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104211.</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>678</v>
       </c>
@@ -5962,8 +7686,18 @@
       <c r="L72" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="1"/>
+        <v>Muscio, A., Quaglione, D., and Ramaciotti, L. (2016). _PDF1_The colorblind crowd Founder race and performance in crowdfunding.pdf_PDF2_ The effects of university rules on spinoff creation: The case of academia in Italy. _A_EM_ Research Policy_EM_, 45, 1386-1396. Doi: 10.1016/j.respol.2016.04.011.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>681</v>
       </c>
@@ -6000,8 +7734,18 @@
       <c r="L73" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="1"/>
+        <v>Muscio, A. and  Vallanti, G. (2024). _PDF1_The effects of university rules on spinoff creation The case of academia in Italy.pdf_PDF2_ The gender gap in PhD entrepreneurship: Why balancing employment in academia really matters. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2023.104907.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>683</v>
       </c>
@@ -6038,8 +7782,18 @@
       <c r="L74" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="1"/>
+        <v>Ng, W. K. B., Appel-Meulenbroek, R., Cloodt, M., and Arentze, T. (2019). _PDF1_The technological imprinting of educational experiences on student startups.pdf_PDF2_ Towards a segmentation of science parks: A typology study on science parks in Europe. _A_EM_ Research Policy_EM_, 48, 719-732. Doi: 10.1016/j.respol.2018.11.004.</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>686</v>
       </c>
@@ -6076,8 +7830,18 @@
       <c r="L75" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="1"/>
+        <v>Noack, A. and  Jacobsen, H. (2021). _PDF1_Towards a segmentation of science parks A typology study on science parks in Europe.pdf_PDF2_ Transfer scouts: from intermediation to co-constructors of new knowledge and technologies in Germany. _A_EM_ Research Policy_EM_, 50. Doi: 10.1016/j.respol.2021.104209.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>688</v>
       </c>
@@ -6112,8 +7876,18 @@
       <c r="L76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="1"/>
+        <v>Padilla-Angulo, L., García-Cabrera, A. M., and Lucia-Casademunt, A. M. (2022). _PDF1_United we stand Organizational groups and spinoff mortality in the context of academic entrepreneurship.pdf_PDF2_ Unpacking entrepreneurial education: Learning activities, students’ gender, and attitude toward entrepreneurship. _A_EM_ Academy of Management Learning and Education_EM_, 21, 532-560. Doi: 10.5465/amle.2020.0043.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>691</v>
       </c>
@@ -6148,8 +7922,18 @@
       <c r="L77" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="1"/>
+        <v>Patvardhan, S. D., Gioia, D. A., and Hamilton, A. L. (2015). _PDF1_Wages in high-tech start-ups - Do academic spin-offs pay a wage premium.pdf_PDF2_ Weathering a meta-level identity crisis: Forging a coherent collective identity for an emerging field. _A_EM_ Academy of Management Journal_EM_, 58, 405-435. Doi: 10.5465/amj.2012.1049.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>694</v>
       </c>
@@ -6186,8 +7970,18 @@
       <c r="L78" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="1"/>
+        <v>Perry, S. J., Hunter, E. M., and Currall, S. C. (2016). _PDF1_Managing the innovators Organizational and professional commitment among scientists and engineers.pdf_PDF2_ Managing the innovators: Organizational and professional commitment among scientists and engineers. _A_EM_ Research Policy_EM_, 45, 1247-1262. Doi: 10.1016/j.respol.2016.03.009.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>697</v>
       </c>
@@ -6224,8 +8018,18 @@
       <c r="L79" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="1"/>
+        <v>Polidoro, F. and  Jacobs, C. (2024). _PDF1_Knowledge diffusion in nascent industries Asymmetries between startups and established firms in spurring inventions by other firms.pdf_PDF2_ Knowledge diffusion in nascent industries: Asymmetries between startups and established firms in spurring inventions by other firms. _A_EM_ Strategic Management Journal_EM_, 45, 807-845. Doi: 10.1002/smj.3568.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>699</v>
       </c>
@@ -6262,8 +8066,18 @@
       <c r="L80" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahmandad, H. and  Vakili, K. (2019). _PDF1_Explaining heterogeneity in the organization of scientific work.pdf_PDF2_ Explaining heterogeneity in the organization of scientific work. _A_EM_ Organization Science_EM_, 30, 1125-1145. Doi: 10.1287/orsc.2019.1303.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>701</v>
       </c>
@@ -6300,8 +8114,18 @@
       <c r="L81" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="1"/>
+        <v>Roche, M. P. (2023). _PDF1_Academic Entrepreneurship Entrepreneurial Advisors and Their Advisees Outcomes.pdf_PDF2_ Academic Entrepreneurship: Entrepreneurial Advisors and Their Advisees’ Outcomes. _A_EM_ Organization Science_EM_, 34, 959-986. Doi: 10.1287/orsc.2022.1633.</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>703</v>
       </c>
@@ -6338,8 +8162,18 @@
       <c r="L82" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="1"/>
+        <v>Roche, M. P., Conti, A., and Rothaermel, F. T. (2020). _PDF1_Different founders different venture outcomes A comparative analysis of academic and non-academic startups.pdf_PDF2_ Different founders, different venture outcomes: A comparative analysis of academic and non-academic startups. _A_EM_ Research Policy_EM_, 49. Doi: 10.1016/j.respol.2020.104062.</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>706</v>
       </c>
@@ -6376,8 +8210,18 @@
       <c r="L83" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="1"/>
+        <v>Schmidt, C. V. H., Gaßmann, P. S., McElvany, N., and Flatten, T. C. (2025). _PDF1_Angel funding and entrepreneurs well-being The mediating role of autonomy competence and relatedness.pdf_PDF2_ Angel funding and entrepreneurs’ well-being: The mediating role of autonomy, competence, and relatedness. _A_EM_ Journal of Business Venturing_EM_, 40. Doi: 10.1016/j.jbusvent.2024.106468.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>708</v>
       </c>
@@ -6402,6 +8246,9 @@
       <c r="H84" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I84" s="4" t="s">
+        <v>986</v>
+      </c>
       <c r="J84" s="3" t="s">
         <v>4</v>
       </c>
@@ -6411,8 +8258,18 @@
       <c r="L84" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="1"/>
+        <v>Shen, X. S., Li, H. J., and Tolbert, P. S. (2023). _PDF1_Converging Tides Lift All Boats Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors.pdf_PDF2_ Converging Tides Lift All Boats: Consensus in Evaluation Criteria Boosts Investments in Firms in Nascent Technology Sectors. _A_EM_ Organization Science_EM_, 34, 2415-2435. Doi: 10.1287/orsc.2021.1493.</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>711</v>
       </c>
@@ -6437,6 +8294,9 @@
       <c r="H85" s="4" t="s">
         <v>496</v>
       </c>
+      <c r="I85" s="4" t="s">
+        <v>987</v>
+      </c>
       <c r="J85" s="3" t="s">
         <v>4</v>
       </c>
@@ -6446,8 +8306,18 @@
       <c r="L85" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="1"/>
+        <v>Souitaris, V., Peng, B., Zerbinati, S., and Shepherd, D. A. (2023). _PDF1_Smartphone Trading Technology Investor Behavior and Mutual Fund Performance.pdf_PDF2_ Specialists, Generalists, or Both? Founders’ Multidimensional Breadth of Experience and Entrepreneurial Ventures’ Fundraising at IPO. _A_EM_ Organization Science_EM_, 34, 557-588. Doi: 10.1287/orsc.2022.1581.</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>713</v>
       </c>
@@ -6484,8 +8354,18 @@
       <c r="L86" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="1"/>
+        <v>Tijssen, R. J. W. (2018). _PDF1_Anatomy of use-inspired researchers From Pasteurs Quadrant to Pasteurs Cube model.pdf_PDF2_ Anatomy of use-inspired researchers: From Pasteur’s Quadrant to Pasteur's Cube model. _A_EM_ Research Policy_EM_, 47, 1626-1638. Doi: 10.1016/j.respol.2018.05.010.</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>715</v>
       </c>
@@ -6522,8 +8402,18 @@
       <c r="L87" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="1"/>
+        <v>Uhlbach, W.-H., Tartari, V., and Kongsted, H. C. (2022). _PDF1_Beyond scientific excellence International mobility and the entrepreneurial activities of academic scientists.pdf_PDF2_ Beyond scientific excellence: International mobility and the entrepreneurial activities of academic scientists. _A_EM_ Research Policy_EM_, 51. Doi: 10.1016/j.respol.2021.104401.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>718</v>
       </c>
@@ -6560,8 +8450,18 @@
       <c r="L88" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="1"/>
+        <v>Volmar, E. and  Eisenhardt, K. M. (2025). _PDF1_Mavericks and Diplomats Bridging Commercial and Institutional Entrepreneurship for Society’s Grand Challenges.pdf_PDF2_ Mavericks and Diplomats: Bridging Commercial and Institutional Entrepreneurship for Society’s Grand Challenges. _A_EM_ Organization Science_EM_, 36, 572-600. Doi: 10.1287/orsc.2020.13810.</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>721</v>
       </c>
@@ -6598,8 +8498,18 @@
       <c r="L89" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="1"/>
+        <v>Waldman, D. A., Vaulont, M. J., Balven, R. M., Siegel, D. S., and Rupp, D. E. (2022). _PDF1_The RICH Entrepreneur Using Conservation of Resources Theory in Contexts of Uncertainty.pdf_PDF2_ The Role of Justice Perceptions in Formal and Informal University Technology Transfer. _A_EM_ Journal of Applied Psychology_EM_, 107, 1397-1413. Doi: 10.1037/apl0000944.</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>725</v>
       </c>
@@ -6633,8 +8543,18 @@
       <c r="L90" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="1"/>
+        <v>Welter, F., Baker, T., Audretsch, D. B., and Gartner, W. B. (2017). _PDF1_Everyday Entrepreneurship—A Call for Entrepreneurship Research to Embrace Entrepreneurial Diversity.pdf_PDF2_ Everyday Entrepreneurship—A Call for Entrepreneurship Research to Embrace Entrepreneurial Diversity. _A_EM_ Entrepreneurship Theory and Practice_EM_, 41, 311-321. Doi: 10.1111/etap.12258.</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>728</v>
       </c>
@@ -6671,8 +8591,18 @@
       <c r="L91" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="1"/>
+        <v>Wolfe, M. T., Patel, P. C., and Drover, W. (2020). _PDF1_The importance of pro-social behaviour for the breadth and depth of knowledge transfer activities An analysis of Italian academic scientists.pdf_PDF2_ The Influence of Hypomania Symptoms on Income in Self-Employment. _A_EM_ Entrepreneurship Theory and Practice_EM_, 44, 422-450. Doi: 10.1177/1042258718807175.</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>731</v>
       </c>
@@ -6707,8 +8637,18 @@
       <c r="L92" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="1"/>
+        <v>Wolfe, M. T. and  Shepherd, D. A. (2015). _PDF1_Bouncing Back From a Loss Entrepreneurial Orientation Emotions and Failure Narratives.pdf_PDF2_ “Bouncing Back” From a Loss: Entrepreneurial Orientation, Emotions, and Failure Narratives. _A_EM_ Entrepreneurship Theory and Practice_EM_, 39, 675-700. Doi: 10.1111/etap.12057.</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>733</v>
       </c>
@@ -6745,8 +8685,18 @@
       <c r="L93" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="1"/>
+        <v>Woolley, J. L. and  MacGregor, N. (2022). _PDF1_The Influence of Hypomania Symptoms on Income in Self-Employment.pdf_PDF2_ The Influence of Incubator and Accelerator Participation on Nanotechnology Venture Success. _A_EM_ Entrepreneurship Theory and Practice_EM_, 46, 1717-1755. Doi: 10.1177/10422587211024510.</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>736</v>
       </c>
@@ -6783,8 +8733,18 @@
       <c r="L94" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="1"/>
+        <v>Yi, S. and  Duval-Couetil, N. (2022). _PDF1_Spin doctors vs the spawn of capitalism Who founds university and corporate startups.pdf_PDF2_ Standards for Evaluating Impact in Entrepreneurship Education Research: Using a Descriptive Validity Framework to Enhance Methodological Rigor and Transparency. _A_EM_ Entrepreneurship Theory and Practice_EM_, 46, 1685-1716. Doi: 10.1177/10422587211018184.</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>738</v>
       </c>
@@ -6821,8 +8781,18 @@
       <c r="L95" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="1"/>
+        <v>Younkin, P. and  Kuppuswamy, V. (2018). _PDF1_Technology ventures engagement of external actors in the search for viable market applications On the relevance of Technology Broadcasting and Systematic Validation.pdf_PDF2_ The colorblind crowd? Founder race and performance in crowdfunding. _A_EM_ Management Science_EM_, 64, 3269-3287. Doi: 10.1287/mnsc.2017.2774.</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>740</v>
       </c>
@@ -6859,8 +8829,18 @@
       <c r="L96" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="1"/>
+        <v>Zellmer-Bruhn, M. E., Forbes, D. P., Sapienza, H. J., and Borchert, P. S. (2021). _PDF1_Lab Gig or Enterprise How scientist-inventors form nascent startup teams.pdf_PDF2_ Lab, Gig or Enterprise? How scientist-inventors form nascent startup teams. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2020.106074.</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>743</v>
       </c>
@@ -6897,8 +8877,18 @@
       <c r="L97" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhang, J. A., O’Kane, C., and Bai, T. (2024). _PDF1_How do university-firm interactions affect firm innovation speed The case of Chinese science-intensive SMEs.pdf_PDF2_ How do university-firm interactions affect firm innovation speed? The case of Chinese science-intensive SMEs. _A_EM_ Research Policy_EM_, 53. Doi: 10.1016/j.respol.2024.105027.</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>746</v>
       </c>
@@ -6935,8 +8925,18 @@
       <c r="L98" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhao, C., Xu, G., and Cai, W. (2025). _PDF1_Transfer scouts from intermediation to co-constructors of new knowledge and technologies in Germany.pdf_PDF2_ Troops are Business Schools: Military Service and Entrepreneurial Behaviors in China. _A_EM_ Entrepreneurship Theory and Practice_EM_, 49, 30-59. Doi: 10.1177/10422587241249966.</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>749</v>
       </c>
@@ -6973,8 +8973,18 @@
       <c r="L99" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhao, H., O'Connor, G., Wu, J., and Lumpkin, G. T. (2021). _PDF1_Age and entrepreneurial career success A review and a meta-analysis.pdf_PDF2_ Age and entrepreneurial career success: A review and a meta-analysis. _A_EM_ Journal of Business Venturing_EM_, 36. Doi: 10.1016/j.jbusvent.2020.106007.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>752</v>
       </c>
@@ -6984,6 +8994,12 @@
       <c r="C100" s="4" t="s">
         <v>754</v>
       </c>
+      <c r="D100" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="F100" s="4" t="s">
         <v>755</v>
       </c>
@@ -6999,8 +9015,18 @@
       <c r="L100" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="1"/>
+        <v>Aïssaoui, R. and  Geringer, M. J. (2018). _PDF1_International business research output and rankings of Asia-Pacific universities A 40-year time-series analysis.pdf_PDF2_ International business research output and rankings of Asia-Pacific universities: A 40-year time-series analysis. _A_EM_ Asia Pacific Journal of Management_EM_, 35, 993-1023. Doi: 10.1007/s10490-017-9536-x.</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>759</v>
       </c>
@@ -7010,6 +9036,12 @@
       <c r="C101" s="4" t="s">
         <v>923</v>
       </c>
+      <c r="D101" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>930</v>
+      </c>
       <c r="F101" s="4" t="s">
         <v>761</v>
       </c>
@@ -7026,8 +9058,18 @@
         <v>5</v>
       </c>
       <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="1"/>
+        <v>Bickenbach, F., Dohse, D., and Liu, W. H. (2017). _PDF1_University Students Entrepreneurial Intentions A Comparative Analysis of Hong Kong and Guangzhou.pdf_PDF2_ University Students’ Entrepreneurial Intentions: A Comparative Analysis of Hong Kong and Guangzhou. _A_EM_ China and World Economy_EM_, 25, 60-84. Doi: 10.1111/cwe.12194.</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>764</v>
       </c>
@@ -7037,6 +9079,9 @@
       <c r="C102" s="4" t="s">
         <v>766</v>
       </c>
+      <c r="D102" s="5" t="s">
+        <v>932</v>
+      </c>
       <c r="F102" s="4" t="s">
         <v>767</v>
       </c>
@@ -7055,8 +9100,18 @@
       <c r="L102" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="1"/>
+        <v>Chau, K. W. (2005). _PDF1_Social entrepreneurial intentions and its influential factors A comparison of students in Taiwan and Hong Kong.pdf_PDF2_ Problem-based learning approach in accomplishing innovation and entrepreneurship of civil engineering undergraduates. _A_EM_ International Journal of Engineering Education_EM_, 21, 228-232. Doi.</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>770</v>
       </c>
@@ -7081,8 +9136,18 @@
       <c r="K103" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="1"/>
+        <v>Chui, C. H.-k., Peng, S., Lai, V., Chan, C. H., and Fung, S. (2025). _PDF1_Enhancing Social Entrepreneurial Intentions through Entrepreneurial Creativity A Comparative Study Between Taiwan and Hong Kong.pdf_PDF2_ Enhancing Social Entrepreneurial Competence Amongst University Students: A Social Entrepreneurship Pedagogical Model in Hong Kong. _A_EM_ Journal of Social Entrepreneurship_EM_, 16, 817-836. Doi: 10.1080/19420676.2023.2217427.</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>777</v>
       </c>
@@ -7092,8 +9157,12 @@
       <c r="C104" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
+      <c r="D104" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="F104" s="7" t="s">
         <v>59</v>
       </c>
@@ -7103,14 +9172,26 @@
       <c r="H104" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="I104" s="6"/>
+      <c r="I104" s="6" t="s">
+        <v>933</v>
+      </c>
       <c r="J104" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="1"/>
+        <v>Dai, M., Kou, S., Soner, H. M., and Yang, C. (2023). _PDF1_Leveraged Exchange-Traded Funds with Market Closure and Frictions.pdf_PDF2_ Leveraged Exchange-Traded Funds with Market Closure and Frictions. _A_EM_ Management Science_EM_, 69, 2517-2535. Doi: 10.1287/mnsc.2022.4407.</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>778</v>
       </c>
@@ -7120,6 +9201,12 @@
       <c r="C105" s="4" t="s">
         <v>780</v>
       </c>
+      <c r="D105" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>934</v>
+      </c>
       <c r="F105" s="4" t="s">
         <v>781</v>
       </c>
@@ -7135,8 +9222,18 @@
       <c r="K105" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="1"/>
+        <v>Gallegos, A., Valencia-Arias, A., Aliaga Bravo, V. D. C., Teodori de la Puente, R., Valencia, J., Uribe-Bedoya, H., Briceño Huerta, V., Vega-Mori, L., and Rodriguez-Correa, P. (2024). _PDF1_Factors that determine the entrepreneurial intention of university students a gender perspective in the context of an emerging economy.pdf_PDF2_ Factors that determine the entrepreneurial intention of university students: a gender perspective in the context of an emerging economy. _A_EM_ Cogent Social Sciences_EM_, 10. Doi: 10.1080/23311886.2024.2301812.</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>783</v>
       </c>
@@ -7146,6 +9243,12 @@
       <c r="C106" s="4" t="s">
         <v>785</v>
       </c>
+      <c r="D106" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>936</v>
+      </c>
       <c r="F106" s="4" t="s">
         <v>786</v>
       </c>
@@ -7155,6 +9258,9 @@
       <c r="H106" s="4" t="s">
         <v>762</v>
       </c>
+      <c r="I106" s="4" t="s">
+        <v>988</v>
+      </c>
       <c r="J106" s="3" t="s">
         <v>4</v>
       </c>
@@ -7164,8 +9270,18 @@
       <c r="L106" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="1"/>
+        <v>Hou, F., Qi, M.-D., Su, Y., Wu, Y. J., and Tang, J.-Y. (2023). _PDF1_How does university-based entrepreneurship education facilitate the development of entrepreneurial Intention？Integrating passion- and competency-based perspectives.pdf_PDF2_ How does university-based entrepreneurship education facilitate the development of entrepreneurial Intention？Integrating passion- and competency-based perspectives. _A_EM_ International Journal of Management Education_EM_, 21, N.PAG-N.PAG. Doi: 10.1016/j.ijme.2023.100798.</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>787</v>
       </c>
@@ -7174,6 +9290,12 @@
       </c>
       <c r="C107" s="4" t="s">
         <v>789</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>938</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>790</v>
@@ -7194,8 +9316,18 @@
       <c r="L107" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="1"/>
+        <v>Hou, F., Su, Y., Qi, M., Chen, J., and Tang, J. (2022). _PDF1_A Multilevel Model of Entrepreneurship Education and Entrepreneurial Intention Opportunity Recognition as a Mediator and Entrepreneurial Learning as a Moderator.pdf_PDF2_ A Multilevel Model of Entrepreneurship Education and Entrepreneurial Intention: Opportunity Recognition as a Mediator and Entrepreneurial Learning as a Moderator. _A_EM_ Frontiers in Psychology_EM_, 13. Doi: 10.3389/fpsyg.2022.837388.</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>793</v>
       </c>
@@ -7205,6 +9337,12 @@
       <c r="C108" s="4" t="s">
         <v>795</v>
       </c>
+      <c r="D108" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>941</v>
+      </c>
       <c r="F108" s="4" t="s">
         <v>796</v>
       </c>
@@ -7223,8 +9361,18 @@
       <c r="L108" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O108" t="str">
+        <f t="shared" si="1"/>
+        <v>Hsu, C.-Y. and  Wang, S.-M. (2019). _PDF1_The entrepreneurial support and the performance of new venture creation the mediation effect of the acquisition of skills and the learning of novice entrepreneurs.pdf_PDF2_ Social entrepreneurial intentions and its influential factors: A comparison of students in Taiwan and Hong Kong. _A_EM_ Innovations in Education and Teaching International_EM_, 56, 385-395. Doi: 10.1080/14703297.2018.1427611.</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>798</v>
       </c>
@@ -7234,6 +9382,12 @@
       <c r="C109" s="4" t="s">
         <v>800</v>
       </c>
+      <c r="D109" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>943</v>
+      </c>
       <c r="F109" s="4" t="s">
         <v>801</v>
       </c>
@@ -7252,8 +9406,18 @@
       <c r="L109" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="1"/>
+        <v>Hui, P. P. and  Leung, V. K. K. (2025). _PDF1_Knowing thoughts by seeing deeds The role of creative self-concept entrepreneurial mindset and creative behaviour in innovation and entrepreneurship education.pdf_PDF2_ Knowing thoughts by seeing deeds: The role of creative self-concept, entrepreneurial mindset, and creative behaviour in innovation and entrepreneurship education. _A_EM_ Industry and Higher Education_EM_, 39, 427-438. Doi: 10.1177/09504222251346231.</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>803</v>
       </c>
@@ -7263,6 +9427,9 @@
       <c r="C110" s="4" t="s">
         <v>805</v>
       </c>
+      <c r="D110" s="5" t="s">
+        <v>944</v>
+      </c>
       <c r="F110" s="4" t="s">
         <v>806</v>
       </c>
@@ -7281,8 +9448,16 @@
       <c r="L110" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="O110" t="str">
+        <f t="shared" si="1"/>
+        <v>Ip, C. Y., Liang, C., Wu, S.-C., Law, K. M. Y., and Liu, H.-C. (2018). _PDF1__PDF2_ Enhancing Social Entrepreneurial Intentions through Entrepreneurial Creativity: A Comparative Study Between Taiwan and Hong Kong. _A_EM_ Creativity Research Journal_EM_, 30, 132-142. Doi: 10.1080/10400419.2018.1446744.</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>808</v>
       </c>
@@ -7307,8 +9482,18 @@
       <c r="J111" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="1"/>
+        <v>Jia, N. (2014). _PDF1_Equity Financing for Early-Stage Companies in China.pdf_PDF2_ Equity Financing for Early-Stage Companies in China (CARE Conference Hong Kong Polytechnic University, June 9, 2014). _A_EM_ Journal of Applied Corporate Finance_EM_, 26, 71-75. Doi: 10.1111/jacf.12082.</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>813</v>
       </c>
@@ -7318,6 +9503,12 @@
       <c r="C112" s="4" t="s">
         <v>815</v>
       </c>
+      <c r="D112" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>946</v>
+      </c>
       <c r="F112" s="4" t="s">
         <v>816</v>
       </c>
@@ -7333,8 +9524,18 @@
       <c r="K112" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O112" t="str">
+        <f t="shared" si="1"/>
+        <v>Law, K. M. Y. and  Breznik, K. (2017). _PDF1_Impacts of innovativeness and attitude on entrepreneurial intention among engineering and non-engineering students.pdf_PDF2_ Impacts of innovativeness and attitude on entrepreneurial intention: among engineering and non-engineering students. _A_EM_ International Journal of Technology and Design Education_EM_, 27, 683-700. Doi: 10.1007/s10798-016-9373-0.</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>818</v>
       </c>
@@ -7344,6 +9545,12 @@
       <c r="C113" s="4" t="s">
         <v>924</v>
       </c>
+      <c r="D113" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>948</v>
+      </c>
       <c r="F113" s="4" t="s">
         <v>820</v>
       </c>
@@ -7362,8 +9569,16 @@
       <c r="L113" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N113" s="4"/>
+      <c r="O113" t="str">
+        <f t="shared" si="1"/>
+        <v>Law, K. M. Y. and  Jakubiak, M. (2020). _PDF1__PDF2_ Determinants of students’ entrepreneurial intention - a comparative study in Poland and Hong Kong. _A_EM_ International Journal of Innovation and Learning_EM_, 28, 59-81. Doi: 10.1504/IJIL.2020.108459.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>823</v>
       </c>
@@ -7373,6 +9588,12 @@
       <c r="C114" s="4" t="s">
         <v>825</v>
       </c>
+      <c r="D114" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>950</v>
+      </c>
       <c r="F114" s="4" t="s">
         <v>826</v>
       </c>
@@ -7388,8 +9609,18 @@
       <c r="L114" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="1"/>
+        <v>Leung, S., Mo, P., Ling, H., Chandra, Y., and Ho, S. S. (2019). _PDF1_Enhancing the competitiveness and sustainability of social enterprises in Hong Kong A three-dimensional analysis.pdf_PDF2_ Enhancing the competitiveness and sustainability of social enterprises in Hong Kong: A three-dimensional analysis. _A_EM_ China Journal of Accounting Research_EM_, 12, 157-176. Doi: 10.1016/j.cjar.2019.03.002.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>828</v>
       </c>
@@ -7399,6 +9630,12 @@
       <c r="C115" s="4" t="s">
         <v>830</v>
       </c>
+      <c r="D115" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>952</v>
+      </c>
       <c r="F115" s="4" t="s">
         <v>831</v>
       </c>
@@ -7417,8 +9654,18 @@
       <c r="L115" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="1"/>
+        <v>Liang, C., Ip, C. Y., Wu, S.-C., Law, K. M. Y., Wang, J.-H., Peng, L.-P., and Liu, H.-C. (2019). _PDF1_Problem-based learning approach in accomplishing innovation and entrepreneurship of civil engineering undergraduates.pdf_PDF2_ Personality traits, social capital, and entrepreneurial creativity: comparing green socioentrepreneurial intentions across Taiwan and Hong Kong. _A_EM_ Studies in Higher Education_EM_, 44, 1086-1102. Doi: 10.1080/03075079.2017.1418310.</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>833</v>
       </c>
@@ -7428,6 +9675,9 @@
       <c r="C116" s="4" t="s">
         <v>835</v>
       </c>
+      <c r="D116" s="5" t="s">
+        <v>953</v>
+      </c>
       <c r="F116" s="4" t="s">
         <v>836</v>
       </c>
@@ -7443,8 +9693,18 @@
       <c r="K116" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="1"/>
+        <v>Liang, Y. and  Wang, J. (2023). _PDF1_Factors Influencing the Entrepreneurial Intentions of Hong Kong and Macao Students in Chinese Mainland Universities in the Context of Guangdong-Hong Kong-Macao Greater Bay Area A Study from the Perspective of Cultivating Innovative Talents.pdf_PDF2_ Factors Influencing the Entrepreneurial Intentions of Hong Kong and Macao Students in Chinese Mainland Universities in the Context of Guangdong-Hong Kong-Macao Greater Bay Area: A Study from the Perspective of Cultivating Innovative Talents. _A_EM_ Frontiers of Business Research in China_EM_, 17, 253-271. Doi: 10.3868/s070-008-023-0012-3.</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>838</v>
       </c>
@@ -7454,6 +9714,9 @@
       <c r="C117" s="4" t="s">
         <v>925</v>
       </c>
+      <c r="E117" s="5" t="s">
+        <v>954</v>
+      </c>
       <c r="F117" s="4" t="s">
         <v>840</v>
       </c>
@@ -7469,8 +9732,18 @@
       <c r="L117" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="1"/>
+        <v>Liu, D. (2022). _PDF1_Optimizing Personality Traits and Entrepreneurial Creativity to Boost the Precursors of Social Entrepreneurial Intentions Five Studies in Taiwan.pdf_PDF2_ Opportunities and challenges of graduate entrepreneurship in China’s Greater Bay Area: cases in Hong Kong and Shenzhen. _A_EM_ Asian Education and Development Studies_EM_, 11, 82-93. Doi: 10.1108/aeds-08-2020-0179.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>843</v>
       </c>
@@ -7480,6 +9753,12 @@
       <c r="C118" s="4" t="s">
         <v>845</v>
       </c>
+      <c r="D118" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>956</v>
+      </c>
       <c r="F118" s="4" t="s">
         <v>846</v>
       </c>
@@ -7495,8 +9774,18 @@
       <c r="L118" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="1"/>
+        <v>Liu, H.-C., Liang, C., Chang, C.-C., Ip, C. Y., and Liang, C.-T. (2021). _PDF1_Personality traits social capital and entrepreneurial creativity comparing green socioentrepreneurial intentions across Taiwan and Hong Kong.pdf_PDF2_ Optimizing Personality Traits and Entrepreneurial Creativity to Boost the Precursors of Social Entrepreneurial Intentions: Five Studies in Taiwan. _A_EM_ Journal of Social Service Research_EM_, 47, 10-32. Doi: 10.1080/01488376.2019.1708840.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>848</v>
       </c>
@@ -7506,6 +9795,12 @@
       <c r="C119" s="4" t="s">
         <v>850</v>
       </c>
+      <c r="D119" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>958</v>
+      </c>
       <c r="F119" s="4" t="s">
         <v>851</v>
       </c>
@@ -7524,8 +9819,18 @@
       <c r="L119" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="1"/>
+        <v>Liu, S., Sun, H., Zhuang, J., Xiong, R., and Of, I. P. (2023). _PDF1_The impact of entrepreneurial education on entrepreneurial intention of engineering students in Hong Kong.pdf_PDF2_ The Impact of E-Learning Technologies on Entrepreneurial and Sustainability Performance. _A_EM_ Sustainability_EM_, 15, 15660. Doi: 10.3390/su152115660.</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>853</v>
       </c>
@@ -7535,6 +9840,9 @@
       <c r="C120" s="4" t="s">
         <v>855</v>
       </c>
+      <c r="E120" s="5" t="s">
+        <v>959</v>
+      </c>
       <c r="F120" s="4" t="s">
         <v>856</v>
       </c>
@@ -7556,8 +9864,18 @@
       <c r="L120" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="1"/>
+        <v>Lok, K. L., Yeung, J. F. Y., Opoku, A., Kumah, V. M. A., and Wong, C. T. (2025). _PDF1_Developing sustainable outsourcing strategies for facilities management a study of educational facilities in Hong Kong.pdf_PDF2_ Developing sustainable outsourcing strategies for facilities management: a study of educational facilities in Hong Kong. _A_EM_ Journal of Corporate Real Estate_EM_. Doi: 10.1108/jcre-03-2025-0016.</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>858</v>
       </c>
@@ -7567,6 +9885,9 @@
       <c r="C121" s="4" t="s">
         <v>860</v>
       </c>
+      <c r="D121" s="9" t="s">
+        <v>960</v>
+      </c>
       <c r="F121" s="4" t="s">
         <v>781</v>
       </c>
@@ -7582,8 +9903,18 @@
       <c r="K121" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="1"/>
+        <v>Mohamed, F., Karoui Zouaoui, S., and Bel Haj Mohamed, A. (2024). _PDF1_The Impact of E-Learning Technologies on Entrepreneurial and Sustainability Performance.pdf_PDF2_ The entrepreneurial support and the performance of new venture creation: the mediation effect of the acquisition of skills and the learning of novice entrepreneurs. _A_EM_ Cogent Social Sciences_EM_, 10. Doi: 10.1080/23311886.2024.2330142.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>862</v>
       </c>
@@ -7593,6 +9924,9 @@
       <c r="C122" s="4" t="s">
         <v>864</v>
       </c>
+      <c r="D122" s="9" t="s">
+        <v>961</v>
+      </c>
       <c r="F122" s="4" t="s">
         <v>865</v>
       </c>
@@ -7602,11 +9936,24 @@
       <c r="H122" s="4" t="s">
         <v>769</v>
       </c>
+      <c r="I122" s="4" t="s">
+        <v>989</v>
+      </c>
       <c r="J122" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="1"/>
+        <v>Mumtaz, U. and  Faisal, M. (2024). _PDF1_Navigating managerial and entrepreneurial reforms in research-intensive universities A comparison of early career trajectories in Hong Kong and Canada.pdf_PDF2_ Mapping the landscape: a comprehensive bibliometric analysis of literature on entrepreneurship in tourism (2013–2023). _A_EM_ Journal of Global Entrepreneurship Research_EM_, 14, 1-21. Doi: 10.1007/s40497-024-00399-z.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>866</v>
       </c>
@@ -7634,8 +9981,18 @@
       <c r="L123" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O123" t="str">
+        <f t="shared" si="1"/>
+        <v>Nichols, N. and  Hayes Tang, H. h. (2022). _PDF1_Opportunities and challenges of graduate entrepreneurship in Chinas Greater Bay Area cases in Hong Kong and Shenzhen.pdf_PDF2_ Navigating managerial and entrepreneurial reforms in research-intensive universities: A comparison of early career trajectories in Hong Kong and Canada. _A_EM_ Higher Education Quarterly_EM_, 76, 116-130. Doi: 10.1111/hequ.12297.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>871</v>
       </c>
@@ -7645,6 +10002,9 @@
       <c r="C124" s="4" t="s">
         <v>873</v>
       </c>
+      <c r="D124" t="s">
+        <v>962</v>
+      </c>
       <c r="F124" s="4" t="s">
         <v>49</v>
       </c>
@@ -7660,8 +10020,18 @@
       <c r="K124" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="1"/>
+        <v>Siu, W.-s. and  Lo, E. S.-c. (2013). _PDF1_Cultural contingency in the cognitive model of entrepreneurial intention.pdf_PDF2_ Cultural contingency in the cognitive model of entrepreneurial intention. _A_EM_ Entrepreneurship Theory and Practice_EM_, 37, 147-173. Doi: 10.1111/j.1540-6520.2011.00462.x.</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>875</v>
       </c>
@@ -7671,6 +10041,12 @@
       <c r="C125" s="4" t="s">
         <v>877</v>
       </c>
+      <c r="D125" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="E125" t="s">
+        <v>964</v>
+      </c>
       <c r="F125" s="4" t="s">
         <v>878</v>
       </c>
@@ -7686,8 +10062,18 @@
       <c r="K125" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun, H., Lo, C. T., Liang, B., and Wong, Y. L. B. (2017). _PDF1_Transdisciplinary Workplace Research Conference 2024.pdf_PDF2_ The impact of entrepreneurial education on entrepreneurial intention of engineering students in Hong Kong. _A_EM_ Management Decision_EM_, 55, 1371-1393. Doi: 10.1108/MD-06-2016-0392.</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>880</v>
       </c>
@@ -7697,6 +10083,12 @@
       <c r="C126" s="4" t="s">
         <v>882</v>
       </c>
+      <c r="D126" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E126" t="s">
+        <v>966</v>
+      </c>
       <c r="F126" s="4" t="s">
         <v>883</v>
       </c>
@@ -7712,8 +10104,18 @@
       <c r="L126" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="1"/>
+        <v>Uctu, R. and  Jafta, R. C. C. (2012). _PDF1_Academic entrepreneurship in South East Asia an exploratory study of spin-offs in biotechnology from Hong Kong universities.pdf_PDF2_ Academic entrepreneurship in South East Asia: an exploratory study of spin-offs in biotechnology from Hong Kong universities. _A_EM_ Asian Journal of Technology Innovation_EM_, 20, 141-154. Doi: 10.1080/19761597.2012.681439.</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>885</v>
       </c>
@@ -7723,6 +10125,12 @@
       <c r="C127" s="4" t="s">
         <v>887</v>
       </c>
+      <c r="D127" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="E127" t="s">
+        <v>968</v>
+      </c>
       <c r="F127" s="4" t="s">
         <v>888</v>
       </c>
@@ -7738,8 +10146,18 @@
       <c r="K127" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="1"/>
+        <v>Wardana, L. W., Martha, J. A., Wati, A. P., Narmaditya, B. S., Setyawati, A., Maula, F. I., Mahendra, A. M., and Suparno, S. (2024). _PDF1_Does entrepreneurial self-efficacy really matter for entrepreneurial intention Lesson from covid-19.pdf_PDF2_ Does entrepreneurial self-efficacy really matter for entrepreneurial intention? Lesson from covid-19. _A_EM_ Cogent Education_EM_, 11. Doi: 10.1080/2331186X.2024.2317231.</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>890</v>
       </c>
@@ -7749,6 +10167,12 @@
       <c r="C128" s="4" t="s">
         <v>926</v>
       </c>
+      <c r="D128" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="E128" t="s">
+        <v>970</v>
+      </c>
       <c r="F128" s="4" t="s">
         <v>892</v>
       </c>
@@ -7764,8 +10188,18 @@
       <c r="L128" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="1"/>
+        <v>Wong, H. Y. H. and  Chan, C. K. Y. (2023). _PDF1_Assessing engineering students perspectives of entrepreneurship education within higher education a comparative study in Hong Kong.pdf_PDF2_ Assessing engineering students’ perspectives of entrepreneurship education within higher education: a comparative study in Hong Kong. _A_EM_ Assessment &amp; Evaluation in Higher Education_EM_, 48, 847-859. Doi: 10.1080/02602938.2022.2137103.</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>894</v>
       </c>
@@ -7775,6 +10209,12 @@
       <c r="C129" s="4" t="s">
         <v>927</v>
       </c>
+      <c r="D129" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="E129" t="s">
+        <v>972</v>
+      </c>
       <c r="F129" s="4" t="s">
         <v>896</v>
       </c>
@@ -7784,6 +10224,9 @@
       <c r="H129" s="4" t="s">
         <v>762</v>
       </c>
+      <c r="I129" s="4" t="s">
+        <v>990</v>
+      </c>
       <c r="J129" s="3" t="s">
         <v>4</v>
       </c>
@@ -7793,8 +10236,18 @@
       <c r="L129" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhang, F., Wei, L., Sun, H., and Tung, L. C. (2019). _PDF1_How entrepreneurial learning impacts ones intention towards entrepreneurship.pdf_PDF2_ How entrepreneurial learning impacts one’s intention towards entrepreneurship. _A_EM_ Chinese Management Studies_EM_, 13, 146-170. Doi: 10.1108/CMS-06-2018-0556.</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>897</v>
       </c>
@@ -7803,6 +10256,12 @@
       </c>
       <c r="C130" s="4" t="s">
         <v>899</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="E130" t="s">
+        <v>974</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>790</v>
@@ -7823,8 +10282,18 @@
       <c r="L130" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="1"/>
+        <v>Zhuang, J., Xiong, R., and Sun, H. (2022). _PDF1_Impact of personality traits on start-up preparation of Hong Kong youths.pdf_PDF2_ Impact of personality traits on start-up preparation of Hong Kong youths. _A_EM_ Frontiers in Psychology_EM_, 13, 994814. Doi: 10.3389/fpsyg.2022.994814.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>901</v>
       </c>
@@ -7834,6 +10303,12 @@
       <c r="C131" s="4" t="s">
         <v>903</v>
       </c>
+      <c r="D131" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="E131" t="s">
+        <v>976</v>
+      </c>
       <c r="F131" s="4" t="s">
         <v>904</v>
       </c>
@@ -7849,10 +10324,20 @@
       <c r="K131" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="M131" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O131" t="str">
+        <f t="shared" ref="O131" si="2">SUBSTITUTE(M131,"_PDF_",_xlfn.CONCAT("_PDF1_",N131,"_PDF2_"))</f>
+        <v>Zhuo, Z. (2022). _PDF1_Improving Students’ Satisfaction with the Quality of Innovation and Entrepreneurship Education in Colleges and Universities in the Guangdong-Hong Kong-Macao Greater Bay Area.pdf_PDF2_ Improving Students’ Satisfaction with the Quality of Innovation and Entrepreneurship Education in Colleges and Universities in the Guangdong-Hong Kong-Macao Greater Bay Area. _A_EM_ Chinese Education and Society_EM_, 55, 286-306. Doi: 10.1080/10611932.2022.2136461.</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L131" xr:uid="{EDBF95E6-9381-5E49-B225-2FA3E11314B2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L131">
+  <autoFilter ref="A1:N131" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:N131">
       <sortCondition ref="A1:A131"/>
     </sortState>
   </autoFilter>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5DF32-8D9D-3640-94F8-AEDD9B6824EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEC0CE-F934-D44E-8789-A8C4EEFA35F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4220" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="3720" yWindow="4780" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="824">
   <si>
     <t>#</t>
   </si>
@@ -2410,9 +2410,6 @@
     <t>Based on the theory of planned behavior, this study considers entrepreneurial traits and divides the entrepreneurial environment into policy environment, economic environment, and educational and cultural environment. Using SPSS 23.0 and Amos 24.0 softwares, a structural equation model of entrepreneurial intentions for university students originating from Hong Kong and Macao is constructed. A questionnaire survey method is used to collect data from 689 Hong Kong and Macao students in Chinese mainland universities to explore the factors influencing their entrepreneurial intentions and the ranges of their entrepreneurial intentions based on demographic variables. The results show that entrepreneurial attitude, subjective norms, perceived behavioral control, entrepreneurial traits, and entrepreneurial environment have a significant positive impact on the entrepreneurial intentions of Hong Kong and Macao students in the mainland universities. Male students have a higher level of entrepreneurial intentions than female students. Hong Kong students are more likely to have entrepreneurial intentions than Macao students, and students in Guangdong-Hong Kong-Macao Greater Bay Area (briefly, Greater Bay Area) universities are more likely to have such intentions than those from non-Greater Bay Area universities. Students majoring in science, engineering and medicine show a lower likelihood of intension than those majoring in humanities and social sciences. To comprehensively improve the entrepreneurial intentions of Hong Kong and Macao students and enable them to better shoulder their responsibilities in sharing the development dividends of the Greater Bay Area, it is necessary to start from the entrepreneurial environment and from the perspective of cultivating innovative talents. A support framework that integrates a training system, an ecological system, and a resource system is proposed to support students from Hong Kong and Macao in entrepreneurial development in the mainland.</t>
   </si>
   <si>
-    <t>entrepreneurial intention, students originating from Hong Kong and Macao, innovative talents, Guangdong-Hong Kong-Macao Greater Bay Area</t>
-  </si>
-  <si>
     <t>This study tested the model proposed by Hockerts, who revised the framework proposed by Mair and Noboa by retaining empathy, self-efficacy, and perceived social support and by adding moral obligation and prior experience of social problems as precursors of social entrepreneurial intentions. This model was further perfected by including personality traits as precursors and entrepreneurial creativity as a mediator. A total of 1,930 participants were included in the five subsequent survey studies. The results revealed that personality traits and prior experience predicted social entrepreneurial intentions through the mediation of entrepreneurial creativity and the four precursors identified earlier. This mediating model responded differently across academic fields, socioeconomic contexts, and work experiences mainly because of prior experience, empathy, and usefulness. Future research could investi- gate how the alternative model including personality traits, social responsibility, and the nature of different social problems is associated with social entrepreneurial intentions.</t>
   </si>
   <si>
@@ -2428,8 +2425,116 @@
     <t>Facilities Management (FM), Outsourcing Services, Outsourcing Strategies, Sustainable Outsourcing, Educational Facilities</t>
   </si>
   <si>
+    <t>Several investigations have evaluated the research trajectory concerning entrepreneurship; nonetheless, only a few studies have examined the literature trajectory regarding entrepreneurship in tourism. Therefore, this research explores papers spanning from 2013 to 2023, mapping thematic, intellectual, and conceptual frameworks using bibliometric techniques. The research delves into scientific output, prolific authors, influential articles, co-occurrence of keywords, co-citations, and many others. The keywords “tourism” OR “travel &amp; tourism” AND “entrepreneurship” OR “entrepreneur” were strategically employed to encompass 514 articles and review papers published in English between 2013 and 2023. VOSviewer was used as a technique for doing topic grouping alongside performance analysis. With 85 articles, 2023 is the most productive year. The most influential institution is “The Hong Kong Polytechnic University” and the nation is the United Kingdom correspondingly. Likewise, the most renowned journal is “Tourism management,” and the most productive journal is “journal of sustainable tourism”. Furthermore, the most cited article is “Scale, change and resilience in community tourism planning.” This research provides researchers with insights into the existing state of research on entrepreneurship in tourism and offers guidance for future research. This study is the inaugural endeavor to present both performance evaluations and scientific clusters of the literature on entrepreneurship in tourism.</t>
+  </si>
+  <si>
+    <t>This study examines the impact of individualism–collectivism orientation on the cognitive model of entrepreneurial intention in a collectivist environment (i.e., China). Using a sample of 204 MBA students from China and Hong Kong, we investigate the moderating effect of self-construal on the relationship between perceptual factors and entrepreneurial intention. The results show that the strength of perceived social norms in predicting entrepreneurial intention depends on interdependent self-construal. The resulting nonsignificance of per- sonal attitude contradicts findings reported in individualist contexts. This study develops a sound theory to explain the cultural contingency in the cognitive model of entrepreneurial intention.</t>
+  </si>
+  <si>
+    <t>Purpose – Theory of planned behavior (TPB) has been used to study the impact of entrepreneurial education (EE) on entrepreneurial intention (EI) for more than 20 years, yet an intensive literature review reveals that there are gaps in both the conceptual models and the research methods. The purpose of this paper is to investigate the impact of EE on EI with a view to address the gaps in previous research.
+Design/methodology/approach – This research proposes a conceptual model that links the entire antecedent variables of TPB and the elaborated four components of entrepreneurship education (Why, What, How, and Who). The model is tested by a structural equation modeling with the empirical data from 200 engineering students from three universities in Hong Kong.
+Findings – The empirical test reveals that the four components of entrepreneurial education do influence attitude, social norm, self-efficacy, and EI, correspondingly. Additionally, it also reveals that the four EE components and the three TPB antecedent variables are also interrelated with each other.
+Originality/value – This study bridges specific education components and EI, providing significant insight into how the key components influence the entrepreneurial attitudes and intentions of students. It fills the gap in the knowledge required for fostering EI through entrepreneurship education. It not only answers the question on whether EE influences EI but also on how to nurture the intention by designing a relevant EE course.</t>
+  </si>
+  <si>
+    <t>Education components, Entrepreneurial intention (EI), Entrepreneurship education (EE), Theory of planned behaviour (TPB)</t>
+  </si>
+  <si>
+    <t>University research with associated spin-offs is at the heart of knowledge generation in the biotechnology industry. However, only a few studies have so far dealt with biotechnology university spin-offs in Hong Kong (HK), a latecomer in this industry. The purpose of this research is to gather information about the history and innovative status of biotechnology university spin-off companies in HK in order to understand the dynamics of this phenomenon better. This study arrived at several important conclusions about biotechnology spin-off firms in Hong Kong; specifically that the firms are relatively small in size and young, were mostly formed by university staff, and created with joint effort. In addition, these firms developed commercial products and services, are aware of intellectual property protection, are motivated to create spin-offs in order to apply knowledge to practical applications and utilize market opportunities. However, the firms also face challenges, such as difficulties in accurately estimating the market demand for their products, and technical problems in the development and production of their products. Furthermore, difficulties with financing are also an important inhibitor to success.</t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, spin-offs, university spin-offs, biotechnology industry, Hong Kong</t>
+  </si>
+  <si>
+    <t>Entrepreneurship has emerged a prominent of concern during Covid-19 pandemic, making essential contribution toward unemployment as a result of the pandemic. The purpose of this research is to look at the entrepreneurial intentions of students in Indonesia’s East Java Province. The research focuses on how students’ entrepreneurial intentions are influenced by their perception of their own abilities as entrepreneurs, as well as subjective criteria, role models, and success needs. To further understand the connections between these variables, this quantitative study used the Structural Equation Modeling (SEM) equation model based on Partial Least Square (PLS) variance. The research involved 340 East Java economics students who were polled. The findings indicate that subjective norms, role models, and needs for achievement affect students’ entrepreneurial intention. Additionally, the relationship between subjective norms, role models, achievement demands, and entrepreneurship intention is mediated by entrepreneurial self-efficacy. These results provide recommendations for Indonesian institutions and governments to improve their entrepreneurial education approach, emphasizing practice over theory. This research contributes to the scientific knowledge about students’ entrepreneurial intentions.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial self-efficacy, subjective norms, role model, needs for achievement, entrepreneurial intention</t>
+  </si>
+  <si>
+    <t>With the increasing interest in entrepreneurship education within engineering education, there are questions on what engineering entrepre- neurship education should include. As engineering entrepreneurship education aims to foster entrepreneurial individuals who will contribute to knowledge-based societies and economic growth, student perspectives are crucial. This study assessed first and final year engineering students’ perceptions on entrepreneurship education in a university in Hong Kong, identifying important competencies as learning outcomes and motivating and deterring factors for students to pursue entrepreneurship as a career. Findings offer implications for curriculum design and educational practices, particularly on formally offering entrepreneurship education in the engineering discipline, involving competencies development in educational practices and developing opportunities addressing students’ factors of motivation and deterrence.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship education, entrepreneurial competencies, higher education, learning outcomes</t>
+  </si>
+  <si>
+    <t>Purpose– Although entrepreneurial learning is widely believed as an important factor in shaping one’s entrepreneurial intention, research nds little consistent results on the direct effect of entrepreneurial learning on one’s entrepreneurial intention. To solve the con icted effects of entrepreneurial learning, the purpose of this paper is to explore how entrepreneurial learning may impact individual entrepreneurial intention.
+Design/methodology/approach– Drawing on the theory of planned behavior (TPB), the authors proposed and tested on a three mediating effect model, in which entrepreneurial learning is associated with entrepreneurial intention through attitude, subjective norm and perceived behavioral control toward entrepreneurship. Moreover, the moderating role of prior exposure to entrepreneurship was proposed and tested. Based on a sample of 200 university students who have taken entrepreneurial courses in Hong Kong, the hierarchical regressions and moderated mediation tests were used to test the hypotheses.
+Findings– The authors nd that the positive relationship between entrepreneurial learning and entrepreneurial intention is signi cantly mediated by attitude, subjective norm and perceived behavioral control toward entrepreneurship; and the mediating effects of entrepreneurial learning on entrepreneurial intention via attitudes and perceived behavioral control respectively, is moderated by exposure to entrepreneurship.
+Originality/value– Contributing to the literature of entrepreneurship education, this study identi es individuals who exposed to the same entrepreneurship education may perform differently in entrepreneurial learning. The ndings also help us to better understand the mechanism through which and under which context one’s entrepreneurial learning may enhance his/her entrepreneurial intention.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial intention, Entrepreneurial learning, A planned behaviour approach, Prior exposure to entrepreneurship</t>
+  </si>
+  <si>
+    <t>Entrepreneurship is a tool for driving economic and social progress. Especially in Hong Kong, the government has recently taken steps to encourage young people to engage in entrepreneurship. However, Hong Kong youths’ entrepreneurial intentions are still low. The objective of this study is to empirically explore the impacts of personality traits on start-up preparation among Hong Kong youths through the constructs of the theory of planned behavior (TPB). Through a multi-channel survey, we finally collected 230 valid respondents aged 18 to 40. In addition, this study used SmartPLS software to conduct confirmatory factor analysis for the measurement model as well as path analysis for the structural model. This study’s results suggested that creativity, risk-taking propensity, need for achievement, and internal locus of control influence TPB models’ components and indirectly influence start-up preparation through TPB models’ components. Also, attitude and perceived behavioral control influence intention, and intention influences preparation. Furthermore, prior entrepreneurial experience and entrepreneurship education positively influence preparation. In conclusion, this study revealed the mediating effects of TPB components between four personality traits and start-up preparation. Finally, this study had theoretical implications by providing the influence of six personality traits on youths’ entrepreneurial intention and preparation through the TPB model and the human capital theory. This study also had practical implications by providing suggestions for the government and higher education institutions.</t>
+  </si>
+  <si>
+    <t>entrepreneurial intention, human capital theory, start-up preparation, social networking, personality traits, theory of planned behavior</t>
+  </si>
+  <si>
+    <t>Innovative and entrepreneurial talents are central to building an international innovation technology hub in the Guangdong-Hong Kong-Macao Greater Bay Area and higher education plays the main role in cultivating such talents. In a random sampling, a total of 5,021 valid questionnaires were obtained from 58 colleges and universities in the Guangdong-Hong Kong-Macao Greater Bay Area, including the“9 þ 2” cities. The results show that the total satisfaction score of students’ evaluation of innovation and entrepreneurship education in colleges and universities was 3.43, which is in the upper-middle level. Specifically, the implementation and popularization of innovation and entrepreneurship education in colleges and universities is satisfactory, and the corresponding curriculum system can be adjusted in accordance with the strategic development trends of the Greater Bay Area. However, there are some problems to be solved. First, it is still difficult to integrate effectively the regional innovative and entrepreneurial resources in the process of innovation and entrepreneurship education. Second, innovation and entrepreneurship education emphasizes theory using a single teaching method, and there is insufficient integration with professional education. In addition, there is a shortage of innovation and entrepreneurship platforms for practice, and the cooperation mechanisms between colleges and universities, society, and government need to be improved. Last, there is a serious shortage of teachers. In order to promote the development of innovation and entrepreneurship edu- cation, colleges and universities must establish a hierarchical system based on their own conditions, taking advantage of the innovative and entrepreneurial resources and industrial characteristics of the core cities in the Guangdong-Hong Kong-Macao Greater Bay Area. Moreover, it’s necessary to develop excellent courses integrating professional education with innovation and entrepreneurship education, and improve the mechanisms of appointment and performance evaluation of instructors, to establish a good model of teachers and students innovating together.</t>
+  </si>
+  <si>
+    <t>Guangdong-Hong Kong-Macao Greater Bay Area, international innovation and technology hub, the quality of innovation and entrepreneurship education</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2023.17590</t>
+  </si>
+  <si>
+    <t>10.1287/mksc.2019.0121</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2021.02099</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2022.01588</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.17235</t>
+  </si>
+  <si>
+    <t>10.1287/opre.2024.0766</t>
+  </si>
+  <si>
+    <t>10.1287/mnsc.2022.00990</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2021.15661</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.1585</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2021.1493</t>
+  </si>
+  <si>
+    <t>10.1287/orsc.2022.1581</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijme.2023.100798</t>
+  </si>
+  <si>
+    <t>10.1007/s40497-024-00399-z</t>
+  </si>
+  <si>
+    <t>10.1108/CMS-06-2018-0556</t>
+  </si>
+  <si>
+    <t>Purpose – This study chooses to look at early-stage entrepreneurship and entrepreneurial activities from the perspective of university graduates. More specially, this study takes the stance of integrated role of structure and agency, examining how university graduate entrepreneurs recognize, review and activate their entrepreneurial opportunities, and what implications can be drawn in response to the integration of the inbuilding of the Greater Bay Area (GBA).
+Design/methodology/approach – This article is drawn upon 12 case studies of small-scaled (within five permanent personnel) graduate enterprises based in Shenzhen and Hong Kong. The fieldwork was conducted in 2019, including enterprise visits, analyzing the enterprises documents and interviewing the graduate entrepreneurs. Participants were accessed through snowball sampling, and personal privacy and ethnicity were guaranteed during data collection. All founders of the graduate enterprises are university graduates within five years, regardless of their last achieved academic degree.
+Findings – In this study, the objectivity–opportunity is interpreted as external enablers that are recognized by graduate entrepreneurs. Due to lack of experience, graduate entrepreneurs are more dependent on existing external opportunities in the market, instead of creating new inspirations. However, lack of experience does not mean the subjectivity–agency is missing. Instead, the subjectivity–element of entrepreneurial opportunity identification is the continuous evaluation in activating the external enablers, which is interpreted as selfevaluated challenges during entrepreneurial opportunity identification. These challenges function as sources of hesitation, modification and termination during their decision-making, as well as reflections of the current graduate entrepreneurial environment.
+Originality/value – By date, no sophisticated study in literature is found analyzing the entrepreneurial opportunity identification of university graduates. Additionally, regardless of the rising attention, no agreement is achieved in the literature on measurement of entrepreneurial opportunity, influential factors of entrepreneurial opportunity and sub-elements of the identification process. This implies that more research to be conducted in diverse contexts, sub-entrepreneurial groups and in-depth analysis of selected variables regarding entrepreneurial opportunity, as elaborated in this article.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial opportunity, Graduate entrepreneurship, China’s Greater Bay Area</t>
+  </si>
+  <si>
+    <t>Attention toward social entrepreneurship has increased worldwide, particularly within younger generations. Based on the identified model of social entrepreneurial intentions, this study proposed a multiple mediation framework to examine the mediating role of entrepreneurial creativity for university students. It also compared the differences between Taiwanese (N = 311) and Hong Kong students (N = 311). Through a survey using both online and offline channels, the results of Study 1 confirmed the factor structures of the 3 scales, involving 5 antecedents of social entrepreneurial intention (i.e., empathy, moral obligation, self-efficacy, perceived social support, and prior experience with social problems), 2 factors of entrepreneurial creativity (i.e., originality and usefulness), and 2 factors of social entrepreneurial intention (i.e. conviction and preparation). The results of Study 2 supported the proposed multiple mediation model across regions. Prior experience with social problems, perceived social support, and originality were identified as the 3 most influential factors affecting the social entrepreneurial intentions of university students. The major differences between Taiwan and Hong Kong involved prior experience, empathy, self-efficacy, perceived social support, and usefulness.</t>
+  </si>
+  <si>
     <t>Purpose
-Strategic-level support is crucial for the smooth adoption of a sustainable facilities management (FM) supply chain. Many firms, regardless of industry, aim for outsourcing success. However, poor performance from outsourced service providers remains a challenge. This study explores the concept of outsourcing relationships in FM and investigates the design of sustainable outsourcing strategies by analysing five theoretical perspectives: Transaction Cost Economics, Agency Cost Theory, Resource Dependency Theory, Entrepreneurial Action Theory, and Social Exchange Theory.
+ Strategic-level support is crucial for the smooth adoption of a sustainable facilities management (FM) supply chain. Many firms, regardless of industry, aim for outsourcing success. However, poor performance from outsourced service providers remains a challenge. This study explores the concept of outsourcing relationships in FM and investigates the design of sustainable outsourcing strategies by analysing five theoretical perspectives: Transaction Cost Economics, Agency Cost Theory, Resource Dependency Theory, Entrepreneurial Action Theory, and Social Exchange Theory.
 Design/Methodology/Approach
 This study utilises a quantitative approach based on two questionnaire surveys. Data were collected from 38 clients and 34 service providers to evaluate FM outsourcing strategies within educational facilities in Hong Kong. The research examines the effectiveness of outsourcing relationships and sustainability factors in FM service delivery.
 Findings
@@ -2438,100 +2543,14 @@
 This paper provides a novel discussion on sustainable outsourcing strategies in FM outsourcing services through a quantitative approach. By integrating multiple theoretical perspectives, the study offers valuable insights into optimising outsourcing relationships to promote sustainability and long-term success in FM operations. The research limitations include size of questionnaire survey, only four main FM outsourcing services, non-financial aspects of the FM outsourcing contracts and single higher tertiary education industry.</t>
   </si>
   <si>
-    <t>Several investigations have evaluated the research trajectory concerning entrepreneurship; nonetheless, only a few studies have examined the literature trajectory regarding entrepreneurship in tourism. Therefore, this research explores papers spanning from 2013 to 2023, mapping thematic, intellectual, and conceptual frameworks using bibliometric techniques. The research delves into scientific output, prolific authors, influential articles, co-occurrence of keywords, co-citations, and many others. The keywords “tourism” OR “travel &amp; tourism” AND “entrepreneurship” OR “entrepreneur” were strategically employed to encompass 514 articles and review papers published in English between 2013 and 2023. VOSviewer was used as a technique for doing topic grouping alongside performance analysis. With 85 articles, 2023 is the most productive year. The most influential institution is “The Hong Kong Polytechnic University” and the nation is the United Kingdom correspondingly. Likewise, the most renowned journal is “Tourism management,” and the most productive journal is “journal of sustainable tourism”. Furthermore, the most cited article is “Scale, change and resilience in community tourism planning.” This research provides researchers with insights into the existing state of research on entrepreneurship in tourism and offers guidance for future research. This study is the inaugural endeavor to present both performance evaluations and scientific clusters of the literature on entrepreneurship in tourism.</t>
-  </si>
-  <si>
-    <t>This study examines the impact of individualism–collectivism orientation on the cognitive model of entrepreneurial intention in a collectivist environment (i.e., China). Using a sample of 204 MBA students from China and Hong Kong, we investigate the moderating effect of self-construal on the relationship between perceptual factors and entrepreneurial intention. The results show that the strength of perceived social norms in predicting entrepreneurial intention depends on interdependent self-construal. The resulting nonsignificance of per- sonal attitude contradicts findings reported in individualist contexts. This study develops a sound theory to explain the cultural contingency in the cognitive model of entrepreneurial intention.</t>
-  </si>
-  <si>
-    <t>Purpose – Theory of planned behavior (TPB) has been used to study the impact of entrepreneurial education (EE) on entrepreneurial intention (EI) for more than 20 years, yet an intensive literature review reveals that there are gaps in both the conceptual models and the research methods. The purpose of this paper is to investigate the impact of EE on EI with a view to address the gaps in previous research.
-Design/methodology/approach – This research proposes a conceptual model that links the entire antecedent variables of TPB and the elaborated four components of entrepreneurship education (Why, What, How, and Who). The model is tested by a structural equation modeling with the empirical data from 200 engineering students from three universities in Hong Kong.
-Findings – The empirical test reveals that the four components of entrepreneurial education do influence attitude, social norm, self-efficacy, and EI, correspondingly. Additionally, it also reveals that the four EE components and the three TPB antecedent variables are also interrelated with each other.
-Originality/value – This study bridges specific education components and EI, providing significant insight into how the key components influence the entrepreneurial attitudes and intentions of students. It fills the gap in the knowledge required for fostering EI through entrepreneurship education. It not only answers the question on whether EE influences EI but also on how to nurture the intention by designing a relevant EE course.</t>
-  </si>
-  <si>
-    <t>Education components, Entrepreneurial intention (EI), Entrepreneurship education (EE), Theory of planned behaviour (TPB)</t>
-  </si>
-  <si>
-    <t>University research with associated spin-offs is at the heart of knowledge generation in the biotechnology industry. However, only a few studies have so far dealt with biotechnology university spin-offs in Hong Kong (HK), a latecomer in this industry. The purpose of this research is to gather information about the history and innovative status of biotechnology university spin-off companies in HK in order to understand the dynamics of this phenomenon better. This study arrived at several important conclusions about biotechnology spin-off firms in Hong Kong; specifically that the firms are relatively small in size and young, were mostly formed by university staff, and created with joint effort. In addition, these firms developed commercial products and services, are aware of intellectual property protection, are motivated to create spin-offs in order to apply knowledge to practical applications and utilize market opportunities. However, the firms also face challenges, such as difficulties in accurately estimating the market demand for their products, and technical problems in the development and production of their products. Furthermore, difficulties with financing are also an important inhibitor to success.</t>
-  </si>
-  <si>
-    <t>academic entrepreneurship, spin-offs, university spin-offs, biotechnology industry, Hong Kong</t>
-  </si>
-  <si>
-    <t>Entrepreneurship has emerged a prominent of concern during Covid-19 pandemic, making essential contribution toward unemployment as a result of the pandemic. The purpose of this research is to look at the entrepreneurial intentions of students in Indonesia’s East Java Province. The research focuses on how students’ entrepreneurial intentions are influenced by their perception of their own abilities as entrepreneurs, as well as subjective criteria, role models, and success needs. To further understand the connections between these variables, this quantitative study used the Structural Equation Modeling (SEM) equation model based on Partial Least Square (PLS) variance. The research involved 340 East Java economics students who were polled. The findings indicate that subjective norms, role models, and needs for achievement affect students’ entrepreneurial intention. Additionally, the relationship between subjective norms, role models, achievement demands, and entrepreneurship intention is mediated by entrepreneurial self-efficacy. These results provide recommendations for Indonesian institutions and governments to improve their entrepreneurial education approach, emphasizing practice over theory. This research contributes to the scientific knowledge about students’ entrepreneurial intentions.</t>
-  </si>
-  <si>
-    <t>Entrepreneurial self-efficacy, subjective norms, role model, needs for achievement, entrepreneurial intention</t>
-  </si>
-  <si>
-    <t>With the increasing interest in entrepreneurship education within engineering education, there are questions on what engineering entrepre- neurship education should include. As engineering entrepreneurship education aims to foster entrepreneurial individuals who will contribute to knowledge-based societies and economic growth, student perspectives are crucial. This study assessed first and final year engineering students’ perceptions on entrepreneurship education in a university in Hong Kong, identifying important competencies as learning outcomes and motivating and deterring factors for students to pursue entrepreneurship as a career. Findings offer implications for curriculum design and educational practices, particularly on formally offering entrepreneurship education in the engineering discipline, involving competencies development in educational practices and developing opportunities addressing students’ factors of motivation and deterrence.</t>
-  </si>
-  <si>
-    <t>Entrepreneurship education, entrepreneurial competencies, higher education, learning outcomes</t>
-  </si>
-  <si>
-    <t>Purpose– Although entrepreneurial learning is widely believed as an important factor in shaping one’s entrepreneurial intention, research nds little consistent results on the direct effect of entrepreneurial learning on one’s entrepreneurial intention. To solve the con icted effects of entrepreneurial learning, the purpose of this paper is to explore how entrepreneurial learning may impact individual entrepreneurial intention.
-Design/methodology/approach– Drawing on the theory of planned behavior (TPB), the authors proposed and tested on a three mediating effect model, in which entrepreneurial learning is associated with entrepreneurial intention through attitude, subjective norm and perceived behavioral control toward entrepreneurship. Moreover, the moderating role of prior exposure to entrepreneurship was proposed and tested. Based on a sample of 200 university students who have taken entrepreneurial courses in Hong Kong, the hierarchical regressions and moderated mediation tests were used to test the hypotheses.
-Findings– The authors nd that the positive relationship between entrepreneurial learning and entrepreneurial intention is signi cantly mediated by attitude, subjective norm and perceived behavioral control toward entrepreneurship; and the mediating effects of entrepreneurial learning on entrepreneurial intention via attitudes and perceived behavioral control respectively, is moderated by exposure to entrepreneurship.
-Originality/value– Contributing to the literature of entrepreneurship education, this study identi es individuals who exposed to the same entrepreneurship education may perform differently in entrepreneurial learning. The ndings also help us to better understand the mechanism through which and under which context one’s entrepreneurial learning may enhance his/her entrepreneurial intention.</t>
-  </si>
-  <si>
-    <t>Entrepreneurial intention, Entrepreneurial learning, A planned behaviour approach, Prior exposure to entrepreneurship</t>
-  </si>
-  <si>
-    <t>Entrepreneurship is a tool for driving economic and social progress. Especially in Hong Kong, the government has recently taken steps to encourage young people to engage in entrepreneurship. However, Hong Kong youths’ entrepreneurial intentions are still low. The objective of this study is to empirically explore the impacts of personality traits on start-up preparation among Hong Kong youths through the constructs of the theory of planned behavior (TPB). Through a multi-channel survey, we finally collected 230 valid respondents aged 18 to 40. In addition, this study used SmartPLS software to conduct confirmatory factor analysis for the measurement model as well as path analysis for the structural model. This study’s results suggested that creativity, risk-taking propensity, need for achievement, and internal locus of control influence TPB models’ components and indirectly influence start-up preparation through TPB models’ components. Also, attitude and perceived behavioral control influence intention, and intention influences preparation. Furthermore, prior entrepreneurial experience and entrepreneurship education positively influence preparation. In conclusion, this study revealed the mediating effects of TPB components between four personality traits and start-up preparation. Finally, this study had theoretical implications by providing the influence of six personality traits on youths’ entrepreneurial intention and preparation through the TPB model and the human capital theory. This study also had practical implications by providing suggestions for the government and higher education institutions.</t>
-  </si>
-  <si>
-    <t>entrepreneurial intention, human capital theory, start-up preparation, social networking, personality traits, theory of planned behavior</t>
-  </si>
-  <si>
-    <t>Innovative and entrepreneurial talents are central to building an international innovation technology hub in the Guangdong-Hong Kong-Macao Greater Bay Area and higher education plays the main role in cultivating such talents. In a random sampling, a total of 5,021 valid questionnaires were obtained from 58 colleges and universities in the Guangdong-Hong Kong-Macao Greater Bay Area, including the“9 þ 2” cities. The results show that the total satisfaction score of students’ evaluation of innovation and entrepreneurship education in colleges and universities was 3.43, which is in the upper-middle level. Specifically, the implementation and popularization of innovation and entrepreneurship education in colleges and universities is satisfactory, and the corresponding curriculum system can be adjusted in accordance with the strategic development trends of the Greater Bay Area. However, there are some problems to be solved. First, it is still difficult to integrate effectively the regional innovative and entrepreneurial resources in the process of innovation and entrepreneurship education. Second, innovation and entrepreneurship education emphasizes theory using a single teaching method, and there is insufficient integration with professional education. In addition, there is a shortage of innovation and entrepreneurship platforms for practice, and the cooperation mechanisms between colleges and universities, society, and government need to be improved. Last, there is a serious shortage of teachers. In order to promote the development of innovation and entrepreneurship edu- cation, colleges and universities must establish a hierarchical system based on their own conditions, taking advantage of the innovative and entrepreneurial resources and industrial characteristics of the core cities in the Guangdong-Hong Kong-Macao Greater Bay Area. Moreover, it’s necessary to develop excellent courses integrating professional education with innovation and entrepreneurship education, and improve the mechanisms of appointment and performance evaluation of instructors, to establish a good model of teachers and students innovating together.</t>
-  </si>
-  <si>
-    <t>Guangdong-Hong Kong-Macao Greater Bay Area, international innovation and technology hub, the quality of innovation and entrepreneurship education</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2023.17590</t>
-  </si>
-  <si>
-    <t>10.1287/mksc.2019.0121</t>
-  </si>
-  <si>
-    <t>10.1287/mnsc.2021.02099</t>
-  </si>
-  <si>
-    <t>10.1287/mnsc.2022.01588</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2022.17235</t>
-  </si>
-  <si>
-    <t>10.1287/opre.2024.0766</t>
-  </si>
-  <si>
-    <t>10.1287/mnsc.2022.00990</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2021.15661</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2022.1585</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2021.1493</t>
-  </si>
-  <si>
-    <t>10.1287/orsc.2022.1581</t>
-  </si>
-  <si>
-    <t>10.1016/j.ijme.2023.100798</t>
-  </si>
-  <si>
-    <t>10.1007/s40497-024-00399-z</t>
-  </si>
-  <si>
-    <t>10.1108/CMS-06-2018-0556</t>
+    <t>This article conveys the results of a reflexive investigation of the managerial practices and entrepreneurial discourses that shape the academic trajectories of early career scholars. Beginning with the experiences of early career scholars in research-intensive universities in Canada and Hong Kong, the authors explore some of the social and politicaleconomic relations that are reshaping higher education systems across the world. Drawing on experiences navigating university governance, funding and performance management processes, the authors explore how participation in the marketised relations of higher education inserts people into competition with colleagues within and beyond a single university context, instrumentalises and constrains relationships with civil sector collaborators, and produces a shared sense that nothing one does is ever enough. In this way, the article illuminates some of the ways a new global knowledge economy conditions academic life.</t>
+  </si>
+  <si>
+    <t>This research endeavors to explore the impact of entrepreneurial coaching on the performance of start-ups. Employing a quantitative research methodology, data were gathered through a questionnaire-based survey. Analysis of the data was conducted using SmartPLS (Partial Least Squares) software, allowing for the assessment of discriminant validity and testing our conceptual model. The outcomes of this investigation present compelling evidence supporting the notion that entrepreneurial coaching significantly influences the performance of recently established businesses. Findings from this study contribute significantly to enhancing our comprehension of the intricate relationship between coaching, entrepreneurial support, and the outcomes of new business creation. The results reveal a substantive connection between the provision of entrepreneurial support and the positive performance outcomes of newly formed enterprises. These findings carry practical implications for various stakeholders invested in fostering the growth of start-ups. Entrepreneurs can gain valuable insights into the positive impact of receiving coaching, encouraging them to seek and leverage such support. Support organizations can use these findings to refine their strategies and tailor their coaching programs to optimize outcomes for new businesses. Policymakers can benefit from understanding the tangible benefits of entrepreneurial coaching, informing the development of policies that foster a conducive environment for start-up success.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Entrepreneurial support, New venture creation, Novice entrepreneurs, Performance, Skills</t>
   </si>
 </sst>
 </file>
@@ -2591,17 +2610,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2936,50 +2969,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="65.1640625" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="5" width="54.33203125" customWidth="1"/>
-    <col min="6" max="7" width="28.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="115.6640625" style="6" customWidth="1"/>
+    <col min="5" max="7" width="17" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="6" customWidth="1"/>
     <col min="10" max="12" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2992,32 +3024,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -3030,32 +3062,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3068,33 +3100,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>805</v>
+      <c r="I4" s="9" t="s">
+        <v>803</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -3106,32 +3138,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3144,32 +3176,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3182,33 +3214,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>806</v>
+      <c r="I7" s="9" t="s">
+        <v>804</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
@@ -3220,29 +3252,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3255,32 +3287,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3293,32 +3325,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3331,32 +3363,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3369,32 +3401,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3407,32 +3439,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3445,32 +3477,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3483,32 +3515,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3521,32 +3553,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3559,33 +3591,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>807</v>
+      <c r="I17" s="9" t="s">
+        <v>805</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>4</v>
@@ -3597,32 +3629,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3635,32 +3667,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>371</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3673,32 +3705,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -3711,28 +3743,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3745,32 +3777,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>379</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3783,32 +3815,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>381</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -3821,32 +3853,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3859,32 +3891,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>386</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3897,32 +3929,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>389</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="9" t="s">
         <v>761</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -3935,32 +3967,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -3973,32 +4005,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>394</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -4011,32 +4043,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>396</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="9" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -4049,32 +4081,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>398</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -4087,32 +4119,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="9" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -4125,32 +4157,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -4163,32 +4195,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -4201,32 +4233,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -4239,32 +4271,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>410</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="9" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -4277,32 +4309,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -4315,32 +4347,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>416</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -4353,33 +4385,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>418</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>808</v>
+      <c r="I38" s="9" t="s">
+        <v>806</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>4</v>
@@ -4391,32 +4423,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -4429,32 +4461,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -4467,32 +4499,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>427</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="9" t="s">
         <v>59</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -4505,30 +4537,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>430</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="7"/>
+      <c r="F42" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="9" t="s">
         <v>433</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="9" t="s">
         <v>61</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -4541,33 +4573,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>809</v>
+      <c r="I43" s="9" t="s">
+        <v>807</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>4</v>
@@ -4579,32 +4611,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>436</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="9" t="s">
         <v>63</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -4617,32 +4649,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>439</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="9" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -4655,32 +4687,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -4693,32 +4725,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>444</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -4731,32 +4763,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>445</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -4769,32 +4801,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>448</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4807,33 +4839,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>810</v>
+      <c r="I50" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>4</v>
@@ -4845,33 +4877,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>452</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>811</v>
+      <c r="I51" s="9" t="s">
+        <v>809</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>4</v>
@@ -4883,32 +4915,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>455</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4921,32 +4953,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>457</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4959,32 +4991,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>460</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4997,33 +5029,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>463</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>812</v>
+      <c r="I55" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>4</v>
@@ -5035,30 +5067,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2" t="s">
+      <c r="E56" s="7"/>
+      <c r="F56" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="9" t="s">
         <v>433</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="9" t="s">
         <v>79</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -5071,32 +5103,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>467</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -5109,33 +5141,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>813</v>
+      <c r="I58" s="9" t="s">
+        <v>811</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>4</v>
@@ -5147,30 +5179,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="9" t="s">
         <v>82</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -5183,32 +5215,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>475</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="9" t="s">
         <v>83</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -5221,32 +5253,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>478</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="9" t="s">
         <v>84</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -5259,32 +5291,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>481</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="9" t="s">
         <v>85</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -5297,32 +5329,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="9" t="s">
         <v>86</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -5335,32 +5367,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -5373,32 +5405,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="9" t="s">
         <v>89</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -5411,32 +5443,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>491</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -5449,30 +5481,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>494</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="9" t="s">
         <v>91</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -5485,32 +5517,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>497</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="9" t="s">
         <v>92</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -5523,32 +5555,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>500</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="9" t="s">
         <v>93</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -5561,32 +5593,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>502</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="9" t="s">
         <v>95</v>
       </c>
       <c r="J70" s="1" t="s">
@@ -5599,32 +5631,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="9" t="s">
         <v>97</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -5637,32 +5669,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>506</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="9" t="s">
         <v>98</v>
       </c>
       <c r="J72" s="1" t="s">
@@ -5675,32 +5707,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>509</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="9" t="s">
         <v>100</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -5713,32 +5745,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>511</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="9" t="s">
         <v>101</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -5751,32 +5783,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>514</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="9" t="s">
         <v>103</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -5789,30 +5821,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>516</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2" t="s">
+      <c r="E76" s="7"/>
+      <c r="F76" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="9" t="s">
         <v>518</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="9" t="s">
         <v>105</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -5825,30 +5857,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>519</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="2" t="s">
+      <c r="E77" s="7"/>
+      <c r="F77" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="9" t="s">
         <v>433</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="9" t="s">
         <v>106</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -5861,32 +5893,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>522</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="9" t="s">
         <v>107</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -5899,32 +5931,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>525</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="9" t="s">
         <v>109</v>
       </c>
       <c r="J79" s="1" t="s">
@@ -5937,32 +5969,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>527</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -5975,32 +6007,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>529</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -6013,32 +6045,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>531</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="9" t="s">
         <v>113</v>
       </c>
       <c r="J82" s="1" t="s">
@@ -6051,32 +6083,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>534</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="9" t="s">
         <v>114</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -6089,33 +6121,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>536</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>814</v>
+      <c r="I84" s="9" t="s">
+        <v>812</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>4</v>
@@ -6127,33 +6159,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>539</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>815</v>
+      <c r="I85" s="9" t="s">
+        <v>813</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>4</v>
@@ -6165,32 +6197,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="323" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>541</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="9" t="s">
         <v>115</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -6203,32 +6235,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>543</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="9" t="s">
         <v>116</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -6241,32 +6273,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>546</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="9" t="s">
         <v>117</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -6279,32 +6311,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>549</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="9" t="s">
         <v>552</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -6317,29 +6349,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>553</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="9" t="s">
         <v>120</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -6352,32 +6384,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>556</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="9" t="s">
         <v>121</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -6390,30 +6422,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>559</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="2" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="9" t="s">
         <v>122</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -6426,32 +6458,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>561</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="9" t="s">
         <v>123</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -6464,32 +6496,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>564</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="9" t="s">
         <v>125</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -6502,32 +6534,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>566</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="9" t="s">
         <v>328</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -6540,32 +6572,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>568</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="9" t="s">
         <v>128</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -6578,32 +6610,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>571</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="9" t="s">
         <v>129</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -6616,32 +6648,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>574</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="9" t="s">
         <v>130</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -6654,32 +6686,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>577</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="9" t="s">
         <v>131</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -6692,64 +6724,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>580</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="9" t="s">
         <v>584</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="9" t="s">
         <v>586</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>587</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="9" t="s">
         <v>591</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -6757,23 +6789,23 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>592</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="9" t="s">
         <v>596</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -6789,125 +6821,128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>598</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="D103" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="9" t="s">
         <v>604</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="H104" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="I104" s="4" t="s">
+      <c r="H104" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="J104" s="6" t="s">
+      <c r="J104" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>606</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="9" t="s">
         <v>610</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>611</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>816</v>
+      <c r="I106" s="9" t="s">
+        <v>814</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>4</v>
@@ -6919,32 +6954,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>615</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="9" t="s">
         <v>619</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="9" t="s">
         <v>620</v>
       </c>
       <c r="J107" s="1"/>
@@ -6955,32 +6990,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>621</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="9" t="s">
         <v>625</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -6990,32 +7025,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>626</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="9" t="s">
         <v>630</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -7025,29 +7060,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>631</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I110" s="9" t="s">
         <v>635</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -7057,90 +7092,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>636</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="9" t="s">
         <v>640</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>641</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="9" t="s">
         <v>584</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" s="9" t="s">
         <v>645</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>646</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="9" t="s">
         <v>649</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I113" s="9" t="s">
         <v>650</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -7150,64 +7185,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>651</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="9" t="s">
         <v>323</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I114" s="9" t="s">
         <v>655</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>656</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" s="9" t="s">
         <v>660</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -7217,122 +7252,125 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>661</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="9" t="s">
         <v>584</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I116" s="9" t="s">
         <v>665</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>666</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="D117" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="9" t="s">
         <v>669</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" s="9" t="s">
         <v>670</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>671</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G118" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" s="9" t="s">
         <v>675</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>676</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="E119" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="9" t="s">
         <v>669</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="I119" s="9" t="s">
         <v>680</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -7342,29 +7380,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>681</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="D120" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="9" t="s">
         <v>669</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="9" t="s">
         <v>685</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -7377,84 +7418,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>686</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="D121" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I121" s="9" t="s">
         <v>689</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>690</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="D122" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G122" s="9" t="s">
         <v>584</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>817</v>
+      <c r="I122" s="9" t="s">
+        <v>815</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>694</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="D123" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="9" t="s">
         <v>356</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I123" s="9" t="s">
         <v>698</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -7464,190 +7511,190 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>699</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="D124" t="s">
-        <v>790</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="D124" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" s="9" t="s">
         <v>360</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I124" s="9" t="s">
         <v>702</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>703</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="E125" t="s">
-        <v>792</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="D125" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="9" t="s">
         <v>669</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I125" s="9" t="s">
         <v>707</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>708</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="E126" t="s">
-        <v>794</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="D126" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="F126" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I126" s="9" t="s">
         <v>712</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>713</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="E127" t="s">
-        <v>796</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="D127" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F127" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I127" s="9" t="s">
         <v>717</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>718</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="E128" t="s">
-        <v>798</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="D128" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G128" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" s="9" t="s">
         <v>721</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>722</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="E129" t="s">
-        <v>800</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="D129" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="9" t="s">
         <v>669</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I129" s="2" t="s">
-        <v>818</v>
+      <c r="I129" s="9" t="s">
+        <v>816</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>4</v>
@@ -7659,32 +7706,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>725</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="E130" t="s">
-        <v>802</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="D130" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" s="9" t="s">
         <v>619</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" s="9" t="s">
         <v>728</v>
       </c>
       <c r="J130" s="1"/>
@@ -7695,32 +7742,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>729</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="E131" t="s">
-        <v>804</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="D131" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="9" t="s">
         <v>602</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I131" s="9" t="s">
         <v>733</v>
       </c>
       <c r="K131" s="1" t="s">

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEC0CE-F934-D44E-8789-A8C4EEFA35F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA72855-0A84-6F44-85A3-8EA00347812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="4780" windowWidth="38020" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="6860" yWindow="4140" windowWidth="38040" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$L$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$A$1:$L$130</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Consolidated!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="823">
   <si>
     <t>#</t>
   </si>
@@ -2249,9 +2249,6 @@
   </si>
   <si>
     <t>10.3389/fpsyg.2022.994814</t>
-  </si>
-  <si>
-    <t>HK32</t>
   </si>
   <si>
     <t>Zhuo, Z. (2022)</t>
@@ -2557,7 +2554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2572,22 +2569,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2610,29 +2600,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2969,20 +2950,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="3" width="19.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="115.6640625" style="6" customWidth="1"/>
-    <col min="5" max="7" width="17" style="6" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="115.6640625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="17" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="3" customWidth="1"/>
     <col min="10" max="12" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2990,28 +2971,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3028,28 +3009,28 @@
       <c r="A2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -3066,28 +3047,28 @@
       <c r="A3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3104,29 +3085,29 @@
       <c r="A4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>803</v>
+      <c r="I4" s="6" t="s">
+        <v>802</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -3142,28 +3123,28 @@
       <c r="A5" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3180,28 +3161,28 @@
       <c r="A6" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3218,29 +3199,29 @@
       <c r="A7" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>804</v>
+      <c r="I7" s="6" t="s">
+        <v>803</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
@@ -3256,25 +3237,25 @@
       <c r="A8" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3291,28 +3272,28 @@
       <c r="A9" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3329,28 +3310,28 @@
       <c r="A10" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3367,28 +3348,28 @@
       <c r="A11" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -3405,28 +3386,28 @@
       <c r="A12" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3443,28 +3424,28 @@
       <c r="A13" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3481,28 +3462,28 @@
       <c r="A14" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3519,28 +3500,28 @@
       <c r="A15" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3557,28 +3538,28 @@
       <c r="A16" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3595,29 +3576,29 @@
       <c r="A17" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>805</v>
+      <c r="I17" s="6" t="s">
+        <v>804</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>4</v>
@@ -3633,28 +3614,28 @@
       <c r="A18" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3671,28 +3652,28 @@
       <c r="A19" t="s">
         <v>371</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3709,28 +3690,28 @@
       <c r="A20" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -3747,24 +3728,24 @@
       <c r="A21" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3781,28 +3762,28 @@
       <c r="A22" t="s">
         <v>379</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3819,28 +3800,28 @@
       <c r="A23" t="s">
         <v>381</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -3857,28 +3838,28 @@
       <c r="A24" t="s">
         <v>383</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3895,28 +3876,28 @@
       <c r="A25" t="s">
         <v>386</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3933,29 +3914,29 @@
       <c r="A26" t="s">
         <v>389</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>761</v>
+      <c r="I26" s="6" t="s">
+        <v>760</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>4</v>
@@ -3971,28 +3952,28 @@
       <c r="A27" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -4009,28 +3990,28 @@
       <c r="A28" t="s">
         <v>394</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -4047,28 +4028,28 @@
       <c r="A29" t="s">
         <v>396</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -4085,28 +4066,28 @@
       <c r="A30" t="s">
         <v>398</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -4123,28 +4104,28 @@
       <c r="A31" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -4161,28 +4142,28 @@
       <c r="A32" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -4199,28 +4180,28 @@
       <c r="A33" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -4237,28 +4218,28 @@
       <c r="A34" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -4275,28 +4256,28 @@
       <c r="A35" t="s">
         <v>410</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -4313,28 +4294,28 @@
       <c r="A36" t="s">
         <v>413</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -4351,28 +4332,28 @@
       <c r="A37" t="s">
         <v>416</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -4389,29 +4370,29 @@
       <c r="A38" t="s">
         <v>418</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>806</v>
+      <c r="I38" s="6" t="s">
+        <v>805</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>4</v>
@@ -4427,28 +4408,28 @@
       <c r="A39" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -4465,28 +4446,28 @@
       <c r="A40" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -4503,28 +4484,28 @@
       <c r="A41" t="s">
         <v>427</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -4541,26 +4522,26 @@
       <c r="A42" t="s">
         <v>430</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="4"/>
+      <c r="F42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="6" t="s">
         <v>433</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -4577,29 +4558,29 @@
       <c r="A43" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>807</v>
+      <c r="I43" s="6" t="s">
+        <v>806</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>4</v>
@@ -4615,28 +4596,28 @@
       <c r="A44" t="s">
         <v>436</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="6" t="s">
         <v>63</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -4653,28 +4634,28 @@
       <c r="A45" t="s">
         <v>439</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -4691,28 +4672,28 @@
       <c r="A46" t="s">
         <v>441</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -4729,28 +4710,28 @@
       <c r="A47" t="s">
         <v>444</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -4767,28 +4748,28 @@
       <c r="A48" t="s">
         <v>445</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="6" t="s">
         <v>69</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -4805,28 +4786,28 @@
       <c r="A49" t="s">
         <v>448</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="6" t="s">
         <v>70</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4843,29 +4824,29 @@
       <c r="A50" t="s">
         <v>450</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>808</v>
+      <c r="I50" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>4</v>
@@ -4881,29 +4862,29 @@
       <c r="A51" t="s">
         <v>452</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>809</v>
+      <c r="I51" s="6" t="s">
+        <v>808</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>4</v>
@@ -4919,28 +4900,28 @@
       <c r="A52" t="s">
         <v>455</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4957,28 +4938,28 @@
       <c r="A53" t="s">
         <v>457</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="6" t="s">
         <v>74</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4995,28 +4976,28 @@
       <c r="A54" t="s">
         <v>460</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -5033,29 +5014,29 @@
       <c r="A55" t="s">
         <v>463</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>810</v>
+      <c r="I55" s="6" t="s">
+        <v>809</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>4</v>
@@ -5071,26 +5052,26 @@
       <c r="A56" t="s">
         <v>465</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="9" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="6" t="s">
         <v>433</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="6" t="s">
         <v>79</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -5107,28 +5088,28 @@
       <c r="A57" t="s">
         <v>467</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="6" t="s">
         <v>81</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -5145,29 +5126,29 @@
       <c r="A58" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>811</v>
+      <c r="I58" s="6" t="s">
+        <v>810</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>4</v>
@@ -5183,26 +5164,26 @@
       <c r="A59" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="6" t="s">
         <v>82</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -5219,28 +5200,28 @@
       <c r="A60" t="s">
         <v>475</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="6" t="s">
         <v>83</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -5257,28 +5238,28 @@
       <c r="A61" t="s">
         <v>478</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -5295,28 +5276,28 @@
       <c r="A62" t="s">
         <v>481</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" s="6" t="s">
         <v>85</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -5333,28 +5314,28 @@
       <c r="A63" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -5371,28 +5352,28 @@
       <c r="A64" t="s">
         <v>487</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="6" t="s">
         <v>88</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -5409,28 +5390,28 @@
       <c r="A65" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -5447,28 +5428,28 @@
       <c r="A66" t="s">
         <v>491</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -5485,26 +5466,26 @@
       <c r="A67" t="s">
         <v>494</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="6" t="s">
         <v>91</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -5521,28 +5502,28 @@
       <c r="A68" t="s">
         <v>497</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -5559,28 +5540,28 @@
       <c r="A69" t="s">
         <v>500</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="6" t="s">
         <v>93</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -5597,28 +5578,28 @@
       <c r="A70" t="s">
         <v>502</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" s="6" t="s">
         <v>95</v>
       </c>
       <c r="J70" s="1" t="s">
@@ -5635,28 +5616,28 @@
       <c r="A71" t="s">
         <v>504</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="6" t="s">
         <v>97</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -5673,28 +5654,28 @@
       <c r="A72" t="s">
         <v>506</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="6" t="s">
         <v>98</v>
       </c>
       <c r="J72" s="1" t="s">
@@ -5711,28 +5692,28 @@
       <c r="A73" t="s">
         <v>509</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -5749,28 +5730,28 @@
       <c r="A74" t="s">
         <v>511</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -5787,28 +5768,28 @@
       <c r="A75" t="s">
         <v>514</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="6" t="s">
         <v>103</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -5825,26 +5806,26 @@
       <c r="A76" t="s">
         <v>516</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="C76" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="6" t="s">
         <v>518</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -5861,26 +5842,26 @@
       <c r="A77" t="s">
         <v>519</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="9" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="6" t="s">
         <v>433</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="6" t="s">
         <v>106</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -5897,28 +5878,28 @@
       <c r="A78" t="s">
         <v>522</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="6" t="s">
         <v>107</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -5935,28 +5916,28 @@
       <c r="A79" t="s">
         <v>525</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="6" t="s">
         <v>109</v>
       </c>
       <c r="J79" s="1" t="s">
@@ -5973,28 +5954,28 @@
       <c r="A80" t="s">
         <v>527</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -6011,28 +5992,28 @@
       <c r="A81" t="s">
         <v>529</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="6" t="s">
         <v>112</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -6049,28 +6030,28 @@
       <c r="A82" t="s">
         <v>531</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="6" t="s">
         <v>113</v>
       </c>
       <c r="J82" s="1" t="s">
@@ -6087,28 +6068,28 @@
       <c r="A83" t="s">
         <v>534</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -6125,29 +6106,29 @@
       <c r="A84" t="s">
         <v>536</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>812</v>
+      <c r="I84" s="6" t="s">
+        <v>811</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>4</v>
@@ -6163,29 +6144,29 @@
       <c r="A85" t="s">
         <v>539</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D85" s="7" t="s">
+      <c r="C85" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>813</v>
+      <c r="I85" s="6" t="s">
+        <v>812</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>4</v>
@@ -6201,28 +6182,28 @@
       <c r="A86" t="s">
         <v>541</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="C86" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="6" t="s">
         <v>115</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -6239,28 +6220,28 @@
       <c r="A87" t="s">
         <v>543</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="6" t="s">
         <v>116</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -6277,28 +6258,28 @@
       <c r="A88" t="s">
         <v>546</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="6" t="s">
         <v>117</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -6315,28 +6296,28 @@
       <c r="A89" t="s">
         <v>549</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="6" t="s">
         <v>552</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="6" t="s">
         <v>119</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -6353,25 +6334,25 @@
       <c r="A90" t="s">
         <v>553</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="6" t="s">
         <v>120</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -6388,28 +6369,28 @@
       <c r="A91" t="s">
         <v>556</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="6" t="s">
         <v>121</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -6426,26 +6407,26 @@
       <c r="A92" t="s">
         <v>559</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="4"/>
+      <c r="F92" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="6" t="s">
         <v>122</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -6462,28 +6443,28 @@
       <c r="A93" t="s">
         <v>561</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="6" t="s">
         <v>123</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -6500,28 +6481,28 @@
       <c r="A94" t="s">
         <v>564</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="6" t="s">
         <v>125</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -6538,28 +6519,28 @@
       <c r="A95" t="s">
         <v>566</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="6" t="s">
         <v>328</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="6" t="s">
         <v>127</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -6576,28 +6557,28 @@
       <c r="A96" t="s">
         <v>568</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I96" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -6614,28 +6595,28 @@
       <c r="A97" t="s">
         <v>571</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="6" t="s">
         <v>129</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -6652,28 +6633,28 @@
       <c r="A98" t="s">
         <v>574</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="6" t="s">
         <v>130</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -6690,28 +6671,28 @@
       <c r="A99" t="s">
         <v>577</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="6" t="s">
         <v>323</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="6" t="s">
         <v>131</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -6728,28 +6709,28 @@
       <c r="A100" t="s">
         <v>580</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="D100" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="6" t="s">
         <v>584</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="6" t="s">
         <v>586</v>
       </c>
       <c r="L100" s="1" t="s">
@@ -6760,28 +6741,28 @@
       <c r="A101" t="s">
         <v>587</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="C101" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="6" t="s">
         <v>356</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="6" t="s">
         <v>591</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -6793,19 +6774,19 @@
       <c r="A102" t="s">
         <v>592</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="D102" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F102" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="6" t="s">
         <v>596</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -6825,128 +6806,130 @@
       <c r="A103" t="s">
         <v>598</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="F103" s="9" t="s">
+      <c r="D103" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="6" t="s">
         <v>602</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="I103" s="6" t="s">
         <v>604</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>605</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I104" s="11" t="s">
+      <c r="B104" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="J104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+      <c r="F104" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>606</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="D105" s="7" t="s">
+      <c r="B105" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>602</v>
+      <c r="F105" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>610</v>
+        <v>590</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>611</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="D106" s="7" t="s">
+      <c r="B106" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="E106" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>323</v>
+      <c r="F106" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
         <v>5</v>
       </c>
@@ -6954,35 +6937,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>615</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="B107" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>619</v>
+      <c r="E107" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="J107" s="1"/>
+        <v>603</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>5</v>
       </c>
@@ -6990,33 +6972,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>621</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="E108" s="7" t="s">
+      <c r="B108" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>602</v>
+      <c r="E108" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>625</v>
+        <v>590</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>5</v>
@@ -7029,29 +7011,26 @@
       <c r="A109" t="s">
         <v>626</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="E109" s="7" t="s">
+      <c r="B109" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>360</v>
+      <c r="F109" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>630</v>
+        <v>603</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>5</v>
@@ -7060,318 +7039,324 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>631</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>602</v>
+      <c r="B110" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>636</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>356</v>
+      <c r="B111" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>641</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="E112" s="7" t="s">
+      <c r="B112" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="F112" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>584</v>
+      <c r="E112" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>645</v>
+        <v>590</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>650</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+      <c r="L112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>646</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="E113" s="7" t="s">
+      <c r="B113" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>649</v>
+      <c r="E113" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>5</v>
+        <v>603</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>655</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>651</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="E114" s="7" t="s">
+      <c r="B114" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="F114" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>323</v>
+      <c r="E114" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>655</v>
+        <v>585</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>656</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="E115" s="7" t="s">
+      <c r="B115" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="F115" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>602</v>
+      <c r="F115" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>660</v>
+        <v>597</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>665</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>661</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>584</v>
+      <c r="B116" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I116" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="340" x14ac:dyDescent="0.2">
+      <c r="I116" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>666</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>669</v>
+      <c r="B117" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>670</v>
+      <c r="I117" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>671</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="E118" s="7" t="s">
+      <c r="B118" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="F118" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>602</v>
+      <c r="E118" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>675</v>
+        <v>603</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>676</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="E119" s="7" t="s">
+      <c r="B119" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="G119" s="9" t="s">
+      <c r="F119" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>669</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>680</v>
+        <v>590</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>5</v>
@@ -7380,325 +7365,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="356" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>681</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>669</v>
+      <c r="B120" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>4</v>
+        <v>597</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>686</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>602</v>
+      <c r="B121" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I121" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+      <c r="I121" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>690</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>584</v>
+      <c r="B122" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I122" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>694</v>
       </c>
-      <c r="B123" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>356</v>
+      <c r="B123" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>698</v>
+        <v>324</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L123" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>699</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="B124" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>360</v>
+      <c r="E124" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>702</v>
+        <v>603</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>707</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="221" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>703</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="E125" s="6" t="s">
+      <c r="B125" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>669</v>
+      <c r="E125" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>708</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="E126" s="6" t="s">
+      <c r="B126" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="F126" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="G126" s="9" t="s">
+      <c r="E126" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>602</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>713</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="E127" s="6" t="s">
+      <c r="B127" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="G127" s="9" t="s">
+      <c r="E127" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>602</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I127" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="I127" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>718</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="B128" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E128" s="6" t="s">
+      <c r="D128" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>602</v>
+      <c r="E128" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>721</v>
+        <v>590</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>722</v>
       </c>
-      <c r="B129" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="E129" s="6" t="s">
+      <c r="B129" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>669</v>
+      <c r="E129" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
         <v>5</v>
       </c>
@@ -7706,76 +7689,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>725</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E130" s="6" t="s">
+      <c r="B130" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>619</v>
+      <c r="E130" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I130" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="J130" s="1"/>
+      <c r="I130" s="6" t="s">
+        <v>732</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="272" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>729</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I131" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L131" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}"/>
+  <autoFilter ref="A1:L130" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C737E43-4C40-A84C-85A1-C463813FF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB8356-80E5-1B43-B5A4-C04329CEAADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="1440" windowWidth="38040" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="9340" yWindow="2160" windowWidth="38040" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -4595,8 +4595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B282" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D299" sqref="D299"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A2B16-1B98-9B4D-8545-7FACDE6BAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F686A58F-5341-2542-868E-11241B0CF9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21440" yWindow="2140" windowWidth="28800" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1408">
   <si>
     <t>#</t>
   </si>
@@ -4178,6 +4178,117 @@
   </si>
   <si>
     <t>immigrant entrepreneurship, mobility, mobility constraints, job-education match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economies in transition such as Russia’s are among the world’s fastest growing. Entrepreneurial firms in an environment like Russia’s face rapid and dramatic shifts in the institutional environment. These shifts represent significant challenges to entrepreneurial firms as they seek not only to survive but also to prosper in that environment by rapidly co-evolving with institutional changes. Prior research has focused on institutional change and its impact in developed economies. But the rate of evolution of institutions in transition economies tends to be faster and less predictable. This article reports a longitudinal study of high technology entrepreneurial firms in Russia employing a grounded theory methodology to understand how entrepreneurial ventures co-evolve with rapid institutional changes and still manage to prosper. </t>
+  </si>
+  <si>
+    <t>This paper expands on the Oviatt–McDougall framework of sustainable international ventures. It does so by relating the elements of the framework to existing scholarship on the multinational enterprise (MNE), a category that encompasses foreign direct-invested new ventures (FDINVs). The paper then incorporates entrepreneurship and capabilities into MNE theory and applies them to the FDINV. Strong dynamic capabilities coupled with good strategy work together to generate and sustain superior enterprise performance in fastmoving global environments. The resulting framework is used to revisit key questions in MNE/FDINV research such as the timing and mode of FDI.</t>
+  </si>
+  <si>
+    <t>The academic field of entrepreneurship research has grown from groups of isolated scholars doing research on small businesses to an international community of departments, institutes, and foundations promoting research on new and high-growth firms. Growth has produced increasingly systematic and interconnected knowledge and growing numbers of knowledge producers and knowledge users share core concepts, principles, and research methods, and a handful of highly cited scholars have emerged as thought leaders within research subfields. The field is increasingly formalized and anchored in a small set of intellectual bases, although there are also some signs of differentiation and fragmentation. Using an institutionaltheory perspective and drawing upon my experience in the field, I explore six forces creating the institutional infrastructure. First, social networking mechanisms have created a social structure facilitating connections between researchers. Second, publication opportunities have increased dramatically. Third, training and mentoring has moved to a collective rather than individual apprenticeship model. Fourth, major foundations and many other smaller funding sources have changed the scale and scope of entrepreneurship research. Fifth, new mechanisms have emerged that recognize and reward individual scholarship, reinforcing the identity of entrepreneurship research as a field and attracting new scholars into it. Sixth, globalizing forces have affected all of these trends. I conclude with some thoughts about the consequences of these developments with regard to the giving of practical and timely advice to entrepreneurs, the effects of American hegemony on choices of research topics and methods, and the possible loss of theoretical eclecticism.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Institutional entrepreneurship, Social networks, Scientific community, Professionalization, Globalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study examines the historical origins of existing cross-cultural differences in beliefs and values regarding the appropriate role of women in society. We test the hypothesis that traditional agricultural practices influenced the historical gender division of labor and the evolution of gender norms. We find that, consistent with existing hypotheses, the descendants of societies that traditionally practiced plough agriculture today have less equal gender norms, measured using reported gender-role attitudes and female participation in the workplace, politics, and entrepreneurial activities. Our results hold looking across countries, across districts within countries, and across ethnicities within districts. To test for the importance of cultural persistence, we examine the children of immigrants living in Europe and the United States. We find that even among these individuals, all born and raised in the same country, those with a heritage of traditional plough use exhibit less equal beliefs about gender roles today. </t>
+  </si>
+  <si>
+    <t>Entrepreneurial activity does not always lead to economic growth. While improvements have been made to human capital, property rights protection, and access to financial capital in abject poverty contexts with the assumption that they will increase entrepreneurial activity, the results have been mixed. More recently, many entrepreneurs interested in poverty alleviation are crossing borders to engage in initiatives aimed at reducing poverty internationally. These efforts have also had mixed results. This paper posits that one reason is that entrepreneurial opportunities and their wealth creation potential vary, and the impact of exploiting these opportunities on economic growth in poverty contexts can also vary. This paper identifies self-employment opportunities, often exploited in abject poverty, that do not lead to sustainable growth solutions. Alternatively, discovery and creation opportunities while difficult to exploit in poverty contexts hold the greatest potential for significant economic impact.</t>
+  </si>
+  <si>
+    <t>The practitioner framework, the Lean Startup, largely based on the experience of Blank (2013), and developed separately from scholarly work, has none-the-less made inroads in the academic literature. In reconciling The Lean Startup framework with entrepreneurship theory, Blank and Eckhardt argue that theory work in entrepreneurship is fragmented. However, this paper argues that these theories may not be as fragmented as implied. Indeed, many theories in entrepreneurship can be grouped into two “families”—one of which is broadly consistent with the model in The Lean Startup, while the other is deeply inconsistent with this model but consistent with an important theory in entrepreneurship: the Creation Theory of Entrepreneurial Opportunities. What this paper shows is that there are important differences that lead to boundary conditions between these two families of theory. More profound, these different approaches to the entrepreneurship process suggest they should be applied in different entrepreneurial settings and at different points in the process. This paper examines the link between the Creation Theory of Entrepreneurship and its associated family of theories and the Lean Startup framework and its associated family of theories, such as Discovery, IO Nexus, The Scientific Method, and so forth. The paper concludes by describing the different contexts under which each family of theories apply and suggests future research that empirically test the boundary conditions of these different theory families.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Theory, MACRO, Evolutionary Theory, theoretical perspectives, cognition/cognitive processes, sensemaking</t>
+  </si>
+  <si>
+    <t>We use a natural experiment in Denmark to test the hypothesis that aspiring entrepreneurs face financial constraints because of low entrepreneurial quality. We identify 304 constrained entrepreneurs who start a business after receiving windfall wealth and examine the performance of these marginal entrepreneurs. We find that constrained entrepreneurs have significantly lower survival rates and lower profits when compared with a matched sample of unconstrained entrepreneurs. These results are consistent with the hypothesis that the marginal entrepreneur is of low quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper studies the impact of international business coaching via virtual collaboration technology on the strategies and sales of emerging market entrepreneurs. It sheds light on three novel research questions. (1) What is the effect of virtual business coaching on firm sales? (2) What is the mechanism through which this effect occurs? Specifically, does virtual coaching stimulate shifts in marketing strategy? (3) Do entrepreneurs benefit more from virtual coaching when they are less strategic in their decision making? We conducted a randomized controlled field experiment with 930 entrepreneurs in Uganda to examine the impact of a virtual coaching intervention that connects management professionals in primarily advanced markets and entrepreneurs in emerging markets with the aim of improving business performance. The analysis finds a positive and significant main effect on firm sales; treatment entrepreneurs increase monthly sales by 27.6% on average. In addition, entrepreneurs who receive virtual coaching are 52.8% more likely to have shifted their marketing strategy in a new direction. Moreover, consistent with this mechanism of inducing strategic business changes, the results show that entrepreneurs who receive virtual coaching tend to do better when they (ex ante) lack strategic focus. These results have important implications for the development of marketing strategies by entrepreneurs and multinational managers, as well as for policy makers interested in improving the performance of small firms in emerging markets and beyond. </t>
+  </si>
+  <si>
+    <t>marketing strategy innovation, strategic shift, business model change, pivoting, international business coaching, virtual collaboration technology, COVID-19 and remote work, small firm growth, entrepreneurship</t>
+  </si>
+  <si>
+    <t>This paper presents the Startup Cartography Project (SCP), which offers a new set of entrepreneurial ecosystem statistics for the United States from 1988 to 2016. The SCP combines state-level business registration records with a predictive analytics approach to estimate the probability of “extreme” growth (IPO or high-value acquisition) at or near the time of founding for the population of newly-registered firms. The results highlight the ability of predictive analytics to identify highpotential start-ups at founding (using a variety of different approaches and measures). The SCP then leverages estimates of entrepreneurial quality to develop four entrepreneurial ecosystem statistics, including the rate of start-up formation, average entrepreneurial quality, the quality-adjusted quantity of entrepreneurship, and the entrepreneurial ecosystem performance associated with a given start-up “cohort.” These statistics offer sharp insight into patterns of regional entrepreneurship, the correlation of quality (but not quantity) with subsequent regional economic growth and the evolution of entrepreneurial ecosystems over time. The SCP includes both a public-access dataset at the state, MSA, county, and zip code level, as well as an interactive map, the U.S. Startup Map, that allows academic and policy users to assess entrepreneurial ecosystems at an arbitrary level of granularity (from the level of states down to individual street addresses). The SCP and accompanying datasets may be found at: https://www.startupcartography.com/.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role theories examine how individual behavior is shaped by prevailing social roles and provide insights into how behavior is perceived by others in light of such roles. Current movements for police reform as well as the landmark decision by the U.S. Supreme Court concerning the employment rights of LGBTQIA individuals have brought conversations concerning roles and their potential impact to the forefront of public discourse. Academic perspectives in management research have aided in building knowledge concerning how roles impact individuals and organizations in a variety of research domains, including entrepreneurship, human resource management, organizational behavior, and strategic management. While the utilization of role theory has gained tremendous momentum over the past two decades, its central tenets are often blurred given that several related but unique perspectives surrounding roles exist in the literature. We trace the origins and development of specific role theories by defining central constructs to bring clarity to the conceptual ambiguities between various role theories and key concepts. Next, we provide an integrative review of empirical role research in management journals over the past 20 years. Here, we identify the five most prominent research themes in the management literature: roles and identity, work–nonwork interface, biases and stereotypes, career life cycles, and ethics and other-oriented behavior. Finally, we provide an agenda for future research that highlights missed opportunities in management research that draws from the key themes identified in our review. </t>
+  </si>
+  <si>
+    <t>role theory, diversity/gender, identity</t>
+  </si>
+  <si>
+    <t>As young people increasingly become the target of entrepreneurial and enterprise policy initiatives and enterprise education in schools increases, so does the need to effectively measure the impact these programs have. A research instrument was designed to measure “enterprise potential” in young people using attitudes toward characteristics associated with entrepreneurship. A control-group cross-sectional design was used to investigate the impact of participation in a Young Enterprise Company Program, which is based on the U.S. Junior Achievement model, in six secondary schools in London, United Kingdom. The study found that participation in a Company Program can foster positive attitudes toward self-employment and that participants displayed greater enterprise potential than nonparticipants. Demographic differences also emerged in enterprise potential between ethnic groups. Young Black people were more positive about self-employment and displayed greater enterprise potential than either White or Asian pupils. A family background of self-employment had a positive influence on pupils’ intentions to become self-employed. Finally, the research raises a conceptual issue concerning the multidimensionality of the construct of “enterprise potential.”</t>
+  </si>
+  <si>
+    <t>Combining insights from organizational ecology and social network theory, we examine how the structure of relations among organizational populations affects differences in rates of foundings across geographic locales. We hypothesize that symbiotic and commensalistic interpopulation relations function as channels of information about entrepreneurial opportunities and that differing access to such information influences the founding rate. Empirical analyses of U.S. instruments manufacturers support this argument. The founding rate of instruments manufacturers rises with the densities of organizational populations that have symbiotic and commensalistic relationships with instruments manufacturers. These factors encourage the initial foundings of instruments manufacturers in areas where such organizations were not previ ously found. The dominance of organizational popula tions tied to instruments manufacturing by symbiotic or commensalistic relations increases the rate of foundings of instruments manufacturers, whereas the dominance of organizational populations that lack these relations decreases it. Finally, we find that interpopulation relationships that hinge on direct contact have less impact on initial foundings as geographic distance increases. These results have implications for research on organizational ecology, entrepreneurship, urban sociology, and economic geography.</t>
+  </si>
+  <si>
+    <t>This paper aims to highlight the opportunity to contribute to our understanding of strategic entrepreneurship by exploring the construct through the lens of agency theory. In particular, we claim a fundamental link between a new venture’s control of critical resources and the distribution of equity between the principal and agent. According to agency theory, assigning top executives ownership in the firm provides arrangements that are compatible with the incentives of the owners of the firm. This paper suggests that agency theory has special relevance when considered in a strategic entrepreneurship context. This is because the function of managers in entrepreneurial new ventures is fundamentally different from their counterparts in large established, incumbent corporations. While both types of managers have to provide managerial and organizational expertise, managers in entrepreneurial new ventures have an additional function that is essential to the competitive advantage and performance of the new venture—providing knowledge and human capital, which, in many cases, is intrinsically linked to the capital resources of the new venture. Our framework is tested using patent ownership as a proxy for both relationship-specific investments and indispensable human capital of the top manager of the new venture. The empirical results support the main hypotheses posited by the entrepreneurial governance model. In particular, patent ownership of the top manager significantly increases the percentage of equity held, while the number of patents held by the firm significantly decreases the percentage of ownership.</t>
+  </si>
+  <si>
+    <t>In this article, we explore how new capabilities emerge and solidify in new ventures that are faced with fundamental uncertainty from their environment. To do so, we draw from the organizational and entrepreneurial literature on cognition and capabilities. Using initial qualitative evidence from a multifirm study in the context of new venture internationalization, we develop a cognition-based model of capability emergence in new ventures. Our findings extend the capability development and learning implications of internationalization to the fundamental character of organizing processes in start-ups. Moreover, we derive avenues for future entrepreneurship research on the origins and evolution of capabilities in new ventures.</t>
+  </si>
+  <si>
+    <t>Using U.S. Census firm-worker data, I document that firms’ financial distress has an economically important effect on employee departures to entrepreneurship. The impact is amplified in the high-tech and service sectors, where employees are key assets. In states with enforceable noncompete contracts, the effect is mitigated. Compared to typical entrepreneurs, distress-driven entrepreneurs are high-wage workers who found better firms, as measured by jobs, pay, and survival. Startup jobs compensate for 33% of job losses at the constrained incumbents. Overall, the financial inability of incumbent firms to pursue productive opportunities increases the reallocation of economic activity into new firms.</t>
+  </si>
+  <si>
+    <t>The research on entrepreneurship education–entrepreneurial intentions has yielded mixed results. We meta-analyzed 73 studies with a total sample size of 37,285 individuals and found a significant but a small correlation between entrepreneurship education and entrepreneurial intentions (p̂ = .143). This correlation is also greater than that of business education and entrepreneurial intentions. However, after controlling for pre-education entrepreneurial intentions, the relationship between entrepreneurship education and post-education entrepreneurial intentions was not significant. We also analyzed moderators, such as the attributes of entrepreneurship education, students’ differences, and cultural values. Our results have implications for entrepreneurship education scholars, program evaluators, and policy makers.</t>
+  </si>
+  <si>
+    <t>Why have systems of “transnational private regulation” recently emerged to certify corporate social and environmental performance? Different conceptions of institutional emergence underlie different answers to this question. Many scholars argue that firms create certification systems to solve problems in the market—a view rooted in a conception of institutions as solutions to collective action problems. The author develops a different account by viewing institutions as the outcome of political contestation and by analyzing conflict and institutional entrepreneurship among a wide array of actors. Using a comparative case study design, the analysis shows how these arguments explain the formation of social and environmental certification associations. Both theoretical approaches are needed, but strong versions of the market-based approach overlook an important set of dynamics that the author calls the “political construction of market institutions.” The analysis shows how both problem solving in markets and political contention generate new institutional forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneurial support organizations (ESOs), such as incubators and accelerators, are now ubiquitous. Despite this proliferation, their impact on entrepreneurs, ventures, and communities remains unclear, while academic research remains disjointed and largely descriptive, limiting understanding of the entrepreneurial support process and the influence of ESOs on it. Conducting a systematic review of 337 peer-reviewed articles involving five ESO forms—incubators, science parks, accelerators, maker spaces, and co-working spaces—we find that the literature’s conception of support is under-socialized such that there is a need for longitudinal, processual, and experimental examination of changes in the rich relationships between entrepreneurs and their ventures, entrepreneurs and other entrepreneurs, entrepreneurs and ESOs, and ESOs and external stakeholders. Conceiving of support as help to become self-sufficient, we offer an alternative, relational approach to research on entrepreneurial support and those organizations seeking to provide it. </t>
+  </si>
+  <si>
+    <t>entrepreneurial support organizations, entrepreneurial support, review, incubators, accelerators, help, Self-sufficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic theories of entrepreneurship and applied theories of entrepreneurship have historically been siloed. In this article, we connect the Lean Startup, a widely used and applied approach toward entrepreneurship, with selected academic theories of entrepreneurship. In doing so, we clarify the assumptions and terminology within the Lean Startup. We observe that while the Lean Startup and selected theories of entrepreneurship are compatible in assumptions and central challenges, scholarship and the practice of entrepreneurship are likely to benefit from a closer connection between the academic literature and the Lean Startup. We propose several areas of potential integration between the Lean Startup and the academic literature and suggest potential areas of future research. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship, entrepreneurial/new venture strategy, entrepreneurship theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords entrepreneurs, start-ups, organizational founding, organization theory, human capital, social networks, stratification </t>
+  </si>
+  <si>
+    <t>Over the last two decades, the sociology of entrepreneurship has exploded as an area of academic inquiry. Most of this research has been focused on understanding the environmental conditions that promote entrepreneurship and processes related to the initial formation of an organization. Despite this surge in activity, many important questions remain open. Only more recently have scholars begun to turn their attention to what happens to organizations, and the people connected to them, as they mature and move through the life cycle of entrepreneurship. These open questions, moreover, connect to many classic themes in the literature on careers, organizational sociology, stratification, and work and occupations. Using a framework that focuses on three phases of the entrepreneurial life cycle—pre-entry, entry, and post-entry—we summarize sociological research on entrepreneurship and highlight opportunities for future research.</t>
+  </si>
+  <si>
+    <t>A majority of entrepreneurial teams contain family relations but little is known about the implications of such family relationships in the formative stages of new venture creation. We examine two distinct types of family relationships in these teams; romantic couples and biologically linked teams and how such relationships influence the probability of ever achieving first sales. Relying on social identity theory, and a longitudinal sample of 295 nascent teams, we find that these relationships matter in important ways. Our conceptualizations and results have implications for the entrepreneurial teams and family business literatures.</t>
+  </si>
+  <si>
+    <t>The aim of this Special Issue is to demonstrate how drawing on multidisciplinary insights from the literature on prosociality can broaden the individual-opportunity nexus to make room for a variety of actors. Five feature articles emphasize the collective level of the analysis, underscoring the social distance between the entrepreneurs and the different communities they serve. Leveraging construal level theory, we abductively derive an organizing framework that helps us articulate how stretching or compressing social distance can transform initial opportunities into occasions for serving the greater good. We identify two distinct mechanisms present in all five empirical studies that explain how the needs and hopes of many others may add creativity, consistency and connectivity to one's venture. We also connect these abductive insights with the two editorials that follow this introduction and nudge our collective attention towards the research opportunities awaiting our academic community once we begin to relax the egocentric reference point that, until recently, has defined the discipline of entrepreneurship.</t>
+  </si>
+  <si>
+    <t>This study provides a comprehensive analysis of distribution channel choices of new entrepreneurial ventures (NEVs). First, factors that influence NEVs’ choice of distribution channels are examined. Second, performance consequences of those choices are investigated. A research model drawing from transaction cost economics as well as customer relationship and strategy literature is developed. Data collected from 330 NEVs are used to test the proposed model. The results show that the identified antecedents explain a large part of the variance in NEVs’ channel choice. Moreover, NEVs that accomplish a fit between their distribution channel system and transaction cost-, product-, strategy-, and competition-related variables tend to perform better. Findings are discussed in light of the specific characteristics of NEVs.</t>
+  </si>
+  <si>
+    <t>Drawing on theories of emotional contagion and goal setting, we propose two mechanisms as to how employees’ perceptions of entrepreneurial passion influence their commitment to entrepreneurial ventures. Testing these mechanisms with data from a survey of 124 employees, we find that employees’ perceptions of their supervisors’ passion for inventing, founding, and developing differentially impact commitment. While perceptions of entrepreneurs’ passion for inventing and developing enhance commitment, passion for founding reduces it. Employees’ experiences of positive affect at work and their goal clarity mediate these effects. Our results have implications for the literature on entrepreneurial passion and leadership in entrepreneurial firms.</t>
+  </si>
+  <si>
+    <t>One of the most important events in the life of an entrepreneurial firm is when it undergoes an initial public offering (IPO). Combining signaling theory with research on the role of information asymmetry in pricing of IPOs this study examines the performance outcomes of two distinct types of agency conflicts at the time of the IPO: adverse selection and moral hazard. Empirical results show a curvilinear (U-shaped) relationship between founders’ retained equity and underpricing. This suggests that founders’ retained ownership in an entrepreneurial IPO limits adverse selection problems and the associated IPO underpricing; however, at some point entrepreneurs’ investment and risk become so great that entrepreneurs may no longer act rationally and moral hazard increases. Empirical findings also indicate that the retained ownership of business angels has a stronger mitigating effect on adverse selection and moral hazard problems than do venture capitalist investors.</t>
+  </si>
+  <si>
+    <t>Little is known about the drivers of entrepreneurial decisions during war. We empirically examine the effects of perceived danger, entrepreneurial self-efficacy, and resilience on entrepreneurial intentions in adverse conditions with primary survey data from Afghanistan. Our findings suggest that perceived danger is negatively related to an individual’s entrepreneurial intentions, but marginally less so among highly resilient individuals. Our findings also suggest that even under conditions of war, individuals develop entrepreneurial intentions if they are able to grow from adversity (resilience) and believe in their entrepreneurial abilities (entrepreneurial self-efficacy). Practical implications for role modeling and entrepreneurship training are then discussed.</t>
+  </si>
+  <si>
+    <t>We use the fall of the Berlin Wall in 1989 to show that personal relationships which individuals maintain for noneconomic reasons can be an important determinant of regional economic growth. We show that West German households who had social ties to East Germany in 1989 experienced a persistent rise in their personal incomes after the fall of the Berlin Wall. Moreover, the presence of these households significantly affects economic performance at the regional level: it increases the returns to entrepreneurial activity, the share of households who become entrepreneurs, and the likelihood that firms based within a given West German region invest in East Germany. As a result, West German regions that (for idiosyncratic reasons) have a high concentration of households with social ties to the East exhibit substantially higher growth in income per capita in the early 1990s. A one standard deviation rise in the share of households with social ties to East Germany in 1989 is associated with a 4.7 percentage point rise in income per capita over six years. We interpret our findings as evidence of a causal link between social ties and regional economic development.</t>
+  </si>
+  <si>
+    <t>“Hybrid entrepreneurs” — those who maintain a wage job while starting a new enterprise — outnumber pure entrepreneurs in many countries. Yet, how hybrid entrepreneurs allocate their working hours between these two activities is not well understood. To better understand the relationship between hybrid entrepreneurs' division of time between their wage jobs and new enterprises we develop a model that captures hybrid entrepreneurs' decisions on the tradeoffs between financial risk and return as it relates to time allocation. We test two hypotheses based on utility theory, and challenge them with two hypotheses based on regulatory focus theory in a controlled experiment with 25 early stage entrepreneurs and 29 undergraduate students. In the computer-based experiment, entrepreneurs' and students' time allocation decisions (tied to monetary incentives) are used to test what would motivate them to work more or less hours in their entrepreneurial startups. We find that the actual time allocation decisions of the student group are somewhat in tune with utility theory, but that the entrepreneurs' time allocation decisions are better explained by regulatory focus theory.</t>
+  </si>
+  <si>
+    <t>Time allocation decisions, Entrepreneurship, Experiments, Regulatory focus theory, Utility theory</t>
+  </si>
+  <si>
+    <t>Entrepreneurial emotion refers to the affect, emotions, moods, and/or feelings—of individuals or a collective—that are antecedent to, concurrent with, and/or a consequence of, the entrepreneurial process, meaning the recognition/creation, evaluation, reformulation, and/or the exploitation of a possible opportunity. In this paper, we explore this working definition of entrepreneurial emotion, what it means, and some important advances the field has made in this area of research. We also highlight fundamental avenues for future research that are sorely in need of study. Finally, we introduce the seven papers in this special issue on the Heart of Entrepreneurship and how they move the conversation on entrepreneurial emotion forward.</t>
   </si>
 </sst>
 </file>
@@ -4602,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="169" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1229</v>
       </c>
@@ -4965,6 +5076,9 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>396</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
@@ -5020,7 +5134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1230</v>
       </c>
@@ -5030,6 +5144,9 @@
       <c r="C12" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>1372</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
@@ -5052,7 +5169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1231</v>
       </c>
@@ -5062,6 +5179,12 @@
       <c r="C13" s="3" t="s">
         <v>402</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1374</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5084,7 +5207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1232</v>
       </c>
@@ -5094,6 +5217,9 @@
       <c r="C14" s="3" t="s">
         <v>405</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>1375</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>406</v>
       </c>
@@ -5116,7 +5242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1233</v>
       </c>
@@ -5126,6 +5252,9 @@
       <c r="C15" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>1376</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
@@ -5148,7 +5277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1234</v>
       </c>
@@ -5158,6 +5287,12 @@
       <c r="C16" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1378</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5180,7 +5315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1235</v>
       </c>
@@ -5190,6 +5325,9 @@
       <c r="C17" s="3" t="s">
         <v>415</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>1379</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>416</v>
       </c>
@@ -5212,7 +5350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1236</v>
       </c>
@@ -5221,6 +5359,12 @@
       </c>
       <c r="C18" s="3" t="s">
         <v>180</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1381</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -5257,6 +5401,9 @@
       <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>1381</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
@@ -5279,7 +5426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1238</v>
       </c>
@@ -5289,6 +5436,9 @@
       <c r="C20" s="3" t="s">
         <v>182</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>1382</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1239</v>
       </c>
@@ -5321,6 +5471,12 @@
       <c r="C21" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1384</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
@@ -5343,7 +5499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1240</v>
       </c>
@@ -5353,6 +5509,9 @@
       <c r="C22" s="3" t="s">
         <v>425</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>1385</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
@@ -5375,7 +5534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1241</v>
       </c>
@@ -5385,6 +5544,9 @@
       <c r="C23" s="3" t="s">
         <v>428</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>429</v>
       </c>
@@ -5407,7 +5569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1242</v>
       </c>
@@ -5417,6 +5579,9 @@
       <c r="C24" s="3" t="s">
         <v>432</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>1387</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
@@ -5439,7 +5604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1243</v>
       </c>
@@ -5449,6 +5614,9 @@
       <c r="C25" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>1388</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
       </c>
@@ -5471,7 +5639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1244</v>
       </c>
@@ -5481,6 +5649,9 @@
       <c r="C26" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>1389</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>416</v>
       </c>
@@ -5503,7 +5674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1245</v>
       </c>
@@ -5513,6 +5684,9 @@
       <c r="C27" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>1390</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
       </c>
@@ -5535,7 +5709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1246</v>
       </c>
@@ -5545,6 +5719,9 @@
       <c r="C28" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>1391</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>445</v>
       </c>
@@ -5567,7 +5744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1247</v>
       </c>
@@ -5576,6 +5753,12 @@
       </c>
       <c r="C29" s="3" t="s">
         <v>448</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1393</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -5675,7 +5858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1249</v>
       </c>
@@ -5685,6 +5868,12 @@
       <c r="C32" s="3" t="s">
         <v>451</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1395</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
       </c>
@@ -5707,7 +5896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1250</v>
       </c>
@@ -5717,6 +5906,12 @@
       <c r="C33" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1396</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>455</v>
       </c>
@@ -5739,7 +5934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1251</v>
       </c>
@@ -5749,6 +5944,9 @@
       <c r="C34" s="3" t="s">
         <v>458</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>1398</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>17</v>
       </c>
@@ -5771,7 +5969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1252</v>
       </c>
@@ -5781,6 +5979,9 @@
       <c r="C35" s="3" t="s">
         <v>461</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>1399</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>7</v>
       </c>
@@ -5803,7 +6004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1253</v>
       </c>
@@ -5813,6 +6014,9 @@
       <c r="C36" s="3" t="s">
         <v>464</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>1400</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>17</v>
       </c>
@@ -5835,7 +6039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1254</v>
       </c>
@@ -5845,6 +6049,9 @@
       <c r="C37" s="3" t="s">
         <v>467</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>1401</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>17</v>
       </c>
@@ -5867,7 +6074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1255</v>
       </c>
@@ -5877,6 +6084,9 @@
       <c r="C38" s="3" t="s">
         <v>470</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>1402</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +6109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1256</v>
       </c>
@@ -5909,6 +6119,9 @@
       <c r="C39" s="3" t="s">
         <v>473</v>
       </c>
+      <c r="D39" s="3" t="s">
+        <v>1403</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>17</v>
       </c>
@@ -5931,7 +6144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1257</v>
       </c>
@@ -5941,6 +6154,9 @@
       <c r="C40" s="3" t="s">
         <v>476</v>
       </c>
+      <c r="D40" s="3" t="s">
+        <v>1404</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>406</v>
       </c>
@@ -5963,7 +6179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1258</v>
       </c>
@@ -5972,6 +6188,12 @@
       </c>
       <c r="C41" s="3" t="s">
         <v>479</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1406</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>7</v>
@@ -6033,7 +6255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1260</v>
       </c>
@@ -6042,6 +6264,9 @@
       </c>
       <c r="C43" s="3" t="s">
         <v>482</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1407</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F686A58F-5341-2542-868E-11241B0CF9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48C4D-D1DC-2E46-8F9B-DD89C7DBF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="2140" windowWidth="28800" windowHeight="24260" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="13880" yWindow="3980" windowWidth="35700" windowHeight="27300" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1595">
   <si>
     <t>#</t>
   </si>
@@ -3166,9 +3166,6 @@
     <t>Liu, S., Sun, H., Zhuang, J., and Xiong, R. (2023)</t>
   </si>
   <si>
-    <t>Lo, T.W., Chan, G.H., Lee, G.K.W., Guan, X., and Kwok, S.I. (2023)</t>
-  </si>
-  <si>
     <t>Young people’s perceptions of the challenges and opportunities during the Mainland China–Hong Kong convergence.</t>
   </si>
   <si>
@@ -4289,6 +4286,604 @@
   </si>
   <si>
     <t>Entrepreneurial emotion refers to the affect, emotions, moods, and/or feelings—of individuals or a collective—that are antecedent to, concurrent with, and/or a consequence of, the entrepreneurial process, meaning the recognition/creation, evaluation, reformulation, and/or the exploitation of a possible opportunity. In this paper, we explore this working definition of entrepreneurial emotion, what it means, and some important advances the field has made in this area of research. We also highlight fundamental avenues for future research that are sorely in need of study. Finally, we introduce the seven papers in this special issue on the Heart of Entrepreneurship and how they move the conversation on entrepreneurial emotion forward.</t>
+  </si>
+  <si>
+    <t>This case presents the story of Homeboy Industries, which was founded by Father Greg Boyle, S.J. to offer employment opportunities to former gang members in East Los Angeles. Homeboy Industries has successfully launched several businesses to hire and train “homies” who otherwise may not have found jobs. Michael Baca, the new operations director, is faced with the decision of whether to pursue expansion of the promising merchandising division. Complicating the decision is the need to balance both the social and business objectives of Homeboy Industries while dealing with the organization’s extreme shortage of managerial and financial resources. This depiction of an unusual entrepreneurial environment also illustrates several organizational challenges and philosophical dilemmas that are common among social ventures.</t>
+  </si>
+  <si>
+    <t>An important distinction between family and nonfamily firms and among different types of family firms is the manner in which strategy is formulated and implemented. These differences in strategic behaviors can cause variations in firm performance. Understanding the nature of these differences and how the family form of organization drives them therefore contributes to the development of a strategic management theory of the family firm, a unifying theme of the series of special issues published in Entrepreneurship Theory and Practice to date. This article briefly reflects on the progress made in understanding the strategic differences of family firms in this ongoing series and discusses the contributions of the articles and commentaries contained in this fifth special issue on theories of family enterprise.</t>
+  </si>
+  <si>
+    <t>In the nineties, postgraduate technology management education was mainly concentrated upon structuring the product development cycle and positioning technology strategy within the overall strategy of the company. Today it encompasses a much wider range of capabilities to address contemporary challenges such as globalization, open innovation, and the need for corporate renewal and venturing. To gain insight into the implications of this change, we conducted a number of exploratory interviews with leaders from both the demand and supply sides in Europe based in higher education institutes, the corporate sector, and public institutes. Our interviews highlight a dynamic field moving from traditional MBA-focused programs toward more entrepreneurial “boot camps,” from a case study-oriented teaching style toward a mentoring approach, and from an emphasis upon general business toward working across disciplines yet being sensitive to underlying technologies. We found important implications for technology management education with respect to its location within universities and identified opportunities for business schools to provide technology entrepreneurship and commercialization skills.</t>
+  </si>
+  <si>
+    <t>Although sources and determinants of academic entrepreneurship have begun to command the attention of policy-makers and researchers, there remain many unanswered questions about how individual and social factors shape the decisions of academics to engage in entrepreneurial activities. Using a large-scale panel of academics from a variety of UK universities from 2001 to 2009, this paper examines how an academics’ level of entrepreneurial capacity in terms of opportunity recognition capacity, and their prior entrepreneurial experience shape the likelihood of them being involved in starting up a new venture. In addition, we explore what role university Technology Transfer Offices (TTOs) play in stimulating venture creation. The results show that individual-level attributes and experience are the most important predictors of academic entrepreneurship. We also find that the social environment surrounding the academic also plays an influential role, butits role is much less pronounced than individual-level factors. Finally, we show that the activities of the TTO play only a marginal, indirect role, in driving academics to start new ventures. We explore the implications of this analysis for policy and organizational design for academic entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Technology, Transfer Offices, Spin-offs</t>
+  </si>
+  <si>
+    <t>Local research units, this article argues, play a very important role for the scientific field they belong to, for example by mobilizing financial support, offering job opportunities, attracting talented recruits, and providing adequate training. Little is known, however, about such units, at least in the fields under study here, i.e., studies of innovation, entrepreneurship and related phenomena. This article focuses – with the help of a survey of 136 research units worldwide supplemented by a number of case-studies – on the factors that influence the extent to which local mobilization efforts succeed. The research shows that universities provide the most fertile grounds for such research units, and that external support and support from the leadership of the university are important factors behind their establishment. In the longer term, however, attracting core (basic) finance is essential for the unit’s ability to maintain cognitive control of its research program. Units that develop their own Master and PhD programs appear more likely than others to achieve these aims.</t>
+  </si>
+  <si>
+    <t>Research units, Universities, Innovation, Entrepreneurship, Emerging scientific fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholarly work seeking to understand academics’ commercial activities often draws on abstract notions of the academic reward system and the representative scientist. Few scholars have examined whether and how scientists’ motives to engage in commercial activities differ across fields. Similarly, efforts to understand academics’ choices have focused on three self-interested motives—recognition, challenge, and money—ignoring the potential role of the desire to have an impact on others. Using panel data for a national sample of over 2,000 academics employed at U.S. institutions, we examine how the four motives are related to commercial activity measured by patenting. We find that all four motives are correlated with patenting, but these relationships differ systematically between the life sciences, physical sciences, and engineering. These field differences are consistent with differences across fields in the rewards from commercial activities as well as in the degree of overlap between traditional and commercializable research, which affects the opportunity costs of time spent away from “traditional” academic work. We discuss potential implications for policy makers, administrators, and managers as well as for future research on the scientific enterprise. </t>
+  </si>
+  <si>
+    <t>technology commercialization, motivation and incentives, academia-industry interface, academic entrepreneurship, economics of science, research, innovation</t>
+  </si>
+  <si>
+    <t>This study examines the relationships among angel investor-entrepreneur relationship conflicts, task conflicts, and goal conflicts on the one hand and their intentions to exit on the other. I evaluate the hypotheses with survey data from 65 angel investors and 72 entrepreneurs belonging to 54 ventures located in either California or Belgium. Regression analyses indicate that entrepreneurial intentions to exit are higher for entrepreneurs who face more task and goal conflicts. Angel investors’ intentions to exit are only increased when faced with more goal conflicts. Together, these results indicate the importance of taking into account investor-entrepreneur relations when studying their respective exit processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper proposes to review and assess social scientific debate about the origins and nature of innovation in modern society. It focuses on three sub-sets of conceptualisation, critique and commentary that refer specifically to sub-national or regional innovation systems. Research in the latter field has grown enormously in recent years. Moreover, new perspectives from other disciplines than regional science have been promoted. One distinctive view of relevance in that it is focused on the role in innovation of specific ‘entrepreneurial universities’ in relation to industry and government is, of course, the ‘Triple Helix’ approach. This is reviewed and sympathetically critiqued. A second view, less sympathetically critiqued here, is one that itself attacks all so-called ‘new regionalism’ for stressing the importance of institutions, industry embeddedness and the micro-science of regional economic development. Dazzled by ‘Globalisation 1’ and the totalising power of ‘scale’ geographies, this rejection of the worth of spatial analysis at less than the global or national ‘scalar envelope’ is assessed for its potential insights into weaknesses of the regional innovation systems approach but found wanting in both technical accuracy and scholarly competence. Finally, the state of the art in regional innovation systems research is sketched by reference both to recent longitudinal findings and elaborations into specific technological fields, particularly but not only Bioregional Innovation Systems that help move us towards a newer theory of economic geography in the knowledge economy, based on ‘regional knowledge capabilities.’ The analysis conclusively proposes ‘Globalisation 2’, a ‘ground-up’ knowledge-driven evolution of the earlier ‘top–down’ multilateral trade institution and corporately driven ‘Globalisation 1.’ </t>
+  </si>
+  <si>
+    <t>Regionalisation, Open innovation, Asymmetric knowledge, ‘Globalisation 2’</t>
+  </si>
+  <si>
+    <t>The article uses experiential learning theory to magnify the importance of learning within the process of entrepreneurship. Previous research details the contributions of prior knowledge, creativity, and cognitive mechanisms to the process of opportunity identification and exploitation; however, the literature is devoid of work that directly addresses learning. The extant research assumes learning is occurring but does not directly address the importance of learning to the process. To fully understand the nature of the entrepreneurial process, researchers must take into account how individuals learn and how different modes of learning influence opportunity identification and exploitation. This article makes connections between knowledge, cognition, and creativity to develop the concept of learning asymmetries and illustrates how a greater appreciation for the differences in individual learning will fortify entrepreneurship research.</t>
+  </si>
+  <si>
+    <t>Through a parallel examination of literatures on new product development termination and entrepreneurial cognition, this study explores a specific form of human capital development: learning from failure. Specifically we advance the literature on entrepreneurial human capital by linking cognitive scripts used by corporate entrepreneurs in project termination decisions to corresponding levels of learning. Our longitudinal investigation of technologybased firms suggests that corporate entrepreneurs use three types of termination scripts: (1) undisciplined termination, (2) strategic termination, and (3) innovation drift. We illustrate the presence of each script and analyze learning implications during innovation projects (action learning) and after termination (post-performance learning). Based on our analysis we suggest that organizational learning is dependent upon the type of termination script individuals employ.</t>
+  </si>
+  <si>
+    <t>This article explores how the concept of entrepreneurial orientation (EO) has been portrayed and assessed in prior research. The challenges and decision criteria associated with formative versus reflective measurement approaches are reviewed. It is argued that, as a latent construct, EO exists apart from its measures and that researchers are free to choose whichever measurement approach best serves their research purposes, recognizing that unidimensional versus multidimensional EO measurement models are consistent with fundamentally different conceptualizations of the EO construct. Recommendations are offered regarding potentially appropriate formative and reflective measures of EO.</t>
+  </si>
+  <si>
+    <t>We advance and test an institutional anomie theory of opportunity entrepreneurship for understanding the combinative effects of selected cultural values and social institutions to explain national differences in rates of opportunity entrepreneurship. We theorize opportunity entrepreneurship as a creatively deviant response to anomic conditions in societies, i.e., when social institutions block traditional means of achievement. Using 10 years of data for a pooled time series cross-sectional analysis, we examined a unique mixture of cultural and institutional variables and their interactions as predictors of nation-level opportunity entrepreneurship rates. We found support for most hypotheses showing that specific institutional contexts mitigate or enhance the effects of cultural drivers of opportunity entrepreneurship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can reputational threat among coworkers reduce bribery in organizations? I exploit within- and across-organizational variation in bribery to design and implement a field experiment in the maternity wards of five Moroccan public hospitals. I test whether threatening to reveal information about ward workers’ involvement in bribery to their coworkers dissuades them from taking bribes from patients. Healthcare workers cut back on taking bribes in higher-incidence maternity wards but not in lower-incidence wards. Qualitative data show that bribery’s baseline incidence sets the costs of revealing. Workers tolerate only so much bribery in their wards before they face the negative social consequences of belonging to a work group that takes bribes. They thus correct their behavior when it crosses a threshold. Moreover, ineffective applications of the field interventions betrayed welfare-diminishing effects. I furnish evidence for a novel kind of policy lever against workplace bribery and shed new light on the dynamics of bribery inside organizations. </t>
+  </si>
+  <si>
+    <t>bribery and corruption, group reputation, social incentives, field experiment, public sector organizations, healthcare</t>
+  </si>
+  <si>
+    <t>This article investigates differences in growth intentions of men and women entrepreneurs. Using data from the U.S. Panel Study of Entrepreneurial Dynamics I and II, we test hypotheses informed by life course theory regarding the influence of career stage and family status on high growth intentions of men and women entrepreneurs. Results show that young men are especially likely to express high growth intentions, while mothers expressed high growth intentions more frequently than did other women.</t>
+  </si>
+  <si>
+    <t>Using computational and mathematical modeling, this study explores the tension between too little and too much structure that is shaped by the core tradeoff between efficiency and flexibility in dynamic environments. Our aim is to develop a more precise theory of the fundamental relationships among structure, performance, and environment. We find that the structure-performance relationship is unexpectedly asymmetric, in that it is better to err on the side of too much structure, and that different environmental dynamism dimensions (i.e., velocity, complexity, ambiguity, and unpredictability) have unique effects on performance. Increasing unpredictability decreases optimal structure and narrows its range from a wide to a narrow set of effective strategies. We also find that a strategy of simple rules, which combines improvisation with low-to-moderately structured rules to execute a variety of opportunities, is viable in many environments but essential in some. This sharpens the boundary condition between the strategic logics of positioning and opportunity. And juxtaposing the structural challenges of adaptation for entrepreneurial vs. established organizations, we find that entrepreneurial organizations should quickly add structure in all environments, while established organizations are better off seeking predictable environments unless they can devote sufficient attention to managing a dissipative equilibrium of structure (i.e., edge of chaos) in unpredictable environments.</t>
+  </si>
+  <si>
+    <t>This article investigates whether bribery in emerging economies matters and whether such bribery has a diminishing return to performance. Bribery allows entrepreneurs to develop and foster a network of informal relationships with public officials, and reap the accompanying benefits; but it may also have disadvantages, such as an inefficient allocation of resources. The relationship between bribery and performance was estimated using unique data derived from a survey of 606 Vietnamese entrepreneurs. We controlled for various entrepreneurial, organizational, and industrial characteristics. The exploratory results provide support for a hill-shaped non-monotonic relationship between bribery and revenues.</t>
+  </si>
+  <si>
+    <t>Regional economic development policy is recognized as a key tool governments use to foster economic prosperity. Whether specialization (or diversity) of economic activities should be a regional development policy goal is often debated. We address this question in a local-diversity context, by reviewing traditional arguments in its favor, supplemented with evidence for more entrepreneurial concepts like industrial symbiosis and Jacobs externalities. We show that the context of entrepreneurship matters more to policy than the type and form of resulting industries. Policies enabling entrepreneurs to exploit opportunities in a context of spontaneously evolved industrial diversity are better facilitators of regional development.</t>
+  </si>
+  <si>
+    <t>Our commentary addresses three papers that we believe make important contributions to the emerging literature on entrepreneurial orientation (EO). The first paper rigorously assesses and enhances the construct validity of EO—an important antecedent to empirical research. The second paper draws on the concepts of identity and social identity and provides a means of predicting how various ownership types of family firms will affect the EO-performance relationship. The third paper synthesizes multiple theoretical perspectives and empirical research to provide insights on the role that EO plays in enhancing a firm’s acquisitive and experimental learning. We close with a discussion of EO as an area for theory development.</t>
+  </si>
+  <si>
+    <t>Opportunity identification is rapidly becoming a key focal point of research in the entrepreneurship domain. This study is the first to explore gender differences in opportunity identification. Utilizing two distinct samples (95 senior undergraduate students, 189 entrepreneurs in two high-technology industries), we found that women and men utilize their unique stocks of human capital to identify opportunities and that they use fundamentally different processes of opportunity identification. However, we did not find any difference in the innovativeness of the opportunities identified. This research contributes both to the opportunity identification literature and to theories of social feminism by showing empirically that although women and men utilize different processes to identify opportunities, neither process is inherently superior.</t>
+  </si>
+  <si>
+    <t>Although research has shown the ability to exit from both successful and unsuccessful ventures is important to founders, families, firms, industries, and overall economic health, exiting from a family firm can be especially challenging. In this paper, we examine exit strategies in the context of the family firm and the family firm portfolio. Drawing upon threshold theory and the socioemotional wealth perspective, we develop a model that provides guiding theoretical explanations for exit strategies. We address two questions: (1) why do family owners develop specific exit strategies, and (2) how do these strategies differ within family firms and family firm portfolios? In doing so, we contribute to family business, portfolio entrepreneurship, and exit literatures.</t>
+  </si>
+  <si>
+    <t>This article helps develop the creativity perspective within entrepreneurship in two ways. First, it elaborates on the nature of opportunity as a creative product. Rather than viewing opportunities as single insights, it suggests that they are emerging through the continuous shaping and development of (raw) ideas that are acted upon. Second, rather than attributing them to a particular individual, it highlights the contextual and social influences that affect the generation and shaping of ideas. This helps move entrepreneurship research beyond the single-person, single-insight attribution that currently permeates it.</t>
+  </si>
+  <si>
+    <t>The notion of opportunity, as currently discussed in entrepreneurship research, is theoretically exciting but empirically elusive. This article seeks to stimulate a new conversation about entrepreneurial opportunities by distinguishing two conceptions of entrepreneurial behavior—formal and substantive—and situating the construct of opportunity within the latter. It discusses three substantive premises for studying opportunities empirically: (1) opportunity as happening; (2) opportunity as expressed in actions; and (3) opportunity as instituted in market structures. These premises stimulate research questions that can invigorate and expand the study of entrepreneurial opportunities. They invite a continuous dialogue between qualitative and quantitative methodologies in behalf of understanding how opportunities emerge and evolve at the level of individual entrepreneurs.</t>
+  </si>
+  <si>
+    <t>As entrepreneurship emerges into an independent field of study, it is important for scholars and administrators to have a good understanding of the main channels for disseminating knowledge within this field. Here, we provide a new evaluation of journals devoted to entrepreneurship, plus more general journals that publish entrepreneurship articles. The evaluation uses a citation-based model to rate journals. This model overcomes some limitations inherent in the widely known “JIFs” approach. The model is used to derive ratings that shows the relative influences of established journals that publish research dealing with the entrepreneurship domain. In addition to being a way to gauge the influence that a particular journal has had on this domain, a journal’s rating can serve as an early proxy for measuring the influence of individual entrepreneurship articles that have yet to have an opportunity to accumulate citations.</t>
+  </si>
+  <si>
+    <t>This article introduces the reader to the scope, boundaries, variation, and theoretical lenses of transnational entrepreneurship (TE) research. We discuss issues concerning why, how, and when individuals and/or organizations pursue new business ventures, often in far less attractive environments, while relying on abilities and opportunities stemming from the exploitation of resources, both social and economic, in more than one country. We compare TE with international entrepreneurs, ethnic entrepreneurs, and returnee entrepreneurs. TE is considered from several perspectives: agency, institutional, cultural, power relations, and social capital and networks. We summarize the articles presented in this special issue and outline an agenda for further research.</t>
+  </si>
+  <si>
+    <t>Drawing on agency and configurations theories, this study examines how perceived level of control over the entrepreneur influences venture capitalist (VC) decision making. We model the direct effects of perceived control and the interactive effects of control with entrepreneurial prestige and opportunity attractiveness to determine how various combinations of factors influence VCs’ willingness to invest. We test our conceptualizations using conjoint analyses of 552 VC investment decisions. The results show that perceived control is directly related to investment likelihood, but different configurations of control, entrepreneur prestige, and opportunity attractiveness result in different outcomes. Our findings support a configurational perspective of VC decision making.</t>
+  </si>
+  <si>
+    <t>In this article, we drew upon insights from two rather disparate streams of literature—entrepreneurship and organizational learning—to develop an informed understanding of the phenomenon of entrepreneurial opportunities. We examined the nature of entrepreneurial opportunities from two contrasting views—Schumpeterian and Kirznerian—and delved into their ontological roots. By applying the 4I organizational learning framework to entrepreneurial opportunities, we were able to not only resolve the apparently conflicting explanations of opportunities arising out of the contrasting ontological positions but also to achieve a level of pragmatic synthesis between them. In highlighting the article’s contributions to theory and practice, we suggest that just as research on entrepreneurial opportunities benefits from applying organizational learning theory, so is organizational learning informed by research arising within the field of entrepreneurship studies.</t>
+  </si>
+  <si>
+    <t>Recent literature has highlighted two conflicting theories of entrepreneurship. In the “discovery” perspective, objective environmental conditions are considered to be the source of entrepreneurial opportunities and thus drivers of subsequent entrepreneurial action. The “creation” view, in contrast, is based on entrepreneurial perceptions and sociocognitive enactment processes. While empirical studies have separately utilized each of these perspectives, few attempts have been made to integrate insights from both theories to empirically examine the interrelationships among environmental conditions, entrepreneurial perceptions, entrepreneurial action, and outcomes. In this article, we explicate the roles that both objective environmental conditions and entrepreneurial perceptions of opportunity and resource availability play in the process of firm creation. Utilizing longitudinal data on nascent entrepreneurs, we find that as hypothesized, entrepreneurs’ opportunity perceptions mediate between objective characteristics of the environment and the entrepreneurs’ efforts to start a new venture. Contrary to our expectations, we do not find a similar mediating effect for perceived resource availability. These findings have important implications for further theory development in entrepreneurship as well as for practice and education in the field.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship courses are vital components of a business school curriculum. Although existing studies examine teaching pedagogy, very few explore the content of entrepreneurship courses. We compare start-up activities of nascent entrepreneurs in the Panel Study of Entrepreneurial Dynamics (PSED) dataset to data collected from a sample of entrepreneurship textbooks. Our findings indicate that while there is some overlap in start-up activities practiced by nascent entrepreneurs and those covered in textbooks, there are several differences as well. Implications for teaching are discussed.</t>
+  </si>
+  <si>
+    <t>We exploit the staggered introduction of liability waivers when investors hold stakes in conflicting business opportunities as a shock to venture capital (VC) investment and director networks. After the law changes, we find increases in within-industry VC investment and common directors serving on startup boards. Despite the potential for rent extraction, sameindustry startups inside VC portfolios benefit by raising more capital, failing less, and exiting more successfully. VC directors serving on other startup boards are the primary mechanism associated with positive outcomes, consistent with common VC investment facilitating informational exchanges in VC portfolios.</t>
+  </si>
+  <si>
+    <t>In this study, we investigate how knowledge spillovers create entrepreneurial opportunities using the adoption of BITNET, an early predecessor of the Internet, across universities in the U.S. as an exogenous shock to the knowledge base in the county where the university is located. Using County Business Patterns data, we find a positive relationship between entrepreneurship, measured by the increase in the number of establishments in a county, and the adoption of BITNET at a university in that county. Further, this relationship is stronger for establishments in high-tech industries and for smaller establishments. We also find that the number of patents and citations in a county increase after the adoption of BITNET in a county. These results indicate that knowledge spillovers from local universities can have a strong impact on entrepreneurial opportunities in a location, consistent with the knowledge spillover theory of entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Knowledge spillover, Innovation, University research, Information and communication technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper explains and evaluates the evolution of the UREs (University-run Enterprises) in China by building a new theoretical framework on the university–industry relationship. Unlike the Triple Helix or the New Economics of Science that advocates a certain type (integration or separation) of university–industry relationship, we take a contingent or context-specific perspective on the relationship, having the context of developing countries in mind. The framework developed in this paper explains in what condition universities would keep distance from industry or become entrepreneurial to take a part in the functions of industry (i.e. setting up and running their own business enterprises). In this typology the basic determinants are internal resources of university, absorptive capacity of industrial firms and existence of intermediary institutions, as well as the propensity of university for UREs. The paper has argued that the Chinese universities since the market-oriented reform had strong propensity to pursue economic gains and strong internal (R&amp;D and other) resources to launch start-ups, and thus established their own firms (i.e. UREs), given the low absorptive capacity of industrial firms and the underdeveloped intermediary institutions. The recent adjustment of the UREs in China can also be understood in terms of changes in the above three factors, such as universities’ weakened propensity to pursue economic gains, relative decline of superiority of university resources, and improved external environment. </t>
+  </si>
+  <si>
+    <t>University-run enterprise, University–industry relationship, China</t>
+  </si>
+  <si>
+    <t>This paper reports the findings of the first academic study in Latin America, and one of the few in any emerging economy, to explore entrepreneurial perceptions and activity in peripheral geographic locations. A survey of experts included 139 respondents from three peripheral regions and two core regions in Chile. A key finding is that those located at the periphery perceived critical entrepreneurial resources and access to markets less favorably than their counterparts at the core, but surprisingly, they perceived greater business opportunity in their area. A further survey of 2,200 respondents concerning actual entrepreneurial activities among the total adult population revealed no differences between peripheral and core regions. This study revives the debate about specific regional policies for fostering the growth of local business, and the entrepreneurial framework conditions required at the regional level in emerging economies.</t>
+  </si>
+  <si>
+    <t>In this article, we study the determinants of corporate entrepreneurial intention (CEI) within small and newly established firms. Given that in these ventures, entrepreneurial activities usually occur as a result of individuals’ behaviors, the CEI of their founders is key to explaining these companies’ ability to become engaged in entrepreneurial actions. Building on the theory of planned behavior, we conceptualize how individual characteristics and contextual variables influence CEI. Our theoretical model of the micro-foundation of CEI is tested on a sample of 200 entrepreneurs, founders of 133 new technology-based firms. Results show that CEI is influenced by situationally specific motivation, individual skills, and perceived environmental dynamism. Managerial implications are discussed.</t>
+  </si>
+  <si>
+    <t>In this paper, we analyze the extent to which University-Level Support Mechanisms (ULSMs) and Local-Context Support Mechanisms (LCSMs) complement or substitute for each other in fostering the creation of academic spin-offs. Using a sample of 404 companies spun off from the 64 Italian Science, Technology, Engineering, and Mathematics universities (STEM universities) over the 2000–2007 period, we show that the ULSMs’ marginal effect on universities’ spin-off productivity may be positive or negative depending on the contribution offered by different LCSMs. Specifically, in any given region, ULSMs complement the legislative support offered to high-tech entrepreneurship whereas they have a substitution effect with regard to the amount of regional social capital, regional financial development, the presence of a regional business incubator, regional public R&amp;D expenses as well as the level of innovative performance in the region. Results support the idea that regional settings’ idiosyncrasies should be considered for universities to develop effective spin-off support policies. This paper contributes to the debate on the evaluation of economic policies supporting entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Academic spin-offs, University-level support mechanisms, Local-context support mechanisms, Technology transfer</t>
+  </si>
+  <si>
+    <t>Emotions may affect opportunity evaluation yet emotions’ influence in entrepreneurship research has been neglected. Findings from the two studies in this paper indicate that appraisal dimensions of emotions influence risk perceptions and preferences. In Study 1 (n = 187), the participants’ scores on risk perception for a venture scenario were significantly lower for anger and happiness-induced participants (emotions associated with outcome certainty and control) than for fear- and hope-induced participants (emotions associated with outcome uncertainty and a lack of outcome control). In Study 2 (n = 66), the entrepreneurs’ preference for the higher value but uncertain outcome related positively to their scores on trait anger and trait happiness.</t>
+  </si>
+  <si>
+    <t>This is a “mash-up” of some ideas on entrepreneurship scholarship using rhymes. The challenge was to compare and contrast special issue articles along national lines. The pondering of each country’s imperative comes out through this “hip-hop” perspective. Please be assured when you read this that these rhymes are serious. There are important issues that scholars’ interest must pay, so do not let this format get in the way, using this poem as a start, of exploring entrepreneurship as science and art. Ideas from each country are beyond differences in methods quantitative and quality: Issues philosophical, rhetorical, historical, and current are the basis for the entrepreneurship field’s ferment.</t>
+  </si>
+  <si>
+    <t>This special issue is devoted to understanding the scientific structure of entrepreneurship research. Research in entrepreneurship has grown rapidly, encompassing multiple theoretical and methodological traditions. Articles in this issue use bibliometric techniques to find linkages among published entrepreneurship scholars. These analyses show that research in the entrepreneurship field contains: multiple but disconnected themes; dominant themes that reflect the disciplinary training and lens of their authors; and considerable dynamism and change in key research themes over time. These special issue articles provide rich opportunities for identifying insightful, influential, and creative research niches in the entrepreneurship field.</t>
+  </si>
+  <si>
+    <t>In this manuscript, we examine the evolution of the Entrepreneurial Orientation (EO) concept in an effort to identify areas of concern for the future development of knowledge around the construct and provide conceptual analyses to suggest how we might best move forward in the construct’s development. We suggest that the continued accumulation of knowledge in the field is best facilitated by conceptualizing EO as a reflective model utilizing three dimensions that can be extended through the use of a classical classification scheme and that additional subcategories of EO should be developed within the EO conceptual family utilizing new measurement items.</t>
+  </si>
+  <si>
+    <t>While the term “business model” has gained widespread use in the practice community, the academic literature on this topic is fragmented and confounded by inconsistent definitions and construct boundaries. In this study, we review prior research and reframe the business model with an entrepreneurial lens. We report on a discourse analysis of 151 surveys of practicing managers to better understand their conceptualization of a business model. We find that the underlying dimensions of the business model are resource structure, transactive structure, and value structure, and discuss the nature and implications of dimensional dominance for firm characteristics and behavior. These findings provide new directions for theory development and empirical studies in entrepreneurship by linking the business model to entrepreneurial cognition, opportunity co-creation, and organizational outcomes.</t>
+  </si>
+  <si>
+    <t>Among the millions of entrepreneurs in developing economies, few are able to earn a decent livelihood. To help these entrepreneurs succeed, governmental and nongovernmental organizations invest billions of dollars every year in providing training programs. Many of these programs involve providing entrepreneurs with mentors. Unfortunately, the effects of these programs are often muted, or even null, for woman-owned firms. Against this backdrop, we tested whether gender matching, where female entrepreneurs are randomly paired with a female mentor, could help address the gender gap. Findings from a randomized controlled field experiment with 930 Ugandan entrepreneurs show that mentor gender has a powerful impact on female entrepreneurs. Firm sales and profits of female entrepreneurs guided by a female mentor increased by, on average, 32% and 31% compared with the control group, and these estimates are even larger for female entrepreneurs with high aspirations. In contrast, female entrepreneurs guided by a male mentor did not significantly improve performance compared with the control group. We provide suggestive mechanism evidence that female mentor-mentee arrangements were characterized by more positive engagements.</t>
+  </si>
+  <si>
+    <t>female entrepreneurs, gender gap, glass ceiling, mentorship gender-matching, randomized controlled field experiment, small firm growth, developing economies</t>
+  </si>
+  <si>
+    <t>The growth of an economy depends upon entrepreneurial activities leading to the formation of new businesses and the production of new goods and services. In turn, institutions influence entrepreneurial activity. Public policy is an attribute of the institutions under which entrepreneurs operate. One element of the institutional environment is the degree of economic freedom under which entrepreneurs form and operate their business activities. The degree of economic freedom affects not only profit opportunities for entrepreneurs, but also the level and the type of economic activities they pursue. We examine how the entrepreneurial activity and level of employment in U.S. service industries respond to changes in the degree of economic freedom among states. Our findings suggest that the relationship between entrepreneurial outcomes and economic freedom varies significantly by industry. In some industries, such as business and personal services, increases in economic freedom lead to growth in the number of firms and the level of employment. However, the reverse is true for other industries, such as health, social, and legal services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do potential entrepreneurs remain in wage employment because of concerns that they will face worse job opportunities should their entrepreneurial ventures fail? Using a Canadian reform that extends job-protected leave to one year for women giving birth after a cutoff date, we study whether the option to return to a previous job increases entrepreneurship. A regression discontinuity design reveals that a longer job-protected leave increases entrepreneurship by 1.9 percentage points. These entrepreneurs start incorporated businesses that hire employees, in industries in which experimentation before entry has low costs and high benefits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We develop and test a theoretical model that explains how collective psychological ownership—shared feelings of joint possession over something—emerges within new creative teams that were launched to advance one person’s (i.e., a creative lead’s) preconceived idea. Our model proposes that such teams face a unique challenge—an initial asymmetry in feelings of psychological ownership for the idea between the creative lead who conceived the idea and new team members who are beginning to work on the idea. We suggest that the creative lead can resolve this asymmetry and foster the emergence of collective psychological ownership by enacting two interpersonal behaviors—help seeking and territorial marking. These behaviors build collective ownership by facilitating the unifying centripetal force of team identification and preventing the divisive centrifugal force of team ownership conflict. Our model also proposes that collective ownership positively relates to the early success of new creative teams. The results of a quantitative study of 79 creative teams participating in an entrepreneurship competition provided general support for our predictions but also suggested refinements as to how a creative lead’s behavior influences team dynamics. The findings of a subsequent qualitative investigation of 27 teams participating in a university startup launch course shed additional light on how collective ownership emerges in new creative teams launched to advance one person’s idea. </t>
+  </si>
+  <si>
+    <t>collective psychological ownership, creative teams, entrepreneurship, innovation, team formation, conflict, identification</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Research methods, Experiments</t>
+  </si>
+  <si>
+    <t>Experimental methods provide important advantages for advancing academic understanding of entrepreneurship. Yet, the complex and comingled relationships between some of entrepreneurship's key characteristics pose thorny methodological challenges to entrepreneurship researchers – notably to negotiate important tradeoffs between the ideals of external and construct validity. To facilitate the sound mobilization of experimental methods in entrepreneurship research, we present an overview of critical validity challenges plaguing entrepreneurship research experiments and assess the validation practices mobilized in 144 studies using such methods. Building on these findings, we develop a practical guide of actionable validation strategies to help experimenters navigate the above tradeoffs and conduct entrepreneurship research experiments that are realistic, theoretically meaningful, and that help establish the causal effects of their focal variables. By doing so, we contribute a set of pragmatic means to support the mobilization of experimental methods for advancing entrepreneurship research.&lt;br/&gt;
+Executive summary: Experimental methods hold important advantages for advancing the theoretical and practical understanding of entrepreneurial action. The power of research experiments lies in their ability to yield convincing evidence supporting the causal effects of the factors they investigate. &lt;br/&gt;
+Unfortunately, entrepreneurship research experiments are often criticized for offering pale copies of both the realities they attempt to model and the theoretical constructs they aim to study. The entrepreneurial process and its related activities count many intertwined characteristics – such as radical uncertainty, temporal dynamics, high personal stakes and other constraints – that can prove difficult to integrate in experimental studies. Moreover, these characteristics' comingled relationships raise important tensions with experimental methods' core principle of surgically focusing on the causal effects of a few manipulated variables. As a result, entrepreneurship research must overcome a number of validity challenges and tradeoffs in order to successfully leverage experimental methods and offer findings that convincingly support the causality of their theoretical developments. &lt;br/&gt;
+Compounding these difficulties, the guidance typically offered in research methods textbooks tends to focus on generic issues that are altogether separate from the specific challenges of conducting valid entrepreneurship research experiments. Because of this, many research manuscripts mobilizing experimental methods arrive at the review process with important shortcomings. This threatens the field's knowledge accumulation and typically calls for authors to refine their work and collect additional data. &lt;br/&gt;
+To help researchers face these challenges, we offer a three-part compendium focused on bolstering the validity of entrepreneurship research experiments. First, we complement the generic observations of research methods monographs by presenting an overview of the validity tradeoffs inherent to mobilizing experimental methods in entrepreneurship research – and of strategies for addressing these. &lt;br/&gt;
+Second, and to demonstrate that overcoming these challenges is not a trivial task, we conduct a structured literature review of the external and construct validation strategies deployed in a comprehensive corpus of 144 relevant articles published in both entrepreneurship-focused journals and broader generalist journals from the applied behavioral and social sciences. Among the most positive elements emerging from our analyses, we note upward trends in the mobilization of pilot tests, in the conduct of multiple experiments within single papers as well as in the use of parallel studies using different data collection methods. We also observe increased efforts to explain the practical relevance of experimental findings. To our surprise, however, our analyses uncover downward trends in the mobilization of pre-tests to examine the research material's external validity and representativeness, as well as the continued publication of studies that do not report empirical evidence regarding their focal manipulations' construct validity. This is concerning. Such practices undermine these experiments' abilities to yield convincing evidence in support of their theorized causal effects – and for what these imply for fostering entrepreneurial action. &lt;br/&gt;
+Third, and in light of the results obtained, we develop a practical guide of actionable strategies for navigating the validity tradeoffs of entrepreneurship research experiments. Grouping these strategies together allows us to systematize recommendations typically found across various methods monographs, thereby offering an overall scheme to help entrepreneurship researchers navigate the validity tradeoffs inherent to conducting realistic and theoretically meaningful experiments. To make our recommendations as actionable as possible, we develop an extensive step-by-step guide of design and assessment strategies relevant to entrepreneurship research experiments. The guide spans the entire research process – from conceiving an experimental study to collecting, analyzing and reporting the results. The guide also includes a number of relevant exemplars from many different studies we analyzed. &lt;br/&gt;
+By discussing these entrepreneurship-specific validity tradeoffs and combining that with an overview of strategies for addressing them, our study offers an entrepreneurship-centered synthesis that equips entrepreneurship researchers with the necessary tools for conducting experimental research that advances understanding of the causal effects supporting entrepreneurial action and its related phenomena.</t>
+  </si>
+  <si>
+    <t>Although academic research has provided tremendous insights about the organizational form of franchising, considerable work remains with regard to understanding the critical factors that enable international franchise expansion and performance. The authors advance the argument that a franchise relationship is essentially an entrepreneurial partnership, and that this partnership influences the speed, scale, and scope of franchise expansion into international markets. In the proposed conceptual model, the authors detail the links among the franchise partnership, international expansion, and franchise system performance.</t>
+  </si>
+  <si>
+    <t>Throughout economic history, institutions have established the rules that shape human interaction. In this sense, political, socio-cultural, and economic issues respond to particular forces: managed economy or entrepreneurial economy. In the entrepreneurial economy, the dominant production factor is knowledge capital that is the source of competitive advantage, which is complemented by entrepreneurship capital, representing the capacity to engage in and generate entrepreneurial activity. Thus, an entrepreneurial economy generates scenarios in which its members can explore and exploit economic opportunities and knowledge to promote new entrepreneurial phenomena that have not been previously visualised. In this context, the entrepreneurial university serves as a conduit of spillovers contributing to economic and social development through its multiple missions of teaching, research, and entrepreneurial activities. In particular, the outcomes of its missions are associated with the determinants of production functions (e.g. human capital, knowledge capital, social capital, and entrepreneurship capital). All these themes are still considerate potentially in the research agenda in academic entrepreneurship literature. This paper modestly tries to contribute to a better understanding of the economic impact of entrepreneurial universities’ teaching, research, and entrepreneurial activities. Taking an endogenous growth perspective, the proposed conceptual model is tested using data collected from 2005 to 2007 for 147 universities located in 74 Nomenclature of Territorial Units for Statistics-3 (NUTS-3) regions of the United Kingdom. The results of this exploratory analysis show the positive and significant economic impact of teaching, research, and entrepreneurial activities. Interestingly, the higher economic impact of the United Kingdom’s entrepreneurial universities (the Russell Group) is explained by entrepreneurial spin-offs. However, our control group composed by the rest of the country’s universities, the highest economic impact is associated with knowledge transfer (knowledge capital).</t>
+  </si>
+  <si>
+    <t>Entrepreneurial universities, Economic impact, Entrepreneurial economy, Knowledge transfer, Endogenous growth theory, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University research is to an increasing extent funded by industry, and the share of basic funding is decreasing. In the literature, there are optimistic and pessimistic views on the implication of this development. Based on data from a questionnaire study among all tenured university professors in Norway (N= 1967) we find that there is a significant relationship between industry funding and research performance: professors with industrial funding describe their research as applied to a greater extent, they collaborate more with other researchers both in academia and in industry, and they report more scientific publications as well as more frequent entrepreneurial results. There is neither a positive nor negative relationship between academic publishing and entrepreneurial outputs. </t>
+  </si>
+  <si>
+    <t>University research, Research funding, Research performance, University–industry relations, Academic entrepreneurship</t>
+  </si>
+  <si>
+    <t>Online gig platforms have the potential to influence employment in existing industries. Popular press and academic research offer two competing predictions: First, online gig platforms may reduce the supply of incumbent workers by intensifying competition and obsoleting certain skills of workers; or, second, they may boost the supply of workers by increasing client-worker matching efficiency and creating new employment opportunities for workers. Yet, there has been limited understanding of the labor movements amid the rise of online gig platforms. Extending the skill-biased technical change literature, we study the impact of TaskRabbit—a location-based gig platform that matches freelance workers to local demand for domestic tasks (e.g., cleaning services)—on the local supply of incumbent, work-for-wages housekeeping workers. We also examine the heterogeneous effects across workers at different skill levels. Exploiting the staggered TaskRabbit expansion into U.S. cities, we identify a significant decrease in the number of incumbent housekeeping workers after TaskRabbit entry. Notably, this is mainly driven by a disproportionate decline in the number of middle-skilled workers (i.e., first-line managers, supervisors) whose tasks could easily be automated by TaskRabbit’s matching algorithms, but not low-skilled workers (i.e., janitors, cleaners) who typically perform manual tasks. Interestingly, TaskRabbit entry does not necessarily crowd out middle-skilled housekeeping workers, neither laying them off nor forcing them to other related occupations; rather, TaskRabbit entry supports self-employment within the housekeeping industry. These findings imply that online gig platforms may not naively be viewed as skill biased, especially for low-skilled workers; instead, they redistribute middle-skilled managerial workers whose cognitive tasks are automated by the sorting and matching algorithms to explore new self-employment opportunities for workers, stressing the need to reconsider online gig platforms as a means to reshape existing industries and stimulate entrepreneurial endeavors.</t>
+  </si>
+  <si>
+    <t>online gig platforms, employment, skill-biased technical change, difference-in-differences, generalized synthetic control</t>
+  </si>
+  <si>
+    <t>Opportunity evaluation represents a core aspect of the entrepreneurial process. Prior research suggests that evaluation of new opportunities is influenced by biases rooted in subjective beliefs, values, and assumptions. In the present study, we used stereotype activation theory to propose that respondent gender (men–women), content of stereotype (masculine–feminine), and the manner in which stereotype information is presented (subtle– blatant) interact to influence evaluations of a new business opportunity. We found that both masculine and feminine stereotype activation influenced men and women’s evaluation of a business opportunity differently depending upon whether the stereotype was blatantly or subtly activated. Our results indicate that gender stereotype activation can both boost and impede men and women’s subsequent actions on entrepreneurial tasks such as opportunity evaluation, depending on the content of the stereotype and the manner in which it is presented. Implications and directions for future research are discussed.</t>
+  </si>
+  <si>
+    <t>In this study we examine the role of socially constructed gender stereotypes in entrepreneurship and their influence on men and women’s entrepreneurial intentions. Data on characteristics of males, females, and entrepreneurs were collected from young adults in three countries. As hypothesized, entrepreneurs were perceived to have predominantly masculine characteristics. Additional results revealed that although both men and women perceive entrepreneurs to have characteristics similar to those of males (masculine genderrole stereotype), only women also perceived entrepreneurs and females as having similar characteristics (feminine gender-role stereotype). Further, though men and women did not differ in their entrepreneurial intentions, those who perceived themselves as more similar to males (high on male gender identification) had higher entrepreneurial intentions than those who saw themselves as less similar to males (low male gender identification). No such difference was found for people who saw themselves as more or less similar to females (female gender identification). The results were consistent across the three countries. Practical implications and directions for future research are discussed.</t>
+  </si>
+  <si>
+    <t>We employ the individual-opportunity nexus perspective to conceptualize entrepreneurial commitment of academic scientists as the pursuit and attainment of external grant funding. We develop and test a model of network characteristics and cognitive biases that predict the likelihood that scientists will commit to a grant opportunity and the likelihood of receiving an award. Using data from our national survey of faculty, we find that the illusion of control and overconfidence reduce grant submissions but increase awards. Collaboration network size increases submissions and awards. Strong ties are positively related to submissions and smaller networks of strong, highly capable collaborators receive more awards.</t>
+  </si>
+  <si>
+    <t>This article makes two contributions to our understanding of the core entrepreneurial activity of assembling resources to pursue an opportunity. First, a conceptual framework is presented to organize the research on resource mobilization. Second, a study is presented based upon interviews with a random sample of 48 entrepreneurs to identify the supporters whom the entrepreneurs considered to have been key to their success and the resources obtained from these individuals. Results indicate that maximizing the overall effectiveness of resource combinations is a complex undertaking involving trade-offs between the quantity and quality of available resources and the efficiency versus effectiveness of supporters.</t>
+  </si>
+  <si>
+    <t>The research project described in this paper began as an inductive field study of entrepreneurship education in two very different settings—a university in war-torn Eastern Croatia and an entrepreneurship program in inner-city high schools in the United States. It evolved into a study of the two unlikely entrepreneurs who founded these education initiatives. Through a detailed counterfactual analysis of the narratives on the programs’ founding and evolution, we offer compelling evidence for the role of contingency in the entrepreneurial process. We present an inductive conceptual framework of responses to contingency based on entrepreneurs’ beliefs about agency and environment and conclude with implications of this research for entrepreneurship education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We craft a historically sensitive model of entrepreneurship linking individual actors to the evolving social structures they must navigate to acquire resources and launch new ventures. Theories of entrepreneurship and industry evolution suggest two opposing hypotheses: as an industry develops, launching a new venture may become more difficult for all but industry insiders and the socially prominent because of competition from large incumbents, or itmay become easier for all people because the legitimacy accorded to the industry simplifies the entrepreneurial task. To test these two conflicting claims, we study the American magazine industry from 1741 to 1860. We find that magazine publishing was originally restricted to publishing-industry insiders, professionals, and the highly educated, but most later founders came from outside publishing and more were of middling stature. Gains by entrepreneurs from the social periphery, however, were uneven: most were doctors and clergy without college degrees in small urban areas; magazines founded by industry insiders remained predominant in the industry centers. Our analysis demonstrates the importance of grounding studies of entrepreneurship in historical context. It also shows that entrepreneurship scholars must attend to temporal shifts within the focal industry and in society at large. </t>
+  </si>
+  <si>
+    <t>entrepreneurship, organizational founding, industry evolution, status</t>
+  </si>
+  <si>
+    <t>The creation and intentional pursuit of entrepreneurial ideas lies at the core of the domain of entrepreneurship. Recent empirical work in a number of diverse fields such as cognitive psychology, social cognition, neuroscience, and neurophysiology all suggest that dual processes involving affect and cognition have a significant impact on judgment and decision making. Existing cognitive models ignore this significant role. In this article we develop a framework for understanding the role of affect on idea perception and the intention to develop the entrepreneurial idea. We present a set of testable propositions that link affect to entrepreneurial idea perception through its influence on attention, memory, and creativity. A second set of propositions links affect to the intention to pursue these ideas further. We explore the boundary conditions and moderators of the proposed relationships, and discuss the implications of this framework for existing cognitive and psychological perspectives on entrepreneurship.</t>
+  </si>
+  <si>
+    <t>The Chicago School of Political Science, which emerged at the University of Chicago in the 1920s and 1930s, is widely known for its reconception of the study of politics as a scientific endeavor on the model of the natural sciences. Less attention has been devoted to the genesis of the school itself. In this article, we examine the scientific vision, faculty, curriculum, and supporting institutions of the Chicago School. The creation of the Chicago School, we find, required the construction of a faculty committed to its vision of the science of politics, the muster of resources to support efforts in research and education, and the formation of curriculum to educate students in its precepts and methods. Its success as an intellectual endeavor, we argue, depended not only on the articulation of the intellectual goals but also, crucially, on the confluence of disciplinary receptiveness, institutional opportunity, and entrepreneurial talent in support of a science of politics.</t>
+  </si>
+  <si>
+    <t>In this paper, we examine the dual role that social movement organizations can play in altering organizational landscapes by undermining existing organizations and creating opportunities for the growth of new types of organizations. Empirically, we investigate the impact of a variety of tactics employed by the Woman’s Christian Temperance Union (WCTU), the leading organizational representative of the American temperance movement, on two sets of organizations: breweries and soft drink producers. By delegitimating alcohol consumption, altering attitudes and beliefs about drinking, and promoting temperance legislation, the WCTU contributed to brewery failures. These social changes, in turn, created opportunities for entrepreneurs to found organizations producing new kinds of beverages by creating demand for alternative beverages, providing rationales for entrepreneurial action, and increasing the availability of necessary resources.</t>
+  </si>
+  <si>
+    <t>Emergent economies suffer from underdeveloped market infrastructures and insufficient public institutions to enforce contract commitments and property rights. Informal reputation-based arrangements may substitute for government enforcement, but they require close-knit networks that enable monitoring. Economic development also requires access to capital, information, and other resources, which is enabled by wide-reaching and diverse networks and not by closure. How is entrepreneurship possible given these conflicting demands? In this article, the authors examine how partnership networks and reputation channel the mobilization of capital for new enterprises, using quantitative information on 4,172 corporate partnerships during the industrialization of late imperial Russia (1869– 1913). They find that reputation is locally effective in small and homogeneous network components. By contrast, founders in the largest components that form the network core raise more capital from investors but benefit less from reputation and more from brokerage opportunities and ties that reach diverse communities.</t>
+  </si>
+  <si>
+    <t>Relationally embedded network ties influence the economic decisions of emerging firms and evolve over time. Evolutionary processes and paths of these ties are examined based on two research questions: How do components of social relationships facilitate the evolution of relational embeddedness? What are the different paths to relational embeddedness? Findings from qualitative case study methods suggest three evolutionary processes (network entry, social component leverage and trust facilitation), four evolutionary paths, and the conclusion that ties entering the network through personal relationship may evolve more quickly toward full embeddedness. Strategic implications for emerging firms are suggested regarding entrepreneurial opportunity recognition, resource acquisition and effective governance of relationally embedded ties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quasi-market condition of education intensified the need to seek ongoing school improvements, manage uncertainty, and innovate school-wide pedagogy and curricula. Sequentially, interest in teachers’ entrepreneurial behavior (TEB) has grown rapidly in recent years, which established the importance of entrepreneurial behavior as an effective response to the changing, uncertain, and increasing demanding context in the education system. However, the notion of TEB has not been clearly conceptualized or operationalized. This study attempted to offer a clear definition of TEB and identify its conceptual components. We first offered a semi-systematic literature review of entrepreneurial behavior, and then conducted a multiple-site case study at three schools in Hong Kong. We identified three competency components and three attribute components of TEB, from which we established a conceptual definition of TEB. This clarification of TEB and its components enabled the linkage to prior literature and future research. </t>
+  </si>
+  <si>
+    <t>Entrepreneurial behaviour, Teacher entrepreneurial behavior (TEB), Educational, Change</t>
+  </si>
+  <si>
+    <t>Entrepreneurial persistence occurs when the entrepreneur chooses to continue with an entrepreneurial opportunity regardless of counterinfluences or enticing alternatives. The decision to persist is influenced by personal characteristics and by feedback from the environment relative to thresholds. Using a conjoint experiment, we investigate how adversity and values influence the weight placed on the decision attributes for the persistence decisions of 100 entrepreneurs. The findings suggest that the persistence decision policies are heterogeneous depending on the level of adversity experienced and the individual values held by the entrepreneurs. The results provide interesting insights into why and how entrepreneurs choose to persist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper empirically investigates the sourcing and valuation of venture capital (VC) funding among entrepreneurs with varied levels of prior start-up founding experience, academic training, and social capital. Social ties with VCs have been identified as an important precursor to organizational resource attainment and performance, and so this study analyzes the correlates of heterogeneous social links with VCs. I also examine venture valuation, as it reflects enterprise quality and entrepreneurs’ cost of financial capital. Using data from a survey of 149 early stage technology-based start-up firms, I find several notable results. First, prior founding experience (especially financially successful experience) increases both the likelihood of VC funding via a direct tie and venture valuation. Second, founders’ ability to recruit executives via their own social network (as opposed to the VC’s network) is positively associated with venture valuation. Finally, in the emerging (at the time) Internet industry, founding teams with a doctoral degree holder are more likely to be funded via a direct VC tie and receive higher valuations, suggesting a signaling effect. The paper therefore underscores some important dimensions of heterogeneity among VC-backed entrepreneurs. </t>
+  </si>
+  <si>
+    <t>Entrepreneurial founding experience, Venture capital, Human capital, Social capital</t>
+  </si>
+  <si>
+    <t>A significant element of managerial post-COVID job design regards remote work. In an era of renewed recognition of diversity, employers may wonder how diverse (gender and race) and experienced job applicants respond to remote job listings, especially for high-skilled technical and managerial positions. Prior work has shown that while remote work allows employee flexibility, it may limit career promotion prospects, so the net effect of designating a job as remote-eligible is not clear from an applicant interest standpoint, particularly when recruiting females and underrepresented minorities (URM). We analyze job applicant data from a leading startup job platform that spans long windows before and after the COVID-19 pandemic-induced shutdowns of March 2020. To address the empirical challenge that remote job designation may be codetermined with unobserved job and employer characteristics, we leverage a matching approach (and an alternative method which leverages the sudden shutdowns) to estimate how applicant characteristics differ for otherwise similar remote and onsite job postings. We find that offering remote work attracts more experienced and diverse (especially URM) job applicants, with larger effects in less diverse geographic areas. A discrete change in job posting to remote status (holding all else constant) is associated with an approximately 15% increase in applicants who are female, 33% increase in applicants with URM status, and 17% increase in applicant experience. Using the application data, we estimate an average estimated compensating wage differential for remote work that is about 7% of posted salaries in this labor market.</t>
+  </si>
+  <si>
+    <t>remote work, startup technical labor markets, racial and gender diversity, COVID-19</t>
+  </si>
+  <si>
+    <t>Our knowledge of corporate entrepreneurship (CE) continues to expand. However, this knowledge remains quite fragmented and non-cumulative. Herein, we conceptualize CE strategy as a useful focal point for integrating and synthesizing key elements within CE’s intellectual domain. The components of our CE strategy model include (1) the antecedents of CE strategy (i.e., individual entrepreneurial cognitions of the organization’s members and external environmental conditions that invite entrepreneurial activity), (2) the elements of CE strategy (i.e., top management’s entrepreneurial strategic vision for the firm, organizational architectures that encourage entrepreneurial processes and behavior, and the generic forms of entrepreneurial process that are reflected in entrepreneurial behavior), and (3) the outcomes of CE strategy (i.e., organizational outcomes resulting from entrepreneurial actions, including the development of competitive capability and strategic repositioning). We discuss how our model contributes to the CE literature, distinguish our model from prior models, and identify challenges future CE research should address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theories of entrepreneurship have proposed that entrepreneurs are shaped by contextual influences. This paper examines the social transmission of entrepreneurial behavior across university peers. I propose that peers acquainted at a university increase the probability of an entrepreneurial entry by transmitting information about new opportunities and by reducing the uncertainty associated with entrepreneurship. Based on unique data on hedge fund foundings between 1979 and 2006, this study documents that past entrepreneurial behaviors of university peers are an important driver of individual rates of entrepreneurship. Additional analyses show that social influence has a stronger effect on the transition to entrepreneurship when exerted by spatially proximate university peers and university peers who share gender with the focal individual. These findings provide evidence that the effect of university peers arises as a result of social influence rather than the institutional impact of universities. Together, the results uncover novel pathways of social transmission of entrepreneurship and strengthen evidence for the role of contextual influences in shaping entrepreneurial entry. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship, economic sociology, economics and organization, diffusion of innovation, technology and innovation management</t>
+  </si>
+  <si>
+    <t>This paper examines the relationship between price-fixing cartels and firm innovation using a data set encompassing all 461 cartel cases and 1,818 firms identified in the United States in the years 1975–2016. A difference-in-differences estimation reveals a positive relationship between collusion and innovation. Colluding firms exhibited increases of 28% in patent filings, 20% in top-quality patents, and 16% in research and development investment. Innovation breadth also expanded by 16%, suggesting that firms explored new technological areas. Once cartels were dissolved, innovation activities reverted to pre-collusion levels. The effect varied across industries and was more pronounced in fast-growing and patent-intensive industries, underscoring the importance of technological opportunities. Further, the umbrella pricing effect that also benefits noncolluding competitors offers a unique opportunity to unpack mechanisms. Results reveal that the extra financial resources account for at least a quarter of the effect with stronger cartels exhibiting more pronounced effects. Specifically, firms that relied more on internal financing before collusion and that generated higher revenues during collusion showed a greater effect; no evidence was found of capital reallocation within firms. As much as the remaining three quarters of the effect can be attributed to managerial expectations of future profitability. These findings offer insights for managers and policymakers aiming to foster novel innovation although careful interpretation is required given the heterogeneous effects.</t>
+  </si>
+  <si>
+    <t>antitrust, collusion, competition, technological innovation, R&amp;D investment</t>
+  </si>
+  <si>
+    <t>Departing from traditional theory on digitalization, we argue that smaller enterprises in resource-constrained environments may take a different route to digitalization that is less strategic and more emergent, less engineered and more oriented to the situation at hand, and less driven by sophisticated technology and more likely to embody frugality. We ask, “How do microenterprises ‘make do’ their digitalization in resource-constrained environments?”, addressing the question through a large-scale qualitative study in Ghana. The study comprises 69 interviews across microenterprises, government actors, and technology firms. Building on and complementing existing research on bricolage and digital value creation, our findings motivate a new theory of digital bricolage as distinct from entrepreneurial and IT bricolage. We identify three digitalization pathways: parallel bricolage, selective bricolage, and digital planning. Together, these capture a spectrum from an emergent, resource-constrained (parallel and selective digital bricolage) approach to a more strategic, planned (digital planning) approach to digitalization. Our findings challenge the assumption that digital resources inherently enable limitless recombination and boundless value creation. They show that digitalization through digital bricolage can have both enabling and limiting impacts. Whereas digital bricolage fosters microenterprises’ short-term innovation, survival, and adaptations to resource constraints, overreliance on this digitalization path can paradoxically constrain long-term value creation because of limited functionality, integration issues, and reliance on the bricoleur’s personal capabilities. This leads to a digital bricolage trap, where accumulated compromises lock enterprises into fragmented, low-capability digital states. We offer an alternative perspective to traditional digitalization theory, which assumes access to mature digital infrastructures, advanced technologies, and straightforward value generation. Our findings better account for the digitalization of smaller enterprises as a process of customizing affordable digital tools in ways that reflect local creativity and constraints.</t>
+  </si>
+  <si>
+    <t>bricolage, digital bricolage, digitalization, digital transformation, Ghana, ICT for development, microenterprises, qualitative</t>
+  </si>
+  <si>
+    <t>We report the results of a survey of key thought leaders within the entrepreneurship field centered on the relationship between franchising and entrepreneurship. Specifically, we asked members of the Entrepreneurship Theory and Practice editorial board whether they consider franchisors to be entrepreneurs, whether they consider franchisees to be entrepreneurs, whether they consider research on franchising to be entrepreneurship research, and how they view the quality of franchising research compared with the quality of entrepreneurship research in general. Their collective responses offer important implications for franchising research. One implication is that franchising research needs to become more theoretically robust. A second is that the concepts of opportunity recognition, risk, organizational size, stage of organizational development, and organizational autonomy need to be taken into account when studying franchising.</t>
+  </si>
+  <si>
+    <t>Employing grounded theory based on comparative case studies of informal microfinanced businesses in East Africa, we build a theoretical foundation for studying the establishment and evolution of family firms in emerging markets. We show that East African entrepreneurs not only use both strong family and strong community ties to establish and grow businesses, but they also use strong community ties to counterbalance the obligations that strong extended family ties create. In addition, we show that economic informality presents opportunities for some entrepreneurial businesses but not others to cycle rapidly from opportunity to opportunity as they maneuver toward higher value-creating ventures.</t>
+  </si>
+  <si>
+    <t>In this paper, we draw from the theory of social and emotional aging to examine the mechanisms of age-related emotional exhaustion among entrepreneurs. Based on longitudinal data from a sample of 840 entrepreneurs in four European countries, our study shows that, with increasing biological age, entrepreneurs experience less emotional exhaustion due to their enhanced psychological capital and because they apply less entrepreneurial strategies which focus on the creation of new market opportunities and the development of new products and services. In addition, we highlight the still under-explored role of entrepreneurs' felt age gap by demonstrating that, among the same age-group, individuals who feel younger than their biological age gain well-being benefits because they possess higher levels of psychological capital and become less exhausted from the application of entrepreneurial strategies. In conclusion, our study offers two significant contributions to the literature on entrepreneurial well-being. First, we introduce the concept of the ‘Hebe Effect in entrepreneurship’, named after the Greek goddess of youth, which demonstrates how feeling younger than one's biological age acts as a buffer against stress and protects entrepreneurs from the strains of entrepreneurship. Second, we deepen understandings of how entrepreneurs' strategic choices evolve over their lifespan and influence their personal well-being. These insights also carry practical implications for aging societies that promote entrepreneurship across individuals' lifespans. &lt;br/&gt;
+Executive summary: This study addresses a critical gap in the entrepreneurship literature on aging and well-being by examining how age influences emotional exhaustion among entrepreneurs. Despite significant research conducted on aging and entrepreneurship, studies have yet to explore the interplay between biological age, subjective age, and emotional exhaustion. Furthermore, the manner in which entrepreneurs subject themselves to, and protect themselves from, emotional exhaustion across their lifespans remains severely underexplored. This lacuna is particularly striking given global trends of increased life expectancy, the burgeoning number of older individuals engaging in entrepreneurship, and the risks posed by emotional exhaustion to entrepreneurial efforts and individuals' lives, as well as the societal costs related thereto.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Emotional exhaustion, Well-being, Aging, Age, Subjective age, Strategy, Psychological capital</t>
+  </si>
+  <si>
+    <t>This research revealed the significant role of two distinct cognitive styles as a determinant of perceived entrepreneurial self-efficacy regarding the different stages of the new venture process. The study found that individuals’ cognitive preference for analysis or intuition influences their perception and assessment of their entrepreneurial self-efficacy in their intentions to create a new venture. Individuals with the intuitive cognitive style were more confident in their ability to identify and recognize opportunities, without much confidence in their capacity of assessment, evaluation, planning, and marshalling of resources. Conversely, individuals with the analytic cognitive style were more confident in their abilities to assess, evaluate, plan, and marshal resources, but felt less confident in their abilities to search for and recognize new opportunities.</t>
+  </si>
+  <si>
+    <t>The increased pressure put on public research institutes to commercialize their research results has given rise to an increased academic interest in technology transfer. We assess under which conditions tacit knowledge transfer contributes to the performance of academic spin-offs. Using an inductive case study approach, our evidence suggests that tacit knowledge is most effectively transferred when a substantial part of the original research team joins the new venture as founders. Commercial expertise and mindset are also required in the team on the condition that the cognitive distance between the scientific researchers and the person responsible for commercialization is not too large.</t>
+  </si>
+  <si>
+    <t>While entrepreneurial creativity is a desired behavior in most firms, it is difficult to understand both how this complex phenomenon occurs and how to increase its rate of occurrence. Understanding and increasing managerial creativity is important not only in developed economies, but also in developing economies, where the research discussed herein was conducted. This article argues that a solid knowledge base, a well-developed social network, and a strong focus on identifying opportunities are all necessary inputs toward entrepreneurial behavior. High-technology entrepreneurs that we interviewed in Hong Kong, however, indicated that creativity also plays a critical and important role in the entrepreneurial process. Attesting to this, they credited the competence with their being able to make the associations and bisociations needed to develop new products, which led to their entrepreneurial success.</t>
+  </si>
+  <si>
+    <t>Creativity, Entrepreneurial behavior, Alertness to opportunities, Bisociative thinking</t>
+  </si>
+  <si>
+    <t>The mathematics of “computable economics” proves that entrepreneurship policy is unlikely to succeed if it presumes policy makers can replace the unplanned results of the entrepreneurial market process with ex ante judgments about which enterprises are best. It is mathematically impossible for policy makers or their assignees to make the required computations of opportunity costs. Some business professors dream of finding a grand algorithm that will allow them to guide entrepreneurial decisions and to judge in advance which decisions are good and which bad. The logic of computable economics, however, reveals this dream to be a form of magical thinking.</t>
+  </si>
+  <si>
+    <t>Do individuals who are concerned by issues of sustainability also exhibit stronger entrepreneurial intentions? Given that existing imperfections in the market create numerous opportunities for entrepreneurship connected with sustainable development, adding individual sustainability orientation to models of entrepreneurial intention could increase their explanatory power. Based on survey data collected from engineering and business students and alumni of three universities, we provide evidence that entering sustainability orientation into the equation is actually meaningful. However, our findings suggest that the positive impact of sustainability orientation vanishes with business experience. Consequently, we suggest measures to nourish an evidently existing potential for sustainable entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Sustainable entrepreneurship, Sustainability orientation, Entrepreneurial intention</t>
+  </si>
+  <si>
+    <t>We study the impact of firm-specific business disruptions on the performance of small emerging market firms and test the effectiveness of building in redundancies to buffer against disruptions. Managerial disruptions result in the absence of the entrepreneur-owner, whereas operational disruptions lead to a shortage of critical resources, for example, inventory or electricity. We propose the use of relational redundancy—that is, the availability of a trusted and capable person with whom the entrepreneur-owner has an existing relationship, who can manage the business in his or her absence—to recover from managerial disruptions. We also examine whether resource redundancy—for example, maintaining safety stock or electricity backup—helps recover from operational disruptions. In the absence of publicly available data, we hand-built a panel data set by interviewing 646 randomly selected small firms over four time periods in Kampala, Uganda. We find that disruptions are highly prevalent and have a statistically and economically significant effect on firm performance. When a firm faces multiple exogenous and severe disruptions in a six-month period, its monthly sales decrease by 13.8% (p = 0.013), and its sales growth decreases by 18.8 percentage points (p = 0.070). Importantly, we find that both managerial and resource redundancies can help firms build resilience against the negative impact of disruptions. In some cases, firms with high levels of redundancy are able to completely overcome the negative effect of disruptions on sales and sales growth. We discuss implications for entrepreneurs, policymakers, and large multinationals that buy from or sell to small emerging market firms.</t>
+  </si>
+  <si>
+    <t>business disruptions, redundancy strategies, small firms, firm resilience, emerging markets, natural experiments</t>
+  </si>
+  <si>
+    <t>The paper reports on a recent study, which uses various indicators to provide an insight on the performance of spin-off companies from the public sector research base in Oxfordshire (UK). The study builds upon the other studies and fills a gap in the field by gathering empirical information on the performance of technology-based spin-off companies. While the main geographical focus is the county of Oxfordshire, UK, the findings will also be of value for other researchers and institutions with an interest in assessing the performance of spin-off firms. The evidence shows that the number of spin-offs in Oxfordshire has increased rapidly over recent years, as the result of evolving national policy and the entrepreneurial culture of the universities and laboratories. However, the academics and scientists in Oxfordshire’s institutions were already entrepreneurial in the 1950s, less so in the 1960s, but increasingly in the 1970s and 1980s, particularly in Oxford University, which is by far the largest generator of spin-offs in the region.</t>
+  </si>
+  <si>
+    <t>Academic spin-offs, Performance, Oxfordshire</t>
+  </si>
+  <si>
+    <t>Why do small-business groups in developed countries exist? Research has shown the strong economic impact of business groups throughout the world but remains heavily focused on large-business groups and on emerging economies. Theoretical approaches to explain the existence of highly diversified business groups range from market power to the resource-based view and include market failure, transaction costs, agency theory, and cultural embeddedness. These approaches, however, are not very appropriate to explain the existence of small to medium-size firms in developed countries. What we know is that these smaller groups exist and that they are largely the outcome of related diversification. &lt;br/&gt;
+We investigate relatively small and young-business groups organized in a holding structure. What are the perceived benefits of this kind of group for entrepreneurs and how can we explain the phenomenon theoretically? &lt;br/&gt;
+Based on case study research, we argue that the small-business group is both the outcome and the antecedent of growth. It enables, and helps to realize and manage the growth of entrepreneurial firms. The enabling function consists in increasing reputation, attracting complementary resources that facilitate the exploitation of new opportunities, overcoming overembeddedness, and dealing with coopetition (concurrent cooperative and competitive relationships with another company). The group is also the outcome of realized internationalization and related diversification. Interestingly, for the emergence of the small-business group, just as important as diversification is the integration of activities as well as the separation of closely linked activities. Finally, the small-business group corresponds to an entrepreneurial management style. The main contribution of this article is to link organizational structure to the management and growth of entrepreneurial firms.</t>
+  </si>
+  <si>
+    <t>Examining parallels in the long-term evolution of the German and US university systems, this paper formulates hypotheses about the rise and decline of university entrepreneurialism at the national level. Three macro-level antecedents of university entrepreneurialism are identified: (1) decentralized competition; (2) latitude in mission and revenue mix; (3) a nationwide, diversified bidding system for the funding of large-scale university-based research. Of these, the third is real lynchpin of university entrepreneurialism. Arguing for a multidimensional understanding of such entrepreneurialism (i.e. beyond just the commercialization of scientific discoveries), the paper identifies three developments within universities emanating from a favorable national environment: (1) organizational innovations for achieving economies of scope; (2) an institutionalized capacity for strategic selection of research foci; and (3) a capacity to contribute to the development of new industries. The analysis suggests that as national university systems grow and run into cost containment problems, political pressures for reform increase, leading to system homogenization; system homogenization weakens the contextual sources of entrepreneurialism and triggers a process of decline.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial university, German university system, US university system, National systems of innovation, R&amp;D reform</t>
+  </si>
+  <si>
+    <t>Depending on the type of industry, an entrepreneur’s decision of when to enter an industry may be a crucial one. The longer entrepreneurs wait, the more they learn from others. However, by waiting, they reduce their ability to learn directly and the possibility of locking in competitive advantages. We suggest that the optimal time of entry depends on the hostility of the learning environment since the latter has an impact on dimensions of performance, such as profit potential and mortality risk. The environment for entrepreneurial learning is less hostile when the information to be learned is abundant and when learning from others is relatively more effective at increasing performance than learning from participation. Our results suggest that delaying entry is desirable when the environment is less hostile. Entrepreneurs, however, cannot wait forever. We show that, under some general conditions, an optimal time of entry can be determined, and discuss the specific situations in which, instead, multiple equilibria may arise</t>
+  </si>
+  <si>
+    <t>New venture teams (NVT) often comprise idea-conceiving founders and equity-based investors. These subgroups represent a faultline whose magnitude influences the quality of business opportunities. We propose that the faultline strength formed between founders and investors is influenced by structural factors (ownership equity, membership change, preexisting tie strength) and cognitive factor (mental models of the venture). Finally, we address how the faultline strength impacts interaction processes (relationship conflict, task conflict, knowledge exchange) and their subsequent impact on the quality of entrepreneurial opportunities. Our theoretical model provides insight into how informational resources inherent in new venture teams can be more effectively leveraged.</t>
+  </si>
+  <si>
+    <t>This article uses Ajzen’s theory of planned behavior to build an entrepreneurial intention questionnaire (EIQ) and analyzes its psychometric properties. The entrepreneurial intention model is then tested on a 519-individual sample from two rather diverse countries: Spain and Taiwan. EIQ and structural equation techniques have been used to try to overcome previous research limitations. The role of culture in explaining motivational perceptions has been specifically considered. Results indicate EIQ properties are satisfactory and strong support for the model is found. Relevant insights are derived about how cultural values modify the way individuals in each society perceive entrepreneurship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the pandemic, education will not go back to a 100% offline mode since the application of e-learning technologies (ELTs) cannot be avoided. Therefore, their impact should be studied for future education development. Most future entrepreneurs are attending school today. Therefore, universities need to supply necessary education to encourage students to cope with future conditions and development. At the same time, due to the increasing attention being paid to the harmony between ecology and prosperity, the sustainability aspect of entrepreneurship education needs to be emphasized as well. This study investigates the impact of ELTs on entrepreneurial education performance (including personal skills, product skills, and business skills), sustainability efficacy, and their impact on sustainability awareness. Data were collected from a master’s degree class on entrepreneurship at a Hong Kong university and SmartPLS was used to analyze the data. It was found that ELTs have a significant relationship with entrepreneurial performance and sustainability efficacy. Meanwhile, sustainability efficacy also has a significant relationship with sustainability awareness. However, no significant relationship between entrepreneurial skills and sustainability awareness was identified. The results indicate that ELTs can improve students’ entrepreneurial skills and sustainability awareness, which proves the effectiveness of ELTs and provides support for their application in future entrepreneurship education. </t>
+  </si>
+  <si>
+    <t>e-learning technologies (ELTs), entrepreneurship education, sustainable efficacy, sustainability awareness</t>
+  </si>
+  <si>
+    <t>Since the handover of the sovereignty of Hong Kong from Britain to China in 1997, convergence between Mainland China and Hong Kong has gradually emerged. During this process, young people have engaged in demonstrations to express their dissatisfaction with government policies and limited socio-economic progression. However, the underlying reasons for their dissatisfaction have not been fully investigated. This study investigates their perceived challenges and opportunities during the convergence, with the objective of identifying the factors affecting the Mainland China–Hong Kong convergence and examining young people’s perceived challenges and opportunities during the convergence. Mixed research methods of focus groups and a survey were adopted. Ten focus groups with 83 participants were conducted to collect qualitative data on the factors relating to convergence. Based on the qualitative data, a questionnaire was constructed to investigate young people’s perceived challenges and opportunities during the convergence, using a sample of 1253 young people. Ordinary least-squares regression was applied to analyse the relationships among identified factors. The study found that Hong Kong’s youth tended to regard the Mainland China–Hong Kong convergence as an opportunity for socio-economic progression, and they identified three challenges during the convergence. It also revealed that young people’s higher education, perceived housing challenges, and perceived socio-economic challenges are negatively related to the convergence, whereas their perceived challenges associated with entrepreneurship and innovation are positively related to the convergence. The development of more well-balanced and mutually beneficial policies that satisfy the needs of young people will lead to a higher acceptance of the convergence. As such, young people will be more willing to embrace the opportunities and face the challenges brought about by the convergence, resulting in a more harmonious society and socio-economic progression.</t>
+  </si>
+  <si>
+    <t>Lo, T.W., Chan, G.H., Lee+D165+B164+D165+B164+D165+B164</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recent theoretical and empirical research on cognitive bias in decision making suggests that overoptimism critically influences entrepreneurs' decisions to establish and sustain new ventures. We investigate whether such cognitive bias influences entrepreneurial venture performance using data on commercialization efforts for university inventions. In contrast to prior studies, our results suggest that entrepreneurial overoptinusm does not appear to be the determining factor in the decision to found a firm. We do find that entrepreneurs continue unsuccessful development efforts for longer periods of time than do established firms, which is consistent with entrepreneurial overoptimism in the development of technologies with uncertain market prospects. This latter finding is also consistent with rationality-based models of decision-making behavior, however. We find that the economic returns associated with many of the technologies in our sample are realized after the start-up has been acquired by an established firm, suggesting that start-ups may serve as a transitional organizational form in the market for technology commercialization. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship, university technology transfer, cognitive bias</t>
+  </si>
+  <si>
+    <t>Firms engage in entrepreneurship to increase performance through both strategic renewal and the creation of new venture opportunities. Organizational learning (OL) has become an effective avenue for strategic renewal. But what of creating venture opportunities—can OL enhance the process of recognizing and pursuing new ventures? This article argues that OL can strengthen a firm’s ability to recognize opportunities and help equip them to effectively pursue new ventures. First, we identify three approaches to OL—behavioral, cognitive, and action. Then, we introduce a creativity-based model of opportunity recognition (OpR) that includes two phases—discovery and formation. Next, we show how each of the three types of learning is linked to the two phases of OpR. We suggest propositions that support our claim that OL enhances OpR and offer examples of firms that have used these organizational-learning approaches to more effectively recognize and pursue venture opportunities. These insights have important implications for entrepreneurial firms seeking to advance the venture-creation process.</t>
+  </si>
+  <si>
+    <t>What types of knowledge and experience enable those who have the desire to start a venture find an appropriate opportunity? To respond to this question, a human capital perspective is used with a sample of 166 founders of new technology ventures in university incubators. General human capital is assessed using experience depth and formal education. Specific human capital is measured using prior start-up experience as well as Shane’s knowledge framework of markets, customer problems, and ways to serve markets. Findings reveal key aspects of human capital vital to explaining search-based discovery. Implications for research and entrepreneurship education are drawn.</t>
+  </si>
+  <si>
+    <t>Based on comparative longitudinal case analyses of six new biotechnology firms, this paper explores how the configuration, management, and evolution of entrepreneurial firms' social capital affect firm performance. Findings suggest that firms can realize performance benefits when their members repeatedly adapt the configuration of their social capital to changing resource needs, while inertia turns a firm's social capital into a liability. Our research provides a dynamic view of the conditions and processes that produce such inertia, allow firms to over come it, and develop a firm's social capital to organizational advantage. A core theoretical contribution of our study is to identify and theorize how the internal organization of firms' management of relationships with external partners, through horizontal and vertical differentiation and integration, affects the dynamic of firms' social capital, adaptive capacity, and performance.</t>
+  </si>
+  <si>
+    <t>This paper analyzes the theory of “entrepreneurial incentives” in the work of Israel Kirzner. It argues that there is a logical problem with the notion of profit opportunities as exogenous causal agents: Without additional assumptions, the existence of opportunities alone does not sufficiently explain the alertness of entrepreneurs. The paper considers both stronger and weaker versions of this problem. It also questions the relation between entrepreneurial incentives and the tendency toward entrepreneurial success. Finally, it provides some commentary on the relevance of entrepreneurial incentives for an overall theory of the entrepreneur, and identifies several potential solutions to the problems discussed.</t>
+  </si>
+  <si>
+    <t>The purpose of this special issue on international entrepreneurship (IE) is to explore concepts, phenomena, and theories with high potential to advance the field. Rather than identify concepts from the extant IE literature, we took the more novel approach of challenging leading researchers to write about IE-relevant issues through the perceptual lenses of their own, or other scholarly domains. Through this process of cross-fertilization, our intention was to generate new topics and fresh insights, alternative arguments, and constructs. The issue’s seven articles enrich concepts and theories for IE; advance complementary, or competing arguments that underpin IE thinking; and open the IE dialogue to issues of current global significance.</t>
+  </si>
+  <si>
+    <t>A growing number of studies on entrepreneurial motivation, intentions, and behavior include entrepreneurial self-efficacy (ESE) as an explanatory variable. While there is broad consensus among researchers on the importance of including ESE in an intentionality model, there remain inconsistencies in the definition, dimensionality, and measurement of ESE. This study takes an important step toward refinement and standardization of ESE measurement. Within a new venture creation process framework, a multi-dimensional ESE instrument is developed and tested on a diverse sample that includes nascent entrepreneurs. Implications for entrepreneurship theory and entrepreneurship education are discussed.</t>
+  </si>
+  <si>
+    <t>Using institutional theory, the Heritage Foundation/Wall Street Journal 2003 Index of Economic Freedom, and the 2002 Global Entrepreneurship Monitor, we regress opportunitymotivated entrepreneurial activity (OME) and necessity-motivated entrepreneurial activity (NME) on 10 factors of economic freedom and gross domestic product (GDP) per capita for 37 nations. We find that both OME and NME are negatively associated with GDP per capita and positively associated with labor freedom, but that various other factors of economic freedom are uniquely related to either OME or NME. Specifically, we find that OME, but not NME, is positively associated with property rights, while NME, but not OME, is positively associated with fiscal freedom and monetary freedom. Thus, governmental restrictions of economic freedom appear to impact entrepreneurial activity differently depending on the particular freedom restricted by government and the entrepreneur’s motive for engaging in entrepreneurial action.</t>
+  </si>
+  <si>
+    <t>Agency theory has focused on buyouts as a governance and control device to increase profitability, organizational efficiency, and limited attention to growth. A strategic entrepreneurship view of buyouts incorporates upside incentives for value creation associated with growth as well as efficiency gains. In this paper, we develop the complementarity between agency theory and strategic entrepreneurship perspectives to examine the performance implications for different types of buyouts. Further, we study how the involvement of private equity (PE) firms is related to the performance of the post-buyout firm. These issues are examined for a sample of 238 PE-backed buyouts in the UK between 1993 and 2003. Implications for theory and practice are suggested.</t>
+  </si>
+  <si>
+    <t>Human capital obtained through education has been shown to be one of the strongest drivers of entrepreneurship performance. The entrepreneur's human capital, though, is only one of the input factors into the production process of her venture. In this paper we will analyze to what extent the education levels of other (potential) stakeholders affect the entrepreneur's performance. The education level of consumers may shape the demand function for an entrepreneur's output, whereas the education level of employees may affect the entrepreneur's productivity and thereby shape her supply function. Based on this, we hypothesize that the performance of an entrepreneur is not only affected positively by her own education level but also by the education level of the population. We find empirical support for this hypothesis using an eight year (1994–2001) panel of labor market participants in the EU-15 countries. An implication of our finding is that entrepreneurship and higher education policies should be considered in tandem with each other.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Performance, (Tertiary) education</t>
+  </si>
+  <si>
+    <t>Based on notions from the identity theory, this study argues that in public firms in which ownership is concentrated, owner-chief executive officer (CEO) identities will influence entrepreneurial orientation (EO), and EO will relate to superior performance. Specifically, lone founder owners and CEOs will embrace entrepreneurial identities: their firms will exhibit high levels of EO and outperform. Post-founder family owners and CEOs, given their ties to family in the organization, will assume identities as family nurturers, thereby limiting EO and performance. Family firm founders will exhibit blended identities and demonstrate intermediate levels of EO and performance. This analysis of Fortune 1000 firms finds support for these arguments.</t>
+  </si>
+  <si>
+    <t>University-based technological opportunities are often exploited through joint corporate and academic entrepreneurship activities such as university-industry research collaborations. This paper explores the partner attributes that drive the matching of academic scientists and firms involved in these relationships. The paper models the formation of firm-faculty partnership as an endogenous selection process driven by synergy between partners' knowledge-creation capabilities. The main findings indicate that faculty-firm matching is multidimensional: firms and scientists complement each other in publishing capabilities but substitute each other in patenting skills. Furthermore, firms and scientists with specialized knowledge create more value by teaming with more knowledge-diversified partners. The paper contributes to the literature on university-industry knowledge transfer and, more generally, to the literature on alliance formation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matching, complementarity, endogeneity, value creation, university-industry alliances </t>
+  </si>
+  <si>
+    <t>In this article, we take note of advances in the entrepreneurial cognition research stream. In doing so, we bring increasing attention to the usefulness of entrepreneurial cognition research. First, we offer and develop a central research question to further enable entrepreneurial cognition inquiry. Second, we present the conceptual background and some representative approaches to entrepreneurial cognition research that form the context for this question. Third, we introduce the articles in this Special Issue as framed by the central question and approaches to entrepreneurial cognition research, and suggest how they further contribute to this developing stream. Finally, we offer our views concerning the challenges and opportunities that await the next generation of entrepreneurial cognition scholarship. We therefore invite (and seek to enable) the growing community of entrepreneurship researchers from across multiple disciplines to further develop the “thinking– doing” link in entrepreneurship research. It is our goal to offer colleagues an effective research staging point from which they may embark upon many additional research expeditions and investigations involving entrepreneurial cognition.</t>
+  </si>
+  <si>
+    <t>Realizing the growing importance of universities in Knowledge Transfer and innovation-centric entrepreneurship, the Government of the Hong Kong Special Administrative Region (HKSAR) actively encourages government-funded universities in Hong Kong to work with the market and industry, as well as wider society to stimulate innovation and entrepreneurship. This article aims to examine the changing university governance in Hong Kong particularly when universities go beyond the academia to work with industries and businesses to promote innovation-centric entrepreneurialism. It begins with a conceptual framework for analyzing multiple sectoral collaborations for entrepreneurship with a focus on the role of universities. It will discuss how the HKSAR copes with the main challenges of university governance by adopting policies and measures to creating a hybridized ecosystem so as to embrace cross-sectoral collaborations. The article concludes by critical reflections on changing university governance in Hong Kong when responding to the quest for entrepreneurial universities.</t>
+  </si>
+  <si>
+    <t>Higher education, collaborative governance, quality education, entrepreneurship</t>
+  </si>
+  <si>
+    <t>How do managers and staff react to strategic entrepreneurship? How can we minimize resulting job stress and maximize employee retention? We surveyed 1,975 managers and staff in 110 departments of a diversified healthcare organization on department-level entrepreneurial orientation (EO) (e.g., risk taking, proactiveness, and innovativeness), degree of role ambiguity in their job, and their strength of intention to quit. After validating manager and staff reports of EO, we estimated structural equation models for managers and staff. Our results demonstrate that strategic entrepreneurship can impact management and staff differently and thus requires a correspondingly customized design philosophy.</t>
+  </si>
+  <si>
+    <t>To strengthen the theoretical foundations of incentive system design for corporate entrepreneurship, we develop a moderated model of new venture participation, integrating financial, risk, and effort factors to more comprehensively understand the limits of economic utility maximization theory. We make explicit the trade-offs and opportunity costs for corporate employee-entrepreneurs. We use a conjoint field experiment to collect data on 1952 decisions made by 61 corporate employees to test how risk and effort moderate an employee’s decision to participate in a new corporate venture. We find that these factors do interact to affect the choice to engage in corporate entrepreneurship projects.</t>
+  </si>
+  <si>
+    <t>The literature existing on entrepreneurship implicitly assumes that entrepreneurial orientation (EO) and growth orientation are positively related with each other. However, few studies, whether theoretical or empirical, analyze such relation in an explicit manner. Instead, most previous works have focused on the EO-performance relation, even though growth and profitability do not always correlate positively. This work has been carried out on a sample of 434 SMEs, and contributes two novelties with regard to previous research: (1) the analysis focuses on the EO-growth relation; and (2) it uses a flexible method (Partial Least Squares) which allows the study of several simultaneous relationships. The results reveal the complexity of the relationships between EO, strategy, environment, resources and growth.</t>
+  </si>
+  <si>
+    <t>Building on affective events theory (AET), an experiential perspective for conceptualizing entrepreneurship is introduced. As a “lived experience,” entrepreneurship represents a cumulative series of interdependent events that takes on properties rooted in affect and emotion. Unique characteristics of entrepreneurial experiences are examined. The entrepreneur is presented as actor in an unscripted temporal performance who continually encounters novelty. A model and set of propositions are presented linking pre-venture experience, key events, experiential processing, learning, affective outcomes, and decision making. It is argued that the entrepreneur and venture emerge as a function of ongoing experience, with the venture creating the entrepreneur as the entrepreneur creates the venture.</t>
+  </si>
+  <si>
+    <t>This article develops theory relating to how differences in the human capital of academic entrepreneurs influence their ability to develop social capital that can address the barriers to venture development. We examine the development of social capital by three types of academic entrepreneurs with differing levels of entrepreneurship experience: nascent, novice, and habitual entrepreneurs. Using a longitudinal study, critical differences are observed between the structure, content, and governance of their social networks. We propose that entrepreneurs with prior business ownership experience have broader social networks and are more effective in developing network ties. Less experienced entrepreneurs likely encounter structural holes between their scientific research networks and industry networks. Support initiatives help attract industry partners for novice entrepreneurs from engineering and the material sciences but academics based within biological sciences encounter greater difficulties building such ties. Regardless of academic discipline, business ownership experience appears essential to learn to build relationships with experienced managers and potential equity investors.</t>
+  </si>
+  <si>
+    <t>Parental self-employment has been shown to have a positive influence on offspring’s subsequent choice of self-employment as a career. Previous studies have, however, not considered its dependence on parental performance in self-employment and at what stage of the offspring’s development (late childhood, adolescence, or young adulthood) this influence is highest. This article uses social learning and career development theories to argue that first, parental influence may not exist in case of parents’ economic failure in self-employment, and second, that when it does occur, it is more pronounced when the offspring is a young adult. Using the United States Panel Study of Income Dynamics data set, we find empirical support for our hypotheses.</t>
+  </si>
+  <si>
+    <t>Theories about entrepreneurial discovery are important to entrepreneurship. However, the dominant conceptual foundation underlying such theories hinders their development. It assumes that opportunities form based on either deliberate search or serendipitous discovery. I examine this unidimensional logic and identify a gap in its informative content. Then, I reframe it into orthogonal dimensions. The multidimensional model not only describes the same cases as the unidimensional model but also describes what the unidimensional model cannot, including cases that are high or low on both dimensions. This extension yields a 2 x 2 conceptual foundation for entrepreneurial discovery theory that promotes the development and coordination of distinct theoretic streams.</t>
+  </si>
+  <si>
+    <t>In this study we draw on the social network and international entrepreneurship literatures to examine the role of structural and relational embeddedness of international networks in firm internationalization. Based on a sample of 169 small- and medium-sized enterprises in the Czech Republic, we found that firms with chief executive officers who had developed strong and diverse international networks exhibited greater knowledge of foreign markets prior to internationalization. However, contrary to our expectations, no relationship was found between network density and such knowledge. In addition, our findings indicate that foreign market knowledge prior to the first international venture had a positive impact on venture performance.</t>
+  </si>
+  <si>
+    <t>We explore the relationship between government-supported science and its translation into inventive activities, focusing on the European Research Council (ERC), the principal funding mechanism for top-quality research in Europe. We show that, compared to similar European research, ERC science accrues a greater number of patent citations. Moreover, patents that draw upon ERC research are of superior quality, measured by forward citations. Compared to similar European research, inventive activities arising from ERC science are more likely to be housed within universities and public research organizations. In absolute terms, however, US organizations, especially US companies, still lead in deriving the greatest benefits from ERC science. The significant disparity in corporate sector patenting linked to ERC science in the US and EU is fueled by inventions undertaken by startups, highlighting the crucial role of a dynamic startup landscape in driving inventions at the frontier of science. Overall, our findings suggest that ERC science continues to face challenges associated with the so-called European Paradox.</t>
+  </si>
+  <si>
+    <t>Science, Inventions, ERC, European Paradox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation ecosystems have emerged as an important context for entrepreneurship. Ecosystem entrepreneurs, however, face a unique set of challenges associated with the need to balance the goals and priorities set by the ecosystem leader with the goals and priorities of the new venture. We focus on ecosystem entrepreneurs’ self-regulatory processes and the potential role of these processes in entrepreneurs’ efforts to successfully balance requirements set by the ecosystem leader with the goals of their own ventures.
+</t>
+  </si>
+  <si>
+    <t>We theorize how new market categories emerge and are legitimated through a confluence of factors internal to the category (entrepreneurial ventures) and external to the category (interested audiences). Using qualitative and quantitative analyses and multiple data sources overtime, we study the evolution of the U.S. satellite radio market over its initial sixteen years. We offer convergent evidence to show that the legitimation of a new market category precipitates shifts in the focus of market actors' attention from the category as a whole to the differentiation of firms within. This effect was demonstrated for entrepreneurial identity claims, linguistic frames, and announcements of interorganizational affiliations and endorsements, as well as in the focal attention of media and financial audiences. We synthesize these findings to offer an integrated theoretical framework on new market category emergence and legitimation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholars widely acknowledge that university research is critical to innovation and entrepreneurship. Much of the literature on university research, however, evokes a linear model from “science to products” and focuses, therefore, upon a limited set of indicators such as patents and licenses. Such a perspective runs the danger of missing the myriad ways in which science and commerce are intertwined and the myriad ways in which these activities might be assessed. In this paper, I address the question of how different measures reflect different perspectives and biases by investigating the production and diffusion of research associated with one of Stanford University’s most prolific interdisciplinary centers, the Center for Computer Research in Music and Acoustics (CCRMA). I draw upon a unique data set that captures activities and engagement surrounding CCRMA for its 30-year history through a wide variety of measures, ranging from publication citations to industrial affiliates to personnel mobility. Employing the analytic categories of “description” and “enactment,” and distinguishing between “indicators” and “pathways,” I show how different measures reflect different activities and learning processes, and how they dramatically alter perceptions of active individuals, organizational reach, and timing and sequencing of activities. Building on these findings, I present a more complete model of university research production and diffusion, I discuss how alternative measures challenge certain assumptions in the literature, and I suggest concrete policy initiatives to improve our measurement and assessment of university research. 
+</t>
+  </si>
+  <si>
+    <t>Innovation measurement, Knowledge diffusion, Research commercialization, Linear model, Computer music</t>
+  </si>
+  <si>
+    <t>An impressive literature documents how individual-level factors correlate with entrepreneurship and commercialization behaviors. We have far less insight, however, into how different organizational contexts may, in fact, play a dominant role in shaping these individuals and their behaviors. In this paper, I leverage a unique case of commercialization in which a largely overlapping team attempted to commercialize a technology in two different organizational contexts – first, in a university and later in a startup firm. By detailing the contextual features in each organizational environment and by linking these features to the participants’ differing approaches and attitudes toward commercialization, I extend the current literature through a demonstration of how organizational context shapes not only the initial decision to become an entrepreneur, but also the specific ways in which individuals interpret and act upon an entrepreneurial mission. More generally, I contribute to the literature on the commercialization of university research by highlighting some of the challenges inherent in adapting a context optimized for exploration to the task of exploitation.</t>
+  </si>
+  <si>
+    <t>Commercialization, University research, Technology transfer, Academic entrepreneurship, Startups, Organizational context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The diffusion of scientific knowledge is critical for innovation, entrepreneurship, and economic growth. Yet scientists face a fundamental dilemma when it comes to sharing such knowledge: sharing can simultaneously advance and challenge both academic and commercial interests. Although several studies explore the different reasons that scientists may or may not share, along with their overall propensity to do so, we have much less insight into how researchers who confront sharing/secrecy tensions attempt to manage them. In turn, our understanding of the ways in which scientists enable cumulative innovation through sharing, even as they attend to their private interests, remains limited. Based on qualitative analysis of 46 interviews and 58 oral histories with researchers in biotechnology and digital audio, I identify 4 tactics that researchers use to manage sharing/secrecy tensions—leveraging trust, strategic withholding, delaying, and patenting—and I analyze how the use of these tactics is tied to particular sharing practices, organizational environments (e.g., universities versus firms), and scientific fields. I then theorize how these tactics address different dimensions of sharing/secrecy tensions, working together as part of an integrated repertoire. Finally, I tie my findings to broader considerations around sharing, including managerial and policy initiatives aimed at promoting cumulative innovation. </t>
+  </si>
+  <si>
+    <t>industrial science, academic science, disclosure and sharing, publishing and patenting, biotechnology, digital audio</t>
+  </si>
+  <si>
+    <t>Networks are important to entrepreneurial success. However, most research in this area to date has merely addressed the what; namely, what types of networks enable success. We seek to extend this stream of research by answering the how and the why. In so doing, we elaborate on how entrepreneurs can develop their networks, arguing that in order to create new organizations, nascent entrepreneurs must acquire resources from an increasingly diverse set of relatively stronger and weaker ties throughout the emergence phase. We then hypothesize why this evolutionary path is effective across the various dimensions of tie strength. Analyzing data from the Panel Study of Entrepreneurial Dynamics I (PSED I) with multilevel random coefficient growth curve modeling, we find strong support for our hypotheses. We conclude by discussing the implications of our findings for both academics and practitioners.</t>
+  </si>
+  <si>
+    <t>Nascent entrepreneurs, Organizational emergence, Panel Study of Entrepreneurial Dynamics (PSED) , Supporter networks, Tie strength</t>
+  </si>
+  <si>
+    <t>Purpose – The purpose of this paper is to develop a conceptual model to examine key employability skills that
+match workplace requirements and foster employability.
+Design/methodology/approach – This research comprises a cross-sectional study from self-financing
+institutions in Hong Kong. The current study adopted structural equation modeling to examine key
+employability skills that match workplace requirements and foster employability.
+Findings – Based on the empirical findings, the acquired employability skills of young graduates are
+entrepreneurship, professional development, work with others, self-management, communication and problem
+solving. Moreover, higher education institutions should work closely with industry stakeholders to get employers
+engaged with the work-integrating learning (WIL) programs and subsequently equip young graduates for better
+employability opportunities. In connection with employer engagement, employability skills of communication,
+problem solving and self-management would be improved. Furthermore, entrepreneurship and problem-solving
+skills could further be developed for young graduating students working in SME organizations during WIL.
+Originality/value – As a notable gap exists in the current literature to examine young graduates’ key
+employability skills in the context and content of Hong Kong self-financing tertiary education, this research
+explores key employability skills of self-financed young graduates and the relative importance of
+employability skills across company size using a quantitative approach.
+Keywords Employability skills, Employer engagement, Structural equation modelling,
+Work-integrated learning (WIL), Young graduates
+Paper type Research paperd</t>
+  </si>
+  <si>
+    <t>Dominant logic is the manner in which firms conceptualize and make critical resourceallocation decisions, and over time develop mental maps, business models, and processes that become organizational recipes. This study compares and contrasts the dominant logic of Polish entrepreneurial firms. We find evidence that a dominant logic characterized by external orientation, proactiveness, and simplicity of routines significantly influences the performance of entrepreneurial firms in this emerging economy. These dominant logic characteristics of high performers serve as a key intangible resource in transition economies that are characterized by the absence of strong institutions and resource constraints. Future research in this critical domain should include how dominant logic needs in transition economies evolve over time as the institutional environment matures and market mechanisms become more solidified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper adopts a resource-based perspective to understand why some universities are more successful than others at generating technology-based spinoff companies. In this respect, we derive eight hypotheses that link attributes of resources and capabilities, institutional, financial, commercial and human capital, to university spinoff outcomes. Using panel data from 1980 to 2001, our econometric estimators reveal evidence of history dependence for successful technology transfer to occur although faculty quality, size and orientation of science and engineering funding and commercial capability were also found to be predictors of university spinoff activity. We conclude by drawing implications for policy makers and university heads. </t>
+  </si>
+  <si>
+    <t>University entrepreneurship, Technology transfer, University spinoffs, Resource-based view</t>
+  </si>
+  <si>
+    <t>Building on the entrepreneurial action and sustainable development literatures, we highlight how the current explanations of opportunity recognition, based on entrepreneurial knowledge and economic motivation, are insufficient for modeling the recognition of opportunities for sustainable development. Our model suggests that entrepreneurs are more likely to discover sustainable development opportunities the greater their knowledge of natural and communal environments become, the more they perceive that the natural and communal environment in which they live is threatened, and the greater their altruism toward others becomes. We propose that entrepreneurial knowledge plays a central role by moderating these effects.</t>
+  </si>
+  <si>
+    <t>Empirical and anecdotal evidence suggests that businesses that act with an entrepreneurial orientation enjoy superior performance. Our research investigates whether nonprofit, religious congregations can benefit from similar initiatives. We based our hypotheses on the Rational Choice Theory of Religion, which was developed by social scientists to bring economic analysis to the understanding of the effects of competition among nonprofit organizations. Using a sample of 250 religious congregations in five different geographical markets, an entrepreneurial orientation is found to be positively associated with organizational performance. A hypothesized interaction effect between environmental munificence and entrepreneurial orientation is assessed.</t>
+  </si>
+  <si>
+    <t>Using bankruptcy laws as a case of formal institutions, we show how formal institutions impact entrepreneurship development. Historically, bankruptcy laws usually have been harsh. Recently, many governments have realized that entrepreneur-friendly bankruptcy laws can not only lower exit barriers, but also lower entry barriers for entrepreneurs. Since bankruptcy laws are not uniform around the world, it is important to understand how they differ in their friendliness to entrepreneurs. This article focuses on six dimensions of entrepreneur-friendliness: (1) the availability of a reorganization bankruptcy option, (2) the time spent on bankruptcy procedures, (3) the cost of bankruptcy procedures, (4) the opportunity to have a fresh start in liquidation bankruptcy, (5) the opportunity to have an automatic stay of assets during reorganization bankruptcy, and (6) the opportunity for entrepreneurs and managers to remain on the job after filing for bankruptcy. In an effort to cover both developed and emerging economies and to draw on geographically diverse examples, we use data from Australia, Canada, Chile, Finland, Hong Kong, Japan, Norway, Peru, Singapore, South Korea, Thailand, the United States, and other countries to illustrate these differences. Overall, this article contributes to the institution-based view of entrepreneurship by highlighting the important role that formal institutions such as bankruptcy laws play behind entrepreneurship development around the world.</t>
+  </si>
+  <si>
+    <t>A considerable body of work highlights the relevance of collaborative research, contract research, consulting and informal relationships for university–industry knowledge transfer. We present a systematic review of research on academic scientists’ involvement in these activities to which we refer as ‘academic engagement’. Apart from extracting findings that are generalisable across studies, we ask how academic engagement differs from commercialisation, defined as intellectual property creation and academic entrepreneurship. We identify the individual, organisational and institutional antecedents and consequences of academic engagement, and then compare these findings with the antecedents and consequences of commercialisation. Apart from being more widely practiced, academic engagement is distinct from commercialisation in that it is closely aligned with traditional academic research activities, and pursued by academics to access resources supporting their research agendas. We conclude by identifying future research needs, opportunities for methodological improvement and policy interventions.</t>
+  </si>
+  <si>
+    <t>University–industry relations, Technology transfer, Academic entrepreneurship, Commercialisation, Collaborative research, Academic consulting</t>
+  </si>
+  <si>
+    <t>The present article seeks to advance the theoretical knowledge of entrepreneurial learning by reviewing and synthesizing available research into a conceptual framework that explains the process of entrepreneurial learning as an experiential process. The framework identifies three main components in the process of entrepreneurial learning: entrepreneurs’ career experience, the transformation process, and entrepreneurial knowledge in terms of effectiveness in recognizing and acting on entrepreneurial opportunities and coping with the liabilities of newness. Based on the arguments in the article, five major propositions were developed to refine our understanding of entrepreneurial learning. Finally, theoretical and practical implications were discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study empirically tests a model of a university’s selectivity and support policy orientation for technology licensing and its interaction with the external environment for entrepreneurship. Using a sample of 134 US research universities, we investigate main, two-way and three-way interaction effects for two measures of technology transfer performance—licenses with companies that subsequently go public and product royalties. Results indicate both main and moderating effects for both measures of performance. Implications for practice and policy are offered, with special attention to public universities. </t>
+  </si>
+  <si>
+    <t>US universities, University start-ups, Technology transfer</t>
+  </si>
+  <si>
+    <t>Expressions about opportunities are used unproblematically in everyday contexts. Yet, the question “What is an opportunity?” has posed a difficult riddle in the academic study of entrepreneurship. Drawing on the philosophy of Ludwig Wittgenstein, we explain that such perplexities are common when words are removed from ordinary language and intellectuals try to grasp what they name. Approaching the opportunity riddle differently, we ask, “How do entrepreneurs use the word ‘opportunity?’” and elucidate an actualization theory of entrepreneurship attuned to the everyday understandings that underlie the meaningful use of the word. Bringing implicit understandings to the foreground contributes to (a) dissolving the mystification over the nature of “opportunity”; (b) clarifying the conceptual foundations of entrepreneurship theory; and (c) reorienting the field toward more conceptually precise ways of thinking about Knightian uncertainty, entrepreneurial success, and the entrepreneurial process. This paper also contributes to the methodology of management studies by demonstrating how attention to the logic of ordinary language can alert us to theoretical dead-ends and enable the development of theory that bridges academic and everyday understandings.</t>
+  </si>
+  <si>
+    <t>The influence of the university department upon spin-off venture evolution is complex and dynamic. We examine how the university department context influences the spin-off process from the perspectives of both the spin-off venture and the department. By comparing the development of entrepreneurial competencies within spin-offs based in different departments at the same universities we observed significant differences in early venture performance. Small differences in initial departmental support from management and senior academics for gaining commercial experience and spending time exploring the commercial opportunity were seen to have a major impact upon the subsequent spin-off development path. Supported ventures gained momentum as the department helped develop entrepreneurial competencies and influenced how these competencies were developed from external actors outside the department. By contrast, a lack of departmental support for entrepreneurship severely constrained the evolution of spin-offs regardless of university level policies and practices. This emphasizes the need for a shift in focus from the well-studied university level to the relatively neglected department level to help explain institutional differences in university spin-off activity.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship, Entrepreneurial competencies, New venture evolution, University department, University spin-off</t>
+  </si>
+  <si>
+    <t>Most research in evidence-based entrepreneurship builds on quantitative designs, which is unfortunate because qualitative studies provide a unique contribution to the domain of entrepreneurship. They look at distinctive phenomena in their specific time period and context in one way or another, and can help generate and test new theories. We, therefore, suggest using a systematic synthesis of case studies to aggregate the findings of qualitative research. Moreover, as a first step, we developed an example to demonstrate how this approach can advance evidence-based entrepreneurship. Specifically, we synthesized 13 cases to examine how business clusters increase the performance of firms within clusters.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial orientation (EO) has received substantial conceptual and empirical attention, representing one of the few areas in entrepreneurship research where a cumulative body of knowledge is developing. The time is therefore ripe to document, to review, and to evaluate the cumulative knowledge on the relationship between EO and business performance. Extending beyond qualitative assessment, we undertook a meta-analysis exploring the magnitude of the EO-performance relationship and assessed potential moderators affecting this relationship. Analyses of 53 samples from 51 studies with an N of 14,259 companies indicated that the correlation of EO with performance is moderately large (r = .242) and that this relationship is robust to different operationalizations of key constructs as well as cultural contexts. Internal and environmental moderators were identified, and results suggest that additional moderators should be assessed. Recommendations for future research are developed.</t>
+  </si>
+  <si>
+    <t>This article explores the structure of the “metafield” of entrepreneurship in two related ways. First, author co-citation analysis establishes a collective view of the structure of the entrepreneurship literature as perceived by its research-active members. The co-citation frequencies of 78 prominent entrepreneurship researchers were analyzed using multivariate techniques. Cluster analysis and multidimensional scaling were used to explore the intellectual structure of entrepreneurship research by identifying groups of scholars whose work falls into similar areas. Factor analysis was then used to identify the underlying themes that characterize and define the field. Finally, the scholars within these nominal groupings were approached using individualized questionnaires to explore what social interactions might parallel, reflect, or underpin the intellectual ones. The study has given empirical support to a number of oft-quoted beliefs about entrepreneurship as a field of study, such as: (1) the occurrence of fragmentation from an early stage in its development; (2) that the difficulty of categorizing subfields unambiguously mirrors that in the metafield itself; (3) that there is a relative paucity of scholarship cited across—as opposed to within—these subfields; and (4) that there is evolution within the meta-field of national differences in the topics studied and citation patterns thereto. In addition, the study demonstrates that there are real and robust social and collaborative networks underlying the generation of the work which is cited jointly by third parties. The latter authors may be unaware of these networks. Equally, the co-cited authors, while recognizing overlapping interests, may have difficulty in categorizing this commonality in their contributions. Entrepreneurship research is shown to be very much a social activity, although this may be invisible to outsiders or novitiates.</t>
+  </si>
+  <si>
+    <t>Early stage technology startups rely critically on talented scientists and engineers to commercialize new technologies. And yet these startups compete with established technology firms to hire the best workers. Theories of ability sorting predict that high-ability workers will choose jobs in established firms that offer greater complementary assets and higher pay, leaving low-ability workers to take lower paying and riskier jobs in startups. We propose an alternative view in which heterogeneity in both worker ability and preferences enable startups to hire talented workers who have a taste for a startup work environment even at lower pay. Using a longitudinal survey that follows 2,394 science and engineering PhDs from graduate school into their first industrial employment, we overcome common empirical challenges by observing ability and stated preferences prior to entry into the labor market. We find that both ability and career preferences strongly predict startup employment with high-ability workers who prefer startup employment being the most likely to work in a startup. We show that this partly reflects dual selection effects whereby worker preferences result in a large pool of startup job applicants and startups make job offers to the most talented workers. Additional analyses confirm that startup employees earn approximately 17% lower pay. This gap is greatest for high-ability workers and persists over workers’ early careers, suggesting that they accept a negative compensating differential in exchange for the nonpecuniary benefits of startup employment. Data on job attributes and stated reasons for job choice further support this interpretation.</t>
+  </si>
+  <si>
+    <t>startup employees, technology entrepreneurship, human capital, careers, joiners, scientists and engineers, compensating differentials</t>
+  </si>
+  <si>
+    <t>The relationship between entrepreneurial orientation (EO) and firm performance is among the best-researched topics in entrepreneurship research. These studies have been conducted in various national contexts. While a first meta-analysis by Rauch et al. finds no significant difference between EO’s effects based on the continent in which the firm is based, the present study considers how national cultural and macroeconomic drivers impact the EO–performance relationship. Building upon 177 studies with data from 41 countries, the meta-analysis consolidates this literature stream, contributing to the evidence-based entrepreneurship research.</t>
+  </si>
+  <si>
+    <t>In this paper, we outline several interesting observations about international entrepreneurship (IE) research through the theoretical lens of effectuation. In doing so, we show how an effectual approach can help resolve four central conflicts and knowledge gaps identified in two recent comprehensive reviews of IE. We then present an illustrative case study from India that provides an intriguing comparison with the most recent modification of the Uppsala model to integrate with effectuation theory. Finally, we offer four provocative possibilities for future research at the intersection of IE and effectuation research.</t>
+  </si>
+  <si>
+    <t>The deal-making process requires entrepreneurial actors to create and maintain wide networks of weak ties while simultaneously developing stronger collaborative ties that will enable opportunities to be realized. We currently lack an adequate account of how these activities are integrated by deal-makers under conditions of risk and uncertainty. In an empirical study of deal making in early-stage technology ventures, we find that deal-makers rely on different forms of trust in the early and later phases. Based on this study, we develop a process model and propositions on the role of trust in integrating strong and weak ties in deal making.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five areas are identified wherein more development might enhance the current model of strategic entrepreneurship (SE): exploration–exploitation, opportunity, newness, micro– macro interaction, and dynamics. Complexity science is presented as an alternative theoretical lens for addressing these issues, and enhancing the potential of SE in a world characterized by fluctuations, irreversibility, nonlinearity, and instabilities. Using this lens, a rearticulation of SE is proposed that centers on the notion of an opportunity space and a paradigm built around forms, flows, and functions. SE’s domain consists of a complex set of phenomena that cannot be neatly bundled according to disciplinary boundaries. </t>
+  </si>
+  <si>
+    <t>New ventures are frequently started by entrepreneurial teams rather than lone entrepreneurs. Often, team members have family ties. Yet, there has been relatively little research on new venture and family business teams. The papers in this special issue address this gap by studying team formation and composition, faultlines among team members, generational involvement in teams, the influence of shared organizational experience and functional homogeneity, and the likelihood of couples, biologically related, and unrelated teams achieving first sales. Combined, they suggest that relationships are more important than skill diversity in determining the effectiveness of both family business and new venture teams.</t>
+  </si>
+  <si>
+    <t>Increasing interest in the development of entrepreneurial intentions has elevated the importance of theories that predict and explain individuals’ propensity to start a firm. The purpose of this study is to meta-analytically test and integrate the theory of planned behavior and the entrepreneurial event model. We summarize the findings of 98 studies (123 samples, n = 114,007) and utilize meta-analytic structural equation modeling to examine the empirical fit of the competing theories and the integrated model. Our results demonstrate support for the competing theories and indicate the moderating role of contextual boundary conditions in the development of entrepreneurial intent. Furthermore, our findings suggest that the integrated model provides additional explanatory power and a fuller understanding of the process through which entrepreneurial intent develops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business angel investors, Entrepreneurs, Well-being, Psychological needs, Tweets, Linguistic Inquiry and Word Count (LIWC), Investor–investee relationship </t>
+  </si>
+  <si>
+    <t>While external funding is indispensable for most entrepreneurs to scale their ventures, entrepreneurship literature highlights the additional benefits of investors' continued involvement, such as access to their expertise and network. Angel investors, whose primary value-add often emerges through their relationship with the entrepreneurs, generate particularly pronounced benefits. Entrepreneurship research has established that bringing angel investors on board comes at the cost of relinquishing partial equity, which restricts entrepreneurs' control over their ventures; however, the individual-level consequences of funding for entrepreneurs remain largely unexplored. To address this gap, we study how angels' funding and their post-investment involvement in the venture affect entrepreneurs' eudaimonic well-being in the long term. Drawing on self-determination theory, we explore further how the psychological need for autonomy, competence, and relatedness mediates the relationship between angel funding and entrepreneurs' wellbeing. Self-determination theory states that individuals' verbalized language reflects their needs; accordingly, we use Linguistic Inquiry and Word Count (LIWC) analysis on a unique dataset of almost 125 million words derived from the tweets of 1667 entrepreneurs on X (formerly Twitter). As hypothesized, we find a positive association between angel funding and entrepreneurs' wellbeing. Autonomy negatively mediates this relationship, while competence and relatedness mediate it positively. We advance research on entrepreneurs' eudaimonic well-being and extend the literature on self-determination theory and individual-level consequences of angel funding. Executive summary: Entrepreneurs often face a difficult trade-off: They must decide whether to accept funding from angel investors or relinquish some control over their venture. While much research centers on the business implications of this trade-off (Davila et al., 2003; Politis, 2008), the personal impact on entrepreneurs' eudaimonic well-being remains underexplored (Collewaert and Sapienza, 2016). This knowledge gap is concerning because entrepreneurs' well-being closely relates to their ventures' performance (Stephan et al., 2020b; Wach et al., 2016). &lt;br/&gt;
+Recent calls for research (Stephan et al., 2023) emphasize the need to understand how external factors, like investor involvement, affect entrepreneurs' well-being by influencing the extent to which their psychological needs for autonomy, competence, and relatedness are satisfied, as outlined by self-determination theory (SDT) (Deci and Ryan, 1985, 2000). Despite the recognized importance of these factors, the impact of angel investors, who often form close relationships with entrepreneurs and engage deeply in their ventures (Fairchild, 2011; Politis, 2008), has been largely overlooked. &lt;br/&gt;
+Our study addresses this gap by examining how angel funding and subsequent involvement influence entrepreneurs' eudaimonic long-term well-being. Using a dataset of 125 million words compiled from 1667 entrepreneurs' tweets on Twitter (now X) from 2006 to 2022, we apply Linguistic Inquiry and Word Count (LIWC) analysis to gain insights into the psychological states of these entrepreneurs (Block et al., 2019; Obschonka et al., 2017). This approach aligns with SDT, which posits that psychological needs fulfillment manifests in communication (Vansteenkiste et al., 2020). &lt;br/&gt;
+Our findings reveal that angel investor involvement can significantly influence entrepreneurs' eudaimonic well-being—positively and negatively—by affecting entrepreneurs' psychological needs fulfillment. Our study thus complements research on entrepreneurs' well-being with longitudinal insights. First, it extends the literature on entrepreneurial well-being by providing a nuanced understanding of how angel funding and involvement, mediated by autonomy, competence, and relatedness, affect entrepreneurs' well-being over time (Stephan et al., 2023). Second, our study contributes to SDT literature by contextualizing investor involvement as an external factor and using large-scale social media data to assess entrepreneurs' psychological needs (Stephan et al., 2020a). &lt;br/&gt;
+Third, our study highlights the importance of the dynamics between angel investors and entrepreneurs, showing that such relationships significantly shape entrepreneurs' personal outcomes (Collewaert and Sapienza, 2016; Politis, 2008). Beyond academic contributions, our study offers practical insights for entrepreneurs, angel investors, policy-makers, and universities by emphasizing the importance of understanding and managing the entrepreneurs' personal impacts of bringing angel investors on board.</t>
+  </si>
+  <si>
+    <t>Building on a typology of transnational firm types, developed by Landolt, Autler, and Baires in 1999, we examine whether immigrant attitudes toward the host country and their degree of embeddedness in the home country can predict the specific type of transnational enterprise that an immigrant is likely to begin. We also investigate whether the determinants of success of transnational enterprises vary by firm type. Based on a sample of 1,202 transnational business owners drawn from the Comparative Immigrant Entrepreneurship Project database, our analyses indicate general support for our hypotheses. More specifically, we found that transnational entrepreneurs’ positive perceptions of host country opportunities and greater embeddedness in home country activities helped predict the specific type of ventures they would undertake. Further, the degree of embeddedness in the home country may influence the determinants of success for these types of firms. Depending on firm type, owners attributed their primary success to either personal characteristics, social support, or to the quality of their products and services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing on Identity Control Theory (ICT) and the literature on social identity, we offer a model of the dynamics associated with competing family and business identities brought into conflict by “family-business” events. We introduce the notion of the family-business role as a distinct identity functioning at the intersection of family and business identities. This meta-level identity “manages” conflict between the family and the business identities, and is formulated and transformed within the family structure. To illustrate the dynamics of the family-business meta-identity, in this article we focus on entrepreneurial opportunities as potentially identity conflict-triggering events and illustrate how and with what impact the meta-identity works to resolve identity conflict at the intersection of family and business so as to expedite the entrepreneurial process. We conclude with a discussion of the implications of our model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cognition/knowledge/learning, start-up, opportunity search/discovery, business models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lean startup framework is one of the most popular contributions in the practitioner-oriented entrepreneurship literature. This study seeks to generate new insights into how new ventures are started by describing the five main building blocks of the lean startup framework (business model, validated learning/customer development, minimum viable product, perseverance vs. pivoting, market-opportunity navigation), enriching the framework with existing research findings, and proposing promising research opportunities in a way that reduces the academic−practitioner divide. In so doing, we hope to enhance researchers’ understanding of the startup process; provide knowledge for educators; and, ultimately, improve the startup process for practitioners. </t>
+  </si>
+  <si>
+    <t>Informed by the sustainable development and entrepreneurship literatures we offer the following definition: Sustainable entrepreneurship is focused on the preservation of nature, life support, and community in the pursuit of perceived opportunities to bring into existence future products, processes, and services for gain, where gain is broadly construed to include economic and non-economic gains to individuals, the economy, and society. To illustrate the diversity of potential research avenues that will advance this field, we offer a research agenda derived from an economics, an institutional, and a psychology perspective. We suggest research questions exploring “what is to be sustained” and “what is to be developed” in sustainable entrepreneurship research.</t>
+  </si>
+  <si>
+    <t>This paper examines how culture and gender shape entrepreneurial perceptions and intentions within Hofstede’s cultural dimensions framework and gender role theory. We test whether gender differences exist in the way university students in three nations perceive barriers to entrepreneurship and whether gender has a moderating effect on the relationship between perceived barriers and entrepreneurial intentions across nations. Findings indicate significant gender differences in barrier perceptions. However, this gap is not consistent across cultures. Also, a moderating effect of gender on the relationship between barriers and entrepreneurial intentions is identified. Implications for research and practice are discussed.</t>
+  </si>
+  <si>
+    <t>We assess the role of human capital in the growth and development of new technologybased ventures, based on longitudinal data from 198 high-tech ventures. Our empirical results imply that there is a strong relationship between team experience and strategy. Although there is a weak direct link between team experience and venture performance, the findings strongly suggest that the fit between strategy and team experience is a key determinant of the long-term performance of high-tech entrepreneurial ventures. For small, technology-based new ventures, the team’s technological experience appears to be the most important determinant of the success of a differentiation strategy.</t>
+  </si>
+  <si>
+    <t>Through a study of the emergent U.S. wind energy sector, 1978-1992, this paper examines how large-scale social movements external to an industry can influence the creation of new market opportunities and hence encourage entrepreneurship. We theorize that through the construction and propagation of cognitive frameworks, norms, values, and regulatory structures, and by offering a preexisting social structure, social movement organizations influence whether entrepreneurs attempt to start ventures in emerging sectors. We find that the direct and indirect effects of social resources (e.g., environmental groups) had a larger impact on entrepreneurial activity in this sector than the availability of natural resources such as land with high-quality wind. Greater numbers of environmental movement organization members increased nascent entrepreneurial activity, and this effect was mediated by favorable state regulatory policy. Greater membership numbers also enhanced the effects of important natural resources, market conditions, and skilled human capital on entrepreneurial activity. Taken together, these results have important implications for the study of social movements, entrepreneurship, and institutional theory.</t>
+  </si>
+  <si>
+    <t>We develop and examine a framework for the knowledge spillover theory of entrepreneurship in alliances. Our framework regards entrepreneurial opportunity as endogenous, and entrepreneurial firms as heterogeneous. The empirical findings show that partners’ knowledge protection, which is regarded as a knowledge filter, can increase knowledge spillovers in an alliance. Moreover, this relationship is contingent on the strength of a focal firm's entrepreneurial orientation and on alliance type (equity joint venture versus nonequity joint venture). Results also reveal that knowledge spillovers in an alliance enhance alliance performance more significantly than they enhance firm performance.</t>
   </si>
 </sst>
 </file>
@@ -4713,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="169" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="158" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4771,7 +5366,7 @@
     </row>
     <row r="2" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>379</v>
@@ -4780,7 +5375,7 @@
         <v>380</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -4806,7 +5401,7 @@
     </row>
     <row r="3" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>172</v>
@@ -4815,10 +5410,10 @@
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1353</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1354</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -4844,7 +5439,7 @@
     </row>
     <row r="4" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>176</v>
@@ -4853,10 +5448,10 @@
         <v>382</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1368</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -4882,7 +5477,7 @@
     </row>
     <row r="5" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>383</v>
@@ -4891,10 +5486,10 @@
         <v>384</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>39</v>
@@ -4920,7 +5515,7 @@
     </row>
     <row r="6" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>386</v>
@@ -4929,7 +5524,7 @@
         <v>387</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
@@ -4955,7 +5550,7 @@
     </row>
     <row r="7" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>392</v>
@@ -4964,10 +5559,10 @@
         <v>393</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -4993,7 +5588,7 @@
     </row>
     <row r="8" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>178</v>
@@ -5031,7 +5626,7 @@
     </row>
     <row r="9" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>389</v>
@@ -5040,10 +5635,10 @@
         <v>390</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>1369</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1370</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -5069,7 +5664,7 @@
     </row>
     <row r="10" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>395</v>
@@ -5078,7 +5673,7 @@
         <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
@@ -5104,7 +5699,7 @@
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1016</v>
@@ -5136,7 +5731,7 @@
     </row>
     <row r="12" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>398</v>
@@ -5145,7 +5740,7 @@
         <v>399</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>17</v>
@@ -5171,7 +5766,7 @@
     </row>
     <row r="13" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>401</v>
@@ -5180,10 +5775,10 @@
         <v>402</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1373</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1374</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -5209,7 +5804,7 @@
     </row>
     <row r="14" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>404</v>
@@ -5218,13 +5813,13 @@
         <v>405</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H14" t="s">
         <v>175</v>
@@ -5244,7 +5839,7 @@
     </row>
     <row r="15" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>408</v>
@@ -5253,7 +5848,7 @@
         <v>409</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
@@ -5279,7 +5874,7 @@
     </row>
     <row r="16" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>411</v>
@@ -5288,10 +5883,10 @@
         <v>412</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1377</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1378</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -5317,7 +5912,7 @@
     </row>
     <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>414</v>
@@ -5326,13 +5921,13 @@
         <v>415</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H17" t="s">
         <v>175</v>
@@ -5352,7 +5947,7 @@
     </row>
     <row r="18" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>418</v>
@@ -5361,10 +5956,10 @@
         <v>180</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1381</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -5390,7 +5985,7 @@
     </row>
     <row r="19" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>181</v>
@@ -5402,7 +5997,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
@@ -5428,7 +6023,7 @@
     </row>
     <row r="20" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>181</v>
@@ -5437,7 +6032,7 @@
         <v>182</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -5463,7 +6058,7 @@
     </row>
     <row r="21" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>421</v>
@@ -5472,10 +6067,10 @@
         <v>422</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>1383</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1384</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -5501,7 +6096,7 @@
     </row>
     <row r="22" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>424</v>
@@ -5510,7 +6105,7 @@
         <v>425</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
@@ -5536,7 +6131,7 @@
     </row>
     <row r="23" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>427</v>
@@ -5545,13 +6140,13 @@
         <v>428</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H23" t="s">
         <v>175</v>
@@ -5571,7 +6166,7 @@
     </row>
     <row r="24" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>431</v>
@@ -5580,7 +6175,7 @@
         <v>432</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
@@ -5606,7 +6201,7 @@
     </row>
     <row r="25" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>434</v>
@@ -5615,7 +6210,7 @@
         <v>435</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
@@ -5641,7 +6236,7 @@
     </row>
     <row r="26" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>437</v>
@@ -5650,13 +6245,13 @@
         <v>438</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H26" t="s">
         <v>175</v>
@@ -5676,7 +6271,7 @@
     </row>
     <row r="27" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>440</v>
@@ -5685,7 +6280,7 @@
         <v>441</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -5711,7 +6306,7 @@
     </row>
     <row r="28" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>443</v>
@@ -5720,13 +6315,13 @@
         <v>444</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>445</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H28" t="s">
         <v>175</v>
@@ -5746,7 +6341,7 @@
     </row>
     <row r="29" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>447</v>
@@ -5755,10 +6350,10 @@
         <v>448</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>1392</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1393</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -5782,9 +6377,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="356" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>183</v>
@@ -5822,7 +6417,7 @@
     </row>
     <row r="31" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>259</v>
@@ -5860,7 +6455,7 @@
     </row>
     <row r="32" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>450</v>
@@ -5869,10 +6464,10 @@
         <v>451</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>1394</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1395</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
@@ -5898,7 +6493,7 @@
     </row>
     <row r="33" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>453</v>
@@ -5907,16 +6502,16 @@
         <v>454</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>455</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H33" t="s">
         <v>175</v>
@@ -5936,7 +6531,7 @@
     </row>
     <row r="34" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>457</v>
@@ -5945,7 +6540,7 @@
         <v>458</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>17</v>
@@ -5971,7 +6566,7 @@
     </row>
     <row r="35" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>460</v>
@@ -5980,7 +6575,7 @@
         <v>461</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>7</v>
@@ -6006,7 +6601,7 @@
     </row>
     <row r="36" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>463</v>
@@ -6015,7 +6610,7 @@
         <v>464</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>17</v>
@@ -6041,7 +6636,7 @@
     </row>
     <row r="37" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>466</v>
@@ -6050,7 +6645,7 @@
         <v>467</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>17</v>
@@ -6076,7 +6671,7 @@
     </row>
     <row r="38" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>469</v>
@@ -6085,7 +6680,7 @@
         <v>470</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -6111,7 +6706,7 @@
     </row>
     <row r="39" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>472</v>
@@ -6120,7 +6715,7 @@
         <v>473</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>17</v>
@@ -6146,7 +6741,7 @@
     </row>
     <row r="40" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>475</v>
@@ -6155,13 +6750,13 @@
         <v>476</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H40" t="s">
         <v>175</v>
@@ -6181,7 +6776,7 @@
     </row>
     <row r="41" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>478</v>
@@ -6190,10 +6785,10 @@
         <v>479</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1406</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>7</v>
@@ -6217,9 +6812,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="272" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>186</v>
@@ -6257,7 +6852,7 @@
     </row>
     <row r="43" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>481</v>
@@ -6266,7 +6861,7 @@
         <v>482</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -6292,7 +6887,7 @@
     </row>
     <row r="44" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>19</v>
@@ -6330,7 +6925,7 @@
     </row>
     <row r="45" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>263</v>
@@ -6357,9 +6952,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>484</v>
@@ -6367,6 +6962,9 @@
       <c r="C46" s="3" t="s">
         <v>485</v>
       </c>
+      <c r="D46" s="3" t="s">
+        <v>1407</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
       </c>
@@ -6389,9 +6987,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>487</v>
@@ -6399,6 +6997,9 @@
       <c r="C47" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>1408</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>17</v>
       </c>
@@ -6421,9 +7022,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>490</v>
@@ -6431,6 +7032,9 @@
       <c r="C48" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="D48" s="3" t="s">
+        <v>1409</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>60</v>
       </c>
@@ -6453,9 +7057,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>493</v>
@@ -6463,6 +7067,12 @@
       <c r="C49" s="3" t="s">
         <v>494</v>
       </c>
+      <c r="D49" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1411</v>
+      </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
@@ -6485,9 +7095,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>496</v>
@@ -6495,6 +7105,12 @@
       <c r="C50" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="D50" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1413</v>
+      </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
@@ -6517,9 +7133,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>499</v>
@@ -6527,6 +7143,12 @@
       <c r="C51" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="D51" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>1415</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>20</v>
       </c>
@@ -6549,9 +7171,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>502</v>
@@ -6559,6 +7181,9 @@
       <c r="C52" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="D52" s="3" t="s">
+        <v>1416</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>17</v>
       </c>
@@ -6581,9 +7206,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>505</v>
@@ -6591,6 +7216,12 @@
       <c r="C53" s="3" t="s">
         <v>506</v>
       </c>
+      <c r="D53" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1418</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
@@ -6613,9 +7244,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>508</v>
@@ -6623,6 +7254,9 @@
       <c r="C54" s="3" t="s">
         <v>509</v>
       </c>
+      <c r="D54" s="3" t="s">
+        <v>1419</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>17</v>
       </c>
@@ -6645,9 +7279,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>511</v>
@@ -6655,6 +7289,9 @@
       <c r="C55" s="3" t="s">
         <v>512</v>
       </c>
+      <c r="D55" s="3" t="s">
+        <v>1420</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>17</v>
       </c>
@@ -6677,9 +7314,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>514</v>
@@ -6687,6 +7324,9 @@
       <c r="C56" s="3" t="s">
         <v>515</v>
       </c>
+      <c r="D56" s="3" t="s">
+        <v>1421</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>17</v>
       </c>
@@ -6709,9 +7349,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>517</v>
@@ -6719,6 +7359,9 @@
       <c r="C57" s="3" t="s">
         <v>518</v>
       </c>
+      <c r="D57" s="3" t="s">
+        <v>1422</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>17</v>
       </c>
@@ -6743,7 +7386,7 @@
     </row>
     <row r="58" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -6781,7 +7424,7 @@
     </row>
     <row r="59" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>190</v>
@@ -6817,9 +7460,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>520</v>
@@ -6827,6 +7470,12 @@
       <c r="C60" s="3" t="s">
         <v>521</v>
       </c>
+      <c r="D60" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1424</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
@@ -6849,9 +7498,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>523</v>
@@ -6859,6 +7508,9 @@
       <c r="C61" s="3" t="s">
         <v>524</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>1425</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>17</v>
       </c>
@@ -6881,9 +7533,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>526</v>
@@ -6891,11 +7543,14 @@
       <c r="C62" s="3" t="s">
         <v>527</v>
       </c>
+      <c r="D62" s="3" t="s">
+        <v>1426</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H62" t="s">
         <v>175</v>
@@ -6913,9 +7568,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>529</v>
@@ -6923,6 +7578,9 @@
       <c r="C63" s="3" t="s">
         <v>530</v>
       </c>
+      <c r="D63" s="3" t="s">
+        <v>1427</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>17</v>
       </c>
@@ -6945,9 +7603,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>532</v>
@@ -6955,6 +7613,9 @@
       <c r="C64" s="3" t="s">
         <v>533</v>
       </c>
+      <c r="D64" s="3" t="s">
+        <v>1428</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>17</v>
       </c>
@@ -6977,9 +7638,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>535</v>
@@ -6987,6 +7648,9 @@
       <c r="C65" s="3" t="s">
         <v>536</v>
       </c>
+      <c r="D65" s="3" t="s">
+        <v>1429</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>17</v>
       </c>
@@ -7009,9 +7673,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>538</v>
@@ -7019,6 +7683,9 @@
       <c r="C66" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="D66" s="3" t="s">
+        <v>1430</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>17</v>
       </c>
@@ -7041,9 +7708,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>541</v>
@@ -7051,6 +7718,9 @@
       <c r="C67" s="3" t="s">
         <v>542</v>
       </c>
+      <c r="D67" s="3" t="s">
+        <v>1431</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>17</v>
       </c>
@@ -7073,9 +7743,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>544</v>
@@ -7083,6 +7753,9 @@
       <c r="C68" s="3" t="s">
         <v>545</v>
       </c>
+      <c r="D68" s="3" t="s">
+        <v>1432</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>17</v>
       </c>
@@ -7105,9 +7778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>547</v>
@@ -7115,6 +7788,9 @@
       <c r="C69" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="D69" s="3" t="s">
+        <v>1433</v>
+      </c>
       <c r="F69" s="3" t="s">
         <v>17</v>
       </c>
@@ -7137,9 +7813,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>550</v>
@@ -7147,6 +7823,9 @@
       <c r="C70" s="3" t="s">
         <v>551</v>
       </c>
+      <c r="D70" s="3" t="s">
+        <v>1434</v>
+      </c>
       <c r="F70" s="3" t="s">
         <v>17</v>
       </c>
@@ -7169,9 +7848,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>553</v>
@@ -7179,6 +7858,9 @@
       <c r="C71" s="3" t="s">
         <v>554</v>
       </c>
+      <c r="D71" s="3" t="s">
+        <v>1435</v>
+      </c>
       <c r="F71" s="3" t="s">
         <v>17</v>
       </c>
@@ -7201,9 +7883,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>556</v>
@@ -7211,6 +7893,9 @@
       <c r="C72" s="3" t="s">
         <v>557</v>
       </c>
+      <c r="D72" s="3" t="s">
+        <v>1436</v>
+      </c>
       <c r="F72" s="3" t="s">
         <v>17</v>
       </c>
@@ -7233,9 +7918,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>559</v>
@@ -7243,6 +7928,9 @@
       <c r="C73" s="3" t="s">
         <v>560</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>1437</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>17</v>
       </c>
@@ -7265,9 +7953,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>562</v>
@@ -7275,6 +7963,9 @@
       <c r="C74" s="3" t="s">
         <v>563</v>
       </c>
+      <c r="D74" s="3" t="s">
+        <v>1438</v>
+      </c>
       <c r="F74" s="3" t="s">
         <v>17</v>
       </c>
@@ -7299,7 +7990,7 @@
     </row>
     <row r="75" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>192</v>
@@ -7335,9 +8026,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>566</v>
@@ -7345,6 +8036,9 @@
       <c r="C76" s="3" t="s">
         <v>567</v>
       </c>
+      <c r="D76" s="3" t="s">
+        <v>1439</v>
+      </c>
       <c r="F76" s="3" t="s">
         <v>60</v>
       </c>
@@ -7369,7 +8063,7 @@
     </row>
     <row r="77" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>193</v>
@@ -7407,7 +8101,7 @@
     </row>
     <row r="78" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>195</v>
@@ -7445,7 +8139,7 @@
     </row>
     <row r="79" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>196</v>
@@ -7481,9 +8175,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>570</v>
@@ -7491,11 +8185,14 @@
       <c r="C80" s="3" t="s">
         <v>571</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>1440</v>
+      </c>
       <c r="F80" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H80" t="s">
         <v>175</v>
@@ -7515,7 +8212,7 @@
     </row>
     <row r="81" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>197</v>
@@ -7553,7 +8250,7 @@
     </row>
     <row r="82" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>199</v>
@@ -7589,9 +8286,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>573</v>
@@ -7599,6 +8296,12 @@
       <c r="C83" s="3" t="s">
         <v>574</v>
       </c>
+      <c r="D83" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>1442</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
       </c>
@@ -7621,9 +8324,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>576</v>
@@ -7631,6 +8334,12 @@
       <c r="C84" s="3" t="s">
         <v>577</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>1444</v>
+      </c>
       <c r="F84" s="3" t="s">
         <v>12</v>
       </c>
@@ -7653,9 +8362,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>579</v>
@@ -7663,6 +8372,9 @@
       <c r="C85" s="3" t="s">
         <v>580</v>
       </c>
+      <c r="D85" s="3" t="s">
+        <v>1445</v>
+      </c>
       <c r="F85" s="3" t="s">
         <v>17</v>
       </c>
@@ -7685,9 +8397,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="153" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>200</v>
@@ -7723,9 +8435,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>582</v>
@@ -7733,6 +8445,9 @@
       <c r="C87" s="3" t="s">
         <v>583</v>
       </c>
+      <c r="D87" s="3" t="s">
+        <v>1446</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>17</v>
       </c>
@@ -7755,9 +8470,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>585</v>
@@ -7765,6 +8480,12 @@
       <c r="C88" s="3" t="s">
         <v>586</v>
       </c>
+      <c r="D88" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>1448</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>12</v>
       </c>
@@ -7787,9 +8508,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>588</v>
@@ -7797,6 +8518,9 @@
       <c r="C89" s="3" t="s">
         <v>589</v>
       </c>
+      <c r="D89" s="3" t="s">
+        <v>1449</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>17</v>
       </c>
@@ -7821,7 +8545,7 @@
     </row>
     <row r="90" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>31</v>
@@ -7857,9 +8581,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>591</v>
@@ -7867,6 +8591,9 @@
       <c r="C91" s="3" t="s">
         <v>592</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>1450</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>17</v>
       </c>
@@ -7889,9 +8616,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>594</v>
@@ -7899,6 +8626,9 @@
       <c r="C92" s="3" t="s">
         <v>595</v>
       </c>
+      <c r="D92" s="3" t="s">
+        <v>1451</v>
+      </c>
       <c r="F92" s="3" t="s">
         <v>17</v>
       </c>
@@ -7921,9 +8651,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>597</v>
@@ -7931,6 +8661,9 @@
       <c r="C93" s="3" t="s">
         <v>598</v>
       </c>
+      <c r="D93" s="3" t="s">
+        <v>1452</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>17</v>
       </c>
@@ -7953,9 +8686,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>600</v>
@@ -7963,6 +8696,9 @@
       <c r="C94" s="3" t="s">
         <v>601</v>
       </c>
+      <c r="D94" s="3" t="s">
+        <v>1453</v>
+      </c>
       <c r="F94" s="3" t="s">
         <v>17</v>
       </c>
@@ -7985,9 +8721,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>603</v>
@@ -7995,6 +8731,12 @@
       <c r="C95" s="3" t="s">
         <v>604</v>
       </c>
+      <c r="D95" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>1455</v>
+      </c>
       <c r="F95" s="3" t="s">
         <v>13</v>
       </c>
@@ -8019,7 +8761,7 @@
     </row>
     <row r="96" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>204</v>
@@ -8055,9 +8797,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>606</v>
@@ -8065,6 +8807,9 @@
       <c r="C97" s="3" t="s">
         <v>607</v>
       </c>
+      <c r="D97" s="3" t="s">
+        <v>1456</v>
+      </c>
       <c r="F97" s="3" t="s">
         <v>17</v>
       </c>
@@ -8089,7 +8834,7 @@
     </row>
     <row r="98" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>33</v>
@@ -8125,9 +8870,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>609</v>
@@ -8135,11 +8880,14 @@
       <c r="C99" s="3" t="s">
         <v>610</v>
       </c>
+      <c r="D99" s="3" t="s">
+        <v>1457</v>
+      </c>
       <c r="F99" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H99" t="s">
         <v>175</v>
@@ -8157,9 +8905,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>612</v>
@@ -8167,6 +8915,12 @@
       <c r="C100" s="3" t="s">
         <v>613</v>
       </c>
+      <c r="D100" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>1459</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
       </c>
@@ -8189,9 +8943,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>615</v>
@@ -8199,6 +8953,12 @@
       <c r="C101" s="3" t="s">
         <v>616</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>1460</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>7</v>
       </c>
@@ -8221,9 +8981,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>618</v>
@@ -8231,6 +8991,9 @@
       <c r="C102" s="3" t="s">
         <v>619</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>1462</v>
+      </c>
       <c r="F102" s="3" t="s">
         <v>17</v>
       </c>
@@ -8253,9 +9016,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>621</v>
@@ -8263,6 +9026,12 @@
       <c r="C103" s="3" t="s">
         <v>622</v>
       </c>
+      <c r="D103" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1464</v>
+      </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
       </c>
@@ -8285,9 +9054,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>624</v>
@@ -8295,6 +9064,12 @@
       <c r="C104" s="3" t="s">
         <v>625</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1466</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>12</v>
       </c>
@@ -8319,7 +9094,7 @@
     </row>
     <row r="105" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>207</v>
@@ -8355,9 +9130,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
@@ -8365,6 +9140,12 @@
       <c r="C106" s="3" t="s">
         <v>628</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>1468</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>629</v>
       </c>
@@ -8387,9 +9168,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>631</v>
@@ -8397,6 +9178,9 @@
       <c r="C107" s="3" t="s">
         <v>632</v>
       </c>
+      <c r="D107" s="3" t="s">
+        <v>1469</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>17</v>
       </c>
@@ -8419,9 +9203,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>634</v>
@@ -8429,6 +9213,9 @@
       <c r="C108" s="3" t="s">
         <v>635</v>
       </c>
+      <c r="D108" s="3" t="s">
+        <v>1470</v>
+      </c>
       <c r="F108" s="3" t="s">
         <v>17</v>
       </c>
@@ -8453,7 +9240,7 @@
     </row>
     <row r="109" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>36</v>
@@ -8489,9 +9276,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>638</v>
@@ -8499,6 +9286,9 @@
       <c r="C110" s="3" t="s">
         <v>639</v>
       </c>
+      <c r="D110" s="3" t="s">
+        <v>1471</v>
+      </c>
       <c r="F110" s="3" t="s">
         <v>17</v>
       </c>
@@ -8521,9 +9311,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>641</v>
@@ -8531,6 +9321,9 @@
       <c r="C111" s="3" t="s">
         <v>642</v>
       </c>
+      <c r="D111" s="3" t="s">
+        <v>1472</v>
+      </c>
       <c r="F111" s="3" t="s">
         <v>17</v>
       </c>
@@ -8553,9 +9346,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>644</v>
@@ -8563,6 +9356,9 @@
       <c r="C112" s="3" t="s">
         <v>645</v>
       </c>
+      <c r="D112" s="3" t="s">
+        <v>1473</v>
+      </c>
       <c r="F112" s="3" t="s">
         <v>17</v>
       </c>
@@ -8585,9 +9381,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>647</v>
@@ -8595,11 +9391,17 @@
       <c r="C113" s="3" t="s">
         <v>648</v>
       </c>
+      <c r="D113" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>1475</v>
+      </c>
       <c r="F113" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H113" t="s">
         <v>175</v>
@@ -8619,7 +9421,7 @@
     </row>
     <row r="114" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>209</v>
@@ -8655,9 +9457,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>650</v>
@@ -8665,6 +9467,9 @@
       <c r="C115" s="3" t="s">
         <v>651</v>
       </c>
+      <c r="D115" s="3" t="s">
+        <v>1476</v>
+      </c>
       <c r="F115" s="3" t="s">
         <v>17</v>
       </c>
@@ -8687,9 +9492,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>653</v>
@@ -8697,11 +9502,14 @@
       <c r="C116" s="3" t="s">
         <v>654</v>
       </c>
+      <c r="D116" s="3" t="s">
+        <v>1477</v>
+      </c>
       <c r="F116" s="3" t="s">
         <v>655</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H116" t="s">
         <v>175</v>
@@ -8719,9 +9527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>657</v>
@@ -8729,11 +9537,14 @@
       <c r="C117" s="3" t="s">
         <v>658</v>
       </c>
+      <c r="D117" s="3" t="s">
+        <v>1478</v>
+      </c>
       <c r="F117" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H117" t="s">
         <v>175</v>
@@ -8751,9 +9562,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>660</v>
@@ -8761,11 +9572,14 @@
       <c r="C118" s="3" t="s">
         <v>661</v>
       </c>
+      <c r="D118" s="3" t="s">
+        <v>1479</v>
+      </c>
       <c r="F118" s="3" t="s">
         <v>445</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H118" t="s">
         <v>175</v>
@@ -8783,9 +9597,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>663</v>
@@ -8793,6 +9607,9 @@
       <c r="C119" s="3" t="s">
         <v>664</v>
       </c>
+      <c r="D119" s="3" t="s">
+        <v>1480</v>
+      </c>
       <c r="F119" s="3" t="s">
         <v>17</v>
       </c>
@@ -8815,9 +9632,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1021</v>
@@ -8825,6 +9642,12 @@
       <c r="C120" s="3" t="s">
         <v>1022</v>
       </c>
+      <c r="D120" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>1482</v>
+      </c>
       <c r="F120" s="3" t="s">
         <v>1023</v>
       </c>
@@ -8844,9 +9667,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>666</v>
@@ -8854,6 +9677,9 @@
       <c r="C121" s="3" t="s">
         <v>667</v>
       </c>
+      <c r="D121" s="3" t="s">
+        <v>1483</v>
+      </c>
       <c r="F121" s="3" t="s">
         <v>17</v>
       </c>
@@ -8878,7 +9704,7 @@
     </row>
     <row r="122" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>269</v>
@@ -8916,7 +9742,7 @@
     </row>
     <row r="123" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>272</v>
@@ -8952,9 +9778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>669</v>
@@ -8962,6 +9788,12 @@
       <c r="C124" s="3" t="s">
         <v>670</v>
       </c>
+      <c r="D124" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>1485</v>
+      </c>
       <c r="F124" s="3" t="s">
         <v>12</v>
       </c>
@@ -8984,9 +9816,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>672</v>
@@ -8994,6 +9826,12 @@
       <c r="C125" s="3" t="s">
         <v>673</v>
       </c>
+      <c r="D125" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>1487</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>20</v>
       </c>
@@ -9018,7 +9856,7 @@
     </row>
     <row r="126" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>211</v>
@@ -9056,7 +9894,7 @@
     </row>
     <row r="127" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>277</v>
@@ -9094,7 +9932,7 @@
     </row>
     <row r="128" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>213</v>
@@ -9132,7 +9970,7 @@
     </row>
     <row r="129" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>214</v>
@@ -9168,9 +10006,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>675</v>
@@ -9178,6 +10016,9 @@
       <c r="C130" s="3" t="s">
         <v>676</v>
       </c>
+      <c r="D130" s="3" t="s">
+        <v>1488</v>
+      </c>
       <c r="F130" s="3" t="s">
         <v>17</v>
       </c>
@@ -9202,7 +10043,7 @@
     </row>
     <row r="131" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>281</v>
@@ -9234,7 +10075,7 @@
     </row>
     <row r="132" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>216</v>
@@ -9272,7 +10113,7 @@
     </row>
     <row r="133" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>43</v>
@@ -9310,7 +10151,7 @@
     </row>
     <row r="134" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>219</v>
@@ -9343,9 +10184,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>678</v>
@@ -9353,6 +10194,12 @@
       <c r="C135" s="3" t="s">
         <v>679</v>
       </c>
+      <c r="D135" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1490</v>
+      </c>
       <c r="F135" s="3" t="s">
         <v>10</v>
       </c>
@@ -9375,9 +10222,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>681</v>
@@ -9385,6 +10232,12 @@
       <c r="C136" s="3" t="s">
         <v>682</v>
       </c>
+      <c r="D136" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>1492</v>
+      </c>
       <c r="F136" s="3" t="s">
         <v>20</v>
       </c>
@@ -9407,9 +10260,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>684</v>
@@ -9417,6 +10270,12 @@
       <c r="C137" s="3" t="s">
         <v>685</v>
       </c>
+      <c r="D137" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>1494</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>629</v>
       </c>
@@ -9441,7 +10300,7 @@
     </row>
     <row r="138" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>220</v>
@@ -9477,9 +10336,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>687</v>
@@ -9487,6 +10346,9 @@
       <c r="C139" s="3" t="s">
         <v>688</v>
       </c>
+      <c r="D139" s="3" t="s">
+        <v>1495</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>17</v>
       </c>
@@ -9509,9 +10371,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>690</v>
@@ -9519,6 +10381,9 @@
       <c r="C140" s="3" t="s">
         <v>691</v>
       </c>
+      <c r="D140" s="3" t="s">
+        <v>1496</v>
+      </c>
       <c r="F140" s="3" t="s">
         <v>17</v>
       </c>
@@ -9541,9 +10406,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>693</v>
@@ -9551,6 +10416,12 @@
       <c r="C141" s="3" t="s">
         <v>694</v>
       </c>
+      <c r="D141" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>1498</v>
+      </c>
       <c r="F141" s="3" t="s">
         <v>7</v>
       </c>
@@ -9573,9 +10444,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>696</v>
@@ -9583,6 +10454,9 @@
       <c r="C142" s="3" t="s">
         <v>697</v>
       </c>
+      <c r="D142" s="3" t="s">
+        <v>1499</v>
+      </c>
       <c r="F142" s="3" t="s">
         <v>17</v>
       </c>
@@ -9607,7 +10481,7 @@
     </row>
     <row r="143" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>221</v>
@@ -9643,9 +10517,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>699</v>
@@ -9653,6 +10527,9 @@
       <c r="C144" s="3" t="s">
         <v>700</v>
       </c>
+      <c r="D144" s="3" t="s">
+        <v>1500</v>
+      </c>
       <c r="F144" s="3" t="s">
         <v>17</v>
       </c>
@@ -9675,9 +10552,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1025</v>
@@ -9685,6 +10562,12 @@
       <c r="C145" s="3" t="s">
         <v>1026</v>
       </c>
+      <c r="D145" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>1502</v>
+      </c>
       <c r="F145" s="3" t="s">
         <v>1027</v>
       </c>
@@ -9707,9 +10590,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>702</v>
@@ -9717,6 +10600,9 @@
       <c r="C146" s="3" t="s">
         <v>703</v>
       </c>
+      <c r="D146" s="3" t="s">
+        <v>1503</v>
+      </c>
       <c r="F146" s="3" t="s">
         <v>17</v>
       </c>
@@ -9739,9 +10625,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>705</v>
@@ -9749,6 +10635,12 @@
       <c r="C147" s="3" t="s">
         <v>706</v>
       </c>
+      <c r="D147" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>1505</v>
+      </c>
       <c r="F147" s="3" t="s">
         <v>7</v>
       </c>
@@ -9771,9 +10663,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="323" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>708</v>
@@ -9781,6 +10673,12 @@
       <c r="C148" s="3" t="s">
         <v>709</v>
       </c>
+      <c r="D148" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>1507</v>
+      </c>
       <c r="F148" s="3" t="s">
         <v>20</v>
       </c>
@@ -9805,7 +10703,7 @@
     </row>
     <row r="149" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>223</v>
@@ -9840,7 +10738,7 @@
     </row>
     <row r="150" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>225</v>
@@ -9878,7 +10776,7 @@
     </row>
     <row r="151" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>285</v>
@@ -9913,7 +10811,7 @@
     </row>
     <row r="152" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>289</v>
@@ -9946,9 +10844,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>711</v>
@@ -9956,6 +10854,12 @@
       <c r="C153" s="3" t="s">
         <v>712</v>
       </c>
+      <c r="D153" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>1509</v>
+      </c>
       <c r="F153" s="3" t="s">
         <v>12</v>
       </c>
@@ -9978,9 +10882,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>714</v>
@@ -9988,6 +10892,9 @@
       <c r="C154" s="3" t="s">
         <v>715</v>
       </c>
+      <c r="D154" s="3" t="s">
+        <v>1510</v>
+      </c>
       <c r="F154" s="3" t="s">
         <v>17</v>
       </c>
@@ -10012,7 +10919,7 @@
     </row>
     <row r="155" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>227</v>
@@ -10020,7 +10927,7 @@
       <c r="C155" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E155" s="7" t="s">
@@ -10048,9 +10955,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>717</v>
@@ -10058,6 +10965,12 @@
       <c r="C156" s="3" t="s">
         <v>718</v>
       </c>
+      <c r="D156" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>1512</v>
+      </c>
       <c r="F156" s="3" t="s">
         <v>12</v>
       </c>
@@ -10080,9 +10993,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>720</v>
@@ -10090,6 +11003,9 @@
       <c r="C157" s="3" t="s">
         <v>721</v>
       </c>
+      <c r="D157" s="3" t="s">
+        <v>1513</v>
+      </c>
       <c r="F157" s="3" t="s">
         <v>17</v>
       </c>
@@ -10114,7 +11030,7 @@
     </row>
     <row r="158" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>293</v>
@@ -10152,7 +11068,7 @@
     </row>
     <row r="159" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>297</v>
@@ -10185,9 +11101,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>723</v>
@@ -10195,6 +11111,9 @@
       <c r="C160" s="3" t="s">
         <v>724</v>
       </c>
+      <c r="D160" s="3" t="s">
+        <v>1514</v>
+      </c>
       <c r="F160" s="3" t="s">
         <v>17</v>
       </c>
@@ -10217,9 +11136,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>726</v>
@@ -10227,6 +11146,9 @@
       <c r="C161" s="3" t="s">
         <v>727</v>
       </c>
+      <c r="D161" s="3" t="s">
+        <v>1515</v>
+      </c>
       <c r="F161" s="3" t="s">
         <v>17</v>
       </c>
@@ -10251,7 +11173,7 @@
     </row>
     <row r="162" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>301</v>
@@ -10287,9 +11209,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1032</v>
@@ -10297,6 +11219,12 @@
       <c r="C163" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="D163" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>1517</v>
+      </c>
       <c r="F163" s="3" t="s">
         <v>305</v>
       </c>
@@ -10319,24 +11247,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>1034</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>1035</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>258</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J164" t="s">
         <v>4</v>
@@ -10348,9 +11279,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>729</v>
@@ -10358,6 +11289,12 @@
       <c r="C165" s="3" t="s">
         <v>730</v>
       </c>
+      <c r="D165" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>1521</v>
+      </c>
       <c r="F165" s="3" t="s">
         <v>20</v>
       </c>
@@ -10380,9 +11317,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>732</v>
@@ -10390,6 +11327,9 @@
       <c r="C166" s="3" t="s">
         <v>733</v>
       </c>
+      <c r="D166" s="3" t="s">
+        <v>1522</v>
+      </c>
       <c r="F166" s="3" t="s">
         <v>17</v>
       </c>
@@ -10412,9 +11352,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>735</v>
@@ -10422,6 +11362,9 @@
       <c r="C167" s="3" t="s">
         <v>736</v>
       </c>
+      <c r="D167" s="3" t="s">
+        <v>1523</v>
+      </c>
       <c r="F167" s="3" t="s">
         <v>17</v>
       </c>
@@ -10446,7 +11389,7 @@
     </row>
     <row r="168" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>229</v>
@@ -10482,9 +11425,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>739</v>
@@ -10492,11 +11435,14 @@
       <c r="C169" s="3" t="s">
         <v>740</v>
       </c>
+      <c r="D169" s="3" t="s">
+        <v>1524</v>
+      </c>
       <c r="F169" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H169" t="s">
         <v>175</v>
@@ -10514,9 +11460,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>742</v>
@@ -10524,6 +11470,9 @@
       <c r="C170" s="3" t="s">
         <v>743</v>
       </c>
+      <c r="D170" s="3" t="s">
+        <v>1525</v>
+      </c>
       <c r="F170" s="3" t="s">
         <v>17</v>
       </c>
@@ -10546,9 +11495,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>745</v>
@@ -10556,6 +11505,9 @@
       <c r="C171" s="3" t="s">
         <v>746</v>
       </c>
+      <c r="D171" s="3" t="s">
+        <v>1526</v>
+      </c>
       <c r="F171" s="3" t="s">
         <v>17</v>
       </c>
@@ -10578,9 +11530,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>748</v>
@@ -10588,6 +11540,9 @@
       <c r="C172" s="3" t="s">
         <v>749</v>
       </c>
+      <c r="D172" s="3" t="s">
+        <v>1527</v>
+      </c>
       <c r="F172" s="3" t="s">
         <v>17</v>
       </c>
@@ -10610,9 +11565,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>751</v>
@@ -10620,6 +11575,9 @@
       <c r="C173" s="3" t="s">
         <v>752</v>
       </c>
+      <c r="D173" s="3" t="s">
+        <v>1528</v>
+      </c>
       <c r="F173" s="3" t="s">
         <v>17</v>
       </c>
@@ -10644,7 +11602,7 @@
     </row>
     <row r="174" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>230</v>
@@ -10682,7 +11640,7 @@
     </row>
     <row r="175" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>232</v>
@@ -10718,9 +11676,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>755</v>
@@ -10728,6 +11686,9 @@
       <c r="C176" s="3" t="s">
         <v>756</v>
       </c>
+      <c r="D176" s="3" t="s">
+        <v>1529</v>
+      </c>
       <c r="F176" s="3" t="s">
         <v>17</v>
       </c>
@@ -10750,9 +11711,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>758</v>
@@ -10760,6 +11721,12 @@
       <c r="C177" s="3" t="s">
         <v>759</v>
       </c>
+      <c r="D177" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>1531</v>
+      </c>
       <c r="F177" s="3" t="s">
         <v>7</v>
       </c>
@@ -10782,9 +11749,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>761</v>
@@ -10792,6 +11759,9 @@
       <c r="C178" s="3" t="s">
         <v>762</v>
       </c>
+      <c r="D178" s="3" t="s">
+        <v>1532</v>
+      </c>
       <c r="F178" s="3" t="s">
         <v>17</v>
       </c>
@@ -10814,9 +11784,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>764</v>
@@ -10824,6 +11794,12 @@
       <c r="C179" s="3" t="s">
         <v>765</v>
       </c>
+      <c r="D179" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>1534</v>
+      </c>
       <c r="F179" s="3" t="s">
         <v>15</v>
       </c>
@@ -10846,9 +11822,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>767</v>
@@ -10856,6 +11832,9 @@
       <c r="C180" s="3" t="s">
         <v>768</v>
       </c>
+      <c r="D180" s="3" t="s">
+        <v>1535</v>
+      </c>
       <c r="F180" s="3" t="s">
         <v>17</v>
       </c>
@@ -10878,15 +11857,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>1038</v>
+      <c r="D181" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>1537</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>295</v>
@@ -10898,7 +11883,7 @@
         <v>3</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J181" t="s">
         <v>9</v>
@@ -10910,9 +11895,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>773</v>
@@ -10920,6 +11905,9 @@
       <c r="C182" s="3" t="s">
         <v>774</v>
       </c>
+      <c r="D182" s="3" t="s">
+        <v>1538</v>
+      </c>
       <c r="F182" s="3" t="s">
         <v>17</v>
       </c>
@@ -10942,9 +11930,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>770</v>
@@ -10952,6 +11940,9 @@
       <c r="C183" s="3" t="s">
         <v>771</v>
       </c>
+      <c r="D183" s="3" t="s">
+        <v>1539</v>
+      </c>
       <c r="F183" s="3" t="s">
         <v>17</v>
       </c>
@@ -10974,9 +11965,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>776</v>
@@ -10984,6 +11975,9 @@
       <c r="C184" s="3" t="s">
         <v>777</v>
       </c>
+      <c r="D184" s="3" t="s">
+        <v>1540</v>
+      </c>
       <c r="F184" s="3" t="s">
         <v>17</v>
       </c>
@@ -11006,9 +12000,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>779</v>
@@ -11016,6 +12010,9 @@
       <c r="C185" s="3" t="s">
         <v>780</v>
       </c>
+      <c r="D185" s="3" t="s">
+        <v>1541</v>
+      </c>
       <c r="F185" s="3" t="s">
         <v>17</v>
       </c>
@@ -11038,9 +12035,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>782</v>
@@ -11048,6 +12045,9 @@
       <c r="C186" s="3" t="s">
         <v>783</v>
       </c>
+      <c r="D186" s="3" t="s">
+        <v>1542</v>
+      </c>
       <c r="F186" s="3" t="s">
         <v>17</v>
       </c>
@@ -11072,13 +12072,13 @@
     </row>
     <row r="187" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>351</v>
@@ -11102,9 +12102,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>785</v>
@@ -11112,6 +12112,9 @@
       <c r="C188" s="3" t="s">
         <v>786</v>
       </c>
+      <c r="D188" s="3" t="s">
+        <v>1543</v>
+      </c>
       <c r="F188" s="3" t="s">
         <v>17</v>
       </c>
@@ -11134,9 +12137,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>788</v>
@@ -11144,6 +12147,9 @@
       <c r="C189" s="3" t="s">
         <v>789</v>
       </c>
+      <c r="D189" s="3" t="s">
+        <v>1544</v>
+      </c>
       <c r="F189" s="3" t="s">
         <v>17</v>
       </c>
@@ -11168,7 +12174,7 @@
     </row>
     <row r="190" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>55</v>
@@ -11204,9 +12210,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>791</v>
@@ -11214,6 +12220,9 @@
       <c r="C191" s="3" t="s">
         <v>792</v>
       </c>
+      <c r="D191" s="3" t="s">
+        <v>1545</v>
+      </c>
       <c r="F191" s="3" t="s">
         <v>17</v>
       </c>
@@ -11236,9 +12245,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>794</v>
@@ -11246,6 +12255,12 @@
       <c r="C192" s="3" t="s">
         <v>795</v>
       </c>
+      <c r="D192" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>1547</v>
+      </c>
       <c r="F192" s="3" t="s">
         <v>12</v>
       </c>
@@ -11268,9 +12283,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>797</v>
@@ -11278,6 +12293,9 @@
       <c r="C193" s="3" t="s">
         <v>798</v>
       </c>
+      <c r="D193" s="3" t="s">
+        <v>1548</v>
+      </c>
       <c r="F193" s="3" t="s">
         <v>17</v>
       </c>
@@ -11300,9 +12318,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>800</v>
@@ -11310,11 +12328,14 @@
       <c r="C194" s="3" t="s">
         <v>801</v>
       </c>
+      <c r="D194" s="3" t="s">
+        <v>1549</v>
+      </c>
       <c r="F194" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H194" t="s">
         <v>175</v>
@@ -11332,9 +12353,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>803</v>
@@ -11342,6 +12363,12 @@
       <c r="C195" s="3" t="s">
         <v>804</v>
       </c>
+      <c r="D195" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>1551</v>
+      </c>
       <c r="F195" s="3" t="s">
         <v>12</v>
       </c>
@@ -11364,9 +12391,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>806</v>
@@ -11374,6 +12401,12 @@
       <c r="C196" s="3" t="s">
         <v>807</v>
       </c>
+      <c r="D196" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>1553</v>
+      </c>
       <c r="F196" s="3" t="s">
         <v>12</v>
       </c>
@@ -11396,9 +12429,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>809</v>
@@ -11406,6 +12439,12 @@
       <c r="C197" s="3" t="s">
         <v>810</v>
       </c>
+      <c r="D197" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>1555</v>
+      </c>
       <c r="F197" s="3" t="s">
         <v>10</v>
       </c>
@@ -11428,9 +12467,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>812</v>
@@ -11438,6 +12477,12 @@
       <c r="C198" s="3" t="s">
         <v>813</v>
       </c>
+      <c r="D198" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>1557</v>
+      </c>
       <c r="F198" s="3" t="s">
         <v>7</v>
       </c>
@@ -11460,18 +12505,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>303</v>
@@ -11480,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J199" t="s">
         <v>9</v>
@@ -11494,7 +12542,7 @@
     </row>
     <row r="200" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>234</v>
@@ -11532,7 +12580,7 @@
     </row>
     <row r="201" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>309</v>
@@ -11567,7 +12615,7 @@
     </row>
     <row r="202" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>58</v>
@@ -11603,9 +12651,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>815</v>
@@ -11613,6 +12661,9 @@
       <c r="C203" s="3" t="s">
         <v>816</v>
       </c>
+      <c r="D203" s="3" t="s">
+        <v>1559</v>
+      </c>
       <c r="F203" s="3" t="s">
         <v>17</v>
       </c>
@@ -11635,9 +12686,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>818</v>
@@ -11645,6 +12696,12 @@
       <c r="C204" s="3" t="s">
         <v>819</v>
       </c>
+      <c r="D204" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>1561</v>
+      </c>
       <c r="F204" s="3" t="s">
         <v>12</v>
       </c>
@@ -11669,7 +12726,7 @@
     </row>
     <row r="205" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>237</v>
@@ -11702,9 +12759,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>822</v>
@@ -11712,6 +12769,9 @@
       <c r="C206" s="3" t="s">
         <v>823</v>
       </c>
+      <c r="D206" s="3" t="s">
+        <v>1562</v>
+      </c>
       <c r="F206" s="3" t="s">
         <v>17</v>
       </c>
@@ -11734,9 +12794,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>825</v>
@@ -11744,6 +12804,9 @@
       <c r="C207" s="3" t="s">
         <v>826</v>
       </c>
+      <c r="D207" s="3" t="s">
+        <v>1563</v>
+      </c>
       <c r="F207" s="3" t="s">
         <v>17</v>
       </c>
@@ -11766,9 +12829,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>828</v>
@@ -11776,6 +12839,9 @@
       <c r="C208" s="3" t="s">
         <v>829</v>
       </c>
+      <c r="D208" s="3" t="s">
+        <v>1564</v>
+      </c>
       <c r="F208" s="3" t="s">
         <v>17</v>
       </c>
@@ -11798,15 +12864,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>828</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1564</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>17</v>
@@ -11830,9 +12899,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>831</v>
@@ -11840,6 +12909,12 @@
       <c r="C210" s="3" t="s">
         <v>832</v>
       </c>
+      <c r="D210" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>1566</v>
+      </c>
       <c r="F210" s="3" t="s">
         <v>12</v>
       </c>
@@ -11864,7 +12939,7 @@
     </row>
     <row r="211" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>62</v>
@@ -11900,9 +12975,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>834</v>
@@ -11910,6 +12985,9 @@
       <c r="C212" s="3" t="s">
         <v>835</v>
       </c>
+      <c r="D212" s="3" t="s">
+        <v>1567</v>
+      </c>
       <c r="F212" s="3" t="s">
         <v>17</v>
       </c>
@@ -11932,9 +13010,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>837</v>
@@ -11942,6 +13020,12 @@
       <c r="C213" s="3" t="s">
         <v>838</v>
       </c>
+      <c r="D213" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>1569</v>
+      </c>
       <c r="F213" s="3" t="s">
         <v>12</v>
       </c>
@@ -11964,9 +13048,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>840</v>
@@ -11974,6 +13058,9 @@
       <c r="C214" s="3" t="s">
         <v>841</v>
       </c>
+      <c r="D214" s="3" t="s">
+        <v>1570</v>
+      </c>
       <c r="F214" s="3" t="s">
         <v>30</v>
       </c>
@@ -11996,9 +13083,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>843</v>
@@ -12006,6 +13093,12 @@
       <c r="C215" s="3" t="s">
         <v>844</v>
       </c>
+      <c r="D215" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>1572</v>
+      </c>
       <c r="F215" s="3" t="s">
         <v>12</v>
       </c>
@@ -12028,9 +13121,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>846</v>
@@ -12038,6 +13131,9 @@
       <c r="C216" s="3" t="s">
         <v>847</v>
       </c>
+      <c r="D216" s="3" t="s">
+        <v>1573</v>
+      </c>
       <c r="F216" s="3" t="s">
         <v>17</v>
       </c>
@@ -12060,9 +13156,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>849</v>
@@ -12070,6 +13166,9 @@
       <c r="C217" s="3" t="s">
         <v>850</v>
       </c>
+      <c r="D217" s="3" t="s">
+        <v>1574</v>
+      </c>
       <c r="F217" s="3" t="s">
         <v>17</v>
       </c>
@@ -12092,9 +13191,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>852</v>
@@ -12102,6 +13201,9 @@
       <c r="C218" s="3" t="s">
         <v>853</v>
       </c>
+      <c r="D218" s="3" t="s">
+        <v>1575</v>
+      </c>
       <c r="F218" s="3" t="s">
         <v>17</v>
       </c>
@@ -12124,9 +13226,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>855</v>
@@ -12134,6 +13236,12 @@
       <c r="C219" s="3" t="s">
         <v>856</v>
       </c>
+      <c r="D219" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>1577</v>
+      </c>
       <c r="F219" s="3" t="s">
         <v>20</v>
       </c>
@@ -12158,7 +13266,7 @@
     </row>
     <row r="220" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>240</v>
@@ -12194,9 +13302,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>858</v>
@@ -12204,6 +13312,9 @@
       <c r="C221" s="3" t="s">
         <v>859</v>
       </c>
+      <c r="D221" s="3" t="s">
+        <v>1578</v>
+      </c>
       <c r="F221" s="3" t="s">
         <v>17</v>
       </c>
@@ -12226,9 +13337,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>861</v>
@@ -12236,6 +13347,9 @@
       <c r="C222" s="3" t="s">
         <v>862</v>
       </c>
+      <c r="D222" s="3" t="s">
+        <v>1579</v>
+      </c>
       <c r="F222" s="3" t="s">
         <v>17</v>
       </c>
@@ -12258,9 +13372,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>864</v>
@@ -12268,6 +13382,9 @@
       <c r="C223" s="3" t="s">
         <v>865</v>
       </c>
+      <c r="D223" s="3" t="s">
+        <v>1580</v>
+      </c>
       <c r="F223" s="3" t="s">
         <v>17</v>
       </c>
@@ -12292,7 +13409,7 @@
     </row>
     <row r="224" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>867</v>
@@ -12328,9 +13445,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>870</v>
@@ -12338,6 +13455,9 @@
       <c r="C225" s="3" t="s">
         <v>871</v>
       </c>
+      <c r="D225" s="3" t="s">
+        <v>1581</v>
+      </c>
       <c r="F225" s="3" t="s">
         <v>17</v>
       </c>
@@ -12360,9 +13480,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>873</v>
@@ -12370,6 +13490,9 @@
       <c r="C226" s="3" t="s">
         <v>874</v>
       </c>
+      <c r="D226" s="3" t="s">
+        <v>1582</v>
+      </c>
       <c r="F226" s="3" t="s">
         <v>17</v>
       </c>
@@ -12392,9 +13515,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>876</v>
@@ -12402,6 +13525,9 @@
       <c r="C227" s="3" t="s">
         <v>877</v>
       </c>
+      <c r="D227" s="3" t="s">
+        <v>1583</v>
+      </c>
       <c r="F227" s="3" t="s">
         <v>17</v>
       </c>
@@ -12424,9 +13550,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>242</v>
@@ -12434,6 +13560,12 @@
       <c r="C228" s="3" t="s">
         <v>879</v>
       </c>
+      <c r="D228" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>1584</v>
+      </c>
       <c r="F228" s="3" t="s">
         <v>7</v>
       </c>
@@ -12456,9 +13588,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>880</v>
@@ -12466,6 +13598,9 @@
       <c r="C229" s="3" t="s">
         <v>881</v>
       </c>
+      <c r="D229" s="3" t="s">
+        <v>1586</v>
+      </c>
       <c r="F229" s="3" t="s">
         <v>17</v>
       </c>
@@ -12488,9 +13623,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="238" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>243</v>
@@ -12526,9 +13661,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>883</v>
@@ -12536,6 +13671,9 @@
       <c r="C231" s="3" t="s">
         <v>884</v>
       </c>
+      <c r="D231" s="3" t="s">
+        <v>1587</v>
+      </c>
       <c r="F231" s="3" t="s">
         <v>17</v>
       </c>
@@ -12558,9 +13696,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>886</v>
@@ -12568,6 +13706,12 @@
       <c r="C232" s="3" t="s">
         <v>887</v>
       </c>
+      <c r="D232" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>1588</v>
+      </c>
       <c r="F232" s="3" t="s">
         <v>17</v>
       </c>
@@ -12590,9 +13734,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>889</v>
@@ -12600,6 +13744,9 @@
       <c r="C233" s="3" t="s">
         <v>890</v>
       </c>
+      <c r="D233" s="3" t="s">
+        <v>1590</v>
+      </c>
       <c r="F233" s="3" t="s">
         <v>17</v>
       </c>
@@ -12622,9 +13769,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>892</v>
@@ -12632,6 +13779,9 @@
       <c r="C234" s="3" t="s">
         <v>893</v>
       </c>
+      <c r="D234" s="3" t="s">
+        <v>1591</v>
+      </c>
       <c r="F234" s="3" t="s">
         <v>17</v>
       </c>
@@ -12654,9 +13804,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>895</v>
@@ -12664,6 +13814,9 @@
       <c r="C235" s="3" t="s">
         <v>896</v>
       </c>
+      <c r="D235" s="3" t="s">
+        <v>1592</v>
+      </c>
       <c r="F235" s="3" t="s">
         <v>17</v>
       </c>
@@ -12686,9 +13839,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>898</v>
@@ -12696,6 +13849,9 @@
       <c r="C236" s="3" t="s">
         <v>899</v>
       </c>
+      <c r="D236" s="3" t="s">
+        <v>1594</v>
+      </c>
       <c r="F236" s="3" t="s">
         <v>17</v>
       </c>
@@ -12718,9 +13874,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>901</v>
@@ -12728,11 +13884,14 @@
       <c r="C237" s="3" t="s">
         <v>902</v>
       </c>
+      <c r="D237" s="3" t="s">
+        <v>1593</v>
+      </c>
       <c r="F237" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H237" t="s">
         <v>175</v>
@@ -12752,7 +13911,7 @@
     </row>
     <row r="238" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>313</v>
@@ -12787,7 +13946,7 @@
     </row>
     <row r="239" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>313</v>
@@ -12822,7 +13981,7 @@
     </row>
     <row r="240" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>904</v>
@@ -12834,7 +13993,7 @@
         <v>429</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H240" t="s">
         <v>175</v>
@@ -12852,9 +14011,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="323" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>245</v>
@@ -12892,7 +14051,7 @@
     </row>
     <row r="242" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>908</v>
@@ -12924,7 +14083,7 @@
     </row>
     <row r="243" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>911</v>
@@ -12956,7 +14115,7 @@
     </row>
     <row r="244" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>316</v>
@@ -12994,7 +14153,7 @@
     </row>
     <row r="245" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>914</v>
@@ -13026,7 +14185,7 @@
     </row>
     <row r="246" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>917</v>
@@ -13058,7 +14217,7 @@
     </row>
     <row r="247" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>920</v>
@@ -13090,7 +14249,7 @@
     </row>
     <row r="248" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>920</v>
@@ -13122,7 +14281,7 @@
     </row>
     <row r="249" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>925</v>
@@ -13154,7 +14313,7 @@
     </row>
     <row r="250" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>246</v>
@@ -13192,7 +14351,7 @@
     </row>
     <row r="251" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>928</v>
@@ -13224,7 +14383,7 @@
     </row>
     <row r="252" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>931</v>
@@ -13256,13 +14415,13 @@
     </row>
     <row r="253" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>355</v>
@@ -13294,7 +14453,7 @@
     </row>
     <row r="254" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>934</v>
@@ -13326,7 +14485,7 @@
     </row>
     <row r="255" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>937</v>
@@ -13358,7 +14517,7 @@
     </row>
     <row r="256" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>940</v>
@@ -13390,7 +14549,7 @@
     </row>
     <row r="257" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>943</v>
@@ -13402,7 +14561,7 @@
         <v>445</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H257" t="s">
         <v>175</v>
@@ -13422,7 +14581,7 @@
     </row>
     <row r="258" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>946</v>
@@ -13454,7 +14613,7 @@
     </row>
     <row r="259" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>247</v>
@@ -13492,7 +14651,7 @@
     </row>
     <row r="260" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>248</v>
@@ -13530,7 +14689,7 @@
     </row>
     <row r="261" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>950</v>
@@ -13562,7 +14721,7 @@
     </row>
     <row r="262" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>953</v>
@@ -13594,7 +14753,7 @@
     </row>
     <row r="263" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>956</v>
@@ -13626,7 +14785,7 @@
     </row>
     <row r="264" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>959</v>
@@ -13658,13 +14817,13 @@
     </row>
     <row r="265" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>1047</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1048</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>295</v>
@@ -13676,7 +14835,7 @@
         <v>3</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J265" t="s">
         <v>9</v>
@@ -13690,13 +14849,13 @@
     </row>
     <row r="266" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>295</v>
@@ -13708,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J266" t="s">
         <v>9</v>
@@ -13722,10 +14881,10 @@
     </row>
     <row r="267" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>962</v>
@@ -13754,7 +14913,7 @@
     </row>
     <row r="268" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>964</v>
@@ -13766,7 +14925,7 @@
         <v>429</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H268" t="s">
         <v>175</v>
@@ -13786,7 +14945,7 @@
     </row>
     <row r="269" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>967</v>
@@ -13818,7 +14977,7 @@
     </row>
     <row r="270" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>970</v>
@@ -13850,22 +15009,22 @@
     </row>
     <row r="271" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>1053</v>
-      </c>
       <c r="F271" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G271" s="3" t="s">
         <v>258</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J271" t="s">
         <v>9</v>
@@ -13879,7 +15038,7 @@
     </row>
     <row r="272" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>973</v>
@@ -13911,7 +15070,7 @@
     </row>
     <row r="273" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>976</v>
@@ -13943,7 +15102,7 @@
     </row>
     <row r="274" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>979</v>
@@ -13975,7 +15134,7 @@
     </row>
     <row r="275" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>982</v>
@@ -14007,7 +15166,7 @@
     </row>
     <row r="276" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>985</v>
@@ -14039,7 +15198,7 @@
     </row>
     <row r="277" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>988</v>
@@ -14071,7 +15230,7 @@
     </row>
     <row r="278" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>251</v>
@@ -14106,13 +15265,13 @@
     </row>
     <row r="279" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>357</v>
@@ -14144,7 +15303,7 @@
     </row>
     <row r="280" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>992</v>
@@ -14176,7 +15335,7 @@
     </row>
     <row r="281" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>995</v>
@@ -14208,7 +15367,7 @@
     </row>
     <row r="282" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>998</v>
@@ -14240,19 +15399,19 @@
     </row>
     <row r="283" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="F283" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="F283" s="3" t="s">
-        <v>1058</v>
-      </c>
       <c r="G283" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J283" t="s">
         <v>9</v>
@@ -14266,7 +15425,7 @@
     </row>
     <row r="284" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>1001</v>
@@ -14298,7 +15457,7 @@
     </row>
     <row r="285" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>1004</v>
@@ -14330,7 +15489,7 @@
     </row>
     <row r="286" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>1007</v>
@@ -14362,7 +15521,7 @@
     </row>
     <row r="287" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>252</v>
@@ -14400,13 +15559,13 @@
     </row>
     <row r="288" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>359</v>
@@ -14438,7 +15597,7 @@
     </row>
     <row r="289" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>254</v>
@@ -14476,7 +15635,7 @@
     </row>
     <row r="290" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>256</v>
@@ -14514,7 +15673,7 @@
     </row>
     <row r="291" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>1010</v>
@@ -14546,7 +15705,7 @@
     </row>
     <row r="292" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>1013</v>
@@ -14576,9 +15735,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="388" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>328</v>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA48C4D-D1DC-2E46-8F9B-DD89C7DBF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4095CAE-E03D-7B42-8BAA-D95A95E8C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="3980" windowWidth="35700" windowHeight="27300" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1608">
   <si>
     <t>#</t>
   </si>
@@ -3200,9 +3200,6 @@
   </si>
   <si>
     <t>Bankruptcy Laws and Entrepreneur- Friendliness.</t>
-  </si>
-  <si>
-    <t>Academic entrepreneurship in South East Asia: An exploratory study of spin-offs in biotechnology from Hong Kong universities.</t>
   </si>
   <si>
     <t>Wang, Y. and Horta, H. (2025)</t>
@@ -4884,6 +4881,48 @@
   </si>
   <si>
     <t>We develop and examine a framework for the knowledge spillover theory of entrepreneurship in alliances. Our framework regards entrepreneurial opportunity as endogenous, and entrepreneurial firms as heterogeneous. The empirical findings show that partners’ knowledge protection, which is regarded as a knowledge filter, can increase knowledge spillovers in an alliance. Moreover, this relationship is contingent on the strength of a focal firm's entrepreneurial orientation and on alliance type (equity joint venture versus nonequity joint venture). Results also reveal that knowledge spillovers in an alliance enhance alliance performance more significantly than they enhance firm performance.</t>
+  </si>
+  <si>
+    <t>Using a study of the relationship between bureaucratic work environments and individual rates of entrepreneur ship, I revisit a fundamental premise of sociological approaches to entrepreneurship, namely, that the social context shapes the likelihood of entrepreneurial activity, above and beyond any effects of individual characteristics. Establishing such contextual effects empirically is complicated by the possibility that unobserved individual traits influence both the contexts in which people are observed and their likelihood of becoming entrepreneurs. This paper presents the first systematic study of the effects of bureaucracy on entrepreneurship that accounts for such unobserved sorting processes. Analyses of data on labor market attachments and transitions to entrepreneurship in Denmark between 1990 and 1997 show that people who work for large and old firms are less likely to become entrepreneurs, net of a host of observable individual characteristics. Moreover, there is strong evidence to suggest that this negative effect of bureaucracy does not spuriously reflect self-selection by nascent entrepreneurs into different types of firms. An important implication of this finding is that the structure of organizational populations affects the supply of nascent entrepreneurs, as well as the availability of entrepreneurial opportunities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic entrepreneurship can be described as simultaneous opportunity seeking and advantage seeking. Younger firms are generally more flexible and therefore enjoy “discovery advantages,” whereas established firms tend to be resource rich and more experienced and consequently enjoy “exploitation advantages.” The resulting evolution of the two important performance dimensions, “growth” and “profitability,” by firm age is not well understood. In this article we integrate several theoretical arguments concerning profit–growth relationships to develop a dynamic model of firm development, which suggests different development pathways for young firms. This leads to several unidirectional, competing hypotheses that we examine by studying the profitability-growth configurations of approximately 3,500 small firms and how these configurations evolve over time. We find that for both young and old firms a focus on achieving above-average profitability and then striving for growth is a more likely path toward achieving sustained above-average performance than is first pursuing strong growth in the hope of building profitability later. In line with our hypothesis we find that younger firms are over represented as “Stars” (high on both growth and profitability) and underrepresented as “Poor” (low on both growth and profitability). However, young firms in the “Star” category are also less likely than their older counterparts to maintain that position. Furthermore, our results indicate that young firms are overrepresented not only among “Stars,” but also among growth-orientated firms, regardless of the level of profitability. The findings strongly caution against the blind pursuit of growth for young firms, in favor of a thoughtful analysis of how both growth and profitability might be developed by firms. The results also question whether simultaneous high performance in terms of growth and profitability among young firms usually reflects a successful entrepreneurial strategy. The results can also be interpreted as luck on the part of a subgroup of young firms who indiscriminately pursue growth opportunities with varying profit prospects, and in many cases, the high growth–profit performance will be short lived. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given the increasing attention to traditionally less “rational” entrepreneurial behaviors, such as bricolage, we used grounded theory techniques to study 23 diverse entrepreneurs. From this, we developed a five-category typology of entrepreneurial behavior that includes art, craft, engineering, bricolage, and brokerage. Themes such as self-perceived identity, organization of space, integration of materials, sense of personal limits, and responsiveness to changing market conditions were observed along categorical lines. We discuss the significance of the typology and each category’s associations with venture longevity and financial performance for practitioners and for the study of entrepreneurship. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship is widely argued to be critical for alleviating extreme poverty. However, research on this topic is characterized by diverging perspectives regarding poverty alleviation and remains fragmented across various research domains. This review examines 77 leading academic journals over the period 1990 to 2017 and identifies over 200 articles on entrepreneurship and poverty alleviation. The analysis of these articles highlights three different underlying perspectives: poverty alleviation through entrepreneurship as remediation (actions that address immediate resource concerns), reform (actions leading to substantive institutional changes), and revolution (actions that change the underlying capitalist-based assumptions of business). The analysis of these articles leads to the development of extensive new insights and opportunities for future research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneurship, Poverty alleviation, Entrepreneurial process, Developing countries, Poverty </t>
+  </si>
+  <si>
+    <t>The critical role of entrepreneurial orientation (EO) in firm performance has been widely studied in the U.S. context. However, the examination of this key construct in emerging regions such as China has been very limited. In this article, we hypothesize that the relationship between EO and firm performance is best represented as curvilinear, as opposed to linear, in China. We use a two-study approach to test the link between EO and performance, as expressed in both perceptual and objective performance. Findings of both studies demonstrate an inverted U-shape relationship. Implications for future research on EO are discussed.</t>
+  </si>
+  <si>
+    <t>This case examines technological entrepreneurship and human capital in a remote village in southeast India. Sethu Sethunarayanan, director of the nongovernment organization (NGO) Center for Development of Disadvantaged People (CDDP), uses technology to improve the lives of impoverished people, focusing in particular on the indigenous Irula tribe. The Irulas’ rat catching activities constitute a primary source of income and food. However, the Irulas are often unsuccessful in catching rats and suffer many health problems from mouth-blowing a clay pot filled with smoke. Sethu developed a “better rat trap,” improving success rates and income and eliminating health hazards. In parallel, CDDP established a factory and self-help, micro-credit collectives to enable other villagers to improve their socioeconomic condition. The case chronicles the project’s development, including opportunity recognition, and new technology development and implementation. An overview of the skills and experience of Sethu and the CDDP team, and the national, local, and community context is also provided.</t>
+  </si>
+  <si>
+    <t>This case follows Sethu Sethunarayanan, Director of the nonprofit Center for Development of Disadvantaged People, which is dedicated to the improvement of the Irula tribe in rural villages of southeast India. The Irulas specialize in catching rats, an activity which provides the bulk of their income and food. Following a routine visit to a local village, Sethu recognized an opportunity for a “better rat trap” to aid the Irula rat catchers. With feedback from rat catchers, Sethu developed an innovative new trap. His innovation won the prestigious Global Development Marketplace award from the World Bank which provided the funding necessary to commercialize the new technology. The venture’s implementation involved site visits to identify beneficiaries, health checks and treatment, preparatory workshops, factory establishment, factory training, production, women’s micro-credit collectives, distribution, and project evaluation. The case focuses on the relationship between human capital and technological entrepreneurship, considering the knowledge and skills required to commercialize technology for the rural poor and the positive impact on this greatly disadvantaged population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is an increasing realization of the difficulties professionals in innovation-related jobs face in bridging the interface of technology and business. Further, the use of technology for business innovation increasingly involves technologies transferred across businesses or from universities to industry, either through licensing or engagement of entrepreneurial enterprises, requiring coordination of efforts by inventors, business, and legal professionals. Recent studies in technology entrepreneurship recommend integrated approaches to educating students to operate in this space. We discuss the benefits and challenges of integrated approaches to graduate education in technology entrepreneurship in the context of an NSF-sponsored program that teams science and engineering PhD students with law and MBA students. The curriculum focuses on the technical, legal, and business issues involved with moving fundamental research to the marketplace. We draw on program assessment data, which includes pre- and postsurveys and a control group. We find significant and positive effects of the program on student perceptions of the multidisciplinary capabilities needed to operate in a technological business environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When academic researchers participate in commercialization using for-profit firms, there is a potentially costly trade-off—their time and effort are diverted away from academic knowledge production. This is a form of brain drain on the not-for-profit research sector that may reduce knowledge accumulation and adversely impact long-run economic growth. In this paper, we examine the economic significance of the brain drain phenomenon using scientist-level panel data. We identify life scientists who start or join for-profit firms using information from the Small Business Innovation Research program and analyze the research performance of these scientists relative to a control group of randomly selected research peers. Combining our statistical results with data on the number of university spin-offs in the United States from 1994 to 2004, we find the academic brain drain has a nontrivial impact on knowledge production in the not-for-profit research sector. </t>
+  </si>
+  <si>
+    <t>academic entrepreneurship, Small Business Innovation Research (SBIR), National Institutes of Health (NIH), brain drain, research productivity, university mission</t>
+  </si>
+  <si>
+    <t>How does the temporal distance between the phases of evaluation and exploitation alter entrepreneurs’ opportunity evaluation? Building on construal level theory, we argue that the impact of an opportunity’s desirability and feasibility on evaluation and exploitation intentions varies systematically with temporal distance. We experimentally demonstrate stronger influences of desirability on evaluation when the exploitation phase is temporally distant rather than near, whereas feasibility more strongly affects evaluation when exploitation is near rather than distant. Using construal level theory, we explain empirical inconsistencies in previous research and demonstrate the usefulness of integrating the concept of temporal distance in entrepreneurship research and education.</t>
+  </si>
+  <si>
+    <t>Academic entrepreneurship in South East Asia: an exploratory study of spin-offs in biotechnology from Hong Kong universities.</t>
+  </si>
+  <si>
+    <t>This multicountry study empirically explores the institutional determinants of macro-level entrepreneurship. Findings suggest that a society’s normative, cultural-cognitive, and regulative institutions are related to entrepreneurial activity. Normative and cultural-cognitive institutions’ descriptive power in explaining entrepreneurial activity is higher than regulative institutions’ or per capita gross domestic product. This suggests that differences in values, beliefs, and abilities may play a greater role than purely economic considerations of opportunity and transaction costs. Specific attention is given to opportunity- and necessity-motivated entrepreneurship due to their relationship to economic development.</t>
   </si>
 </sst>
 </file>
@@ -5308,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1591E0BB-A549-4141-B94E-FC66BB4664AB}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="158" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="158" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,7 +5405,7 @@
     </row>
     <row r="2" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>379</v>
@@ -5375,7 +5414,7 @@
         <v>380</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -5401,7 +5440,7 @@
     </row>
     <row r="3" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>172</v>
@@ -5410,10 +5449,10 @@
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1352</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1353</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -5439,7 +5478,7 @@
     </row>
     <row r="4" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>176</v>
@@ -5448,10 +5487,10 @@
         <v>382</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>1366</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1367</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -5477,7 +5516,7 @@
     </row>
     <row r="5" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>383</v>
@@ -5486,10 +5525,10 @@
         <v>384</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1354</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1355</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>39</v>
@@ -5515,7 +5554,7 @@
     </row>
     <row r="6" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>386</v>
@@ -5524,7 +5563,7 @@
         <v>387</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
@@ -5550,7 +5589,7 @@
     </row>
     <row r="7" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>392</v>
@@ -5559,10 +5598,10 @@
         <v>393</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1357</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1358</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -5588,7 +5627,7 @@
     </row>
     <row r="8" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>178</v>
@@ -5626,7 +5665,7 @@
     </row>
     <row r="9" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>389</v>
@@ -5635,10 +5674,10 @@
         <v>390</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>1368</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1369</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -5664,7 +5703,7 @@
     </row>
     <row r="10" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>395</v>
@@ -5673,7 +5712,7 @@
         <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
@@ -5699,7 +5738,7 @@
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1016</v>
@@ -5731,7 +5770,7 @@
     </row>
     <row r="12" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>398</v>
@@ -5740,7 +5779,7 @@
         <v>399</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>17</v>
@@ -5766,7 +5805,7 @@
     </row>
     <row r="13" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>401</v>
@@ -5775,10 +5814,10 @@
         <v>402</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1372</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1373</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
@@ -5804,7 +5843,7 @@
     </row>
     <row r="14" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>404</v>
@@ -5813,13 +5852,13 @@
         <v>405</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H14" t="s">
         <v>175</v>
@@ -5839,7 +5878,7 @@
     </row>
     <row r="15" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>408</v>
@@ -5848,7 +5887,7 @@
         <v>409</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
@@ -5874,7 +5913,7 @@
     </row>
     <row r="16" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>411</v>
@@ -5883,10 +5922,10 @@
         <v>412</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1376</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1377</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -5912,7 +5951,7 @@
     </row>
     <row r="17" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>414</v>
@@ -5921,13 +5960,13 @@
         <v>415</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H17" t="s">
         <v>175</v>
@@ -5947,7 +5986,7 @@
     </row>
     <row r="18" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>418</v>
@@ -5956,10 +5995,10 @@
         <v>180</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1379</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1380</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -5985,7 +6024,7 @@
     </row>
     <row r="19" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>181</v>
@@ -5997,7 +6036,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
@@ -6023,7 +6062,7 @@
     </row>
     <row r="20" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>181</v>
@@ -6032,7 +6071,7 @@
         <v>182</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -6058,7 +6097,7 @@
     </row>
     <row r="21" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>421</v>
@@ -6067,10 +6106,10 @@
         <v>422</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1383</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -6096,7 +6135,7 @@
     </row>
     <row r="22" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>424</v>
@@ -6105,7 +6144,7 @@
         <v>425</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
@@ -6131,7 +6170,7 @@
     </row>
     <row r="23" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>427</v>
@@ -6140,13 +6179,13 @@
         <v>428</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H23" t="s">
         <v>175</v>
@@ -6166,7 +6205,7 @@
     </row>
     <row r="24" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>431</v>
@@ -6175,7 +6214,7 @@
         <v>432</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>17</v>
@@ -6201,7 +6240,7 @@
     </row>
     <row r="25" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>434</v>
@@ -6210,7 +6249,7 @@
         <v>435</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
@@ -6236,7 +6275,7 @@
     </row>
     <row r="26" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>437</v>
@@ -6245,13 +6284,13 @@
         <v>438</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H26" t="s">
         <v>175</v>
@@ -6271,7 +6310,7 @@
     </row>
     <row r="27" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>440</v>
@@ -6280,7 +6319,7 @@
         <v>441</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -6306,7 +6345,7 @@
     </row>
     <row r="28" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>443</v>
@@ -6315,13 +6354,13 @@
         <v>444</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>445</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H28" t="s">
         <v>175</v>
@@ -6341,7 +6380,7 @@
     </row>
     <row r="29" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>447</v>
@@ -6350,10 +6389,10 @@
         <v>448</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>1391</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1392</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>17</v>
@@ -6379,7 +6418,7 @@
     </row>
     <row r="30" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>183</v>
@@ -6417,7 +6456,7 @@
     </row>
     <row r="31" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>259</v>
@@ -6455,7 +6494,7 @@
     </row>
     <row r="32" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>450</v>
@@ -6464,10 +6503,10 @@
         <v>451</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>1393</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1394</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
@@ -6493,7 +6532,7 @@
     </row>
     <row r="33" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>453</v>
@@ -6502,16 +6541,16 @@
         <v>454</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>455</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H33" t="s">
         <v>175</v>
@@ -6531,7 +6570,7 @@
     </row>
     <row r="34" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>457</v>
@@ -6540,7 +6579,7 @@
         <v>458</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>17</v>
@@ -6566,7 +6605,7 @@
     </row>
     <row r="35" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>460</v>
@@ -6575,7 +6614,7 @@
         <v>461</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>7</v>
@@ -6601,7 +6640,7 @@
     </row>
     <row r="36" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>463</v>
@@ -6610,7 +6649,7 @@
         <v>464</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>17</v>
@@ -6636,7 +6675,7 @@
     </row>
     <row r="37" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>466</v>
@@ -6645,7 +6684,7 @@
         <v>467</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>17</v>
@@ -6671,7 +6710,7 @@
     </row>
     <row r="38" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>469</v>
@@ -6680,7 +6719,7 @@
         <v>470</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>17</v>
@@ -6706,7 +6745,7 @@
     </row>
     <row r="39" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>472</v>
@@ -6715,7 +6754,7 @@
         <v>473</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>17</v>
@@ -6741,7 +6780,7 @@
     </row>
     <row r="40" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>475</v>
@@ -6750,13 +6789,13 @@
         <v>476</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>406</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H40" t="s">
         <v>175</v>
@@ -6776,7 +6815,7 @@
     </row>
     <row r="41" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>478</v>
@@ -6785,10 +6824,10 @@
         <v>479</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>1404</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1405</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>7</v>
@@ -6814,7 +6853,7 @@
     </row>
     <row r="42" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>186</v>
@@ -6852,7 +6891,7 @@
     </row>
     <row r="43" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>481</v>
@@ -6861,7 +6900,7 @@
         <v>482</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -6887,7 +6926,7 @@
     </row>
     <row r="44" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>19</v>
@@ -6925,7 +6964,7 @@
     </row>
     <row r="45" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>263</v>
@@ -6954,7 +6993,7 @@
     </row>
     <row r="46" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>484</v>
@@ -6963,7 +7002,7 @@
         <v>485</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>17</v>
@@ -6989,7 +7028,7 @@
     </row>
     <row r="47" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>487</v>
@@ -6998,7 +7037,7 @@
         <v>488</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>17</v>
@@ -7024,7 +7063,7 @@
     </row>
     <row r="48" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>490</v>
@@ -7033,7 +7072,7 @@
         <v>491</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>60</v>
@@ -7059,7 +7098,7 @@
     </row>
     <row r="49" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>493</v>
@@ -7068,10 +7107,10 @@
         <v>494</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>1410</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>1411</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
@@ -7097,7 +7136,7 @@
     </row>
     <row r="50" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>496</v>
@@ -7106,10 +7145,10 @@
         <v>497</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>1412</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>1413</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
@@ -7135,7 +7174,7 @@
     </row>
     <row r="51" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>499</v>
@@ -7144,10 +7183,10 @@
         <v>500</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>1414</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>1415</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>20</v>
@@ -7173,7 +7212,7 @@
     </row>
     <row r="52" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>502</v>
@@ -7182,7 +7221,7 @@
         <v>503</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>17</v>
@@ -7208,7 +7247,7 @@
     </row>
     <row r="53" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>505</v>
@@ -7217,10 +7256,10 @@
         <v>506</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>1417</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1418</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
@@ -7246,7 +7285,7 @@
     </row>
     <row r="54" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>508</v>
@@ -7255,7 +7294,7 @@
         <v>509</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>17</v>
@@ -7281,7 +7320,7 @@
     </row>
     <row r="55" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>511</v>
@@ -7290,7 +7329,7 @@
         <v>512</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>17</v>
@@ -7316,7 +7355,7 @@
     </row>
     <row r="56" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>514</v>
@@ -7325,7 +7364,7 @@
         <v>515</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>17</v>
@@ -7351,7 +7390,7 @@
     </row>
     <row r="57" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>517</v>
@@ -7360,7 +7399,7 @@
         <v>518</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>17</v>
@@ -7386,7 +7425,7 @@
     </row>
     <row r="58" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -7424,7 +7463,7 @@
     </row>
     <row r="59" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>190</v>
@@ -7462,7 +7501,7 @@
     </row>
     <row r="60" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>520</v>
@@ -7471,10 +7510,10 @@
         <v>521</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>1424</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -7500,7 +7539,7 @@
     </row>
     <row r="61" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>523</v>
@@ -7509,7 +7548,7 @@
         <v>524</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>17</v>
@@ -7535,7 +7574,7 @@
     </row>
     <row r="62" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>526</v>
@@ -7544,13 +7583,13 @@
         <v>527</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H62" t="s">
         <v>175</v>
@@ -7570,7 +7609,7 @@
     </row>
     <row r="63" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>529</v>
@@ -7579,7 +7618,7 @@
         <v>530</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>17</v>
@@ -7605,7 +7644,7 @@
     </row>
     <row r="64" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>532</v>
@@ -7614,7 +7653,7 @@
         <v>533</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>17</v>
@@ -7640,7 +7679,7 @@
     </row>
     <row r="65" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>535</v>
@@ -7649,7 +7688,7 @@
         <v>536</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>17</v>
@@ -7675,7 +7714,7 @@
     </row>
     <row r="66" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>538</v>
@@ -7684,7 +7723,7 @@
         <v>539</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>17</v>
@@ -7710,7 +7749,7 @@
     </row>
     <row r="67" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>541</v>
@@ -7719,7 +7758,7 @@
         <v>542</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>17</v>
@@ -7745,7 +7784,7 @@
     </row>
     <row r="68" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>544</v>
@@ -7754,7 +7793,7 @@
         <v>545</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>17</v>
@@ -7780,7 +7819,7 @@
     </row>
     <row r="69" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>547</v>
@@ -7789,7 +7828,7 @@
         <v>548</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>17</v>
@@ -7815,7 +7854,7 @@
     </row>
     <row r="70" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>550</v>
@@ -7824,7 +7863,7 @@
         <v>551</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>17</v>
@@ -7850,7 +7889,7 @@
     </row>
     <row r="71" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>553</v>
@@ -7859,7 +7898,7 @@
         <v>554</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>17</v>
@@ -7885,7 +7924,7 @@
     </row>
     <row r="72" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>556</v>
@@ -7894,7 +7933,7 @@
         <v>557</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>17</v>
@@ -7920,7 +7959,7 @@
     </row>
     <row r="73" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>559</v>
@@ -7929,7 +7968,7 @@
         <v>560</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>17</v>
@@ -7955,7 +7994,7 @@
     </row>
     <row r="74" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>562</v>
@@ -7964,7 +8003,7 @@
         <v>563</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>17</v>
@@ -7990,7 +8029,7 @@
     </row>
     <row r="75" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>192</v>
@@ -8028,7 +8067,7 @@
     </row>
     <row r="76" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>566</v>
@@ -8037,7 +8076,7 @@
         <v>567</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>60</v>
@@ -8063,7 +8102,7 @@
     </row>
     <row r="77" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>193</v>
@@ -8101,7 +8140,7 @@
     </row>
     <row r="78" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>195</v>
@@ -8139,7 +8178,7 @@
     </row>
     <row r="79" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>196</v>
@@ -8177,7 +8216,7 @@
     </row>
     <row r="80" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>570</v>
@@ -8186,13 +8225,13 @@
         <v>571</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H80" t="s">
         <v>175</v>
@@ -8212,7 +8251,7 @@
     </row>
     <row r="81" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>197</v>
@@ -8250,7 +8289,7 @@
     </row>
     <row r="82" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>199</v>
@@ -8288,7 +8327,7 @@
     </row>
     <row r="83" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>573</v>
@@ -8297,10 +8336,10 @@
         <v>574</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>1441</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>1442</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
@@ -8326,7 +8365,7 @@
     </row>
     <row r="84" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>576</v>
@@ -8335,10 +8374,10 @@
         <v>577</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>1443</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>1444</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>12</v>
@@ -8364,7 +8403,7 @@
     </row>
     <row r="85" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>579</v>
@@ -8373,7 +8412,7 @@
         <v>580</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>17</v>
@@ -8399,7 +8438,7 @@
     </row>
     <row r="86" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>200</v>
@@ -8437,7 +8476,7 @@
     </row>
     <row r="87" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>582</v>
@@ -8446,7 +8485,7 @@
         <v>583</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>17</v>
@@ -8472,7 +8511,7 @@
     </row>
     <row r="88" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>585</v>
@@ -8481,10 +8520,10 @@
         <v>586</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>1447</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>1448</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>12</v>
@@ -8510,7 +8549,7 @@
     </row>
     <row r="89" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>588</v>
@@ -8519,7 +8558,7 @@
         <v>589</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>17</v>
@@ -8545,7 +8584,7 @@
     </row>
     <row r="90" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>31</v>
@@ -8583,7 +8622,7 @@
     </row>
     <row r="91" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>591</v>
@@ -8592,7 +8631,7 @@
         <v>592</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>17</v>
@@ -8618,7 +8657,7 @@
     </row>
     <row r="92" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>594</v>
@@ -8627,7 +8666,7 @@
         <v>595</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>17</v>
@@ -8653,7 +8692,7 @@
     </row>
     <row r="93" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>597</v>
@@ -8662,7 +8701,7 @@
         <v>598</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>17</v>
@@ -8688,7 +8727,7 @@
     </row>
     <row r="94" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>600</v>
@@ -8697,7 +8736,7 @@
         <v>601</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>17</v>
@@ -8723,7 +8762,7 @@
     </row>
     <row r="95" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>603</v>
@@ -8732,10 +8771,10 @@
         <v>604</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>1454</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>1455</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>13</v>
@@ -8761,7 +8800,7 @@
     </row>
     <row r="96" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>204</v>
@@ -8799,7 +8838,7 @@
     </row>
     <row r="97" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>606</v>
@@ -8808,7 +8847,7 @@
         <v>607</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>17</v>
@@ -8834,7 +8873,7 @@
     </row>
     <row r="98" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>33</v>
@@ -8872,7 +8911,7 @@
     </row>
     <row r="99" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>609</v>
@@ -8881,13 +8920,13 @@
         <v>610</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H99" t="s">
         <v>175</v>
@@ -8907,7 +8946,7 @@
     </row>
     <row r="100" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>612</v>
@@ -8916,10 +8955,10 @@
         <v>613</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>1458</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>1459</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
@@ -8945,7 +8984,7 @@
     </row>
     <row r="101" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>615</v>
@@ -8954,10 +8993,10 @@
         <v>616</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>7</v>
@@ -8983,7 +9022,7 @@
     </row>
     <row r="102" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>618</v>
@@ -8992,7 +9031,7 @@
         <v>619</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>17</v>
@@ -9018,7 +9057,7 @@
     </row>
     <row r="103" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>621</v>
@@ -9027,10 +9066,10 @@
         <v>622</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>1464</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
@@ -9056,7 +9095,7 @@
     </row>
     <row r="104" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>624</v>
@@ -9065,10 +9104,10 @@
         <v>625</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>1465</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>1466</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>12</v>
@@ -9094,7 +9133,7 @@
     </row>
     <row r="105" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>207</v>
@@ -9132,7 +9171,7 @@
     </row>
     <row r="106" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>627</v>
@@ -9141,10 +9180,10 @@
         <v>628</v>
       </c>
       <c r="D106" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>1467</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>1468</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>629</v>
@@ -9170,7 +9209,7 @@
     </row>
     <row r="107" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>631</v>
@@ -9179,7 +9218,7 @@
         <v>632</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>17</v>
@@ -9205,7 +9244,7 @@
     </row>
     <row r="108" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>634</v>
@@ -9214,7 +9253,7 @@
         <v>635</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>17</v>
@@ -9240,7 +9279,7 @@
     </row>
     <row r="109" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>36</v>
@@ -9278,7 +9317,7 @@
     </row>
     <row r="110" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>638</v>
@@ -9287,7 +9326,7 @@
         <v>639</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>17</v>
@@ -9313,7 +9352,7 @@
     </row>
     <row r="111" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>641</v>
@@ -9322,7 +9361,7 @@
         <v>642</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>17</v>
@@ -9348,7 +9387,7 @@
     </row>
     <row r="112" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>644</v>
@@ -9357,7 +9396,7 @@
         <v>645</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>17</v>
@@ -9383,7 +9422,7 @@
     </row>
     <row r="113" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>647</v>
@@ -9392,16 +9431,16 @@
         <v>648</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>1474</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>1475</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H113" t="s">
         <v>175</v>
@@ -9421,7 +9460,7 @@
     </row>
     <row r="114" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>209</v>
@@ -9459,7 +9498,7 @@
     </row>
     <row r="115" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>650</v>
@@ -9468,7 +9507,7 @@
         <v>651</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>17</v>
@@ -9494,7 +9533,7 @@
     </row>
     <row r="116" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>653</v>
@@ -9503,13 +9542,13 @@
         <v>654</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>655</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H116" t="s">
         <v>175</v>
@@ -9529,7 +9568,7 @@
     </row>
     <row r="117" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>657</v>
@@ -9538,13 +9577,13 @@
         <v>658</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H117" t="s">
         <v>175</v>
@@ -9564,7 +9603,7 @@
     </row>
     <row r="118" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>660</v>
@@ -9573,13 +9612,13 @@
         <v>661</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>445</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H118" t="s">
         <v>175</v>
@@ -9599,7 +9638,7 @@
     </row>
     <row r="119" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>663</v>
@@ -9608,7 +9647,7 @@
         <v>664</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>17</v>
@@ -9634,7 +9673,7 @@
     </row>
     <row r="120" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1021</v>
@@ -9643,10 +9682,10 @@
         <v>1022</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>1481</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>1482</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>1023</v>
@@ -9669,7 +9708,7 @@
     </row>
     <row r="121" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>666</v>
@@ -9678,7 +9717,7 @@
         <v>667</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>17</v>
@@ -9704,7 +9743,7 @@
     </row>
     <row r="122" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>269</v>
@@ -9742,7 +9781,7 @@
     </row>
     <row r="123" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>272</v>
@@ -9780,7 +9819,7 @@
     </row>
     <row r="124" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>669</v>
@@ -9789,10 +9828,10 @@
         <v>670</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>1484</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>1485</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>12</v>
@@ -9818,7 +9857,7 @@
     </row>
     <row r="125" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>672</v>
@@ -9827,10 +9866,10 @@
         <v>673</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>1486</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>1487</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>20</v>
@@ -9856,7 +9895,7 @@
     </row>
     <row r="126" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>211</v>
@@ -9894,7 +9933,7 @@
     </row>
     <row r="127" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>277</v>
@@ -9932,7 +9971,7 @@
     </row>
     <row r="128" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>213</v>
@@ -9970,7 +10009,7 @@
     </row>
     <row r="129" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>214</v>
@@ -10008,7 +10047,7 @@
     </row>
     <row r="130" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>675</v>
@@ -10017,7 +10056,7 @@
         <v>676</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>17</v>
@@ -10043,7 +10082,7 @@
     </row>
     <row r="131" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>281</v>
@@ -10075,7 +10114,7 @@
     </row>
     <row r="132" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>216</v>
@@ -10113,7 +10152,7 @@
     </row>
     <row r="133" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>43</v>
@@ -10151,7 +10190,7 @@
     </row>
     <row r="134" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>219</v>
@@ -10186,7 +10225,7 @@
     </row>
     <row r="135" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>678</v>
@@ -10195,10 +10234,10 @@
         <v>679</v>
       </c>
       <c r="D135" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>1489</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>1490</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>10</v>
@@ -10224,7 +10263,7 @@
     </row>
     <row r="136" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>681</v>
@@ -10233,10 +10272,10 @@
         <v>682</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>1491</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>1492</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>20</v>
@@ -10262,7 +10301,7 @@
     </row>
     <row r="137" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>684</v>
@@ -10271,10 +10310,10 @@
         <v>685</v>
       </c>
       <c r="D137" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>1493</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>1494</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>629</v>
@@ -10300,7 +10339,7 @@
     </row>
     <row r="138" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>220</v>
@@ -10338,7 +10377,7 @@
     </row>
     <row r="139" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>687</v>
@@ -10347,7 +10386,7 @@
         <v>688</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>17</v>
@@ -10373,7 +10412,7 @@
     </row>
     <row r="140" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>690</v>
@@ -10382,7 +10421,7 @@
         <v>691</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>17</v>
@@ -10408,7 +10447,7 @@
     </row>
     <row r="141" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>693</v>
@@ -10417,10 +10456,10 @@
         <v>694</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>1497</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>1498</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>7</v>
@@ -10446,7 +10485,7 @@
     </row>
     <row r="142" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>696</v>
@@ -10455,7 +10494,7 @@
         <v>697</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>17</v>
@@ -10481,7 +10520,7 @@
     </row>
     <row r="143" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>221</v>
@@ -10519,7 +10558,7 @@
     </row>
     <row r="144" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>699</v>
@@ -10528,7 +10567,7 @@
         <v>700</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>17</v>
@@ -10554,7 +10593,7 @@
     </row>
     <row r="145" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1025</v>
@@ -10563,10 +10602,10 @@
         <v>1026</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>1501</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>1502</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>1027</v>
@@ -10592,7 +10631,7 @@
     </row>
     <row r="146" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>702</v>
@@ -10601,7 +10640,7 @@
         <v>703</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>17</v>
@@ -10627,7 +10666,7 @@
     </row>
     <row r="147" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>705</v>
@@ -10636,10 +10675,10 @@
         <v>706</v>
       </c>
       <c r="D147" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>1504</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>1505</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>7</v>
@@ -10665,7 +10704,7 @@
     </row>
     <row r="148" spans="1:12" ht="323" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>708</v>
@@ -10674,10 +10713,10 @@
         <v>709</v>
       </c>
       <c r="D148" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>1506</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>1507</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>20</v>
@@ -10703,7 +10742,7 @@
     </row>
     <row r="149" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>223</v>
@@ -10738,7 +10777,7 @@
     </row>
     <row r="150" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>225</v>
@@ -10776,7 +10815,7 @@
     </row>
     <row r="151" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>285</v>
@@ -10811,7 +10850,7 @@
     </row>
     <row r="152" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>289</v>
@@ -10846,7 +10885,7 @@
     </row>
     <row r="153" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>711</v>
@@ -10855,10 +10894,10 @@
         <v>712</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>1508</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>1509</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>12</v>
@@ -10884,7 +10923,7 @@
     </row>
     <row r="154" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>714</v>
@@ -10893,7 +10932,7 @@
         <v>715</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>17</v>
@@ -10919,7 +10958,7 @@
     </row>
     <row r="155" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>227</v>
@@ -10957,7 +10996,7 @@
     </row>
     <row r="156" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>717</v>
@@ -10966,10 +11005,10 @@
         <v>718</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>1511</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>1512</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>12</v>
@@ -10995,7 +11034,7 @@
     </row>
     <row r="157" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>720</v>
@@ -11004,7 +11043,7 @@
         <v>721</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>17</v>
@@ -11030,7 +11069,7 @@
     </row>
     <row r="158" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>293</v>
@@ -11068,7 +11107,7 @@
     </row>
     <row r="159" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>297</v>
@@ -11103,7 +11142,7 @@
     </row>
     <row r="160" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>723</v>
@@ -11112,7 +11151,7 @@
         <v>724</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>17</v>
@@ -11138,7 +11177,7 @@
     </row>
     <row r="161" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>726</v>
@@ -11147,7 +11186,7 @@
         <v>727</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>17</v>
@@ -11173,7 +11212,7 @@
     </row>
     <row r="162" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>301</v>
@@ -11211,7 +11250,7 @@
     </row>
     <row r="163" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1032</v>
@@ -11220,10 +11259,10 @@
         <v>304</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>1516</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>1517</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>305</v>
@@ -11249,16 +11288,16 @@
     </row>
     <row r="164" spans="1:12" ht="388" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>1034</v>
@@ -11281,7 +11320,7 @@
     </row>
     <row r="165" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>729</v>
@@ -11290,10 +11329,10 @@
         <v>730</v>
       </c>
       <c r="D165" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>1520</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>1521</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>20</v>
@@ -11319,7 +11358,7 @@
     </row>
     <row r="166" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>732</v>
@@ -11328,7 +11367,7 @@
         <v>733</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>17</v>
@@ -11354,7 +11393,7 @@
     </row>
     <row r="167" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>735</v>
@@ -11363,7 +11402,7 @@
         <v>736</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>17</v>
@@ -11389,7 +11428,7 @@
     </row>
     <row r="168" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>229</v>
@@ -11427,7 +11466,7 @@
     </row>
     <row r="169" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>739</v>
@@ -11436,13 +11475,13 @@
         <v>740</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H169" t="s">
         <v>175</v>
@@ -11462,7 +11501,7 @@
     </row>
     <row r="170" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>742</v>
@@ -11471,7 +11510,7 @@
         <v>743</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>17</v>
@@ -11497,7 +11536,7 @@
     </row>
     <row r="171" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>745</v>
@@ -11506,7 +11545,7 @@
         <v>746</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>17</v>
@@ -11532,7 +11571,7 @@
     </row>
     <row r="172" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>748</v>
@@ -11541,7 +11580,7 @@
         <v>749</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>17</v>
@@ -11567,7 +11606,7 @@
     </row>
     <row r="173" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>751</v>
@@ -11576,7 +11615,7 @@
         <v>752</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>17</v>
@@ -11602,7 +11641,7 @@
     </row>
     <row r="174" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>230</v>
@@ -11640,7 +11679,7 @@
     </row>
     <row r="175" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>232</v>
@@ -11678,7 +11717,7 @@
     </row>
     <row r="176" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>755</v>
@@ -11687,7 +11726,7 @@
         <v>756</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>17</v>
@@ -11713,7 +11752,7 @@
     </row>
     <row r="177" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>758</v>
@@ -11722,10 +11761,10 @@
         <v>759</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>1530</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>1531</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>7</v>
@@ -11751,7 +11790,7 @@
     </row>
     <row r="178" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>761</v>
@@ -11760,7 +11799,7 @@
         <v>762</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>17</v>
@@ -11786,7 +11825,7 @@
     </row>
     <row r="179" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>764</v>
@@ -11795,10 +11834,10 @@
         <v>765</v>
       </c>
       <c r="D179" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>1533</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>1534</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>15</v>
@@ -11824,7 +11863,7 @@
     </row>
     <row r="180" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>767</v>
@@ -11833,7 +11872,7 @@
         <v>768</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>17</v>
@@ -11859,7 +11898,7 @@
     </row>
     <row r="181" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>1036</v>
@@ -11868,10 +11907,10 @@
         <v>1037</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>1536</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>1537</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>295</v>
@@ -11897,7 +11936,7 @@
     </row>
     <row r="182" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>773</v>
@@ -11906,7 +11945,7 @@
         <v>774</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>17</v>
@@ -11932,7 +11971,7 @@
     </row>
     <row r="183" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>770</v>
@@ -11941,7 +11980,7 @@
         <v>771</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>17</v>
@@ -11967,7 +12006,7 @@
     </row>
     <row r="184" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>776</v>
@@ -11976,7 +12015,7 @@
         <v>777</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>17</v>
@@ -12002,7 +12041,7 @@
     </row>
     <row r="185" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>779</v>
@@ -12011,7 +12050,7 @@
         <v>780</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>17</v>
@@ -12037,7 +12076,7 @@
     </row>
     <row r="186" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>782</v>
@@ -12046,7 +12085,7 @@
         <v>783</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>17</v>
@@ -12072,7 +12111,7 @@
     </row>
     <row r="187" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>307</v>
@@ -12104,7 +12143,7 @@
     </row>
     <row r="188" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>785</v>
@@ -12113,7 +12152,7 @@
         <v>786</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>17</v>
@@ -12139,7 +12178,7 @@
     </row>
     <row r="189" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>788</v>
@@ -12148,7 +12187,7 @@
         <v>789</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>17</v>
@@ -12174,7 +12213,7 @@
     </row>
     <row r="190" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>55</v>
@@ -12212,7 +12251,7 @@
     </row>
     <row r="191" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>791</v>
@@ -12221,7 +12260,7 @@
         <v>792</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>17</v>
@@ -12247,7 +12286,7 @@
     </row>
     <row r="192" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>794</v>
@@ -12256,10 +12295,10 @@
         <v>795</v>
       </c>
       <c r="D192" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>1546</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>1547</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>12</v>
@@ -12285,7 +12324,7 @@
     </row>
     <row r="193" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>797</v>
@@ -12294,7 +12333,7 @@
         <v>798</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>17</v>
@@ -12320,7 +12359,7 @@
     </row>
     <row r="194" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>800</v>
@@ -12329,13 +12368,13 @@
         <v>801</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H194" t="s">
         <v>175</v>
@@ -12355,7 +12394,7 @@
     </row>
     <row r="195" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>803</v>
@@ -12364,10 +12403,10 @@
         <v>804</v>
       </c>
       <c r="D195" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E195" s="3" t="s">
         <v>1550</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>1551</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>12</v>
@@ -12393,7 +12432,7 @@
     </row>
     <row r="196" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>806</v>
@@ -12402,10 +12441,10 @@
         <v>807</v>
       </c>
       <c r="D196" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E196" s="3" t="s">
         <v>1552</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>1553</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>12</v>
@@ -12431,7 +12470,7 @@
     </row>
     <row r="197" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>809</v>
@@ -12440,10 +12479,10 @@
         <v>810</v>
       </c>
       <c r="D197" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>1554</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>1555</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>10</v>
@@ -12469,7 +12508,7 @@
     </row>
     <row r="198" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>812</v>
@@ -12478,10 +12517,10 @@
         <v>813</v>
       </c>
       <c r="D198" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>1556</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>1557</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>7</v>
@@ -12507,7 +12546,7 @@
     </row>
     <row r="199" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1040</v>
@@ -12516,7 +12555,7 @@
         <v>1041</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>1042</v>
@@ -12542,7 +12581,7 @@
     </row>
     <row r="200" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>234</v>
@@ -12580,7 +12619,7 @@
     </row>
     <row r="201" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>309</v>
@@ -12615,7 +12654,7 @@
     </row>
     <row r="202" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>58</v>
@@ -12653,7 +12692,7 @@
     </row>
     <row r="203" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>815</v>
@@ -12662,7 +12701,7 @@
         <v>816</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>17</v>
@@ -12688,7 +12727,7 @@
     </row>
     <row r="204" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>818</v>
@@ -12697,10 +12736,10 @@
         <v>819</v>
       </c>
       <c r="D204" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>1560</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>1561</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>12</v>
@@ -12726,7 +12765,7 @@
     </row>
     <row r="205" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>237</v>
@@ -12761,7 +12800,7 @@
     </row>
     <row r="206" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>822</v>
@@ -12770,7 +12809,7 @@
         <v>823</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>17</v>
@@ -12796,7 +12835,7 @@
     </row>
     <row r="207" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>825</v>
@@ -12805,7 +12844,7 @@
         <v>826</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>17</v>
@@ -12831,7 +12870,7 @@
     </row>
     <row r="208" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>828</v>
@@ -12840,7 +12879,7 @@
         <v>829</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>17</v>
@@ -12866,7 +12905,7 @@
     </row>
     <row r="209" spans="1:12" ht="272" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>828</v>
@@ -12875,7 +12914,7 @@
         <v>1044</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>17</v>
@@ -12901,7 +12940,7 @@
     </row>
     <row r="210" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>831</v>
@@ -12910,10 +12949,10 @@
         <v>832</v>
       </c>
       <c r="D210" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>1565</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>1566</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>12</v>
@@ -12939,7 +12978,7 @@
     </row>
     <row r="211" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>62</v>
@@ -12977,7 +13016,7 @@
     </row>
     <row r="212" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>834</v>
@@ -12986,7 +13025,7 @@
         <v>835</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>17</v>
@@ -13012,7 +13051,7 @@
     </row>
     <row r="213" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>837</v>
@@ -13021,10 +13060,10 @@
         <v>838</v>
       </c>
       <c r="D213" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>1568</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>1569</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>12</v>
@@ -13050,7 +13089,7 @@
     </row>
     <row r="214" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>840</v>
@@ -13059,7 +13098,7 @@
         <v>841</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>30</v>
@@ -13085,7 +13124,7 @@
     </row>
     <row r="215" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>843</v>
@@ -13094,10 +13133,10 @@
         <v>844</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>1571</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>1572</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>12</v>
@@ -13123,7 +13162,7 @@
     </row>
     <row r="216" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>846</v>
@@ -13132,7 +13171,7 @@
         <v>847</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>17</v>
@@ -13158,7 +13197,7 @@
     </row>
     <row r="217" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>849</v>
@@ -13167,7 +13206,7 @@
         <v>850</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>17</v>
@@ -13193,7 +13232,7 @@
     </row>
     <row r="218" spans="1:12" ht="356" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>852</v>
@@ -13202,7 +13241,7 @@
         <v>853</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>17</v>
@@ -13228,7 +13267,7 @@
     </row>
     <row r="219" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>855</v>
@@ -13237,10 +13276,10 @@
         <v>856</v>
       </c>
       <c r="D219" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E219" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>1577</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>20</v>
@@ -13266,7 +13305,7 @@
     </row>
     <row r="220" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>240</v>
@@ -13304,7 +13343,7 @@
     </row>
     <row r="221" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>858</v>
@@ -13313,7 +13352,7 @@
         <v>859</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>17</v>
@@ -13339,7 +13378,7 @@
     </row>
     <row r="222" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>861</v>
@@ -13348,7 +13387,7 @@
         <v>862</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>17</v>
@@ -13374,7 +13413,7 @@
     </row>
     <row r="223" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>864</v>
@@ -13383,7 +13422,7 @@
         <v>865</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>17</v>
@@ -13409,7 +13448,7 @@
     </row>
     <row r="224" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>867</v>
@@ -13447,7 +13486,7 @@
     </row>
     <row r="225" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>870</v>
@@ -13456,7 +13495,7 @@
         <v>871</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>17</v>
@@ -13482,7 +13521,7 @@
     </row>
     <row r="226" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>873</v>
@@ -13491,7 +13530,7 @@
         <v>874</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>17</v>
@@ -13517,7 +13556,7 @@
     </row>
     <row r="227" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>876</v>
@@ -13526,7 +13565,7 @@
         <v>877</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>17</v>
@@ -13552,7 +13591,7 @@
     </row>
     <row r="228" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>242</v>
@@ -13561,10 +13600,10 @@
         <v>879</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>7</v>
@@ -13590,7 +13629,7 @@
     </row>
     <row r="229" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>880</v>
@@ -13599,7 +13638,7 @@
         <v>881</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>17</v>
@@ -13625,7 +13664,7 @@
     </row>
     <row r="230" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>243</v>
@@ -13663,7 +13702,7 @@
     </row>
     <row r="231" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>883</v>
@@ -13672,7 +13711,7 @@
         <v>884</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>17</v>
@@ -13698,7 +13737,7 @@
     </row>
     <row r="232" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>886</v>
@@ -13707,10 +13746,10 @@
         <v>887</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>17</v>
@@ -13736,7 +13775,7 @@
     </row>
     <row r="233" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>889</v>
@@ -13745,7 +13784,7 @@
         <v>890</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>17</v>
@@ -13771,7 +13810,7 @@
     </row>
     <row r="234" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>892</v>
@@ -13780,7 +13819,7 @@
         <v>893</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>17</v>
@@ -13806,7 +13845,7 @@
     </row>
     <row r="235" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>895</v>
@@ -13815,7 +13854,7 @@
         <v>896</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>17</v>
@@ -13841,7 +13880,7 @@
     </row>
     <row r="236" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>898</v>
@@ -13850,7 +13889,7 @@
         <v>899</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>17</v>
@@ -13876,7 +13915,7 @@
     </row>
     <row r="237" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>901</v>
@@ -13885,13 +13924,13 @@
         <v>902</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H237" t="s">
         <v>175</v>
@@ -13911,7 +13950,7 @@
     </row>
     <row r="238" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>313</v>
@@ -13946,7 +13985,7 @@
     </row>
     <row r="239" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>313</v>
@@ -13979,9 +14018,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>904</v>
@@ -13989,11 +14028,14 @@
       <c r="C240" s="3" t="s">
         <v>905</v>
       </c>
+      <c r="D240" s="3" t="s">
+        <v>1594</v>
+      </c>
       <c r="F240" s="3" t="s">
         <v>429</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H240" t="s">
         <v>175</v>
@@ -14013,7 +14055,7 @@
     </row>
     <row r="241" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>245</v>
@@ -14021,7 +14063,7 @@
       <c r="C241" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E241" s="7" t="s">
@@ -14049,9 +14091,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>908</v>
@@ -14059,6 +14101,9 @@
       <c r="C242" s="3" t="s">
         <v>909</v>
       </c>
+      <c r="D242" s="3" t="s">
+        <v>1595</v>
+      </c>
       <c r="F242" s="3" t="s">
         <v>17</v>
       </c>
@@ -14081,9 +14126,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>911</v>
@@ -14091,6 +14136,9 @@
       <c r="C243" s="3" t="s">
         <v>912</v>
       </c>
+      <c r="D243" s="3" t="s">
+        <v>1596</v>
+      </c>
       <c r="F243" s="3" t="s">
         <v>17</v>
       </c>
@@ -14115,7 +14163,7 @@
     </row>
     <row r="244" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>316</v>
@@ -14151,9 +14199,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>914</v>
@@ -14161,6 +14209,12 @@
       <c r="C245" s="3" t="s">
         <v>915</v>
       </c>
+      <c r="D245" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>1598</v>
+      </c>
       <c r="F245" s="3" t="s">
         <v>7</v>
       </c>
@@ -14183,9 +14237,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>917</v>
@@ -14193,6 +14247,9 @@
       <c r="C246" s="3" t="s">
         <v>918</v>
       </c>
+      <c r="D246" s="3" t="s">
+        <v>1599</v>
+      </c>
       <c r="F246" s="3" t="s">
         <v>17</v>
       </c>
@@ -14215,9 +14272,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>920</v>
@@ -14225,6 +14282,9 @@
       <c r="C247" s="3" t="s">
         <v>921</v>
       </c>
+      <c r="D247" s="3" t="s">
+        <v>1600</v>
+      </c>
       <c r="F247" s="3" t="s">
         <v>17</v>
       </c>
@@ -14247,9 +14307,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>920</v>
@@ -14257,6 +14317,9 @@
       <c r="C248" s="3" t="s">
         <v>923</v>
       </c>
+      <c r="D248" s="3" t="s">
+        <v>1601</v>
+      </c>
       <c r="F248" s="3" t="s">
         <v>17</v>
       </c>
@@ -14279,9 +14342,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>925</v>
@@ -14289,6 +14352,9 @@
       <c r="C249" s="3" t="s">
         <v>926</v>
       </c>
+      <c r="D249" s="3" t="s">
+        <v>1602</v>
+      </c>
       <c r="F249" s="3" t="s">
         <v>60</v>
       </c>
@@ -14313,7 +14379,7 @@
     </row>
     <row r="250" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>246</v>
@@ -14349,9 +14415,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>928</v>
@@ -14359,6 +14425,12 @@
       <c r="C251" s="3" t="s">
         <v>929</v>
       </c>
+      <c r="D251" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>1604</v>
+      </c>
       <c r="F251" s="3" t="s">
         <v>20</v>
       </c>
@@ -14381,9 +14453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" ht="153" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>931</v>
@@ -14391,6 +14463,9 @@
       <c r="C252" s="3" t="s">
         <v>932</v>
       </c>
+      <c r="D252" s="3" t="s">
+        <v>1605</v>
+      </c>
       <c r="F252" s="3" t="s">
         <v>17</v>
       </c>
@@ -14415,13 +14490,13 @@
     </row>
     <row r="253" spans="1:12" ht="221" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1045</v>
+        <v>1606</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>355</v>
@@ -14451,9 +14526,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>934</v>
@@ -14461,6 +14536,9 @@
       <c r="C254" s="3" t="s">
         <v>935</v>
       </c>
+      <c r="D254" s="3" t="s">
+        <v>1607</v>
+      </c>
       <c r="F254" s="3" t="s">
         <v>17</v>
       </c>
@@ -14485,7 +14563,7 @@
     </row>
     <row r="255" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>937</v>
@@ -14517,7 +14595,7 @@
     </row>
     <row r="256" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>940</v>
@@ -14549,7 +14627,7 @@
     </row>
     <row r="257" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>943</v>
@@ -14561,7 +14639,7 @@
         <v>445</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H257" t="s">
         <v>175</v>
@@ -14581,7 +14659,7 @@
     </row>
     <row r="258" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>946</v>
@@ -14613,7 +14691,7 @@
     </row>
     <row r="259" spans="1:12" ht="306" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>247</v>
@@ -14651,7 +14729,7 @@
     </row>
     <row r="260" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>248</v>
@@ -14689,7 +14767,7 @@
     </row>
     <row r="261" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>950</v>
@@ -14721,7 +14799,7 @@
     </row>
     <row r="262" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>953</v>
@@ -14753,7 +14831,7 @@
     </row>
     <row r="263" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>956</v>
@@ -14785,7 +14863,7 @@
     </row>
     <row r="264" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>959</v>
@@ -14817,13 +14895,13 @@
     </row>
     <row r="265" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1047</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>295</v>
@@ -14835,7 +14913,7 @@
         <v>3</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J265" t="s">
         <v>9</v>
@@ -14849,13 +14927,13 @@
     </row>
     <row r="266" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>295</v>
@@ -14867,7 +14945,7 @@
         <v>3</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J266" t="s">
         <v>9</v>
@@ -14881,10 +14959,10 @@
     </row>
     <row r="267" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>962</v>
@@ -14913,7 +14991,7 @@
     </row>
     <row r="268" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>964</v>
@@ -14925,7 +15003,7 @@
         <v>429</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H268" t="s">
         <v>175</v>
@@ -14945,7 +15023,7 @@
     </row>
     <row r="269" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>967</v>
@@ -14977,7 +15055,7 @@
     </row>
     <row r="270" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>970</v>
@@ -15009,13 +15087,13 @@
     </row>
     <row r="271" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>1052</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>1034</v>
@@ -15024,7 +15102,7 @@
         <v>258</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J271" t="s">
         <v>9</v>
@@ -15038,7 +15116,7 @@
     </row>
     <row r="272" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>973</v>
@@ -15070,7 +15148,7 @@
     </row>
     <row r="273" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>976</v>
@@ -15102,7 +15180,7 @@
     </row>
     <row r="274" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>979</v>
@@ -15134,7 +15212,7 @@
     </row>
     <row r="275" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>982</v>
@@ -15166,7 +15244,7 @@
     </row>
     <row r="276" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>985</v>
@@ -15198,7 +15276,7 @@
     </row>
     <row r="277" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>988</v>
@@ -15230,7 +15308,7 @@
     </row>
     <row r="278" spans="1:12" ht="238" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>251</v>
@@ -15265,13 +15343,13 @@
     </row>
     <row r="279" spans="1:12" ht="187" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>357</v>
@@ -15303,7 +15381,7 @@
     </row>
     <row r="280" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>992</v>
@@ -15335,7 +15413,7 @@
     </row>
     <row r="281" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>995</v>
@@ -15367,7 +15445,7 @@
     </row>
     <row r="282" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>998</v>
@@ -15399,19 +15477,19 @@
     </row>
     <row r="283" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="F283" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="F283" s="3" t="s">
-        <v>1057</v>
-      </c>
       <c r="G283" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="J283" t="s">
         <v>9</v>
@@ -15425,7 +15503,7 @@
     </row>
     <row r="284" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>1001</v>
@@ -15457,7 +15535,7 @@
     </row>
     <row r="285" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>1004</v>
@@ -15489,7 +15567,7 @@
     </row>
     <row r="286" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>1007</v>
@@ -15521,7 +15599,7 @@
     </row>
     <row r="287" spans="1:12" ht="340" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>252</v>
@@ -15559,13 +15637,13 @@
     </row>
     <row r="288" spans="1:12" ht="372" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>359</v>
@@ -15597,7 +15675,7 @@
     </row>
     <row r="289" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>254</v>
@@ -15635,7 +15713,7 @@
     </row>
     <row r="290" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>256</v>
@@ -15673,7 +15751,7 @@
     </row>
     <row r="291" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>1010</v>
@@ -15705,7 +15783,7 @@
     </row>
     <row r="292" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>1013</v>
@@ -15737,7 +15815,7 @@
     </row>
     <row r="293" spans="1:12" ht="404" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>328</v>

--- a/slr/ei/data.xlsx
+++ b/slr/ei/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/slr/ei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4095CAE-E03D-7B42-8BAA-D95A95E8C11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52044E1E-D620-4643-B4F0-75C826B6BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="3980" windowWidth="35700" windowHeight="27300" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
+    <workbookView xWindow="12700" yWindow="11380" windowWidth="35700" windowHeight="27300" xr2:uid="{460A44D5-7B78-304A-AD21-9906C8862B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="1648">
   <si>
     <t>#</t>
   </si>
@@ -4923,6 +4923,126 @@
   </si>
   <si>
     <t>This multicountry study empirically explores the institutional determinants of macro-level entrepreneurship. Findings suggest that a society’s normative, cultural-cognitive, and regulative institutions are related to entrepreneurial activity. Normative and cultural-cognitive institutions’ descriptive power in explaining entrepreneurial activity is higher than regulative institutions’ or per capita gross domestic product. This suggests that differences in values, beliefs, and abilities may play a greater role than purely economic considerations of opportunity and transaction costs. Specific attention is given to opportunity- and necessity-motivated entrepreneurship due to their relationship to economic development.</t>
+  </si>
+  <si>
+    <t>To develop a body of evidence-based knowledge on entrepreneurship, findings and contributions from the positivist, narrative, and design research traditions in this area need to be combined. Therefore, a framework for research synthesis in terms of social mechanisms, contextual conditions, and outcome patterns is developed in this paper. Subsequently, a synthesis of the existing body of research findings on entrepreneurial opportunities serves to illustrate how this framework can be applied and provides results that inform entrepreneurial action. Finally, we discuss how this synthetic approach serves to systematically connect the fragmented landscape of entrepreneurship research, and thus gradually build a cumulative and evidence-based body of knowledge on entrepreneurship.</t>
+  </si>
+  <si>
+    <t>This paper studies the role of entrepreneurs in investment tie formation in science-based entrepreneurial firms. Specifically, we address why investment tie formation is path dependent for some firms but more amenable to intentional management for others. Using longitudinal case studies, our evidence suggests that early investment tie formation is path dependent because scientific entrepreneurs typically approach only one or a few prospective investors from within their institutional context. Differences in experience between early investors affect the professionalization of entrepreneurial teams (or lack thereof), which influences the extent to which subsequent investment tie formation becomes more amenable to intentional management or remains path dependent.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial groups face a twinned challenge: recognizing and implementing new ideas. We argue that entrepreneurship is less about importing ideas than about generating new knowledge by recombining resources. In contrast to the brokerage plus closure perspective, we address the overlapping of cohesive group structures. In analyzing the network processes of intercohesion, we identify a distinctive network topology: the structural fold. Actors at the structural fold are multiple insiders, facilitating familiar access to diverse resources. Our data set records personnel ties among the largest 1,696 Hungarian enterprises from 1987 to 2001. First, we test whether structural folding contributes to group performance. Second, because entrepreneurship is a process of generative disruption, we test the contribution of structural folds to group instability. Third, we move from dynamic methods to historical network analysis and demonstrate that coherence is a property of interwoven lineages of cohesion, built up through repeated separation and reunification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A growing body of scholarship studies the emergence of moral markets— sectors offering market-based solutions to social and environmental issues. To date, researchers have largely focused on the drivers of firm entry into these values-laden sectors. However, we know comparatively little about postentry dynamics or the determinants of firm survival in moral markets. This study examines how regional institutional logics—spatially bound, socially constructed meaning systems that legitimize specific practices and goals within a community—shape firm survival in emerging moral markets. Using a unique panel of firms entering the first eight years of the U.S. green building supply industry, we find that (1) a regional market logic amplifies the impacts of market forces by increasing the positive impact of market adoption and the negative impact of localized competition on firm survival, (2) a regional proenvironmental logic dampens the impacts of adoption and competition on firm survival, and (3) institutional complexity—the co-occurrence of both market and proenvironmental logics in a region—negates the traditional advantages of de alio (diversifying incumbent) firms, creating an opportunity for de novo (entrepreneurial entrant) firms to compete more effectively. Our study integrates research on industry emergence, institutional logics, and firm survival to address important gaps in our knowledge regarding the evolution and growth of environmental entrepreneurship in moral markets. </t>
+  </si>
+  <si>
+    <t>entrepreneurship, social responsibility, sustainability/corporate environmentalism, culture, strategy, organization and management theory, institutional theory, organizational ecology (population ecology), organizational identity and identification</t>
+  </si>
+  <si>
+    <t>While 30 years of entrepreneurial orientation (EO) research has demonstrated that EO provides critical insights into questions of organizational-level strategy and performance, how EO manifests inside organizations has received little attention. Instead of assuming that EO is homogenous, we examine the questions of how and why EO might pervade organizations heterogeneously along three dimensions: vertically across hierarchy levels, horizontally across business units, and temporally as an organization develops. We then present three models for how EO can dynamically pervade organizations and discuss how examining the pervasiveness of EO can further our understanding of entrepreneurship as an organizational phenomenon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing on a database of 149 university spin-offs, we investigated the impact of network capability (NC), defined as a firm’s ability to develop and utilize inter-organizational relationships, and entrepreneurial orientation (EO) on organizational performance. Not only do the results suggest that a spin-off’s performance is positively influenced by its NC, but the findings also indicate that a spin-off’s EO fosters competitive advantages. Although no direct relationship is apparent between EO and sales growth, sales per employee, or profit attainment, moderated hierarchical regression analyses reveal that NC strengthens the relationship between EO and spin-off performance. In sum, our research shows that a spin-off’s organizational propensities and processes that enhance innovation, constructive risk taking, and proactiveness in dealing with competitors per se do not enhance growth and secure long-term survival. However, we found that NC moderates the relationship between EO and organizational performance. </t>
+  </si>
+  <si>
+    <t>Entrepreneurial orientation, Network capability, University spin-off, Technology transfer, Academic entrepreneurship</t>
+  </si>
+  <si>
+    <t>This study examines how characteristics of university departments impact students’ selfemployment intentions. We argue that four organizational-level factors (entrepreneurship education, entrepreneurship support programs, industry ties, and research orientation) increase such intentions. Using a data set of 1530 business students and 132 professors at 25 university departments, this study shows that entrepreneurship education and industry ties are related to self-employment intentions only for the males in our sample. A negative effect of the department’s research orientation was found. Our study suggests that the organizational context plays an important but gender-specific role in shaping future entrepreneurs. Implications of our findings are discussed.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial orientation (EO) is a key ingredient for firm success. Nonetheless, an important message from past findings is that simply examining the direct effect of EO on firm performance provides an incomplete picture. Prior studies examined various internal and external factors that influence the EO–performance relationship. However, learning orientation (LO) has been a missing link in the examination of the relationship. Using data from 213 medium-to-large UK firms, this study finds that LO mediates the EO-performance relationship, and the EO–LO–performance link is stronger for prospectors than analyzers. The findings indicate that LO must be in place to maximize the effect of EO on performance, and that LO is an important dimension, along with EO, to distinguish prospectors from analyzers.</t>
+  </si>
+  <si>
+    <t>Amidst the intensified discourse surrounding universities’ societal impact, social innovation and entrepreneurship (SIE) has emerged as a way to refocus universities’ engagement in sustainable development, particularly through their core mission of teaching and learning. Growing interest in SIE education over the decades has led to a proliferation of courses and programs offered in various disciplines by universities worldwide. Nevertheless, scholarly research unpacking the SIE educational processes remains scant and lacks multidisciplinary perspectives. Educators of SIE continue to face challenges in designing curricula and adopting appropriate teaching approaches. This study fills this gap by offering ample empirical evidence based on a documentary analysis of 53 syllabi from 43 distinctive courses accompanied by interviews with the academics responsible for the design of these courses across all eight publicly funded universities in Hong Kong. The analysis identifies multiple patterns within two major themes: the changing scope and positioning of SIE education and the varying orientations of SIE curricula. The findings provide valuable insights and identify areas for further exploration for the design of impactful SIE learning experiences for students. Furthermore, by situating the examination of SIE teaching and learning within the lens of curriculum theory, this study establishes a foundation for future research to undertake systematic and rigorous comparative analyses of curricula in diverse contexts.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship education, social entrepreneurship, social innovation, curriculum theory, higher education</t>
+  </si>
+  <si>
+    <t>In response to society’s growing focus on social and environmental challenges, universities worldwide are integrating social innovation and entrepreneurship (SIE) education into their curricula. This is a vital step towards achieving sustainable development. However, many SIE education initiatives struggle to maintain rigour and long-term sustainability due to inherent tensions within the university system. While the overall trend is promising, it is crucial to examine what underpins the varied development of SIE courses and programmes. Central to this inquiry are academics, whose agentic roles in educational changes have been acknowledged in the literature but remain understudied in the context of SIE education. Addressing this gap, the present study adopts an agent-based perspective to investigate academics’ experiences and perspectives as they design, implement, and drive innovations in SIE education. Drawing on interviews with 30 academics teaching and leading SIE courses and programmes across diverse disciplines and academic positions in Hong Kong’s eight publicly funded universities, the study reveals that their agency emerges through the reflexive processes of aligning motives and navigating structures. The analysis also identifies factors at multiple levels that condition academics’ agency and highlights the heterogeneity of their experiences based on their roles as professoriate, teaching, or practitioner academics. This study deepens understanding of the agency–structure interplay in SIE education, offering insights that can help university leaders and policymakers better support academics engaged in SIE education. The findings also add nuance to interpretations of the global proliferation of SIE programmes and enrich discourse on universities’ societal engagement through teaching.</t>
+  </si>
+  <si>
+    <t>Social innovation and entrepreneurship, higher education, academic agency, social impact, educational change</t>
+  </si>
+  <si>
+    <t>Although base of the pyramid markets are significant sources of entrepreneurial opportunities, the nature of entrepreneurship in these markets is not well understood. Additionally, these markets remain largely underserved by multinational enterprises (MNEs). Given theoretical and practical gaps associated with these issues, we integrate entrepreneurship, institutional, and network theories to discuss how the entrepreneurship process of MNEs is negatively affected in base of the pyramid markets. We then explain how partnerships with nongovernment organizations (NGOs) can offset such negative effects due to NGOs’ high degree of localized knowledge, social embeddedness within multiple informal networks, and ambidexterity in dealing with diverse stakeholder groups. Both economic and social benefits can result from such partnerships.</t>
+  </si>
+  <si>
+    <t>This study illuminates how new markets emerge and how social movements can effect cultural change through market creation. We suggest that social movements can fuel solutions to three challenges in creating new market segments: entrepreneurial production, the creation of collective producer identities, and the establishment of regular exchange between producers and consumers. We use qualitative data on the grassroots coalition movement that has spurred a market for grass-fed meat and dairy products in the United States since the early 1990s. Our analysis shows that the movement's participants mobilized broad cultural codes and that these codes motivated producers to enter and persist in a nascent market, shaped their choices about production and exchange technologies, enabled a collective identity, and formed the basis of the products' exchange value.</t>
+  </si>
+  <si>
+    <t>This research examines the interplay of opportunity evaluation and emotions as determinants of entrepreneurial exploitation using affect-as-information theory and the affective processing principle as conceptual bases. Three central assumptions are confirmed across two studies. The first is that the effects of opportunity characteristics on exploitation are mediated by evaluation. The second is that emotions influence exploitation decisions in addition to evaluation. Fear reduces exploitation, whereas joy and anger increase it. The third is that fear, joy, and anger influence evaluation’s effect on exploitation with higher levels of fear reducing and higher levels of joy and anger increasing the positive impact of evaluation on exploitation.</t>
+  </si>
+  <si>
+    <t>This paper sets out to explore contexts for entrepreneurship, illustrating how a contextualized view of entrepreneurship contributes to our understanding of the phenomenon. There is growing recognition in entrepreneurship research that economic behavior can be better understood within its historical, temporal, institutional, spatial, and social contexts, as these contexts provide individuals with opportunities and set boundaries for their actions. Context can be an asset and a liability for the nature and extent of entrepreneurship, but entrepreneurship can also impact contexts. The paper argues that context is important for understanding when, how, and why entrepreneurship happens and who becomes involved. Exploring the multiplicity of contexts and their impact on entrepreneurship, it identifies challenges researchers face in contextualizing entrepreneurship theory and offers possible ways forward.</t>
+  </si>
+  <si>
+    <t>Designing effective strategies for developing higher education students’ competencies, such as creativity and entrepreneurship, is crucial for their survival and self-realization in the technology-rich 21st century. This study is important as it addresses a significant research gap by designing and implementing self-determination theory (SDT)-guided case-based instruction (CBI) to enhance digital learners’ creativity and entrepreneurship. A class of 34 master’s students in a taught programme focused on digital learning and technology at a public university in Hong Kong participated in the study. First, the students took a pre-test to assess their creativity and entrepreneurship. They then experienced a 13-week course designed using SDT-guided CBI. After the intervention, they completed a post-test on their creativity and entrepreneurship. Additionally, the researchers conducted interviews with 10 participants. These processes allowed the researchers to evaluate the effectiveness of the SDT-guided CBI learning activities and to gather participants’ suggestions for improving the design. The results of a repeated measures analysis of variance indicated the feasibility of SDT-guided CBI. Significant improvements in creativity were observed from the pre-test to the post-test, from the pre-test to the mid-test, and from the mid-test to the post-test. Meanwhile, students’ entrepreneurship significantly increased from the pre-test to the posttest, although the increases from the pre-test to the mid-test and from the mid-test to the post-test were slight and did not reach a significant level. From the qualitative data, students provided suggestions such as selecting effective case studies, using entrepreneurs’ stories, supporting entrepreneurial experiences, promoting technology-enhanced learning, and advocating for collaborative learning to improve the design. The findings imply that SDTguided CBI has the potential to continually enhance students’ creativity and entrepreneurship throughout its implementation, with significant opportunities for improvement based on the implementation experiences.</t>
+  </si>
+  <si>
+    <t>While much prior research has focused upon how the Technology Transfer Offices (TTOs) and other contextual characteristics shape the level of university spinoffs (USO), there is little research on entrepreneurial potential among individual academics, and to the best of our knowledge, no comparative studies with other types of spinoffs exist to date. In this paper we focus on an important but neglected aspect of knowledge transfer from academic research involving the indirect flow to entrepreneurship by individuals with a university education background who become involved in new venture creation by means of corporate spinoffs (CSO) after gaining industrial experience, rather than leaving university employment to found a new venture as an academic spinoff. We argue that the commercial knowledge gained by industry experience is potentially more valuable for entrepreneurial performance compared to the academic knowledge gained by additional research experience at a university. This leads us to posit that the average performance of CSOs will be higher than comparable USOs, but the gains from founder‘s prior experiences will be relatively higher among USOs whose founders lack the corporate context. We investigate these propositions in a comparative study tracking the complete population of USOs and CSOs among the Swedish knowledge-intensive sectors between 1994 and 2002.</t>
+  </si>
+  <si>
+    <t>University spinoffs, Corporate spinoffs, Technology Transfer Offices</t>
+  </si>
+  <si>
+    <t>New venture success often depends on how the founding team collectively understands its world, estimates effects of possible actions, makes decisions, and allocates appropriate resources. Drawing on recent work in managerial cognition and entrepreneurship, this article argues for the importance of examining cognition at the team level. New venture strategy is used as a springboard to discuss collective cognition, although other important critical decision domains in new ventures may also be used to illustrate the arguments. In this and other such decision domains, collective cognition mediates between individual cognitions and firm actions and performance. A method for assessing entrepreneurial top management team cognition is developed and then tested in an exploratory study of technology-based new ventures. Two structural characteristics of collective cognition (differentiation and integration) are strongly related to firm performance, suggesting interesting opportunities for future entrepreneurship research in cognition.</t>
+  </si>
+  <si>
+    <t>Emerging economies face daunting economic development challenges. Economists and management consultants have generally suggested global solutions that typically focus solely on foreign direct investment. Yet a resource-based theory approach offers an alternative view of economic development in which a foundation of resources within a region gestates entrepreneurial activity. While theoretically appealing, it is unclear in application how such resources can be developed or which types of resources are most important to develop. This paper extends the application of resource-based theory to entrepreneurial economic development in subsistence economies. A qualitative study of contrasting entrepreneurial activity in Chiapas (Mexico) and Atenas (Costa Rica) highlights the primacy of intangible resources—and especially entrepreneurial orientation resources—in the gestation of entrepreneurial activity.</t>
+  </si>
+  <si>
+    <t>Venture capitalists (VCs) contribute to entrepreneurial firms by engaging in governance activities, such as providing services and monitoring the entrepreneurial firm’s operations and performance. This study examines the role and influence of the VC’s governance activities on 93 Dutch entrepreneurial firms. Results suggest that while the VC’s governance activities may help to stimulate the use of the entrepreneurial firm’s control systems, they also moderate the relationship between the entrepreneurial firm’s use of control systems and its financial performance. It appears in particular that cost control systems contribute positively to the entrepreneurial firm’s financial performance when the VC provides service activities. However, the use of cost control systems tends to be negatively related to the entrepreneurial firm’s financial performance when the VC is highly focused on monitoring.</t>
+  </si>
+  <si>
+    <t>This article examines two potential causal mechanisms underlying the observed entrepreneurial orientation (EO)–performance relationship. We find empirical support for the notion that EO might be a performance–variance-enhancing strategic orientation rather than a performance–mean-enhancing orientation. With such a conceptualization, performance variance (along with, or instead of, mean performance) and failure take center stage. To address the question of “where to from here,” we discuss a number of research opportunities that we believe are going to make important contributions to the entrepreneurship and strategy literature.</t>
+  </si>
+  <si>
+    <t>The relationships between gender, entrepreneurial self-efficacy, and entrepreneurial intentions were examined for two sample groups: adolescents and adult master of business administration (MBA) students. Similar gender effects on entrepreneurial self-efficacy are shown for both groups and support earlier research on the relationship between self-efficacy and career intentions. Additionally, the effects of entrepreneurship education in MBA programs on entrepreneurial self-efficacy proved stronger for women than for men. Implications for educators and policy makers were discussed, and areas for future research outlined.</t>
+  </si>
+  <si>
+    <t>In this editorial, I seek to inform entrepreneurship scholars about the significance of unequivocal “A” level entrepreneurship journals for the continued ascent of entrepreneurship as a universally recognized “mainstream” academic field. Drawing insights from research on intellectual movements and the evolution of academic fields, I take stock of entrepreneurship as a community of scholars mobilizing elements of distinctiveness and legitimacy to elevate the status of the field. Doing so, I offer three field level observations on the primacy of unequivocal “A” journals for advancing the field. I then delineate a set of role related implications for members of the community, including authors, senior scholars, and newcomers to the field. Finally, I entertain some common objections to emphasizing journal status as a mechanism in entrepreneurship's upsurge to “mainstream” academic field.</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Academic field, Journal, Community</t>
+  </si>
+  <si>
+    <t>Entrepreneurship is a perilous endeavor. Contextual changes, such as nascent technology emergence or new industry creation, can spawn entrepreneurial opportunities; however, these changes do not instantaneously create the resources and structures that new firms need to survive. This study examines the creation and configuration of the contextual infrastructure necessary for nascent technology entrepreneurship in new industries. Using the case of nanotechnology, I show how the elements of infrastructure emerge and configure through systemic coevolution. The data highlight how boundary crossing and obfuscation induces the configuration of separate elements into a cohesive infrastructure through heightened interaction and interdependence of organizations and institutions, both private and public.</t>
+  </si>
+  <si>
+    <t>This study explores the performance implications of internal resources and external networks for entrepreneurial firms. A relationship of trust among network members is essential because of the high risk during the initial start-up stage. However, once high-tech firms initiate mass production and enter the growth stage, whether trust influences competitiveness more than resources becomes uncertain. This study examines Taiwanese firms to elucidate the main influences on firm competitiveness. In conclusion, the result indicates the competitiveness of high-tech firms during the growth stage is determined by firm resources and the willingness of support firms to cooperate—where willingness is determined by the trust of the support firms in the high-tech firm but is unrelated to firm resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study focuses on exploring the elements needed for entrepreneurship education in the future for generating economic, social and environmental sustainability for the community and for developing future leaders through understanding the existing entrepreneurship related policies, programmes, modules and the perception of teenagers of entrepreneurship skills to realise the importance of a mindset of entrepreneurship and the ways of integrating multidisciplinary knowledge for developing entrepreneurship spirit to meet the challenges of the future. This topic has not been comprehensively explored in the past. After conducting quantitative analysis on 95 undergraduate students of a postsecondary institution in Hong Kong on entrepreneurship skills, the regression results presented in this paper found “entrepreneurship skills include implementation skill” can explain about 33percent of the change in the dependent variable of “sustainable skill sets include building a positive mindset”. And, the mean scores of “entrepreneurship skills include creativity and risk-taking are the same as 4.02 out of a 5-point scale while “dislike handling paperwork with details”, “dislike facing people I don’t know” and “dislike being challenges” received the lowest scores of 2.6, 2.7 and 2.7 respectively. With regard to the qualitative analysis of existing entrepreneurship related programmes, it is found that business, management, finance and contemporary issues are the common elements in existing programmes of which the skills of creativity, risk-taking, socialization, handling details and challenges are lacking. When analysing the meeting notes of UNESCO, APEID in February, 2015 of nine countries (India, Pakistan, Sri Lanka, Indonesia, Malaysia, Philippines, China Hong Kong, Japan, and Republic of Korea), there is a trend on the importance of entrepreneurship and innovation mindset with three common concerns, that is, a lack of competent teachers teaching entrepreneurship programmes, a lack of industry exposure and a lack of government support. This paper highlights the key elements of future entrepreneurship related programmes for sustainability. Both educators and policy makers not only need to respond to the ecosystem of entrepreneurship education, but also need to co-produce relevant and meaningful entrepreneurship related modules and programmes which focus on soft skills development for building a positive mindset for handling challenges of the future. </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Education, Sustainability, Creativity, Risk-Taking, Co-Produce</t>
+  </si>
+  <si>
+    <t>Network-based resource capital such as political capital, social capital, and reputational capital are critical in providing firms with special access to various resources and legitimacy in emerging markets. However, how these generic nonmarket forms of capital are transformed into value-adding, industry-specific, and firm-specific uses, which subsequently enhance firm competitiveness, remained unanswered. Adopting a dynamic capability approach, this paper posits that corporate entrepreneurship performs a unique role of resource capital configuration and transformation in emerging market firms by continuously renewing firm competences so that congruence with the changing environment can be achieved. Building on this conceptualization, we argue that the positive effects of network-based resource capital on firm performance are channele